--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.187292</v>
+                  <v>0.0758843</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.183982</v>
+                  <v>0.0735374</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.179004</v>
+                  <v>0.0747241</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.176892</v>
+                  <v>0.0728557</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.17022</v>
+                  <v>0.0725507</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.163509</v>
+                  <v>0.0714322</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.156318</v>
+                  <v>0.0708246</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.146334</v>
+                  <v>0.0693053</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.231139</v>
+                  <v>0.124614</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.228081</v>
+                  <v>0.123047</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.225517</v>
+                  <v>0.122218</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.222864</v>
+                  <v>0.118435</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.21893</v>
+                  <v>0.116689</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.214659</v>
+                  <v>0.115717</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.209928</v>
+                  <v>0.109993</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.20518</v>
+                  <v>0.107112</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.200207</v>
+                  <v>0.105066</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.195783</v>
+                  <v>0.09945279999999999</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.189275</v>
+                  <v>0.096415</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.181574</v>
+                  <v>0.095169</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.174132</v>
+                  <v>0.0909674</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.16528</v>
+                  <v>0.0868884</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.243142</v>
+                  <v>0.151432</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.239615</v>
+                  <v>0.147713</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.236139</v>
+                  <v>0.144473</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.232566</v>
+                  <v>0.139768</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.227385</v>
+                  <v>0.136365</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.222635</v>
+                  <v>0.132397</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.217695</v>
+                  <v>0.128003</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.212684</v>
+                  <v>0.123668</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.20734</v>
+                  <v>0.11902</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.20071</v>
+                  <v>0.114459</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.194395</v>
+                  <v>0.110177</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.186684</v>
+                  <v>0.105099</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.181061</v>
+                  <v>0.100138</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.169795</v>
+                  <v>0.0948865</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.248879</v>
+                  <v>0.159129</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.244774</v>
+                  <v>0.155682</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.241026</v>
+                  <v>0.151681</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.236858</v>
+                  <v>0.147442</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.232237</v>
+                  <v>0.142735</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.227177</v>
+                  <v>0.138002</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22226</v>
+                  <v>0.13371</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.216502</v>
+                  <v>0.128795</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.2114</v>
+                  <v>0.124254</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.204573</v>
+                  <v>0.119526</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.198267</v>
+                  <v>0.114363</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.191099</v>
+                  <v>0.109704</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.183731</v>
+                  <v>0.104862</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.172869</v>
+                  <v>0.09999089999999999</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.161871</v>
+                  <v>0.0946162</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.247769</v>
+                  <v>0.15835</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.243592</v>
+                  <v>0.15497</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239389</v>
+                  <v>0.150224</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.234805</v>
+                  <v>0.146313</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.230401</v>
+                  <v>0.141574</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.224628</v>
+                  <v>0.136479</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.218949</v>
+                  <v>0.131705</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.213275</v>
+                  <v>0.126692</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.206692</v>
+                  <v>0.121648</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.200398</v>
+                  <v>0.117033</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.193096</v>
+                  <v>0.11206</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.185345</v>
+                  <v>0.106931</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177726</v>
+                  <v>0.102032</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.167032</v>
+                  <v>0.09696100000000001</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.250983</v>
+                  <v>0.160578</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.246922</v>
+                  <v>0.156625</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.24234</v>
+                  <v>0.152507</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.237651</v>
+                  <v>0.147923</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.232612</v>
+                  <v>0.143473</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.2275</v>
+                  <v>0.13856</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.222083</v>
+                  <v>0.133469</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.215699</v>
+                  <v>0.128556</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.209667</v>
+                  <v>0.12351</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.202946</v>
+                  <v>0.118643</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.196222</v>
+                  <v>0.113741</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.188555</v>
+                  <v>0.108914</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179944</v>
+                  <v>0.10394</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.169766</v>
+                  <v>0.0991664</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.251071</v>
+                  <v>0.161075</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.247217</v>
+                  <v>0.157541</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.243499</v>
+                  <v>0.153279</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.239247</v>
+                  <v>0.148419</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.233745</v>
+                  <v>0.143563</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.228775</v>
+                  <v>0.138814</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.223145</v>
+                  <v>0.134187</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.217208</v>
+                  <v>0.129007</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.211176</v>
+                  <v>0.12419</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.20484</v>
+                  <v>0.11903</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.197888</v>
+                  <v>0.114376</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.190605</v>
+                  <v>0.109255</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.182097</v>
+                  <v>0.104203</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.1719</v>
+                  <v>0.0994004</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.251299</v>
+                  <v>0.162128</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.248019</v>
+                  <v>0.158397</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.244127</v>
+                  <v>0.154147</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.239723</v>
+                  <v>0.14983</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.23491</v>
+                  <v>0.144916</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.229923</v>
+                  <v>0.140152</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.224131</v>
+                  <v>0.134967</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.218559</v>
+                  <v>0.13013</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.212431</v>
+                  <v>0.125065</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.206093</v>
+                  <v>0.120187</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.199207</v>
+                  <v>0.11521</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.192019</v>
+                  <v>0.110418</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.183749</v>
+                  <v>0.105437</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.174303</v>
+                  <v>0.100497</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.162838</v>
+                  <v>0.0955758</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.249639</v>
+                  <v>0.159347</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.245731</v>
+                  <v>0.155292</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.241243</v>
+                  <v>0.150618</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.236498</v>
+                  <v>0.145909</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.231101</v>
+                  <v>0.140882</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.225563</v>
+                  <v>0.135883</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.219876</v>
+                  <v>0.130815</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.213794</v>
+                  <v>0.125838</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.207545</v>
+                  <v>0.121049</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.200654</v>
+                  <v>0.115996</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.193435</v>
+                  <v>0.111038</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.185456</v>
+                  <v>0.106266</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.175966</v>
+                  <v>0.101484</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.16491</v>
+                  <v>0.0965124</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.251293</v>
+                  <v>0.16875</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.247604</v>
+                  <v>0.165253</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.243229</v>
+                  <v>0.160171</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.237169</v>
+                  <v>0.155079</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.232007</v>
+                  <v>0.150172</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.226576</v>
+                  <v>0.144364</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.221042</v>
+                  <v>0.13909</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.214901</v>
+                  <v>0.133975</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.208636</v>
+                  <v>0.128653</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.201996</v>
+                  <v>0.123312</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.195117</v>
+                  <v>0.118196</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.18742</v>
+                  <v>0.113081</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.178418</v>
+                  <v>0.107936</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.167876</v>
+                  <v>0.102763</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.250586</v>
+                  <v>0.170695</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.247147</v>
+                  <v>0.16605</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.242923</v>
+                  <v>0.159252</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.238252</v>
+                  <v>0.154279</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.2333</v>
+                  <v>0.149255</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.227843</v>
+                  <v>0.143908</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.206229</v>
+                  <v>0.161517</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.206842</v>
+                  <v>0.161284</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.206135</v>
+                  <v>0.161565</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.206722</v>
+                  <v>0.161071</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.206327</v>
+                  <v>0.160359</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.206321</v>
+                  <v>0.160506</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.206192</v>
+                  <v>0.15986</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.205238</v>
+                  <v>0.159816</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224944</v>
+                  <v>0.168688</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.224007</v>
+                  <v>0.169131</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.222663</v>
+                  <v>0.168269</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.221498</v>
+                  <v>0.167974</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.221017</v>
+                  <v>0.166866</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.220245</v>
+                  <v>0.165758</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.219581</v>
+                  <v>0.165987</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.218457</v>
+                  <v>0.165494</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.217573</v>
+                  <v>0.16521</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.217195</v>
+                  <v>0.164933</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.216497</v>
+                  <v>0.165109</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.215746</v>
+                  <v>0.164374</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.214832</v>
+                  <v>0.16526</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.21423</v>
+                  <v>0.16427</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.228939</v>
+                  <v>0.178874</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.227393</v>
+                  <v>0.177374</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227107</v>
+                  <v>0.174788</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.224972</v>
+                  <v>0.175042</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.224321</v>
+                  <v>0.173708</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.223063</v>
+                  <v>0.172923</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.221902</v>
+                  <v>0.171732</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.220735</v>
+                  <v>0.171195</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.219663</v>
+                  <v>0.170385</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.219014</v>
+                  <v>0.16947</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21802</v>
+                  <v>0.169146</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.217046</v>
+                  <v>0.167972</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.216342</v>
+                  <v>0.167047</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.215854</v>
+                  <v>0.166171</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.229763</v>
+                  <v>0.182408</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.228245</v>
+                  <v>0.180152</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.226658</v>
+                  <v>0.179135</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225711</v>
+                  <v>0.177671</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224436</v>
+                  <v>0.176913</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.223405</v>
+                  <v>0.175601</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.222302</v>
+                  <v>0.175113</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.22123</v>
+                  <v>0.173758</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.220403</v>
+                  <v>0.172944</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219849</v>
+                  <v>0.172182</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.218845</v>
+                  <v>0.170881</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.217926</v>
+                  <v>0.170105</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.217302</v>
+                  <v>0.169022</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.216228</v>
+                  <v>0.167998</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.215748</v>
+                  <v>0.166696</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.229059</v>
+                  <v>0.182395</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.227574</v>
+                  <v>0.181008</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.226449</v>
+                  <v>0.179806</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.22552</v>
+                  <v>0.17875</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.224386</v>
+                  <v>0.177572</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.223346</v>
+                  <v>0.176431</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.222174</v>
+                  <v>0.175317</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.221052</v>
+                  <v>0.174244</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.220193</v>
+                  <v>0.173258</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.219293</v>
+                  <v>0.172136</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.218512</v>
+                  <v>0.171204</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.217698</v>
+                  <v>0.1701</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.216983</v>
+                  <v>0.168996</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.215886</v>
+                  <v>0.167839</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.231128</v>
+                  <v>0.183252</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.229816</v>
+                  <v>0.181965</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228207</v>
+                  <v>0.1809</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.226759</v>
+                  <v>0.17956</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.225621</v>
+                  <v>0.178444</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.224178</v>
+                  <v>0.177204</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.223074</v>
+                  <v>0.176229</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.221867</v>
+                  <v>0.175094</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.220973</v>
+                  <v>0.173923</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.22015</v>
+                  <v>0.172914</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.219205</v>
+                  <v>0.171849</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.218341</v>
+                  <v>0.170806</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.217394</v>
+                  <v>0.169616</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.216569</v>
+                  <v>0.168566</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.238485</v>
+                  <v>0.183672</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.233573</v>
+                  <v>0.182468</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.230278</v>
+                  <v>0.181136</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.227726</v>
+                  <v>0.179973</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.225567</v>
+                  <v>0.178796</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.224477</v>
+                  <v>0.177617</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.223515</v>
+                  <v>0.176429</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.222424</v>
+                  <v>0.17535</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.221344</v>
+                  <v>0.174264</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.220256</v>
+                  <v>0.173141</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.219415</v>
+                  <v>0.172009</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.218492</v>
+                  <v>0.17091</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.217706</v>
+                  <v>0.169647</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.216915</v>
+                  <v>0.168518</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.235879</v>
+                  <v>0.184283</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.232276</v>
+                  <v>0.182809</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.229777</v>
+                  <v>0.181471</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.227738</v>
+                  <v>0.18041</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.226186</v>
+                  <v>0.179197</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.224924</v>
+                  <v>0.177969</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.223825</v>
+                  <v>0.176773</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.222639</v>
+                  <v>0.175576</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.221594</v>
+                  <v>0.174482</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.220637</v>
+                  <v>0.173485</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.219782</v>
+                  <v>0.172365</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.218899</v>
+                  <v>0.171213</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.218093</v>
+                  <v>0.170121</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.217262</v>
+                  <v>0.168956</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.216542</v>
+                  <v>0.167807</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.233106</v>
+                  <v>0.183413</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.230117</v>
+                  <v>0.181973</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.227957</v>
+                  <v>0.180669</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.226393</v>
+                  <v>0.17938</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.224926</v>
+                  <v>0.178213</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.223667</v>
+                  <v>0.177024</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223096</v>
+                  <v>0.1759</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.221964</v>
+                  <v>0.174756</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.221041</v>
+                  <v>0.173618</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.220161</v>
+                  <v>0.172618</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.219251</v>
+                  <v>0.171472</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.218443</v>
+                  <v>0.170374</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.217652</v>
+                  <v>0.169252</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.216747</v>
+                  <v>0.167996</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.233339</v>
+                  <v>0.183665</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.230313</v>
+                  <v>0.182248</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.228265</v>
+                  <v>0.180916</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.226554</v>
+                  <v>0.179671</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.225147</v>
+                  <v>0.178468</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.223895</v>
+                  <v>0.177247</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.222836</v>
+                  <v>0.176109</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.221859</v>
+                  <v>0.174977</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.220818</v>
+                  <v>0.173851</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.219893</v>
+                  <v>0.172825</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.219067</v>
+                  <v>0.171717</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.218239</v>
+                  <v>0.170493</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.217829</v>
+                  <v>0.16948</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.21699</v>
+                  <v>0.168276</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.234758</v>
+                  <v>0.194016</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.231578</v>
+                  <v>0.191328</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.229123</v>
+                  <v>0.189598</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.227302</v>
+                  <v>0.188097</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.225811</v>
+                  <v>0.186404</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.22452</v>
+                  <v>0.18492</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.209873</v>
+                  <v>0.160011</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.211012</v>
+                  <v>0.159645</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.210745</v>
+                  <v>0.160429</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.211549</v>
+                  <v>0.16075</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.212704</v>
+                  <v>0.160315</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.211818</v>
+                  <v>0.159973</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.212862</v>
+                  <v>0.160079</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.227673</v>
+                  <v>0.168025</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.226193</v>
+                  <v>0.168796</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.226517</v>
+                  <v>0.167658</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.225181</v>
+                  <v>0.168587</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.224215</v>
+                  <v>0.167476</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.224629</v>
+                  <v>0.167025</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.224124</v>
+                  <v>0.166834</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.22305</v>
+                  <v>0.166437</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.222995</v>
+                  <v>0.165414</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.221534</v>
+                  <v>0.165111</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.221762</v>
+                  <v>0.165088</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.221599</v>
+                  <v>0.165158</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.220998</v>
+                  <v>0.165465</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.21979</v>
+                  <v>0.163999</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.233436</v>
+                  <v>0.183329</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.232471</v>
+                  <v>0.179675</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.231226</v>
+                  <v>0.178149</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.230275</v>
+                  <v>0.177462</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.229388</v>
+                  <v>0.17597</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.228411</v>
+                  <v>0.175113</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.227283</v>
+                  <v>0.174344</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.226614</v>
+                  <v>0.173993</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.225598</v>
+                  <v>0.171814</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.225321</v>
+                  <v>0.170931</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.224224</v>
+                  <v>0.170148</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.223667</v>
+                  <v>0.169615</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.222733</v>
+                  <v>0.168269</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.222081</v>
+                  <v>0.16735</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.235696</v>
+                  <v>0.184032</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.234257</v>
+                  <v>0.182749</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.233102</v>
+                  <v>0.181447</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.231628</v>
+                  <v>0.179598</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.230805</v>
+                  <v>0.178697</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.229469</v>
+                  <v>0.177654</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.228368</v>
+                  <v>0.176255</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.227503</v>
+                  <v>0.175428</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.226573</v>
+                  <v>0.17424</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.225474</v>
+                  <v>0.172949</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.224613</v>
+                  <v>0.171806</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.223838</v>
+                  <v>0.170594</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.223185</v>
+                  <v>0.170093</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.222298</v>
+                  <v>0.168872</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.236836</v>
+                  <v>0.185726</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.235449</v>
+                  <v>0.183999</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.234269</v>
+                  <v>0.182938</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.232952</v>
+                  <v>0.181135</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.231637</v>
+                  <v>0.179973</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.230491</v>
+                  <v>0.178698</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.229579</v>
+                  <v>0.177695</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.22827</v>
+                  <v>0.176204</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.227342</v>
+                  <v>0.175252</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.226352</v>
+                  <v>0.174049</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.225524</v>
+                  <v>0.172976</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.22462</v>
+                  <v>0.171947</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.223724</v>
+                  <v>0.170843</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.222897</v>
+                  <v>0.169567</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.222256</v>
+                  <v>0.168423</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.236524</v>
+                  <v>0.18501</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.234957</v>
+                  <v>0.183444</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.23352</v>
+                  <v>0.182209</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.232314</v>
+                  <v>0.180939</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.231079</v>
+                  <v>0.179538</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.230032</v>
+                  <v>0.178374</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.228745</v>
+                  <v>0.177105</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.227756</v>
+                  <v>0.176068</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.226814</v>
+                  <v>0.17492</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.225878</v>
+                  <v>0.173763</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.225063</v>
+                  <v>0.172585</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.224187</v>
+                  <v>0.171417</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.223308</v>
+                  <v>0.170196</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.222776</v>
+                  <v>0.168965</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.238898</v>
+                  <v>0.185483</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.236543</v>
+                  <v>0.184099</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.234982</v>
+                  <v>0.182697</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.233183</v>
+                  <v>0.181365</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.231928</v>
+                  <v>0.180176</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.230557</v>
+                  <v>0.178976</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.229474</v>
+                  <v>0.177749</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.228263</v>
+                  <v>0.176552</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.22724</v>
+                  <v>0.175408</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.226241</v>
+                  <v>0.174248</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.225489</v>
+                  <v>0.172985</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.224505</v>
+                  <v>0.171824</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.223735</v>
+                  <v>0.170566</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.222895</v>
+                  <v>0.169184</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.239711</v>
+                  <v>0.185985</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.237182</v>
+                  <v>0.184496</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.235335</v>
+                  <v>0.183031</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.233933</v>
+                  <v>0.181718</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.232964</v>
+                  <v>0.180566</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.231522</v>
+                  <v>0.179185</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.230428</v>
+                  <v>0.177916</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.228937</v>
+                  <v>0.176813</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227841</v>
+                  <v>0.175551</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.226936</v>
+                  <v>0.174353</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.226475</v>
+                  <v>0.173202</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.22552</v>
+                  <v>0.171937</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.22466</v>
+                  <v>0.17075</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.223865</v>
+                  <v>0.169515</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.239576</v>
+                  <v>0.186463</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.237213</v>
+                  <v>0.184955</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.235342</v>
+                  <v>0.18356</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.233703</v>
+                  <v>0.182079</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.232291</v>
+                  <v>0.180726</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.230896</v>
+                  <v>0.17949</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.229691</v>
+                  <v>0.178267</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.22859</v>
+                  <v>0.177074</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.227856</v>
+                  <v>0.175816</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.226983</v>
+                  <v>0.174614</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.226085</v>
+                  <v>0.173493</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.225282</v>
+                  <v>0.172224</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.224461</v>
+                  <v>0.171118</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.223722</v>
+                  <v>0.169817</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.223001</v>
+                  <v>0.168563</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.237285</v>
+                  <v>0.18529</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.235374</v>
+                  <v>0.183782</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.2337</v>
+                  <v>0.182436</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.232315</v>
+                  <v>0.181045</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.230895</v>
+                  <v>0.17969</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.229728</v>
+                  <v>0.178501</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.228673</v>
+                  <v>0.177279</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.227668</v>
+                  <v>0.176081</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.226699</v>
+                  <v>0.174818</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.225807</v>
+                  <v>0.173736</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.224951</v>
+                  <v>0.1725</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.224143</v>
+                  <v>0.17131</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.223409</v>
+                  <v>0.170121</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.223041</v>
+                  <v>0.168793</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.238591</v>
+                  <v>0.194838</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.236406</v>
+                  <v>0.192446</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.234698</v>
+                  <v>0.189943</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.233163</v>
+                  <v>0.188461</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.231711</v>
+                  <v>0.187379</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.230522</v>
+                  <v>0.18564</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.229318</v>
+                  <v>0.184108</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2825,7 +2824,7 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="0.4"/>
+          <max val="0.3"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -3223,8 +3222,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3249,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.195642</v>
+        <v>0.179142</v>
       </c>
       <c r="C2" t="n">
-        <v>0.198389</v>
+        <v>0.20273</v>
       </c>
       <c r="D2" t="n">
-        <v>0.215516</v>
+        <v>0.213307</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.186747</v>
+        <v>0.176101</v>
       </c>
       <c r="C3" t="n">
-        <v>0.200372</v>
+        <v>0.205907</v>
       </c>
       <c r="D3" t="n">
-        <v>0.216969</v>
+        <v>0.21258</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.182954</v>
+        <v>0.174034</v>
       </c>
       <c r="C4" t="n">
-        <v>0.200292</v>
+        <v>0.205979</v>
       </c>
       <c r="D4" t="n">
-        <v>0.217661</v>
+        <v>0.213112</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.176517</v>
+        <v>0.170191</v>
       </c>
       <c r="C5" t="n">
-        <v>0.201234</v>
+        <v>0.209361</v>
       </c>
       <c r="D5" t="n">
-        <v>0.217418</v>
+        <v>0.212631</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.172264</v>
+        <v>0.166824</v>
       </c>
       <c r="C6" t="n">
-        <v>0.20216</v>
+        <v>0.209771</v>
       </c>
       <c r="D6" t="n">
-        <v>0.217547</v>
+        <v>0.213057</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.165686</v>
+        <v>0.161156</v>
       </c>
       <c r="C7" t="n">
-        <v>0.203101</v>
+        <v>0.212198</v>
       </c>
       <c r="D7" t="n">
-        <v>0.216206</v>
+        <v>0.213285</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.15654</v>
+        <v>0.156035</v>
       </c>
       <c r="C8" t="n">
-        <v>0.203931</v>
+        <v>0.212838</v>
       </c>
       <c r="D8" t="n">
-        <v>0.216763</v>
+        <v>0.21332</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148537</v>
+        <v>0.148161</v>
       </c>
       <c r="C9" t="n">
-        <v>0.203282</v>
+        <v>0.221051</v>
       </c>
       <c r="D9" t="n">
-        <v>0.234508</v>
+        <v>0.230269</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229791</v>
+        <v>0.228816</v>
       </c>
       <c r="C10" t="n">
-        <v>0.221441</v>
+        <v>0.221254</v>
       </c>
       <c r="D10" t="n">
-        <v>0.232848</v>
+        <v>0.228995</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.226247</v>
+        <v>0.224659</v>
       </c>
       <c r="C11" t="n">
-        <v>0.221445</v>
+        <v>0.221604</v>
       </c>
       <c r="D11" t="n">
-        <v>0.232202</v>
+        <v>0.2281</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.223945</v>
+        <v>0.22204</v>
       </c>
       <c r="C12" t="n">
-        <v>0.221515</v>
+        <v>0.222925</v>
       </c>
       <c r="D12" t="n">
-        <v>0.231208</v>
+        <v>0.227224</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.220523</v>
+        <v>0.218795</v>
       </c>
       <c r="C13" t="n">
-        <v>0.219714</v>
+        <v>0.22253</v>
       </c>
       <c r="D13" t="n">
-        <v>0.230151</v>
+        <v>0.226411</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218367</v>
+        <v>0.215742</v>
       </c>
       <c r="C14" t="n">
-        <v>0.219063</v>
+        <v>0.222293</v>
       </c>
       <c r="D14" t="n">
-        <v>0.229491</v>
+        <v>0.225285</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213351</v>
+        <v>0.211689</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219199</v>
+        <v>0.221653</v>
       </c>
       <c r="D15" t="n">
-        <v>0.228438</v>
+        <v>0.224794</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208426</v>
+        <v>0.208548</v>
       </c>
       <c r="C16" t="n">
-        <v>0.218715</v>
+        <v>0.220815</v>
       </c>
       <c r="D16" t="n">
-        <v>0.22771</v>
+        <v>0.223676</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203625</v>
+        <v>0.203048</v>
       </c>
       <c r="C17" t="n">
-        <v>0.217922</v>
+        <v>0.221037</v>
       </c>
       <c r="D17" t="n">
-        <v>0.227091</v>
+        <v>0.223143</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198252</v>
+        <v>0.198838</v>
       </c>
       <c r="C18" t="n">
-        <v>0.217279</v>
+        <v>0.220699</v>
       </c>
       <c r="D18" t="n">
-        <v>0.226182</v>
+        <v>0.222432</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193449</v>
+        <v>0.19415</v>
       </c>
       <c r="C19" t="n">
-        <v>0.216816</v>
+        <v>0.220633</v>
       </c>
       <c r="D19" t="n">
-        <v>0.225669</v>
+        <v>0.221866</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187295</v>
+        <v>0.187773</v>
       </c>
       <c r="C20" t="n">
-        <v>0.216426</v>
+        <v>0.21949</v>
       </c>
       <c r="D20" t="n">
-        <v>0.224784</v>
+        <v>0.221302</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.180368</v>
+        <v>0.181508</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215801</v>
+        <v>0.219331</v>
       </c>
       <c r="D21" t="n">
-        <v>0.223599</v>
+        <v>0.220565</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.173439</v>
+        <v>0.173569</v>
       </c>
       <c r="C22" t="n">
-        <v>0.215303</v>
+        <v>0.219456</v>
       </c>
       <c r="D22" t="n">
-        <v>0.223145</v>
+        <v>0.219633</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.163786</v>
+        <v>0.165083</v>
       </c>
       <c r="C23" t="n">
-        <v>0.214152</v>
+        <v>0.233013</v>
       </c>
       <c r="D23" t="n">
-        <v>0.238267</v>
+        <v>0.233661</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242063</v>
+        <v>0.240682</v>
       </c>
       <c r="C24" t="n">
-        <v>0.231116</v>
+        <v>0.230439</v>
       </c>
       <c r="D24" t="n">
-        <v>0.237106</v>
+        <v>0.232434</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.238533</v>
+        <v>0.237113</v>
       </c>
       <c r="C25" t="n">
-        <v>0.228556</v>
+        <v>0.230168</v>
       </c>
       <c r="D25" t="n">
-        <v>0.235019</v>
+        <v>0.231019</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.235135</v>
+        <v>0.23315</v>
       </c>
       <c r="C26" t="n">
-        <v>0.226712</v>
+        <v>0.228938</v>
       </c>
       <c r="D26" t="n">
-        <v>0.234011</v>
+        <v>0.229918</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.231211</v>
+        <v>0.229066</v>
       </c>
       <c r="C27" t="n">
-        <v>0.22543</v>
+        <v>0.22802</v>
       </c>
       <c r="D27" t="n">
-        <v>0.232709</v>
+        <v>0.228689</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.227498</v>
+        <v>0.2242</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2246</v>
+        <v>0.227112</v>
       </c>
       <c r="D28" t="n">
-        <v>0.231817</v>
+        <v>0.227615</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.22189</v>
+        <v>0.219823</v>
       </c>
       <c r="C29" t="n">
-        <v>0.223538</v>
+        <v>0.226369</v>
       </c>
       <c r="D29" t="n">
-        <v>0.230454</v>
+        <v>0.226909</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.216335</v>
+        <v>0.215125</v>
       </c>
       <c r="C30" t="n">
-        <v>0.222202</v>
+        <v>0.224808</v>
       </c>
       <c r="D30" t="n">
-        <v>0.229506</v>
+        <v>0.225945</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211403</v>
+        <v>0.210089</v>
       </c>
       <c r="C31" t="n">
-        <v>0.221119</v>
+        <v>0.223981</v>
       </c>
       <c r="D31" t="n">
-        <v>0.22829</v>
+        <v>0.225057</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205481</v>
+        <v>0.205138</v>
       </c>
       <c r="C32" t="n">
-        <v>0.220697</v>
+        <v>0.223465</v>
       </c>
       <c r="D32" t="n">
-        <v>0.22802</v>
+        <v>0.224269</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.199604</v>
+        <v>0.199472</v>
       </c>
       <c r="C33" t="n">
-        <v>0.219675</v>
+        <v>0.222634</v>
       </c>
       <c r="D33" t="n">
-        <v>0.226747</v>
+        <v>0.223498</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1939</v>
+        <v>0.19301</v>
       </c>
       <c r="C34" t="n">
-        <v>0.219013</v>
+        <v>0.221751</v>
       </c>
       <c r="D34" t="n">
-        <v>0.226154</v>
+        <v>0.223218</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186721</v>
+        <v>0.186403</v>
       </c>
       <c r="C35" t="n">
-        <v>0.21793</v>
+        <v>0.221572</v>
       </c>
       <c r="D35" t="n">
-        <v>0.225463</v>
+        <v>0.222562</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179116</v>
+        <v>0.178571</v>
       </c>
       <c r="C36" t="n">
-        <v>0.217101</v>
+        <v>0.221201</v>
       </c>
       <c r="D36" t="n">
-        <v>0.224643</v>
+        <v>0.221777</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169733</v>
+        <v>0.170056</v>
       </c>
       <c r="C37" t="n">
-        <v>0.216536</v>
+        <v>0.234403</v>
       </c>
       <c r="D37" t="n">
-        <v>0.239115</v>
+        <v>0.235205</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247083</v>
+        <v>0.245399</v>
       </c>
       <c r="C38" t="n">
-        <v>0.230041</v>
+        <v>0.232976</v>
       </c>
       <c r="D38" t="n">
-        <v>0.23751</v>
+        <v>0.233859</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.242349</v>
+        <v>0.242241</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228478</v>
+        <v>0.231915</v>
       </c>
       <c r="D39" t="n">
-        <v>0.235828</v>
+        <v>0.232664</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239362</v>
+        <v>0.238644</v>
       </c>
       <c r="C40" t="n">
-        <v>0.227368</v>
+        <v>0.230592</v>
       </c>
       <c r="D40" t="n">
-        <v>0.234301</v>
+        <v>0.231614</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234675</v>
+        <v>0.234296</v>
       </c>
       <c r="C41" t="n">
-        <v>0.226277</v>
+        <v>0.229622</v>
       </c>
       <c r="D41" t="n">
-        <v>0.232938</v>
+        <v>0.229871</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230572</v>
+        <v>0.229514</v>
       </c>
       <c r="C42" t="n">
-        <v>0.225052</v>
+        <v>0.228461</v>
       </c>
       <c r="D42" t="n">
-        <v>0.231879</v>
+        <v>0.228943</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.225395</v>
+        <v>0.225827</v>
       </c>
       <c r="C43" t="n">
-        <v>0.224152</v>
+        <v>0.227379</v>
       </c>
       <c r="D43" t="n">
-        <v>0.230737</v>
+        <v>0.227823</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220364</v>
+        <v>0.220582</v>
       </c>
       <c r="C44" t="n">
-        <v>0.223135</v>
+        <v>0.226598</v>
       </c>
       <c r="D44" t="n">
-        <v>0.229741</v>
+        <v>0.227032</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214984</v>
+        <v>0.215529</v>
       </c>
       <c r="C45" t="n">
-        <v>0.22209</v>
+        <v>0.2256</v>
       </c>
       <c r="D45" t="n">
-        <v>0.229012</v>
+        <v>0.225742</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209449</v>
+        <v>0.209379</v>
       </c>
       <c r="C46" t="n">
-        <v>0.221302</v>
+        <v>0.224432</v>
       </c>
       <c r="D46" t="n">
-        <v>0.227878</v>
+        <v>0.224313</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203193</v>
+        <v>0.203397</v>
       </c>
       <c r="C47" t="n">
-        <v>0.220673</v>
+        <v>0.223543</v>
       </c>
       <c r="D47" t="n">
-        <v>0.227098</v>
+        <v>0.223495</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197196</v>
+        <v>0.196991</v>
       </c>
       <c r="C48" t="n">
-        <v>0.219715</v>
+        <v>0.222895</v>
       </c>
       <c r="D48" t="n">
-        <v>0.22625</v>
+        <v>0.222564</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190698</v>
+        <v>0.190143</v>
       </c>
       <c r="C49" t="n">
-        <v>0.21897</v>
+        <v>0.222126</v>
       </c>
       <c r="D49" t="n">
-        <v>0.225466</v>
+        <v>0.22182</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183111</v>
+        <v>0.181949</v>
       </c>
       <c r="C50" t="n">
-        <v>0.218333</v>
+        <v>0.221616</v>
       </c>
       <c r="D50" t="n">
-        <v>0.224756</v>
+        <v>0.221064</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174427</v>
+        <v>0.173339</v>
       </c>
       <c r="C51" t="n">
-        <v>0.217082</v>
+        <v>0.235912</v>
       </c>
       <c r="D51" t="n">
-        <v>0.240692</v>
+        <v>0.23548</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.163717</v>
+        <v>0.162709</v>
       </c>
       <c r="C52" t="n">
-        <v>0.216514</v>
+        <v>0.234821</v>
       </c>
       <c r="D52" t="n">
-        <v>0.238427</v>
+        <v>0.234084</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246407</v>
+        <v>0.247115</v>
       </c>
       <c r="C53" t="n">
-        <v>0.229775</v>
+        <v>0.233337</v>
       </c>
       <c r="D53" t="n">
-        <v>0.236165</v>
+        <v>0.232498</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242498</v>
+        <v>0.243175</v>
       </c>
       <c r="C54" t="n">
-        <v>0.228235</v>
+        <v>0.231882</v>
       </c>
       <c r="D54" t="n">
-        <v>0.234864</v>
+        <v>0.231173</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.238341</v>
+        <v>0.238404</v>
       </c>
       <c r="C55" t="n">
-        <v>0.227034</v>
+        <v>0.23055</v>
       </c>
       <c r="D55" t="n">
-        <v>0.233587</v>
+        <v>0.23004</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233836</v>
+        <v>0.233608</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225907</v>
+        <v>0.229372</v>
       </c>
       <c r="D56" t="n">
-        <v>0.232679</v>
+        <v>0.229323</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228419</v>
+        <v>0.228541</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224964</v>
+        <v>0.228275</v>
       </c>
       <c r="D57" t="n">
-        <v>0.23137</v>
+        <v>0.228241</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222761</v>
+        <v>0.223034</v>
       </c>
       <c r="C58" t="n">
-        <v>0.224029</v>
+        <v>0.227108</v>
       </c>
       <c r="D58" t="n">
-        <v>0.23037</v>
+        <v>0.227048</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217614</v>
+        <v>0.218097</v>
       </c>
       <c r="C59" t="n">
-        <v>0.222954</v>
+        <v>0.226237</v>
       </c>
       <c r="D59" t="n">
-        <v>0.229333</v>
+        <v>0.22559</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211862</v>
+        <v>0.212153</v>
       </c>
       <c r="C60" t="n">
-        <v>0.222025</v>
+        <v>0.225178</v>
       </c>
       <c r="D60" t="n">
-        <v>0.228329</v>
+        <v>0.225396</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.20635</v>
+        <v>0.206096</v>
       </c>
       <c r="C61" t="n">
-        <v>0.221201</v>
+        <v>0.224487</v>
       </c>
       <c r="D61" t="n">
-        <v>0.227531</v>
+        <v>0.223784</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200094</v>
+        <v>0.200048</v>
       </c>
       <c r="C62" t="n">
-        <v>0.220254</v>
+        <v>0.223716</v>
       </c>
       <c r="D62" t="n">
-        <v>0.226576</v>
+        <v>0.223022</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.19315</v>
+        <v>0.193349</v>
       </c>
       <c r="C63" t="n">
-        <v>0.219482</v>
+        <v>0.222782</v>
       </c>
       <c r="D63" t="n">
-        <v>0.226005</v>
+        <v>0.222348</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185431</v>
+        <v>0.185845</v>
       </c>
       <c r="C64" t="n">
-        <v>0.218654</v>
+        <v>0.221904</v>
       </c>
       <c r="D64" t="n">
-        <v>0.22509</v>
+        <v>0.221606</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177352</v>
+        <v>0.177167</v>
       </c>
       <c r="C65" t="n">
-        <v>0.21766</v>
+        <v>0.221114</v>
       </c>
       <c r="D65" t="n">
-        <v>0.224371</v>
+        <v>0.220611</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167405</v>
+        <v>0.16666</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216708</v>
+        <v>0.235577</v>
       </c>
       <c r="D66" t="n">
-        <v>0.238391</v>
+        <v>0.23473</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247888</v>
+        <v>0.248236</v>
       </c>
       <c r="C67" t="n">
-        <v>0.233178</v>
+        <v>0.234027</v>
       </c>
       <c r="D67" t="n">
-        <v>0.236986</v>
+        <v>0.233152</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.244116</v>
+        <v>0.244494</v>
       </c>
       <c r="C68" t="n">
-        <v>0.231566</v>
+        <v>0.232477</v>
       </c>
       <c r="D68" t="n">
-        <v>0.236078</v>
+        <v>0.231677</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239714</v>
+        <v>0.240008</v>
       </c>
       <c r="C69" t="n">
-        <v>0.229701</v>
+        <v>0.231293</v>
       </c>
       <c r="D69" t="n">
-        <v>0.234248</v>
+        <v>0.230411</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.234856</v>
+        <v>0.235364</v>
       </c>
       <c r="C70" t="n">
-        <v>0.227766</v>
+        <v>0.23005</v>
       </c>
       <c r="D70" t="n">
-        <v>0.233483</v>
+        <v>0.229304</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.229483</v>
+        <v>0.230641</v>
       </c>
       <c r="C71" t="n">
-        <v>0.226216</v>
+        <v>0.228862</v>
       </c>
       <c r="D71" t="n">
-        <v>0.232201</v>
+        <v>0.228157</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.224343</v>
+        <v>0.225399</v>
       </c>
       <c r="C72" t="n">
-        <v>0.224801</v>
+        <v>0.227918</v>
       </c>
       <c r="D72" t="n">
-        <v>0.231023</v>
+        <v>0.227108</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219004</v>
+        <v>0.219966</v>
       </c>
       <c r="C73" t="n">
-        <v>0.223522</v>
+        <v>0.226795</v>
       </c>
       <c r="D73" t="n">
-        <v>0.229845</v>
+        <v>0.226005</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213573</v>
+        <v>0.213902</v>
       </c>
       <c r="C74" t="n">
-        <v>0.222616</v>
+        <v>0.225582</v>
       </c>
       <c r="D74" t="n">
-        <v>0.229009</v>
+        <v>0.225003</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.207538</v>
+        <v>0.207687</v>
       </c>
       <c r="C75" t="n">
-        <v>0.221682</v>
+        <v>0.224742</v>
       </c>
       <c r="D75" t="n">
-        <v>0.228089</v>
+        <v>0.224017</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.201226</v>
+        <v>0.2017</v>
       </c>
       <c r="C76" t="n">
-        <v>0.220878</v>
+        <v>0.22394</v>
       </c>
       <c r="D76" t="n">
-        <v>0.227209</v>
+        <v>0.223178</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.194792</v>
+        <v>0.195321</v>
       </c>
       <c r="C77" t="n">
-        <v>0.219968</v>
+        <v>0.223152</v>
       </c>
       <c r="D77" t="n">
-        <v>0.226236</v>
+        <v>0.222511</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.187546</v>
+        <v>0.188136</v>
       </c>
       <c r="C78" t="n">
-        <v>0.219114</v>
+        <v>0.222321</v>
       </c>
       <c r="D78" t="n">
-        <v>0.225514</v>
+        <v>0.221718</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179477</v>
+        <v>0.179378</v>
       </c>
       <c r="C79" t="n">
-        <v>0.21796</v>
+        <v>0.22155</v>
       </c>
       <c r="D79" t="n">
-        <v>0.224783</v>
+        <v>0.220907</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169816</v>
+        <v>0.169168</v>
       </c>
       <c r="C80" t="n">
-        <v>0.217189</v>
+        <v>0.237949</v>
       </c>
       <c r="D80" t="n">
-        <v>0.240888</v>
+        <v>0.239782</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.24917</v>
+        <v>0.24951</v>
       </c>
       <c r="C81" t="n">
-        <v>0.238709</v>
+        <v>0.236025</v>
       </c>
       <c r="D81" t="n">
-        <v>0.238139</v>
+        <v>0.237211</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245534</v>
+        <v>0.245923</v>
       </c>
       <c r="C82" t="n">
-        <v>0.234665</v>
+        <v>0.234124</v>
       </c>
       <c r="D82" t="n">
-        <v>0.236193</v>
+        <v>0.234506</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241205</v>
+        <v>0.241574</v>
       </c>
       <c r="C83" t="n">
-        <v>0.230272</v>
+        <v>0.232548</v>
       </c>
       <c r="D83" t="n">
-        <v>0.234727</v>
+        <v>0.232672</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236217</v>
+        <v>0.236597</v>
       </c>
       <c r="C84" t="n">
-        <v>0.228276</v>
+        <v>0.230927</v>
       </c>
       <c r="D84" t="n">
-        <v>0.233571</v>
+        <v>0.231189</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.23115</v>
+        <v>0.231662</v>
       </c>
       <c r="C85" t="n">
-        <v>0.226354</v>
+        <v>0.22977</v>
       </c>
       <c r="D85" t="n">
-        <v>0.232486</v>
+        <v>0.229876</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.22584</v>
+        <v>0.227913</v>
       </c>
       <c r="C86" t="n">
-        <v>0.225194</v>
+        <v>0.228351</v>
       </c>
       <c r="D86" t="n">
-        <v>0.231148</v>
+        <v>0.228367</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220268</v>
+        <v>0.222349</v>
       </c>
       <c r="C87" t="n">
-        <v>0.224082</v>
+        <v>0.227276</v>
       </c>
       <c r="D87" t="n">
-        <v>0.230333</v>
+        <v>0.226995</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.214513</v>
+        <v>0.216455</v>
       </c>
       <c r="C88" t="n">
-        <v>0.223138</v>
+        <v>0.226191</v>
       </c>
       <c r="D88" t="n">
-        <v>0.229233</v>
+        <v>0.225848</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.20872</v>
+        <v>0.210712</v>
       </c>
       <c r="C89" t="n">
-        <v>0.222037</v>
+        <v>0.225298</v>
       </c>
       <c r="D89" t="n">
-        <v>0.228148</v>
+        <v>0.224692</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.20253</v>
+        <v>0.204448</v>
       </c>
       <c r="C90" t="n">
-        <v>0.221043</v>
+        <v>0.224282</v>
       </c>
       <c r="D90" t="n">
-        <v>0.227212</v>
+        <v>0.2238</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.19621</v>
+        <v>0.197986</v>
       </c>
       <c r="C91" t="n">
-        <v>0.220167</v>
+        <v>0.223568</v>
       </c>
       <c r="D91" t="n">
-        <v>0.226675</v>
+        <v>0.222913</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.18922</v>
+        <v>0.190822</v>
       </c>
       <c r="C92" t="n">
-        <v>0.219227</v>
+        <v>0.222682</v>
       </c>
       <c r="D92" t="n">
-        <v>0.22565</v>
+        <v>0.222229</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181737</v>
+        <v>0.183099</v>
       </c>
       <c r="C93" t="n">
-        <v>0.218348</v>
+        <v>0.22206</v>
       </c>
       <c r="D93" t="n">
-        <v>0.224933</v>
+        <v>0.221429</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172385</v>
+        <v>0.173609</v>
       </c>
       <c r="C94" t="n">
-        <v>0.217584</v>
+        <v>0.239079</v>
       </c>
       <c r="D94" t="n">
-        <v>0.241553</v>
+        <v>0.238715</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.250859</v>
+        <v>0.251127</v>
       </c>
       <c r="C95" t="n">
-        <v>0.236718</v>
+        <v>0.236403</v>
       </c>
       <c r="D95" t="n">
-        <v>0.23896</v>
+        <v>0.236327</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.247454</v>
+        <v>0.247679</v>
       </c>
       <c r="C96" t="n">
-        <v>0.233025</v>
+        <v>0.23439</v>
       </c>
       <c r="D96" t="n">
-        <v>0.237258</v>
+        <v>0.235256</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.243384</v>
+        <v>0.243713</v>
       </c>
       <c r="C97" t="n">
-        <v>0.230466</v>
+        <v>0.232758</v>
       </c>
       <c r="D97" t="n">
-        <v>0.236109</v>
+        <v>0.233268</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.23893</v>
+        <v>0.238984</v>
       </c>
       <c r="C98" t="n">
-        <v>0.228428</v>
+        <v>0.231163</v>
       </c>
       <c r="D98" t="n">
-        <v>0.234737</v>
+        <v>0.232023</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.233841</v>
+        <v>0.23426</v>
       </c>
       <c r="C99" t="n">
-        <v>0.226854</v>
+        <v>0.229711</v>
       </c>
       <c r="D99" t="n">
-        <v>0.233333</v>
+        <v>0.230774</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.22842</v>
+        <v>0.228904</v>
       </c>
       <c r="C100" t="n">
-        <v>0.225774</v>
+        <v>0.228486</v>
       </c>
       <c r="D100" t="n">
-        <v>0.231939</v>
+        <v>0.228719</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.222887</v>
+        <v>0.223479</v>
       </c>
       <c r="C101" t="n">
-        <v>0.224438</v>
+        <v>0.227319</v>
       </c>
       <c r="D101" t="n">
-        <v>0.230842</v>
+        <v>0.227634</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.217338</v>
+        <v>0.217934</v>
       </c>
       <c r="C102" t="n">
-        <v>0.22323</v>
+        <v>0.226301</v>
       </c>
       <c r="D102" t="n">
-        <v>0.229734</v>
+        <v>0.226454</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211246</v>
+        <v>0.211961</v>
       </c>
       <c r="C103" t="n">
-        <v>0.222226</v>
+        <v>0.225368</v>
       </c>
       <c r="D103" t="n">
-        <v>0.228745</v>
+        <v>0.225831</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.205191</v>
+        <v>0.20577</v>
       </c>
       <c r="C104" t="n">
-        <v>0.221321</v>
+        <v>0.224481</v>
       </c>
       <c r="D104" t="n">
-        <v>0.228334</v>
+        <v>0.224941</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.198701</v>
+        <v>0.199439</v>
       </c>
       <c r="C105" t="n">
-        <v>0.220403</v>
+        <v>0.22361</v>
       </c>
       <c r="D105" t="n">
-        <v>0.227567</v>
+        <v>0.224109</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191756</v>
+        <v>0.192339</v>
       </c>
       <c r="C106" t="n">
-        <v>0.219551</v>
+        <v>0.222805</v>
       </c>
       <c r="D106" t="n">
-        <v>0.226558</v>
+        <v>0.223263</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183655</v>
+        <v>0.184332</v>
       </c>
       <c r="C107" t="n">
-        <v>0.218703</v>
+        <v>0.221965</v>
       </c>
       <c r="D107" t="n">
-        <v>0.225364</v>
+        <v>0.222287</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174281</v>
+        <v>0.175109</v>
       </c>
       <c r="C108" t="n">
-        <v>0.217807</v>
+        <v>0.239513</v>
       </c>
       <c r="D108" t="n">
-        <v>0.241463</v>
+        <v>0.238062</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163136</v>
+        <v>0.164172</v>
       </c>
       <c r="C109" t="n">
-        <v>0.217049</v>
+        <v>0.236781</v>
       </c>
       <c r="D109" t="n">
-        <v>0.239123</v>
+        <v>0.235733</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.248276</v>
+        <v>0.248904</v>
       </c>
       <c r="C110" t="n">
-        <v>0.233872</v>
+        <v>0.234589</v>
       </c>
       <c r="D110" t="n">
-        <v>0.23716</v>
+        <v>0.233874</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.244432</v>
+        <v>0.244973</v>
       </c>
       <c r="C111" t="n">
-        <v>0.230982</v>
+        <v>0.232976</v>
       </c>
       <c r="D111" t="n">
-        <v>0.235593</v>
+        <v>0.232238</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238845</v>
+        <v>0.240498</v>
       </c>
       <c r="C112" t="n">
-        <v>0.228699</v>
+        <v>0.231338</v>
       </c>
       <c r="D112" t="n">
-        <v>0.234224</v>
+        <v>0.230711</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.235098</v>
+        <v>0.234153</v>
       </c>
       <c r="C113" t="n">
-        <v>0.227184</v>
+        <v>0.230055</v>
       </c>
       <c r="D113" t="n">
-        <v>0.232891</v>
+        <v>0.229415</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229952</v>
+        <v>0.228976</v>
       </c>
       <c r="C114" t="n">
-        <v>0.225804</v>
+        <v>0.228694</v>
       </c>
       <c r="D114" t="n">
-        <v>0.231719</v>
+        <v>0.228133</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.22447</v>
+        <v>0.223444</v>
       </c>
       <c r="C115" t="n">
-        <v>0.224567</v>
+        <v>0.227635</v>
       </c>
       <c r="D115" t="n">
-        <v>0.2307</v>
+        <v>0.227009</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.218571</v>
+        <v>0.217851</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223897</v>
+        <v>0.226549</v>
       </c>
       <c r="D116" t="n">
-        <v>0.229603</v>
+        <v>0.225983</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212706</v>
+        <v>0.211922</v>
       </c>
       <c r="C117" t="n">
-        <v>0.222937</v>
+        <v>0.225644</v>
       </c>
       <c r="D117" t="n">
-        <v>0.229282</v>
+        <v>0.225443</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206721</v>
+        <v>0.205769</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221904</v>
+        <v>0.224613</v>
       </c>
       <c r="D118" t="n">
-        <v>0.22817</v>
+        <v>0.224506</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200039</v>
+        <v>0.199357</v>
       </c>
       <c r="C119" t="n">
-        <v>0.221021</v>
+        <v>0.223765</v>
       </c>
       <c r="D119" t="n">
-        <v>0.227326</v>
+        <v>0.22364</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193259</v>
+        <v>0.192658</v>
       </c>
       <c r="C120" t="n">
-        <v>0.220072</v>
+        <v>0.22294</v>
       </c>
       <c r="D120" t="n">
-        <v>0.226523</v>
+        <v>0.222818</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185287</v>
+        <v>0.185221</v>
       </c>
       <c r="C121" t="n">
-        <v>0.219388</v>
+        <v>0.222134</v>
       </c>
       <c r="D121" t="n">
-        <v>0.225846</v>
+        <v>0.222106</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176532</v>
+        <v>0.176577</v>
       </c>
       <c r="C122" t="n">
-        <v>0.218463</v>
+        <v>0.22143</v>
       </c>
       <c r="D122" t="n">
-        <v>0.225185</v>
+        <v>0.221394</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.165675</v>
+        <v>0.165909</v>
       </c>
       <c r="C123" t="n">
-        <v>0.217607</v>
+        <v>0.236997</v>
       </c>
       <c r="D123" t="n">
-        <v>0.239528</v>
+        <v>0.236149</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.24776</v>
+        <v>0.24802</v>
       </c>
       <c r="C124" t="n">
-        <v>0.234058</v>
+        <v>0.235019</v>
       </c>
       <c r="D124" t="n">
-        <v>0.237608</v>
+        <v>0.234134</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.245245</v>
+        <v>0.244119</v>
       </c>
       <c r="C125" t="n">
-        <v>0.231038</v>
+        <v>0.233249</v>
       </c>
       <c r="D125" t="n">
-        <v>0.235845</v>
+        <v>0.232387</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.240882</v>
+        <v>0.239951</v>
       </c>
       <c r="C126" t="n">
-        <v>0.228958</v>
+        <v>0.231662</v>
       </c>
       <c r="D126" t="n">
-        <v>0.234293</v>
+        <v>0.23086</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236048</v>
+        <v>0.235051</v>
       </c>
       <c r="C127" t="n">
-        <v>0.22731</v>
+        <v>0.230346</v>
       </c>
       <c r="D127" t="n">
-        <v>0.233161</v>
+        <v>0.229566</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.231041</v>
+        <v>0.229809</v>
       </c>
       <c r="C128" t="n">
-        <v>0.225953</v>
+        <v>0.229116</v>
       </c>
       <c r="D128" t="n">
-        <v>0.231913</v>
+        <v>0.228348</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.225537</v>
+        <v>0.224331</v>
       </c>
       <c r="C129" t="n">
-        <v>0.224759</v>
+        <v>0.227911</v>
       </c>
       <c r="D129" t="n">
-        <v>0.230765</v>
+        <v>0.227184</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219798</v>
+        <v>0.218702</v>
       </c>
       <c r="C130" t="n">
-        <v>0.223676</v>
+        <v>0.226783</v>
       </c>
       <c r="D130" t="n">
-        <v>0.229754</v>
+        <v>0.226093</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.21389</v>
+        <v>0.212969</v>
       </c>
       <c r="C131" t="n">
-        <v>0.222677</v>
+        <v>0.225748</v>
       </c>
       <c r="D131" t="n">
-        <v>0.228845</v>
+        <v>0.225153</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207938</v>
+        <v>0.206987</v>
       </c>
       <c r="C132" t="n">
-        <v>0.221698</v>
+        <v>0.224864</v>
       </c>
       <c r="D132" t="n">
-        <v>0.227932</v>
+        <v>0.224162</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.201434</v>
+        <v>0.200752</v>
       </c>
       <c r="C133" t="n">
-        <v>0.22072</v>
+        <v>0.223955</v>
       </c>
       <c r="D133" t="n">
-        <v>0.226978</v>
+        <v>0.223328</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194158</v>
+        <v>0.194089</v>
       </c>
       <c r="C134" t="n">
-        <v>0.219891</v>
+        <v>0.223082</v>
       </c>
       <c r="D134" t="n">
-        <v>0.226206</v>
+        <v>0.222527</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.18691</v>
+        <v>0.18678</v>
       </c>
       <c r="C135" t="n">
-        <v>0.219</v>
+        <v>0.222296</v>
       </c>
       <c r="D135" t="n">
-        <v>0.225495</v>
+        <v>0.221789</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178269</v>
+        <v>0.178648</v>
       </c>
       <c r="C136" t="n">
-        <v>0.218686</v>
+        <v>0.2217</v>
       </c>
       <c r="D136" t="n">
-        <v>0.225187</v>
+        <v>0.221161</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168255</v>
+        <v>0.168477</v>
       </c>
       <c r="C137" t="n">
-        <v>0.217674</v>
+        <v>0.237493</v>
       </c>
       <c r="D137" t="n">
-        <v>0.241046</v>
+        <v>0.237149</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.249855</v>
+        <v>0.248853</v>
       </c>
       <c r="C138" t="n">
-        <v>0.235501</v>
+        <v>0.235382</v>
       </c>
       <c r="D138" t="n">
-        <v>0.238685</v>
+        <v>0.235046</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.246187</v>
+        <v>0.245045</v>
       </c>
       <c r="C139" t="n">
-        <v>0.232412</v>
+        <v>0.233613</v>
       </c>
       <c r="D139" t="n">
-        <v>0.237048</v>
+        <v>0.233189</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.241946</v>
+        <v>0.240851</v>
       </c>
       <c r="C140" t="n">
-        <v>0.230019</v>
+        <v>0.232047</v>
       </c>
       <c r="D140" t="n">
-        <v>0.235481</v>
+        <v>0.231615</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.235876</v>
+        <v>0.236063</v>
       </c>
       <c r="C141" t="n">
-        <v>0.228202</v>
+        <v>0.230628</v>
       </c>
       <c r="D141" t="n">
-        <v>0.233997</v>
+        <v>0.230233</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.230726</v>
+        <v>0.230982</v>
       </c>
       <c r="C142" t="n">
-        <v>0.226743</v>
+        <v>0.229306</v>
       </c>
       <c r="D142" t="n">
-        <v>0.232792</v>
+        <v>0.22899</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225332</v>
+        <v>0.225692</v>
       </c>
       <c r="C143" t="n">
-        <v>0.225421</v>
+        <v>0.228154</v>
       </c>
       <c r="D143" t="n">
-        <v>0.231701</v>
+        <v>0.227786</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.184765</v>
+        <v>0.178327</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204921</v>
+        <v>0.204759</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2146</v>
+        <v>0.214363</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.178152</v>
+        <v>0.175002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.207427</v>
+        <v>0.206836</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214608</v>
+        <v>0.214357</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.172983</v>
+        <v>0.170704</v>
       </c>
       <c r="C4" t="n">
-        <v>0.207878</v>
+        <v>0.208729</v>
       </c>
       <c r="D4" t="n">
-        <v>0.215181</v>
+        <v>0.214802</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.16885</v>
+        <v>0.168145</v>
       </c>
       <c r="C5" t="n">
-        <v>0.209703</v>
+        <v>0.210403</v>
       </c>
       <c r="D5" t="n">
-        <v>0.214456</v>
+        <v>0.21508</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.167289</v>
+        <v>0.165732</v>
       </c>
       <c r="C6" t="n">
-        <v>0.211341</v>
+        <v>0.211424</v>
       </c>
       <c r="D6" t="n">
-        <v>0.215133</v>
+        <v>0.215506</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.160615</v>
+        <v>0.159918</v>
       </c>
       <c r="C7" t="n">
-        <v>0.212715</v>
+        <v>0.212856</v>
       </c>
       <c r="D7" t="n">
-        <v>0.215399</v>
+        <v>0.215684</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.154965</v>
+        <v>0.155262</v>
       </c>
       <c r="C8" t="n">
-        <v>0.21424</v>
+        <v>0.214102</v>
       </c>
       <c r="D8" t="n">
-        <v>0.214918</v>
+        <v>0.214624</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.147675</v>
+        <v>0.146165</v>
       </c>
       <c r="C9" t="n">
-        <v>0.223554</v>
+        <v>0.223354</v>
       </c>
       <c r="D9" t="n">
-        <v>0.232775</v>
+        <v>0.232564</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229057</v>
+        <v>0.228328</v>
       </c>
       <c r="C10" t="n">
-        <v>0.22281</v>
+        <v>0.223417</v>
       </c>
       <c r="D10" t="n">
-        <v>0.230975</v>
+        <v>0.231152</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.225517</v>
+        <v>0.225293</v>
       </c>
       <c r="C11" t="n">
-        <v>0.223042</v>
+        <v>0.223264</v>
       </c>
       <c r="D11" t="n">
-        <v>0.230611</v>
+        <v>0.230434</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.221688</v>
+        <v>0.222213</v>
       </c>
       <c r="C12" t="n">
-        <v>0.223425</v>
+        <v>0.223617</v>
       </c>
       <c r="D12" t="n">
-        <v>0.229071</v>
+        <v>0.229033</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.219558</v>
+        <v>0.219551</v>
       </c>
       <c r="C13" t="n">
-        <v>0.223416</v>
+        <v>0.224309</v>
       </c>
       <c r="D13" t="n">
-        <v>0.228649</v>
+        <v>0.228786</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216295</v>
+        <v>0.216462</v>
       </c>
       <c r="C14" t="n">
-        <v>0.223275</v>
+        <v>0.223548</v>
       </c>
       <c r="D14" t="n">
-        <v>0.227319</v>
+        <v>0.227555</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212902</v>
+        <v>0.212679</v>
       </c>
       <c r="C15" t="n">
-        <v>0.222471</v>
+        <v>0.223038</v>
       </c>
       <c r="D15" t="n">
-        <v>0.226912</v>
+        <v>0.226724</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208491</v>
+        <v>0.208233</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222059</v>
+        <v>0.222289</v>
       </c>
       <c r="D16" t="n">
-        <v>0.225704</v>
+        <v>0.225621</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203546</v>
+        <v>0.203752</v>
       </c>
       <c r="C17" t="n">
-        <v>0.221911</v>
+        <v>0.222017</v>
       </c>
       <c r="D17" t="n">
-        <v>0.225084</v>
+        <v>0.225128</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198504</v>
+        <v>0.198271</v>
       </c>
       <c r="C18" t="n">
-        <v>0.22093</v>
+        <v>0.221525</v>
       </c>
       <c r="D18" t="n">
-        <v>0.224264</v>
+        <v>0.224032</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194347</v>
+        <v>0.193762</v>
       </c>
       <c r="C19" t="n">
-        <v>0.220988</v>
+        <v>0.221285</v>
       </c>
       <c r="D19" t="n">
-        <v>0.223466</v>
+        <v>0.223521</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188341</v>
+        <v>0.188229</v>
       </c>
       <c r="C20" t="n">
-        <v>0.220356</v>
+        <v>0.220418</v>
       </c>
       <c r="D20" t="n">
-        <v>0.223104</v>
+        <v>0.222938</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.182801</v>
+        <v>0.182379</v>
       </c>
       <c r="C21" t="n">
-        <v>0.220236</v>
+        <v>0.220358</v>
       </c>
       <c r="D21" t="n">
-        <v>0.222411</v>
+        <v>0.222214</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174712</v>
+        <v>0.174728</v>
       </c>
       <c r="C22" t="n">
-        <v>0.220095</v>
+        <v>0.220063</v>
       </c>
       <c r="D22" t="n">
-        <v>0.221741</v>
+        <v>0.22145</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165208</v>
+        <v>0.165618</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2334</v>
+        <v>0.233236</v>
       </c>
       <c r="D23" t="n">
-        <v>0.235728</v>
+        <v>0.235567</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241691</v>
+        <v>0.241657</v>
       </c>
       <c r="C24" t="n">
-        <v>0.231653</v>
+        <v>0.231754</v>
       </c>
       <c r="D24" t="n">
-        <v>0.234242</v>
+        <v>0.234825</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.23755</v>
+        <v>0.237549</v>
       </c>
       <c r="C25" t="n">
-        <v>0.230777</v>
+        <v>0.230826</v>
       </c>
       <c r="D25" t="n">
-        <v>0.233061</v>
+        <v>0.233163</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233299</v>
+        <v>0.233392</v>
       </c>
       <c r="C26" t="n">
-        <v>0.229575</v>
+        <v>0.229465</v>
       </c>
       <c r="D26" t="n">
-        <v>0.231928</v>
+        <v>0.231741</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.228861</v>
+        <v>0.229705</v>
       </c>
       <c r="C27" t="n">
-        <v>0.228614</v>
+        <v>0.228796</v>
       </c>
       <c r="D27" t="n">
-        <v>0.230286</v>
+        <v>0.230383</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.224414</v>
+        <v>0.224905</v>
       </c>
       <c r="C28" t="n">
-        <v>0.227275</v>
+        <v>0.227567</v>
       </c>
       <c r="D28" t="n">
-        <v>0.22944</v>
+        <v>0.229424</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220316</v>
+        <v>0.22048</v>
       </c>
       <c r="C29" t="n">
-        <v>0.226429</v>
+        <v>0.226754</v>
       </c>
       <c r="D29" t="n">
-        <v>0.228558</v>
+        <v>0.228506</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215443</v>
+        <v>0.21551</v>
       </c>
       <c r="C30" t="n">
-        <v>0.22567</v>
+        <v>0.225785</v>
       </c>
       <c r="D30" t="n">
-        <v>0.227774</v>
+        <v>0.227661</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.210595</v>
+        <v>0.210356</v>
       </c>
       <c r="C31" t="n">
-        <v>0.224459</v>
+        <v>0.224661</v>
       </c>
       <c r="D31" t="n">
-        <v>0.226411</v>
+        <v>0.226693</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205427</v>
+        <v>0.205745</v>
       </c>
       <c r="C32" t="n">
-        <v>0.223718</v>
+        <v>0.223822</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225483</v>
+        <v>0.225563</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.199851</v>
+        <v>0.200003</v>
       </c>
       <c r="C33" t="n">
-        <v>0.222864</v>
+        <v>0.22286</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224699</v>
+        <v>0.224606</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193887</v>
+        <v>0.193939</v>
       </c>
       <c r="C34" t="n">
-        <v>0.22221</v>
+        <v>0.222228</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223769</v>
+        <v>0.223845</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186977</v>
+        <v>0.187334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.221591</v>
+        <v>0.221878</v>
       </c>
       <c r="D35" t="n">
-        <v>0.223138</v>
+        <v>0.22342</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179608</v>
+        <v>0.17968</v>
       </c>
       <c r="C36" t="n">
-        <v>0.221168</v>
+        <v>0.221326</v>
       </c>
       <c r="D36" t="n">
-        <v>0.222594</v>
+        <v>0.222581</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169827</v>
+        <v>0.170237</v>
       </c>
       <c r="C37" t="n">
-        <v>0.234653</v>
+        <v>0.234701</v>
       </c>
       <c r="D37" t="n">
-        <v>0.236214</v>
+        <v>0.236296</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246194</v>
+        <v>0.246071</v>
       </c>
       <c r="C38" t="n">
-        <v>0.233369</v>
+        <v>0.233393</v>
       </c>
       <c r="D38" t="n">
-        <v>0.234995</v>
+        <v>0.234931</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.242553</v>
+        <v>0.24251</v>
       </c>
       <c r="C39" t="n">
-        <v>0.23221</v>
+        <v>0.232192</v>
       </c>
       <c r="D39" t="n">
-        <v>0.234228</v>
+        <v>0.234065</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.238769</v>
+        <v>0.238927</v>
       </c>
       <c r="C40" t="n">
-        <v>0.231062</v>
+        <v>0.230991</v>
       </c>
       <c r="D40" t="n">
-        <v>0.232758</v>
+        <v>0.232478</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234924</v>
+        <v>0.234685</v>
       </c>
       <c r="C41" t="n">
-        <v>0.229694</v>
+        <v>0.229881</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231102</v>
+        <v>0.230899</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.23022</v>
+        <v>0.230383</v>
       </c>
       <c r="C42" t="n">
-        <v>0.228846</v>
+        <v>0.228772</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229959</v>
+        <v>0.229905</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.225732</v>
+        <v>0.22561</v>
       </c>
       <c r="C43" t="n">
-        <v>0.22772</v>
+        <v>0.227664</v>
       </c>
       <c r="D43" t="n">
-        <v>0.22889</v>
+        <v>0.228748</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220706</v>
+        <v>0.220741</v>
       </c>
       <c r="C44" t="n">
-        <v>0.226521</v>
+        <v>0.226453</v>
       </c>
       <c r="D44" t="n">
-        <v>0.228027</v>
+        <v>0.227854</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215426</v>
+        <v>0.215314</v>
       </c>
       <c r="C45" t="n">
-        <v>0.225743</v>
+        <v>0.225639</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226786</v>
+        <v>0.22691</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209407</v>
+        <v>0.209056</v>
       </c>
       <c r="C46" t="n">
-        <v>0.22489</v>
+        <v>0.224861</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225959</v>
+        <v>0.226049</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203187</v>
+        <v>0.203412</v>
       </c>
       <c r="C47" t="n">
-        <v>0.223708</v>
+        <v>0.223854</v>
       </c>
       <c r="D47" t="n">
-        <v>0.225048</v>
+        <v>0.224964</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.196934</v>
+        <v>0.197084</v>
       </c>
       <c r="C48" t="n">
-        <v>0.223108</v>
+        <v>0.223149</v>
       </c>
       <c r="D48" t="n">
-        <v>0.224322</v>
+        <v>0.224237</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190594</v>
+        <v>0.190672</v>
       </c>
       <c r="C49" t="n">
-        <v>0.222178</v>
+        <v>0.222301</v>
       </c>
       <c r="D49" t="n">
-        <v>0.223436</v>
+        <v>0.223567</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183041</v>
+        <v>0.183243</v>
       </c>
       <c r="C50" t="n">
-        <v>0.221573</v>
+        <v>0.221777</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222654</v>
+        <v>0.222677</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174033</v>
+        <v>0.174092</v>
       </c>
       <c r="C51" t="n">
-        <v>0.236221</v>
+        <v>0.2363</v>
       </c>
       <c r="D51" t="n">
-        <v>0.236974</v>
+        <v>0.237091</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.163763</v>
+        <v>0.163766</v>
       </c>
       <c r="C52" t="n">
-        <v>0.234732</v>
+        <v>0.234641</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235615</v>
+        <v>0.235669</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246273</v>
+        <v>0.246063</v>
       </c>
       <c r="C53" t="n">
-        <v>0.233301</v>
+        <v>0.233239</v>
       </c>
       <c r="D53" t="n">
-        <v>0.234129</v>
+        <v>0.234366</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242329</v>
+        <v>0.242205</v>
       </c>
       <c r="C54" t="n">
-        <v>0.231981</v>
+        <v>0.231971</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232823</v>
+        <v>0.232839</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237919</v>
+        <v>0.237894</v>
       </c>
       <c r="C55" t="n">
-        <v>0.230744</v>
+        <v>0.230774</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231662</v>
+        <v>0.231624</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233248</v>
+        <v>0.232981</v>
       </c>
       <c r="C56" t="n">
-        <v>0.229481</v>
+        <v>0.229499</v>
       </c>
       <c r="D56" t="n">
-        <v>0.230298</v>
+        <v>0.230404</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228193</v>
+        <v>0.228192</v>
       </c>
       <c r="C57" t="n">
-        <v>0.228359</v>
+        <v>0.22837</v>
       </c>
       <c r="D57" t="n">
-        <v>0.229216</v>
+        <v>0.229259</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222727</v>
+        <v>0.222683</v>
       </c>
       <c r="C58" t="n">
-        <v>0.227339</v>
+        <v>0.227222</v>
       </c>
       <c r="D58" t="n">
-        <v>0.228106</v>
+        <v>0.228129</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217502</v>
+        <v>0.217575</v>
       </c>
       <c r="C59" t="n">
-        <v>0.226323</v>
+        <v>0.226316</v>
       </c>
       <c r="D59" t="n">
-        <v>0.227175</v>
+        <v>0.227041</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211754</v>
+        <v>0.211776</v>
       </c>
       <c r="C60" t="n">
-        <v>0.22544</v>
+        <v>0.225451</v>
       </c>
       <c r="D60" t="n">
-        <v>0.226542</v>
+        <v>0.226559</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206111</v>
+        <v>0.206233</v>
       </c>
       <c r="C61" t="n">
-        <v>0.224644</v>
+        <v>0.224617</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225522</v>
+        <v>0.225483</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200159</v>
+        <v>0.200117</v>
       </c>
       <c r="C62" t="n">
-        <v>0.223745</v>
+        <v>0.223788</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224654</v>
+        <v>0.224564</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.19398</v>
+        <v>0.193954</v>
       </c>
       <c r="C63" t="n">
-        <v>0.222895</v>
+        <v>0.222969</v>
       </c>
       <c r="D63" t="n">
-        <v>0.223814</v>
+        <v>0.223915</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.186481</v>
+        <v>0.186406</v>
       </c>
       <c r="C64" t="n">
-        <v>0.221957</v>
+        <v>0.222029</v>
       </c>
       <c r="D64" t="n">
-        <v>0.223184</v>
+        <v>0.223172</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177815</v>
+        <v>0.177747</v>
       </c>
       <c r="C65" t="n">
-        <v>0.221225</v>
+        <v>0.221377</v>
       </c>
       <c r="D65" t="n">
-        <v>0.222245</v>
+        <v>0.222251</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167505</v>
+        <v>0.167641</v>
       </c>
       <c r="C66" t="n">
-        <v>0.23572</v>
+        <v>0.236061</v>
       </c>
       <c r="D66" t="n">
-        <v>0.237093</v>
+        <v>0.236505</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247934</v>
+        <v>0.24846</v>
       </c>
       <c r="C67" t="n">
-        <v>0.234262</v>
+        <v>0.234279</v>
       </c>
       <c r="D67" t="n">
-        <v>0.235389</v>
+        <v>0.234885</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.244571</v>
+        <v>0.244748</v>
       </c>
       <c r="C68" t="n">
-        <v>0.232675</v>
+        <v>0.232791</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233773</v>
+        <v>0.233517</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240016</v>
+        <v>0.240324</v>
       </c>
       <c r="C69" t="n">
-        <v>0.231453</v>
+        <v>0.231543</v>
       </c>
       <c r="D69" t="n">
-        <v>0.23227</v>
+        <v>0.232111</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235276</v>
+        <v>0.235523</v>
       </c>
       <c r="C70" t="n">
-        <v>0.230129</v>
+        <v>0.230261</v>
       </c>
       <c r="D70" t="n">
-        <v>0.231233</v>
+        <v>0.231066</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230617</v>
+        <v>0.230484</v>
       </c>
       <c r="C71" t="n">
-        <v>0.229069</v>
+        <v>0.229138</v>
       </c>
       <c r="D71" t="n">
-        <v>0.229957</v>
+        <v>0.229867</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225349</v>
+        <v>0.22525</v>
       </c>
       <c r="C72" t="n">
-        <v>0.227959</v>
+        <v>0.22804</v>
       </c>
       <c r="D72" t="n">
-        <v>0.228899</v>
+        <v>0.228661</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219689</v>
+        <v>0.219925</v>
       </c>
       <c r="C73" t="n">
-        <v>0.226884</v>
+        <v>0.227001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.227735</v>
+        <v>0.227658</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.21397</v>
+        <v>0.214127</v>
       </c>
       <c r="C74" t="n">
-        <v>0.225746</v>
+        <v>0.225922</v>
       </c>
       <c r="D74" t="n">
-        <v>0.226611</v>
+        <v>0.226615</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.208</v>
+        <v>0.20807</v>
       </c>
       <c r="C75" t="n">
-        <v>0.224894</v>
+        <v>0.225098</v>
       </c>
       <c r="D75" t="n">
-        <v>0.225675</v>
+        <v>0.225672</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.20171</v>
+        <v>0.201936</v>
       </c>
       <c r="C76" t="n">
-        <v>0.223944</v>
+        <v>0.224153</v>
       </c>
       <c r="D76" t="n">
-        <v>0.224837</v>
+        <v>0.224853</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.195702</v>
+        <v>0.195765</v>
       </c>
       <c r="C77" t="n">
-        <v>0.223179</v>
+        <v>0.223343</v>
       </c>
       <c r="D77" t="n">
-        <v>0.224018</v>
+        <v>0.22397</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188728</v>
+        <v>0.188683</v>
       </c>
       <c r="C78" t="n">
-        <v>0.22223</v>
+        <v>0.222389</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223327</v>
+        <v>0.223266</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180249</v>
+        <v>0.180296</v>
       </c>
       <c r="C79" t="n">
-        <v>0.221476</v>
+        <v>0.221577</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222475</v>
+        <v>0.222558</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170781</v>
+        <v>0.170735</v>
       </c>
       <c r="C80" t="n">
-        <v>0.237571</v>
+        <v>0.237836</v>
       </c>
       <c r="D80" t="n">
-        <v>0.241092</v>
+        <v>0.24124</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.249667</v>
+        <v>0.249728</v>
       </c>
       <c r="C81" t="n">
-        <v>0.235754</v>
+        <v>0.235877</v>
       </c>
       <c r="D81" t="n">
-        <v>0.23773</v>
+        <v>0.238288</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.24565</v>
+        <v>0.246093</v>
       </c>
       <c r="C82" t="n">
-        <v>0.233784</v>
+        <v>0.234029</v>
       </c>
       <c r="D82" t="n">
-        <v>0.235552</v>
+        <v>0.236196</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241431</v>
+        <v>0.241617</v>
       </c>
       <c r="C83" t="n">
-        <v>0.232426</v>
+        <v>0.232469</v>
       </c>
       <c r="D83" t="n">
-        <v>0.234092</v>
+        <v>0.234118</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236826</v>
+        <v>0.236967</v>
       </c>
       <c r="C84" t="n">
-        <v>0.230783</v>
+        <v>0.230889</v>
       </c>
       <c r="D84" t="n">
-        <v>0.232577</v>
+        <v>0.232638</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231829</v>
+        <v>0.231983</v>
       </c>
       <c r="C85" t="n">
-        <v>0.229405</v>
+        <v>0.229562</v>
       </c>
       <c r="D85" t="n">
-        <v>0.231247</v>
+        <v>0.231358</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226376</v>
+        <v>0.226503</v>
       </c>
       <c r="C86" t="n">
-        <v>0.228168</v>
+        <v>0.228417</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229763</v>
+        <v>0.229788</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220745</v>
+        <v>0.220959</v>
       </c>
       <c r="C87" t="n">
-        <v>0.227011</v>
+        <v>0.227187</v>
       </c>
       <c r="D87" t="n">
-        <v>0.228314</v>
+        <v>0.22856</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.214828</v>
+        <v>0.215126</v>
       </c>
       <c r="C88" t="n">
-        <v>0.226053</v>
+        <v>0.226051</v>
       </c>
       <c r="D88" t="n">
-        <v>0.227388</v>
+        <v>0.227471</v>
       </c>
     </row>
     <row r="89">
@@ -4468,10 +4468,10 @@
         <v>0.209206</v>
       </c>
       <c r="C89" t="n">
-        <v>0.225139</v>
+        <v>0.225112</v>
       </c>
       <c r="D89" t="n">
-        <v>0.226335</v>
+        <v>0.226286</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.203173</v>
+        <v>0.203094</v>
       </c>
       <c r="C90" t="n">
-        <v>0.224171</v>
+        <v>0.224311</v>
       </c>
       <c r="D90" t="n">
-        <v>0.22534</v>
+        <v>0.225425</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197169</v>
+        <v>0.196993</v>
       </c>
       <c r="C91" t="n">
-        <v>0.22333</v>
+        <v>0.223364</v>
       </c>
       <c r="D91" t="n">
-        <v>0.224408</v>
+        <v>0.22443</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190505</v>
+        <v>0.190347</v>
       </c>
       <c r="C92" t="n">
-        <v>0.222487</v>
+        <v>0.2225</v>
       </c>
       <c r="D92" t="n">
-        <v>0.223648</v>
+        <v>0.223877</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182611</v>
+        <v>0.182372</v>
       </c>
       <c r="C93" t="n">
-        <v>0.221793</v>
+        <v>0.221796</v>
       </c>
       <c r="D93" t="n">
-        <v>0.222829</v>
+        <v>0.222904</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.17335</v>
+        <v>0.172933</v>
       </c>
       <c r="C94" t="n">
-        <v>0.238838</v>
+        <v>0.238735</v>
       </c>
       <c r="D94" t="n">
-        <v>0.240194</v>
+        <v>0.240413</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.250228</v>
+        <v>0.250158</v>
       </c>
       <c r="C95" t="n">
-        <v>0.236351</v>
+        <v>0.23622</v>
       </c>
       <c r="D95" t="n">
-        <v>0.237816</v>
+        <v>0.238122</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.246371</v>
+        <v>0.246479</v>
       </c>
       <c r="C96" t="n">
-        <v>0.234486</v>
+        <v>0.234367</v>
       </c>
       <c r="D96" t="n">
-        <v>0.236712</v>
+        <v>0.236883</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242316</v>
+        <v>0.242402</v>
       </c>
       <c r="C97" t="n">
-        <v>0.232939</v>
+        <v>0.232746</v>
       </c>
       <c r="D97" t="n">
-        <v>0.234907</v>
+        <v>0.235026</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.23775</v>
+        <v>0.23794</v>
       </c>
       <c r="C98" t="n">
-        <v>0.231271</v>
+        <v>0.231056</v>
       </c>
       <c r="D98" t="n">
-        <v>0.233165</v>
+        <v>0.2333</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.232889</v>
+        <v>0.232854</v>
       </c>
       <c r="C99" t="n">
-        <v>0.229802</v>
+        <v>0.229661</v>
       </c>
       <c r="D99" t="n">
-        <v>0.231601</v>
+        <v>0.231832</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.227425</v>
+        <v>0.227793</v>
       </c>
       <c r="C100" t="n">
-        <v>0.228494</v>
+        <v>0.228345</v>
       </c>
       <c r="D100" t="n">
-        <v>0.230223</v>
+        <v>0.230338</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.222051</v>
+        <v>0.222425</v>
       </c>
       <c r="C101" t="n">
-        <v>0.227359</v>
+        <v>0.227186</v>
       </c>
       <c r="D101" t="n">
-        <v>0.228939</v>
+        <v>0.229041</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.216364</v>
+        <v>0.216659</v>
       </c>
       <c r="C102" t="n">
-        <v>0.226407</v>
+        <v>0.226226</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227951</v>
+        <v>0.227909</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.210632</v>
+        <v>0.210823</v>
       </c>
       <c r="C103" t="n">
-        <v>0.225549</v>
+        <v>0.225286</v>
       </c>
       <c r="D103" t="n">
-        <v>0.227356</v>
+        <v>0.227291</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204836</v>
+        <v>0.204766</v>
       </c>
       <c r="C104" t="n">
-        <v>0.224548</v>
+        <v>0.224366</v>
       </c>
       <c r="D104" t="n">
-        <v>0.226578</v>
+        <v>0.226434</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.198528</v>
+        <v>0.198499</v>
       </c>
       <c r="C105" t="n">
-        <v>0.223709</v>
+        <v>0.223518</v>
       </c>
       <c r="D105" t="n">
-        <v>0.225771</v>
+        <v>0.225569</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191726</v>
+        <v>0.191936</v>
       </c>
       <c r="C106" t="n">
-        <v>0.222889</v>
+        <v>0.222717</v>
       </c>
       <c r="D106" t="n">
-        <v>0.22465</v>
+        <v>0.22447</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.184092</v>
+        <v>0.184297</v>
       </c>
       <c r="C107" t="n">
-        <v>0.222072</v>
+        <v>0.222016</v>
       </c>
       <c r="D107" t="n">
-        <v>0.223628</v>
+        <v>0.223506</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174974</v>
+        <v>0.174837</v>
       </c>
       <c r="C108" t="n">
-        <v>0.239427</v>
+        <v>0.239272</v>
       </c>
       <c r="D108" t="n">
-        <v>0.239542</v>
+        <v>0.239359</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163851</v>
+        <v>0.164148</v>
       </c>
       <c r="C109" t="n">
-        <v>0.236833</v>
+        <v>0.236565</v>
       </c>
       <c r="D109" t="n">
-        <v>0.237325</v>
+        <v>0.237077</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.247764</v>
+        <v>0.247571</v>
       </c>
       <c r="C110" t="n">
-        <v>0.234747</v>
+        <v>0.234634</v>
       </c>
       <c r="D110" t="n">
-        <v>0.235532</v>
+        <v>0.235164</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.243757</v>
+        <v>0.243574</v>
       </c>
       <c r="C111" t="n">
-        <v>0.233075</v>
+        <v>0.232906</v>
       </c>
       <c r="D111" t="n">
-        <v>0.233699</v>
+        <v>0.233593</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.239275</v>
+        <v>0.239118</v>
       </c>
       <c r="C112" t="n">
-        <v>0.231521</v>
+        <v>0.23138</v>
       </c>
       <c r="D112" t="n">
-        <v>0.232409</v>
+        <v>0.232104</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234541</v>
+        <v>0.234282</v>
       </c>
       <c r="C113" t="n">
-        <v>0.230117</v>
+        <v>0.229957</v>
       </c>
       <c r="D113" t="n">
-        <v>0.231068</v>
+        <v>0.230799</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229297</v>
+        <v>0.229109</v>
       </c>
       <c r="C114" t="n">
-        <v>0.228976</v>
+        <v>0.228747</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229731</v>
+        <v>0.229582</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.223863</v>
+        <v>0.223665</v>
       </c>
       <c r="C115" t="n">
-        <v>0.227738</v>
+        <v>0.227584</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228572</v>
+        <v>0.228359</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.21823</v>
+        <v>0.218148</v>
       </c>
       <c r="C116" t="n">
-        <v>0.226685</v>
+        <v>0.226588</v>
       </c>
       <c r="D116" t="n">
-        <v>0.22768</v>
+        <v>0.227355</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.21226</v>
+        <v>0.212019</v>
       </c>
       <c r="C117" t="n">
-        <v>0.225691</v>
+        <v>0.225552</v>
       </c>
       <c r="D117" t="n">
-        <v>0.227079</v>
+        <v>0.226801</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206252</v>
+        <v>0.206032</v>
       </c>
       <c r="C118" t="n">
-        <v>0.224693</v>
+        <v>0.224546</v>
       </c>
       <c r="D118" t="n">
-        <v>0.226289</v>
+        <v>0.225947</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.199859</v>
+        <v>0.199602</v>
       </c>
       <c r="C119" t="n">
-        <v>0.223905</v>
+        <v>0.223735</v>
       </c>
       <c r="D119" t="n">
-        <v>0.225273</v>
+        <v>0.225005</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193196</v>
+        <v>0.193306</v>
       </c>
       <c r="C120" t="n">
-        <v>0.223031</v>
+        <v>0.222878</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224334</v>
+        <v>0.224247</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.18572</v>
+        <v>0.185727</v>
       </c>
       <c r="C121" t="n">
-        <v>0.222279</v>
+        <v>0.222078</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223502</v>
+        <v>0.223566</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176991</v>
+        <v>0.177102</v>
       </c>
       <c r="C122" t="n">
-        <v>0.221625</v>
+        <v>0.221404</v>
       </c>
       <c r="D122" t="n">
-        <v>0.222838</v>
+        <v>0.222755</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.166536</v>
+        <v>0.166373</v>
       </c>
       <c r="C123" t="n">
-        <v>0.237223</v>
+        <v>0.237077</v>
       </c>
       <c r="D123" t="n">
-        <v>0.237672</v>
+        <v>0.237464</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.248359</v>
+        <v>0.248195</v>
       </c>
       <c r="C124" t="n">
-        <v>0.235214</v>
+        <v>0.235073</v>
       </c>
       <c r="D124" t="n">
-        <v>0.235769</v>
+        <v>0.235453</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.244467</v>
+        <v>0.24424</v>
       </c>
       <c r="C125" t="n">
-        <v>0.233491</v>
+        <v>0.233351</v>
       </c>
       <c r="D125" t="n">
-        <v>0.233918</v>
+        <v>0.233772</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.239996</v>
+        <v>0.239921</v>
       </c>
       <c r="C126" t="n">
-        <v>0.231937</v>
+        <v>0.231791</v>
       </c>
       <c r="D126" t="n">
-        <v>0.232336</v>
+        <v>0.23219</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.235138</v>
+        <v>0.235064</v>
       </c>
       <c r="C127" t="n">
-        <v>0.230557</v>
+        <v>0.230411</v>
       </c>
       <c r="D127" t="n">
-        <v>0.231113</v>
+        <v>0.230943</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.230091</v>
+        <v>0.229972</v>
       </c>
       <c r="C128" t="n">
-        <v>0.229252</v>
+        <v>0.229159</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229838</v>
+        <v>0.229756</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224595</v>
+        <v>0.224586</v>
       </c>
       <c r="C129" t="n">
-        <v>0.228087</v>
+        <v>0.227927</v>
       </c>
       <c r="D129" t="n">
-        <v>0.228666</v>
+        <v>0.228574</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.218983</v>
+        <v>0.218975</v>
       </c>
       <c r="C130" t="n">
-        <v>0.226971</v>
+        <v>0.226833</v>
       </c>
       <c r="D130" t="n">
-        <v>0.227631</v>
+        <v>0.22748</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.213416</v>
+        <v>0.213244</v>
       </c>
       <c r="C131" t="n">
-        <v>0.225918</v>
+        <v>0.225762</v>
       </c>
       <c r="D131" t="n">
-        <v>0.226657</v>
+        <v>0.22655</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207543</v>
+        <v>0.207429</v>
       </c>
       <c r="C132" t="n">
-        <v>0.224953</v>
+        <v>0.22481</v>
       </c>
       <c r="D132" t="n">
-        <v>0.225692</v>
+        <v>0.225575</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.20155</v>
+        <v>0.201438</v>
       </c>
       <c r="C133" t="n">
-        <v>0.224058</v>
+        <v>0.223966</v>
       </c>
       <c r="D133" t="n">
-        <v>0.224901</v>
+        <v>0.224741</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.195016</v>
+        <v>0.194878</v>
       </c>
       <c r="C134" t="n">
-        <v>0.223242</v>
+        <v>0.2231</v>
       </c>
       <c r="D134" t="n">
-        <v>0.224024</v>
+        <v>0.223891</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187937</v>
+        <v>0.188094</v>
       </c>
       <c r="C135" t="n">
-        <v>0.222465</v>
+        <v>0.22228</v>
       </c>
       <c r="D135" t="n">
-        <v>0.223302</v>
+        <v>0.223158</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.179573</v>
+        <v>0.179527</v>
       </c>
       <c r="C136" t="n">
-        <v>0.221759</v>
+        <v>0.221595</v>
       </c>
       <c r="D136" t="n">
-        <v>0.222779</v>
+        <v>0.222709</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.169449</v>
+        <v>0.169279</v>
       </c>
       <c r="C137" t="n">
-        <v>0.237775</v>
+        <v>0.237505</v>
       </c>
       <c r="D137" t="n">
-        <v>0.238658</v>
+        <v>0.238534</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.249136</v>
+        <v>0.248937</v>
       </c>
       <c r="C138" t="n">
-        <v>0.235649</v>
+        <v>0.235411</v>
       </c>
       <c r="D138" t="n">
-        <v>0.23659</v>
+        <v>0.236513</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.245253</v>
+        <v>0.245121</v>
       </c>
       <c r="C139" t="n">
-        <v>0.233803</v>
+        <v>0.233626</v>
       </c>
       <c r="D139" t="n">
-        <v>0.234746</v>
+        <v>0.234577</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.241029</v>
+        <v>0.240816</v>
       </c>
       <c r="C140" t="n">
-        <v>0.232259</v>
+        <v>0.232021</v>
       </c>
       <c r="D140" t="n">
-        <v>0.233203</v>
+        <v>0.233036</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236191</v>
+        <v>0.236084</v>
       </c>
       <c r="C141" t="n">
-        <v>0.230763</v>
+        <v>0.230583</v>
       </c>
       <c r="D141" t="n">
-        <v>0.231785</v>
+        <v>0.231609</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231106</v>
+        <v>0.23095</v>
       </c>
       <c r="C142" t="n">
-        <v>0.22946</v>
+        <v>0.229266</v>
       </c>
       <c r="D142" t="n">
-        <v>0.230487</v>
+        <v>0.230354</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225836</v>
+        <v>0.225706</v>
       </c>
       <c r="C143" t="n">
-        <v>0.228261</v>
+        <v>0.228097</v>
       </c>
       <c r="D143" t="n">
-        <v>0.229348</v>
+        <v>0.229189</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.178327</v>
+        <v>0.192135</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204759</v>
+        <v>0.210395</v>
       </c>
       <c r="D2" t="n">
-        <v>0.214363</v>
+        <v>0.312775</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.175002</v>
+        <v>0.192242</v>
       </c>
       <c r="C3" t="n">
-        <v>0.206836</v>
+        <v>0.211138</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214357</v>
+        <v>0.31418</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.170704</v>
+        <v>0.185635</v>
       </c>
       <c r="C4" t="n">
-        <v>0.208729</v>
+        <v>0.211426</v>
       </c>
       <c r="D4" t="n">
-        <v>0.214802</v>
+        <v>0.315206</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.168145</v>
+        <v>0.179658</v>
       </c>
       <c r="C5" t="n">
-        <v>0.210403</v>
+        <v>0.212495</v>
       </c>
       <c r="D5" t="n">
-        <v>0.21508</v>
+        <v>0.31654</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.165732</v>
+        <v>0.172405</v>
       </c>
       <c r="C6" t="n">
-        <v>0.211424</v>
+        <v>0.211744</v>
       </c>
       <c r="D6" t="n">
-        <v>0.215506</v>
+        <v>0.317861</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.159918</v>
+        <v>0.165574</v>
       </c>
       <c r="C7" t="n">
-        <v>0.212856</v>
+        <v>0.213061</v>
       </c>
       <c r="D7" t="n">
-        <v>0.215684</v>
+        <v>0.309159</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.155262</v>
+        <v>0.163478</v>
       </c>
       <c r="C8" t="n">
-        <v>0.214102</v>
+        <v>0.214042</v>
       </c>
       <c r="D8" t="n">
-        <v>0.214624</v>
+        <v>0.309142</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.146165</v>
+        <v>0.14849</v>
       </c>
       <c r="C9" t="n">
-        <v>0.223354</v>
+        <v>0.227861</v>
       </c>
       <c r="D9" t="n">
-        <v>0.232564</v>
+        <v>0.310282</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.228328</v>
+        <v>0.234083</v>
       </c>
       <c r="C10" t="n">
-        <v>0.223417</v>
+        <v>0.227443</v>
       </c>
       <c r="D10" t="n">
-        <v>0.231152</v>
+        <v>0.310999</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.225293</v>
+        <v>0.230364</v>
       </c>
       <c r="C11" t="n">
-        <v>0.223264</v>
+        <v>0.226196</v>
       </c>
       <c r="D11" t="n">
-        <v>0.230434</v>
+        <v>0.313123</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.222213</v>
+        <v>0.228683</v>
       </c>
       <c r="C12" t="n">
-        <v>0.223617</v>
+        <v>0.225938</v>
       </c>
       <c r="D12" t="n">
-        <v>0.229033</v>
+        <v>0.312996</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.219551</v>
+        <v>0.223474</v>
       </c>
       <c r="C13" t="n">
-        <v>0.224309</v>
+        <v>0.225082</v>
       </c>
       <c r="D13" t="n">
-        <v>0.228786</v>
+        <v>0.313989</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216462</v>
+        <v>0.220447</v>
       </c>
       <c r="C14" t="n">
-        <v>0.223548</v>
+        <v>0.224208</v>
       </c>
       <c r="D14" t="n">
-        <v>0.227555</v>
+        <v>0.315089</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212679</v>
+        <v>0.216128</v>
       </c>
       <c r="C15" t="n">
-        <v>0.223038</v>
+        <v>0.22347</v>
       </c>
       <c r="D15" t="n">
-        <v>0.226724</v>
+        <v>0.316797</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208233</v>
+        <v>0.211103</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222289</v>
+        <v>0.222635</v>
       </c>
       <c r="D16" t="n">
-        <v>0.225621</v>
+        <v>0.317154</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203752</v>
+        <v>0.206764</v>
       </c>
       <c r="C17" t="n">
-        <v>0.222017</v>
+        <v>0.222597</v>
       </c>
       <c r="D17" t="n">
-        <v>0.225128</v>
+        <v>0.31861</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198271</v>
+        <v>0.200635</v>
       </c>
       <c r="C18" t="n">
-        <v>0.221525</v>
+        <v>0.221334</v>
       </c>
       <c r="D18" t="n">
-        <v>0.224032</v>
+        <v>0.319776</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193762</v>
+        <v>0.194198</v>
       </c>
       <c r="C19" t="n">
-        <v>0.221285</v>
+        <v>0.220706</v>
       </c>
       <c r="D19" t="n">
-        <v>0.223521</v>
+        <v>0.322407</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188229</v>
+        <v>0.186967</v>
       </c>
       <c r="C20" t="n">
-        <v>0.220418</v>
+        <v>0.22019</v>
       </c>
       <c r="D20" t="n">
-        <v>0.222938</v>
+        <v>0.322839</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.182379</v>
+        <v>0.181294</v>
       </c>
       <c r="C21" t="n">
-        <v>0.220358</v>
+        <v>0.219876</v>
       </c>
       <c r="D21" t="n">
-        <v>0.222214</v>
+        <v>0.316304</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174728</v>
+        <v>0.172455</v>
       </c>
       <c r="C22" t="n">
-        <v>0.220063</v>
+        <v>0.219939</v>
       </c>
       <c r="D22" t="n">
-        <v>0.22145</v>
+        <v>0.3149</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165618</v>
+        <v>0.163976</v>
       </c>
       <c r="C23" t="n">
-        <v>0.233236</v>
+        <v>0.232949</v>
       </c>
       <c r="D23" t="n">
-        <v>0.235567</v>
+        <v>0.315516</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241657</v>
+        <v>0.245022</v>
       </c>
       <c r="C24" t="n">
-        <v>0.231754</v>
+        <v>0.231574</v>
       </c>
       <c r="D24" t="n">
-        <v>0.234825</v>
+        <v>0.315862</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.237549</v>
+        <v>0.240516</v>
       </c>
       <c r="C25" t="n">
-        <v>0.230826</v>
+        <v>0.230146</v>
       </c>
       <c r="D25" t="n">
-        <v>0.233163</v>
+        <v>0.317172</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233392</v>
+        <v>0.236516</v>
       </c>
       <c r="C26" t="n">
-        <v>0.229465</v>
+        <v>0.228971</v>
       </c>
       <c r="D26" t="n">
-        <v>0.231741</v>
+        <v>0.317727</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229705</v>
+        <v>0.23224</v>
       </c>
       <c r="C27" t="n">
-        <v>0.228796</v>
+        <v>0.228255</v>
       </c>
       <c r="D27" t="n">
-        <v>0.230383</v>
+        <v>0.317528</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.224905</v>
+        <v>0.226771</v>
       </c>
       <c r="C28" t="n">
-        <v>0.227567</v>
+        <v>0.22717</v>
       </c>
       <c r="D28" t="n">
-        <v>0.229424</v>
+        <v>0.318213</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.22048</v>
+        <v>0.223514</v>
       </c>
       <c r="C29" t="n">
-        <v>0.226754</v>
+        <v>0.226066</v>
       </c>
       <c r="D29" t="n">
-        <v>0.228506</v>
+        <v>0.31849</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.21551</v>
+        <v>0.217681</v>
       </c>
       <c r="C30" t="n">
-        <v>0.225785</v>
+        <v>0.224962</v>
       </c>
       <c r="D30" t="n">
-        <v>0.227661</v>
+        <v>0.320608</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.210356</v>
+        <v>0.212697</v>
       </c>
       <c r="C31" t="n">
-        <v>0.224661</v>
+        <v>0.224481</v>
       </c>
       <c r="D31" t="n">
-        <v>0.226693</v>
+        <v>0.321875</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205745</v>
+        <v>0.208045</v>
       </c>
       <c r="C32" t="n">
-        <v>0.223822</v>
+        <v>0.223487</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225563</v>
+        <v>0.321443</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200003</v>
+        <v>0.201569</v>
       </c>
       <c r="C33" t="n">
-        <v>0.22286</v>
+        <v>0.222775</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224606</v>
+        <v>0.32272</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193939</v>
+        <v>0.194554</v>
       </c>
       <c r="C34" t="n">
-        <v>0.222228</v>
+        <v>0.222101</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223845</v>
+        <v>0.322936</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187334</v>
+        <v>0.188778</v>
       </c>
       <c r="C35" t="n">
-        <v>0.221878</v>
+        <v>0.221564</v>
       </c>
       <c r="D35" t="n">
-        <v>0.22342</v>
+        <v>0.31879</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.17968</v>
+        <v>0.180483</v>
       </c>
       <c r="C36" t="n">
-        <v>0.221326</v>
+        <v>0.220795</v>
       </c>
       <c r="D36" t="n">
-        <v>0.222581</v>
+        <v>0.318882</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170237</v>
+        <v>0.170964</v>
       </c>
       <c r="C37" t="n">
-        <v>0.234701</v>
+        <v>0.235224</v>
       </c>
       <c r="D37" t="n">
-        <v>0.236296</v>
+        <v>0.318121</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246071</v>
+        <v>0.246996</v>
       </c>
       <c r="C38" t="n">
-        <v>0.233393</v>
+        <v>0.233271</v>
       </c>
       <c r="D38" t="n">
-        <v>0.234931</v>
+        <v>0.318359</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.24251</v>
+        <v>0.244804</v>
       </c>
       <c r="C39" t="n">
-        <v>0.232192</v>
+        <v>0.231402</v>
       </c>
       <c r="D39" t="n">
-        <v>0.234065</v>
+        <v>0.319647</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.238927</v>
+        <v>0.240493</v>
       </c>
       <c r="C40" t="n">
-        <v>0.230991</v>
+        <v>0.230454</v>
       </c>
       <c r="D40" t="n">
-        <v>0.232478</v>
+        <v>0.320145</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234685</v>
+        <v>0.236656</v>
       </c>
       <c r="C41" t="n">
-        <v>0.229881</v>
+        <v>0.229429</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230899</v>
+        <v>0.319453</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230383</v>
+        <v>0.232052</v>
       </c>
       <c r="C42" t="n">
-        <v>0.228772</v>
+        <v>0.228245</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229905</v>
+        <v>0.321259</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.22561</v>
+        <v>0.226781</v>
       </c>
       <c r="C43" t="n">
-        <v>0.227664</v>
+        <v>0.22697</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228748</v>
+        <v>0.321858</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220741</v>
+        <v>0.221556</v>
       </c>
       <c r="C44" t="n">
-        <v>0.226453</v>
+        <v>0.226061</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227854</v>
+        <v>0.32232</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215314</v>
+        <v>0.216522</v>
       </c>
       <c r="C45" t="n">
-        <v>0.225639</v>
+        <v>0.225254</v>
       </c>
       <c r="D45" t="n">
-        <v>0.22691</v>
+        <v>0.324498</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209056</v>
+        <v>0.21116</v>
       </c>
       <c r="C46" t="n">
-        <v>0.224861</v>
+        <v>0.224065</v>
       </c>
       <c r="D46" t="n">
-        <v>0.226049</v>
+        <v>0.324512</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203412</v>
+        <v>0.205422</v>
       </c>
       <c r="C47" t="n">
-        <v>0.223854</v>
+        <v>0.22333</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224964</v>
+        <v>0.32581</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197084</v>
+        <v>0.198357</v>
       </c>
       <c r="C48" t="n">
-        <v>0.223149</v>
+        <v>0.222469</v>
       </c>
       <c r="D48" t="n">
-        <v>0.224237</v>
+        <v>0.32872</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190672</v>
+        <v>0.191476</v>
       </c>
       <c r="C49" t="n">
-        <v>0.222301</v>
+        <v>0.221591</v>
       </c>
       <c r="D49" t="n">
-        <v>0.223567</v>
+        <v>0.329072</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183243</v>
+        <v>0.182962</v>
       </c>
       <c r="C50" t="n">
-        <v>0.221777</v>
+        <v>0.220986</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222677</v>
+        <v>0.322981</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174092</v>
+        <v>0.1737</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2363</v>
+        <v>0.237331</v>
       </c>
       <c r="D51" t="n">
-        <v>0.237091</v>
+        <v>0.322869</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.163766</v>
+        <v>0.162979</v>
       </c>
       <c r="C52" t="n">
-        <v>0.234641</v>
+        <v>0.234803</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235669</v>
+        <v>0.3234</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246063</v>
+        <v>0.247194</v>
       </c>
       <c r="C53" t="n">
-        <v>0.233239</v>
+        <v>0.232901</v>
       </c>
       <c r="D53" t="n">
-        <v>0.234366</v>
+        <v>0.326286</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242205</v>
+        <v>0.243447</v>
       </c>
       <c r="C54" t="n">
-        <v>0.231971</v>
+        <v>0.231527</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232839</v>
+        <v>0.325565</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237894</v>
+        <v>0.238631</v>
       </c>
       <c r="C55" t="n">
-        <v>0.230774</v>
+        <v>0.230018</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231624</v>
+        <v>0.326285</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.232981</v>
+        <v>0.234653</v>
       </c>
       <c r="C56" t="n">
-        <v>0.229499</v>
+        <v>0.228959</v>
       </c>
       <c r="D56" t="n">
-        <v>0.230404</v>
+        <v>0.327218</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228192</v>
+        <v>0.229346</v>
       </c>
       <c r="C57" t="n">
-        <v>0.22837</v>
+        <v>0.227637</v>
       </c>
       <c r="D57" t="n">
-        <v>0.229259</v>
+        <v>0.327119</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222683</v>
+        <v>0.224455</v>
       </c>
       <c r="C58" t="n">
-        <v>0.227222</v>
+        <v>0.226427</v>
       </c>
       <c r="D58" t="n">
-        <v>0.228129</v>
+        <v>0.329879</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217575</v>
+        <v>0.21925</v>
       </c>
       <c r="C59" t="n">
-        <v>0.226316</v>
+        <v>0.225642</v>
       </c>
       <c r="D59" t="n">
-        <v>0.227041</v>
+        <v>0.329924</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211776</v>
+        <v>0.212862</v>
       </c>
       <c r="C60" t="n">
-        <v>0.225451</v>
+        <v>0.224583</v>
       </c>
       <c r="D60" t="n">
-        <v>0.226559</v>
+        <v>0.332489</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206233</v>
+        <v>0.2078</v>
       </c>
       <c r="C61" t="n">
-        <v>0.224617</v>
+        <v>0.223851</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225483</v>
+        <v>0.336041</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200117</v>
+        <v>0.201194</v>
       </c>
       <c r="C62" t="n">
-        <v>0.223788</v>
+        <v>0.223035</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224564</v>
+        <v>0.33869</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.193954</v>
+        <v>0.194164</v>
       </c>
       <c r="C63" t="n">
-        <v>0.222969</v>
+        <v>0.22231</v>
       </c>
       <c r="D63" t="n">
-        <v>0.223915</v>
+        <v>0.340091</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.186406</v>
+        <v>0.186441</v>
       </c>
       <c r="C64" t="n">
-        <v>0.222029</v>
+        <v>0.221433</v>
       </c>
       <c r="D64" t="n">
-        <v>0.223172</v>
+        <v>0.380755</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177747</v>
+        <v>0.17751</v>
       </c>
       <c r="C65" t="n">
-        <v>0.221377</v>
+        <v>0.220509</v>
       </c>
       <c r="D65" t="n">
-        <v>0.222251</v>
+        <v>0.384751</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167641</v>
+        <v>0.166493</v>
       </c>
       <c r="C66" t="n">
-        <v>0.236061</v>
+        <v>0.235475</v>
       </c>
       <c r="D66" t="n">
-        <v>0.236505</v>
+        <v>0.385427</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.24846</v>
+        <v>0.249034</v>
       </c>
       <c r="C67" t="n">
-        <v>0.234279</v>
+        <v>0.233638</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234885</v>
+        <v>0.380428</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.244748</v>
+        <v>0.245451</v>
       </c>
       <c r="C68" t="n">
-        <v>0.232791</v>
+        <v>0.23231</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233517</v>
+        <v>0.387556</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240324</v>
+        <v>0.241181</v>
       </c>
       <c r="C69" t="n">
-        <v>0.231543</v>
+        <v>0.230909</v>
       </c>
       <c r="D69" t="n">
-        <v>0.232111</v>
+        <v>0.389128</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235523</v>
+        <v>0.236643</v>
       </c>
       <c r="C70" t="n">
-        <v>0.230261</v>
+        <v>0.229533</v>
       </c>
       <c r="D70" t="n">
-        <v>0.231066</v>
+        <v>0.389558</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230484</v>
+        <v>0.231585</v>
       </c>
       <c r="C71" t="n">
-        <v>0.229138</v>
+        <v>0.228407</v>
       </c>
       <c r="D71" t="n">
-        <v>0.229867</v>
+        <v>0.39109</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.22525</v>
+        <v>0.226341</v>
       </c>
       <c r="C72" t="n">
-        <v>0.22804</v>
+        <v>0.227333</v>
       </c>
       <c r="D72" t="n">
-        <v>0.228661</v>
+        <v>0.390154</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219925</v>
+        <v>0.221017</v>
       </c>
       <c r="C73" t="n">
-        <v>0.227001</v>
+        <v>0.22621</v>
       </c>
       <c r="D73" t="n">
-        <v>0.227658</v>
+        <v>0.390168</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.214127</v>
+        <v>0.2153</v>
       </c>
       <c r="C74" t="n">
-        <v>0.225922</v>
+        <v>0.225128</v>
       </c>
       <c r="D74" t="n">
-        <v>0.226615</v>
+        <v>0.389429</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.20807</v>
+        <v>0.209638</v>
       </c>
       <c r="C75" t="n">
-        <v>0.225098</v>
+        <v>0.22411</v>
       </c>
       <c r="D75" t="n">
-        <v>0.225672</v>
+        <v>0.389166</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.201936</v>
+        <v>0.203605</v>
       </c>
       <c r="C76" t="n">
-        <v>0.224153</v>
+        <v>0.223267</v>
       </c>
       <c r="D76" t="n">
-        <v>0.224853</v>
+        <v>0.389387</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.195765</v>
+        <v>0.197383</v>
       </c>
       <c r="C77" t="n">
-        <v>0.223343</v>
+        <v>0.222481</v>
       </c>
       <c r="D77" t="n">
-        <v>0.22397</v>
+        <v>0.388797</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188683</v>
+        <v>0.189724</v>
       </c>
       <c r="C78" t="n">
-        <v>0.222389</v>
+        <v>0.221562</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223266</v>
+        <v>0.44659</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180296</v>
+        <v>0.180135</v>
       </c>
       <c r="C79" t="n">
-        <v>0.221577</v>
+        <v>0.22082</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222558</v>
+        <v>0.441756</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170735</v>
+        <v>0.169883</v>
       </c>
       <c r="C80" t="n">
-        <v>0.237836</v>
+        <v>0.237012</v>
       </c>
       <c r="D80" t="n">
-        <v>0.24124</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.249728</v>
+        <v>0.250298</v>
       </c>
       <c r="C81" t="n">
-        <v>0.235877</v>
+        <v>0.235231</v>
       </c>
       <c r="D81" t="n">
-        <v>0.238288</v>
+        <v>0.435989</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.246093</v>
+        <v>0.24687</v>
       </c>
       <c r="C82" t="n">
-        <v>0.234029</v>
+        <v>0.233413</v>
       </c>
       <c r="D82" t="n">
-        <v>0.236196</v>
+        <v>0.431384</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241617</v>
+        <v>0.242264</v>
       </c>
       <c r="C83" t="n">
-        <v>0.232469</v>
+        <v>0.232028</v>
       </c>
       <c r="D83" t="n">
-        <v>0.234118</v>
+        <v>0.427226</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236967</v>
+        <v>0.237724</v>
       </c>
       <c r="C84" t="n">
-        <v>0.230889</v>
+        <v>0.230232</v>
       </c>
       <c r="D84" t="n">
-        <v>0.232638</v>
+        <v>0.425774</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231983</v>
+        <v>0.232505</v>
       </c>
       <c r="C85" t="n">
-        <v>0.229562</v>
+        <v>0.228903</v>
       </c>
       <c r="D85" t="n">
-        <v>0.231358</v>
+        <v>0.421385</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226503</v>
+        <v>0.227681</v>
       </c>
       <c r="C86" t="n">
-        <v>0.228417</v>
+        <v>0.227712</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229788</v>
+        <v>0.417212</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220959</v>
+        <v>0.222111</v>
       </c>
       <c r="C87" t="n">
-        <v>0.227187</v>
+        <v>0.22637</v>
       </c>
       <c r="D87" t="n">
-        <v>0.22856</v>
+        <v>0.416866</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215126</v>
+        <v>0.216602</v>
       </c>
       <c r="C88" t="n">
-        <v>0.226051</v>
+        <v>0.225493</v>
       </c>
       <c r="D88" t="n">
-        <v>0.227471</v>
+        <v>0.413728</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.209206</v>
+        <v>0.210918</v>
       </c>
       <c r="C89" t="n">
-        <v>0.225112</v>
+        <v>0.224565</v>
       </c>
       <c r="D89" t="n">
-        <v>0.226286</v>
+        <v>0.410981</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.203094</v>
+        <v>0.204905</v>
       </c>
       <c r="C90" t="n">
-        <v>0.224311</v>
+        <v>0.223729</v>
       </c>
       <c r="D90" t="n">
-        <v>0.225425</v>
+        <v>0.410079</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196993</v>
+        <v>0.198625</v>
       </c>
       <c r="C91" t="n">
-        <v>0.223364</v>
+        <v>0.222832</v>
       </c>
       <c r="D91" t="n">
-        <v>0.22443</v>
+        <v>0.412169</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190347</v>
+        <v>0.191589</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2225</v>
+        <v>0.222128</v>
       </c>
       <c r="D92" t="n">
-        <v>0.223877</v>
+        <v>0.458919</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182372</v>
+        <v>0.182301</v>
       </c>
       <c r="C93" t="n">
-        <v>0.221796</v>
+        <v>0.221367</v>
       </c>
       <c r="D93" t="n">
-        <v>0.222904</v>
+        <v>0.448521</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172933</v>
+        <v>0.172258</v>
       </c>
       <c r="C94" t="n">
-        <v>0.238735</v>
+        <v>0.238094</v>
       </c>
       <c r="D94" t="n">
-        <v>0.240413</v>
+        <v>0.442854</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.250158</v>
+        <v>0.25079</v>
       </c>
       <c r="C95" t="n">
-        <v>0.23622</v>
+        <v>0.235771</v>
       </c>
       <c r="D95" t="n">
-        <v>0.238122</v>
+        <v>0.438199</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.246479</v>
+        <v>0.247483</v>
       </c>
       <c r="C96" t="n">
-        <v>0.234367</v>
+        <v>0.233635</v>
       </c>
       <c r="D96" t="n">
-        <v>0.236883</v>
+        <v>0.437364</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242402</v>
+        <v>0.243339</v>
       </c>
       <c r="C97" t="n">
-        <v>0.232746</v>
+        <v>0.231761</v>
       </c>
       <c r="D97" t="n">
-        <v>0.235026</v>
+        <v>0.43433</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.23794</v>
+        <v>0.238803</v>
       </c>
       <c r="C98" t="n">
-        <v>0.231056</v>
+        <v>0.2304</v>
       </c>
       <c r="D98" t="n">
-        <v>0.2333</v>
+        <v>0.428428</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.232854</v>
+        <v>0.233941</v>
       </c>
       <c r="C99" t="n">
-        <v>0.229661</v>
+        <v>0.229002</v>
       </c>
       <c r="D99" t="n">
-        <v>0.231832</v>
+        <v>0.422753</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.227793</v>
+        <v>0.228657</v>
       </c>
       <c r="C100" t="n">
-        <v>0.228345</v>
+        <v>0.227705</v>
       </c>
       <c r="D100" t="n">
-        <v>0.230338</v>
+        <v>0.418057</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.222425</v>
+        <v>0.223438</v>
       </c>
       <c r="C101" t="n">
-        <v>0.227186</v>
+        <v>0.226654</v>
       </c>
       <c r="D101" t="n">
-        <v>0.229041</v>
+        <v>0.416928</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.216659</v>
+        <v>0.21772</v>
       </c>
       <c r="C102" t="n">
-        <v>0.226226</v>
+        <v>0.225525</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227909</v>
+        <v>0.41306</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.210823</v>
+        <v>0.212017</v>
       </c>
       <c r="C103" t="n">
-        <v>0.225286</v>
+        <v>0.224573</v>
       </c>
       <c r="D103" t="n">
-        <v>0.227291</v>
+        <v>0.409827</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204766</v>
+        <v>0.205857</v>
       </c>
       <c r="C104" t="n">
-        <v>0.224366</v>
+        <v>0.223723</v>
       </c>
       <c r="D104" t="n">
-        <v>0.226434</v>
+        <v>0.404869</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.198499</v>
+        <v>0.199385</v>
       </c>
       <c r="C105" t="n">
-        <v>0.223518</v>
+        <v>0.22294</v>
       </c>
       <c r="D105" t="n">
-        <v>0.225569</v>
+        <v>0.404241</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191936</v>
+        <v>0.193156</v>
       </c>
       <c r="C106" t="n">
-        <v>0.222717</v>
+        <v>0.222175</v>
       </c>
       <c r="D106" t="n">
-        <v>0.22447</v>
+        <v>0.398292</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.184297</v>
+        <v>0.185554</v>
       </c>
       <c r="C107" t="n">
-        <v>0.222016</v>
+        <v>0.221456</v>
       </c>
       <c r="D107" t="n">
-        <v>0.223506</v>
+        <v>0.432353</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174837</v>
+        <v>0.176453</v>
       </c>
       <c r="C108" t="n">
-        <v>0.239272</v>
+        <v>0.238615</v>
       </c>
       <c r="D108" t="n">
-        <v>0.239359</v>
+        <v>0.422076</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.164148</v>
+        <v>0.165223</v>
       </c>
       <c r="C109" t="n">
-        <v>0.236565</v>
+        <v>0.236118</v>
       </c>
       <c r="D109" t="n">
-        <v>0.237077</v>
+        <v>0.420227</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.247571</v>
+        <v>0.248347</v>
       </c>
       <c r="C110" t="n">
-        <v>0.234634</v>
+        <v>0.233863</v>
       </c>
       <c r="D110" t="n">
-        <v>0.235164</v>
+        <v>0.416349</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.243574</v>
+        <v>0.244331</v>
       </c>
       <c r="C111" t="n">
-        <v>0.232906</v>
+        <v>0.232077</v>
       </c>
       <c r="D111" t="n">
-        <v>0.233593</v>
+        <v>0.414206</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.239118</v>
+        <v>0.239935</v>
       </c>
       <c r="C112" t="n">
-        <v>0.23138</v>
+        <v>0.230551</v>
       </c>
       <c r="D112" t="n">
-        <v>0.232104</v>
+        <v>0.410709</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234282</v>
+        <v>0.235105</v>
       </c>
       <c r="C113" t="n">
-        <v>0.229957</v>
+        <v>0.229258</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230799</v>
+        <v>0.405181</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229109</v>
+        <v>0.229823</v>
       </c>
       <c r="C114" t="n">
-        <v>0.228747</v>
+        <v>0.227991</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229582</v>
+        <v>0.402827</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.223665</v>
+        <v>0.224561</v>
       </c>
       <c r="C115" t="n">
-        <v>0.227584</v>
+        <v>0.226838</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228359</v>
+        <v>0.397938</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.218148</v>
+        <v>0.219177</v>
       </c>
       <c r="C116" t="n">
-        <v>0.226588</v>
+        <v>0.225822</v>
       </c>
       <c r="D116" t="n">
-        <v>0.227355</v>
+        <v>0.393821</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212019</v>
+        <v>0.213472</v>
       </c>
       <c r="C117" t="n">
-        <v>0.225552</v>
+        <v>0.224966</v>
       </c>
       <c r="D117" t="n">
-        <v>0.226801</v>
+        <v>0.394136</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206032</v>
+        <v>0.207617</v>
       </c>
       <c r="C118" t="n">
-        <v>0.224546</v>
+        <v>0.224057</v>
       </c>
       <c r="D118" t="n">
-        <v>0.225947</v>
+        <v>0.392757</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.199602</v>
+        <v>0.201555</v>
       </c>
       <c r="C119" t="n">
-        <v>0.223735</v>
+        <v>0.223162</v>
       </c>
       <c r="D119" t="n">
-        <v>0.225005</v>
+        <v>0.389981</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193306</v>
+        <v>0.194696</v>
       </c>
       <c r="C120" t="n">
-        <v>0.222878</v>
+        <v>0.222411</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224247</v>
+        <v>0.388749</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185727</v>
+        <v>0.187272</v>
       </c>
       <c r="C121" t="n">
-        <v>0.222078</v>
+        <v>0.22162</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223566</v>
+        <v>0.463123</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.177102</v>
+        <v>0.178208</v>
       </c>
       <c r="C122" t="n">
-        <v>0.221404</v>
+        <v>0.220911</v>
       </c>
       <c r="D122" t="n">
-        <v>0.222755</v>
+        <v>0.450987</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.166373</v>
+        <v>0.167621</v>
       </c>
       <c r="C123" t="n">
-        <v>0.237077</v>
+        <v>0.236474</v>
       </c>
       <c r="D123" t="n">
-        <v>0.237464</v>
+        <v>0.44374</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.248195</v>
+        <v>0.249141</v>
       </c>
       <c r="C124" t="n">
-        <v>0.235073</v>
+        <v>0.234454</v>
       </c>
       <c r="D124" t="n">
-        <v>0.235453</v>
+        <v>0.440364</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.24424</v>
+        <v>0.245291</v>
       </c>
       <c r="C125" t="n">
-        <v>0.233351</v>
+        <v>0.232699</v>
       </c>
       <c r="D125" t="n">
-        <v>0.233772</v>
+        <v>0.436582</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.239921</v>
+        <v>0.240693</v>
       </c>
       <c r="C126" t="n">
-        <v>0.231791</v>
+        <v>0.231007</v>
       </c>
       <c r="D126" t="n">
-        <v>0.23219</v>
+        <v>0.430221</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.235064</v>
+        <v>0.236034</v>
       </c>
       <c r="C127" t="n">
-        <v>0.230411</v>
+        <v>0.229605</v>
       </c>
       <c r="D127" t="n">
-        <v>0.230943</v>
+        <v>0.426661</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.229972</v>
+        <v>0.230846</v>
       </c>
       <c r="C128" t="n">
-        <v>0.229159</v>
+        <v>0.228362</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229756</v>
+        <v>0.422086</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224586</v>
+        <v>0.225626</v>
       </c>
       <c r="C129" t="n">
-        <v>0.227927</v>
+        <v>0.227103</v>
       </c>
       <c r="D129" t="n">
-        <v>0.228574</v>
+        <v>0.417769</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.218975</v>
+        <v>0.220081</v>
       </c>
       <c r="C130" t="n">
-        <v>0.226833</v>
+        <v>0.226079</v>
       </c>
       <c r="D130" t="n">
-        <v>0.22748</v>
+        <v>0.41305</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.213244</v>
+        <v>0.214733</v>
       </c>
       <c r="C131" t="n">
-        <v>0.225762</v>
+        <v>0.22522</v>
       </c>
       <c r="D131" t="n">
-        <v>0.22655</v>
+        <v>0.410152</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207429</v>
+        <v>0.209382</v>
       </c>
       <c r="C132" t="n">
-        <v>0.22481</v>
+        <v>0.224274</v>
       </c>
       <c r="D132" t="n">
-        <v>0.225575</v>
+        <v>0.406772</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.201438</v>
+        <v>0.202896</v>
       </c>
       <c r="C133" t="n">
-        <v>0.223966</v>
+        <v>0.223345</v>
       </c>
       <c r="D133" t="n">
-        <v>0.224741</v>
+        <v>0.402508</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194878</v>
+        <v>0.196303</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2231</v>
+        <v>0.222575</v>
       </c>
       <c r="D134" t="n">
-        <v>0.223891</v>
+        <v>0.400695</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.188094</v>
+        <v>0.189116</v>
       </c>
       <c r="C135" t="n">
-        <v>0.22228</v>
+        <v>0.221807</v>
       </c>
       <c r="D135" t="n">
-        <v>0.223158</v>
+        <v>0.462697</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.179527</v>
+        <v>0.180347</v>
       </c>
       <c r="C136" t="n">
-        <v>0.221595</v>
+        <v>0.221056</v>
       </c>
       <c r="D136" t="n">
-        <v>0.222709</v>
+        <v>0.45997</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.169279</v>
+        <v>0.17002</v>
       </c>
       <c r="C137" t="n">
-        <v>0.237505</v>
+        <v>0.237188</v>
       </c>
       <c r="D137" t="n">
-        <v>0.238534</v>
+        <v>0.456506</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.248937</v>
+        <v>0.249951</v>
       </c>
       <c r="C138" t="n">
-        <v>0.235411</v>
+        <v>0.234859</v>
       </c>
       <c r="D138" t="n">
-        <v>0.236513</v>
+        <v>0.450822</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.245121</v>
+        <v>0.246085</v>
       </c>
       <c r="C139" t="n">
-        <v>0.233626</v>
+        <v>0.232976</v>
       </c>
       <c r="D139" t="n">
-        <v>0.234577</v>
+        <v>0.445834</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240816</v>
+        <v>0.241681</v>
       </c>
       <c r="C140" t="n">
-        <v>0.232021</v>
+        <v>0.231417</v>
       </c>
       <c r="D140" t="n">
-        <v>0.233036</v>
+        <v>0.440215</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236084</v>
+        <v>0.23701</v>
       </c>
       <c r="C141" t="n">
-        <v>0.230583</v>
+        <v>0.229917</v>
       </c>
       <c r="D141" t="n">
-        <v>0.231609</v>
+        <v>0.436738</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.23095</v>
+        <v>0.232005</v>
       </c>
       <c r="C142" t="n">
-        <v>0.229266</v>
+        <v>0.228532</v>
       </c>
       <c r="D142" t="n">
-        <v>0.230354</v>
+        <v>0.428801</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225706</v>
+        <v>0.226835</v>
       </c>
       <c r="C143" t="n">
-        <v>0.228097</v>
+        <v>0.227347</v>
       </c>
       <c r="D143" t="n">
-        <v>0.229189</v>
+        <v>0.426174</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.178327</v>
+        <v>0.191196</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204759</v>
+        <v>0.210545</v>
       </c>
       <c r="D2" t="n">
-        <v>0.214363</v>
+        <v>0.213272</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.175002</v>
+        <v>0.186082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.206836</v>
+        <v>0.211082</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214357</v>
+        <v>0.213738</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.170704</v>
+        <v>0.181007</v>
       </c>
       <c r="C4" t="n">
-        <v>0.208729</v>
+        <v>0.212402</v>
       </c>
       <c r="D4" t="n">
-        <v>0.214802</v>
+        <v>0.213464</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.168145</v>
+        <v>0.175814</v>
       </c>
       <c r="C5" t="n">
-        <v>0.210403</v>
+        <v>0.212586</v>
       </c>
       <c r="D5" t="n">
-        <v>0.21508</v>
+        <v>0.213894</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.165732</v>
+        <v>0.172984</v>
       </c>
       <c r="C6" t="n">
-        <v>0.211424</v>
+        <v>0.212729</v>
       </c>
       <c r="D6" t="n">
-        <v>0.215506</v>
+        <v>0.213618</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.159918</v>
+        <v>0.165467</v>
       </c>
       <c r="C7" t="n">
-        <v>0.212856</v>
+        <v>0.213313</v>
       </c>
       <c r="D7" t="n">
-        <v>0.215684</v>
+        <v>0.213865</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.155262</v>
+        <v>0.157717</v>
       </c>
       <c r="C8" t="n">
-        <v>0.214102</v>
+        <v>0.214591</v>
       </c>
       <c r="D8" t="n">
-        <v>0.214624</v>
+        <v>0.21389</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.146165</v>
+        <v>0.149379</v>
       </c>
       <c r="C9" t="n">
-        <v>0.223354</v>
+        <v>0.227027</v>
       </c>
       <c r="D9" t="n">
-        <v>0.232564</v>
+        <v>0.23077</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.228328</v>
+        <v>0.231638</v>
       </c>
       <c r="C10" t="n">
-        <v>0.223417</v>
+        <v>0.227062</v>
       </c>
       <c r="D10" t="n">
-        <v>0.231152</v>
+        <v>0.229858</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.225293</v>
+        <v>0.227523</v>
       </c>
       <c r="C11" t="n">
-        <v>0.223264</v>
+        <v>0.226015</v>
       </c>
       <c r="D11" t="n">
-        <v>0.230434</v>
+        <v>0.22898</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.222213</v>
+        <v>0.224976</v>
       </c>
       <c r="C12" t="n">
-        <v>0.223617</v>
+        <v>0.225468</v>
       </c>
       <c r="D12" t="n">
-        <v>0.229033</v>
+        <v>0.22778</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.219551</v>
+        <v>0.222041</v>
       </c>
       <c r="C13" t="n">
-        <v>0.224309</v>
+        <v>0.225036</v>
       </c>
       <c r="D13" t="n">
-        <v>0.228786</v>
+        <v>0.22695</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216462</v>
+        <v>0.218211</v>
       </c>
       <c r="C14" t="n">
-        <v>0.223548</v>
+        <v>0.224449</v>
       </c>
       <c r="D14" t="n">
-        <v>0.227555</v>
+        <v>0.226617</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212679</v>
+        <v>0.214013</v>
       </c>
       <c r="C15" t="n">
-        <v>0.223038</v>
+        <v>0.223431</v>
       </c>
       <c r="D15" t="n">
-        <v>0.226724</v>
+        <v>0.225416</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208233</v>
+        <v>0.210185</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222289</v>
+        <v>0.222744</v>
       </c>
       <c r="D16" t="n">
-        <v>0.225621</v>
+        <v>0.224738</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203752</v>
+        <v>0.205022</v>
       </c>
       <c r="C17" t="n">
-        <v>0.222017</v>
+        <v>0.222319</v>
       </c>
       <c r="D17" t="n">
-        <v>0.225128</v>
+        <v>0.22413</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198271</v>
+        <v>0.200065</v>
       </c>
       <c r="C18" t="n">
-        <v>0.221525</v>
+        <v>0.221588</v>
       </c>
       <c r="D18" t="n">
-        <v>0.224032</v>
+        <v>0.223144</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193762</v>
+        <v>0.195057</v>
       </c>
       <c r="C19" t="n">
-        <v>0.221285</v>
+        <v>0.220919</v>
       </c>
       <c r="D19" t="n">
-        <v>0.223521</v>
+        <v>0.222542</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188229</v>
+        <v>0.188932</v>
       </c>
       <c r="C20" t="n">
-        <v>0.220418</v>
+        <v>0.21981</v>
       </c>
       <c r="D20" t="n">
-        <v>0.222938</v>
+        <v>0.222014</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.182379</v>
+        <v>0.183209</v>
       </c>
       <c r="C21" t="n">
-        <v>0.220358</v>
+        <v>0.219731</v>
       </c>
       <c r="D21" t="n">
-        <v>0.222214</v>
+        <v>0.220895</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174728</v>
+        <v>0.176157</v>
       </c>
       <c r="C22" t="n">
-        <v>0.220063</v>
+        <v>0.219759</v>
       </c>
       <c r="D22" t="n">
-        <v>0.22145</v>
+        <v>0.220409</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165618</v>
+        <v>0.166101</v>
       </c>
       <c r="C23" t="n">
-        <v>0.233236</v>
+        <v>0.233485</v>
       </c>
       <c r="D23" t="n">
-        <v>0.235567</v>
+        <v>0.234103</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241657</v>
+        <v>0.242385</v>
       </c>
       <c r="C24" t="n">
-        <v>0.231754</v>
+        <v>0.231429</v>
       </c>
       <c r="D24" t="n">
-        <v>0.234825</v>
+        <v>0.233008</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.237549</v>
+        <v>0.238677</v>
       </c>
       <c r="C25" t="n">
-        <v>0.230826</v>
+        <v>0.230354</v>
       </c>
       <c r="D25" t="n">
-        <v>0.233163</v>
+        <v>0.231406</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233392</v>
+        <v>0.234409</v>
       </c>
       <c r="C26" t="n">
-        <v>0.229465</v>
+        <v>0.229195</v>
       </c>
       <c r="D26" t="n">
-        <v>0.231741</v>
+        <v>0.230121</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229705</v>
+        <v>0.230311</v>
       </c>
       <c r="C27" t="n">
-        <v>0.228796</v>
+        <v>0.228271</v>
       </c>
       <c r="D27" t="n">
-        <v>0.230383</v>
+        <v>0.229389</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.224905</v>
+        <v>0.225756</v>
       </c>
       <c r="C28" t="n">
-        <v>0.227567</v>
+        <v>0.227111</v>
       </c>
       <c r="D28" t="n">
-        <v>0.229424</v>
+        <v>0.228415</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.22048</v>
+        <v>0.220837</v>
       </c>
       <c r="C29" t="n">
-        <v>0.226754</v>
+        <v>0.226024</v>
       </c>
       <c r="D29" t="n">
-        <v>0.228506</v>
+        <v>0.227132</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.21551</v>
+        <v>0.216015</v>
       </c>
       <c r="C30" t="n">
-        <v>0.225785</v>
+        <v>0.22493</v>
       </c>
       <c r="D30" t="n">
-        <v>0.227661</v>
+        <v>0.226266</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.210356</v>
+        <v>0.210773</v>
       </c>
       <c r="C31" t="n">
-        <v>0.224661</v>
+        <v>0.224083</v>
       </c>
       <c r="D31" t="n">
-        <v>0.226693</v>
+        <v>0.22545</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205745</v>
+        <v>0.2063</v>
       </c>
       <c r="C32" t="n">
-        <v>0.223822</v>
+        <v>0.223286</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225563</v>
+        <v>0.224525</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200003</v>
+        <v>0.199927</v>
       </c>
       <c r="C33" t="n">
-        <v>0.22286</v>
+        <v>0.222574</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224606</v>
+        <v>0.223789</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193939</v>
+        <v>0.193352</v>
       </c>
       <c r="C34" t="n">
-        <v>0.222228</v>
+        <v>0.221837</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223845</v>
+        <v>0.222984</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187334</v>
+        <v>0.18714</v>
       </c>
       <c r="C35" t="n">
-        <v>0.221878</v>
+        <v>0.221511</v>
       </c>
       <c r="D35" t="n">
-        <v>0.22342</v>
+        <v>0.222424</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.17968</v>
+        <v>0.179774</v>
       </c>
       <c r="C36" t="n">
-        <v>0.221326</v>
+        <v>0.221073</v>
       </c>
       <c r="D36" t="n">
-        <v>0.222581</v>
+        <v>0.221626</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170237</v>
+        <v>0.171351</v>
       </c>
       <c r="C37" t="n">
-        <v>0.234701</v>
+        <v>0.235039</v>
       </c>
       <c r="D37" t="n">
-        <v>0.236296</v>
+        <v>0.234964</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246071</v>
+        <v>0.246272</v>
       </c>
       <c r="C38" t="n">
-        <v>0.233393</v>
+        <v>0.232892</v>
       </c>
       <c r="D38" t="n">
-        <v>0.234931</v>
+        <v>0.233448</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.24251</v>
+        <v>0.242941</v>
       </c>
       <c r="C39" t="n">
-        <v>0.232192</v>
+        <v>0.231607</v>
       </c>
       <c r="D39" t="n">
-        <v>0.234065</v>
+        <v>0.232374</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.238927</v>
+        <v>0.239565</v>
       </c>
       <c r="C40" t="n">
-        <v>0.230991</v>
+        <v>0.230597</v>
       </c>
       <c r="D40" t="n">
-        <v>0.232478</v>
+        <v>0.231154</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234685</v>
+        <v>0.235079</v>
       </c>
       <c r="C41" t="n">
-        <v>0.229881</v>
+        <v>0.229567</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230899</v>
+        <v>0.229934</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230383</v>
+        <v>0.230503</v>
       </c>
       <c r="C42" t="n">
-        <v>0.228772</v>
+        <v>0.228156</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229905</v>
+        <v>0.228797</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.22561</v>
+        <v>0.225714</v>
       </c>
       <c r="C43" t="n">
-        <v>0.227664</v>
+        <v>0.227111</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228748</v>
+        <v>0.227577</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220741</v>
+        <v>0.220787</v>
       </c>
       <c r="C44" t="n">
-        <v>0.226453</v>
+        <v>0.226001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227854</v>
+        <v>0.226685</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215314</v>
+        <v>0.214916</v>
       </c>
       <c r="C45" t="n">
-        <v>0.225639</v>
+        <v>0.225173</v>
       </c>
       <c r="D45" t="n">
-        <v>0.22691</v>
+        <v>0.225682</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209056</v>
+        <v>0.209237</v>
       </c>
       <c r="C46" t="n">
-        <v>0.224861</v>
+        <v>0.22437</v>
       </c>
       <c r="D46" t="n">
-        <v>0.226049</v>
+        <v>0.224954</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203412</v>
+        <v>0.203064</v>
       </c>
       <c r="C47" t="n">
-        <v>0.223854</v>
+        <v>0.223466</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224964</v>
+        <v>0.223995</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197084</v>
+        <v>0.197731</v>
       </c>
       <c r="C48" t="n">
-        <v>0.223149</v>
+        <v>0.222646</v>
       </c>
       <c r="D48" t="n">
-        <v>0.224237</v>
+        <v>0.223197</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190672</v>
+        <v>0.19065</v>
       </c>
       <c r="C49" t="n">
-        <v>0.222301</v>
+        <v>0.221773</v>
       </c>
       <c r="D49" t="n">
-        <v>0.223567</v>
+        <v>0.222336</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183243</v>
+        <v>0.18314</v>
       </c>
       <c r="C50" t="n">
-        <v>0.221777</v>
+        <v>0.221192</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222677</v>
+        <v>0.221665</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174092</v>
+        <v>0.174139</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2363</v>
+        <v>0.23677</v>
       </c>
       <c r="D51" t="n">
-        <v>0.237091</v>
+        <v>0.236502</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.163766</v>
+        <v>0.163905</v>
       </c>
       <c r="C52" t="n">
-        <v>0.234641</v>
+        <v>0.23453</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235669</v>
+        <v>0.234683</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246063</v>
+        <v>0.246283</v>
       </c>
       <c r="C53" t="n">
-        <v>0.233239</v>
+        <v>0.232883</v>
       </c>
       <c r="D53" t="n">
-        <v>0.234366</v>
+        <v>0.233036</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242205</v>
+        <v>0.242218</v>
       </c>
       <c r="C54" t="n">
-        <v>0.231971</v>
+        <v>0.23147</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232839</v>
+        <v>0.231674</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237894</v>
+        <v>0.237815</v>
       </c>
       <c r="C55" t="n">
-        <v>0.230774</v>
+        <v>0.230135</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231624</v>
+        <v>0.230477</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.232981</v>
+        <v>0.233247</v>
       </c>
       <c r="C56" t="n">
-        <v>0.229499</v>
+        <v>0.228939</v>
       </c>
       <c r="D56" t="n">
-        <v>0.230404</v>
+        <v>0.229213</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228192</v>
+        <v>0.227967</v>
       </c>
       <c r="C57" t="n">
-        <v>0.22837</v>
+        <v>0.227685</v>
       </c>
       <c r="D57" t="n">
-        <v>0.229259</v>
+        <v>0.228211</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222683</v>
+        <v>0.222595</v>
       </c>
       <c r="C58" t="n">
-        <v>0.227222</v>
+        <v>0.2266</v>
       </c>
       <c r="D58" t="n">
-        <v>0.228129</v>
+        <v>0.227065</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217575</v>
+        <v>0.217617</v>
       </c>
       <c r="C59" t="n">
-        <v>0.226316</v>
+        <v>0.225912</v>
       </c>
       <c r="D59" t="n">
-        <v>0.227041</v>
+        <v>0.226156</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211776</v>
+        <v>0.211782</v>
       </c>
       <c r="C60" t="n">
-        <v>0.225451</v>
+        <v>0.22496</v>
       </c>
       <c r="D60" t="n">
-        <v>0.226559</v>
+        <v>0.225223</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206233</v>
+        <v>0.205936</v>
       </c>
       <c r="C61" t="n">
-        <v>0.224617</v>
+        <v>0.224047</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225483</v>
+        <v>0.22432</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200117</v>
+        <v>0.199454</v>
       </c>
       <c r="C62" t="n">
-        <v>0.223788</v>
+        <v>0.223366</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224564</v>
+        <v>0.223493</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.193954</v>
+        <v>0.193967</v>
       </c>
       <c r="C63" t="n">
-        <v>0.222969</v>
+        <v>0.22247</v>
       </c>
       <c r="D63" t="n">
-        <v>0.223915</v>
+        <v>0.222642</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.186406</v>
+        <v>0.186485</v>
       </c>
       <c r="C64" t="n">
-        <v>0.222029</v>
+        <v>0.221608</v>
       </c>
       <c r="D64" t="n">
-        <v>0.223172</v>
+        <v>0.221758</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177747</v>
+        <v>0.177648</v>
       </c>
       <c r="C65" t="n">
-        <v>0.221377</v>
+        <v>0.220726</v>
       </c>
       <c r="D65" t="n">
-        <v>0.222251</v>
+        <v>0.221066</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167641</v>
+        <v>0.167794</v>
       </c>
       <c r="C66" t="n">
-        <v>0.236061</v>
+        <v>0.235244</v>
       </c>
       <c r="D66" t="n">
-        <v>0.236505</v>
+        <v>0.235386</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.24846</v>
+        <v>0.248139</v>
       </c>
       <c r="C67" t="n">
-        <v>0.234279</v>
+        <v>0.233406</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234885</v>
+        <v>0.233826</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.244748</v>
+        <v>0.244396</v>
       </c>
       <c r="C68" t="n">
-        <v>0.232791</v>
+        <v>0.232169</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233517</v>
+        <v>0.232393</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240324</v>
+        <v>0.240149</v>
       </c>
       <c r="C69" t="n">
-        <v>0.231543</v>
+        <v>0.230804</v>
       </c>
       <c r="D69" t="n">
-        <v>0.232111</v>
+        <v>0.231122</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235523</v>
+        <v>0.235203</v>
       </c>
       <c r="C70" t="n">
-        <v>0.230261</v>
+        <v>0.229619</v>
       </c>
       <c r="D70" t="n">
-        <v>0.231066</v>
+        <v>0.229752</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230484</v>
+        <v>0.230444</v>
       </c>
       <c r="C71" t="n">
-        <v>0.229138</v>
+        <v>0.228434</v>
       </c>
       <c r="D71" t="n">
-        <v>0.229867</v>
+        <v>0.22872</v>
       </c>
     </row>
     <row r="72">
@@ -4230,10 +4230,10 @@
         <v>0.22525</v>
       </c>
       <c r="C72" t="n">
-        <v>0.22804</v>
+        <v>0.227363</v>
       </c>
       <c r="D72" t="n">
-        <v>0.228661</v>
+        <v>0.227648</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219925</v>
+        <v>0.219692</v>
       </c>
       <c r="C73" t="n">
-        <v>0.227001</v>
+        <v>0.226336</v>
       </c>
       <c r="D73" t="n">
-        <v>0.227658</v>
+        <v>0.226626</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.214127</v>
+        <v>0.213898</v>
       </c>
       <c r="C74" t="n">
-        <v>0.225922</v>
+        <v>0.225116</v>
       </c>
       <c r="D74" t="n">
-        <v>0.226615</v>
+        <v>0.225607</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.20807</v>
+        <v>0.207839</v>
       </c>
       <c r="C75" t="n">
-        <v>0.225098</v>
+        <v>0.224388</v>
       </c>
       <c r="D75" t="n">
-        <v>0.225672</v>
+        <v>0.224567</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.201936</v>
+        <v>0.201669</v>
       </c>
       <c r="C76" t="n">
-        <v>0.224153</v>
+        <v>0.223452</v>
       </c>
       <c r="D76" t="n">
-        <v>0.224853</v>
+        <v>0.223763</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.195765</v>
+        <v>0.195793</v>
       </c>
       <c r="C77" t="n">
-        <v>0.223343</v>
+        <v>0.222715</v>
       </c>
       <c r="D77" t="n">
-        <v>0.22397</v>
+        <v>0.222992</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188683</v>
+        <v>0.188628</v>
       </c>
       <c r="C78" t="n">
-        <v>0.222389</v>
+        <v>0.221892</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223266</v>
+        <v>0.222134</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180296</v>
+        <v>0.179991</v>
       </c>
       <c r="C79" t="n">
-        <v>0.221577</v>
+        <v>0.221066</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222558</v>
+        <v>0.221338</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170735</v>
+        <v>0.170535</v>
       </c>
       <c r="C80" t="n">
-        <v>0.237836</v>
+        <v>0.237275</v>
       </c>
       <c r="D80" t="n">
-        <v>0.24124</v>
+        <v>0.239972</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.249728</v>
+        <v>0.249433</v>
       </c>
       <c r="C81" t="n">
-        <v>0.235877</v>
+        <v>0.235084</v>
       </c>
       <c r="D81" t="n">
-        <v>0.238288</v>
+        <v>0.23732</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.246093</v>
+        <v>0.245422</v>
       </c>
       <c r="C82" t="n">
-        <v>0.234029</v>
+        <v>0.233429</v>
       </c>
       <c r="D82" t="n">
-        <v>0.236196</v>
+        <v>0.235327</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241617</v>
+        <v>0.2413</v>
       </c>
       <c r="C83" t="n">
-        <v>0.232469</v>
+        <v>0.231772</v>
       </c>
       <c r="D83" t="n">
-        <v>0.234118</v>
+        <v>0.233325</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236967</v>
+        <v>0.23645</v>
       </c>
       <c r="C84" t="n">
-        <v>0.230889</v>
+        <v>0.230449</v>
       </c>
       <c r="D84" t="n">
-        <v>0.232638</v>
+        <v>0.231738</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231983</v>
+        <v>0.231452</v>
       </c>
       <c r="C85" t="n">
-        <v>0.229562</v>
+        <v>0.229015</v>
       </c>
       <c r="D85" t="n">
-        <v>0.231358</v>
+        <v>0.230148</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226503</v>
+        <v>0.226068</v>
       </c>
       <c r="C86" t="n">
-        <v>0.228417</v>
+        <v>0.227794</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229788</v>
+        <v>0.228611</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220959</v>
+        <v>0.220399</v>
       </c>
       <c r="C87" t="n">
-        <v>0.227187</v>
+        <v>0.22669</v>
       </c>
       <c r="D87" t="n">
-        <v>0.22856</v>
+        <v>0.227325</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215126</v>
+        <v>0.214895</v>
       </c>
       <c r="C88" t="n">
-        <v>0.226051</v>
+        <v>0.225697</v>
       </c>
       <c r="D88" t="n">
-        <v>0.227471</v>
+        <v>0.226216</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.209206</v>
+        <v>0.209109</v>
       </c>
       <c r="C89" t="n">
-        <v>0.225112</v>
+        <v>0.224859</v>
       </c>
       <c r="D89" t="n">
-        <v>0.226286</v>
+        <v>0.225236</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.203094</v>
+        <v>0.202804</v>
       </c>
       <c r="C90" t="n">
-        <v>0.224311</v>
+        <v>0.224027</v>
       </c>
       <c r="D90" t="n">
-        <v>0.225425</v>
+        <v>0.224213</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196993</v>
+        <v>0.196793</v>
       </c>
       <c r="C91" t="n">
-        <v>0.223364</v>
+        <v>0.223114</v>
       </c>
       <c r="D91" t="n">
-        <v>0.22443</v>
+        <v>0.223289</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190347</v>
+        <v>0.189717</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2225</v>
+        <v>0.222262</v>
       </c>
       <c r="D92" t="n">
-        <v>0.223877</v>
+        <v>0.222602</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182372</v>
+        <v>0.182128</v>
       </c>
       <c r="C93" t="n">
-        <v>0.221796</v>
+        <v>0.22161</v>
       </c>
       <c r="D93" t="n">
-        <v>0.222904</v>
+        <v>0.221882</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172933</v>
+        <v>0.172633</v>
       </c>
       <c r="C94" t="n">
-        <v>0.238735</v>
+        <v>0.238416</v>
       </c>
       <c r="D94" t="n">
-        <v>0.240413</v>
+        <v>0.239306</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.250158</v>
+        <v>0.249975</v>
       </c>
       <c r="C95" t="n">
-        <v>0.23622</v>
+        <v>0.235839</v>
       </c>
       <c r="D95" t="n">
-        <v>0.238122</v>
+        <v>0.237015</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.246479</v>
+        <v>0.246137</v>
       </c>
       <c r="C96" t="n">
-        <v>0.234367</v>
+        <v>0.233993</v>
       </c>
       <c r="D96" t="n">
-        <v>0.236883</v>
+        <v>0.235813</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242402</v>
+        <v>0.242109</v>
       </c>
       <c r="C97" t="n">
-        <v>0.232746</v>
+        <v>0.232259</v>
       </c>
       <c r="D97" t="n">
-        <v>0.235026</v>
+        <v>0.233383</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.23794</v>
+        <v>0.237543</v>
       </c>
       <c r="C98" t="n">
-        <v>0.231056</v>
+        <v>0.230727</v>
       </c>
       <c r="D98" t="n">
-        <v>0.2333</v>
+        <v>0.232072</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.232854</v>
+        <v>0.232578</v>
       </c>
       <c r="C99" t="n">
-        <v>0.229661</v>
+        <v>0.229358</v>
       </c>
       <c r="D99" t="n">
-        <v>0.231832</v>
+        <v>0.230808</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.227793</v>
+        <v>0.227279</v>
       </c>
       <c r="C100" t="n">
-        <v>0.228345</v>
+        <v>0.228081</v>
       </c>
       <c r="D100" t="n">
-        <v>0.230338</v>
+        <v>0.229214</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.222425</v>
+        <v>0.221852</v>
       </c>
       <c r="C101" t="n">
-        <v>0.227186</v>
+        <v>0.226911</v>
       </c>
       <c r="D101" t="n">
-        <v>0.229041</v>
+        <v>0.227889</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.216659</v>
+        <v>0.216303</v>
       </c>
       <c r="C102" t="n">
-        <v>0.226226</v>
+        <v>0.225975</v>
       </c>
       <c r="D102" t="n">
-        <v>0.227909</v>
+        <v>0.226825</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.210823</v>
+        <v>0.210514</v>
       </c>
       <c r="C103" t="n">
-        <v>0.225286</v>
+        <v>0.225033</v>
       </c>
       <c r="D103" t="n">
-        <v>0.227291</v>
+        <v>0.226082</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204766</v>
+        <v>0.204711</v>
       </c>
       <c r="C104" t="n">
-        <v>0.224366</v>
+        <v>0.224203</v>
       </c>
       <c r="D104" t="n">
-        <v>0.226434</v>
+        <v>0.225103</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.198499</v>
+        <v>0.198343</v>
       </c>
       <c r="C105" t="n">
-        <v>0.223518</v>
+        <v>0.223467</v>
       </c>
       <c r="D105" t="n">
-        <v>0.225569</v>
+        <v>0.224196</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191936</v>
+        <v>0.19156</v>
       </c>
       <c r="C106" t="n">
-        <v>0.222717</v>
+        <v>0.222746</v>
       </c>
       <c r="D106" t="n">
-        <v>0.22447</v>
+        <v>0.223511</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.184297</v>
+        <v>0.183524</v>
       </c>
       <c r="C107" t="n">
-        <v>0.222016</v>
+        <v>0.22169</v>
       </c>
       <c r="D107" t="n">
-        <v>0.223506</v>
+        <v>0.222676</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174837</v>
+        <v>0.17469</v>
       </c>
       <c r="C108" t="n">
-        <v>0.239272</v>
+        <v>0.238781</v>
       </c>
       <c r="D108" t="n">
-        <v>0.239359</v>
+        <v>0.239373</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.164148</v>
+        <v>0.163547</v>
       </c>
       <c r="C109" t="n">
-        <v>0.236565</v>
+        <v>0.236126</v>
       </c>
       <c r="D109" t="n">
-        <v>0.237077</v>
+        <v>0.236659</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.247571</v>
+        <v>0.247477</v>
       </c>
       <c r="C110" t="n">
-        <v>0.234634</v>
+        <v>0.234054</v>
       </c>
       <c r="D110" t="n">
-        <v>0.235164</v>
+        <v>0.234451</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.243574</v>
+        <v>0.243542</v>
       </c>
       <c r="C111" t="n">
-        <v>0.232906</v>
+        <v>0.232411</v>
       </c>
       <c r="D111" t="n">
-        <v>0.233593</v>
+        <v>0.232806</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.239118</v>
+        <v>0.239035</v>
       </c>
       <c r="C112" t="n">
-        <v>0.23138</v>
+        <v>0.230995</v>
       </c>
       <c r="D112" t="n">
-        <v>0.232104</v>
+        <v>0.231234</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234282</v>
+        <v>0.234341</v>
       </c>
       <c r="C113" t="n">
-        <v>0.229957</v>
+        <v>0.229483</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230799</v>
+        <v>0.230031</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229109</v>
+        <v>0.229102</v>
       </c>
       <c r="C114" t="n">
-        <v>0.228747</v>
+        <v>0.228307</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229582</v>
+        <v>0.228603</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.223665</v>
+        <v>0.223582</v>
       </c>
       <c r="C115" t="n">
-        <v>0.227584</v>
+        <v>0.227072</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228359</v>
+        <v>0.227568</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.218148</v>
+        <v>0.21795</v>
       </c>
       <c r="C116" t="n">
-        <v>0.226588</v>
+        <v>0.226118</v>
       </c>
       <c r="D116" t="n">
-        <v>0.227355</v>
+        <v>0.226788</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212019</v>
+        <v>0.212094</v>
       </c>
       <c r="C117" t="n">
-        <v>0.225552</v>
+        <v>0.22523</v>
       </c>
       <c r="D117" t="n">
-        <v>0.226801</v>
+        <v>0.225904</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206032</v>
+        <v>0.20619</v>
       </c>
       <c r="C118" t="n">
-        <v>0.224546</v>
+        <v>0.224279</v>
       </c>
       <c r="D118" t="n">
-        <v>0.225947</v>
+        <v>0.225709</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.199602</v>
+        <v>0.199923</v>
       </c>
       <c r="C119" t="n">
-        <v>0.223735</v>
+        <v>0.223493</v>
       </c>
       <c r="D119" t="n">
-        <v>0.225005</v>
+        <v>0.224706</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193306</v>
+        <v>0.193156</v>
       </c>
       <c r="C120" t="n">
-        <v>0.222878</v>
+        <v>0.222628</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224247</v>
+        <v>0.223944</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185727</v>
+        <v>0.18555</v>
       </c>
       <c r="C121" t="n">
-        <v>0.222078</v>
+        <v>0.221911</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223566</v>
+        <v>0.223166</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.177102</v>
+        <v>0.176625</v>
       </c>
       <c r="C122" t="n">
-        <v>0.221404</v>
+        <v>0.22112</v>
       </c>
       <c r="D122" t="n">
-        <v>0.222755</v>
+        <v>0.222525</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.166373</v>
+        <v>0.165657</v>
       </c>
       <c r="C123" t="n">
-        <v>0.237077</v>
+        <v>0.236523</v>
       </c>
       <c r="D123" t="n">
-        <v>0.237464</v>
+        <v>0.237607</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.248195</v>
+        <v>0.248163</v>
       </c>
       <c r="C124" t="n">
-        <v>0.235073</v>
+        <v>0.234534</v>
       </c>
       <c r="D124" t="n">
-        <v>0.235453</v>
+        <v>0.2356</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.24424</v>
+        <v>0.24408</v>
       </c>
       <c r="C125" t="n">
-        <v>0.233351</v>
+        <v>0.232784</v>
       </c>
       <c r="D125" t="n">
-        <v>0.233772</v>
+        <v>0.233919</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.239921</v>
+        <v>0.239803</v>
       </c>
       <c r="C126" t="n">
-        <v>0.231791</v>
+        <v>0.231273</v>
       </c>
       <c r="D126" t="n">
-        <v>0.23219</v>
+        <v>0.232323</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.235064</v>
+        <v>0.23498</v>
       </c>
       <c r="C127" t="n">
-        <v>0.230411</v>
+        <v>0.229953</v>
       </c>
       <c r="D127" t="n">
-        <v>0.230943</v>
+        <v>0.230989</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.229972</v>
+        <v>0.229797</v>
       </c>
       <c r="C128" t="n">
-        <v>0.229159</v>
+        <v>0.228567</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229756</v>
+        <v>0.228988</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224586</v>
+        <v>0.224352</v>
       </c>
       <c r="C129" t="n">
-        <v>0.227927</v>
+        <v>0.227448</v>
       </c>
       <c r="D129" t="n">
-        <v>0.228574</v>
+        <v>0.227746</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.218975</v>
+        <v>0.219019</v>
       </c>
       <c r="C130" t="n">
-        <v>0.226833</v>
+        <v>0.226356</v>
       </c>
       <c r="D130" t="n">
-        <v>0.22748</v>
+        <v>0.226739</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.213244</v>
+        <v>0.213169</v>
       </c>
       <c r="C131" t="n">
-        <v>0.225762</v>
+        <v>0.225409</v>
       </c>
       <c r="D131" t="n">
-        <v>0.22655</v>
+        <v>0.22565</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207429</v>
+        <v>0.207572</v>
       </c>
       <c r="C132" t="n">
-        <v>0.22481</v>
+        <v>0.224573</v>
       </c>
       <c r="D132" t="n">
-        <v>0.225575</v>
+        <v>0.224585</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.201438</v>
+        <v>0.201339</v>
       </c>
       <c r="C133" t="n">
-        <v>0.223966</v>
+        <v>0.223687</v>
       </c>
       <c r="D133" t="n">
-        <v>0.224741</v>
+        <v>0.223812</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194878</v>
+        <v>0.194609</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2231</v>
+        <v>0.222811</v>
       </c>
       <c r="D134" t="n">
-        <v>0.223891</v>
+        <v>0.223675</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.188094</v>
+        <v>0.187068</v>
       </c>
       <c r="C135" t="n">
-        <v>0.22228</v>
+        <v>0.221995</v>
       </c>
       <c r="D135" t="n">
-        <v>0.223158</v>
+        <v>0.222939</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.179527</v>
+        <v>0.17863</v>
       </c>
       <c r="C136" t="n">
-        <v>0.221595</v>
+        <v>0.221374</v>
       </c>
       <c r="D136" t="n">
-        <v>0.222709</v>
+        <v>0.2217</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.169279</v>
+        <v>0.168365</v>
       </c>
       <c r="C137" t="n">
-        <v>0.237505</v>
+        <v>0.237049</v>
       </c>
       <c r="D137" t="n">
-        <v>0.238534</v>
+        <v>0.238025</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.248937</v>
+        <v>0.248881</v>
       </c>
       <c r="C138" t="n">
-        <v>0.235411</v>
+        <v>0.234846</v>
       </c>
       <c r="D138" t="n">
-        <v>0.236513</v>
+        <v>0.235838</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.245121</v>
+        <v>0.245011</v>
       </c>
       <c r="C139" t="n">
-        <v>0.233626</v>
+        <v>0.232963</v>
       </c>
       <c r="D139" t="n">
-        <v>0.234577</v>
+        <v>0.233954</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240816</v>
+        <v>0.240769</v>
       </c>
       <c r="C140" t="n">
-        <v>0.232021</v>
+        <v>0.231411</v>
       </c>
       <c r="D140" t="n">
-        <v>0.233036</v>
+        <v>0.232433</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236084</v>
+        <v>0.235978</v>
       </c>
       <c r="C141" t="n">
-        <v>0.230583</v>
+        <v>0.229983</v>
       </c>
       <c r="D141" t="n">
-        <v>0.231609</v>
+        <v>0.230989</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.23095</v>
+        <v>0.230913</v>
       </c>
       <c r="C142" t="n">
-        <v>0.229266</v>
+        <v>0.228724</v>
       </c>
       <c r="D142" t="n">
-        <v>0.230354</v>
+        <v>0.229641</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225706</v>
+        <v>0.225543</v>
       </c>
       <c r="C143" t="n">
-        <v>0.228097</v>
+        <v>0.22756</v>
       </c>
       <c r="D143" t="n">
-        <v>0.229189</v>
+        <v>0.228454</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.191196</v>
+        <v>0.189905</v>
       </c>
       <c r="C2" t="n">
-        <v>0.210545</v>
+        <v>0.211436</v>
       </c>
       <c r="D2" t="n">
-        <v>0.213272</v>
+        <v>0.212465</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.186082</v>
+        <v>0.185157</v>
       </c>
       <c r="C3" t="n">
-        <v>0.211082</v>
+        <v>0.215405</v>
       </c>
       <c r="D3" t="n">
-        <v>0.213738</v>
+        <v>0.213823</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.181007</v>
+        <v>0.181472</v>
       </c>
       <c r="C4" t="n">
-        <v>0.212402</v>
+        <v>0.218087</v>
       </c>
       <c r="D4" t="n">
-        <v>0.213464</v>
+        <v>0.214537</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.175814</v>
+        <v>0.174709</v>
       </c>
       <c r="C5" t="n">
-        <v>0.212586</v>
+        <v>0.221255</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213894</v>
+        <v>0.213653</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.172984</v>
+        <v>0.170851</v>
       </c>
       <c r="C6" t="n">
-        <v>0.212729</v>
+        <v>0.222055</v>
       </c>
       <c r="D6" t="n">
-        <v>0.213618</v>
+        <v>0.213712</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.165467</v>
+        <v>0.16515</v>
       </c>
       <c r="C7" t="n">
-        <v>0.213313</v>
+        <v>0.223889</v>
       </c>
       <c r="D7" t="n">
-        <v>0.213865</v>
+        <v>0.21445</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.157717</v>
+        <v>0.157845</v>
       </c>
       <c r="C8" t="n">
-        <v>0.214591</v>
+        <v>0.223971</v>
       </c>
       <c r="D8" t="n">
-        <v>0.21389</v>
+        <v>0.214253</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149379</v>
+        <v>0.148122</v>
       </c>
       <c r="C9" t="n">
-        <v>0.227027</v>
+        <v>0.234508</v>
       </c>
       <c r="D9" t="n">
-        <v>0.23077</v>
+        <v>0.230685</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231638</v>
+        <v>0.231874</v>
       </c>
       <c r="C10" t="n">
-        <v>0.227062</v>
+        <v>0.233751</v>
       </c>
       <c r="D10" t="n">
-        <v>0.229858</v>
+        <v>0.229898</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.227523</v>
+        <v>0.228523</v>
       </c>
       <c r="C11" t="n">
-        <v>0.226015</v>
+        <v>0.233225</v>
       </c>
       <c r="D11" t="n">
-        <v>0.22898</v>
+        <v>0.229326</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.224976</v>
+        <v>0.22472</v>
       </c>
       <c r="C12" t="n">
-        <v>0.225468</v>
+        <v>0.233344</v>
       </c>
       <c r="D12" t="n">
-        <v>0.22778</v>
+        <v>0.227768</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222041</v>
+        <v>0.221603</v>
       </c>
       <c r="C13" t="n">
-        <v>0.225036</v>
+        <v>0.234076</v>
       </c>
       <c r="D13" t="n">
-        <v>0.22695</v>
+        <v>0.226795</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218211</v>
+        <v>0.218583</v>
       </c>
       <c r="C14" t="n">
-        <v>0.224449</v>
+        <v>0.234941</v>
       </c>
       <c r="D14" t="n">
-        <v>0.226617</v>
+        <v>0.226583</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214013</v>
+        <v>0.213989</v>
       </c>
       <c r="C15" t="n">
-        <v>0.223431</v>
+        <v>0.234059</v>
       </c>
       <c r="D15" t="n">
-        <v>0.225416</v>
+        <v>0.225429</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210185</v>
+        <v>0.210149</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222744</v>
+        <v>0.233256</v>
       </c>
       <c r="D16" t="n">
-        <v>0.224738</v>
+        <v>0.224769</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205022</v>
+        <v>0.205085</v>
       </c>
       <c r="C17" t="n">
-        <v>0.222319</v>
+        <v>0.233501</v>
       </c>
       <c r="D17" t="n">
-        <v>0.22413</v>
+        <v>0.223965</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200065</v>
+        <v>0.199768</v>
       </c>
       <c r="C18" t="n">
-        <v>0.221588</v>
+        <v>0.232125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.223144</v>
+        <v>0.223412</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195057</v>
+        <v>0.194993</v>
       </c>
       <c r="C19" t="n">
-        <v>0.220919</v>
+        <v>0.233095</v>
       </c>
       <c r="D19" t="n">
-        <v>0.222542</v>
+        <v>0.222656</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188932</v>
+        <v>0.188678</v>
       </c>
       <c r="C20" t="n">
-        <v>0.21981</v>
+        <v>0.232307</v>
       </c>
       <c r="D20" t="n">
-        <v>0.222014</v>
+        <v>0.221969</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183209</v>
+        <v>0.183541</v>
       </c>
       <c r="C21" t="n">
-        <v>0.219731</v>
+        <v>0.232752</v>
       </c>
       <c r="D21" t="n">
-        <v>0.220895</v>
+        <v>0.221042</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.176157</v>
+        <v>0.17568</v>
       </c>
       <c r="C22" t="n">
-        <v>0.219759</v>
+        <v>0.232422</v>
       </c>
       <c r="D22" t="n">
-        <v>0.220409</v>
+        <v>0.220231</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.166101</v>
+        <v>0.166241</v>
       </c>
       <c r="C23" t="n">
-        <v>0.233485</v>
+        <v>0.243708</v>
       </c>
       <c r="D23" t="n">
-        <v>0.234103</v>
+        <v>0.235006</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242385</v>
+        <v>0.242078</v>
       </c>
       <c r="C24" t="n">
-        <v>0.231429</v>
+        <v>0.24169</v>
       </c>
       <c r="D24" t="n">
-        <v>0.233008</v>
+        <v>0.233171</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.238677</v>
+        <v>0.238696</v>
       </c>
       <c r="C25" t="n">
-        <v>0.230354</v>
+        <v>0.24131</v>
       </c>
       <c r="D25" t="n">
-        <v>0.231406</v>
+        <v>0.232523</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234409</v>
+        <v>0.234867</v>
       </c>
       <c r="C26" t="n">
-        <v>0.229195</v>
+        <v>0.240355</v>
       </c>
       <c r="D26" t="n">
-        <v>0.230121</v>
+        <v>0.230116</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230311</v>
+        <v>0.230485</v>
       </c>
       <c r="C27" t="n">
-        <v>0.228271</v>
+        <v>0.240238</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229389</v>
+        <v>0.229558</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225756</v>
+        <v>0.225516</v>
       </c>
       <c r="C28" t="n">
-        <v>0.227111</v>
+        <v>0.238339</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228415</v>
+        <v>0.228518</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220837</v>
+        <v>0.220638</v>
       </c>
       <c r="C29" t="n">
-        <v>0.226024</v>
+        <v>0.237976</v>
       </c>
       <c r="D29" t="n">
-        <v>0.227132</v>
+        <v>0.228084</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.216015</v>
+        <v>0.215921</v>
       </c>
       <c r="C30" t="n">
-        <v>0.22493</v>
+        <v>0.236703</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226266</v>
+        <v>0.227209</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.210773</v>
+        <v>0.210933</v>
       </c>
       <c r="C31" t="n">
-        <v>0.224083</v>
+        <v>0.235537</v>
       </c>
       <c r="D31" t="n">
-        <v>0.22545</v>
+        <v>0.22639</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2063</v>
+        <v>0.206286</v>
       </c>
       <c r="C32" t="n">
-        <v>0.223286</v>
+        <v>0.235287</v>
       </c>
       <c r="D32" t="n">
-        <v>0.224525</v>
+        <v>0.225316</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.199927</v>
+        <v>0.199928</v>
       </c>
       <c r="C33" t="n">
-        <v>0.222574</v>
+        <v>0.235087</v>
       </c>
       <c r="D33" t="n">
-        <v>0.223789</v>
+        <v>0.224705</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193352</v>
+        <v>0.194142</v>
       </c>
       <c r="C34" t="n">
-        <v>0.221837</v>
+        <v>0.234285</v>
       </c>
       <c r="D34" t="n">
-        <v>0.222984</v>
+        <v>0.223852</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.18714</v>
+        <v>0.186913</v>
       </c>
       <c r="C35" t="n">
-        <v>0.221511</v>
+        <v>0.233554</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222424</v>
+        <v>0.22255</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179774</v>
+        <v>0.180002</v>
       </c>
       <c r="C36" t="n">
-        <v>0.221073</v>
+        <v>0.232789</v>
       </c>
       <c r="D36" t="n">
-        <v>0.221626</v>
+        <v>0.221599</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171351</v>
+        <v>0.171581</v>
       </c>
       <c r="C37" t="n">
-        <v>0.235039</v>
+        <v>0.246866</v>
       </c>
       <c r="D37" t="n">
-        <v>0.234964</v>
+        <v>0.236418</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246272</v>
+        <v>0.246121</v>
       </c>
       <c r="C38" t="n">
-        <v>0.232892</v>
+        <v>0.244153</v>
       </c>
       <c r="D38" t="n">
-        <v>0.233448</v>
+        <v>0.234294</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.242941</v>
+        <v>0.242688</v>
       </c>
       <c r="C39" t="n">
-        <v>0.231607</v>
+        <v>0.242721</v>
       </c>
       <c r="D39" t="n">
-        <v>0.232374</v>
+        <v>0.23233</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239565</v>
+        <v>0.239193</v>
       </c>
       <c r="C40" t="n">
-        <v>0.230597</v>
+        <v>0.241959</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231154</v>
+        <v>0.231101</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.235079</v>
+        <v>0.234857</v>
       </c>
       <c r="C41" t="n">
-        <v>0.229567</v>
+        <v>0.24097</v>
       </c>
       <c r="D41" t="n">
-        <v>0.229934</v>
+        <v>0.229955</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230503</v>
+        <v>0.230238</v>
       </c>
       <c r="C42" t="n">
-        <v>0.228156</v>
+        <v>0.239957</v>
       </c>
       <c r="D42" t="n">
-        <v>0.228797</v>
+        <v>0.228987</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.225714</v>
+        <v>0.2253</v>
       </c>
       <c r="C43" t="n">
-        <v>0.227111</v>
+        <v>0.238547</v>
       </c>
       <c r="D43" t="n">
-        <v>0.227577</v>
+        <v>0.227674</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220787</v>
+        <v>0.22037</v>
       </c>
       <c r="C44" t="n">
-        <v>0.226001</v>
+        <v>0.237673</v>
       </c>
       <c r="D44" t="n">
-        <v>0.226685</v>
+        <v>0.226656</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214916</v>
+        <v>0.215047</v>
       </c>
       <c r="C45" t="n">
-        <v>0.225173</v>
+        <v>0.236777</v>
       </c>
       <c r="D45" t="n">
-        <v>0.225682</v>
+        <v>0.225716</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209237</v>
+        <v>0.209</v>
       </c>
       <c r="C46" t="n">
-        <v>0.22437</v>
+        <v>0.236012</v>
       </c>
       <c r="D46" t="n">
-        <v>0.224954</v>
+        <v>0.224795</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203064</v>
+        <v>0.203479</v>
       </c>
       <c r="C47" t="n">
-        <v>0.223466</v>
+        <v>0.235122</v>
       </c>
       <c r="D47" t="n">
-        <v>0.223995</v>
+        <v>0.22395</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197731</v>
+        <v>0.197581</v>
       </c>
       <c r="C48" t="n">
-        <v>0.222646</v>
+        <v>0.234661</v>
       </c>
       <c r="D48" t="n">
-        <v>0.223197</v>
+        <v>0.223157</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.19065</v>
+        <v>0.19115</v>
       </c>
       <c r="C49" t="n">
-        <v>0.221773</v>
+        <v>0.233776</v>
       </c>
       <c r="D49" t="n">
-        <v>0.222336</v>
+        <v>0.222369</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.18314</v>
+        <v>0.183661</v>
       </c>
       <c r="C50" t="n">
-        <v>0.221192</v>
+        <v>0.233247</v>
       </c>
       <c r="D50" t="n">
-        <v>0.221665</v>
+        <v>0.22165</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174139</v>
+        <v>0.174546</v>
       </c>
       <c r="C51" t="n">
-        <v>0.23677</v>
+        <v>0.248166</v>
       </c>
       <c r="D51" t="n">
-        <v>0.236502</v>
+        <v>0.238708</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.163905</v>
+        <v>0.163944</v>
       </c>
       <c r="C52" t="n">
-        <v>0.23453</v>
+        <v>0.246032</v>
       </c>
       <c r="D52" t="n">
-        <v>0.234683</v>
+        <v>0.235318</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246283</v>
+        <v>0.246091</v>
       </c>
       <c r="C53" t="n">
-        <v>0.232883</v>
+        <v>0.244272</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233036</v>
+        <v>0.233601</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242218</v>
+        <v>0.242209</v>
       </c>
       <c r="C54" t="n">
-        <v>0.23147</v>
+        <v>0.243032</v>
       </c>
       <c r="D54" t="n">
-        <v>0.231674</v>
+        <v>0.231801</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237815</v>
+        <v>0.237817</v>
       </c>
       <c r="C55" t="n">
-        <v>0.230135</v>
+        <v>0.241661</v>
       </c>
       <c r="D55" t="n">
-        <v>0.230477</v>
+        <v>0.230393</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233247</v>
+        <v>0.232859</v>
       </c>
       <c r="C56" t="n">
-        <v>0.228939</v>
+        <v>0.240567</v>
       </c>
       <c r="D56" t="n">
-        <v>0.229213</v>
+        <v>0.229205</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227967</v>
+        <v>0.228085</v>
       </c>
       <c r="C57" t="n">
-        <v>0.227685</v>
+        <v>0.239472</v>
       </c>
       <c r="D57" t="n">
-        <v>0.228211</v>
+        <v>0.22811</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222595</v>
+        <v>0.222754</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2266</v>
+        <v>0.238497</v>
       </c>
       <c r="D58" t="n">
-        <v>0.227065</v>
+        <v>0.227786</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217617</v>
+        <v>0.217634</v>
       </c>
       <c r="C59" t="n">
-        <v>0.225912</v>
+        <v>0.237563</v>
       </c>
       <c r="D59" t="n">
-        <v>0.226156</v>
+        <v>0.226896</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211782</v>
+        <v>0.211675</v>
       </c>
       <c r="C60" t="n">
-        <v>0.22496</v>
+        <v>0.236914</v>
       </c>
       <c r="D60" t="n">
-        <v>0.225223</v>
+        <v>0.225926</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.205936</v>
+        <v>0.205913</v>
       </c>
       <c r="C61" t="n">
-        <v>0.224047</v>
+        <v>0.236553</v>
       </c>
       <c r="D61" t="n">
-        <v>0.22432</v>
+        <v>0.225041</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.199454</v>
+        <v>0.200168</v>
       </c>
       <c r="C62" t="n">
-        <v>0.223366</v>
+        <v>0.235598</v>
       </c>
       <c r="D62" t="n">
-        <v>0.223493</v>
+        <v>0.224187</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.193967</v>
+        <v>0.194119</v>
       </c>
       <c r="C63" t="n">
-        <v>0.22247</v>
+        <v>0.234531</v>
       </c>
       <c r="D63" t="n">
-        <v>0.222642</v>
+        <v>0.222627</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.186485</v>
+        <v>0.186336</v>
       </c>
       <c r="C64" t="n">
-        <v>0.221608</v>
+        <v>0.233665</v>
       </c>
       <c r="D64" t="n">
-        <v>0.221758</v>
+        <v>0.221968</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177648</v>
+        <v>0.178132</v>
       </c>
       <c r="C65" t="n">
-        <v>0.220726</v>
+        <v>0.232899</v>
       </c>
       <c r="D65" t="n">
-        <v>0.221066</v>
+        <v>0.221714</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167794</v>
+        <v>0.167672</v>
       </c>
       <c r="C66" t="n">
-        <v>0.235244</v>
+        <v>0.247122</v>
       </c>
       <c r="D66" t="n">
-        <v>0.235386</v>
+        <v>0.242376</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.248139</v>
+        <v>0.248053</v>
       </c>
       <c r="C67" t="n">
-        <v>0.233406</v>
+        <v>0.245258</v>
       </c>
       <c r="D67" t="n">
-        <v>0.233826</v>
+        <v>0.239267</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.244396</v>
+        <v>0.244504</v>
       </c>
       <c r="C68" t="n">
-        <v>0.232169</v>
+        <v>0.243829</v>
       </c>
       <c r="D68" t="n">
-        <v>0.232393</v>
+        <v>0.23716</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240149</v>
+        <v>0.240145</v>
       </c>
       <c r="C69" t="n">
-        <v>0.230804</v>
+        <v>0.242701</v>
       </c>
       <c r="D69" t="n">
-        <v>0.231122</v>
+        <v>0.235195</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235203</v>
+        <v>0.235294</v>
       </c>
       <c r="C70" t="n">
-        <v>0.229619</v>
+        <v>0.241461</v>
       </c>
       <c r="D70" t="n">
-        <v>0.229752</v>
+        <v>0.232642</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230444</v>
+        <v>0.230555</v>
       </c>
       <c r="C71" t="n">
-        <v>0.228434</v>
+        <v>0.240427</v>
       </c>
       <c r="D71" t="n">
-        <v>0.22872</v>
+        <v>0.230917</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.22525</v>
+        <v>0.225288</v>
       </c>
       <c r="C72" t="n">
-        <v>0.227363</v>
+        <v>0.239181</v>
       </c>
       <c r="D72" t="n">
-        <v>0.227648</v>
+        <v>0.229372</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219692</v>
+        <v>0.219949</v>
       </c>
       <c r="C73" t="n">
-        <v>0.226336</v>
+        <v>0.238484</v>
       </c>
       <c r="D73" t="n">
-        <v>0.226626</v>
+        <v>0.228484</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213898</v>
+        <v>0.214049</v>
       </c>
       <c r="C74" t="n">
-        <v>0.225116</v>
+        <v>0.237209</v>
       </c>
       <c r="D74" t="n">
-        <v>0.225607</v>
+        <v>0.226928</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.207839</v>
+        <v>0.207995</v>
       </c>
       <c r="C75" t="n">
-        <v>0.224388</v>
+        <v>0.23633</v>
       </c>
       <c r="D75" t="n">
-        <v>0.224567</v>
+        <v>0.22481</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.201669</v>
+        <v>0.201588</v>
       </c>
       <c r="C76" t="n">
-        <v>0.223452</v>
+        <v>0.235395</v>
       </c>
       <c r="D76" t="n">
-        <v>0.223763</v>
+        <v>0.223789</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.195793</v>
+        <v>0.195828</v>
       </c>
       <c r="C77" t="n">
-        <v>0.222715</v>
+        <v>0.234891</v>
       </c>
       <c r="D77" t="n">
-        <v>0.222992</v>
+        <v>0.222913</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188628</v>
+        <v>0.188626</v>
       </c>
       <c r="C78" t="n">
-        <v>0.221892</v>
+        <v>0.233968</v>
       </c>
       <c r="D78" t="n">
-        <v>0.222134</v>
+        <v>0.222856</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179991</v>
+        <v>0.1802</v>
       </c>
       <c r="C79" t="n">
-        <v>0.221066</v>
+        <v>0.233227</v>
       </c>
       <c r="D79" t="n">
-        <v>0.221338</v>
+        <v>0.222061</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170535</v>
+        <v>0.17073</v>
       </c>
       <c r="C80" t="n">
-        <v>0.237275</v>
+        <v>0.249438</v>
       </c>
       <c r="D80" t="n">
-        <v>0.239972</v>
+        <v>0.241883</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.249433</v>
+        <v>0.249005</v>
       </c>
       <c r="C81" t="n">
-        <v>0.235084</v>
+        <v>0.247383</v>
       </c>
       <c r="D81" t="n">
-        <v>0.23732</v>
+        <v>0.238225</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245422</v>
+        <v>0.245482</v>
       </c>
       <c r="C82" t="n">
-        <v>0.233429</v>
+        <v>0.245402</v>
       </c>
       <c r="D82" t="n">
-        <v>0.235327</v>
+        <v>0.236073</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.2413</v>
+        <v>0.241107</v>
       </c>
       <c r="C83" t="n">
-        <v>0.231772</v>
+        <v>0.24402</v>
       </c>
       <c r="D83" t="n">
-        <v>0.233325</v>
+        <v>0.234063</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.23645</v>
+        <v>0.236566</v>
       </c>
       <c r="C84" t="n">
-        <v>0.230449</v>
+        <v>0.242442</v>
       </c>
       <c r="D84" t="n">
-        <v>0.231738</v>
+        <v>0.23232</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231452</v>
+        <v>0.231472</v>
       </c>
       <c r="C85" t="n">
-        <v>0.229015</v>
+        <v>0.241057</v>
       </c>
       <c r="D85" t="n">
-        <v>0.230148</v>
+        <v>0.230645</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226068</v>
+        <v>0.226055</v>
       </c>
       <c r="C86" t="n">
-        <v>0.227794</v>
+        <v>0.239899</v>
       </c>
       <c r="D86" t="n">
-        <v>0.228611</v>
+        <v>0.229976</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220399</v>
+        <v>0.220475</v>
       </c>
       <c r="C87" t="n">
-        <v>0.22669</v>
+        <v>0.238653</v>
       </c>
       <c r="D87" t="n">
-        <v>0.227325</v>
+        <v>0.228448</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.214895</v>
+        <v>0.214635</v>
       </c>
       <c r="C88" t="n">
-        <v>0.225697</v>
+        <v>0.23777</v>
       </c>
       <c r="D88" t="n">
-        <v>0.226216</v>
+        <v>0.227157</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.209109</v>
+        <v>0.208851</v>
       </c>
       <c r="C89" t="n">
-        <v>0.224859</v>
+        <v>0.236713</v>
       </c>
       <c r="D89" t="n">
-        <v>0.225236</v>
+        <v>0.226079</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.202804</v>
+        <v>0.202818</v>
       </c>
       <c r="C90" t="n">
-        <v>0.224027</v>
+        <v>0.235816</v>
       </c>
       <c r="D90" t="n">
-        <v>0.224213</v>
+        <v>0.225029</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196793</v>
+        <v>0.1966</v>
       </c>
       <c r="C91" t="n">
-        <v>0.223114</v>
+        <v>0.235182</v>
       </c>
       <c r="D91" t="n">
-        <v>0.223289</v>
+        <v>0.224175</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189717</v>
+        <v>0.190087</v>
       </c>
       <c r="C92" t="n">
-        <v>0.222262</v>
+        <v>0.234291</v>
       </c>
       <c r="D92" t="n">
-        <v>0.222602</v>
+        <v>0.223345</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182128</v>
+        <v>0.182175</v>
       </c>
       <c r="C93" t="n">
-        <v>0.22161</v>
+        <v>0.23366</v>
       </c>
       <c r="D93" t="n">
-        <v>0.221882</v>
+        <v>0.22255</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172633</v>
+        <v>0.172797</v>
       </c>
       <c r="C94" t="n">
-        <v>0.238416</v>
+        <v>0.250383</v>
       </c>
       <c r="D94" t="n">
-        <v>0.239306</v>
+        <v>0.240584</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249975</v>
+        <v>0.250111</v>
       </c>
       <c r="C95" t="n">
-        <v>0.235839</v>
+        <v>0.247809</v>
       </c>
       <c r="D95" t="n">
-        <v>0.237015</v>
+        <v>0.238062</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.246137</v>
+        <v>0.246604</v>
       </c>
       <c r="C96" t="n">
-        <v>0.233993</v>
+        <v>0.246031</v>
       </c>
       <c r="D96" t="n">
-        <v>0.235813</v>
+        <v>0.236625</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242109</v>
+        <v>0.242434</v>
       </c>
       <c r="C97" t="n">
-        <v>0.232259</v>
+        <v>0.244267</v>
       </c>
       <c r="D97" t="n">
-        <v>0.233383</v>
+        <v>0.234766</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237543</v>
+        <v>0.237745</v>
       </c>
       <c r="C98" t="n">
-        <v>0.230727</v>
+        <v>0.243013</v>
       </c>
       <c r="D98" t="n">
-        <v>0.232072</v>
+        <v>0.233171</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.232578</v>
+        <v>0.232942</v>
       </c>
       <c r="C99" t="n">
-        <v>0.229358</v>
+        <v>0.241335</v>
       </c>
       <c r="D99" t="n">
-        <v>0.230808</v>
+        <v>0.231891</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.227279</v>
+        <v>0.227586</v>
       </c>
       <c r="C100" t="n">
-        <v>0.228081</v>
+        <v>0.240098</v>
       </c>
       <c r="D100" t="n">
-        <v>0.229214</v>
+        <v>0.229307</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.221852</v>
+        <v>0.221898</v>
       </c>
       <c r="C101" t="n">
-        <v>0.226911</v>
+        <v>0.239079</v>
       </c>
       <c r="D101" t="n">
-        <v>0.227889</v>
+        <v>0.227977</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.216303</v>
+        <v>0.216291</v>
       </c>
       <c r="C102" t="n">
-        <v>0.225975</v>
+        <v>0.238029</v>
       </c>
       <c r="D102" t="n">
-        <v>0.226825</v>
+        <v>0.226812</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.210514</v>
+        <v>0.210539</v>
       </c>
       <c r="C103" t="n">
-        <v>0.225033</v>
+        <v>0.237177</v>
       </c>
       <c r="D103" t="n">
-        <v>0.226082</v>
+        <v>0.226181</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204711</v>
+        <v>0.204654</v>
       </c>
       <c r="C104" t="n">
-        <v>0.224203</v>
+        <v>0.236324</v>
       </c>
       <c r="D104" t="n">
-        <v>0.225103</v>
+        <v>0.22507</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.198343</v>
+        <v>0.198478</v>
       </c>
       <c r="C105" t="n">
-        <v>0.223467</v>
+        <v>0.235497</v>
       </c>
       <c r="D105" t="n">
-        <v>0.224196</v>
+        <v>0.224963</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.19156</v>
+        <v>0.191655</v>
       </c>
       <c r="C106" t="n">
-        <v>0.222746</v>
+        <v>0.234737</v>
       </c>
       <c r="D106" t="n">
-        <v>0.223511</v>
+        <v>0.224168</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183524</v>
+        <v>0.183781</v>
       </c>
       <c r="C107" t="n">
-        <v>0.22169</v>
+        <v>0.234045</v>
       </c>
       <c r="D107" t="n">
-        <v>0.222676</v>
+        <v>0.223331</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.17469</v>
+        <v>0.174993</v>
       </c>
       <c r="C108" t="n">
-        <v>0.238781</v>
+        <v>0.250847</v>
       </c>
       <c r="D108" t="n">
-        <v>0.239373</v>
+        <v>0.240523</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163547</v>
+        <v>0.163371</v>
       </c>
       <c r="C109" t="n">
-        <v>0.236126</v>
+        <v>0.248273</v>
       </c>
       <c r="D109" t="n">
-        <v>0.236659</v>
+        <v>0.237703</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.247477</v>
+        <v>0.247602</v>
       </c>
       <c r="C110" t="n">
-        <v>0.234054</v>
+        <v>0.246116</v>
       </c>
       <c r="D110" t="n">
-        <v>0.234451</v>
+        <v>0.235356</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.243542</v>
+        <v>0.243691</v>
       </c>
       <c r="C111" t="n">
-        <v>0.232411</v>
+        <v>0.244321</v>
       </c>
       <c r="D111" t="n">
-        <v>0.232806</v>
+        <v>0.233572</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.239035</v>
+        <v>0.239135</v>
       </c>
       <c r="C112" t="n">
-        <v>0.230995</v>
+        <v>0.24284</v>
       </c>
       <c r="D112" t="n">
-        <v>0.231234</v>
+        <v>0.231374</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234341</v>
+        <v>0.234297</v>
       </c>
       <c r="C113" t="n">
-        <v>0.229483</v>
+        <v>0.241737</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230031</v>
+        <v>0.230811</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229102</v>
+        <v>0.229226</v>
       </c>
       <c r="C114" t="n">
-        <v>0.228307</v>
+        <v>0.240537</v>
       </c>
       <c r="D114" t="n">
-        <v>0.228603</v>
+        <v>0.229459</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.223582</v>
+        <v>0.223798</v>
       </c>
       <c r="C115" t="n">
-        <v>0.227072</v>
+        <v>0.239397</v>
       </c>
       <c r="D115" t="n">
-        <v>0.227568</v>
+        <v>0.228351</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.21795</v>
+        <v>0.218064</v>
       </c>
       <c r="C116" t="n">
-        <v>0.226118</v>
+        <v>0.238275</v>
       </c>
       <c r="D116" t="n">
-        <v>0.226788</v>
+        <v>0.227684</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212094</v>
+        <v>0.212177</v>
       </c>
       <c r="C117" t="n">
-        <v>0.22523</v>
+        <v>0.237425</v>
       </c>
       <c r="D117" t="n">
-        <v>0.225904</v>
+        <v>0.225987</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.20619</v>
+        <v>0.206358</v>
       </c>
       <c r="C118" t="n">
-        <v>0.224279</v>
+        <v>0.236354</v>
       </c>
       <c r="D118" t="n">
-        <v>0.225709</v>
+        <v>0.225687</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.199923</v>
+        <v>0.200081</v>
       </c>
       <c r="C119" t="n">
-        <v>0.223493</v>
+        <v>0.235548</v>
       </c>
       <c r="D119" t="n">
-        <v>0.224706</v>
+        <v>0.224824</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193156</v>
+        <v>0.193111</v>
       </c>
       <c r="C120" t="n">
-        <v>0.222628</v>
+        <v>0.234809</v>
       </c>
       <c r="D120" t="n">
-        <v>0.223944</v>
+        <v>0.224041</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.18555</v>
+        <v>0.185471</v>
       </c>
       <c r="C121" t="n">
-        <v>0.221911</v>
+        <v>0.234012</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223166</v>
+        <v>0.223313</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176625</v>
+        <v>0.176788</v>
       </c>
       <c r="C122" t="n">
-        <v>0.22112</v>
+        <v>0.233308</v>
       </c>
       <c r="D122" t="n">
-        <v>0.222525</v>
+        <v>0.222591</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.165657</v>
+        <v>0.1656</v>
       </c>
       <c r="C123" t="n">
-        <v>0.236523</v>
+        <v>0.248573</v>
       </c>
       <c r="D123" t="n">
-        <v>0.237607</v>
+        <v>0.237733</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.248163</v>
+        <v>0.248152</v>
       </c>
       <c r="C124" t="n">
-        <v>0.234534</v>
+        <v>0.246637</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2356</v>
+        <v>0.235694</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.24408</v>
+        <v>0.244228</v>
       </c>
       <c r="C125" t="n">
-        <v>0.232784</v>
+        <v>0.244794</v>
       </c>
       <c r="D125" t="n">
-        <v>0.233919</v>
+        <v>0.233911</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.239803</v>
+        <v>0.239856</v>
       </c>
       <c r="C126" t="n">
-        <v>0.231273</v>
+        <v>0.243251</v>
       </c>
       <c r="D126" t="n">
-        <v>0.232323</v>
+        <v>0.232332</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.23498</v>
+        <v>0.234998</v>
       </c>
       <c r="C127" t="n">
-        <v>0.229953</v>
+        <v>0.241948</v>
       </c>
       <c r="D127" t="n">
-        <v>0.230989</v>
+        <v>0.230916</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.229797</v>
+        <v>0.22992</v>
       </c>
       <c r="C128" t="n">
-        <v>0.228567</v>
+        <v>0.240623</v>
       </c>
       <c r="D128" t="n">
-        <v>0.228988</v>
+        <v>0.228939</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224352</v>
+        <v>0.224551</v>
       </c>
       <c r="C129" t="n">
-        <v>0.227448</v>
+        <v>0.239626</v>
       </c>
       <c r="D129" t="n">
-        <v>0.227746</v>
+        <v>0.227795</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219019</v>
+        <v>0.219015</v>
       </c>
       <c r="C130" t="n">
-        <v>0.226356</v>
+        <v>0.238563</v>
       </c>
       <c r="D130" t="n">
-        <v>0.226739</v>
+        <v>0.226736</v>
       </c>
     </row>
     <row r="131">
@@ -5056,10 +5056,10 @@
         <v>0.213169</v>
       </c>
       <c r="C131" t="n">
-        <v>0.225409</v>
+        <v>0.237553</v>
       </c>
       <c r="D131" t="n">
-        <v>0.22565</v>
+        <v>0.22568</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207572</v>
+        <v>0.207501</v>
       </c>
       <c r="C132" t="n">
-        <v>0.224573</v>
+        <v>0.236627</v>
       </c>
       <c r="D132" t="n">
-        <v>0.224585</v>
+        <v>0.224745</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.201339</v>
+        <v>0.201238</v>
       </c>
       <c r="C133" t="n">
-        <v>0.223687</v>
+        <v>0.235736</v>
       </c>
       <c r="D133" t="n">
-        <v>0.223812</v>
+        <v>0.224501</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194609</v>
+        <v>0.194622</v>
       </c>
       <c r="C134" t="n">
-        <v>0.222811</v>
+        <v>0.234938</v>
       </c>
       <c r="D134" t="n">
-        <v>0.223675</v>
+        <v>0.223787</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187068</v>
+        <v>0.18702</v>
       </c>
       <c r="C135" t="n">
-        <v>0.221995</v>
+        <v>0.233887</v>
       </c>
       <c r="D135" t="n">
-        <v>0.222939</v>
+        <v>0.222974</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.17863</v>
+        <v>0.178686</v>
       </c>
       <c r="C136" t="n">
-        <v>0.221374</v>
+        <v>0.233228</v>
       </c>
       <c r="D136" t="n">
-        <v>0.2217</v>
+        <v>0.221965</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168365</v>
+        <v>0.168455</v>
       </c>
       <c r="C137" t="n">
-        <v>0.237049</v>
+        <v>0.249097</v>
       </c>
       <c r="D137" t="n">
-        <v>0.238025</v>
+        <v>0.238229</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.248881</v>
+        <v>0.24891</v>
       </c>
       <c r="C138" t="n">
-        <v>0.234846</v>
+        <v>0.247078</v>
       </c>
       <c r="D138" t="n">
-        <v>0.235838</v>
+        <v>0.235825</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.245011</v>
+        <v>0.245067</v>
       </c>
       <c r="C139" t="n">
-        <v>0.232963</v>
+        <v>0.245198</v>
       </c>
       <c r="D139" t="n">
-        <v>0.233954</v>
+        <v>0.233923</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240769</v>
+        <v>0.241026</v>
       </c>
       <c r="C140" t="n">
-        <v>0.231411</v>
+        <v>0.243591</v>
       </c>
       <c r="D140" t="n">
-        <v>0.232433</v>
+        <v>0.232308</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.235978</v>
+        <v>0.236078</v>
       </c>
       <c r="C141" t="n">
-        <v>0.229983</v>
+        <v>0.242214</v>
       </c>
       <c r="D141" t="n">
-        <v>0.230989</v>
+        <v>0.230862</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.230913</v>
+        <v>0.231023</v>
       </c>
       <c r="C142" t="n">
-        <v>0.228724</v>
+        <v>0.240973</v>
       </c>
       <c r="D142" t="n">
-        <v>0.229641</v>
+        <v>0.229486</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225543</v>
+        <v>0.225716</v>
       </c>
       <c r="C143" t="n">
-        <v>0.22756</v>
+        <v>0.239773</v>
       </c>
       <c r="D143" t="n">
-        <v>0.228454</v>
+        <v>0.228338</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.189905</v>
+        <v>0.192309</v>
       </c>
       <c r="C2" t="n">
-        <v>0.211436</v>
+        <v>0.211118</v>
       </c>
       <c r="D2" t="n">
-        <v>0.212465</v>
+        <v>0.21256</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.185157</v>
+        <v>0.186268</v>
       </c>
       <c r="C3" t="n">
-        <v>0.215405</v>
+        <v>0.216531</v>
       </c>
       <c r="D3" t="n">
-        <v>0.213823</v>
+        <v>0.213761</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.181472</v>
+        <v>0.181101</v>
       </c>
       <c r="C4" t="n">
-        <v>0.218087</v>
+        <v>0.216855</v>
       </c>
       <c r="D4" t="n">
-        <v>0.214537</v>
+        <v>0.214682</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.174709</v>
+        <v>0.174948</v>
       </c>
       <c r="C5" t="n">
-        <v>0.221255</v>
+        <v>0.22075</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213653</v>
+        <v>0.213862</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170851</v>
+        <v>0.172055</v>
       </c>
       <c r="C6" t="n">
-        <v>0.222055</v>
+        <v>0.221918</v>
       </c>
       <c r="D6" t="n">
-        <v>0.213712</v>
+        <v>0.214149</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.16515</v>
+        <v>0.166423</v>
       </c>
       <c r="C7" t="n">
-        <v>0.223889</v>
+        <v>0.223208</v>
       </c>
       <c r="D7" t="n">
-        <v>0.21445</v>
+        <v>0.214723</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.157845</v>
+        <v>0.158703</v>
       </c>
       <c r="C8" t="n">
-        <v>0.223971</v>
+        <v>0.225019</v>
       </c>
       <c r="D8" t="n">
-        <v>0.214253</v>
+        <v>0.213952</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148122</v>
+        <v>0.149117</v>
       </c>
       <c r="C9" t="n">
-        <v>0.234508</v>
+        <v>0.233945</v>
       </c>
       <c r="D9" t="n">
-        <v>0.230685</v>
+        <v>0.230745</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231874</v>
+        <v>0.231638</v>
       </c>
       <c r="C10" t="n">
-        <v>0.233751</v>
+        <v>0.234141</v>
       </c>
       <c r="D10" t="n">
-        <v>0.229898</v>
+        <v>0.229721</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.228523</v>
+        <v>0.228254</v>
       </c>
       <c r="C11" t="n">
-        <v>0.233225</v>
+        <v>0.233397</v>
       </c>
       <c r="D11" t="n">
-        <v>0.229326</v>
+        <v>0.229282</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.22472</v>
+        <v>0.225022</v>
       </c>
       <c r="C12" t="n">
-        <v>0.233344</v>
+        <v>0.233172</v>
       </c>
       <c r="D12" t="n">
-        <v>0.227768</v>
+        <v>0.227719</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221603</v>
+        <v>0.222015</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234076</v>
+        <v>0.233821</v>
       </c>
       <c r="D13" t="n">
-        <v>0.226795</v>
+        <v>0.22714</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218583</v>
+        <v>0.218572</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234941</v>
+        <v>0.234235</v>
       </c>
       <c r="D14" t="n">
-        <v>0.226583</v>
+        <v>0.226797</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213989</v>
+        <v>0.214054</v>
       </c>
       <c r="C15" t="n">
-        <v>0.234059</v>
+        <v>0.233362</v>
       </c>
       <c r="D15" t="n">
-        <v>0.225429</v>
+        <v>0.225443</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210149</v>
+        <v>0.209758</v>
       </c>
       <c r="C16" t="n">
-        <v>0.233256</v>
+        <v>0.232568</v>
       </c>
       <c r="D16" t="n">
-        <v>0.224769</v>
+        <v>0.224675</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205085</v>
+        <v>0.205117</v>
       </c>
       <c r="C17" t="n">
-        <v>0.233501</v>
+        <v>0.233506</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223965</v>
+        <v>0.224589</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199768</v>
+        <v>0.19937</v>
       </c>
       <c r="C18" t="n">
-        <v>0.232125</v>
+        <v>0.232282</v>
       </c>
       <c r="D18" t="n">
-        <v>0.223412</v>
+        <v>0.224033</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194993</v>
+        <v>0.194667</v>
       </c>
       <c r="C19" t="n">
-        <v>0.233095</v>
+        <v>0.232382</v>
       </c>
       <c r="D19" t="n">
-        <v>0.222656</v>
+        <v>0.222607</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188678</v>
+        <v>0.188411</v>
       </c>
       <c r="C20" t="n">
-        <v>0.232307</v>
+        <v>0.232164</v>
       </c>
       <c r="D20" t="n">
-        <v>0.221969</v>
+        <v>0.221847</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183541</v>
+        <v>0.183216</v>
       </c>
       <c r="C21" t="n">
-        <v>0.232752</v>
+        <v>0.232468</v>
       </c>
       <c r="D21" t="n">
-        <v>0.221042</v>
+        <v>0.220767</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.17568</v>
+        <v>0.175867</v>
       </c>
       <c r="C22" t="n">
-        <v>0.232422</v>
+        <v>0.231694</v>
       </c>
       <c r="D22" t="n">
-        <v>0.220231</v>
+        <v>0.220194</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.166241</v>
+        <v>0.165778</v>
       </c>
       <c r="C23" t="n">
-        <v>0.243708</v>
+        <v>0.243937</v>
       </c>
       <c r="D23" t="n">
-        <v>0.235006</v>
+        <v>0.235269</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242078</v>
+        <v>0.242267</v>
       </c>
       <c r="C24" t="n">
-        <v>0.24169</v>
+        <v>0.242015</v>
       </c>
       <c r="D24" t="n">
-        <v>0.233171</v>
+        <v>0.233948</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.238696</v>
+        <v>0.23908</v>
       </c>
       <c r="C25" t="n">
-        <v>0.24131</v>
+        <v>0.241141</v>
       </c>
       <c r="D25" t="n">
-        <v>0.232523</v>
+        <v>0.232539</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234867</v>
+        <v>0.234962</v>
       </c>
       <c r="C26" t="n">
-        <v>0.240355</v>
+        <v>0.240411</v>
       </c>
       <c r="D26" t="n">
-        <v>0.230116</v>
+        <v>0.230267</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230485</v>
+        <v>0.230443</v>
       </c>
       <c r="C27" t="n">
-        <v>0.240238</v>
+        <v>0.239774</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229558</v>
+        <v>0.229574</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225516</v>
+        <v>0.225506</v>
       </c>
       <c r="C28" t="n">
-        <v>0.238339</v>
+        <v>0.23883</v>
       </c>
       <c r="D28" t="n">
-        <v>0.228518</v>
+        <v>0.228607</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220638</v>
+        <v>0.220779</v>
       </c>
       <c r="C29" t="n">
-        <v>0.237976</v>
+        <v>0.238429</v>
       </c>
       <c r="D29" t="n">
-        <v>0.228084</v>
+        <v>0.227332</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.215921</v>
+        <v>0.215625</v>
       </c>
       <c r="C30" t="n">
-        <v>0.236703</v>
+        <v>0.236769</v>
       </c>
       <c r="D30" t="n">
-        <v>0.227209</v>
+        <v>0.227107</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.210933</v>
+        <v>0.210856</v>
       </c>
       <c r="C31" t="n">
-        <v>0.235537</v>
+        <v>0.235497</v>
       </c>
       <c r="D31" t="n">
-        <v>0.22639</v>
+        <v>0.226262</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206286</v>
+        <v>0.206089</v>
       </c>
       <c r="C32" t="n">
-        <v>0.235287</v>
+        <v>0.23517</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225316</v>
+        <v>0.225225</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.199928</v>
+        <v>0.199838</v>
       </c>
       <c r="C33" t="n">
-        <v>0.235087</v>
+        <v>0.234937</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224705</v>
+        <v>0.224565</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.194142</v>
+        <v>0.193923</v>
       </c>
       <c r="C34" t="n">
-        <v>0.234285</v>
+        <v>0.234329</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223852</v>
+        <v>0.223789</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186913</v>
+        <v>0.187061</v>
       </c>
       <c r="C35" t="n">
-        <v>0.233554</v>
+        <v>0.233688</v>
       </c>
       <c r="D35" t="n">
-        <v>0.22255</v>
+        <v>0.222298</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180002</v>
+        <v>0.180133</v>
       </c>
       <c r="C36" t="n">
-        <v>0.232789</v>
+        <v>0.232865</v>
       </c>
       <c r="D36" t="n">
-        <v>0.221599</v>
+        <v>0.221538</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171581</v>
+        <v>0.171361</v>
       </c>
       <c r="C37" t="n">
-        <v>0.246866</v>
+        <v>0.24588</v>
       </c>
       <c r="D37" t="n">
-        <v>0.236418</v>
+        <v>0.235237</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246121</v>
+        <v>0.245996</v>
       </c>
       <c r="C38" t="n">
-        <v>0.244153</v>
+        <v>0.244205</v>
       </c>
       <c r="D38" t="n">
-        <v>0.234294</v>
+        <v>0.233664</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.242688</v>
+        <v>0.242899</v>
       </c>
       <c r="C39" t="n">
-        <v>0.242721</v>
+        <v>0.243118</v>
       </c>
       <c r="D39" t="n">
-        <v>0.23233</v>
+        <v>0.232398</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239193</v>
+        <v>0.239662</v>
       </c>
       <c r="C40" t="n">
-        <v>0.241959</v>
+        <v>0.242306</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231101</v>
+        <v>0.231191</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234857</v>
+        <v>0.235588</v>
       </c>
       <c r="C41" t="n">
-        <v>0.24097</v>
+        <v>0.241009</v>
       </c>
       <c r="D41" t="n">
-        <v>0.229955</v>
+        <v>0.229903</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230238</v>
+        <v>0.230412</v>
       </c>
       <c r="C42" t="n">
-        <v>0.239957</v>
+        <v>0.240102</v>
       </c>
       <c r="D42" t="n">
-        <v>0.228987</v>
+        <v>0.228878</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2253</v>
+        <v>0.225815</v>
       </c>
       <c r="C43" t="n">
-        <v>0.238547</v>
+        <v>0.238986</v>
       </c>
       <c r="D43" t="n">
-        <v>0.227674</v>
+        <v>0.227516</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.22037</v>
+        <v>0.220798</v>
       </c>
       <c r="C44" t="n">
-        <v>0.237673</v>
+        <v>0.237974</v>
       </c>
       <c r="D44" t="n">
-        <v>0.226656</v>
+        <v>0.22651</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215047</v>
+        <v>0.215254</v>
       </c>
       <c r="C45" t="n">
-        <v>0.236777</v>
+        <v>0.237086</v>
       </c>
       <c r="D45" t="n">
-        <v>0.225716</v>
+        <v>0.225696</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209</v>
+        <v>0.209698</v>
       </c>
       <c r="C46" t="n">
-        <v>0.236012</v>
+        <v>0.236349</v>
       </c>
       <c r="D46" t="n">
-        <v>0.224795</v>
+        <v>0.224774</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203479</v>
+        <v>0.203848</v>
       </c>
       <c r="C47" t="n">
-        <v>0.235122</v>
+        <v>0.235369</v>
       </c>
       <c r="D47" t="n">
-        <v>0.22395</v>
+        <v>0.223884</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197581</v>
+        <v>0.197402</v>
       </c>
       <c r="C48" t="n">
-        <v>0.234661</v>
+        <v>0.234767</v>
       </c>
       <c r="D48" t="n">
-        <v>0.223157</v>
+        <v>0.223115</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.19115</v>
+        <v>0.19127</v>
       </c>
       <c r="C49" t="n">
-        <v>0.233776</v>
+        <v>0.233876</v>
       </c>
       <c r="D49" t="n">
-        <v>0.222369</v>
+        <v>0.222293</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183661</v>
+        <v>0.184048</v>
       </c>
       <c r="C50" t="n">
-        <v>0.233247</v>
+        <v>0.233273</v>
       </c>
       <c r="D50" t="n">
-        <v>0.22165</v>
+        <v>0.221659</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174546</v>
+        <v>0.174811</v>
       </c>
       <c r="C51" t="n">
-        <v>0.248166</v>
+        <v>0.246901</v>
       </c>
       <c r="D51" t="n">
-        <v>0.238708</v>
+        <v>0.237423</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.163944</v>
+        <v>0.163935</v>
       </c>
       <c r="C52" t="n">
-        <v>0.246032</v>
+        <v>0.245528</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235318</v>
+        <v>0.235602</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246091</v>
+        <v>0.245934</v>
       </c>
       <c r="C53" t="n">
-        <v>0.244272</v>
+        <v>0.244409</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233601</v>
+        <v>0.233497</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242209</v>
+        <v>0.242141</v>
       </c>
       <c r="C54" t="n">
-        <v>0.243032</v>
+        <v>0.243139</v>
       </c>
       <c r="D54" t="n">
-        <v>0.231801</v>
+        <v>0.231806</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237817</v>
+        <v>0.237597</v>
       </c>
       <c r="C55" t="n">
-        <v>0.241661</v>
+        <v>0.241881</v>
       </c>
       <c r="D55" t="n">
-        <v>0.230393</v>
+        <v>0.230359</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.232859</v>
+        <v>0.233058</v>
       </c>
       <c r="C56" t="n">
-        <v>0.240567</v>
+        <v>0.240782</v>
       </c>
       <c r="D56" t="n">
-        <v>0.229205</v>
+        <v>0.229261</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228085</v>
+        <v>0.228212</v>
       </c>
       <c r="C57" t="n">
-        <v>0.239472</v>
+        <v>0.239671</v>
       </c>
       <c r="D57" t="n">
-        <v>0.22811</v>
+        <v>0.228076</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222754</v>
+        <v>0.222718</v>
       </c>
       <c r="C58" t="n">
-        <v>0.238497</v>
+        <v>0.238808</v>
       </c>
       <c r="D58" t="n">
-        <v>0.227786</v>
+        <v>0.227952</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217634</v>
+        <v>0.21746</v>
       </c>
       <c r="C59" t="n">
-        <v>0.237563</v>
+        <v>0.237769</v>
       </c>
       <c r="D59" t="n">
-        <v>0.226896</v>
+        <v>0.226954</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211675</v>
+        <v>0.211731</v>
       </c>
       <c r="C60" t="n">
-        <v>0.236914</v>
+        <v>0.236969</v>
       </c>
       <c r="D60" t="n">
-        <v>0.225926</v>
+        <v>0.225972</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.205913</v>
+        <v>0.206061</v>
       </c>
       <c r="C61" t="n">
-        <v>0.236553</v>
+        <v>0.236194</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225041</v>
+        <v>0.224985</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200168</v>
+        <v>0.200063</v>
       </c>
       <c r="C62" t="n">
-        <v>0.235598</v>
+        <v>0.23548</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224187</v>
+        <v>0.224326</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194119</v>
+        <v>0.193982</v>
       </c>
       <c r="C63" t="n">
-        <v>0.234531</v>
+        <v>0.234567</v>
       </c>
       <c r="D63" t="n">
-        <v>0.222627</v>
+        <v>0.22264</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.186336</v>
+        <v>0.186969</v>
       </c>
       <c r="C64" t="n">
-        <v>0.233665</v>
+        <v>0.233745</v>
       </c>
       <c r="D64" t="n">
-        <v>0.221968</v>
+        <v>0.221798</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178132</v>
+        <v>0.177957</v>
       </c>
       <c r="C65" t="n">
-        <v>0.232899</v>
+        <v>0.23298</v>
       </c>
       <c r="D65" t="n">
-        <v>0.221714</v>
+        <v>0.22168</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167672</v>
+        <v>0.167382</v>
       </c>
       <c r="C66" t="n">
-        <v>0.247122</v>
+        <v>0.246978</v>
       </c>
       <c r="D66" t="n">
-        <v>0.242376</v>
+        <v>0.235914</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.248053</v>
+        <v>0.248222</v>
       </c>
       <c r="C67" t="n">
-        <v>0.245258</v>
+        <v>0.245434</v>
       </c>
       <c r="D67" t="n">
-        <v>0.239267</v>
+        <v>0.234397</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.244504</v>
+        <v>0.244465</v>
       </c>
       <c r="C68" t="n">
-        <v>0.243829</v>
+        <v>0.244079</v>
       </c>
       <c r="D68" t="n">
-        <v>0.23716</v>
+        <v>0.233115</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240145</v>
+        <v>0.240216</v>
       </c>
       <c r="C69" t="n">
-        <v>0.242701</v>
+        <v>0.243122</v>
       </c>
       <c r="D69" t="n">
-        <v>0.235195</v>
+        <v>0.231726</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235294</v>
+        <v>0.235272</v>
       </c>
       <c r="C70" t="n">
-        <v>0.241461</v>
+        <v>0.241631</v>
       </c>
       <c r="D70" t="n">
-        <v>0.232642</v>
+        <v>0.229706</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230555</v>
+        <v>0.230488</v>
       </c>
       <c r="C71" t="n">
-        <v>0.240427</v>
+        <v>0.24084</v>
       </c>
       <c r="D71" t="n">
-        <v>0.230917</v>
+        <v>0.22855</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225288</v>
+        <v>0.225262</v>
       </c>
       <c r="C72" t="n">
-        <v>0.239181</v>
+        <v>0.239535</v>
       </c>
       <c r="D72" t="n">
-        <v>0.229372</v>
+        <v>0.227424</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219949</v>
+        <v>0.219866</v>
       </c>
       <c r="C73" t="n">
-        <v>0.238484</v>
+        <v>0.238626</v>
       </c>
       <c r="D73" t="n">
-        <v>0.228484</v>
+        <v>0.227233</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.214049</v>
+        <v>0.214012</v>
       </c>
       <c r="C74" t="n">
-        <v>0.237209</v>
+        <v>0.237637</v>
       </c>
       <c r="D74" t="n">
-        <v>0.226928</v>
+        <v>0.226172</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.207995</v>
+        <v>0.208141</v>
       </c>
       <c r="C75" t="n">
-        <v>0.23633</v>
+        <v>0.236723</v>
       </c>
       <c r="D75" t="n">
-        <v>0.22481</v>
+        <v>0.224519</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.201588</v>
+        <v>0.201462</v>
       </c>
       <c r="C76" t="n">
-        <v>0.235395</v>
+        <v>0.235992</v>
       </c>
       <c r="D76" t="n">
-        <v>0.223789</v>
+        <v>0.223613</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.195828</v>
+        <v>0.195662</v>
       </c>
       <c r="C77" t="n">
-        <v>0.234891</v>
+        <v>0.235289</v>
       </c>
       <c r="D77" t="n">
-        <v>0.222913</v>
+        <v>0.222798</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188626</v>
+        <v>0.188861</v>
       </c>
       <c r="C78" t="n">
-        <v>0.233968</v>
+        <v>0.234844</v>
       </c>
       <c r="D78" t="n">
-        <v>0.222856</v>
+        <v>0.22282</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1802</v>
+        <v>0.180116</v>
       </c>
       <c r="C79" t="n">
-        <v>0.233227</v>
+        <v>0.233898</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222061</v>
+        <v>0.221965</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.17073</v>
+        <v>0.170436</v>
       </c>
       <c r="C80" t="n">
-        <v>0.249438</v>
+        <v>0.249294</v>
       </c>
       <c r="D80" t="n">
-        <v>0.241883</v>
+        <v>0.240883</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.249005</v>
+        <v>0.249117</v>
       </c>
       <c r="C81" t="n">
-        <v>0.247383</v>
+        <v>0.247402</v>
       </c>
       <c r="D81" t="n">
-        <v>0.238225</v>
+        <v>0.237134</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245482</v>
+        <v>0.245602</v>
       </c>
       <c r="C82" t="n">
-        <v>0.245402</v>
+        <v>0.245373</v>
       </c>
       <c r="D82" t="n">
-        <v>0.236073</v>
+        <v>0.235483</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241107</v>
+        <v>0.241302</v>
       </c>
       <c r="C83" t="n">
-        <v>0.24402</v>
+        <v>0.243984</v>
       </c>
       <c r="D83" t="n">
-        <v>0.234063</v>
+        <v>0.233601</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236566</v>
+        <v>0.236821</v>
       </c>
       <c r="C84" t="n">
-        <v>0.242442</v>
+        <v>0.242423</v>
       </c>
       <c r="D84" t="n">
-        <v>0.23232</v>
+        <v>0.23152</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231472</v>
+        <v>0.231525</v>
       </c>
       <c r="C85" t="n">
-        <v>0.241057</v>
+        <v>0.241134</v>
       </c>
       <c r="D85" t="n">
-        <v>0.230645</v>
+        <v>0.230213</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226055</v>
+        <v>0.226319</v>
       </c>
       <c r="C86" t="n">
-        <v>0.239899</v>
+        <v>0.239947</v>
       </c>
       <c r="D86" t="n">
-        <v>0.229976</v>
+        <v>0.229449</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220475</v>
+        <v>0.22099</v>
       </c>
       <c r="C87" t="n">
-        <v>0.238653</v>
+        <v>0.238858</v>
       </c>
       <c r="D87" t="n">
-        <v>0.228448</v>
+        <v>0.228177</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.214635</v>
+        <v>0.215033</v>
       </c>
       <c r="C88" t="n">
-        <v>0.23777</v>
+        <v>0.237889</v>
       </c>
       <c r="D88" t="n">
-        <v>0.227157</v>
+        <v>0.226942</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.208851</v>
+        <v>0.209104</v>
       </c>
       <c r="C89" t="n">
-        <v>0.236713</v>
+        <v>0.237038</v>
       </c>
       <c r="D89" t="n">
-        <v>0.226079</v>
+        <v>0.22599</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.202818</v>
+        <v>0.203094</v>
       </c>
       <c r="C90" t="n">
-        <v>0.235816</v>
+        <v>0.236087</v>
       </c>
       <c r="D90" t="n">
-        <v>0.225029</v>
+        <v>0.22498</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1966</v>
+        <v>0.196816</v>
       </c>
       <c r="C91" t="n">
-        <v>0.235182</v>
+        <v>0.234859</v>
       </c>
       <c r="D91" t="n">
-        <v>0.224175</v>
+        <v>0.224099</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190087</v>
+        <v>0.190045</v>
       </c>
       <c r="C92" t="n">
-        <v>0.234291</v>
+        <v>0.234174</v>
       </c>
       <c r="D92" t="n">
-        <v>0.223345</v>
+        <v>0.223275</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182175</v>
+        <v>0.181553</v>
       </c>
       <c r="C93" t="n">
-        <v>0.23366</v>
+        <v>0.233425</v>
       </c>
       <c r="D93" t="n">
-        <v>0.22255</v>
+        <v>0.222567</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172797</v>
+        <v>0.172582</v>
       </c>
       <c r="C94" t="n">
-        <v>0.250383</v>
+        <v>0.25001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.240584</v>
+        <v>0.240473</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.250111</v>
+        <v>0.250259</v>
       </c>
       <c r="C95" t="n">
-        <v>0.247809</v>
+        <v>0.247702</v>
       </c>
       <c r="D95" t="n">
-        <v>0.238062</v>
+        <v>0.237951</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.246604</v>
+        <v>0.246685</v>
       </c>
       <c r="C96" t="n">
-        <v>0.246031</v>
+        <v>0.245914</v>
       </c>
       <c r="D96" t="n">
-        <v>0.236625</v>
+        <v>0.236332</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242434</v>
+        <v>0.242515</v>
       </c>
       <c r="C97" t="n">
-        <v>0.244267</v>
+        <v>0.244287</v>
       </c>
       <c r="D97" t="n">
-        <v>0.234766</v>
+        <v>0.234383</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237745</v>
+        <v>0.238132</v>
       </c>
       <c r="C98" t="n">
-        <v>0.243013</v>
+        <v>0.242924</v>
       </c>
       <c r="D98" t="n">
-        <v>0.233171</v>
+        <v>0.233048</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.232942</v>
+        <v>0.233213</v>
       </c>
       <c r="C99" t="n">
-        <v>0.241335</v>
+        <v>0.24143</v>
       </c>
       <c r="D99" t="n">
-        <v>0.231891</v>
+        <v>0.231725</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.227586</v>
+        <v>0.228034</v>
       </c>
       <c r="C100" t="n">
-        <v>0.240098</v>
+        <v>0.240059</v>
       </c>
       <c r="D100" t="n">
-        <v>0.229307</v>
+        <v>0.229209</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.221898</v>
+        <v>0.222099</v>
       </c>
       <c r="C101" t="n">
-        <v>0.239079</v>
+        <v>0.239006</v>
       </c>
       <c r="D101" t="n">
-        <v>0.227977</v>
+        <v>0.227961</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.216291</v>
+        <v>0.216591</v>
       </c>
       <c r="C102" t="n">
-        <v>0.238029</v>
+        <v>0.238071</v>
       </c>
       <c r="D102" t="n">
-        <v>0.226812</v>
+        <v>0.226817</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.210539</v>
+        <v>0.210679</v>
       </c>
       <c r="C103" t="n">
-        <v>0.237177</v>
+        <v>0.237213</v>
       </c>
       <c r="D103" t="n">
-        <v>0.226181</v>
+        <v>0.226152</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204654</v>
+        <v>0.204567</v>
       </c>
       <c r="C104" t="n">
-        <v>0.236324</v>
+        <v>0.235728</v>
       </c>
       <c r="D104" t="n">
-        <v>0.22507</v>
+        <v>0.22516</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.198478</v>
+        <v>0.198551</v>
       </c>
       <c r="C105" t="n">
-        <v>0.235497</v>
+        <v>0.23499</v>
       </c>
       <c r="D105" t="n">
-        <v>0.224963</v>
+        <v>0.225022</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191655</v>
+        <v>0.191872</v>
       </c>
       <c r="C106" t="n">
-        <v>0.234737</v>
+        <v>0.234367</v>
       </c>
       <c r="D106" t="n">
-        <v>0.224168</v>
+        <v>0.224201</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183781</v>
+        <v>0.183884</v>
       </c>
       <c r="C107" t="n">
-        <v>0.234045</v>
+        <v>0.233489</v>
       </c>
       <c r="D107" t="n">
-        <v>0.223331</v>
+        <v>0.223497</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174993</v>
+        <v>0.175061</v>
       </c>
       <c r="C108" t="n">
-        <v>0.250847</v>
+        <v>0.250547</v>
       </c>
       <c r="D108" t="n">
-        <v>0.240523</v>
+        <v>0.239984</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163371</v>
+        <v>0.163351</v>
       </c>
       <c r="C109" t="n">
-        <v>0.248273</v>
+        <v>0.247971</v>
       </c>
       <c r="D109" t="n">
-        <v>0.237703</v>
+        <v>0.23734</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.247602</v>
+        <v>0.247465</v>
       </c>
       <c r="C110" t="n">
-        <v>0.246116</v>
+        <v>0.245866</v>
       </c>
       <c r="D110" t="n">
-        <v>0.235356</v>
+        <v>0.235132</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.243691</v>
+        <v>0.243478</v>
       </c>
       <c r="C111" t="n">
-        <v>0.244321</v>
+        <v>0.244145</v>
       </c>
       <c r="D111" t="n">
-        <v>0.233572</v>
+        <v>0.233363</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.239135</v>
+        <v>0.238966</v>
       </c>
       <c r="C112" t="n">
-        <v>0.24284</v>
+        <v>0.242817</v>
       </c>
       <c r="D112" t="n">
-        <v>0.231374</v>
+        <v>0.231169</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234297</v>
+        <v>0.234096</v>
       </c>
       <c r="C113" t="n">
-        <v>0.241737</v>
+        <v>0.241655</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230811</v>
+        <v>0.22979</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229226</v>
+        <v>0.229128</v>
       </c>
       <c r="C114" t="n">
-        <v>0.240537</v>
+        <v>0.240349</v>
       </c>
       <c r="D114" t="n">
-        <v>0.229459</v>
+        <v>0.229278</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.223798</v>
+        <v>0.223573</v>
       </c>
       <c r="C115" t="n">
-        <v>0.239397</v>
+        <v>0.239285</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228351</v>
+        <v>0.228181</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.218064</v>
+        <v>0.217948</v>
       </c>
       <c r="C116" t="n">
-        <v>0.238275</v>
+        <v>0.238105</v>
       </c>
       <c r="D116" t="n">
-        <v>0.227684</v>
+        <v>0.227308</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212177</v>
+        <v>0.212105</v>
       </c>
       <c r="C117" t="n">
-        <v>0.237425</v>
+        <v>0.23729</v>
       </c>
       <c r="D117" t="n">
-        <v>0.225987</v>
+        <v>0.225878</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206358</v>
+        <v>0.20616</v>
       </c>
       <c r="C118" t="n">
-        <v>0.236354</v>
+        <v>0.236281</v>
       </c>
       <c r="D118" t="n">
-        <v>0.225687</v>
+        <v>0.225621</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200081</v>
+        <v>0.200052</v>
       </c>
       <c r="C119" t="n">
-        <v>0.235548</v>
+        <v>0.235677</v>
       </c>
       <c r="D119" t="n">
-        <v>0.224824</v>
+        <v>0.224742</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193111</v>
+        <v>0.193156</v>
       </c>
       <c r="C120" t="n">
-        <v>0.234809</v>
+        <v>0.234787</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224041</v>
+        <v>0.223922</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185471</v>
+        <v>0.185548</v>
       </c>
       <c r="C121" t="n">
-        <v>0.234012</v>
+        <v>0.23408</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223313</v>
+        <v>0.223259</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176788</v>
+        <v>0.17665</v>
       </c>
       <c r="C122" t="n">
-        <v>0.233308</v>
+        <v>0.233372</v>
       </c>
       <c r="D122" t="n">
-        <v>0.222591</v>
+        <v>0.222576</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1656</v>
+        <v>0.165625</v>
       </c>
       <c r="C123" t="n">
-        <v>0.248573</v>
+        <v>0.248303</v>
       </c>
       <c r="D123" t="n">
-        <v>0.237733</v>
+        <v>0.237353</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.248152</v>
+        <v>0.248069</v>
       </c>
       <c r="C124" t="n">
-        <v>0.246637</v>
+        <v>0.246294</v>
       </c>
       <c r="D124" t="n">
-        <v>0.235694</v>
+        <v>0.235481</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.244228</v>
+        <v>0.244191</v>
       </c>
       <c r="C125" t="n">
-        <v>0.244794</v>
+        <v>0.244633</v>
       </c>
       <c r="D125" t="n">
-        <v>0.233911</v>
+        <v>0.233639</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.239856</v>
+        <v>0.239889</v>
       </c>
       <c r="C126" t="n">
-        <v>0.243251</v>
+        <v>0.243072</v>
       </c>
       <c r="D126" t="n">
-        <v>0.232332</v>
+        <v>0.232131</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.234998</v>
+        <v>0.235044</v>
       </c>
       <c r="C127" t="n">
-        <v>0.241948</v>
+        <v>0.241795</v>
       </c>
       <c r="D127" t="n">
-        <v>0.230916</v>
+        <v>0.230787</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.22992</v>
+        <v>0.229858</v>
       </c>
       <c r="C128" t="n">
-        <v>0.240623</v>
+        <v>0.240553</v>
       </c>
       <c r="D128" t="n">
-        <v>0.228939</v>
+        <v>0.228744</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224551</v>
+        <v>0.224392</v>
       </c>
       <c r="C129" t="n">
-        <v>0.239626</v>
+        <v>0.23953</v>
       </c>
       <c r="D129" t="n">
-        <v>0.227795</v>
+        <v>0.227621</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219015</v>
+        <v>0.218913</v>
       </c>
       <c r="C130" t="n">
-        <v>0.238563</v>
+        <v>0.238449</v>
       </c>
       <c r="D130" t="n">
-        <v>0.226736</v>
+        <v>0.226531</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.213169</v>
+        <v>0.213115</v>
       </c>
       <c r="C131" t="n">
-        <v>0.237553</v>
+        <v>0.237502</v>
       </c>
       <c r="D131" t="n">
-        <v>0.22568</v>
+        <v>0.225515</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207501</v>
+        <v>0.20726</v>
       </c>
       <c r="C132" t="n">
-        <v>0.236627</v>
+        <v>0.236526</v>
       </c>
       <c r="D132" t="n">
-        <v>0.224745</v>
+        <v>0.224561</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.201238</v>
+        <v>0.201124</v>
       </c>
       <c r="C133" t="n">
-        <v>0.235736</v>
+        <v>0.235667</v>
       </c>
       <c r="D133" t="n">
-        <v>0.224501</v>
+        <v>0.224444</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194622</v>
+        <v>0.194512</v>
       </c>
       <c r="C134" t="n">
-        <v>0.234938</v>
+        <v>0.23486</v>
       </c>
       <c r="D134" t="n">
-        <v>0.223787</v>
+        <v>0.223637</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.18702</v>
+        <v>0.187043</v>
       </c>
       <c r="C135" t="n">
-        <v>0.233887</v>
+        <v>0.234044</v>
       </c>
       <c r="D135" t="n">
-        <v>0.222974</v>
+        <v>0.222844</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178686</v>
+        <v>0.178569</v>
       </c>
       <c r="C136" t="n">
-        <v>0.233228</v>
+        <v>0.23344</v>
       </c>
       <c r="D136" t="n">
-        <v>0.221965</v>
+        <v>0.221791</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168455</v>
+        <v>0.168361</v>
       </c>
       <c r="C137" t="n">
-        <v>0.249097</v>
+        <v>0.248736</v>
       </c>
       <c r="D137" t="n">
-        <v>0.238229</v>
+        <v>0.237741</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.24891</v>
+        <v>0.248923</v>
       </c>
       <c r="C138" t="n">
-        <v>0.247078</v>
+        <v>0.246765</v>
       </c>
       <c r="D138" t="n">
-        <v>0.235825</v>
+        <v>0.235536</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.245067</v>
+        <v>0.245001</v>
       </c>
       <c r="C139" t="n">
-        <v>0.245198</v>
+        <v>0.245012</v>
       </c>
       <c r="D139" t="n">
-        <v>0.233923</v>
+        <v>0.233644</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.241026</v>
+        <v>0.240844</v>
       </c>
       <c r="C140" t="n">
-        <v>0.243591</v>
+        <v>0.243467</v>
       </c>
       <c r="D140" t="n">
-        <v>0.232308</v>
+        <v>0.232132</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236078</v>
+        <v>0.236055</v>
       </c>
       <c r="C141" t="n">
-        <v>0.242214</v>
+        <v>0.242066</v>
       </c>
       <c r="D141" t="n">
-        <v>0.230862</v>
+        <v>0.230686</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231023</v>
+        <v>0.231004</v>
       </c>
       <c r="C142" t="n">
-        <v>0.240973</v>
+        <v>0.240893</v>
       </c>
       <c r="D142" t="n">
-        <v>0.229486</v>
+        <v>0.229416</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225716</v>
+        <v>0.225611</v>
       </c>
       <c r="C143" t="n">
-        <v>0.239773</v>
+        <v>0.239775</v>
       </c>
       <c r="D143" t="n">
-        <v>0.228338</v>
+        <v>0.228268</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.193954</v>
+        <v>0.201636</v>
       </c>
       <c r="C2" t="n">
-        <v>0.209865</v>
+        <v>0.223048</v>
       </c>
       <c r="D2" t="n">
-        <v>0.312938</v>
+        <v>0.305847</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.190504</v>
+        <v>0.192593</v>
       </c>
       <c r="C3" t="n">
-        <v>0.211363</v>
+        <v>0.222924</v>
       </c>
       <c r="D3" t="n">
-        <v>0.314038</v>
+        <v>0.30669</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.185748</v>
+        <v>0.187638</v>
       </c>
       <c r="C4" t="n">
-        <v>0.212206</v>
+        <v>0.224046</v>
       </c>
       <c r="D4" t="n">
-        <v>0.316202</v>
+        <v>0.307754</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.179441</v>
+        <v>0.181802</v>
       </c>
       <c r="C5" t="n">
-        <v>0.212813</v>
+        <v>0.223579</v>
       </c>
       <c r="D5" t="n">
-        <v>0.316677</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.175945</v>
+        <v>0.178385</v>
       </c>
       <c r="C6" t="n">
-        <v>0.211718</v>
+        <v>0.224394</v>
       </c>
       <c r="D6" t="n">
-        <v>0.317486</v>
+        <v>0.310394</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169149</v>
+        <v>0.170994</v>
       </c>
       <c r="C7" t="n">
-        <v>0.212892</v>
+        <v>0.225878</v>
       </c>
       <c r="D7" t="n">
-        <v>0.309211</v>
+        <v>0.30451</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.160571</v>
+        <v>0.162568</v>
       </c>
       <c r="C8" t="n">
-        <v>0.214005</v>
+        <v>0.226194</v>
       </c>
       <c r="D8" t="n">
-        <v>0.309615</v>
+        <v>0.304799</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.153034</v>
+        <v>0.154263</v>
       </c>
       <c r="C9" t="n">
-        <v>0.227309</v>
+        <v>0.239576</v>
       </c>
       <c r="D9" t="n">
-        <v>0.310071</v>
+        <v>0.305015</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.233623</v>
+        <v>0.235646</v>
       </c>
       <c r="C10" t="n">
-        <v>0.227636</v>
+        <v>0.238778</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3112</v>
+        <v>0.30543</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.230532</v>
+        <v>0.233591</v>
       </c>
       <c r="C11" t="n">
-        <v>0.226569</v>
+        <v>0.238785</v>
       </c>
       <c r="D11" t="n">
-        <v>0.313065</v>
+        <v>0.306129</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.228943</v>
+        <v>0.23048</v>
       </c>
       <c r="C12" t="n">
-        <v>0.225911</v>
+        <v>0.237622</v>
       </c>
       <c r="D12" t="n">
-        <v>0.31368</v>
+        <v>0.306695</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.224618</v>
+        <v>0.225086</v>
       </c>
       <c r="C13" t="n">
-        <v>0.22505</v>
+        <v>0.237359</v>
       </c>
       <c r="D13" t="n">
-        <v>0.314433</v>
+        <v>0.308185</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.220143</v>
+        <v>0.223184</v>
       </c>
       <c r="C14" t="n">
-        <v>0.224339</v>
+        <v>0.23686</v>
       </c>
       <c r="D14" t="n">
-        <v>0.315553</v>
+        <v>0.308729</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.216033</v>
+        <v>0.217451</v>
       </c>
       <c r="C15" t="n">
-        <v>0.223612</v>
+        <v>0.236464</v>
       </c>
       <c r="D15" t="n">
-        <v>0.316139</v>
+        <v>0.309391</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211294</v>
+        <v>0.211732</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222705</v>
+        <v>0.235355</v>
       </c>
       <c r="D16" t="n">
-        <v>0.316856</v>
+        <v>0.310133</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.207405</v>
+        <v>0.208937</v>
       </c>
       <c r="C17" t="n">
-        <v>0.222273</v>
+        <v>0.235234</v>
       </c>
       <c r="D17" t="n">
-        <v>0.31843</v>
+        <v>0.31122</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.202546</v>
+        <v>0.203157</v>
       </c>
       <c r="C18" t="n">
-        <v>0.221331</v>
+        <v>0.234698</v>
       </c>
       <c r="D18" t="n">
-        <v>0.319877</v>
+        <v>0.31279</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195968</v>
+        <v>0.196291</v>
       </c>
       <c r="C19" t="n">
-        <v>0.220894</v>
+        <v>0.233816</v>
       </c>
       <c r="D19" t="n">
-        <v>0.321786</v>
+        <v>0.31419</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.190217</v>
+        <v>0.19032</v>
       </c>
       <c r="C20" t="n">
-        <v>0.220443</v>
+        <v>0.233861</v>
       </c>
       <c r="D20" t="n">
-        <v>0.32184</v>
+        <v>0.314906</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185259</v>
+        <v>0.183893</v>
       </c>
       <c r="C21" t="n">
-        <v>0.219746</v>
+        <v>0.233473</v>
       </c>
       <c r="D21" t="n">
-        <v>0.314725</v>
+        <v>0.310243</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.176408</v>
+        <v>0.176737</v>
       </c>
       <c r="C22" t="n">
-        <v>0.219721</v>
+        <v>0.233142</v>
       </c>
       <c r="D22" t="n">
-        <v>0.31459</v>
+        <v>0.309255</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.16642</v>
+        <v>0.167118</v>
       </c>
       <c r="C23" t="n">
-        <v>0.233581</v>
+        <v>0.246347</v>
       </c>
       <c r="D23" t="n">
-        <v>0.315998</v>
+        <v>0.310084</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.244567</v>
+        <v>0.24657</v>
       </c>
       <c r="C24" t="n">
-        <v>0.231285</v>
+        <v>0.24499</v>
       </c>
       <c r="D24" t="n">
-        <v>0.31595</v>
+        <v>0.310009</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.241361</v>
+        <v>0.242153</v>
       </c>
       <c r="C25" t="n">
-        <v>0.230693</v>
+        <v>0.244388</v>
       </c>
       <c r="D25" t="n">
-        <v>0.317065</v>
+        <v>0.310978</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.236966</v>
+        <v>0.237957</v>
       </c>
       <c r="C26" t="n">
-        <v>0.22933</v>
+        <v>0.243005</v>
       </c>
       <c r="D26" t="n">
-        <v>0.317964</v>
+        <v>0.310046</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.232375</v>
+        <v>0.233341</v>
       </c>
       <c r="C27" t="n">
-        <v>0.22825</v>
+        <v>0.242086</v>
       </c>
       <c r="D27" t="n">
-        <v>0.318272</v>
+        <v>0.310802</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.227416</v>
+        <v>0.228227</v>
       </c>
       <c r="C28" t="n">
-        <v>0.226914</v>
+        <v>0.241028</v>
       </c>
       <c r="D28" t="n">
-        <v>0.319232</v>
+        <v>0.310818</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.224199</v>
+        <v>0.223604</v>
       </c>
       <c r="C29" t="n">
-        <v>0.226024</v>
+        <v>0.239875</v>
       </c>
       <c r="D29" t="n">
-        <v>0.319503</v>
+        <v>0.311369</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.219738</v>
+        <v>0.218906</v>
       </c>
       <c r="C30" t="n">
-        <v>0.224972</v>
+        <v>0.239771</v>
       </c>
       <c r="D30" t="n">
-        <v>0.320292</v>
+        <v>0.312901</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.212982</v>
+        <v>0.213142</v>
       </c>
       <c r="C31" t="n">
-        <v>0.224265</v>
+        <v>0.238041</v>
       </c>
       <c r="D31" t="n">
-        <v>0.321714</v>
+        <v>0.313923</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20752</v>
+        <v>0.208117</v>
       </c>
       <c r="C32" t="n">
-        <v>0.223782</v>
+        <v>0.237598</v>
       </c>
       <c r="D32" t="n">
-        <v>0.32192</v>
+        <v>0.314795</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.20176</v>
+        <v>0.202401</v>
       </c>
       <c r="C33" t="n">
-        <v>0.222535</v>
+        <v>0.236905</v>
       </c>
       <c r="D33" t="n">
-        <v>0.323116</v>
+        <v>0.315592</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.196882</v>
+        <v>0.196375</v>
       </c>
       <c r="C34" t="n">
-        <v>0.221688</v>
+        <v>0.236082</v>
       </c>
       <c r="D34" t="n">
-        <v>0.323389</v>
+        <v>0.31596</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.18943</v>
+        <v>0.189025</v>
       </c>
       <c r="C35" t="n">
-        <v>0.221196</v>
+        <v>0.235021</v>
       </c>
       <c r="D35" t="n">
-        <v>0.319435</v>
+        <v>0.31307</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.181234</v>
+        <v>0.181369</v>
       </c>
       <c r="C36" t="n">
-        <v>0.220621</v>
+        <v>0.234079</v>
       </c>
       <c r="D36" t="n">
-        <v>0.319761</v>
+        <v>0.313559</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172218</v>
+        <v>0.17195</v>
       </c>
       <c r="C37" t="n">
-        <v>0.236117</v>
+        <v>0.248761</v>
       </c>
       <c r="D37" t="n">
-        <v>0.320802</v>
+        <v>0.312892</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247986</v>
+        <v>0.249058</v>
       </c>
       <c r="C38" t="n">
-        <v>0.232873</v>
+        <v>0.247111</v>
       </c>
       <c r="D38" t="n">
-        <v>0.318274</v>
+        <v>0.313332</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.244956</v>
+        <v>0.24605</v>
       </c>
       <c r="C39" t="n">
-        <v>0.231558</v>
+        <v>0.246135</v>
       </c>
       <c r="D39" t="n">
-        <v>0.320302</v>
+        <v>0.312823</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.240449</v>
+        <v>0.241799</v>
       </c>
       <c r="C40" t="n">
-        <v>0.230335</v>
+        <v>0.244423</v>
       </c>
       <c r="D40" t="n">
-        <v>0.31941</v>
+        <v>0.313589</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.236404</v>
+        <v>0.236846</v>
       </c>
       <c r="C41" t="n">
-        <v>0.228969</v>
+        <v>0.243046</v>
       </c>
       <c r="D41" t="n">
-        <v>0.320073</v>
+        <v>0.312798</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.231532</v>
+        <v>0.232464</v>
       </c>
       <c r="C42" t="n">
-        <v>0.228158</v>
+        <v>0.242232</v>
       </c>
       <c r="D42" t="n">
-        <v>0.321209</v>
+        <v>0.314028</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.22623</v>
+        <v>0.227759</v>
       </c>
       <c r="C43" t="n">
-        <v>0.226858</v>
+        <v>0.24118</v>
       </c>
       <c r="D43" t="n">
-        <v>0.321406</v>
+        <v>0.314352</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221136</v>
+        <v>0.222759</v>
       </c>
       <c r="C44" t="n">
-        <v>0.226005</v>
+        <v>0.240229</v>
       </c>
       <c r="D44" t="n">
-        <v>0.323702</v>
+        <v>0.315557</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216338</v>
+        <v>0.217006</v>
       </c>
       <c r="C45" t="n">
-        <v>0.225165</v>
+        <v>0.239239</v>
       </c>
       <c r="D45" t="n">
-        <v>0.324151</v>
+        <v>0.316508</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.210892</v>
+        <v>0.211651</v>
       </c>
       <c r="C46" t="n">
-        <v>0.224255</v>
+        <v>0.238563</v>
       </c>
       <c r="D46" t="n">
-        <v>0.324692</v>
+        <v>0.316423</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.20516</v>
+        <v>0.205589</v>
       </c>
       <c r="C47" t="n">
-        <v>0.223327</v>
+        <v>0.237445</v>
       </c>
       <c r="D47" t="n">
-        <v>0.325939</v>
+        <v>0.317654</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198805</v>
+        <v>0.199191</v>
       </c>
       <c r="C48" t="n">
-        <v>0.222605</v>
+        <v>0.236785</v>
       </c>
       <c r="D48" t="n">
-        <v>0.32682</v>
+        <v>0.31995</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.192275</v>
+        <v>0.191691</v>
       </c>
       <c r="C49" t="n">
-        <v>0.221665</v>
+        <v>0.236205</v>
       </c>
       <c r="D49" t="n">
-        <v>0.327972</v>
+        <v>0.320418</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1842</v>
+        <v>0.183819</v>
       </c>
       <c r="C50" t="n">
-        <v>0.221176</v>
+        <v>0.235038</v>
       </c>
       <c r="D50" t="n">
-        <v>0.323437</v>
+        <v>0.316731</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17427</v>
+        <v>0.174439</v>
       </c>
       <c r="C51" t="n">
-        <v>0.235449</v>
+        <v>0.251249</v>
       </c>
       <c r="D51" t="n">
-        <v>0.322761</v>
+        <v>0.317529</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.163072</v>
+        <v>0.162933</v>
       </c>
       <c r="C52" t="n">
-        <v>0.233908</v>
+        <v>0.249006</v>
       </c>
       <c r="D52" t="n">
-        <v>0.323946</v>
+        <v>0.317749</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.247518</v>
+        <v>0.247184</v>
       </c>
       <c r="C53" t="n">
-        <v>0.232496</v>
+        <v>0.247014</v>
       </c>
       <c r="D53" t="n">
-        <v>0.324895</v>
+        <v>0.318726</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.243281</v>
+        <v>0.243234</v>
       </c>
       <c r="C54" t="n">
-        <v>0.231303</v>
+        <v>0.245586</v>
       </c>
       <c r="D54" t="n">
-        <v>0.324858</v>
+        <v>0.318434</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.239013</v>
+        <v>0.238856</v>
       </c>
       <c r="C55" t="n">
-        <v>0.230054</v>
+        <v>0.244472</v>
       </c>
       <c r="D55" t="n">
-        <v>0.326334</v>
+        <v>0.320539</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.235012</v>
+        <v>0.234479</v>
       </c>
       <c r="C56" t="n">
-        <v>0.229051</v>
+        <v>0.243061</v>
       </c>
       <c r="D56" t="n">
-        <v>0.327741</v>
+        <v>0.32151</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.229339</v>
+        <v>0.229341</v>
       </c>
       <c r="C57" t="n">
-        <v>0.227601</v>
+        <v>0.241955</v>
       </c>
       <c r="D57" t="n">
-        <v>0.329834</v>
+        <v>0.325722</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.2245</v>
+        <v>0.224185</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2266</v>
+        <v>0.240936</v>
       </c>
       <c r="D58" t="n">
-        <v>0.331597</v>
+        <v>0.326933</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.21886</v>
+        <v>0.218913</v>
       </c>
       <c r="C59" t="n">
-        <v>0.225668</v>
+        <v>0.239732</v>
       </c>
       <c r="D59" t="n">
-        <v>0.333719</v>
+        <v>0.32703</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212958</v>
+        <v>0.21285</v>
       </c>
       <c r="C60" t="n">
-        <v>0.224676</v>
+        <v>0.238864</v>
       </c>
       <c r="D60" t="n">
-        <v>0.334219</v>
+        <v>0.331009</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.20774</v>
+        <v>0.207493</v>
       </c>
       <c r="C61" t="n">
-        <v>0.223766</v>
+        <v>0.238081</v>
       </c>
       <c r="D61" t="n">
-        <v>0.337346</v>
+        <v>0.333148</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.201404</v>
+        <v>0.201604</v>
       </c>
       <c r="C62" t="n">
-        <v>0.22304</v>
+        <v>0.237124</v>
       </c>
       <c r="D62" t="n">
-        <v>0.34042</v>
+        <v>0.33521</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194718</v>
+        <v>0.194728</v>
       </c>
       <c r="C63" t="n">
-        <v>0.222199</v>
+        <v>0.2362</v>
       </c>
       <c r="D63" t="n">
-        <v>0.344161</v>
+        <v>0.33556</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.186827</v>
+        <v>0.186996</v>
       </c>
       <c r="C64" t="n">
-        <v>0.221385</v>
+        <v>0.235434</v>
       </c>
       <c r="D64" t="n">
-        <v>0.382205</v>
+        <v>0.377482</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177585</v>
+        <v>0.177924</v>
       </c>
       <c r="C65" t="n">
-        <v>0.220426</v>
+        <v>0.234605</v>
       </c>
       <c r="D65" t="n">
-        <v>0.385998</v>
+        <v>0.376829</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167234</v>
+        <v>0.167555</v>
       </c>
       <c r="C66" t="n">
-        <v>0.235021</v>
+        <v>0.248964</v>
       </c>
       <c r="D66" t="n">
-        <v>0.386296</v>
+        <v>0.37641</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.248933</v>
+        <v>0.248441</v>
       </c>
       <c r="C67" t="n">
-        <v>0.233402</v>
+        <v>0.24757</v>
       </c>
       <c r="D67" t="n">
-        <v>0.384531</v>
+        <v>0.380694</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.244815</v>
+        <v>0.244887</v>
       </c>
       <c r="C68" t="n">
-        <v>0.231946</v>
+        <v>0.24644</v>
       </c>
       <c r="D68" t="n">
-        <v>0.388321</v>
+        <v>0.381795</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240753</v>
+        <v>0.240864</v>
       </c>
       <c r="C69" t="n">
-        <v>0.230698</v>
+        <v>0.24502</v>
       </c>
       <c r="D69" t="n">
-        <v>0.391415</v>
+        <v>0.383126</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.236187</v>
+        <v>0.236426</v>
       </c>
       <c r="C70" t="n">
-        <v>0.229353</v>
+        <v>0.243512</v>
       </c>
       <c r="D70" t="n">
-        <v>0.38856</v>
+        <v>0.379785</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2312</v>
+        <v>0.23138</v>
       </c>
       <c r="C71" t="n">
-        <v>0.228244</v>
+        <v>0.242578</v>
       </c>
       <c r="D71" t="n">
-        <v>0.390809</v>
+        <v>0.383137</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.226195</v>
+        <v>0.226141</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2272</v>
+        <v>0.241328</v>
       </c>
       <c r="D72" t="n">
-        <v>0.390603</v>
+        <v>0.383179</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.220749</v>
+        <v>0.220897</v>
       </c>
       <c r="C73" t="n">
-        <v>0.226076</v>
+        <v>0.240132</v>
       </c>
       <c r="D73" t="n">
-        <v>0.389918</v>
+        <v>0.378787</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.215133</v>
+        <v>0.215086</v>
       </c>
       <c r="C74" t="n">
-        <v>0.225061</v>
+        <v>0.239211</v>
       </c>
       <c r="D74" t="n">
-        <v>0.391578</v>
+        <v>0.381372</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209678</v>
+        <v>0.209333</v>
       </c>
       <c r="C75" t="n">
-        <v>0.223923</v>
+        <v>0.238509</v>
       </c>
       <c r="D75" t="n">
-        <v>0.391064</v>
+        <v>0.379192</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.203072</v>
+        <v>0.203355</v>
       </c>
       <c r="C76" t="n">
-        <v>0.223043</v>
+        <v>0.23755</v>
       </c>
       <c r="D76" t="n">
-        <v>0.391866</v>
+        <v>0.381269</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19671</v>
+        <v>0.196739</v>
       </c>
       <c r="C77" t="n">
-        <v>0.222295</v>
+        <v>0.236729</v>
       </c>
       <c r="D77" t="n">
-        <v>0.390356</v>
+        <v>0.380156</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188947</v>
+        <v>0.189283</v>
       </c>
       <c r="C78" t="n">
-        <v>0.221367</v>
+        <v>0.235947</v>
       </c>
       <c r="D78" t="n">
-        <v>0.446038</v>
+        <v>0.439734</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180356</v>
+        <v>0.180705</v>
       </c>
       <c r="C79" t="n">
-        <v>0.220689</v>
+        <v>0.234989</v>
       </c>
       <c r="D79" t="n">
-        <v>0.44242</v>
+        <v>0.435927</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170065</v>
+        <v>0.170268</v>
       </c>
       <c r="C80" t="n">
-        <v>0.236828</v>
+        <v>0.251139</v>
       </c>
       <c r="D80" t="n">
-        <v>0.438511</v>
+        <v>0.434396</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.250545</v>
+        <v>0.250414</v>
       </c>
       <c r="C81" t="n">
-        <v>0.234854</v>
+        <v>0.249137</v>
       </c>
       <c r="D81" t="n">
-        <v>0.436523</v>
+        <v>0.429335</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.246606</v>
+        <v>0.246545</v>
       </c>
       <c r="C82" t="n">
-        <v>0.233231</v>
+        <v>0.24731</v>
       </c>
       <c r="D82" t="n">
-        <v>0.432032</v>
+        <v>0.424519</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.24215</v>
+        <v>0.242405</v>
       </c>
       <c r="C83" t="n">
-        <v>0.231672</v>
+        <v>0.245736</v>
       </c>
       <c r="D83" t="n">
-        <v>0.428196</v>
+        <v>0.420487</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.237292</v>
+        <v>0.237328</v>
       </c>
       <c r="C84" t="n">
-        <v>0.229904</v>
+        <v>0.244353</v>
       </c>
       <c r="D84" t="n">
-        <v>0.42631</v>
+        <v>0.417975</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232395</v>
+        <v>0.232431</v>
       </c>
       <c r="C85" t="n">
-        <v>0.22884</v>
+        <v>0.243072</v>
       </c>
       <c r="D85" t="n">
-        <v>0.420973</v>
+        <v>0.414431</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.227259</v>
+        <v>0.227417</v>
       </c>
       <c r="C86" t="n">
-        <v>0.227351</v>
+        <v>0.241815</v>
       </c>
       <c r="D86" t="n">
-        <v>0.420519</v>
+        <v>0.410392</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.222038</v>
+        <v>0.222073</v>
       </c>
       <c r="C87" t="n">
-        <v>0.226407</v>
+        <v>0.24082</v>
       </c>
       <c r="D87" t="n">
-        <v>0.420641</v>
+        <v>0.408939</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216323</v>
+        <v>0.216554</v>
       </c>
       <c r="C88" t="n">
-        <v>0.225331</v>
+        <v>0.239618</v>
       </c>
       <c r="D88" t="n">
-        <v>0.413931</v>
+        <v>0.40482</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.210845</v>
+        <v>0.210822</v>
       </c>
       <c r="C89" t="n">
-        <v>0.224535</v>
+        <v>0.238944</v>
       </c>
       <c r="D89" t="n">
-        <v>0.41233</v>
+        <v>0.40242</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204645</v>
+        <v>0.204708</v>
       </c>
       <c r="C90" t="n">
-        <v>0.223732</v>
+        <v>0.238029</v>
       </c>
       <c r="D90" t="n">
-        <v>0.410465</v>
+        <v>0.401961</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.198255</v>
+        <v>0.198317</v>
       </c>
       <c r="C91" t="n">
-        <v>0.222738</v>
+        <v>0.236924</v>
       </c>
       <c r="D91" t="n">
-        <v>0.411599</v>
+        <v>0.404064</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190859</v>
+        <v>0.190855</v>
       </c>
       <c r="C92" t="n">
-        <v>0.222054</v>
+        <v>0.236167</v>
       </c>
       <c r="D92" t="n">
-        <v>0.460587</v>
+        <v>0.448045</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182473</v>
+        <v>0.182479</v>
       </c>
       <c r="C93" t="n">
-        <v>0.221318</v>
+        <v>0.235425</v>
       </c>
       <c r="D93" t="n">
-        <v>0.453921</v>
+        <v>0.44405</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.173103</v>
+        <v>0.173136</v>
       </c>
       <c r="C94" t="n">
-        <v>0.238049</v>
+        <v>0.251628</v>
       </c>
       <c r="D94" t="n">
-        <v>0.448816</v>
+        <v>0.440163</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.25121</v>
+        <v>0.25091</v>
       </c>
       <c r="C95" t="n">
-        <v>0.23546</v>
+        <v>0.24933</v>
       </c>
       <c r="D95" t="n">
-        <v>0.440262</v>
+        <v>0.436695</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.247447</v>
+        <v>0.247351</v>
       </c>
       <c r="C96" t="n">
-        <v>0.233582</v>
+        <v>0.247496</v>
       </c>
       <c r="D96" t="n">
-        <v>0.438956</v>
+        <v>0.428497</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.24325</v>
+        <v>0.243198</v>
       </c>
       <c r="C97" t="n">
-        <v>0.231753</v>
+        <v>0.245883</v>
       </c>
       <c r="D97" t="n">
-        <v>0.436787</v>
+        <v>0.426774</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.238904</v>
+        <v>0.238875</v>
       </c>
       <c r="C98" t="n">
-        <v>0.230457</v>
+        <v>0.244488</v>
       </c>
       <c r="D98" t="n">
-        <v>0.429621</v>
+        <v>0.421889</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.234092</v>
+        <v>0.233909</v>
       </c>
       <c r="C99" t="n">
-        <v>0.228974</v>
+        <v>0.243305</v>
       </c>
       <c r="D99" t="n">
-        <v>0.423976</v>
+        <v>0.414093</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228851</v>
+        <v>0.228782</v>
       </c>
       <c r="C100" t="n">
-        <v>0.22764</v>
+        <v>0.242058</v>
       </c>
       <c r="D100" t="n">
-        <v>0.420318</v>
+        <v>0.4119</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223146</v>
+        <v>0.223154</v>
       </c>
       <c r="C101" t="n">
-        <v>0.226635</v>
+        <v>0.240808</v>
       </c>
       <c r="D101" t="n">
-        <v>0.418238</v>
+        <v>0.405496</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.21759</v>
+        <v>0.217438</v>
       </c>
       <c r="C102" t="n">
-        <v>0.225501</v>
+        <v>0.239779</v>
       </c>
       <c r="D102" t="n">
-        <v>0.414372</v>
+        <v>0.40616</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212016</v>
+        <v>0.211864</v>
       </c>
       <c r="C103" t="n">
-        <v>0.224566</v>
+        <v>0.238962</v>
       </c>
       <c r="D103" t="n">
-        <v>0.410858</v>
+        <v>0.399585</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2056</v>
+        <v>0.206363</v>
       </c>
       <c r="C104" t="n">
-        <v>0.223756</v>
+        <v>0.238021</v>
       </c>
       <c r="D104" t="n">
-        <v>0.405826</v>
+        <v>0.396806</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199217</v>
+        <v>0.199675</v>
       </c>
       <c r="C105" t="n">
-        <v>0.22297</v>
+        <v>0.237184</v>
       </c>
       <c r="D105" t="n">
-        <v>0.405527</v>
+        <v>0.394758</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192308</v>
+        <v>0.192666</v>
       </c>
       <c r="C106" t="n">
-        <v>0.222177</v>
+        <v>0.236308</v>
       </c>
       <c r="D106" t="n">
-        <v>0.401188</v>
+        <v>0.391412</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.184491</v>
+        <v>0.184714</v>
       </c>
       <c r="C107" t="n">
-        <v>0.221418</v>
+        <v>0.235646</v>
       </c>
       <c r="D107" t="n">
-        <v>0.433551</v>
+        <v>0.427535</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.175045</v>
+        <v>0.175304</v>
       </c>
       <c r="C108" t="n">
-        <v>0.23872</v>
+        <v>0.252144</v>
       </c>
       <c r="D108" t="n">
-        <v>0.423888</v>
+        <v>0.418823</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.164481</v>
+        <v>0.164018</v>
       </c>
       <c r="C109" t="n">
-        <v>0.236098</v>
+        <v>0.249798</v>
       </c>
       <c r="D109" t="n">
-        <v>0.421171</v>
+        <v>0.415349</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.248407</v>
+        <v>0.24827</v>
       </c>
       <c r="C110" t="n">
-        <v>0.233926</v>
+        <v>0.24797</v>
       </c>
       <c r="D110" t="n">
-        <v>0.417842</v>
+        <v>0.410694</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.244301</v>
+        <v>0.244151</v>
       </c>
       <c r="C111" t="n">
-        <v>0.232192</v>
+        <v>0.246419</v>
       </c>
       <c r="D111" t="n">
-        <v>0.416557</v>
+        <v>0.408612</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.239819</v>
+        <v>0.23969</v>
       </c>
       <c r="C112" t="n">
-        <v>0.23064</v>
+        <v>0.244871</v>
       </c>
       <c r="D112" t="n">
-        <v>0.412186</v>
+        <v>0.403796</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.235023</v>
+        <v>0.234924</v>
       </c>
       <c r="C113" t="n">
-        <v>0.229377</v>
+        <v>0.243638</v>
       </c>
       <c r="D113" t="n">
-        <v>0.40836</v>
+        <v>0.400069</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229928</v>
+        <v>0.229833</v>
       </c>
       <c r="C114" t="n">
-        <v>0.228027</v>
+        <v>0.242297</v>
       </c>
       <c r="D114" t="n">
-        <v>0.404212</v>
+        <v>0.396562</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224725</v>
+        <v>0.224394</v>
       </c>
       <c r="C115" t="n">
-        <v>0.22692</v>
+        <v>0.241261</v>
       </c>
       <c r="D115" t="n">
-        <v>0.400225</v>
+        <v>0.392216</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219166</v>
+        <v>0.218995</v>
       </c>
       <c r="C116" t="n">
-        <v>0.225886</v>
+        <v>0.240068</v>
       </c>
       <c r="D116" t="n">
-        <v>0.396544</v>
+        <v>0.389164</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213536</v>
+        <v>0.213408</v>
       </c>
       <c r="C117" t="n">
-        <v>0.22494</v>
+        <v>0.2394</v>
       </c>
       <c r="D117" t="n">
-        <v>0.395548</v>
+        <v>0.388518</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.208036</v>
+        <v>0.207655</v>
       </c>
       <c r="C118" t="n">
-        <v>0.224005</v>
+        <v>0.238334</v>
       </c>
       <c r="D118" t="n">
-        <v>0.395198</v>
+        <v>0.38674</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.201432</v>
+        <v>0.201633</v>
       </c>
       <c r="C119" t="n">
-        <v>0.22316</v>
+        <v>0.237541</v>
       </c>
       <c r="D119" t="n">
-        <v>0.391959</v>
+        <v>0.383368</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.194816</v>
+        <v>0.194709</v>
       </c>
       <c r="C120" t="n">
-        <v>0.222353</v>
+        <v>0.236647</v>
       </c>
       <c r="D120" t="n">
-        <v>0.390538</v>
+        <v>0.381456</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.187151</v>
+        <v>0.187259</v>
       </c>
       <c r="C121" t="n">
-        <v>0.221655</v>
+        <v>0.235959</v>
       </c>
       <c r="D121" t="n">
-        <v>0.463946</v>
+        <v>0.455205</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.178376</v>
+        <v>0.178669</v>
       </c>
       <c r="C122" t="n">
-        <v>0.22103</v>
+        <v>0.235115</v>
       </c>
       <c r="D122" t="n">
-        <v>0.453227</v>
+        <v>0.444411</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168054</v>
+        <v>0.167577</v>
       </c>
       <c r="C123" t="n">
-        <v>0.236531</v>
+        <v>0.250487</v>
       </c>
       <c r="D123" t="n">
-        <v>0.446489</v>
+        <v>0.437959</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.249445</v>
+        <v>0.249418</v>
       </c>
       <c r="C124" t="n">
-        <v>0.234474</v>
+        <v>0.248648</v>
       </c>
       <c r="D124" t="n">
-        <v>0.442179</v>
+        <v>0.433528</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.24564</v>
+        <v>0.245563</v>
       </c>
       <c r="C125" t="n">
-        <v>0.232661</v>
+        <v>0.246966</v>
       </c>
       <c r="D125" t="n">
-        <v>0.437969</v>
+        <v>0.429131</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.241013</v>
+        <v>0.24092</v>
       </c>
       <c r="C126" t="n">
-        <v>0.231102</v>
+        <v>0.245422</v>
       </c>
       <c r="D126" t="n">
-        <v>0.431699</v>
+        <v>0.423348</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236527</v>
+        <v>0.23601</v>
       </c>
       <c r="C127" t="n">
-        <v>0.229691</v>
+        <v>0.244113</v>
       </c>
       <c r="D127" t="n">
-        <v>0.429107</v>
+        <v>0.41854</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.231507</v>
+        <v>0.23108</v>
       </c>
       <c r="C128" t="n">
-        <v>0.228449</v>
+        <v>0.242828</v>
       </c>
       <c r="D128" t="n">
-        <v>0.424352</v>
+        <v>0.413665</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.226197</v>
+        <v>0.22567</v>
       </c>
       <c r="C129" t="n">
-        <v>0.227237</v>
+        <v>0.241609</v>
       </c>
       <c r="D129" t="n">
-        <v>0.419179</v>
+        <v>0.410089</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.220641</v>
+        <v>0.22028</v>
       </c>
       <c r="C130" t="n">
-        <v>0.226114</v>
+        <v>0.24035</v>
       </c>
       <c r="D130" t="n">
-        <v>0.415107</v>
+        <v>0.405017</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.215345</v>
+        <v>0.215053</v>
       </c>
       <c r="C131" t="n">
-        <v>0.225263</v>
+        <v>0.239552</v>
       </c>
       <c r="D131" t="n">
-        <v>0.412334</v>
+        <v>0.40209</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.209324</v>
+        <v>0.209132</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2243</v>
+        <v>0.238707</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4089</v>
+        <v>0.398773</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.20305</v>
+        <v>0.202915</v>
       </c>
       <c r="C133" t="n">
-        <v>0.223401</v>
+        <v>0.23774</v>
       </c>
       <c r="D133" t="n">
-        <v>0.403276</v>
+        <v>0.394637</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196098</v>
+        <v>0.195643</v>
       </c>
       <c r="C134" t="n">
-        <v>0.222526</v>
+        <v>0.237028</v>
       </c>
       <c r="D134" t="n">
-        <v>0.402535</v>
+        <v>0.39191</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.18838</v>
+        <v>0.188185</v>
       </c>
       <c r="C135" t="n">
-        <v>0.221799</v>
+        <v>0.236032</v>
       </c>
       <c r="D135" t="n">
-        <v>0.464222</v>
+        <v>0.455583</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.181086</v>
+        <v>0.180845</v>
       </c>
       <c r="C136" t="n">
-        <v>0.22118</v>
+        <v>0.235449</v>
       </c>
       <c r="D136" t="n">
-        <v>0.461786</v>
+        <v>0.452246</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.169297</v>
+        <v>0.169576</v>
       </c>
       <c r="C137" t="n">
-        <v>0.237215</v>
+        <v>0.251173</v>
       </c>
       <c r="D137" t="n">
-        <v>0.459966</v>
+        <v>0.448279</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.250114</v>
+        <v>0.249819</v>
       </c>
       <c r="C138" t="n">
-        <v>0.235016</v>
+        <v>0.24911</v>
       </c>
       <c r="D138" t="n">
-        <v>0.452938</v>
+        <v>0.441074</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.246263</v>
+        <v>0.24605</v>
       </c>
       <c r="C139" t="n">
-        <v>0.233129</v>
+        <v>0.247305</v>
       </c>
       <c r="D139" t="n">
-        <v>0.447501</v>
+        <v>0.437142</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.241791</v>
+        <v>0.241676</v>
       </c>
       <c r="C140" t="n">
-        <v>0.231555</v>
+        <v>0.245833</v>
       </c>
       <c r="D140" t="n">
-        <v>0.442808</v>
+        <v>0.432226</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.237136</v>
+        <v>0.236936</v>
       </c>
       <c r="C141" t="n">
-        <v>0.230084</v>
+        <v>0.244375</v>
       </c>
       <c r="D141" t="n">
-        <v>0.438444</v>
+        <v>0.427607</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.232139</v>
+        <v>0.231862</v>
       </c>
       <c r="C142" t="n">
-        <v>0.228687</v>
+        <v>0.243014</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4296</v>
+        <v>0.419168</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.226853</v>
+        <v>0.226762</v>
       </c>
       <c r="C143" t="n">
-        <v>0.227449</v>
+        <v>0.241845</v>
       </c>
       <c r="D143" t="n">
-        <v>0.427652</v>
+        <v>0.417126</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.193954</v>
+        <v>0.19729</v>
       </c>
       <c r="C2" t="n">
-        <v>0.209865</v>
+        <v>0.220141</v>
       </c>
       <c r="D2" t="n">
-        <v>0.312938</v>
+        <v>0.312118</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.190504</v>
+        <v>0.191141</v>
       </c>
       <c r="C3" t="n">
-        <v>0.211363</v>
+        <v>0.221627</v>
       </c>
       <c r="D3" t="n">
-        <v>0.314038</v>
+        <v>0.312138</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.185748</v>
+        <v>0.186408</v>
       </c>
       <c r="C4" t="n">
-        <v>0.212206</v>
+        <v>0.223596</v>
       </c>
       <c r="D4" t="n">
-        <v>0.316202</v>
+        <v>0.313004</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.179441</v>
+        <v>0.180808</v>
       </c>
       <c r="C5" t="n">
-        <v>0.212813</v>
+        <v>0.223531</v>
       </c>
       <c r="D5" t="n">
-        <v>0.316677</v>
+        <v>0.31511</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.175945</v>
+        <v>0.176419</v>
       </c>
       <c r="C6" t="n">
-        <v>0.211718</v>
+        <v>0.22413</v>
       </c>
       <c r="D6" t="n">
-        <v>0.317486</v>
+        <v>0.316403</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169149</v>
+        <v>0.170748</v>
       </c>
       <c r="C7" t="n">
-        <v>0.212892</v>
+        <v>0.225499</v>
       </c>
       <c r="D7" t="n">
-        <v>0.309211</v>
+        <v>0.309822</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.160571</v>
+        <v>0.162363</v>
       </c>
       <c r="C8" t="n">
-        <v>0.214005</v>
+        <v>0.227574</v>
       </c>
       <c r="D8" t="n">
-        <v>0.309615</v>
+        <v>0.309235</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.153034</v>
+        <v>0.151686</v>
       </c>
       <c r="C9" t="n">
-        <v>0.227309</v>
+        <v>0.239761</v>
       </c>
       <c r="D9" t="n">
-        <v>0.310071</v>
+        <v>0.310249</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.233623</v>
+        <v>0.234424</v>
       </c>
       <c r="C10" t="n">
-        <v>0.227636</v>
+        <v>0.239545</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3112</v>
+        <v>0.311313</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.230532</v>
+        <v>0.231086</v>
       </c>
       <c r="C11" t="n">
-        <v>0.226569</v>
+        <v>0.238778</v>
       </c>
       <c r="D11" t="n">
-        <v>0.313065</v>
+        <v>0.312019</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.228943</v>
+        <v>0.228902</v>
       </c>
       <c r="C12" t="n">
-        <v>0.225911</v>
+        <v>0.239195</v>
       </c>
       <c r="D12" t="n">
-        <v>0.31368</v>
+        <v>0.312926</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.224618</v>
+        <v>0.225543</v>
       </c>
       <c r="C13" t="n">
-        <v>0.22505</v>
+        <v>0.2382</v>
       </c>
       <c r="D13" t="n">
-        <v>0.314433</v>
+        <v>0.312635</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.220143</v>
+        <v>0.220304</v>
       </c>
       <c r="C14" t="n">
-        <v>0.224339</v>
+        <v>0.23784</v>
       </c>
       <c r="D14" t="n">
-        <v>0.315553</v>
+        <v>0.314072</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.216033</v>
+        <v>0.21728</v>
       </c>
       <c r="C15" t="n">
-        <v>0.223612</v>
+        <v>0.236954</v>
       </c>
       <c r="D15" t="n">
-        <v>0.316139</v>
+        <v>0.314857</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211294</v>
+        <v>0.211901</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222705</v>
+        <v>0.236323</v>
       </c>
       <c r="D16" t="n">
-        <v>0.316856</v>
+        <v>0.315762</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.207405</v>
+        <v>0.208078</v>
       </c>
       <c r="C17" t="n">
-        <v>0.222273</v>
+        <v>0.235807</v>
       </c>
       <c r="D17" t="n">
-        <v>0.31843</v>
+        <v>0.315969</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.202546</v>
+        <v>0.202332</v>
       </c>
       <c r="C18" t="n">
-        <v>0.221331</v>
+        <v>0.235372</v>
       </c>
       <c r="D18" t="n">
-        <v>0.319877</v>
+        <v>0.317642</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195968</v>
+        <v>0.195992</v>
       </c>
       <c r="C19" t="n">
-        <v>0.220894</v>
+        <v>0.235951</v>
       </c>
       <c r="D19" t="n">
-        <v>0.321786</v>
+        <v>0.319628</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.190217</v>
+        <v>0.190454</v>
       </c>
       <c r="C20" t="n">
-        <v>0.220443</v>
+        <v>0.235164</v>
       </c>
       <c r="D20" t="n">
-        <v>0.32184</v>
+        <v>0.320128</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185259</v>
+        <v>0.18497</v>
       </c>
       <c r="C21" t="n">
-        <v>0.219746</v>
+        <v>0.233936</v>
       </c>
       <c r="D21" t="n">
-        <v>0.314725</v>
+        <v>0.31438</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.176408</v>
+        <v>0.175737</v>
       </c>
       <c r="C22" t="n">
-        <v>0.219721</v>
+        <v>0.234442</v>
       </c>
       <c r="D22" t="n">
-        <v>0.31459</v>
+        <v>0.315234</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.16642</v>
+        <v>0.166223</v>
       </c>
       <c r="C23" t="n">
-        <v>0.233581</v>
+        <v>0.246275</v>
       </c>
       <c r="D23" t="n">
-        <v>0.315998</v>
+        <v>0.313986</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.244567</v>
+        <v>0.245728</v>
       </c>
       <c r="C24" t="n">
-        <v>0.231285</v>
+        <v>0.24475</v>
       </c>
       <c r="D24" t="n">
-        <v>0.31595</v>
+        <v>0.314369</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.241361</v>
+        <v>0.241453</v>
       </c>
       <c r="C25" t="n">
-        <v>0.230693</v>
+        <v>0.244188</v>
       </c>
       <c r="D25" t="n">
-        <v>0.317065</v>
+        <v>0.315331</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.236966</v>
+        <v>0.238207</v>
       </c>
       <c r="C26" t="n">
-        <v>0.22933</v>
+        <v>0.242967</v>
       </c>
       <c r="D26" t="n">
-        <v>0.317964</v>
+        <v>0.315813</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.232375</v>
+        <v>0.232021</v>
       </c>
       <c r="C27" t="n">
-        <v>0.22825</v>
+        <v>0.242409</v>
       </c>
       <c r="D27" t="n">
-        <v>0.318272</v>
+        <v>0.316801</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.227416</v>
+        <v>0.227669</v>
       </c>
       <c r="C28" t="n">
-        <v>0.226914</v>
+        <v>0.241675</v>
       </c>
       <c r="D28" t="n">
-        <v>0.319232</v>
+        <v>0.316259</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.224199</v>
+        <v>0.224388</v>
       </c>
       <c r="C29" t="n">
-        <v>0.226024</v>
+        <v>0.24069</v>
       </c>
       <c r="D29" t="n">
-        <v>0.319503</v>
+        <v>0.317016</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.219738</v>
+        <v>0.218453</v>
       </c>
       <c r="C30" t="n">
-        <v>0.224972</v>
+        <v>0.239193</v>
       </c>
       <c r="D30" t="n">
-        <v>0.320292</v>
+        <v>0.318131</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.212982</v>
+        <v>0.213025</v>
       </c>
       <c r="C31" t="n">
-        <v>0.224265</v>
+        <v>0.238278</v>
       </c>
       <c r="D31" t="n">
-        <v>0.321714</v>
+        <v>0.320141</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20752</v>
+        <v>0.208268</v>
       </c>
       <c r="C32" t="n">
-        <v>0.223782</v>
+        <v>0.237539</v>
       </c>
       <c r="D32" t="n">
-        <v>0.32192</v>
+        <v>0.319655</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.20176</v>
+        <v>0.202376</v>
       </c>
       <c r="C33" t="n">
-        <v>0.222535</v>
+        <v>0.236786</v>
       </c>
       <c r="D33" t="n">
-        <v>0.323116</v>
+        <v>0.321214</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.196882</v>
+        <v>0.195856</v>
       </c>
       <c r="C34" t="n">
-        <v>0.221688</v>
+        <v>0.236674</v>
       </c>
       <c r="D34" t="n">
-        <v>0.323389</v>
+        <v>0.322248</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.18943</v>
+        <v>0.189515</v>
       </c>
       <c r="C35" t="n">
-        <v>0.221196</v>
+        <v>0.236219</v>
       </c>
       <c r="D35" t="n">
-        <v>0.319435</v>
+        <v>0.31745</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.181234</v>
+        <v>0.181844</v>
       </c>
       <c r="C36" t="n">
-        <v>0.220621</v>
+        <v>0.23572</v>
       </c>
       <c r="D36" t="n">
-        <v>0.319761</v>
+        <v>0.318776</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172218</v>
+        <v>0.172308</v>
       </c>
       <c r="C37" t="n">
-        <v>0.236117</v>
+        <v>0.248163</v>
       </c>
       <c r="D37" t="n">
-        <v>0.320802</v>
+        <v>0.318229</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247986</v>
+        <v>0.249147</v>
       </c>
       <c r="C38" t="n">
-        <v>0.232873</v>
+        <v>0.247072</v>
       </c>
       <c r="D38" t="n">
-        <v>0.318274</v>
+        <v>0.318921</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.244956</v>
+        <v>0.24632</v>
       </c>
       <c r="C39" t="n">
-        <v>0.231558</v>
+        <v>0.245724</v>
       </c>
       <c r="D39" t="n">
-        <v>0.320302</v>
+        <v>0.318987</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.240449</v>
+        <v>0.240989</v>
       </c>
       <c r="C40" t="n">
-        <v>0.230335</v>
+        <v>0.244746</v>
       </c>
       <c r="D40" t="n">
-        <v>0.31941</v>
+        <v>0.318399</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.236404</v>
+        <v>0.236983</v>
       </c>
       <c r="C41" t="n">
-        <v>0.228969</v>
+        <v>0.243206</v>
       </c>
       <c r="D41" t="n">
-        <v>0.320073</v>
+        <v>0.319058</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.231532</v>
+        <v>0.231713</v>
       </c>
       <c r="C42" t="n">
-        <v>0.228158</v>
+        <v>0.242709</v>
       </c>
       <c r="D42" t="n">
-        <v>0.321209</v>
+        <v>0.31997</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.22623</v>
+        <v>0.227012</v>
       </c>
       <c r="C43" t="n">
-        <v>0.226858</v>
+        <v>0.241395</v>
       </c>
       <c r="D43" t="n">
-        <v>0.321406</v>
+        <v>0.320191</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221136</v>
+        <v>0.221922</v>
       </c>
       <c r="C44" t="n">
-        <v>0.226005</v>
+        <v>0.240756</v>
       </c>
       <c r="D44" t="n">
-        <v>0.323702</v>
+        <v>0.321463</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216338</v>
+        <v>0.21562</v>
       </c>
       <c r="C45" t="n">
-        <v>0.225165</v>
+        <v>0.239648</v>
       </c>
       <c r="D45" t="n">
-        <v>0.324151</v>
+        <v>0.322607</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.210892</v>
+        <v>0.211028</v>
       </c>
       <c r="C46" t="n">
-        <v>0.224255</v>
+        <v>0.238835</v>
       </c>
       <c r="D46" t="n">
-        <v>0.324692</v>
+        <v>0.322688</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.20516</v>
+        <v>0.205567</v>
       </c>
       <c r="C47" t="n">
-        <v>0.223327</v>
+        <v>0.237904</v>
       </c>
       <c r="D47" t="n">
-        <v>0.325939</v>
+        <v>0.323115</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198805</v>
+        <v>0.19934</v>
       </c>
       <c r="C48" t="n">
-        <v>0.222605</v>
+        <v>0.237498</v>
       </c>
       <c r="D48" t="n">
-        <v>0.32682</v>
+        <v>0.323774</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.192275</v>
+        <v>0.192059</v>
       </c>
       <c r="C49" t="n">
-        <v>0.221665</v>
+        <v>0.236668</v>
       </c>
       <c r="D49" t="n">
-        <v>0.327972</v>
+        <v>0.325662</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1842</v>
+        <v>0.183446</v>
       </c>
       <c r="C50" t="n">
-        <v>0.221176</v>
+        <v>0.236007</v>
       </c>
       <c r="D50" t="n">
-        <v>0.323437</v>
+        <v>0.321543</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17427</v>
+        <v>0.175368</v>
       </c>
       <c r="C51" t="n">
-        <v>0.235449</v>
+        <v>0.249261</v>
       </c>
       <c r="D51" t="n">
-        <v>0.322761</v>
+        <v>0.320988</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.163072</v>
+        <v>0.16346</v>
       </c>
       <c r="C52" t="n">
-        <v>0.233908</v>
+        <v>0.248231</v>
       </c>
       <c r="D52" t="n">
-        <v>0.323946</v>
+        <v>0.320754</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.247518</v>
+        <v>0.247218</v>
       </c>
       <c r="C53" t="n">
-        <v>0.232496</v>
+        <v>0.24677</v>
       </c>
       <c r="D53" t="n">
-        <v>0.324895</v>
+        <v>0.321448</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.243281</v>
+        <v>0.243616</v>
       </c>
       <c r="C54" t="n">
-        <v>0.231303</v>
+        <v>0.245454</v>
       </c>
       <c r="D54" t="n">
-        <v>0.324858</v>
+        <v>0.322669</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.239013</v>
+        <v>0.239307</v>
       </c>
       <c r="C55" t="n">
-        <v>0.230054</v>
+        <v>0.24434</v>
       </c>
       <c r="D55" t="n">
-        <v>0.326334</v>
+        <v>0.324679</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.235012</v>
+        <v>0.234907</v>
       </c>
       <c r="C56" t="n">
-        <v>0.229051</v>
+        <v>0.243277</v>
       </c>
       <c r="D56" t="n">
-        <v>0.327741</v>
+        <v>0.325485</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.229339</v>
+        <v>0.229773</v>
       </c>
       <c r="C57" t="n">
-        <v>0.227601</v>
+        <v>0.242114</v>
       </c>
       <c r="D57" t="n">
-        <v>0.329834</v>
+        <v>0.327463</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.2245</v>
+        <v>0.224019</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2266</v>
+        <v>0.241165</v>
       </c>
       <c r="D58" t="n">
-        <v>0.331597</v>
+        <v>0.328606</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.21886</v>
+        <v>0.218703</v>
       </c>
       <c r="C59" t="n">
-        <v>0.225668</v>
+        <v>0.240099</v>
       </c>
       <c r="D59" t="n">
-        <v>0.333719</v>
+        <v>0.330454</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212958</v>
+        <v>0.213023</v>
       </c>
       <c r="C60" t="n">
-        <v>0.224676</v>
+        <v>0.239506</v>
       </c>
       <c r="D60" t="n">
-        <v>0.334219</v>
+        <v>0.332672</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.20774</v>
+        <v>0.207656</v>
       </c>
       <c r="C61" t="n">
-        <v>0.223766</v>
+        <v>0.238534</v>
       </c>
       <c r="D61" t="n">
-        <v>0.337346</v>
+        <v>0.335419</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.201404</v>
+        <v>0.201309</v>
       </c>
       <c r="C62" t="n">
-        <v>0.22304</v>
+        <v>0.237809</v>
       </c>
       <c r="D62" t="n">
-        <v>0.34042</v>
+        <v>0.337957</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194718</v>
+        <v>0.194479</v>
       </c>
       <c r="C63" t="n">
-        <v>0.222199</v>
+        <v>0.237146</v>
       </c>
       <c r="D63" t="n">
-        <v>0.344161</v>
+        <v>0.341327</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.186827</v>
+        <v>0.187054</v>
       </c>
       <c r="C64" t="n">
-        <v>0.221385</v>
+        <v>0.236257</v>
       </c>
       <c r="D64" t="n">
-        <v>0.382205</v>
+        <v>0.381659</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177585</v>
+        <v>0.178388</v>
       </c>
       <c r="C65" t="n">
-        <v>0.220426</v>
+        <v>0.235578</v>
       </c>
       <c r="D65" t="n">
-        <v>0.385998</v>
+        <v>0.385623</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167234</v>
+        <v>0.167256</v>
       </c>
       <c r="C66" t="n">
-        <v>0.235021</v>
+        <v>0.249171</v>
       </c>
       <c r="D66" t="n">
-        <v>0.386296</v>
+        <v>0.386546</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.248933</v>
+        <v>0.24923</v>
       </c>
       <c r="C67" t="n">
-        <v>0.233402</v>
+        <v>0.247433</v>
       </c>
       <c r="D67" t="n">
-        <v>0.384531</v>
+        <v>0.383014</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.244815</v>
+        <v>0.244867</v>
       </c>
       <c r="C68" t="n">
-        <v>0.231946</v>
+        <v>0.246269</v>
       </c>
       <c r="D68" t="n">
-        <v>0.388321</v>
+        <v>0.389553</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240753</v>
+        <v>0.240787</v>
       </c>
       <c r="C69" t="n">
-        <v>0.230698</v>
+        <v>0.245048</v>
       </c>
       <c r="D69" t="n">
-        <v>0.391415</v>
+        <v>0.3916</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.236187</v>
+        <v>0.236358</v>
       </c>
       <c r="C70" t="n">
-        <v>0.229353</v>
+        <v>0.243909</v>
       </c>
       <c r="D70" t="n">
-        <v>0.38856</v>
+        <v>0.391103</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2312</v>
+        <v>0.231056</v>
       </c>
       <c r="C71" t="n">
-        <v>0.228244</v>
+        <v>0.242859</v>
       </c>
       <c r="D71" t="n">
-        <v>0.390809</v>
+        <v>0.391623</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.226195</v>
+        <v>0.226191</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2272</v>
+        <v>0.241862</v>
       </c>
       <c r="D72" t="n">
-        <v>0.390603</v>
+        <v>0.392277</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.220749</v>
+        <v>0.2206</v>
       </c>
       <c r="C73" t="n">
-        <v>0.226076</v>
+        <v>0.240637</v>
       </c>
       <c r="D73" t="n">
-        <v>0.389918</v>
+        <v>0.391542</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.215133</v>
+        <v>0.215316</v>
       </c>
       <c r="C74" t="n">
-        <v>0.225061</v>
+        <v>0.239526</v>
       </c>
       <c r="D74" t="n">
-        <v>0.391578</v>
+        <v>0.391881</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209678</v>
+        <v>0.209364</v>
       </c>
       <c r="C75" t="n">
-        <v>0.223923</v>
+        <v>0.238797</v>
       </c>
       <c r="D75" t="n">
-        <v>0.391064</v>
+        <v>0.39162</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.203072</v>
+        <v>0.203056</v>
       </c>
       <c r="C76" t="n">
-        <v>0.223043</v>
+        <v>0.237938</v>
       </c>
       <c r="D76" t="n">
-        <v>0.391866</v>
+        <v>0.391937</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19671</v>
+        <v>0.196514</v>
       </c>
       <c r="C77" t="n">
-        <v>0.222295</v>
+        <v>0.237301</v>
       </c>
       <c r="D77" t="n">
-        <v>0.390356</v>
+        <v>0.390525</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188947</v>
+        <v>0.189047</v>
       </c>
       <c r="C78" t="n">
-        <v>0.221367</v>
+        <v>0.236353</v>
       </c>
       <c r="D78" t="n">
-        <v>0.446038</v>
+        <v>0.448811</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180356</v>
+        <v>0.180652</v>
       </c>
       <c r="C79" t="n">
-        <v>0.220689</v>
+        <v>0.235887</v>
       </c>
       <c r="D79" t="n">
-        <v>0.44242</v>
+        <v>0.444262</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170065</v>
+        <v>0.170241</v>
       </c>
       <c r="C80" t="n">
-        <v>0.236828</v>
+        <v>0.251047</v>
       </c>
       <c r="D80" t="n">
-        <v>0.438511</v>
+        <v>0.441238</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.250545</v>
+        <v>0.250769</v>
       </c>
       <c r="C81" t="n">
-        <v>0.234854</v>
+        <v>0.249305</v>
       </c>
       <c r="D81" t="n">
-        <v>0.436523</v>
+        <v>0.43924</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.246606</v>
+        <v>0.246917</v>
       </c>
       <c r="C82" t="n">
-        <v>0.233231</v>
+        <v>0.247599</v>
       </c>
       <c r="D82" t="n">
-        <v>0.432032</v>
+        <v>0.435557</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.24215</v>
+        <v>0.24275</v>
       </c>
       <c r="C83" t="n">
-        <v>0.231672</v>
+        <v>0.246265</v>
       </c>
       <c r="D83" t="n">
-        <v>0.428196</v>
+        <v>0.432076</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.237292</v>
+        <v>0.237535</v>
       </c>
       <c r="C84" t="n">
-        <v>0.229904</v>
+        <v>0.244732</v>
       </c>
       <c r="D84" t="n">
-        <v>0.42631</v>
+        <v>0.429228</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232395</v>
+        <v>0.232713</v>
       </c>
       <c r="C85" t="n">
-        <v>0.22884</v>
+        <v>0.243435</v>
       </c>
       <c r="D85" t="n">
-        <v>0.420973</v>
+        <v>0.426393</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.227259</v>
+        <v>0.227444</v>
       </c>
       <c r="C86" t="n">
-        <v>0.227351</v>
+        <v>0.242221</v>
       </c>
       <c r="D86" t="n">
-        <v>0.420519</v>
+        <v>0.421837</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.222038</v>
+        <v>0.222286</v>
       </c>
       <c r="C87" t="n">
-        <v>0.226407</v>
+        <v>0.241226</v>
       </c>
       <c r="D87" t="n">
-        <v>0.420641</v>
+        <v>0.42014</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216323</v>
+        <v>0.216721</v>
       </c>
       <c r="C88" t="n">
-        <v>0.225331</v>
+        <v>0.240255</v>
       </c>
       <c r="D88" t="n">
-        <v>0.413931</v>
+        <v>0.415914</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.210845</v>
+        <v>0.210937</v>
       </c>
       <c r="C89" t="n">
-        <v>0.224535</v>
+        <v>0.239236</v>
       </c>
       <c r="D89" t="n">
-        <v>0.41233</v>
+        <v>0.413067</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204645</v>
+        <v>0.20486</v>
       </c>
       <c r="C90" t="n">
-        <v>0.223732</v>
+        <v>0.238454</v>
       </c>
       <c r="D90" t="n">
-        <v>0.410465</v>
+        <v>0.412563</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.198255</v>
+        <v>0.1983</v>
       </c>
       <c r="C91" t="n">
-        <v>0.222738</v>
+        <v>0.237812</v>
       </c>
       <c r="D91" t="n">
-        <v>0.411599</v>
+        <v>0.414712</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190859</v>
+        <v>0.190955</v>
       </c>
       <c r="C92" t="n">
-        <v>0.222054</v>
+        <v>0.23704</v>
       </c>
       <c r="D92" t="n">
-        <v>0.460587</v>
+        <v>0.465545</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182473</v>
+        <v>0.182707</v>
       </c>
       <c r="C93" t="n">
-        <v>0.221318</v>
+        <v>0.236333</v>
       </c>
       <c r="D93" t="n">
-        <v>0.453921</v>
+        <v>0.454983</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.173103</v>
+        <v>0.173241</v>
       </c>
       <c r="C94" t="n">
-        <v>0.238049</v>
+        <v>0.252294</v>
       </c>
       <c r="D94" t="n">
-        <v>0.448816</v>
+        <v>0.449767</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.25121</v>
+        <v>0.251175</v>
       </c>
       <c r="C95" t="n">
-        <v>0.23546</v>
+        <v>0.249978</v>
       </c>
       <c r="D95" t="n">
-        <v>0.440262</v>
+        <v>0.444045</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.247447</v>
+        <v>0.247671</v>
       </c>
       <c r="C96" t="n">
-        <v>0.233582</v>
+        <v>0.247916</v>
       </c>
       <c r="D96" t="n">
-        <v>0.438956</v>
+        <v>0.443208</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.24325</v>
+        <v>0.243327</v>
       </c>
       <c r="C97" t="n">
-        <v>0.231753</v>
+        <v>0.24627</v>
       </c>
       <c r="D97" t="n">
-        <v>0.436787</v>
+        <v>0.440365</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.238904</v>
+        <v>0.238809</v>
       </c>
       <c r="C98" t="n">
-        <v>0.230457</v>
+        <v>0.244956</v>
       </c>
       <c r="D98" t="n">
-        <v>0.429621</v>
+        <v>0.434436</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.234092</v>
+        <v>0.23394</v>
       </c>
       <c r="C99" t="n">
-        <v>0.228974</v>
+        <v>0.243647</v>
       </c>
       <c r="D99" t="n">
-        <v>0.423976</v>
+        <v>0.426779</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228851</v>
+        <v>0.228829</v>
       </c>
       <c r="C100" t="n">
-        <v>0.22764</v>
+        <v>0.242423</v>
       </c>
       <c r="D100" t="n">
-        <v>0.420318</v>
+        <v>0.424787</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223146</v>
+        <v>0.223129</v>
       </c>
       <c r="C101" t="n">
-        <v>0.226635</v>
+        <v>0.241389</v>
       </c>
       <c r="D101" t="n">
-        <v>0.418238</v>
+        <v>0.418885</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.21759</v>
+        <v>0.217441</v>
       </c>
       <c r="C102" t="n">
-        <v>0.225501</v>
+        <v>0.240584</v>
       </c>
       <c r="D102" t="n">
-        <v>0.414372</v>
+        <v>0.414841</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212016</v>
+        <v>0.212108</v>
       </c>
       <c r="C103" t="n">
-        <v>0.224566</v>
+        <v>0.239617</v>
       </c>
       <c r="D103" t="n">
-        <v>0.410858</v>
+        <v>0.411491</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2056</v>
+        <v>0.206082</v>
       </c>
       <c r="C104" t="n">
-        <v>0.223756</v>
+        <v>0.238683</v>
       </c>
       <c r="D104" t="n">
-        <v>0.405826</v>
+        <v>0.408962</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199217</v>
+        <v>0.199911</v>
       </c>
       <c r="C105" t="n">
-        <v>0.22297</v>
+        <v>0.238011</v>
       </c>
       <c r="D105" t="n">
-        <v>0.405527</v>
+        <v>0.407927</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192308</v>
+        <v>0.192956</v>
       </c>
       <c r="C106" t="n">
-        <v>0.222177</v>
+        <v>0.237334</v>
       </c>
       <c r="D106" t="n">
-        <v>0.401188</v>
+        <v>0.402361</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.184491</v>
+        <v>0.18532</v>
       </c>
       <c r="C107" t="n">
-        <v>0.221418</v>
+        <v>0.236461</v>
       </c>
       <c r="D107" t="n">
-        <v>0.433551</v>
+        <v>0.436763</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.175045</v>
+        <v>0.175742</v>
       </c>
       <c r="C108" t="n">
-        <v>0.23872</v>
+        <v>0.252432</v>
       </c>
       <c r="D108" t="n">
-        <v>0.423888</v>
+        <v>0.434511</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.164481</v>
+        <v>0.164292</v>
       </c>
       <c r="C109" t="n">
-        <v>0.236098</v>
+        <v>0.250233</v>
       </c>
       <c r="D109" t="n">
-        <v>0.421171</v>
+        <v>0.425358</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.248407</v>
+        <v>0.249013</v>
       </c>
       <c r="C110" t="n">
-        <v>0.233926</v>
+        <v>0.248207</v>
       </c>
       <c r="D110" t="n">
-        <v>0.417842</v>
+        <v>0.421612</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.244301</v>
+        <v>0.244389</v>
       </c>
       <c r="C111" t="n">
-        <v>0.232192</v>
+        <v>0.246677</v>
       </c>
       <c r="D111" t="n">
-        <v>0.416557</v>
+        <v>0.419889</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.239819</v>
+        <v>0.239861</v>
       </c>
       <c r="C112" t="n">
-        <v>0.23064</v>
+        <v>0.245092</v>
       </c>
       <c r="D112" t="n">
-        <v>0.412186</v>
+        <v>0.415833</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.235023</v>
+        <v>0.235099</v>
       </c>
       <c r="C113" t="n">
-        <v>0.229377</v>
+        <v>0.243814</v>
       </c>
       <c r="D113" t="n">
-        <v>0.40836</v>
+        <v>0.412202</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229928</v>
+        <v>0.229959</v>
       </c>
       <c r="C114" t="n">
-        <v>0.228027</v>
+        <v>0.242669</v>
       </c>
       <c r="D114" t="n">
-        <v>0.404212</v>
+        <v>0.407524</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224725</v>
+        <v>0.224601</v>
       </c>
       <c r="C115" t="n">
-        <v>0.22692</v>
+        <v>0.2416</v>
       </c>
       <c r="D115" t="n">
-        <v>0.400225</v>
+        <v>0.404342</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219166</v>
+        <v>0.219126</v>
       </c>
       <c r="C116" t="n">
-        <v>0.225886</v>
+        <v>0.240625</v>
       </c>
       <c r="D116" t="n">
-        <v>0.396544</v>
+        <v>0.400303</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213536</v>
+        <v>0.213434</v>
       </c>
       <c r="C117" t="n">
-        <v>0.22494</v>
+        <v>0.239804</v>
       </c>
       <c r="D117" t="n">
-        <v>0.395548</v>
+        <v>0.396913</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.208036</v>
+        <v>0.207868</v>
       </c>
       <c r="C118" t="n">
-        <v>0.224005</v>
+        <v>0.238889</v>
       </c>
       <c r="D118" t="n">
-        <v>0.395198</v>
+        <v>0.397037</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.201432</v>
+        <v>0.201343</v>
       </c>
       <c r="C119" t="n">
-        <v>0.22316</v>
+        <v>0.238079</v>
       </c>
       <c r="D119" t="n">
-        <v>0.391959</v>
+        <v>0.393765</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.194816</v>
+        <v>0.194489</v>
       </c>
       <c r="C120" t="n">
-        <v>0.222353</v>
+        <v>0.237386</v>
       </c>
       <c r="D120" t="n">
-        <v>0.390538</v>
+        <v>0.392026</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.187151</v>
+        <v>0.1876</v>
       </c>
       <c r="C121" t="n">
-        <v>0.221655</v>
+        <v>0.23667</v>
       </c>
       <c r="D121" t="n">
-        <v>0.463946</v>
+        <v>0.470619</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.178376</v>
+        <v>0.178437</v>
       </c>
       <c r="C122" t="n">
-        <v>0.22103</v>
+        <v>0.23603</v>
       </c>
       <c r="D122" t="n">
-        <v>0.453227</v>
+        <v>0.458496</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168054</v>
+        <v>0.167874</v>
       </c>
       <c r="C123" t="n">
-        <v>0.236531</v>
+        <v>0.250686</v>
       </c>
       <c r="D123" t="n">
-        <v>0.446489</v>
+        <v>0.452068</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.249445</v>
+        <v>0.249535</v>
       </c>
       <c r="C124" t="n">
-        <v>0.234474</v>
+        <v>0.248721</v>
       </c>
       <c r="D124" t="n">
-        <v>0.442179</v>
+        <v>0.447544</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.24564</v>
+        <v>0.245664</v>
       </c>
       <c r="C125" t="n">
-        <v>0.232661</v>
+        <v>0.247051</v>
       </c>
       <c r="D125" t="n">
-        <v>0.437969</v>
+        <v>0.44503</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.241013</v>
+        <v>0.241051</v>
       </c>
       <c r="C126" t="n">
-        <v>0.231102</v>
+        <v>0.245607</v>
       </c>
       <c r="D126" t="n">
-        <v>0.431699</v>
+        <v>0.438135</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236527</v>
+        <v>0.236312</v>
       </c>
       <c r="C127" t="n">
-        <v>0.229691</v>
+        <v>0.244342</v>
       </c>
       <c r="D127" t="n">
-        <v>0.429107</v>
+        <v>0.433525</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.231507</v>
+        <v>0.231206</v>
       </c>
       <c r="C128" t="n">
-        <v>0.228449</v>
+        <v>0.243181</v>
       </c>
       <c r="D128" t="n">
-        <v>0.424352</v>
+        <v>0.428645</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.226197</v>
+        <v>0.225678</v>
       </c>
       <c r="C129" t="n">
-        <v>0.227237</v>
+        <v>0.242051</v>
       </c>
       <c r="D129" t="n">
-        <v>0.419179</v>
+        <v>0.425272</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.220641</v>
+        <v>0.220239</v>
       </c>
       <c r="C130" t="n">
-        <v>0.226114</v>
+        <v>0.240972</v>
       </c>
       <c r="D130" t="n">
-        <v>0.415107</v>
+        <v>0.42014</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.215345</v>
+        <v>0.214966</v>
       </c>
       <c r="C131" t="n">
-        <v>0.225263</v>
+        <v>0.240026</v>
       </c>
       <c r="D131" t="n">
-        <v>0.412334</v>
+        <v>0.416024</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.209324</v>
+        <v>0.209075</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2243</v>
+        <v>0.239076</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4089</v>
+        <v>0.412814</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.20305</v>
+        <v>0.202885</v>
       </c>
       <c r="C133" t="n">
-        <v>0.223401</v>
+        <v>0.238187</v>
       </c>
       <c r="D133" t="n">
-        <v>0.403276</v>
+        <v>0.409131</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196098</v>
+        <v>0.196115</v>
       </c>
       <c r="C134" t="n">
-        <v>0.222526</v>
+        <v>0.237507</v>
       </c>
       <c r="D134" t="n">
-        <v>0.402535</v>
+        <v>0.405397</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.18838</v>
+        <v>0.188708</v>
       </c>
       <c r="C135" t="n">
-        <v>0.221799</v>
+        <v>0.236768</v>
       </c>
       <c r="D135" t="n">
-        <v>0.464222</v>
+        <v>0.470393</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.181086</v>
+        <v>0.180964</v>
       </c>
       <c r="C136" t="n">
-        <v>0.22118</v>
+        <v>0.23618</v>
       </c>
       <c r="D136" t="n">
-        <v>0.461786</v>
+        <v>0.468319</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.169297</v>
+        <v>0.16897</v>
       </c>
       <c r="C137" t="n">
-        <v>0.237215</v>
+        <v>0.251325</v>
       </c>
       <c r="D137" t="n">
-        <v>0.459966</v>
+        <v>0.465875</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.250114</v>
+        <v>0.250045</v>
       </c>
       <c r="C138" t="n">
-        <v>0.235016</v>
+        <v>0.249211</v>
       </c>
       <c r="D138" t="n">
-        <v>0.452938</v>
+        <v>0.459068</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.246263</v>
+        <v>0.246078</v>
       </c>
       <c r="C139" t="n">
-        <v>0.233129</v>
+        <v>0.247361</v>
       </c>
       <c r="D139" t="n">
-        <v>0.447501</v>
+        <v>0.453789</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.241791</v>
+        <v>0.242142</v>
       </c>
       <c r="C140" t="n">
-        <v>0.231555</v>
+        <v>0.245899</v>
       </c>
       <c r="D140" t="n">
-        <v>0.442808</v>
+        <v>0.448516</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.237136</v>
+        <v>0.237212</v>
       </c>
       <c r="C141" t="n">
-        <v>0.230084</v>
+        <v>0.24453</v>
       </c>
       <c r="D141" t="n">
-        <v>0.438444</v>
+        <v>0.444341</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.232139</v>
+        <v>0.232116</v>
       </c>
       <c r="C142" t="n">
-        <v>0.228687</v>
+        <v>0.24333</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4296</v>
+        <v>0.43588</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.226853</v>
+        <v>0.226846</v>
       </c>
       <c r="C143" t="n">
-        <v>0.227449</v>
+        <v>0.242126</v>
       </c>
       <c r="D143" t="n">
-        <v>0.427652</v>
+        <v>0.43329</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.193954</v>
+        <v>0.197498</v>
       </c>
       <c r="C2" t="n">
-        <v>0.209865</v>
+        <v>0.210429</v>
       </c>
       <c r="D2" t="n">
-        <v>0.312938</v>
+        <v>0.303357</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.190504</v>
+        <v>0.189371</v>
       </c>
       <c r="C3" t="n">
-        <v>0.211363</v>
+        <v>0.211073</v>
       </c>
       <c r="D3" t="n">
-        <v>0.314038</v>
+        <v>0.304158</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.185748</v>
+        <v>0.184673</v>
       </c>
       <c r="C4" t="n">
-        <v>0.212206</v>
+        <v>0.213126</v>
       </c>
       <c r="D4" t="n">
-        <v>0.316202</v>
+        <v>0.305872</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.179441</v>
+        <v>0.179668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.212813</v>
+        <v>0.214152</v>
       </c>
       <c r="D5" t="n">
-        <v>0.316677</v>
+        <v>0.306336</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.175945</v>
+        <v>0.174363</v>
       </c>
       <c r="C6" t="n">
-        <v>0.211718</v>
+        <v>0.21585</v>
       </c>
       <c r="D6" t="n">
-        <v>0.317486</v>
+        <v>0.307366</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169149</v>
+        <v>0.167175</v>
       </c>
       <c r="C7" t="n">
-        <v>0.212892</v>
+        <v>0.218209</v>
       </c>
       <c r="D7" t="n">
-        <v>0.309211</v>
+        <v>0.301199</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.160571</v>
+        <v>0.159162</v>
       </c>
       <c r="C8" t="n">
-        <v>0.214005</v>
+        <v>0.218003</v>
       </c>
       <c r="D8" t="n">
-        <v>0.309615</v>
+        <v>0.301146</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.153034</v>
+        <v>0.152011</v>
       </c>
       <c r="C9" t="n">
-        <v>0.227309</v>
+        <v>0.232789</v>
       </c>
       <c r="D9" t="n">
-        <v>0.310071</v>
+        <v>0.302174</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.233623</v>
+        <v>0.233903</v>
       </c>
       <c r="C10" t="n">
-        <v>0.227636</v>
+        <v>0.233323</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3112</v>
+        <v>0.302818</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.230532</v>
+        <v>0.231926</v>
       </c>
       <c r="C11" t="n">
-        <v>0.226569</v>
+        <v>0.233417</v>
       </c>
       <c r="D11" t="n">
-        <v>0.313065</v>
+        <v>0.304233</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.228943</v>
+        <v>0.229393</v>
       </c>
       <c r="C12" t="n">
-        <v>0.225911</v>
+        <v>0.233658</v>
       </c>
       <c r="D12" t="n">
-        <v>0.31368</v>
+        <v>0.305142</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.224618</v>
+        <v>0.225827</v>
       </c>
       <c r="C13" t="n">
-        <v>0.22505</v>
+        <v>0.233665</v>
       </c>
       <c r="D13" t="n">
-        <v>0.314433</v>
+        <v>0.305411</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.220143</v>
+        <v>0.22221</v>
       </c>
       <c r="C14" t="n">
-        <v>0.224339</v>
+        <v>0.233174</v>
       </c>
       <c r="D14" t="n">
-        <v>0.315553</v>
+        <v>0.306787</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.216033</v>
+        <v>0.216841</v>
       </c>
       <c r="C15" t="n">
-        <v>0.223612</v>
+        <v>0.23484</v>
       </c>
       <c r="D15" t="n">
-        <v>0.316139</v>
+        <v>0.307425</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211294</v>
+        <v>0.211531</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222705</v>
+        <v>0.233837</v>
       </c>
       <c r="D16" t="n">
-        <v>0.316856</v>
+        <v>0.307709</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.207405</v>
+        <v>0.207423</v>
       </c>
       <c r="C17" t="n">
-        <v>0.222273</v>
+        <v>0.232729</v>
       </c>
       <c r="D17" t="n">
-        <v>0.31843</v>
+        <v>0.307995</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.202546</v>
+        <v>0.201967</v>
       </c>
       <c r="C18" t="n">
-        <v>0.221331</v>
+        <v>0.233295</v>
       </c>
       <c r="D18" t="n">
-        <v>0.319877</v>
+        <v>0.30925</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195968</v>
+        <v>0.195475</v>
       </c>
       <c r="C19" t="n">
-        <v>0.220894</v>
+        <v>0.233162</v>
       </c>
       <c r="D19" t="n">
-        <v>0.321786</v>
+        <v>0.311667</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.190217</v>
+        <v>0.189535</v>
       </c>
       <c r="C20" t="n">
-        <v>0.220443</v>
+        <v>0.232644</v>
       </c>
       <c r="D20" t="n">
-        <v>0.32184</v>
+        <v>0.311374</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185259</v>
+        <v>0.1824</v>
       </c>
       <c r="C21" t="n">
-        <v>0.219746</v>
+        <v>0.232691</v>
       </c>
       <c r="D21" t="n">
-        <v>0.314725</v>
+        <v>0.308312</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.176408</v>
+        <v>0.173266</v>
       </c>
       <c r="C22" t="n">
-        <v>0.219721</v>
+        <v>0.232228</v>
       </c>
       <c r="D22" t="n">
-        <v>0.31459</v>
+        <v>0.307415</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.16642</v>
+        <v>0.165633</v>
       </c>
       <c r="C23" t="n">
-        <v>0.233581</v>
+        <v>0.245729</v>
       </c>
       <c r="D23" t="n">
-        <v>0.315998</v>
+        <v>0.306993</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.244567</v>
+        <v>0.248003</v>
       </c>
       <c r="C24" t="n">
-        <v>0.231285</v>
+        <v>0.244361</v>
       </c>
       <c r="D24" t="n">
-        <v>0.31595</v>
+        <v>0.307397</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.241361</v>
+        <v>0.244489</v>
       </c>
       <c r="C25" t="n">
-        <v>0.230693</v>
+        <v>0.243516</v>
       </c>
       <c r="D25" t="n">
-        <v>0.317065</v>
+        <v>0.309173</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.236966</v>
+        <v>0.242355</v>
       </c>
       <c r="C26" t="n">
-        <v>0.22933</v>
+        <v>0.242502</v>
       </c>
       <c r="D26" t="n">
-        <v>0.317964</v>
+        <v>0.309545</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.232375</v>
+        <v>0.236648</v>
       </c>
       <c r="C27" t="n">
-        <v>0.22825</v>
+        <v>0.241497</v>
       </c>
       <c r="D27" t="n">
-        <v>0.318272</v>
+        <v>0.309518</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.227416</v>
+        <v>0.231051</v>
       </c>
       <c r="C28" t="n">
-        <v>0.226914</v>
+        <v>0.240549</v>
       </c>
       <c r="D28" t="n">
-        <v>0.319232</v>
+        <v>0.308828</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.224199</v>
+        <v>0.226032</v>
       </c>
       <c r="C29" t="n">
-        <v>0.226024</v>
+        <v>0.240072</v>
       </c>
       <c r="D29" t="n">
-        <v>0.319503</v>
+        <v>0.309477</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.219738</v>
+        <v>0.220713</v>
       </c>
       <c r="C30" t="n">
-        <v>0.224972</v>
+        <v>0.238806</v>
       </c>
       <c r="D30" t="n">
-        <v>0.320292</v>
+        <v>0.310618</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.212982</v>
+        <v>0.214261</v>
       </c>
       <c r="C31" t="n">
-        <v>0.224265</v>
+        <v>0.238234</v>
       </c>
       <c r="D31" t="n">
-        <v>0.321714</v>
+        <v>0.311392</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20752</v>
+        <v>0.208099</v>
       </c>
       <c r="C32" t="n">
-        <v>0.223782</v>
+        <v>0.237605</v>
       </c>
       <c r="D32" t="n">
-        <v>0.32192</v>
+        <v>0.312494</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.20176</v>
+        <v>0.202173</v>
       </c>
       <c r="C33" t="n">
-        <v>0.222535</v>
+        <v>0.237012</v>
       </c>
       <c r="D33" t="n">
-        <v>0.323116</v>
+        <v>0.312957</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.196882</v>
+        <v>0.196655</v>
       </c>
       <c r="C34" t="n">
-        <v>0.221688</v>
+        <v>0.236127</v>
       </c>
       <c r="D34" t="n">
-        <v>0.323389</v>
+        <v>0.314471</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.18943</v>
+        <v>0.189473</v>
       </c>
       <c r="C35" t="n">
-        <v>0.221196</v>
+        <v>0.235613</v>
       </c>
       <c r="D35" t="n">
-        <v>0.319435</v>
+        <v>0.311079</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.181234</v>
+        <v>0.181361</v>
       </c>
       <c r="C36" t="n">
-        <v>0.220621</v>
+        <v>0.234658</v>
       </c>
       <c r="D36" t="n">
-        <v>0.319761</v>
+        <v>0.311769</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172218</v>
+        <v>0.172759</v>
       </c>
       <c r="C37" t="n">
-        <v>0.236117</v>
+        <v>0.248197</v>
       </c>
       <c r="D37" t="n">
-        <v>0.320802</v>
+        <v>0.311346</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247986</v>
+        <v>0.248197</v>
       </c>
       <c r="C38" t="n">
-        <v>0.232873</v>
+        <v>0.246589</v>
       </c>
       <c r="D38" t="n">
-        <v>0.318274</v>
+        <v>0.311609</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.244956</v>
+        <v>0.246174</v>
       </c>
       <c r="C39" t="n">
-        <v>0.231558</v>
+        <v>0.245408</v>
       </c>
       <c r="D39" t="n">
-        <v>0.320302</v>
+        <v>0.310313</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.240449</v>
+        <v>0.241283</v>
       </c>
       <c r="C40" t="n">
-        <v>0.230335</v>
+        <v>0.244355</v>
       </c>
       <c r="D40" t="n">
-        <v>0.31941</v>
+        <v>0.311856</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.236404</v>
+        <v>0.237674</v>
       </c>
       <c r="C41" t="n">
-        <v>0.228969</v>
+        <v>0.243245</v>
       </c>
       <c r="D41" t="n">
-        <v>0.320073</v>
+        <v>0.310387</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.231532</v>
+        <v>0.232936</v>
       </c>
       <c r="C42" t="n">
-        <v>0.228158</v>
+        <v>0.242446</v>
       </c>
       <c r="D42" t="n">
-        <v>0.321209</v>
+        <v>0.312367</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.22623</v>
+        <v>0.22732</v>
       </c>
       <c r="C43" t="n">
-        <v>0.226858</v>
+        <v>0.241093</v>
       </c>
       <c r="D43" t="n">
-        <v>0.321406</v>
+        <v>0.312518</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221136</v>
+        <v>0.222307</v>
       </c>
       <c r="C44" t="n">
-        <v>0.226005</v>
+        <v>0.240397</v>
       </c>
       <c r="D44" t="n">
-        <v>0.323702</v>
+        <v>0.313772</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216338</v>
+        <v>0.216573</v>
       </c>
       <c r="C45" t="n">
-        <v>0.225165</v>
+        <v>0.239397</v>
       </c>
       <c r="D45" t="n">
-        <v>0.324151</v>
+        <v>0.314536</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.210892</v>
+        <v>0.210863</v>
       </c>
       <c r="C46" t="n">
-        <v>0.224255</v>
+        <v>0.23835</v>
       </c>
       <c r="D46" t="n">
-        <v>0.324692</v>
+        <v>0.314066</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.20516</v>
+        <v>0.204615</v>
       </c>
       <c r="C47" t="n">
-        <v>0.223327</v>
+        <v>0.237538</v>
       </c>
       <c r="D47" t="n">
-        <v>0.325939</v>
+        <v>0.315654</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198805</v>
+        <v>0.197745</v>
       </c>
       <c r="C48" t="n">
-        <v>0.222605</v>
+        <v>0.236769</v>
       </c>
       <c r="D48" t="n">
-        <v>0.32682</v>
+        <v>0.316041</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.192275</v>
+        <v>0.192009</v>
       </c>
       <c r="C49" t="n">
-        <v>0.221665</v>
+        <v>0.235833</v>
       </c>
       <c r="D49" t="n">
-        <v>0.327972</v>
+        <v>0.31751</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1842</v>
+        <v>0.184202</v>
       </c>
       <c r="C50" t="n">
-        <v>0.221176</v>
+        <v>0.235155</v>
       </c>
       <c r="D50" t="n">
-        <v>0.323437</v>
+        <v>0.313196</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17427</v>
+        <v>0.174408</v>
       </c>
       <c r="C51" t="n">
-        <v>0.235449</v>
+        <v>0.249352</v>
       </c>
       <c r="D51" t="n">
-        <v>0.322761</v>
+        <v>0.314877</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.163072</v>
+        <v>0.163957</v>
       </c>
       <c r="C52" t="n">
-        <v>0.233908</v>
+        <v>0.247727</v>
       </c>
       <c r="D52" t="n">
-        <v>0.323946</v>
+        <v>0.314607</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.247518</v>
+        <v>0.248781</v>
       </c>
       <c r="C53" t="n">
-        <v>0.232496</v>
+        <v>0.246596</v>
       </c>
       <c r="D53" t="n">
-        <v>0.324895</v>
+        <v>0.317118</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.243281</v>
+        <v>0.244963</v>
       </c>
       <c r="C54" t="n">
-        <v>0.231303</v>
+        <v>0.245114</v>
       </c>
       <c r="D54" t="n">
-        <v>0.324858</v>
+        <v>0.316172</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.239013</v>
+        <v>0.241289</v>
       </c>
       <c r="C55" t="n">
-        <v>0.230054</v>
+        <v>0.243966</v>
       </c>
       <c r="D55" t="n">
-        <v>0.326334</v>
+        <v>0.318461</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.235012</v>
+        <v>0.236137</v>
       </c>
       <c r="C56" t="n">
-        <v>0.229051</v>
+        <v>0.243108</v>
       </c>
       <c r="D56" t="n">
-        <v>0.327741</v>
+        <v>0.320022</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.229339</v>
+        <v>0.230457</v>
       </c>
       <c r="C57" t="n">
-        <v>0.227601</v>
+        <v>0.242096</v>
       </c>
       <c r="D57" t="n">
-        <v>0.329834</v>
+        <v>0.321216</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.2245</v>
+        <v>0.226246</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2266</v>
+        <v>0.240645</v>
       </c>
       <c r="D58" t="n">
-        <v>0.331597</v>
+        <v>0.324105</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.21886</v>
+        <v>0.219944</v>
       </c>
       <c r="C59" t="n">
-        <v>0.225668</v>
+        <v>0.239896</v>
       </c>
       <c r="D59" t="n">
-        <v>0.333719</v>
+        <v>0.324715</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212958</v>
+        <v>0.214699</v>
       </c>
       <c r="C60" t="n">
-        <v>0.224676</v>
+        <v>0.238945</v>
       </c>
       <c r="D60" t="n">
-        <v>0.334219</v>
+        <v>0.326067</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.20774</v>
+        <v>0.208135</v>
       </c>
       <c r="C61" t="n">
-        <v>0.223766</v>
+        <v>0.238047</v>
       </c>
       <c r="D61" t="n">
-        <v>0.337346</v>
+        <v>0.329034</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.201404</v>
+        <v>0.201727</v>
       </c>
       <c r="C62" t="n">
-        <v>0.22304</v>
+        <v>0.237111</v>
       </c>
       <c r="D62" t="n">
-        <v>0.34042</v>
+        <v>0.332127</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194718</v>
+        <v>0.194572</v>
       </c>
       <c r="C63" t="n">
-        <v>0.222199</v>
+        <v>0.236419</v>
       </c>
       <c r="D63" t="n">
-        <v>0.344161</v>
+        <v>0.333709</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.186827</v>
+        <v>0.187974</v>
       </c>
       <c r="C64" t="n">
-        <v>0.221385</v>
+        <v>0.235678</v>
       </c>
       <c r="D64" t="n">
-        <v>0.382205</v>
+        <v>0.375585</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177585</v>
+        <v>0.178464</v>
       </c>
       <c r="C65" t="n">
-        <v>0.220426</v>
+        <v>0.234869</v>
       </c>
       <c r="D65" t="n">
-        <v>0.385998</v>
+        <v>0.370599</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167234</v>
+        <v>0.167174</v>
       </c>
       <c r="C66" t="n">
-        <v>0.235021</v>
+        <v>0.249322</v>
       </c>
       <c r="D66" t="n">
-        <v>0.386296</v>
+        <v>0.374789</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.248933</v>
+        <v>0.250176</v>
       </c>
       <c r="C67" t="n">
-        <v>0.233402</v>
+        <v>0.247407</v>
       </c>
       <c r="D67" t="n">
-        <v>0.384531</v>
+        <v>0.378125</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.244815</v>
+        <v>0.246196</v>
       </c>
       <c r="C68" t="n">
-        <v>0.231946</v>
+        <v>0.246271</v>
       </c>
       <c r="D68" t="n">
-        <v>0.388321</v>
+        <v>0.378213</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240753</v>
+        <v>0.242414</v>
       </c>
       <c r="C69" t="n">
-        <v>0.230698</v>
+        <v>0.244885</v>
       </c>
       <c r="D69" t="n">
-        <v>0.391415</v>
+        <v>0.378752</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.236187</v>
+        <v>0.238156</v>
       </c>
       <c r="C70" t="n">
-        <v>0.229353</v>
+        <v>0.243549</v>
       </c>
       <c r="D70" t="n">
-        <v>0.38856</v>
+        <v>0.376635</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2312</v>
+        <v>0.232778</v>
       </c>
       <c r="C71" t="n">
-        <v>0.228244</v>
+        <v>0.242601</v>
       </c>
       <c r="D71" t="n">
-        <v>0.390809</v>
+        <v>0.38047</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.226195</v>
+        <v>0.229114</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2272</v>
+        <v>0.241445</v>
       </c>
       <c r="D72" t="n">
-        <v>0.390603</v>
+        <v>0.380648</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.220749</v>
+        <v>0.223414</v>
       </c>
       <c r="C73" t="n">
-        <v>0.226076</v>
+        <v>0.240346</v>
       </c>
       <c r="D73" t="n">
-        <v>0.389918</v>
+        <v>0.379891</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.215133</v>
+        <v>0.217303</v>
       </c>
       <c r="C74" t="n">
-        <v>0.225061</v>
+        <v>0.239236</v>
       </c>
       <c r="D74" t="n">
-        <v>0.391578</v>
+        <v>0.380104</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209678</v>
+        <v>0.211407</v>
       </c>
       <c r="C75" t="n">
-        <v>0.223923</v>
+        <v>0.238276</v>
       </c>
       <c r="D75" t="n">
-        <v>0.391064</v>
+        <v>0.381274</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.203072</v>
+        <v>0.205073</v>
       </c>
       <c r="C76" t="n">
-        <v>0.223043</v>
+        <v>0.237482</v>
       </c>
       <c r="D76" t="n">
-        <v>0.391866</v>
+        <v>0.380433</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19671</v>
+        <v>0.197486</v>
       </c>
       <c r="C77" t="n">
-        <v>0.222295</v>
+        <v>0.236633</v>
       </c>
       <c r="D77" t="n">
-        <v>0.390356</v>
+        <v>0.380912</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188947</v>
+        <v>0.189398</v>
       </c>
       <c r="C78" t="n">
-        <v>0.221367</v>
+        <v>0.235837</v>
       </c>
       <c r="D78" t="n">
-        <v>0.446038</v>
+        <v>0.436321</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180356</v>
+        <v>0.180902</v>
       </c>
       <c r="C79" t="n">
-        <v>0.220689</v>
+        <v>0.235271</v>
       </c>
       <c r="D79" t="n">
-        <v>0.44242</v>
+        <v>0.432883</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170065</v>
+        <v>0.171671</v>
       </c>
       <c r="C80" t="n">
-        <v>0.236828</v>
+        <v>0.25167</v>
       </c>
       <c r="D80" t="n">
-        <v>0.438511</v>
+        <v>0.432365</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.250545</v>
+        <v>0.252125</v>
       </c>
       <c r="C81" t="n">
-        <v>0.234854</v>
+        <v>0.249492</v>
       </c>
       <c r="D81" t="n">
-        <v>0.436523</v>
+        <v>0.425539</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.246606</v>
+        <v>0.248157</v>
       </c>
       <c r="C82" t="n">
-        <v>0.233231</v>
+        <v>0.247444</v>
       </c>
       <c r="D82" t="n">
-        <v>0.432032</v>
+        <v>0.420384</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.24215</v>
+        <v>0.243809</v>
       </c>
       <c r="C83" t="n">
-        <v>0.231672</v>
+        <v>0.246326</v>
       </c>
       <c r="D83" t="n">
-        <v>0.428196</v>
+        <v>0.416678</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.237292</v>
+        <v>0.241409</v>
       </c>
       <c r="C84" t="n">
-        <v>0.229904</v>
+        <v>0.245466</v>
       </c>
       <c r="D84" t="n">
-        <v>0.42631</v>
+        <v>0.415193</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232395</v>
+        <v>0.236111</v>
       </c>
       <c r="C85" t="n">
-        <v>0.22884</v>
+        <v>0.244108</v>
       </c>
       <c r="D85" t="n">
-        <v>0.420973</v>
+        <v>0.410106</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.227259</v>
+        <v>0.230582</v>
       </c>
       <c r="C86" t="n">
-        <v>0.227351</v>
+        <v>0.242545</v>
       </c>
       <c r="D86" t="n">
-        <v>0.420519</v>
+        <v>0.407644</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.222038</v>
+        <v>0.225104</v>
       </c>
       <c r="C87" t="n">
-        <v>0.226407</v>
+        <v>0.241115</v>
       </c>
       <c r="D87" t="n">
-        <v>0.420641</v>
+        <v>0.405325</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216323</v>
+        <v>0.219058</v>
       </c>
       <c r="C88" t="n">
-        <v>0.225331</v>
+        <v>0.23994</v>
       </c>
       <c r="D88" t="n">
-        <v>0.413931</v>
+        <v>0.400626</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.210845</v>
+        <v>0.211778</v>
       </c>
       <c r="C89" t="n">
-        <v>0.224535</v>
+        <v>0.238906</v>
       </c>
       <c r="D89" t="n">
-        <v>0.41233</v>
+        <v>0.398457</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204645</v>
+        <v>0.205244</v>
       </c>
       <c r="C90" t="n">
-        <v>0.223732</v>
+        <v>0.238056</v>
       </c>
       <c r="D90" t="n">
-        <v>0.410465</v>
+        <v>0.398072</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.198255</v>
+        <v>0.198953</v>
       </c>
       <c r="C91" t="n">
-        <v>0.222738</v>
+        <v>0.237255</v>
       </c>
       <c r="D91" t="n">
-        <v>0.411599</v>
+        <v>0.39951</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190859</v>
+        <v>0.19203</v>
       </c>
       <c r="C92" t="n">
-        <v>0.222054</v>
+        <v>0.236398</v>
       </c>
       <c r="D92" t="n">
-        <v>0.460587</v>
+        <v>0.44028</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182473</v>
+        <v>0.182656</v>
       </c>
       <c r="C93" t="n">
-        <v>0.221318</v>
+        <v>0.235766</v>
       </c>
       <c r="D93" t="n">
-        <v>0.453921</v>
+        <v>0.437591</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.173103</v>
+        <v>0.173509</v>
       </c>
       <c r="C94" t="n">
-        <v>0.238049</v>
+        <v>0.251932</v>
       </c>
       <c r="D94" t="n">
-        <v>0.448816</v>
+        <v>0.434696</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.25121</v>
+        <v>0.252177</v>
       </c>
       <c r="C95" t="n">
-        <v>0.23546</v>
+        <v>0.250268</v>
       </c>
       <c r="D95" t="n">
-        <v>0.440262</v>
+        <v>0.431291</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.247447</v>
+        <v>0.248829</v>
       </c>
       <c r="C96" t="n">
-        <v>0.233582</v>
+        <v>0.248453</v>
       </c>
       <c r="D96" t="n">
-        <v>0.438956</v>
+        <v>0.423715</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.24325</v>
+        <v>0.245052</v>
       </c>
       <c r="C97" t="n">
-        <v>0.231753</v>
+        <v>0.246817</v>
       </c>
       <c r="D97" t="n">
-        <v>0.436787</v>
+        <v>0.420998</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.238904</v>
+        <v>0.240674</v>
       </c>
       <c r="C98" t="n">
-        <v>0.230457</v>
+        <v>0.245506</v>
       </c>
       <c r="D98" t="n">
-        <v>0.429621</v>
+        <v>0.416437</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.234092</v>
+        <v>0.235795</v>
       </c>
       <c r="C99" t="n">
-        <v>0.228974</v>
+        <v>0.244278</v>
       </c>
       <c r="D99" t="n">
-        <v>0.423976</v>
+        <v>0.409135</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228851</v>
+        <v>0.23057</v>
       </c>
       <c r="C100" t="n">
-        <v>0.22764</v>
+        <v>0.242522</v>
       </c>
       <c r="D100" t="n">
-        <v>0.420318</v>
+        <v>0.406509</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223146</v>
+        <v>0.224704</v>
       </c>
       <c r="C101" t="n">
-        <v>0.226635</v>
+        <v>0.241264</v>
       </c>
       <c r="D101" t="n">
-        <v>0.418238</v>
+        <v>0.400611</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.21759</v>
+        <v>0.219015</v>
       </c>
       <c r="C102" t="n">
-        <v>0.225501</v>
+        <v>0.240251</v>
       </c>
       <c r="D102" t="n">
-        <v>0.414372</v>
+        <v>0.401134</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212016</v>
+        <v>0.213244</v>
       </c>
       <c r="C103" t="n">
-        <v>0.224566</v>
+        <v>0.239354</v>
       </c>
       <c r="D103" t="n">
-        <v>0.410858</v>
+        <v>0.394761</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2056</v>
+        <v>0.206625</v>
       </c>
       <c r="C104" t="n">
-        <v>0.223756</v>
+        <v>0.238599</v>
       </c>
       <c r="D104" t="n">
-        <v>0.405826</v>
+        <v>0.392162</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199217</v>
+        <v>0.199717</v>
       </c>
       <c r="C105" t="n">
-        <v>0.22297</v>
+        <v>0.237979</v>
       </c>
       <c r="D105" t="n">
-        <v>0.405527</v>
+        <v>0.390414</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192308</v>
+        <v>0.192909</v>
       </c>
       <c r="C106" t="n">
-        <v>0.222177</v>
+        <v>0.237057</v>
       </c>
       <c r="D106" t="n">
-        <v>0.401188</v>
+        <v>0.386981</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.184491</v>
+        <v>0.18504</v>
       </c>
       <c r="C107" t="n">
-        <v>0.221418</v>
+        <v>0.236358</v>
       </c>
       <c r="D107" t="n">
-        <v>0.433551</v>
+        <v>0.419715</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.175045</v>
+        <v>0.174804</v>
       </c>
       <c r="C108" t="n">
-        <v>0.23872</v>
+        <v>0.252782</v>
       </c>
       <c r="D108" t="n">
-        <v>0.423888</v>
+        <v>0.41144</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.164481</v>
+        <v>0.164142</v>
       </c>
       <c r="C109" t="n">
-        <v>0.236098</v>
+        <v>0.250304</v>
       </c>
       <c r="D109" t="n">
-        <v>0.421171</v>
+        <v>0.408392</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.248407</v>
+        <v>0.251905</v>
       </c>
       <c r="C110" t="n">
-        <v>0.233926</v>
+        <v>0.248416</v>
       </c>
       <c r="D110" t="n">
-        <v>0.417842</v>
+        <v>0.404642</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.244301</v>
+        <v>0.246042</v>
       </c>
       <c r="C111" t="n">
-        <v>0.232192</v>
+        <v>0.246785</v>
       </c>
       <c r="D111" t="n">
-        <v>0.416557</v>
+        <v>0.402255</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.239819</v>
+        <v>0.241843</v>
       </c>
       <c r="C112" t="n">
-        <v>0.23064</v>
+        <v>0.245394</v>
       </c>
       <c r="D112" t="n">
-        <v>0.412186</v>
+        <v>0.39865</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.235023</v>
+        <v>0.23706</v>
       </c>
       <c r="C113" t="n">
-        <v>0.229377</v>
+        <v>0.243988</v>
       </c>
       <c r="D113" t="n">
-        <v>0.40836</v>
+        <v>0.394321</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229928</v>
+        <v>0.231737</v>
       </c>
       <c r="C114" t="n">
-        <v>0.228027</v>
+        <v>0.242438</v>
       </c>
       <c r="D114" t="n">
-        <v>0.404212</v>
+        <v>0.39081</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224725</v>
+        <v>0.226397</v>
       </c>
       <c r="C115" t="n">
-        <v>0.22692</v>
+        <v>0.241294</v>
       </c>
       <c r="D115" t="n">
-        <v>0.400225</v>
+        <v>0.386189</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219166</v>
+        <v>0.220443</v>
       </c>
       <c r="C116" t="n">
-        <v>0.225886</v>
+        <v>0.240228</v>
       </c>
       <c r="D116" t="n">
-        <v>0.396544</v>
+        <v>0.382812</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213536</v>
+        <v>0.213782</v>
       </c>
       <c r="C117" t="n">
-        <v>0.22494</v>
+        <v>0.23959</v>
       </c>
       <c r="D117" t="n">
-        <v>0.395548</v>
+        <v>0.38316</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.208036</v>
+        <v>0.207539</v>
       </c>
       <c r="C118" t="n">
-        <v>0.224005</v>
+        <v>0.238701</v>
       </c>
       <c r="D118" t="n">
-        <v>0.395198</v>
+        <v>0.381572</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.201432</v>
+        <v>0.201063</v>
       </c>
       <c r="C119" t="n">
-        <v>0.22316</v>
+        <v>0.237806</v>
       </c>
       <c r="D119" t="n">
-        <v>0.391959</v>
+        <v>0.378683</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.194816</v>
+        <v>0.195528</v>
       </c>
       <c r="C120" t="n">
-        <v>0.222353</v>
+        <v>0.236985</v>
       </c>
       <c r="D120" t="n">
-        <v>0.390538</v>
+        <v>0.376898</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.187151</v>
+        <v>0.187558</v>
       </c>
       <c r="C121" t="n">
-        <v>0.221655</v>
+        <v>0.23638</v>
       </c>
       <c r="D121" t="n">
-        <v>0.463946</v>
+        <v>0.448588</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.178376</v>
+        <v>0.177714</v>
       </c>
       <c r="C122" t="n">
-        <v>0.22103</v>
+        <v>0.235478</v>
       </c>
       <c r="D122" t="n">
-        <v>0.453227</v>
+        <v>0.438199</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168054</v>
+        <v>0.167484</v>
       </c>
       <c r="C123" t="n">
-        <v>0.236531</v>
+        <v>0.250708</v>
       </c>
       <c r="D123" t="n">
-        <v>0.446489</v>
+        <v>0.43187</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.249445</v>
+        <v>0.252791</v>
       </c>
       <c r="C124" t="n">
-        <v>0.234474</v>
+        <v>0.248704</v>
       </c>
       <c r="D124" t="n">
-        <v>0.442179</v>
+        <v>0.427918</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.24564</v>
+        <v>0.248991</v>
       </c>
       <c r="C125" t="n">
-        <v>0.232661</v>
+        <v>0.247025</v>
       </c>
       <c r="D125" t="n">
-        <v>0.437969</v>
+        <v>0.424536</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.241013</v>
+        <v>0.24455</v>
       </c>
       <c r="C126" t="n">
-        <v>0.231102</v>
+        <v>0.245536</v>
       </c>
       <c r="D126" t="n">
-        <v>0.431699</v>
+        <v>0.418272</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236527</v>
+        <v>0.239707</v>
       </c>
       <c r="C127" t="n">
-        <v>0.229691</v>
+        <v>0.244163</v>
       </c>
       <c r="D127" t="n">
-        <v>0.429107</v>
+        <v>0.413889</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.231507</v>
+        <v>0.23448</v>
       </c>
       <c r="C128" t="n">
-        <v>0.228449</v>
+        <v>0.242784</v>
       </c>
       <c r="D128" t="n">
-        <v>0.424352</v>
+        <v>0.408833</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.226197</v>
+        <v>0.228873</v>
       </c>
       <c r="C129" t="n">
-        <v>0.227237</v>
+        <v>0.241503</v>
       </c>
       <c r="D129" t="n">
-        <v>0.419179</v>
+        <v>0.405239</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.220641</v>
+        <v>0.223046</v>
       </c>
       <c r="C130" t="n">
-        <v>0.226114</v>
+        <v>0.240396</v>
       </c>
       <c r="D130" t="n">
-        <v>0.415107</v>
+        <v>0.400531</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.215345</v>
+        <v>0.217328</v>
       </c>
       <c r="C131" t="n">
-        <v>0.225263</v>
+        <v>0.239735</v>
       </c>
       <c r="D131" t="n">
-        <v>0.412334</v>
+        <v>0.397834</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.209324</v>
+        <v>0.21079</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2243</v>
+        <v>0.238791</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4089</v>
+        <v>0.394451</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.20305</v>
+        <v>0.204296</v>
       </c>
       <c r="C133" t="n">
-        <v>0.223401</v>
+        <v>0.237962</v>
       </c>
       <c r="D133" t="n">
-        <v>0.403276</v>
+        <v>0.390102</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196098</v>
+        <v>0.196786</v>
       </c>
       <c r="C134" t="n">
-        <v>0.222526</v>
+        <v>0.237116</v>
       </c>
       <c r="D134" t="n">
-        <v>0.402535</v>
+        <v>0.388321</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.18838</v>
+        <v>0.188329</v>
       </c>
       <c r="C135" t="n">
-        <v>0.221799</v>
+        <v>0.236379</v>
       </c>
       <c r="D135" t="n">
-        <v>0.464222</v>
+        <v>0.448564</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.181086</v>
+        <v>0.179984</v>
       </c>
       <c r="C136" t="n">
-        <v>0.22118</v>
+        <v>0.235695</v>
       </c>
       <c r="D136" t="n">
-        <v>0.461786</v>
+        <v>0.445863</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.169297</v>
+        <v>0.168626</v>
       </c>
       <c r="C137" t="n">
-        <v>0.237215</v>
+        <v>0.251234</v>
       </c>
       <c r="D137" t="n">
-        <v>0.459966</v>
+        <v>0.442886</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.250114</v>
+        <v>0.251575</v>
       </c>
       <c r="C138" t="n">
-        <v>0.235016</v>
+        <v>0.249171</v>
       </c>
       <c r="D138" t="n">
-        <v>0.452938</v>
+        <v>0.436418</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.246263</v>
+        <v>0.247783</v>
       </c>
       <c r="C139" t="n">
-        <v>0.233129</v>
+        <v>0.247353</v>
       </c>
       <c r="D139" t="n">
-        <v>0.447501</v>
+        <v>0.431834</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.241791</v>
+        <v>0.243723</v>
       </c>
       <c r="C140" t="n">
-        <v>0.231555</v>
+        <v>0.245768</v>
       </c>
       <c r="D140" t="n">
-        <v>0.442808</v>
+        <v>0.426927</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.237136</v>
+        <v>0.238987</v>
       </c>
       <c r="C141" t="n">
-        <v>0.230084</v>
+        <v>0.244393</v>
       </c>
       <c r="D141" t="n">
-        <v>0.438444</v>
+        <v>0.422676</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.232139</v>
+        <v>0.233836</v>
       </c>
       <c r="C142" t="n">
-        <v>0.228687</v>
+        <v>0.243171</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4296</v>
+        <v>0.414928</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.226853</v>
+        <v>0.228433</v>
       </c>
       <c r="C143" t="n">
-        <v>0.227449</v>
+        <v>0.242059</v>
       </c>
       <c r="D143" t="n">
-        <v>0.427652</v>
+        <v>0.412789</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.197498</v>
+        <v>0.199744</v>
       </c>
       <c r="C2" t="n">
-        <v>0.210429</v>
+        <v>0.209002</v>
       </c>
       <c r="D2" t="n">
-        <v>0.303357</v>
+        <v>0.303053</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.189371</v>
+        <v>0.191217</v>
       </c>
       <c r="C3" t="n">
-        <v>0.211073</v>
+        <v>0.210202</v>
       </c>
       <c r="D3" t="n">
-        <v>0.304158</v>
+        <v>0.304627</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.184673</v>
+        <v>0.184263</v>
       </c>
       <c r="C4" t="n">
-        <v>0.213126</v>
+        <v>0.211974</v>
       </c>
       <c r="D4" t="n">
-        <v>0.305872</v>
+        <v>0.305907</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.179668</v>
+        <v>0.180359</v>
       </c>
       <c r="C5" t="n">
-        <v>0.214152</v>
+        <v>0.214634</v>
       </c>
       <c r="D5" t="n">
-        <v>0.306336</v>
+        <v>0.30596</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.174363</v>
+        <v>0.17689</v>
       </c>
       <c r="C6" t="n">
-        <v>0.21585</v>
+        <v>0.215498</v>
       </c>
       <c r="D6" t="n">
-        <v>0.307366</v>
+        <v>0.30708</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.167175</v>
+        <v>0.168003</v>
       </c>
       <c r="C7" t="n">
-        <v>0.218209</v>
+        <v>0.217787</v>
       </c>
       <c r="D7" t="n">
-        <v>0.301199</v>
+        <v>0.301228</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.159162</v>
+        <v>0.16105</v>
       </c>
       <c r="C8" t="n">
-        <v>0.218003</v>
+        <v>0.218997</v>
       </c>
       <c r="D8" t="n">
-        <v>0.301146</v>
+        <v>0.300213</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.152011</v>
+        <v>0.152205</v>
       </c>
       <c r="C9" t="n">
-        <v>0.232789</v>
+        <v>0.232388</v>
       </c>
       <c r="D9" t="n">
-        <v>0.302174</v>
+        <v>0.301071</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.233903</v>
+        <v>0.232141</v>
       </c>
       <c r="C10" t="n">
-        <v>0.233323</v>
+        <v>0.233494</v>
       </c>
       <c r="D10" t="n">
-        <v>0.302818</v>
+        <v>0.301626</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.231926</v>
+        <v>0.230151</v>
       </c>
       <c r="C11" t="n">
-        <v>0.233417</v>
+        <v>0.233879</v>
       </c>
       <c r="D11" t="n">
-        <v>0.304233</v>
+        <v>0.303719</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.229393</v>
+        <v>0.22788</v>
       </c>
       <c r="C12" t="n">
-        <v>0.233658</v>
+        <v>0.23336</v>
       </c>
       <c r="D12" t="n">
-        <v>0.305142</v>
+        <v>0.304144</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.225827</v>
+        <v>0.224925</v>
       </c>
       <c r="C13" t="n">
-        <v>0.233665</v>
+        <v>0.233178</v>
       </c>
       <c r="D13" t="n">
-        <v>0.305411</v>
+        <v>0.304724</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.22221</v>
+        <v>0.221043</v>
       </c>
       <c r="C14" t="n">
-        <v>0.233174</v>
+        <v>0.233737</v>
       </c>
       <c r="D14" t="n">
-        <v>0.306787</v>
+        <v>0.306308</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.216841</v>
+        <v>0.217193</v>
       </c>
       <c r="C15" t="n">
-        <v>0.23484</v>
+        <v>0.233598</v>
       </c>
       <c r="D15" t="n">
-        <v>0.307425</v>
+        <v>0.306828</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211531</v>
+        <v>0.212163</v>
       </c>
       <c r="C16" t="n">
-        <v>0.233837</v>
+        <v>0.232941</v>
       </c>
       <c r="D16" t="n">
-        <v>0.307709</v>
+        <v>0.307593</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.207423</v>
+        <v>0.210697</v>
       </c>
       <c r="C17" t="n">
-        <v>0.232729</v>
+        <v>0.233868</v>
       </c>
       <c r="D17" t="n">
-        <v>0.307995</v>
+        <v>0.307885</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.201967</v>
+        <v>0.201517</v>
       </c>
       <c r="C18" t="n">
-        <v>0.233295</v>
+        <v>0.233393</v>
       </c>
       <c r="D18" t="n">
-        <v>0.30925</v>
+        <v>0.309484</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195475</v>
+        <v>0.195424</v>
       </c>
       <c r="C19" t="n">
-        <v>0.233162</v>
+        <v>0.232818</v>
       </c>
       <c r="D19" t="n">
-        <v>0.311667</v>
+        <v>0.31205</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189535</v>
+        <v>0.189264</v>
       </c>
       <c r="C20" t="n">
-        <v>0.232644</v>
+        <v>0.232747</v>
       </c>
       <c r="D20" t="n">
-        <v>0.311374</v>
+        <v>0.311457</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1824</v>
+        <v>0.182453</v>
       </c>
       <c r="C21" t="n">
-        <v>0.232691</v>
+        <v>0.231902</v>
       </c>
       <c r="D21" t="n">
-        <v>0.308312</v>
+        <v>0.307634</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.173266</v>
+        <v>0.17441</v>
       </c>
       <c r="C22" t="n">
-        <v>0.232228</v>
+        <v>0.23215</v>
       </c>
       <c r="D22" t="n">
-        <v>0.307415</v>
+        <v>0.306724</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165633</v>
+        <v>0.164999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.245729</v>
+        <v>0.246989</v>
       </c>
       <c r="D23" t="n">
-        <v>0.306993</v>
+        <v>0.30642</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.248003</v>
+        <v>0.245216</v>
       </c>
       <c r="C24" t="n">
-        <v>0.244361</v>
+        <v>0.243993</v>
       </c>
       <c r="D24" t="n">
-        <v>0.307397</v>
+        <v>0.307296</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.244489</v>
+        <v>0.241483</v>
       </c>
       <c r="C25" t="n">
-        <v>0.243516</v>
+        <v>0.243506</v>
       </c>
       <c r="D25" t="n">
-        <v>0.309173</v>
+        <v>0.308311</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.242355</v>
+        <v>0.239156</v>
       </c>
       <c r="C26" t="n">
-        <v>0.242502</v>
+        <v>0.242921</v>
       </c>
       <c r="D26" t="n">
-        <v>0.309545</v>
+        <v>0.308926</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.236648</v>
+        <v>0.232557</v>
       </c>
       <c r="C27" t="n">
-        <v>0.241497</v>
+        <v>0.241764</v>
       </c>
       <c r="D27" t="n">
-        <v>0.309518</v>
+        <v>0.309053</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.231051</v>
+        <v>0.228981</v>
       </c>
       <c r="C28" t="n">
-        <v>0.240549</v>
+        <v>0.241037</v>
       </c>
       <c r="D28" t="n">
-        <v>0.308828</v>
+        <v>0.308378</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.226032</v>
+        <v>0.225058</v>
       </c>
       <c r="C29" t="n">
-        <v>0.240072</v>
+        <v>0.240285</v>
       </c>
       <c r="D29" t="n">
-        <v>0.309477</v>
+        <v>0.310053</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.220713</v>
+        <v>0.219559</v>
       </c>
       <c r="C30" t="n">
-        <v>0.238806</v>
+        <v>0.23915</v>
       </c>
       <c r="D30" t="n">
-        <v>0.310618</v>
+        <v>0.310486</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.214261</v>
+        <v>0.214212</v>
       </c>
       <c r="C31" t="n">
-        <v>0.238234</v>
+        <v>0.238227</v>
       </c>
       <c r="D31" t="n">
-        <v>0.311392</v>
+        <v>0.311767</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.208099</v>
+        <v>0.208222</v>
       </c>
       <c r="C32" t="n">
-        <v>0.237605</v>
+        <v>0.237452</v>
       </c>
       <c r="D32" t="n">
-        <v>0.312494</v>
+        <v>0.311978</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.202173</v>
+        <v>0.201513</v>
       </c>
       <c r="C33" t="n">
-        <v>0.237012</v>
+        <v>0.236785</v>
       </c>
       <c r="D33" t="n">
-        <v>0.312957</v>
+        <v>0.312774</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.196655</v>
+        <v>0.195222</v>
       </c>
       <c r="C34" t="n">
-        <v>0.236127</v>
+        <v>0.236252</v>
       </c>
       <c r="D34" t="n">
-        <v>0.314471</v>
+        <v>0.314502</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.189473</v>
+        <v>0.188731</v>
       </c>
       <c r="C35" t="n">
-        <v>0.235613</v>
+        <v>0.23519</v>
       </c>
       <c r="D35" t="n">
-        <v>0.311079</v>
+        <v>0.311478</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.181361</v>
+        <v>0.180722</v>
       </c>
       <c r="C36" t="n">
-        <v>0.234658</v>
+        <v>0.234773</v>
       </c>
       <c r="D36" t="n">
-        <v>0.311769</v>
+        <v>0.311635</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172759</v>
+        <v>0.171487</v>
       </c>
       <c r="C37" t="n">
-        <v>0.248197</v>
+        <v>0.248966</v>
       </c>
       <c r="D37" t="n">
-        <v>0.311346</v>
+        <v>0.310863</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.248197</v>
+        <v>0.248901</v>
       </c>
       <c r="C38" t="n">
-        <v>0.246589</v>
+        <v>0.246938</v>
       </c>
       <c r="D38" t="n">
-        <v>0.311609</v>
+        <v>0.311478</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.246174</v>
+        <v>0.245193</v>
       </c>
       <c r="C39" t="n">
-        <v>0.245408</v>
+        <v>0.245663</v>
       </c>
       <c r="D39" t="n">
-        <v>0.310313</v>
+        <v>0.310947</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.241283</v>
+        <v>0.241122</v>
       </c>
       <c r="C40" t="n">
-        <v>0.244355</v>
+        <v>0.244356</v>
       </c>
       <c r="D40" t="n">
-        <v>0.311856</v>
+        <v>0.311396</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.237674</v>
+        <v>0.237636</v>
       </c>
       <c r="C41" t="n">
-        <v>0.243245</v>
+        <v>0.243552</v>
       </c>
       <c r="D41" t="n">
-        <v>0.310387</v>
+        <v>0.310487</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.232936</v>
+        <v>0.232543</v>
       </c>
       <c r="C42" t="n">
-        <v>0.242446</v>
+        <v>0.242099</v>
       </c>
       <c r="D42" t="n">
-        <v>0.312367</v>
+        <v>0.312255</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.22732</v>
+        <v>0.227729</v>
       </c>
       <c r="C43" t="n">
-        <v>0.241093</v>
+        <v>0.241342</v>
       </c>
       <c r="D43" t="n">
-        <v>0.312518</v>
+        <v>0.312678</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.222307</v>
+        <v>0.222747</v>
       </c>
       <c r="C44" t="n">
-        <v>0.240397</v>
+        <v>0.240101</v>
       </c>
       <c r="D44" t="n">
-        <v>0.313772</v>
+        <v>0.31284</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216573</v>
+        <v>0.216461</v>
       </c>
       <c r="C45" t="n">
-        <v>0.239397</v>
+        <v>0.239092</v>
       </c>
       <c r="D45" t="n">
-        <v>0.314536</v>
+        <v>0.314072</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.210863</v>
+        <v>0.211164</v>
       </c>
       <c r="C46" t="n">
-        <v>0.23835</v>
+        <v>0.237987</v>
       </c>
       <c r="D46" t="n">
-        <v>0.314066</v>
+        <v>0.314184</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204615</v>
+        <v>0.205529</v>
       </c>
       <c r="C47" t="n">
-        <v>0.237538</v>
+        <v>0.237626</v>
       </c>
       <c r="D47" t="n">
-        <v>0.315654</v>
+        <v>0.315348</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197745</v>
+        <v>0.19901</v>
       </c>
       <c r="C48" t="n">
-        <v>0.236769</v>
+        <v>0.236617</v>
       </c>
       <c r="D48" t="n">
-        <v>0.316041</v>
+        <v>0.315847</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.192009</v>
+        <v>0.19193</v>
       </c>
       <c r="C49" t="n">
-        <v>0.235833</v>
+        <v>0.235771</v>
       </c>
       <c r="D49" t="n">
-        <v>0.31751</v>
+        <v>0.317582</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.184202</v>
+        <v>0.184091</v>
       </c>
       <c r="C50" t="n">
-        <v>0.235155</v>
+        <v>0.235334</v>
       </c>
       <c r="D50" t="n">
-        <v>0.313196</v>
+        <v>0.316728</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174408</v>
+        <v>0.173942</v>
       </c>
       <c r="C51" t="n">
-        <v>0.249352</v>
+        <v>0.249193</v>
       </c>
       <c r="D51" t="n">
-        <v>0.314877</v>
+        <v>0.315249</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.163957</v>
+        <v>0.16378</v>
       </c>
       <c r="C52" t="n">
-        <v>0.247727</v>
+        <v>0.248123</v>
       </c>
       <c r="D52" t="n">
-        <v>0.314607</v>
+        <v>0.315592</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.248781</v>
+        <v>0.248584</v>
       </c>
       <c r="C53" t="n">
-        <v>0.246596</v>
+        <v>0.246869</v>
       </c>
       <c r="D53" t="n">
-        <v>0.317118</v>
+        <v>0.318077</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.244963</v>
+        <v>0.245183</v>
       </c>
       <c r="C54" t="n">
-        <v>0.245114</v>
+        <v>0.245197</v>
       </c>
       <c r="D54" t="n">
-        <v>0.316172</v>
+        <v>0.317134</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.241289</v>
+        <v>0.240785</v>
       </c>
       <c r="C55" t="n">
-        <v>0.243966</v>
+        <v>0.244289</v>
       </c>
       <c r="D55" t="n">
-        <v>0.318461</v>
+        <v>0.318764</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.236137</v>
+        <v>0.235922</v>
       </c>
       <c r="C56" t="n">
-        <v>0.243108</v>
+        <v>0.242831</v>
       </c>
       <c r="D56" t="n">
-        <v>0.320022</v>
+        <v>0.319516</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.230457</v>
+        <v>0.230646</v>
       </c>
       <c r="C57" t="n">
-        <v>0.242096</v>
+        <v>0.241756</v>
       </c>
       <c r="D57" t="n">
-        <v>0.321216</v>
+        <v>0.319993</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.226246</v>
+        <v>0.224847</v>
       </c>
       <c r="C58" t="n">
-        <v>0.240645</v>
+        <v>0.240684</v>
       </c>
       <c r="D58" t="n">
-        <v>0.324105</v>
+        <v>0.321992</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219944</v>
+        <v>0.219256</v>
       </c>
       <c r="C59" t="n">
-        <v>0.239896</v>
+        <v>0.239914</v>
       </c>
       <c r="D59" t="n">
-        <v>0.324715</v>
+        <v>0.324032</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.214699</v>
+        <v>0.212989</v>
       </c>
       <c r="C60" t="n">
-        <v>0.238945</v>
+        <v>0.23889</v>
       </c>
       <c r="D60" t="n">
-        <v>0.326067</v>
+        <v>0.325269</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.208135</v>
+        <v>0.207201</v>
       </c>
       <c r="C61" t="n">
-        <v>0.238047</v>
+        <v>0.238076</v>
       </c>
       <c r="D61" t="n">
-        <v>0.329034</v>
+        <v>0.328081</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.201727</v>
+        <v>0.200555</v>
       </c>
       <c r="C62" t="n">
-        <v>0.237111</v>
+        <v>0.237196</v>
       </c>
       <c r="D62" t="n">
-        <v>0.332127</v>
+        <v>0.330067</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194572</v>
+        <v>0.194366</v>
       </c>
       <c r="C63" t="n">
-        <v>0.236419</v>
+        <v>0.236401</v>
       </c>
       <c r="D63" t="n">
-        <v>0.333709</v>
+        <v>0.331972</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187974</v>
+        <v>0.187845</v>
       </c>
       <c r="C64" t="n">
-        <v>0.235678</v>
+        <v>0.235567</v>
       </c>
       <c r="D64" t="n">
-        <v>0.375585</v>
+        <v>0.37134</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178464</v>
+        <v>0.179328</v>
       </c>
       <c r="C65" t="n">
-        <v>0.234869</v>
+        <v>0.234677</v>
       </c>
       <c r="D65" t="n">
-        <v>0.370599</v>
+        <v>0.374089</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167174</v>
+        <v>0.167456</v>
       </c>
       <c r="C66" t="n">
-        <v>0.249322</v>
+        <v>0.248983</v>
       </c>
       <c r="D66" t="n">
-        <v>0.374789</v>
+        <v>0.376484</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.250176</v>
+        <v>0.250203</v>
       </c>
       <c r="C67" t="n">
-        <v>0.247407</v>
+        <v>0.247138</v>
       </c>
       <c r="D67" t="n">
-        <v>0.378125</v>
+        <v>0.378129</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.246196</v>
+        <v>0.246482</v>
       </c>
       <c r="C68" t="n">
-        <v>0.246271</v>
+        <v>0.245899</v>
       </c>
       <c r="D68" t="n">
-        <v>0.378213</v>
+        <v>0.379029</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.242414</v>
+        <v>0.242205</v>
       </c>
       <c r="C69" t="n">
-        <v>0.244885</v>
+        <v>0.244815</v>
       </c>
       <c r="D69" t="n">
-        <v>0.378752</v>
+        <v>0.380305</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.238156</v>
+        <v>0.237724</v>
       </c>
       <c r="C70" t="n">
-        <v>0.243549</v>
+        <v>0.243585</v>
       </c>
       <c r="D70" t="n">
-        <v>0.376635</v>
+        <v>0.380363</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.232778</v>
+        <v>0.232392</v>
       </c>
       <c r="C71" t="n">
-        <v>0.242601</v>
+        <v>0.24248</v>
       </c>
       <c r="D71" t="n">
-        <v>0.38047</v>
+        <v>0.380753</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.229114</v>
+        <v>0.229327</v>
       </c>
       <c r="C72" t="n">
-        <v>0.241445</v>
+        <v>0.241309</v>
       </c>
       <c r="D72" t="n">
-        <v>0.380648</v>
+        <v>0.381114</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.223414</v>
+        <v>0.223579</v>
       </c>
       <c r="C73" t="n">
-        <v>0.240346</v>
+        <v>0.240196</v>
       </c>
       <c r="D73" t="n">
-        <v>0.379891</v>
+        <v>0.380851</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.217303</v>
+        <v>0.217527</v>
       </c>
       <c r="C74" t="n">
-        <v>0.239236</v>
+        <v>0.239354</v>
       </c>
       <c r="D74" t="n">
-        <v>0.380104</v>
+        <v>0.379692</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.211407</v>
+        <v>0.210216</v>
       </c>
       <c r="C75" t="n">
-        <v>0.238276</v>
+        <v>0.238488</v>
       </c>
       <c r="D75" t="n">
-        <v>0.381274</v>
+        <v>0.380085</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.205073</v>
+        <v>0.203605</v>
       </c>
       <c r="C76" t="n">
-        <v>0.237482</v>
+        <v>0.237442</v>
       </c>
       <c r="D76" t="n">
-        <v>0.380433</v>
+        <v>0.380508</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.197486</v>
+        <v>0.196989</v>
       </c>
       <c r="C77" t="n">
-        <v>0.236633</v>
+        <v>0.236736</v>
       </c>
       <c r="D77" t="n">
-        <v>0.380912</v>
+        <v>0.379648</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.189398</v>
+        <v>0.18966</v>
       </c>
       <c r="C78" t="n">
-        <v>0.235837</v>
+        <v>0.235895</v>
       </c>
       <c r="D78" t="n">
-        <v>0.436321</v>
+        <v>0.435541</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180902</v>
+        <v>0.181836</v>
       </c>
       <c r="C79" t="n">
-        <v>0.235271</v>
+        <v>0.235205</v>
       </c>
       <c r="D79" t="n">
-        <v>0.432883</v>
+        <v>0.431289</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.171671</v>
+        <v>0.172021</v>
       </c>
       <c r="C80" t="n">
-        <v>0.25167</v>
+        <v>0.2515</v>
       </c>
       <c r="D80" t="n">
-        <v>0.432365</v>
+        <v>0.430423</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.252125</v>
+        <v>0.251931</v>
       </c>
       <c r="C81" t="n">
-        <v>0.249492</v>
+        <v>0.249479</v>
       </c>
       <c r="D81" t="n">
-        <v>0.425539</v>
+        <v>0.425615</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.248157</v>
+        <v>0.249966</v>
       </c>
       <c r="C82" t="n">
-        <v>0.247444</v>
+        <v>0.247869</v>
       </c>
       <c r="D82" t="n">
-        <v>0.420384</v>
+        <v>0.420054</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.243809</v>
+        <v>0.245783</v>
       </c>
       <c r="C83" t="n">
-        <v>0.246326</v>
+        <v>0.246597</v>
       </c>
       <c r="D83" t="n">
-        <v>0.416678</v>
+        <v>0.416581</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.241409</v>
+        <v>0.241167</v>
       </c>
       <c r="C84" t="n">
-        <v>0.245466</v>
+        <v>0.244829</v>
       </c>
       <c r="D84" t="n">
-        <v>0.415193</v>
+        <v>0.416919</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.236111</v>
+        <v>0.236041</v>
       </c>
       <c r="C85" t="n">
-        <v>0.244108</v>
+        <v>0.24368</v>
       </c>
       <c r="D85" t="n">
-        <v>0.410106</v>
+        <v>0.409983</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.230582</v>
+        <v>0.23072</v>
       </c>
       <c r="C86" t="n">
-        <v>0.242545</v>
+        <v>0.242447</v>
       </c>
       <c r="D86" t="n">
-        <v>0.407644</v>
+        <v>0.407413</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.225104</v>
+        <v>0.224948</v>
       </c>
       <c r="C87" t="n">
-        <v>0.241115</v>
+        <v>0.241152</v>
       </c>
       <c r="D87" t="n">
-        <v>0.405325</v>
+        <v>0.405764</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.219058</v>
+        <v>0.219096</v>
       </c>
       <c r="C88" t="n">
-        <v>0.23994</v>
+        <v>0.239748</v>
       </c>
       <c r="D88" t="n">
-        <v>0.400626</v>
+        <v>0.402463</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.211778</v>
+        <v>0.212929</v>
       </c>
       <c r="C89" t="n">
-        <v>0.238906</v>
+        <v>0.238788</v>
       </c>
       <c r="D89" t="n">
-        <v>0.398457</v>
+        <v>0.398392</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.205244</v>
+        <v>0.205743</v>
       </c>
       <c r="C90" t="n">
-        <v>0.238056</v>
+        <v>0.237783</v>
       </c>
       <c r="D90" t="n">
-        <v>0.398072</v>
+        <v>0.398172</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.198953</v>
+        <v>0.198436</v>
       </c>
       <c r="C91" t="n">
-        <v>0.237255</v>
+        <v>0.236934</v>
       </c>
       <c r="D91" t="n">
-        <v>0.39951</v>
+        <v>0.398862</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.19203</v>
+        <v>0.191073</v>
       </c>
       <c r="C92" t="n">
-        <v>0.236398</v>
+        <v>0.236128</v>
       </c>
       <c r="D92" t="n">
-        <v>0.44028</v>
+        <v>0.443626</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182656</v>
+        <v>0.183082</v>
       </c>
       <c r="C93" t="n">
-        <v>0.235766</v>
+        <v>0.235356</v>
       </c>
       <c r="D93" t="n">
-        <v>0.437591</v>
+        <v>0.438694</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.173509</v>
+        <v>0.173621</v>
       </c>
       <c r="C94" t="n">
-        <v>0.251932</v>
+        <v>0.252094</v>
       </c>
       <c r="D94" t="n">
-        <v>0.434696</v>
+        <v>0.438441</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.252177</v>
+        <v>0.252062</v>
       </c>
       <c r="C95" t="n">
-        <v>0.250268</v>
+        <v>0.25023</v>
       </c>
       <c r="D95" t="n">
-        <v>0.431291</v>
+        <v>0.429444</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.248829</v>
+        <v>0.24897</v>
       </c>
       <c r="C96" t="n">
-        <v>0.248453</v>
+        <v>0.248146</v>
       </c>
       <c r="D96" t="n">
-        <v>0.423715</v>
+        <v>0.424372</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.245052</v>
+        <v>0.245262</v>
       </c>
       <c r="C97" t="n">
-        <v>0.246817</v>
+        <v>0.246694</v>
       </c>
       <c r="D97" t="n">
-        <v>0.420998</v>
+        <v>0.42116</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.240674</v>
+        <v>0.240895</v>
       </c>
       <c r="C98" t="n">
-        <v>0.245506</v>
+        <v>0.245465</v>
       </c>
       <c r="D98" t="n">
-        <v>0.416437</v>
+        <v>0.415721</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.235795</v>
+        <v>0.23599</v>
       </c>
       <c r="C99" t="n">
-        <v>0.244278</v>
+        <v>0.243967</v>
       </c>
       <c r="D99" t="n">
-        <v>0.409135</v>
+        <v>0.410847</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.23057</v>
+        <v>0.230661</v>
       </c>
       <c r="C100" t="n">
-        <v>0.242522</v>
+        <v>0.242283</v>
       </c>
       <c r="D100" t="n">
-        <v>0.406509</v>
+        <v>0.405007</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.224704</v>
+        <v>0.22493</v>
       </c>
       <c r="C101" t="n">
-        <v>0.241264</v>
+        <v>0.241339</v>
       </c>
       <c r="D101" t="n">
-        <v>0.400611</v>
+        <v>0.403193</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.219015</v>
+        <v>0.219194</v>
       </c>
       <c r="C102" t="n">
-        <v>0.240251</v>
+        <v>0.24024</v>
       </c>
       <c r="D102" t="n">
-        <v>0.401134</v>
+        <v>0.399501</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.213244</v>
+        <v>0.213185</v>
       </c>
       <c r="C103" t="n">
-        <v>0.239354</v>
+        <v>0.239206</v>
       </c>
       <c r="D103" t="n">
-        <v>0.394761</v>
+        <v>0.394472</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.206625</v>
+        <v>0.206714</v>
       </c>
       <c r="C104" t="n">
-        <v>0.238599</v>
+        <v>0.238333</v>
       </c>
       <c r="D104" t="n">
-        <v>0.392162</v>
+        <v>0.39232</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199717</v>
+        <v>0.199888</v>
       </c>
       <c r="C105" t="n">
-        <v>0.237979</v>
+        <v>0.237645</v>
       </c>
       <c r="D105" t="n">
-        <v>0.390414</v>
+        <v>0.391684</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192909</v>
+        <v>0.193131</v>
       </c>
       <c r="C106" t="n">
-        <v>0.237057</v>
+        <v>0.236725</v>
       </c>
       <c r="D106" t="n">
-        <v>0.386981</v>
+        <v>0.386346</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.18504</v>
+        <v>0.185189</v>
       </c>
       <c r="C107" t="n">
-        <v>0.236358</v>
+        <v>0.236101</v>
       </c>
       <c r="D107" t="n">
-        <v>0.419715</v>
+        <v>0.419587</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174804</v>
+        <v>0.175747</v>
       </c>
       <c r="C108" t="n">
-        <v>0.252782</v>
+        <v>0.252658</v>
       </c>
       <c r="D108" t="n">
-        <v>0.41144</v>
+        <v>0.414472</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.164142</v>
+        <v>0.164096</v>
       </c>
       <c r="C109" t="n">
-        <v>0.250304</v>
+        <v>0.250312</v>
       </c>
       <c r="D109" t="n">
-        <v>0.408392</v>
+        <v>0.409238</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.251905</v>
+        <v>0.251682</v>
       </c>
       <c r="C110" t="n">
-        <v>0.248416</v>
+        <v>0.248411</v>
       </c>
       <c r="D110" t="n">
-        <v>0.404642</v>
+        <v>0.405229</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.246042</v>
+        <v>0.246164</v>
       </c>
       <c r="C111" t="n">
-        <v>0.246785</v>
+        <v>0.246698</v>
       </c>
       <c r="D111" t="n">
-        <v>0.402255</v>
+        <v>0.40269</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.241843</v>
+        <v>0.241804</v>
       </c>
       <c r="C112" t="n">
-        <v>0.245394</v>
+        <v>0.245239</v>
       </c>
       <c r="D112" t="n">
-        <v>0.39865</v>
+        <v>0.398385</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.23706</v>
+        <v>0.237058</v>
       </c>
       <c r="C113" t="n">
-        <v>0.243988</v>
+        <v>0.243867</v>
       </c>
       <c r="D113" t="n">
-        <v>0.394321</v>
+        <v>0.395073</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.231737</v>
+        <v>0.231915</v>
       </c>
       <c r="C114" t="n">
-        <v>0.242438</v>
+        <v>0.242562</v>
       </c>
       <c r="D114" t="n">
-        <v>0.39081</v>
+        <v>0.391168</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.226397</v>
+        <v>0.226278</v>
       </c>
       <c r="C115" t="n">
-        <v>0.241294</v>
+        <v>0.241183</v>
       </c>
       <c r="D115" t="n">
-        <v>0.386189</v>
+        <v>0.3868</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.220443</v>
+        <v>0.220382</v>
       </c>
       <c r="C116" t="n">
-        <v>0.240228</v>
+        <v>0.240203</v>
       </c>
       <c r="D116" t="n">
-        <v>0.382812</v>
+        <v>0.38373</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213782</v>
+        <v>0.214398</v>
       </c>
       <c r="C117" t="n">
-        <v>0.23959</v>
+        <v>0.239267</v>
       </c>
       <c r="D117" t="n">
-        <v>0.38316</v>
+        <v>0.380746</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.207539</v>
+        <v>0.207482</v>
       </c>
       <c r="C118" t="n">
-        <v>0.238701</v>
+        <v>0.238526</v>
       </c>
       <c r="D118" t="n">
-        <v>0.381572</v>
+        <v>0.381778</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.201063</v>
+        <v>0.201</v>
       </c>
       <c r="C119" t="n">
-        <v>0.237806</v>
+        <v>0.237726</v>
       </c>
       <c r="D119" t="n">
-        <v>0.378683</v>
+        <v>0.378559</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.195528</v>
+        <v>0.195546</v>
       </c>
       <c r="C120" t="n">
-        <v>0.236985</v>
+        <v>0.236804</v>
       </c>
       <c r="D120" t="n">
-        <v>0.376898</v>
+        <v>0.377344</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.187558</v>
+        <v>0.187161</v>
       </c>
       <c r="C121" t="n">
-        <v>0.23638</v>
+        <v>0.236199</v>
       </c>
       <c r="D121" t="n">
-        <v>0.448588</v>
+        <v>0.448792</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.177714</v>
+        <v>0.178246</v>
       </c>
       <c r="C122" t="n">
-        <v>0.235478</v>
+        <v>0.235471</v>
       </c>
       <c r="D122" t="n">
-        <v>0.438199</v>
+        <v>0.438043</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.167484</v>
+        <v>0.166983</v>
       </c>
       <c r="C123" t="n">
-        <v>0.250708</v>
+        <v>0.250726</v>
       </c>
       <c r="D123" t="n">
-        <v>0.43187</v>
+        <v>0.431604</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.252791</v>
+        <v>0.252811</v>
       </c>
       <c r="C124" t="n">
-        <v>0.248704</v>
+        <v>0.248688</v>
       </c>
       <c r="D124" t="n">
-        <v>0.427918</v>
+        <v>0.428001</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.248991</v>
+        <v>0.249072</v>
       </c>
       <c r="C125" t="n">
-        <v>0.247025</v>
+        <v>0.24697</v>
       </c>
       <c r="D125" t="n">
-        <v>0.424536</v>
+        <v>0.424248</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.24455</v>
+        <v>0.244596</v>
       </c>
       <c r="C126" t="n">
-        <v>0.245536</v>
+        <v>0.245431</v>
       </c>
       <c r="D126" t="n">
-        <v>0.418272</v>
+        <v>0.418422</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.239707</v>
+        <v>0.239726</v>
       </c>
       <c r="C127" t="n">
-        <v>0.244163</v>
+        <v>0.244246</v>
       </c>
       <c r="D127" t="n">
-        <v>0.413889</v>
+        <v>0.413764</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.23448</v>
+        <v>0.23455</v>
       </c>
       <c r="C128" t="n">
-        <v>0.242784</v>
+        <v>0.242915</v>
       </c>
       <c r="D128" t="n">
-        <v>0.408833</v>
+        <v>0.408781</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.228873</v>
+        <v>0.228883</v>
       </c>
       <c r="C129" t="n">
-        <v>0.241503</v>
+        <v>0.241595</v>
       </c>
       <c r="D129" t="n">
-        <v>0.405239</v>
+        <v>0.405071</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.223046</v>
+        <v>0.223048</v>
       </c>
       <c r="C130" t="n">
-        <v>0.240396</v>
+        <v>0.240428</v>
       </c>
       <c r="D130" t="n">
-        <v>0.400531</v>
+        <v>0.400167</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.217328</v>
+        <v>0.217205</v>
       </c>
       <c r="C131" t="n">
-        <v>0.239735</v>
+        <v>0.239645</v>
       </c>
       <c r="D131" t="n">
-        <v>0.397834</v>
+        <v>0.397686</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.21079</v>
+        <v>0.210966</v>
       </c>
       <c r="C132" t="n">
-        <v>0.238791</v>
+        <v>0.238934</v>
       </c>
       <c r="D132" t="n">
-        <v>0.394451</v>
+        <v>0.39427</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.204296</v>
+        <v>0.204274</v>
       </c>
       <c r="C133" t="n">
-        <v>0.237962</v>
+        <v>0.23792</v>
       </c>
       <c r="D133" t="n">
-        <v>0.390102</v>
+        <v>0.389938</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.196786</v>
+        <v>0.19622</v>
       </c>
       <c r="C134" t="n">
-        <v>0.237116</v>
+        <v>0.2371</v>
       </c>
       <c r="D134" t="n">
-        <v>0.388321</v>
+        <v>0.387899</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.188329</v>
+        <v>0.188122</v>
       </c>
       <c r="C135" t="n">
-        <v>0.236379</v>
+        <v>0.236312</v>
       </c>
       <c r="D135" t="n">
-        <v>0.448564</v>
+        <v>0.448808</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.179984</v>
+        <v>0.178991</v>
       </c>
       <c r="C136" t="n">
-        <v>0.235695</v>
+        <v>0.235555</v>
       </c>
       <c r="D136" t="n">
-        <v>0.445863</v>
+        <v>0.445506</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168626</v>
+        <v>0.168758</v>
       </c>
       <c r="C137" t="n">
-        <v>0.251234</v>
+        <v>0.251068</v>
       </c>
       <c r="D137" t="n">
-        <v>0.442886</v>
+        <v>0.442643</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.251575</v>
+        <v>0.251518</v>
       </c>
       <c r="C138" t="n">
-        <v>0.249171</v>
+        <v>0.249025</v>
       </c>
       <c r="D138" t="n">
-        <v>0.436418</v>
+        <v>0.436116</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.247783</v>
+        <v>0.247753</v>
       </c>
       <c r="C139" t="n">
-        <v>0.247353</v>
+        <v>0.247232</v>
       </c>
       <c r="D139" t="n">
-        <v>0.431834</v>
+        <v>0.431628</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.243723</v>
+        <v>0.243577</v>
       </c>
       <c r="C140" t="n">
-        <v>0.245768</v>
+        <v>0.245704</v>
       </c>
       <c r="D140" t="n">
-        <v>0.426927</v>
+        <v>0.426566</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.238987</v>
+        <v>0.23909</v>
       </c>
       <c r="C141" t="n">
-        <v>0.244393</v>
+        <v>0.24432</v>
       </c>
       <c r="D141" t="n">
-        <v>0.422676</v>
+        <v>0.422528</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.233836</v>
+        <v>0.233941</v>
       </c>
       <c r="C142" t="n">
-        <v>0.243171</v>
+        <v>0.243072</v>
       </c>
       <c r="D142" t="n">
-        <v>0.414928</v>
+        <v>0.41451</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.228433</v>
+        <v>0.22836</v>
       </c>
       <c r="C143" t="n">
-        <v>0.242059</v>
+        <v>0.241961</v>
       </c>
       <c r="D143" t="n">
-        <v>0.412789</v>
+        <v>0.412423</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3214,7 +3214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3247,13 +3247,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.199744</v>
+        <v>0.194782</v>
       </c>
       <c r="C2" t="n">
-        <v>0.209002</v>
+        <v>0.30603</v>
       </c>
       <c r="D2" t="n">
-        <v>0.303053</v>
+        <v>0.208308</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.314915</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3264,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.191217</v>
+        <v>0.189989</v>
       </c>
       <c r="C3" t="n">
-        <v>0.210202</v>
+        <v>0.307166</v>
       </c>
       <c r="D3" t="n">
-        <v>0.304627</v>
+        <v>0.211993</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.315924</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3281,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.184263</v>
+        <v>0.183284</v>
       </c>
       <c r="C4" t="n">
-        <v>0.211974</v>
+        <v>0.308505</v>
       </c>
       <c r="D4" t="n">
-        <v>0.305907</v>
+        <v>0.213669</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.315186</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3298,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.180359</v>
+        <v>0.180356</v>
       </c>
       <c r="C5" t="n">
-        <v>0.214634</v>
+        <v>0.309114</v>
       </c>
       <c r="D5" t="n">
-        <v>0.30596</v>
+        <v>0.215109</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.314479</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3315,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.17689</v>
+        <v>0.174314</v>
       </c>
       <c r="C6" t="n">
-        <v>0.215498</v>
+        <v>0.310635</v>
       </c>
       <c r="D6" t="n">
-        <v>0.30708</v>
+        <v>0.216075</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.314869</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3332,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.168003</v>
+        <v>0.167012</v>
       </c>
       <c r="C7" t="n">
-        <v>0.217787</v>
+        <v>0.303733</v>
       </c>
       <c r="D7" t="n">
-        <v>0.301228</v>
+        <v>0.218366</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.312958</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3349,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.16105</v>
+        <v>0.159191</v>
       </c>
       <c r="C8" t="n">
-        <v>0.218997</v>
+        <v>0.304542</v>
       </c>
       <c r="D8" t="n">
-        <v>0.300213</v>
+        <v>0.219443</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.312904</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3366,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.152205</v>
+        <v>0.150313</v>
       </c>
       <c r="C9" t="n">
-        <v>0.232388</v>
+        <v>0.304033</v>
       </c>
       <c r="D9" t="n">
-        <v>0.301071</v>
+        <v>0.234542</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.330334</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3383,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.232141</v>
+        <v>0.229044</v>
       </c>
       <c r="C10" t="n">
-        <v>0.233494</v>
+        <v>0.305332</v>
       </c>
       <c r="D10" t="n">
-        <v>0.301626</v>
+        <v>0.233156</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.328154</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3400,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.230151</v>
+        <v>0.228019</v>
       </c>
       <c r="C11" t="n">
-        <v>0.233879</v>
+        <v>0.305632</v>
       </c>
       <c r="D11" t="n">
-        <v>0.303719</v>
+        <v>0.232956</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.328619</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3417,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.22788</v>
+        <v>0.224269</v>
       </c>
       <c r="C12" t="n">
-        <v>0.23336</v>
+        <v>0.306755</v>
       </c>
       <c r="D12" t="n">
-        <v>0.304144</v>
+        <v>0.233798</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.327498</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3434,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.224925</v>
+        <v>0.222737</v>
       </c>
       <c r="C13" t="n">
-        <v>0.233178</v>
+        <v>0.307506</v>
       </c>
       <c r="D13" t="n">
-        <v>0.304724</v>
+        <v>0.232967</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.32712</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3451,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.221043</v>
+        <v>0.216406</v>
       </c>
       <c r="C14" t="n">
-        <v>0.233737</v>
+        <v>0.308025</v>
       </c>
       <c r="D14" t="n">
-        <v>0.306308</v>
+        <v>0.233826</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.324624</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3468,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.217193</v>
+        <v>0.212476</v>
       </c>
       <c r="C15" t="n">
-        <v>0.233598</v>
+        <v>0.309418</v>
       </c>
       <c r="D15" t="n">
-        <v>0.306828</v>
+        <v>0.233711</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.324139</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3485,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.212163</v>
+        <v>0.21022</v>
       </c>
       <c r="C16" t="n">
-        <v>0.232941</v>
+        <v>0.310396</v>
       </c>
       <c r="D16" t="n">
-        <v>0.307593</v>
+        <v>0.233012</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.323017</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3502,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.210697</v>
+        <v>0.203994</v>
       </c>
       <c r="C17" t="n">
-        <v>0.233868</v>
+        <v>0.310857</v>
       </c>
       <c r="D17" t="n">
-        <v>0.307885</v>
+        <v>0.232598</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.323385</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3519,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.201517</v>
+        <v>0.198728</v>
       </c>
       <c r="C18" t="n">
-        <v>0.233393</v>
+        <v>0.311864</v>
       </c>
       <c r="D18" t="n">
-        <v>0.309484</v>
+        <v>0.233161</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.322613</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3536,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195424</v>
+        <v>0.193335</v>
       </c>
       <c r="C19" t="n">
-        <v>0.232818</v>
+        <v>0.313554</v>
       </c>
       <c r="D19" t="n">
-        <v>0.31205</v>
+        <v>0.232094</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.320626</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3553,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189264</v>
+        <v>0.188197</v>
       </c>
       <c r="C20" t="n">
-        <v>0.232747</v>
+        <v>0.313169</v>
       </c>
       <c r="D20" t="n">
-        <v>0.311457</v>
+        <v>0.232762</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.321178</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3570,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.182453</v>
+        <v>0.181137</v>
       </c>
       <c r="C21" t="n">
-        <v>0.231902</v>
+        <v>0.309464</v>
       </c>
       <c r="D21" t="n">
-        <v>0.307634</v>
+        <v>0.232118</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.320161</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3587,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.17441</v>
+        <v>0.174101</v>
       </c>
       <c r="C22" t="n">
-        <v>0.23215</v>
+        <v>0.309679</v>
       </c>
       <c r="D22" t="n">
-        <v>0.306724</v>
+        <v>0.231837</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.319736</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3604,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.164999</v>
+        <v>0.165207</v>
       </c>
       <c r="C23" t="n">
-        <v>0.246989</v>
+        <v>0.309303</v>
       </c>
       <c r="D23" t="n">
-        <v>0.30642</v>
+        <v>0.24614</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.33457</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3621,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.245216</v>
+        <v>0.243296</v>
       </c>
       <c r="C24" t="n">
-        <v>0.243993</v>
+        <v>0.309193</v>
       </c>
       <c r="D24" t="n">
-        <v>0.307296</v>
+        <v>0.244038</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.332223</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3638,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.241483</v>
+        <v>0.239659</v>
       </c>
       <c r="C25" t="n">
-        <v>0.243506</v>
+        <v>0.311264</v>
       </c>
       <c r="D25" t="n">
-        <v>0.308311</v>
+        <v>0.242745</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.332793</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3655,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.239156</v>
+        <v>0.234589</v>
       </c>
       <c r="C26" t="n">
-        <v>0.242921</v>
+        <v>0.311817</v>
       </c>
       <c r="D26" t="n">
-        <v>0.308926</v>
+        <v>0.242464</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.330534</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3672,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.232557</v>
+        <v>0.230873</v>
       </c>
       <c r="C27" t="n">
-        <v>0.241764</v>
+        <v>0.311967</v>
       </c>
       <c r="D27" t="n">
-        <v>0.309053</v>
+        <v>0.240881</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.329461</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3689,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.228981</v>
+        <v>0.225181</v>
       </c>
       <c r="C28" t="n">
-        <v>0.241037</v>
+        <v>0.311264</v>
       </c>
       <c r="D28" t="n">
-        <v>0.308378</v>
+        <v>0.240225</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.328438</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3706,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.225058</v>
+        <v>0.221284</v>
       </c>
       <c r="C29" t="n">
-        <v>0.240285</v>
+        <v>0.312386</v>
       </c>
       <c r="D29" t="n">
-        <v>0.310053</v>
+        <v>0.240017</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.327206</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3723,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.219559</v>
+        <v>0.217222</v>
       </c>
       <c r="C30" t="n">
-        <v>0.23915</v>
+        <v>0.312252</v>
       </c>
       <c r="D30" t="n">
-        <v>0.310486</v>
+        <v>0.239312</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.326392</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3740,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.214212</v>
+        <v>0.213276</v>
       </c>
       <c r="C31" t="n">
-        <v>0.238227</v>
+        <v>0.313488</v>
       </c>
       <c r="D31" t="n">
-        <v>0.311767</v>
+        <v>0.238102</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.325496</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3757,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.208222</v>
+        <v>0.207556</v>
       </c>
       <c r="C32" t="n">
-        <v>0.237452</v>
+        <v>0.313624</v>
       </c>
       <c r="D32" t="n">
-        <v>0.311978</v>
+        <v>0.237112</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.324707</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3774,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201513</v>
+        <v>0.200594</v>
       </c>
       <c r="C33" t="n">
-        <v>0.236785</v>
+        <v>0.315147</v>
       </c>
       <c r="D33" t="n">
-        <v>0.312774</v>
+        <v>0.236534</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.324186</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3791,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195222</v>
+        <v>0.193734</v>
       </c>
       <c r="C34" t="n">
-        <v>0.236252</v>
+        <v>0.316169</v>
       </c>
       <c r="D34" t="n">
-        <v>0.314502</v>
+        <v>0.235667</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.322841</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3808,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.188731</v>
+        <v>0.187</v>
       </c>
       <c r="C35" t="n">
-        <v>0.23519</v>
+        <v>0.313798</v>
       </c>
       <c r="D35" t="n">
-        <v>0.311478</v>
+        <v>0.235071</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.321398</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3825,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180722</v>
+        <v>0.180223</v>
       </c>
       <c r="C36" t="n">
-        <v>0.234773</v>
+        <v>0.313589</v>
       </c>
       <c r="D36" t="n">
-        <v>0.311635</v>
+        <v>0.234563</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.320292</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3842,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171487</v>
+        <v>0.169388</v>
       </c>
       <c r="C37" t="n">
-        <v>0.248966</v>
+        <v>0.31367</v>
       </c>
       <c r="D37" t="n">
-        <v>0.310863</v>
+        <v>0.24804</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.33731</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3859,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.248901</v>
+        <v>0.246272</v>
       </c>
       <c r="C38" t="n">
-        <v>0.246938</v>
+        <v>0.313682</v>
       </c>
       <c r="D38" t="n">
-        <v>0.311478</v>
+        <v>0.246224</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.335475</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3876,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.245193</v>
+        <v>0.243009</v>
       </c>
       <c r="C39" t="n">
-        <v>0.245663</v>
+        <v>0.313725</v>
       </c>
       <c r="D39" t="n">
-        <v>0.310947</v>
+        <v>0.245391</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.335448</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3893,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.241122</v>
+        <v>0.239368</v>
       </c>
       <c r="C40" t="n">
-        <v>0.244356</v>
+        <v>0.313418</v>
       </c>
       <c r="D40" t="n">
-        <v>0.311396</v>
+        <v>0.244118</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.334215</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3910,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.237636</v>
+        <v>0.235067</v>
       </c>
       <c r="C41" t="n">
-        <v>0.243552</v>
+        <v>0.313969</v>
       </c>
       <c r="D41" t="n">
-        <v>0.310487</v>
+        <v>0.243347</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.332399</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3927,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.232543</v>
+        <v>0.230917</v>
       </c>
       <c r="C42" t="n">
-        <v>0.242099</v>
+        <v>0.315029</v>
       </c>
       <c r="D42" t="n">
-        <v>0.312255</v>
+        <v>0.24172</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.331038</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3944,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.227729</v>
+        <v>0.226566</v>
       </c>
       <c r="C43" t="n">
-        <v>0.241342</v>
+        <v>0.31455</v>
       </c>
       <c r="D43" t="n">
-        <v>0.312678</v>
+        <v>0.240717</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.330112</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3961,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.222747</v>
+        <v>0.220315</v>
       </c>
       <c r="C44" t="n">
-        <v>0.240101</v>
+        <v>0.316439</v>
       </c>
       <c r="D44" t="n">
-        <v>0.31284</v>
+        <v>0.23979</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.329078</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3978,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.216461</v>
+        <v>0.21408</v>
       </c>
       <c r="C45" t="n">
-        <v>0.239092</v>
+        <v>0.316685</v>
       </c>
       <c r="D45" t="n">
-        <v>0.314072</v>
+        <v>0.2389</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.327968</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3995,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.211164</v>
+        <v>0.208862</v>
       </c>
       <c r="C46" t="n">
-        <v>0.237987</v>
+        <v>0.316925</v>
       </c>
       <c r="D46" t="n">
-        <v>0.314184</v>
+        <v>0.2381</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.327819</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +4012,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.205529</v>
+        <v>0.203168</v>
       </c>
       <c r="C47" t="n">
-        <v>0.237626</v>
+        <v>0.31782</v>
       </c>
       <c r="D47" t="n">
-        <v>0.315348</v>
+        <v>0.237382</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.32633</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +4029,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.19901</v>
+        <v>0.197055</v>
       </c>
       <c r="C48" t="n">
-        <v>0.236617</v>
+        <v>0.319578</v>
       </c>
       <c r="D48" t="n">
-        <v>0.315847</v>
+        <v>0.2363</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.324736</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +4046,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.19193</v>
+        <v>0.189564</v>
       </c>
       <c r="C49" t="n">
-        <v>0.235771</v>
+        <v>0.320166</v>
       </c>
       <c r="D49" t="n">
-        <v>0.317582</v>
+        <v>0.235691</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.324101</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +4063,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.184091</v>
+        <v>0.182264</v>
       </c>
       <c r="C50" t="n">
-        <v>0.235334</v>
+        <v>0.317837</v>
       </c>
       <c r="D50" t="n">
-        <v>0.316728</v>
+        <v>0.234904</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.322997</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +4080,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173942</v>
+        <v>0.173369</v>
       </c>
       <c r="C51" t="n">
-        <v>0.249193</v>
+        <v>0.319162</v>
       </c>
       <c r="D51" t="n">
-        <v>0.315249</v>
+        <v>0.249538</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.338036</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +4097,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.16378</v>
+        <v>0.162851</v>
       </c>
       <c r="C52" t="n">
-        <v>0.248123</v>
+        <v>0.319348</v>
       </c>
       <c r="D52" t="n">
-        <v>0.315592</v>
+        <v>0.247959</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.336684</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +4114,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.248584</v>
+        <v>0.245971</v>
       </c>
       <c r="C53" t="n">
-        <v>0.246869</v>
+        <v>0.319194</v>
       </c>
       <c r="D53" t="n">
-        <v>0.318077</v>
+        <v>0.246941</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.335388</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +4131,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.245183</v>
+        <v>0.242326</v>
       </c>
       <c r="C54" t="n">
-        <v>0.245197</v>
+        <v>0.320377</v>
       </c>
       <c r="D54" t="n">
-        <v>0.317134</v>
+        <v>0.24535</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.333653</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +4148,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.240785</v>
+        <v>0.238194</v>
       </c>
       <c r="C55" t="n">
-        <v>0.244289</v>
+        <v>0.321153</v>
       </c>
       <c r="D55" t="n">
-        <v>0.318764</v>
+        <v>0.244077</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.332453</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4165,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.235922</v>
+        <v>0.233364</v>
       </c>
       <c r="C56" t="n">
-        <v>0.242831</v>
+        <v>0.321934</v>
       </c>
       <c r="D56" t="n">
-        <v>0.319516</v>
+        <v>0.242647</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.330857</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4182,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.230646</v>
+        <v>0.228192</v>
       </c>
       <c r="C57" t="n">
-        <v>0.241756</v>
+        <v>0.323482</v>
       </c>
       <c r="D57" t="n">
-        <v>0.319993</v>
+        <v>0.241284</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.329468</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4199,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.224847</v>
+        <v>0.222804</v>
       </c>
       <c r="C58" t="n">
-        <v>0.240684</v>
+        <v>0.324021</v>
       </c>
       <c r="D58" t="n">
-        <v>0.321992</v>
+        <v>0.240642</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.328104</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4216,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.219256</v>
+        <v>0.217251</v>
       </c>
       <c r="C59" t="n">
-        <v>0.239914</v>
+        <v>0.326245</v>
       </c>
       <c r="D59" t="n">
-        <v>0.324032</v>
+        <v>0.239578</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.327273</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4233,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212989</v>
+        <v>0.211127</v>
       </c>
       <c r="C60" t="n">
-        <v>0.23889</v>
+        <v>0.327765</v>
       </c>
       <c r="D60" t="n">
-        <v>0.325269</v>
+        <v>0.238685</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.326171</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4250,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207201</v>
+        <v>0.205681</v>
       </c>
       <c r="C61" t="n">
-        <v>0.238076</v>
+        <v>0.330565</v>
       </c>
       <c r="D61" t="n">
-        <v>0.328081</v>
+        <v>0.237825</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.325045</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4267,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200555</v>
+        <v>0.199145</v>
       </c>
       <c r="C62" t="n">
-        <v>0.237196</v>
+        <v>0.333005</v>
       </c>
       <c r="D62" t="n">
-        <v>0.330067</v>
+        <v>0.237175</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.324544</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4284,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194366</v>
+        <v>0.192922</v>
       </c>
       <c r="C63" t="n">
-        <v>0.236401</v>
+        <v>0.334448</v>
       </c>
       <c r="D63" t="n">
-        <v>0.331972</v>
+        <v>0.236305</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.323498</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4301,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187845</v>
+        <v>0.184878</v>
       </c>
       <c r="C64" t="n">
-        <v>0.235567</v>
+        <v>0.374994</v>
       </c>
       <c r="D64" t="n">
-        <v>0.37134</v>
+        <v>0.23539</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.32245</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4318,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.179328</v>
+        <v>0.176483</v>
       </c>
       <c r="C65" t="n">
-        <v>0.234677</v>
+        <v>0.375689</v>
       </c>
       <c r="D65" t="n">
-        <v>0.374089</v>
+        <v>0.234491</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.321585</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4335,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167456</v>
+        <v>0.165996</v>
       </c>
       <c r="C66" t="n">
-        <v>0.248983</v>
+        <v>0.377155</v>
       </c>
       <c r="D66" t="n">
-        <v>0.376484</v>
+        <v>0.249277</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.338085</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4352,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.250203</v>
+        <v>0.248124</v>
       </c>
       <c r="C67" t="n">
-        <v>0.247138</v>
+        <v>0.378278</v>
       </c>
       <c r="D67" t="n">
-        <v>0.378129</v>
+        <v>0.247587</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.336256</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4369,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.246482</v>
+        <v>0.244336</v>
       </c>
       <c r="C68" t="n">
-        <v>0.245899</v>
+        <v>0.378989</v>
       </c>
       <c r="D68" t="n">
-        <v>0.379029</v>
+        <v>0.246349</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.335</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4386,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.242205</v>
+        <v>0.239976</v>
       </c>
       <c r="C69" t="n">
-        <v>0.244815</v>
+        <v>0.377526</v>
       </c>
       <c r="D69" t="n">
-        <v>0.380305</v>
+        <v>0.244867</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.333841</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4403,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.237724</v>
+        <v>0.235072</v>
       </c>
       <c r="C70" t="n">
-        <v>0.243585</v>
+        <v>0.379146</v>
       </c>
       <c r="D70" t="n">
-        <v>0.380363</v>
+        <v>0.243497</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.33186</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4420,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.232392</v>
+        <v>0.230155</v>
       </c>
       <c r="C71" t="n">
-        <v>0.24248</v>
+        <v>0.377963</v>
       </c>
       <c r="D71" t="n">
-        <v>0.380753</v>
+        <v>0.2426</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.330862</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4437,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.229327</v>
+        <v>0.224998</v>
       </c>
       <c r="C72" t="n">
-        <v>0.241309</v>
+        <v>0.380956</v>
       </c>
       <c r="D72" t="n">
-        <v>0.381114</v>
+        <v>0.241329</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.330189</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4454,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.223579</v>
+        <v>0.21929</v>
       </c>
       <c r="C73" t="n">
-        <v>0.240196</v>
+        <v>0.380334</v>
       </c>
       <c r="D73" t="n">
-        <v>0.380851</v>
+        <v>0.240344</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.328753</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4471,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.217527</v>
+        <v>0.213777</v>
       </c>
       <c r="C74" t="n">
-        <v>0.239354</v>
+        <v>0.380134</v>
       </c>
       <c r="D74" t="n">
-        <v>0.379692</v>
+        <v>0.239368</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.328031</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4488,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.210216</v>
+        <v>0.20753</v>
       </c>
       <c r="C75" t="n">
-        <v>0.238488</v>
+        <v>0.380467</v>
       </c>
       <c r="D75" t="n">
-        <v>0.380085</v>
+        <v>0.238312</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.327012</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4505,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.203605</v>
+        <v>0.201662</v>
       </c>
       <c r="C76" t="n">
-        <v>0.237442</v>
+        <v>0.380913</v>
       </c>
       <c r="D76" t="n">
-        <v>0.380508</v>
+        <v>0.237631</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.326082</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4522,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196989</v>
+        <v>0.19464</v>
       </c>
       <c r="C77" t="n">
-        <v>0.236736</v>
+        <v>0.382438</v>
       </c>
       <c r="D77" t="n">
-        <v>0.379648</v>
+        <v>0.23666</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.32547</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4539,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.18966</v>
+        <v>0.187468</v>
       </c>
       <c r="C78" t="n">
-        <v>0.235895</v>
+        <v>0.43985</v>
       </c>
       <c r="D78" t="n">
-        <v>0.435541</v>
+        <v>0.236097</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.324265</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4556,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.181836</v>
+        <v>0.179296</v>
       </c>
       <c r="C79" t="n">
-        <v>0.235205</v>
+        <v>0.433646</v>
       </c>
       <c r="D79" t="n">
-        <v>0.431289</v>
+        <v>0.235215</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.323486</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4573,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172021</v>
+        <v>0.168798</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2515</v>
+        <v>0.428332</v>
       </c>
       <c r="D80" t="n">
-        <v>0.430423</v>
+        <v>0.251366</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.336922</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4590,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.251931</v>
+        <v>0.248836</v>
       </c>
       <c r="C81" t="n">
-        <v>0.249479</v>
+        <v>0.428527</v>
       </c>
       <c r="D81" t="n">
-        <v>0.425615</v>
+        <v>0.249508</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.335421</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4607,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.249966</v>
+        <v>0.245477</v>
       </c>
       <c r="C82" t="n">
-        <v>0.247869</v>
+        <v>0.424076</v>
       </c>
       <c r="D82" t="n">
-        <v>0.420054</v>
+        <v>0.247249</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.334489</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4624,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.245783</v>
+        <v>0.241042</v>
       </c>
       <c r="C83" t="n">
-        <v>0.246597</v>
+        <v>0.417833</v>
       </c>
       <c r="D83" t="n">
-        <v>0.416581</v>
+        <v>0.246339</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.332867</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4641,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.241167</v>
+        <v>0.236341</v>
       </c>
       <c r="C84" t="n">
-        <v>0.244829</v>
+        <v>0.415994</v>
       </c>
       <c r="D84" t="n">
-        <v>0.416919</v>
+        <v>0.244503</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.331474</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4658,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.236041</v>
+        <v>0.231535</v>
       </c>
       <c r="C85" t="n">
-        <v>0.24368</v>
+        <v>0.410738</v>
       </c>
       <c r="D85" t="n">
-        <v>0.409983</v>
+        <v>0.243594</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.330304</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4675,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.23072</v>
+        <v>0.226311</v>
       </c>
       <c r="C86" t="n">
-        <v>0.242447</v>
+        <v>0.409431</v>
       </c>
       <c r="D86" t="n">
-        <v>0.407413</v>
+        <v>0.24227</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.329167</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4692,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.224948</v>
+        <v>0.220519</v>
       </c>
       <c r="C87" t="n">
-        <v>0.241152</v>
+        <v>0.406267</v>
       </c>
       <c r="D87" t="n">
-        <v>0.405764</v>
+        <v>0.240836</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.327786</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4709,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.219096</v>
+        <v>0.21499</v>
       </c>
       <c r="C88" t="n">
-        <v>0.239748</v>
+        <v>0.403007</v>
       </c>
       <c r="D88" t="n">
-        <v>0.402463</v>
+        <v>0.239635</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.326752</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4726,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.212929</v>
+        <v>0.208957</v>
       </c>
       <c r="C89" t="n">
-        <v>0.238788</v>
+        <v>0.400497</v>
       </c>
       <c r="D89" t="n">
-        <v>0.398392</v>
+        <v>0.238784</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.325669</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4743,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.205743</v>
+        <v>0.203114</v>
       </c>
       <c r="C90" t="n">
-        <v>0.237783</v>
+        <v>0.401893</v>
       </c>
       <c r="D90" t="n">
-        <v>0.398172</v>
+        <v>0.237844</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.324718</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4760,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.198436</v>
+        <v>0.196592</v>
       </c>
       <c r="C91" t="n">
-        <v>0.236934</v>
+        <v>0.396707</v>
       </c>
       <c r="D91" t="n">
-        <v>0.398862</v>
+        <v>0.237015</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.323769</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4777,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.191073</v>
+        <v>0.189206</v>
       </c>
       <c r="C92" t="n">
-        <v>0.236128</v>
+        <v>0.442941</v>
       </c>
       <c r="D92" t="n">
-        <v>0.443626</v>
+        <v>0.236173</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.322936</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4794,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.183082</v>
+        <v>0.181171</v>
       </c>
       <c r="C93" t="n">
-        <v>0.235356</v>
+        <v>0.439997</v>
       </c>
       <c r="D93" t="n">
-        <v>0.438694</v>
+        <v>0.235492</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.322489</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4811,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.173621</v>
+        <v>0.171691</v>
       </c>
       <c r="C94" t="n">
-        <v>0.252094</v>
+        <v>0.435025</v>
       </c>
       <c r="D94" t="n">
-        <v>0.438441</v>
+        <v>0.252424</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.338112</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4828,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.252062</v>
+        <v>0.249649</v>
       </c>
       <c r="C95" t="n">
-        <v>0.25023</v>
+        <v>0.43313</v>
       </c>
       <c r="D95" t="n">
-        <v>0.429444</v>
+        <v>0.250274</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.337559</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4845,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.24897</v>
+        <v>0.246084</v>
       </c>
       <c r="C96" t="n">
-        <v>0.248146</v>
+        <v>0.427564</v>
       </c>
       <c r="D96" t="n">
-        <v>0.424372</v>
+        <v>0.248383</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.337675</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4862,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.245262</v>
+        <v>0.242075</v>
       </c>
       <c r="C97" t="n">
-        <v>0.246694</v>
+        <v>0.418962</v>
       </c>
       <c r="D97" t="n">
-        <v>0.42116</v>
+        <v>0.246772</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.335255</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4879,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.240895</v>
+        <v>0.237239</v>
       </c>
       <c r="C98" t="n">
-        <v>0.245465</v>
+        <v>0.413475</v>
       </c>
       <c r="D98" t="n">
-        <v>0.415721</v>
+        <v>0.245271</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.33217</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4896,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.23599</v>
+        <v>0.232248</v>
       </c>
       <c r="C99" t="n">
-        <v>0.243967</v>
+        <v>0.413216</v>
       </c>
       <c r="D99" t="n">
-        <v>0.410847</v>
+        <v>0.243848</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.330973</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4913,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.230661</v>
+        <v>0.227161</v>
       </c>
       <c r="C100" t="n">
-        <v>0.242283</v>
+        <v>0.409879</v>
       </c>
       <c r="D100" t="n">
-        <v>0.405007</v>
+        <v>0.242493</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.329904</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4930,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.22493</v>
+        <v>0.221602</v>
       </c>
       <c r="C101" t="n">
-        <v>0.241339</v>
+        <v>0.402808</v>
       </c>
       <c r="D101" t="n">
-        <v>0.403193</v>
+        <v>0.241208</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.329084</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4947,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.219194</v>
+        <v>0.216278</v>
       </c>
       <c r="C102" t="n">
-        <v>0.24024</v>
+        <v>0.398263</v>
       </c>
       <c r="D102" t="n">
-        <v>0.399501</v>
+        <v>0.240303</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.32793</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4964,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.213185</v>
+        <v>0.210123</v>
       </c>
       <c r="C103" t="n">
-        <v>0.239206</v>
+        <v>0.39695</v>
       </c>
       <c r="D103" t="n">
-        <v>0.394472</v>
+        <v>0.238875</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.327406</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4981,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.206714</v>
+        <v>0.204383</v>
       </c>
       <c r="C104" t="n">
-        <v>0.238333</v>
+        <v>0.394875</v>
       </c>
       <c r="D104" t="n">
-        <v>0.39232</v>
+        <v>0.238332</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.325914</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4998,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199888</v>
+        <v>0.198213</v>
       </c>
       <c r="C105" t="n">
-        <v>0.237645</v>
+        <v>0.391712</v>
       </c>
       <c r="D105" t="n">
-        <v>0.391684</v>
+        <v>0.237471</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.325166</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +5015,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.193131</v>
+        <v>0.191581</v>
       </c>
       <c r="C106" t="n">
-        <v>0.236725</v>
+        <v>0.386709</v>
       </c>
       <c r="D106" t="n">
-        <v>0.386346</v>
+        <v>0.236675</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.324318</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +5032,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.185189</v>
+        <v>0.183373</v>
       </c>
       <c r="C107" t="n">
-        <v>0.236101</v>
+        <v>0.418127</v>
       </c>
       <c r="D107" t="n">
-        <v>0.419587</v>
+        <v>0.235889</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.323077</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +5049,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.175747</v>
+        <v>0.174635</v>
       </c>
       <c r="C108" t="n">
-        <v>0.252658</v>
+        <v>0.414899</v>
       </c>
       <c r="D108" t="n">
-        <v>0.414472</v>
+        <v>0.252425</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.337927</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +5066,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.164096</v>
+        <v>0.162719</v>
       </c>
       <c r="C109" t="n">
-        <v>0.250312</v>
+        <v>0.409776</v>
       </c>
       <c r="D109" t="n">
-        <v>0.409238</v>
+        <v>0.250077</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.335918</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +5083,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.251682</v>
+        <v>0.246644</v>
       </c>
       <c r="C110" t="n">
-        <v>0.248411</v>
+        <v>0.406034</v>
       </c>
       <c r="D110" t="n">
-        <v>0.405229</v>
+        <v>0.248073</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.33438</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +5100,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.246164</v>
+        <v>0.242734</v>
       </c>
       <c r="C111" t="n">
-        <v>0.246698</v>
+        <v>0.402596</v>
       </c>
       <c r="D111" t="n">
-        <v>0.40269</v>
+        <v>0.24648</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.333275</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +5117,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.241804</v>
+        <v>0.238258</v>
       </c>
       <c r="C112" t="n">
-        <v>0.245239</v>
+        <v>0.398193</v>
       </c>
       <c r="D112" t="n">
-        <v>0.398385</v>
+        <v>0.244961</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.332015</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +5134,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.237058</v>
+        <v>0.233389</v>
       </c>
       <c r="C113" t="n">
-        <v>0.243867</v>
+        <v>0.395622</v>
       </c>
       <c r="D113" t="n">
-        <v>0.395073</v>
+        <v>0.243489</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.330662</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +5151,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.231915</v>
+        <v>0.228208</v>
       </c>
       <c r="C114" t="n">
-        <v>0.242562</v>
+        <v>0.391229</v>
       </c>
       <c r="D114" t="n">
-        <v>0.391168</v>
+        <v>0.242561</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.329403</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +5168,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.226278</v>
+        <v>0.222799</v>
       </c>
       <c r="C115" t="n">
-        <v>0.241183</v>
+        <v>0.390929</v>
       </c>
       <c r="D115" t="n">
-        <v>0.3868</v>
+        <v>0.241382</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.327986</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +5185,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.220382</v>
+        <v>0.217241</v>
       </c>
       <c r="C116" t="n">
-        <v>0.240203</v>
+        <v>0.386914</v>
       </c>
       <c r="D116" t="n">
-        <v>0.38373</v>
+        <v>0.240242</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.326924</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +5202,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.214398</v>
+        <v>0.211759</v>
       </c>
       <c r="C117" t="n">
-        <v>0.239267</v>
+        <v>0.383697</v>
       </c>
       <c r="D117" t="n">
-        <v>0.380746</v>
+        <v>0.2394</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.325816</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +5219,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.207482</v>
+        <v>0.205882</v>
       </c>
       <c r="C118" t="n">
-        <v>0.238526</v>
+        <v>0.381697</v>
       </c>
       <c r="D118" t="n">
-        <v>0.381778</v>
+        <v>0.23842</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.324886</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +5236,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.201</v>
+        <v>0.199195</v>
       </c>
       <c r="C119" t="n">
-        <v>0.237726</v>
+        <v>0.379312</v>
       </c>
       <c r="D119" t="n">
-        <v>0.378559</v>
+        <v>0.237483</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.323923</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +5253,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.195546</v>
+        <v>0.192586</v>
       </c>
       <c r="C120" t="n">
-        <v>0.236804</v>
+        <v>0.37733</v>
       </c>
       <c r="D120" t="n">
-        <v>0.377344</v>
+        <v>0.236609</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.323271</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +5270,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.187161</v>
+        <v>0.184821</v>
       </c>
       <c r="C121" t="n">
-        <v>0.236199</v>
+        <v>0.443351</v>
       </c>
       <c r="D121" t="n">
-        <v>0.448792</v>
+        <v>0.236028</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.32225</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +5287,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.178246</v>
+        <v>0.17762</v>
       </c>
       <c r="C122" t="n">
-        <v>0.235471</v>
+        <v>0.438857</v>
       </c>
       <c r="D122" t="n">
-        <v>0.438043</v>
+        <v>0.235214</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.32153</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +5304,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.166983</v>
+        <v>0.166475</v>
       </c>
       <c r="C123" t="n">
-        <v>0.250726</v>
+        <v>0.433153</v>
       </c>
       <c r="D123" t="n">
-        <v>0.431604</v>
+        <v>0.250503</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.336464</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +5321,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.252811</v>
+        <v>0.247499</v>
       </c>
       <c r="C124" t="n">
-        <v>0.248688</v>
+        <v>0.428766</v>
       </c>
       <c r="D124" t="n">
-        <v>0.428001</v>
+        <v>0.248421</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.334622</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +5338,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.249072</v>
+        <v>0.243763</v>
       </c>
       <c r="C125" t="n">
-        <v>0.24697</v>
+        <v>0.425777</v>
       </c>
       <c r="D125" t="n">
-        <v>0.424248</v>
+        <v>0.246723</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.334208</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +5355,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.244596</v>
+        <v>0.239332</v>
       </c>
       <c r="C126" t="n">
-        <v>0.245431</v>
+        <v>0.419522</v>
       </c>
       <c r="D126" t="n">
-        <v>0.418422</v>
+        <v>0.245234</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.332841</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +5372,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.239726</v>
+        <v>0.234525</v>
       </c>
       <c r="C127" t="n">
-        <v>0.244246</v>
+        <v>0.413325</v>
       </c>
       <c r="D127" t="n">
-        <v>0.413764</v>
+        <v>0.243944</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.330939</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5389,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.23455</v>
+        <v>0.229408</v>
       </c>
       <c r="C128" t="n">
-        <v>0.242915</v>
+        <v>0.40986</v>
       </c>
       <c r="D128" t="n">
-        <v>0.408781</v>
+        <v>0.242513</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.329845</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5406,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.228883</v>
+        <v>0.224023</v>
       </c>
       <c r="C129" t="n">
-        <v>0.241595</v>
+        <v>0.404833</v>
       </c>
       <c r="D129" t="n">
-        <v>0.405071</v>
+        <v>0.24147</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.329531</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5423,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.223048</v>
+        <v>0.218439</v>
       </c>
       <c r="C130" t="n">
-        <v>0.240428</v>
+        <v>0.399663</v>
       </c>
       <c r="D130" t="n">
-        <v>0.400167</v>
+        <v>0.240411</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.328474</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5440,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.217205</v>
+        <v>0.212802</v>
       </c>
       <c r="C131" t="n">
-        <v>0.239645</v>
+        <v>0.397039</v>
       </c>
       <c r="D131" t="n">
-        <v>0.397686</v>
+        <v>0.239474</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.32741</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5457,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.210966</v>
+        <v>0.206773</v>
       </c>
       <c r="C132" t="n">
-        <v>0.238934</v>
+        <v>0.393542</v>
       </c>
       <c r="D132" t="n">
-        <v>0.39427</v>
+        <v>0.238525</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.32648</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5474,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.204274</v>
+        <v>0.200797</v>
       </c>
       <c r="C133" t="n">
-        <v>0.23792</v>
+        <v>0.390182</v>
       </c>
       <c r="D133" t="n">
-        <v>0.389938</v>
+        <v>0.237635</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.325418</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5491,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.19622</v>
+        <v>0.194285</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2371</v>
+        <v>0.388107</v>
       </c>
       <c r="D134" t="n">
-        <v>0.387899</v>
+        <v>0.236791</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.324546</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5508,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.188122</v>
+        <v>0.186763</v>
       </c>
       <c r="C135" t="n">
-        <v>0.236312</v>
+        <v>0.454295</v>
       </c>
       <c r="D135" t="n">
-        <v>0.448808</v>
+        <v>0.236044</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.323749</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5525,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178991</v>
+        <v>0.17829</v>
       </c>
       <c r="C136" t="n">
-        <v>0.235555</v>
+        <v>0.448486</v>
       </c>
       <c r="D136" t="n">
-        <v>0.445506</v>
+        <v>0.235282</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.322916</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5542,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168758</v>
+        <v>0.168841</v>
       </c>
       <c r="C137" t="n">
-        <v>0.251068</v>
+        <v>0.439232</v>
       </c>
       <c r="D137" t="n">
-        <v>0.442643</v>
+        <v>0.250782</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.33668</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5559,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.251518</v>
+        <v>0.249551</v>
       </c>
       <c r="C138" t="n">
-        <v>0.249025</v>
+        <v>0.435258</v>
       </c>
       <c r="D138" t="n">
-        <v>0.436116</v>
+        <v>0.248811</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.335956</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5576,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.247753</v>
+        <v>0.244506</v>
       </c>
       <c r="C139" t="n">
-        <v>0.247232</v>
+        <v>0.428446</v>
       </c>
       <c r="D139" t="n">
-        <v>0.431628</v>
+        <v>0.247029</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.333652</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5593,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.243577</v>
+        <v>0.240297</v>
       </c>
       <c r="C140" t="n">
-        <v>0.245704</v>
+        <v>0.424077</v>
       </c>
       <c r="D140" t="n">
-        <v>0.426566</v>
+        <v>0.245535</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.332926</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5610,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.23909</v>
+        <v>0.237251</v>
       </c>
       <c r="C141" t="n">
-        <v>0.24432</v>
+        <v>0.418584</v>
       </c>
       <c r="D141" t="n">
-        <v>0.422528</v>
+        <v>0.244157</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.331551</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5627,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.233941</v>
+        <v>0.232139</v>
       </c>
       <c r="C142" t="n">
-        <v>0.243072</v>
+        <v>0.41389</v>
       </c>
       <c r="D142" t="n">
-        <v>0.41451</v>
+        <v>0.242877</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.330248</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5644,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.22836</v>
+        <v>0.22696</v>
       </c>
       <c r="C143" t="n">
-        <v>0.241961</v>
+        <v>0.408366</v>
       </c>
       <c r="D143" t="n">
-        <v>0.412423</v>
+        <v>0.241658</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.329081</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.192135</v>
+                  <v>0.0785698</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.192242</v>
+                  <v>0.07801</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.185635</v>
+                  <v>0.076334</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.179658</v>
+                  <v>0.07526380000000001</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.172405</v>
+                  <v>0.075381</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.165574</v>
+                  <v>0.0733709</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.163478</v>
+                  <v>0.07293719999999999</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.14849</v>
+                  <v>0.0715915</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.234083</v>
+                  <v>0.126204</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.230364</v>
+                  <v>0.121989</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.228683</v>
+                  <v>0.121594</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.223474</v>
+                  <v>0.117472</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.220447</v>
+                  <v>0.117571</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.216128</v>
+                  <v>0.115645</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.211103</v>
+                  <v>0.112146</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.206764</v>
+                  <v>0.109733</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.200635</v>
+                  <v>0.106337</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.194198</v>
+                  <v>0.103632</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.186967</v>
+                  <v>0.0991889</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.181294</v>
+                  <v>0.0962592</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.172455</v>
+                  <v>0.09309190000000001</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.163976</v>
+                  <v>0.0899575</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.245022</v>
+                  <v>0.150258</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.240516</v>
+                  <v>0.147224</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.236516</v>
+                  <v>0.14444</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.23224</v>
+                  <v>0.140705</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.226771</v>
+                  <v>0.137402</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.223514</v>
+                  <v>0.133721</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.217681</v>
+                  <v>0.128955</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.212697</v>
+                  <v>0.12512</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.208045</v>
+                  <v>0.120441</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.201569</v>
+                  <v>0.114693</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.194554</v>
+                  <v>0.109617</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.188778</v>
+                  <v>0.104777</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.180483</v>
+                  <v>0.100498</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.170964</v>
+                  <v>0.095885</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.246996</v>
+                  <v>0.159284</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.244804</v>
+                  <v>0.156717</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.240493</v>
+                  <v>0.153778</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.236656</v>
+                  <v>0.149985</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.232052</v>
+                  <v>0.146067</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226781</v>
+                  <v>0.14153</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.221556</v>
+                  <v>0.136851</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.216522</v>
+                  <v>0.131807</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.21116</v>
+                  <v>0.126538</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.205422</v>
+                  <v>0.121426</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.198357</v>
+                  <v>0.115851</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.191476</v>
+                  <v>0.110881</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.182962</v>
+                  <v>0.105341</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.1737</v>
+                  <v>0.100086</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.162979</v>
+                  <v>0.09492250000000001</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.247194</v>
+                  <v>0.161765</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.243447</v>
+                  <v>0.157751</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.238631</v>
+                  <v>0.153367</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.234653</v>
+                  <v>0.149046</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.229346</v>
+                  <v>0.144183</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.224455</v>
+                  <v>0.139449</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.21925</v>
+                  <v>0.134172</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.212862</v>
+                  <v>0.129251</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.2078</v>
+                  <v>0.124021</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.201194</v>
+                  <v>0.118888</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.194164</v>
+                  <v>0.113656</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.186441</v>
+                  <v>0.10868</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.17751</v>
+                  <v>0.103293</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.166493</v>
+                  <v>0.09785820000000001</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.249034</v>
+                  <v>0.163938</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.245451</v>
+                  <v>0.16019</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.241181</v>
+                  <v>0.156112</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.236643</v>
+                  <v>0.151234</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.231585</v>
+                  <v>0.1467</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.226341</v>
+                  <v>0.141537</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.221017</v>
+                  <v>0.136251</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.2153</v>
+                  <v>0.131385</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.209638</v>
+                  <v>0.125975</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.203605</v>
+                  <v>0.120806</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.197383</v>
+                  <v>0.115717</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.189724</v>
+                  <v>0.110491</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.180135</v>
+                  <v>0.105539</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.169883</v>
+                  <v>0.100332</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.250298</v>
+                  <v>0.164231</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.24687</v>
+                  <v>0.160433</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.242264</v>
+                  <v>0.156282</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.237724</v>
+                  <v>0.151513</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.232505</v>
+                  <v>0.146903</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.227681</v>
+                  <v>0.141991</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.222111</v>
+                  <v>0.136909</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.216602</v>
+                  <v>0.131753</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.210918</v>
+                  <v>0.126506</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.204905</v>
+                  <v>0.121357</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.198625</v>
+                  <v>0.116213</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.191589</v>
+                  <v>0.111081</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.182301</v>
+                  <v>0.106023</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.172258</v>
+                  <v>0.100876</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.25079</v>
+                  <v>0.165616</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.247483</v>
+                  <v>0.161892</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.243339</v>
+                  <v>0.157627</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.238803</v>
+                  <v>0.153045</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.233941</v>
+                  <v>0.148124</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.228657</v>
+                  <v>0.143096</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.223438</v>
+                  <v>0.137765</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.21772</v>
+                  <v>0.132801</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.212017</v>
+                  <v>0.127657</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.205857</v>
+                  <v>0.12242</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.199385</v>
+                  <v>0.11725</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.193156</v>
+                  <v>0.112112</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.185554</v>
+                  <v>0.10702</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.176453</v>
+                  <v>0.101872</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.165223</v>
+                  <v>0.0966104</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.248347</v>
+                  <v>0.163181</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.244331</v>
+                  <v>0.159031</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.239935</v>
+                  <v>0.154378</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.235105</v>
+                  <v>0.149186</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.229823</v>
+                  <v>0.144248</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.224561</v>
+                  <v>0.138994</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.219177</v>
+                  <v>0.13388</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.213472</v>
+                  <v>0.128563</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.207617</v>
+                  <v>0.123492</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.201555</v>
+                  <v>0.118464</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.194696</v>
+                  <v>0.113129</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.187272</v>
+                  <v>0.108013</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.178208</v>
+                  <v>0.102901</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.167621</v>
+                  <v>0.0977628</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.249141</v>
+                  <v>0.173028</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.245291</v>
+                  <v>0.168888</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.240693</v>
+                  <v>0.163702</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.236034</v>
+                  <v>0.158768</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.230846</v>
+                  <v>0.152967</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.225626</v>
+                  <v>0.147432</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.220081</v>
+                  <v>0.141975</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.214733</v>
+                  <v>0.13661</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.209382</v>
+                  <v>0.131002</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.202896</v>
+                  <v>0.125727</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.196303</v>
+                  <v>0.120213</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.189116</v>
+                  <v>0.114864</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.180347</v>
+                  <v>0.10935</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.17002</v>
+                  <v>0.103983</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.249951</v>
+                  <v>0.174103</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.246085</v>
+                  <v>0.16957</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.241681</v>
+                  <v>0.164907</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.23701</v>
+                  <v>0.159763</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.232005</v>
+                  <v>0.154327</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.226835</v>
+                  <v>0.148619</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.210395</v>
+                  <v>0.278661</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.211138</v>
+                  <v>0.281787</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.211426</v>
+                  <v>0.284602</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.212495</v>
+                  <v>0.285648</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211744</v>
+                  <v>0.287433</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.213061</v>
+                  <v>0.274449</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.214042</v>
+                  <v>0.276621</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.227861</v>
+                  <v>0.278775</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.227443</v>
+                  <v>0.281341</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.226196</v>
+                  <v>0.282871</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.225938</v>
+                  <v>0.286431</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.225082</v>
+                  <v>0.286907</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.224208</v>
+                  <v>0.288799</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.22347</v>
+                  <v>0.290491</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.222635</v>
+                  <v>0.290309</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.222597</v>
+                  <v>0.291906</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.221334</v>
+                  <v>0.292277</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.220706</v>
+                  <v>0.293213</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22019</v>
+                  <v>0.294434</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.219876</v>
+                  <v>0.283856</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.219939</v>
+                  <v>0.284349</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.232949</v>
+                  <v>0.284879</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.231574</v>
+                  <v>0.286239</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.230146</v>
+                  <v>0.287601</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.228971</v>
+                  <v>0.2876</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.228255</v>
+                  <v>0.288997</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.22717</v>
+                  <v>0.290481</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.226066</v>
+                  <v>0.291662</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.224962</v>
+                  <v>0.29328</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.224481</v>
+                  <v>0.294138</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.223487</v>
+                  <v>0.293505</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.222775</v>
+                  <v>0.296216</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.222101</v>
+                  <v>0.297426</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.221564</v>
+                  <v>0.285782</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.220795</v>
+                  <v>0.286008</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.235224</v>
+                  <v>0.287226</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.233271</v>
+                  <v>0.28761</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.231402</v>
+                  <v>0.289069</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.230454</v>
+                  <v>0.291258</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.229429</v>
+                  <v>0.292044</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.228245</v>
+                  <v>0.292541</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.22697</v>
+                  <v>0.294038</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.226061</v>
+                  <v>0.29517</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.225254</v>
+                  <v>0.295882</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.224065</v>
+                  <v>0.29714</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.22333</v>
+                  <v>0.297698</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222469</v>
+                  <v>0.298015</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.221591</v>
+                  <v>0.2997</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.220986</v>
+                  <v>0.288124</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.237331</v>
+                  <v>0.28907</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.234803</v>
+                  <v>0.290364</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.232901</v>
+                  <v>0.29106</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.231527</v>
+                  <v>0.292367</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.230018</v>
+                  <v>0.292745</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.228959</v>
+                  <v>0.294376</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.227637</v>
+                  <v>0.295477</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.226427</v>
+                  <v>0.297108</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.225642</v>
+                  <v>0.298193</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.224583</v>
+                  <v>0.299347</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.223851</v>
+                  <v>0.300971</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.223035</v>
+                  <v>0.301872</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.22231</v>
+                  <v>0.302877</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.221433</v>
+                  <v>0.295352</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.220509</v>
+                  <v>0.297121</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.235475</v>
+                  <v>0.29808</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.233638</v>
+                  <v>0.300501</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.23231</v>
+                  <v>0.301419</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.230909</v>
+                  <v>0.304017</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.229533</v>
+                  <v>0.306256</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.228407</v>
+                  <v>0.30713</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.227333</v>
+                  <v>0.309409</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.22621</v>
+                  <v>0.312199</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.225128</v>
+                  <v>0.306165</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.22411</v>
+                  <v>0.309771</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.223267</v>
+                  <v>0.312349</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.222481</v>
+                  <v>0.315075</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.221562</v>
+                  <v>0.308787</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.22082</v>
+                  <v>0.31033</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.237012</v>
+                  <v>0.311713</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.235231</v>
+                  <v>0.31323</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.233413</v>
+                  <v>0.314737</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.232028</v>
+                  <v>0.31414</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.230232</v>
+                  <v>0.315762</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.228903</v>
+                  <v>0.318579</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.227712</v>
+                  <v>0.321262</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.22637</v>
+                  <v>0.323652</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.225493</v>
+                  <v>0.325257</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.224565</v>
+                  <v>0.315909</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.223729</v>
+                  <v>0.318185</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.222832</v>
+                  <v>0.320763</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.222128</v>
+                  <v>0.295097</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.221367</v>
+                  <v>0.295977</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.238094</v>
+                  <v>0.297469</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.235771</v>
+                  <v>0.299469</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.233635</v>
+                  <v>0.301571</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.231761</v>
+                  <v>0.296998</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.2304</v>
+                  <v>0.299261</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.229002</v>
+                  <v>0.302162</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.227705</v>
+                  <v>0.303709</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.226654</v>
+                  <v>0.306448</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.225525</v>
+                  <v>0.310136</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.224573</v>
+                  <v>0.306796</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.223723</v>
+                  <v>0.30934</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.22294</v>
+                  <v>0.311905</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.222175</v>
+                  <v>0.313813</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.221456</v>
+                  <v>0.290918</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.238615</v>
+                  <v>0.292794</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.236118</v>
+                  <v>0.294234</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.233863</v>
+                  <v>0.295679</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.232077</v>
+                  <v>0.295282</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.230551</v>
+                  <v>0.296912</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.229258</v>
+                  <v>0.299968</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.227991</v>
+                  <v>0.299754</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.226838</v>
+                  <v>0.301842</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.225822</v>
+                  <v>0.304744</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.224966</v>
+                  <v>0.305408</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.224057</v>
+                  <v>0.307885</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.223162</v>
+                  <v>0.307962</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.222411</v>
+                  <v>0.310472</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.22162</v>
+                  <v>0.29361</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.220911</v>
+                  <v>0.293955</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.236474</v>
+                  <v>0.295548</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.234454</v>
+                  <v>0.29582</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.232699</v>
+                  <v>0.297457</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.231007</v>
+                  <v>0.298432</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.229605</v>
+                  <v>0.299124</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.228362</v>
+                  <v>0.30075</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.227103</v>
+                  <v>0.303137</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.226079</v>
+                  <v>0.304833</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.22522</v>
+                  <v>0.306146</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.224274</v>
+                  <v>0.307038</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.223345</v>
+                  <v>0.308538</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.222575</v>
+                  <v>0.311238</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.221807</v>
+                  <v>0.29305</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.221056</v>
+                  <v>0.293936</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.237188</v>
+                  <v>0.295193</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.234859</v>
+                  <v>0.295602</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.232976</v>
+                  <v>0.296406</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.231417</v>
+                  <v>0.297767</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.229917</v>
+                  <v>0.298622</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.228532</v>
+                  <v>0.300831</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.227347</v>
+                  <v>0.302162</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.312775</v>
+                  <v>0.161377</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.31418</v>
+                  <v>0.161805</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.315206</v>
+                  <v>0.16165</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.31654</v>
+                  <v>0.161383</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.317861</v>
+                  <v>0.161432</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.309159</v>
+                  <v>0.160883</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.309142</v>
+                  <v>0.160682</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.310282</v>
+                  <v>0.168008</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.310999</v>
+                  <v>0.167609</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.313123</v>
+                  <v>0.167601</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.312996</v>
+                  <v>0.167266</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.313989</v>
+                  <v>0.166521</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.315089</v>
+                  <v>0.167893</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.316797</v>
+                  <v>0.16697</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.317154</v>
+                  <v>0.166146</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.31861</v>
+                  <v>0.165718</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.319776</v>
+                  <v>0.164994</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.322407</v>
+                  <v>0.164471</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.322839</v>
+                  <v>0.164271</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.316304</v>
+                  <v>0.163875</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.3149</v>
+                  <v>0.163013</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.315516</v>
+                  <v>0.173693</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.315862</v>
+                  <v>0.173392</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.317172</v>
+                  <v>0.171978</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.317727</v>
+                  <v>0.172057</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.317528</v>
+                  <v>0.172897</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.318213</v>
+                  <v>0.17029</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.31849</v>
+                  <v>0.171219</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.320608</v>
+                  <v>0.169221</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.321875</v>
+                  <v>0.168358</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.321443</v>
+                  <v>0.168837</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.32272</v>
+                  <v>0.16865</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.322936</v>
+                  <v>0.166213</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.31879</v>
+                  <v>0.165749</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.318882</v>
+                  <v>0.165377</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.318121</v>
+                  <v>0.181607</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.318359</v>
+                  <v>0.179581</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.319647</v>
+                  <v>0.179549</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.320145</v>
+                  <v>0.177059</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.319453</v>
+                  <v>0.176741</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.321259</v>
+                  <v>0.175916</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.321858</v>
+                  <v>0.174191</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.32232</v>
+                  <v>0.173126</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.324498</v>
+                  <v>0.17289</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.324512</v>
+                  <v>0.171398</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.32581</v>
+                  <v>0.170656</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.32872</v>
+                  <v>0.169676</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.329072</v>
+                  <v>0.168742</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.322981</v>
+                  <v>0.167746</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.322869</v>
+                  <v>0.184643</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.3234</v>
+                  <v>0.18327</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.326286</v>
+                  <v>0.181852</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.325565</v>
+                  <v>0.180821</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.326285</v>
+                  <v>0.179281</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.327218</v>
+                  <v>0.178364</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.327119</v>
+                  <v>0.177349</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.329879</v>
+                  <v>0.176061</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.329924</v>
+                  <v>0.174862</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.332489</v>
+                  <v>0.17382</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.336041</v>
+                  <v>0.172776</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.33869</v>
+                  <v>0.171758</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.340091</v>
+                  <v>0.170447</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.380755</v>
+                  <v>0.169347</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.384751</v>
+                  <v>0.168119</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.385427</v>
+                  <v>0.185031</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.380428</v>
+                  <v>0.183681</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.387556</v>
+                  <v>0.182192</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.389128</v>
+                  <v>0.181223</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.389558</v>
+                  <v>0.1797</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.39109</v>
+                  <v>0.178455</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.390154</v>
+                  <v>0.177282</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.390168</v>
+                  <v>0.176083</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.389429</v>
+                  <v>0.174918</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.389166</v>
+                  <v>0.173816</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.389387</v>
+                  <v>0.172569</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.388797</v>
+                  <v>0.171501</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.44659</v>
+                  <v>0.170134</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.441756</v>
+                  <v>0.168946</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.441</v>
+                  <v>0.18571</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.435989</v>
+                  <v>0.184182</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.431384</v>
+                  <v>0.182808</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.427226</v>
+                  <v>0.181466</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.425774</v>
+                  <v>0.180095</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.421385</v>
+                  <v>0.178727</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.417212</v>
+                  <v>0.177617</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.416866</v>
+                  <v>0.176367</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.413728</v>
+                  <v>0.175199</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.410981</v>
+                  <v>0.174092</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.410079</v>
+                  <v>0.17285</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.412169</v>
+                  <v>0.171697</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.458919</v>
+                  <v>0.170479</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.448521</v>
+                  <v>0.169232</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.442854</v>
+                  <v>0.186238</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.438199</v>
+                  <v>0.184776</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.437364</v>
+                  <v>0.183353</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.43433</v>
+                  <v>0.182029</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.428428</v>
+                  <v>0.180636</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.422753</v>
+                  <v>0.179256</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.418057</v>
+                  <v>0.178057</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.416928</v>
+                  <v>0.176775</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.41306</v>
+                  <v>0.175665</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.409827</v>
+                  <v>0.174317</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.404869</v>
+                  <v>0.173185</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.404241</v>
+                  <v>0.171964</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.398292</v>
+                  <v>0.170756</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.432353</v>
+                  <v>0.169512</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.422076</v>
+                  <v>0.186733</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.420227</v>
+                  <v>0.18519</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.416349</v>
+                  <v>0.183764</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.414206</v>
+                  <v>0.182269</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.410709</v>
+                  <v>0.180909</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.405181</v>
+                  <v>0.179595</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.402827</v>
+                  <v>0.178396</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.397938</v>
+                  <v>0.177056</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.393821</v>
+                  <v>0.175815</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.394136</v>
+                  <v>0.174734</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.392757</v>
+                  <v>0.173443</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.389981</v>
+                  <v>0.172265</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.388749</v>
+                  <v>0.171018</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.463123</v>
+                  <v>0.169873</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.450987</v>
+                  <v>0.16868</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.44374</v>
+                  <v>0.185604</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.440364</v>
+                  <v>0.18407</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.436582</v>
+                  <v>0.182541</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.430221</v>
+                  <v>0.181177</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.426661</v>
+                  <v>0.179915</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.422086</v>
+                  <v>0.178443</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.417769</v>
+                  <v>0.177278</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.41305</v>
+                  <v>0.176076</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.410152</v>
+                  <v>0.174889</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.406772</v>
+                  <v>0.173751</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.402508</v>
+                  <v>0.172529</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.400695</v>
+                  <v>0.17138</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.462697</v>
+                  <v>0.170068</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.45997</v>
+                  <v>0.16884</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.456506</v>
+                  <v>0.196116</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.450822</v>
+                  <v>0.193136</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.445834</v>
+                  <v>0.191085</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.440215</v>
+                  <v>0.189452</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.436738</v>
+                  <v>0.187873</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.428801</v>
+                  <v>0.186202</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.426174</v>
+                  <v>0.184527</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.27075</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.271662</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.271133</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.274026</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.270847</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.274797</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.271653</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.280982</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.283694</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.281135</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.283407</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.278207</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.278501</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.277398</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.276845</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.27666</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.275895</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.273221</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.275609</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.272189</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.272107</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.285413</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.284843</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.284983</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.280853</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.281688</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.279487</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.280677</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.280292</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.280893</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.278407</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.279064</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.276623</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.275242</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.273643</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.28665</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.288314</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.283276</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.283897</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.282851</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.282467</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.280855</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.281927</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.278974</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.278439</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.280525</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.275232</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.274341</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.276063</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.291693</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.289798</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.287898</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.28715</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.28391</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.284432</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.28238</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.282797</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.281096</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.277033</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.276516</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.276848</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.279088</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.276751</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.276998</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.28964</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.286487</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.28763</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.286477</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.285516</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.28524</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.283961</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.284223</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.280482</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.27945</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.279581</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.279018</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.274384</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.276461</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.292322</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.289118</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.288247</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.288563</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.287533</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.286304</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.283101</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.280356</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.280392</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.281045</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.276278</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.277672</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.276009</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.276803</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.294846</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.289587</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.288815</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.285001</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.285394</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.283591</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.285928</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.28276</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.281078</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.280155</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.279521</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.279457</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.278278</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.275865</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.292885</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.29214</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.289121</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.285812</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.289304</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.281765</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.28236</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.283506</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.282489</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.27951</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.277523</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.279182</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.276473</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.276892</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.275816</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.289797</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.29229</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.288339</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.286976</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.284306</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.282697</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.281096</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.281267</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.279271</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.277611</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.27983</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.276196</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.275866</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.275209</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.297215</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.294804</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.292807</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.292284</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.286689</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.286559</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.287475</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2824,7 +3750,7 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="0.6000000000000001"/>
+          <max val="0.5"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -2866,8 +3792,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3216,8 +4142,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3233,12 +4159,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -4178,16 +4178,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.194782</v>
+        <v>0.191882</v>
       </c>
       <c r="C2" t="n">
-        <v>0.30603</v>
+        <v>0.319118</v>
       </c>
       <c r="D2" t="n">
-        <v>0.208308</v>
+        <v>0.208352</v>
       </c>
       <c r="E2" t="n">
-        <v>0.314915</v>
+        <v>0.316701</v>
       </c>
     </row>
     <row r="3">
@@ -4195,16 +4195,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.189989</v>
+        <v>0.190535</v>
       </c>
       <c r="C3" t="n">
-        <v>0.307166</v>
+        <v>0.30921</v>
       </c>
       <c r="D3" t="n">
-        <v>0.211993</v>
+        <v>0.210097</v>
       </c>
       <c r="E3" t="n">
-        <v>0.315924</v>
+        <v>0.319093</v>
       </c>
     </row>
     <row r="4">
@@ -4212,16 +4212,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.183284</v>
+        <v>0.187186</v>
       </c>
       <c r="C4" t="n">
-        <v>0.308505</v>
+        <v>0.310392</v>
       </c>
       <c r="D4" t="n">
-        <v>0.213669</v>
+        <v>0.212867</v>
       </c>
       <c r="E4" t="n">
-        <v>0.315186</v>
+        <v>0.31702</v>
       </c>
     </row>
     <row r="5">
@@ -4229,16 +4229,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.180356</v>
+        <v>0.180913</v>
       </c>
       <c r="C5" t="n">
-        <v>0.309114</v>
+        <v>0.300916</v>
       </c>
       <c r="D5" t="n">
-        <v>0.215109</v>
+        <v>0.214775</v>
       </c>
       <c r="E5" t="n">
-        <v>0.314479</v>
+        <v>0.318476</v>
       </c>
     </row>
     <row r="6">
@@ -4246,16 +4246,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.174314</v>
+        <v>0.175669</v>
       </c>
       <c r="C6" t="n">
-        <v>0.310635</v>
+        <v>0.298015</v>
       </c>
       <c r="D6" t="n">
-        <v>0.216075</v>
+        <v>0.215873</v>
       </c>
       <c r="E6" t="n">
-        <v>0.314869</v>
+        <v>0.318012</v>
       </c>
     </row>
     <row r="7">
@@ -4263,16 +4263,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.167012</v>
+        <v>0.167706</v>
       </c>
       <c r="C7" t="n">
-        <v>0.303733</v>
+        <v>0.288275</v>
       </c>
       <c r="D7" t="n">
-        <v>0.218366</v>
+        <v>0.218296</v>
       </c>
       <c r="E7" t="n">
-        <v>0.312958</v>
+        <v>0.317258</v>
       </c>
     </row>
     <row r="8">
@@ -4280,16 +4280,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.159191</v>
+        <v>0.15931</v>
       </c>
       <c r="C8" t="n">
-        <v>0.304542</v>
+        <v>0.281948</v>
       </c>
       <c r="D8" t="n">
-        <v>0.219443</v>
+        <v>0.219572</v>
       </c>
       <c r="E8" t="n">
-        <v>0.312904</v>
+        <v>0.315682</v>
       </c>
     </row>
     <row r="9">
@@ -4297,16 +4297,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150313</v>
+        <v>0.151109</v>
       </c>
       <c r="C9" t="n">
-        <v>0.304033</v>
+        <v>0.274585</v>
       </c>
       <c r="D9" t="n">
-        <v>0.234542</v>
+        <v>0.232397</v>
       </c>
       <c r="E9" t="n">
-        <v>0.330334</v>
+        <v>0.331488</v>
       </c>
     </row>
     <row r="10">
@@ -4314,16 +4314,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229044</v>
+        <v>0.23294</v>
       </c>
       <c r="C10" t="n">
-        <v>0.305332</v>
+        <v>0.34871</v>
       </c>
       <c r="D10" t="n">
-        <v>0.233156</v>
+        <v>0.232735</v>
       </c>
       <c r="E10" t="n">
-        <v>0.328154</v>
+        <v>0.329848</v>
       </c>
     </row>
     <row r="11">
@@ -4331,16 +4331,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.228019</v>
+        <v>0.231172</v>
       </c>
       <c r="C11" t="n">
-        <v>0.305632</v>
+        <v>0.343864</v>
       </c>
       <c r="D11" t="n">
-        <v>0.232956</v>
+        <v>0.233868</v>
       </c>
       <c r="E11" t="n">
-        <v>0.328619</v>
+        <v>0.329219</v>
       </c>
     </row>
     <row r="12">
@@ -4348,16 +4348,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.224269</v>
+        <v>0.227787</v>
       </c>
       <c r="C12" t="n">
-        <v>0.306755</v>
+        <v>0.342366</v>
       </c>
       <c r="D12" t="n">
-        <v>0.233798</v>
+        <v>0.233865</v>
       </c>
       <c r="E12" t="n">
-        <v>0.327498</v>
+        <v>0.329347</v>
       </c>
     </row>
     <row r="13">
@@ -4365,16 +4365,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222737</v>
+        <v>0.224199</v>
       </c>
       <c r="C13" t="n">
-        <v>0.307506</v>
+        <v>0.337622</v>
       </c>
       <c r="D13" t="n">
-        <v>0.232967</v>
+        <v>0.233421</v>
       </c>
       <c r="E13" t="n">
-        <v>0.32712</v>
+        <v>0.329504</v>
       </c>
     </row>
     <row r="14">
@@ -4382,16 +4382,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216406</v>
+        <v>0.222538</v>
       </c>
       <c r="C14" t="n">
-        <v>0.308025</v>
+        <v>0.330587</v>
       </c>
       <c r="D14" t="n">
-        <v>0.233826</v>
+        <v>0.23376</v>
       </c>
       <c r="E14" t="n">
-        <v>0.324624</v>
+        <v>0.327041</v>
       </c>
     </row>
     <row r="15">
@@ -4399,16 +4399,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212476</v>
+        <v>0.216284</v>
       </c>
       <c r="C15" t="n">
-        <v>0.309418</v>
+        <v>0.325232</v>
       </c>
       <c r="D15" t="n">
-        <v>0.233711</v>
+        <v>0.233683</v>
       </c>
       <c r="E15" t="n">
-        <v>0.324139</v>
+        <v>0.326379</v>
       </c>
     </row>
     <row r="16">
@@ -4416,16 +4416,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.21022</v>
+        <v>0.211151</v>
       </c>
       <c r="C16" t="n">
-        <v>0.310396</v>
+        <v>0.319873</v>
       </c>
       <c r="D16" t="n">
-        <v>0.233012</v>
+        <v>0.233088</v>
       </c>
       <c r="E16" t="n">
-        <v>0.323017</v>
+        <v>0.322628</v>
       </c>
     </row>
     <row r="17">
@@ -4433,16 +4433,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203994</v>
+        <v>0.205302</v>
       </c>
       <c r="C17" t="n">
-        <v>0.310857</v>
+        <v>0.315766</v>
       </c>
       <c r="D17" t="n">
-        <v>0.232598</v>
+        <v>0.233533</v>
       </c>
       <c r="E17" t="n">
-        <v>0.323385</v>
+        <v>0.32232</v>
       </c>
     </row>
     <row r="18">
@@ -4450,16 +4450,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198728</v>
+        <v>0.201393</v>
       </c>
       <c r="C18" t="n">
-        <v>0.311864</v>
+        <v>0.314532</v>
       </c>
       <c r="D18" t="n">
-        <v>0.233161</v>
+        <v>0.233642</v>
       </c>
       <c r="E18" t="n">
-        <v>0.322613</v>
+        <v>0.323765</v>
       </c>
     </row>
     <row r="19">
@@ -4467,16 +4467,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193335</v>
+        <v>0.195968</v>
       </c>
       <c r="C19" t="n">
-        <v>0.313554</v>
+        <v>0.307224</v>
       </c>
       <c r="D19" t="n">
-        <v>0.232094</v>
+        <v>0.232489</v>
       </c>
       <c r="E19" t="n">
-        <v>0.320626</v>
+        <v>0.319721</v>
       </c>
     </row>
     <row r="20">
@@ -4484,16 +4484,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188197</v>
+        <v>0.18895</v>
       </c>
       <c r="C20" t="n">
-        <v>0.313169</v>
+        <v>0.301551</v>
       </c>
       <c r="D20" t="n">
-        <v>0.232762</v>
+        <v>0.23265</v>
       </c>
       <c r="E20" t="n">
-        <v>0.321178</v>
+        <v>0.321742</v>
       </c>
     </row>
     <row r="21">
@@ -4501,16 +4501,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181137</v>
+        <v>0.182318</v>
       </c>
       <c r="C21" t="n">
-        <v>0.309464</v>
+        <v>0.296925</v>
       </c>
       <c r="D21" t="n">
-        <v>0.232118</v>
+        <v>0.231893</v>
       </c>
       <c r="E21" t="n">
-        <v>0.320161</v>
+        <v>0.320366</v>
       </c>
     </row>
     <row r="22">
@@ -4518,16 +4518,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174101</v>
+        <v>0.173589</v>
       </c>
       <c r="C22" t="n">
-        <v>0.309679</v>
+        <v>0.282595</v>
       </c>
       <c r="D22" t="n">
-        <v>0.231837</v>
+        <v>0.231881</v>
       </c>
       <c r="E22" t="n">
-        <v>0.319736</v>
+        <v>0.320889</v>
       </c>
     </row>
     <row r="23">
@@ -4535,16 +4535,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165207</v>
+        <v>0.163387</v>
       </c>
       <c r="C23" t="n">
-        <v>0.309303</v>
+        <v>0.277457</v>
       </c>
       <c r="D23" t="n">
-        <v>0.24614</v>
+        <v>0.245292</v>
       </c>
       <c r="E23" t="n">
-        <v>0.33457</v>
+        <v>0.335629</v>
       </c>
     </row>
     <row r="24">
@@ -4552,16 +4552,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243296</v>
+        <v>0.243434</v>
       </c>
       <c r="C24" t="n">
-        <v>0.309193</v>
+        <v>0.351705</v>
       </c>
       <c r="D24" t="n">
-        <v>0.244038</v>
+        <v>0.243853</v>
       </c>
       <c r="E24" t="n">
-        <v>0.332223</v>
+        <v>0.332261</v>
       </c>
     </row>
     <row r="25">
@@ -4569,16 +4569,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.239659</v>
+        <v>0.239892</v>
       </c>
       <c r="C25" t="n">
-        <v>0.311264</v>
+        <v>0.347648</v>
       </c>
       <c r="D25" t="n">
-        <v>0.242745</v>
+        <v>0.243256</v>
       </c>
       <c r="E25" t="n">
-        <v>0.332793</v>
+        <v>0.33217</v>
       </c>
     </row>
     <row r="26">
@@ -4586,16 +4586,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234589</v>
+        <v>0.236321</v>
       </c>
       <c r="C26" t="n">
-        <v>0.311817</v>
+        <v>0.343131</v>
       </c>
       <c r="D26" t="n">
-        <v>0.242464</v>
+        <v>0.242328</v>
       </c>
       <c r="E26" t="n">
-        <v>0.330534</v>
+        <v>0.331607</v>
       </c>
     </row>
     <row r="27">
@@ -4603,16 +4603,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230873</v>
+        <v>0.232526</v>
       </c>
       <c r="C27" t="n">
-        <v>0.311967</v>
+        <v>0.339341</v>
       </c>
       <c r="D27" t="n">
-        <v>0.240881</v>
+        <v>0.241452</v>
       </c>
       <c r="E27" t="n">
-        <v>0.329461</v>
+        <v>0.328652</v>
       </c>
     </row>
     <row r="28">
@@ -4620,16 +4620,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225181</v>
+        <v>0.228311</v>
       </c>
       <c r="C28" t="n">
-        <v>0.311264</v>
+        <v>0.335263</v>
       </c>
       <c r="D28" t="n">
-        <v>0.240225</v>
+        <v>0.240484</v>
       </c>
       <c r="E28" t="n">
-        <v>0.328438</v>
+        <v>0.328139</v>
       </c>
     </row>
     <row r="29">
@@ -4637,16 +4637,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.221284</v>
+        <v>0.222825</v>
       </c>
       <c r="C29" t="n">
-        <v>0.312386</v>
+        <v>0.330655</v>
       </c>
       <c r="D29" t="n">
-        <v>0.240017</v>
+        <v>0.240055</v>
       </c>
       <c r="E29" t="n">
-        <v>0.327206</v>
+        <v>0.327354</v>
       </c>
     </row>
     <row r="30">
@@ -4654,16 +4654,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.217222</v>
+        <v>0.220068</v>
       </c>
       <c r="C30" t="n">
-        <v>0.312252</v>
+        <v>0.32675</v>
       </c>
       <c r="D30" t="n">
-        <v>0.239312</v>
+        <v>0.239163</v>
       </c>
       <c r="E30" t="n">
-        <v>0.326392</v>
+        <v>0.327396</v>
       </c>
     </row>
     <row r="31">
@@ -4671,16 +4671,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.213276</v>
+        <v>0.212416</v>
       </c>
       <c r="C31" t="n">
-        <v>0.313488</v>
+        <v>0.322109</v>
       </c>
       <c r="D31" t="n">
-        <v>0.238102</v>
+        <v>0.23821</v>
       </c>
       <c r="E31" t="n">
-        <v>0.325496</v>
+        <v>0.327153</v>
       </c>
     </row>
     <row r="32">
@@ -4688,16 +4688,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.207556</v>
+        <v>0.207165</v>
       </c>
       <c r="C32" t="n">
-        <v>0.313624</v>
+        <v>0.323672</v>
       </c>
       <c r="D32" t="n">
-        <v>0.237112</v>
+        <v>0.237385</v>
       </c>
       <c r="E32" t="n">
-        <v>0.324707</v>
+        <v>0.325528</v>
       </c>
     </row>
     <row r="33">
@@ -4705,16 +4705,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200594</v>
+        <v>0.20237</v>
       </c>
       <c r="C33" t="n">
-        <v>0.315147</v>
+        <v>0.313416</v>
       </c>
       <c r="D33" t="n">
-        <v>0.236534</v>
+        <v>0.236734</v>
       </c>
       <c r="E33" t="n">
-        <v>0.324186</v>
+        <v>0.32434</v>
       </c>
     </row>
     <row r="34">
@@ -4722,16 +4722,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193734</v>
+        <v>0.193978</v>
       </c>
       <c r="C34" t="n">
-        <v>0.316169</v>
+        <v>0.308914</v>
       </c>
       <c r="D34" t="n">
-        <v>0.235667</v>
+        <v>0.236291</v>
       </c>
       <c r="E34" t="n">
-        <v>0.322841</v>
+        <v>0.324433</v>
       </c>
     </row>
     <row r="35">
@@ -4739,16 +4739,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187</v>
+        <v>0.188017</v>
       </c>
       <c r="C35" t="n">
-        <v>0.313798</v>
+        <v>0.303624</v>
       </c>
       <c r="D35" t="n">
-        <v>0.235071</v>
+        <v>0.23523</v>
       </c>
       <c r="E35" t="n">
-        <v>0.321398</v>
+        <v>0.321806</v>
       </c>
     </row>
     <row r="36">
@@ -4756,16 +4756,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180223</v>
+        <v>0.178953</v>
       </c>
       <c r="C36" t="n">
-        <v>0.313589</v>
+        <v>0.289542</v>
       </c>
       <c r="D36" t="n">
-        <v>0.234563</v>
+        <v>0.23487</v>
       </c>
       <c r="E36" t="n">
-        <v>0.320292</v>
+        <v>0.321379</v>
       </c>
     </row>
     <row r="37">
@@ -4773,16 +4773,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169388</v>
+        <v>0.169355</v>
       </c>
       <c r="C37" t="n">
-        <v>0.31367</v>
+        <v>0.279981</v>
       </c>
       <c r="D37" t="n">
-        <v>0.24804</v>
+        <v>0.248165</v>
       </c>
       <c r="E37" t="n">
-        <v>0.33731</v>
+        <v>0.337881</v>
       </c>
     </row>
     <row r="38">
@@ -4790,16 +4790,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246272</v>
+        <v>0.250344</v>
       </c>
       <c r="C38" t="n">
-        <v>0.313682</v>
+        <v>0.36247</v>
       </c>
       <c r="D38" t="n">
-        <v>0.246224</v>
+        <v>0.246323</v>
       </c>
       <c r="E38" t="n">
-        <v>0.335475</v>
+        <v>0.33559</v>
       </c>
     </row>
     <row r="39">
@@ -4807,16 +4807,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.243009</v>
+        <v>0.244163</v>
       </c>
       <c r="C39" t="n">
-        <v>0.313725</v>
+        <v>0.359288</v>
       </c>
       <c r="D39" t="n">
-        <v>0.245391</v>
+        <v>0.245811</v>
       </c>
       <c r="E39" t="n">
-        <v>0.335448</v>
+        <v>0.334277</v>
       </c>
     </row>
     <row r="40">
@@ -4824,16 +4824,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239368</v>
+        <v>0.241427</v>
       </c>
       <c r="C40" t="n">
-        <v>0.313418</v>
+        <v>0.355833</v>
       </c>
       <c r="D40" t="n">
-        <v>0.244118</v>
+        <v>0.244274</v>
       </c>
       <c r="E40" t="n">
-        <v>0.334215</v>
+        <v>0.333765</v>
       </c>
     </row>
     <row r="41">
@@ -4841,16 +4841,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.235067</v>
+        <v>0.239479</v>
       </c>
       <c r="C41" t="n">
-        <v>0.313969</v>
+        <v>0.350357</v>
       </c>
       <c r="D41" t="n">
-        <v>0.243347</v>
+        <v>0.24332</v>
       </c>
       <c r="E41" t="n">
-        <v>0.332399</v>
+        <v>0.332494</v>
       </c>
     </row>
     <row r="42">
@@ -4858,16 +4858,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230917</v>
+        <v>0.235274</v>
       </c>
       <c r="C42" t="n">
-        <v>0.315029</v>
+        <v>0.34577</v>
       </c>
       <c r="D42" t="n">
-        <v>0.24172</v>
+        <v>0.241907</v>
       </c>
       <c r="E42" t="n">
-        <v>0.331038</v>
+        <v>0.331376</v>
       </c>
     </row>
     <row r="43">
@@ -4875,16 +4875,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.226566</v>
+        <v>0.227274</v>
       </c>
       <c r="C43" t="n">
-        <v>0.31455</v>
+        <v>0.34057</v>
       </c>
       <c r="D43" t="n">
-        <v>0.240717</v>
+        <v>0.240727</v>
       </c>
       <c r="E43" t="n">
-        <v>0.330112</v>
+        <v>0.330189</v>
       </c>
     </row>
     <row r="44">
@@ -4892,16 +4892,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220315</v>
+        <v>0.22443</v>
       </c>
       <c r="C44" t="n">
-        <v>0.316439</v>
+        <v>0.326075</v>
       </c>
       <c r="D44" t="n">
-        <v>0.23979</v>
+        <v>0.240137</v>
       </c>
       <c r="E44" t="n">
-        <v>0.329078</v>
+        <v>0.329539</v>
       </c>
     </row>
     <row r="45">
@@ -4909,16 +4909,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.21408</v>
+        <v>0.219255</v>
       </c>
       <c r="C45" t="n">
-        <v>0.316685</v>
+        <v>0.326447</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2389</v>
+        <v>0.239075</v>
       </c>
       <c r="E45" t="n">
-        <v>0.327968</v>
+        <v>0.327949</v>
       </c>
     </row>
     <row r="46">
@@ -4926,16 +4926,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.208862</v>
+        <v>0.210228</v>
       </c>
       <c r="C46" t="n">
-        <v>0.316925</v>
+        <v>0.319911</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2381</v>
+        <v>0.237932</v>
       </c>
       <c r="E46" t="n">
-        <v>0.327819</v>
+        <v>0.327211</v>
       </c>
     </row>
     <row r="47">
@@ -4943,16 +4943,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203168</v>
+        <v>0.206634</v>
       </c>
       <c r="C47" t="n">
-        <v>0.31782</v>
+        <v>0.31474</v>
       </c>
       <c r="D47" t="n">
-        <v>0.237382</v>
+        <v>0.237558</v>
       </c>
       <c r="E47" t="n">
-        <v>0.32633</v>
+        <v>0.326732</v>
       </c>
     </row>
     <row r="48">
@@ -4960,16 +4960,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197055</v>
+        <v>0.198394</v>
       </c>
       <c r="C48" t="n">
-        <v>0.319578</v>
+        <v>0.312434</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2363</v>
+        <v>0.236625</v>
       </c>
       <c r="E48" t="n">
-        <v>0.324736</v>
+        <v>0.325181</v>
       </c>
     </row>
     <row r="49">
@@ -4977,16 +4977,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189564</v>
+        <v>0.191626</v>
       </c>
       <c r="C49" t="n">
-        <v>0.320166</v>
+        <v>0.302301</v>
       </c>
       <c r="D49" t="n">
-        <v>0.235691</v>
+        <v>0.235688</v>
       </c>
       <c r="E49" t="n">
-        <v>0.324101</v>
+        <v>0.323274</v>
       </c>
     </row>
     <row r="50">
@@ -4994,16 +4994,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182264</v>
+        <v>0.182925</v>
       </c>
       <c r="C50" t="n">
-        <v>0.317837</v>
+        <v>0.296084</v>
       </c>
       <c r="D50" t="n">
-        <v>0.234904</v>
+        <v>0.23516</v>
       </c>
       <c r="E50" t="n">
-        <v>0.322997</v>
+        <v>0.322452</v>
       </c>
     </row>
     <row r="51">
@@ -5011,16 +5011,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173369</v>
+        <v>0.174346</v>
       </c>
       <c r="C51" t="n">
-        <v>0.319162</v>
+        <v>0.281406</v>
       </c>
       <c r="D51" t="n">
-        <v>0.249538</v>
+        <v>0.248996</v>
       </c>
       <c r="E51" t="n">
-        <v>0.338036</v>
+        <v>0.338098</v>
       </c>
     </row>
     <row r="52">
@@ -5028,16 +5028,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.162851</v>
+        <v>0.161074</v>
       </c>
       <c r="C52" t="n">
-        <v>0.319348</v>
+        <v>0.275586</v>
       </c>
       <c r="D52" t="n">
-        <v>0.247959</v>
+        <v>0.247816</v>
       </c>
       <c r="E52" t="n">
-        <v>0.336684</v>
+        <v>0.336685</v>
       </c>
     </row>
     <row r="53">
@@ -5045,16 +5045,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.245971</v>
+        <v>0.24731</v>
       </c>
       <c r="C53" t="n">
-        <v>0.319194</v>
+        <v>0.358708</v>
       </c>
       <c r="D53" t="n">
-        <v>0.246941</v>
+        <v>0.246891</v>
       </c>
       <c r="E53" t="n">
-        <v>0.335388</v>
+        <v>0.335877</v>
       </c>
     </row>
     <row r="54">
@@ -5062,16 +5062,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242326</v>
+        <v>0.243725</v>
       </c>
       <c r="C54" t="n">
-        <v>0.320377</v>
+        <v>0.356324</v>
       </c>
       <c r="D54" t="n">
-        <v>0.24535</v>
+        <v>0.245311</v>
       </c>
       <c r="E54" t="n">
-        <v>0.333653</v>
+        <v>0.33418</v>
       </c>
     </row>
     <row r="55">
@@ -5079,16 +5079,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.238194</v>
+        <v>0.239761</v>
       </c>
       <c r="C55" t="n">
-        <v>0.321153</v>
+        <v>0.354226</v>
       </c>
       <c r="D55" t="n">
-        <v>0.244077</v>
+        <v>0.244064</v>
       </c>
       <c r="E55" t="n">
-        <v>0.332453</v>
+        <v>0.333171</v>
       </c>
     </row>
     <row r="56">
@@ -5096,16 +5096,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233364</v>
+        <v>0.234622</v>
       </c>
       <c r="C56" t="n">
-        <v>0.321934</v>
+        <v>0.349293</v>
       </c>
       <c r="D56" t="n">
-        <v>0.242647</v>
+        <v>0.242663</v>
       </c>
       <c r="E56" t="n">
-        <v>0.330857</v>
+        <v>0.33078</v>
       </c>
     </row>
     <row r="57">
@@ -5113,16 +5113,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228192</v>
+        <v>0.229692</v>
       </c>
       <c r="C57" t="n">
-        <v>0.323482</v>
+        <v>0.344375</v>
       </c>
       <c r="D57" t="n">
-        <v>0.241284</v>
+        <v>0.24157</v>
       </c>
       <c r="E57" t="n">
-        <v>0.329468</v>
+        <v>0.329605</v>
       </c>
     </row>
     <row r="58">
@@ -5130,16 +5130,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222804</v>
+        <v>0.224324</v>
       </c>
       <c r="C58" t="n">
-        <v>0.324021</v>
+        <v>0.326066</v>
       </c>
       <c r="D58" t="n">
-        <v>0.240642</v>
+        <v>0.2405</v>
       </c>
       <c r="E58" t="n">
-        <v>0.328104</v>
+        <v>0.328408</v>
       </c>
     </row>
     <row r="59">
@@ -5147,16 +5147,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217251</v>
+        <v>0.21933</v>
       </c>
       <c r="C59" t="n">
-        <v>0.326245</v>
+        <v>0.322008</v>
       </c>
       <c r="D59" t="n">
-        <v>0.239578</v>
+        <v>0.239624</v>
       </c>
       <c r="E59" t="n">
-        <v>0.327273</v>
+        <v>0.328876</v>
       </c>
     </row>
     <row r="60">
@@ -5164,16 +5164,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211127</v>
+        <v>0.212759</v>
       </c>
       <c r="C60" t="n">
-        <v>0.327765</v>
+        <v>0.318842</v>
       </c>
       <c r="D60" t="n">
-        <v>0.238685</v>
+        <v>0.238811</v>
       </c>
       <c r="E60" t="n">
-        <v>0.326171</v>
+        <v>0.326573</v>
       </c>
     </row>
     <row r="61">
@@ -5181,16 +5181,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.205681</v>
+        <v>0.206835</v>
       </c>
       <c r="C61" t="n">
-        <v>0.330565</v>
+        <v>0.319255</v>
       </c>
       <c r="D61" t="n">
-        <v>0.237825</v>
+        <v>0.237929</v>
       </c>
       <c r="E61" t="n">
-        <v>0.325045</v>
+        <v>0.326845</v>
       </c>
     </row>
     <row r="62">
@@ -5198,16 +5198,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.199145</v>
+        <v>0.202699</v>
       </c>
       <c r="C62" t="n">
-        <v>0.333005</v>
+        <v>0.331506</v>
       </c>
       <c r="D62" t="n">
-        <v>0.237175</v>
+        <v>0.237292</v>
       </c>
       <c r="E62" t="n">
-        <v>0.324544</v>
+        <v>0.324917</v>
       </c>
     </row>
     <row r="63">
@@ -5215,16 +5215,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.192922</v>
+        <v>0.195315</v>
       </c>
       <c r="C63" t="n">
-        <v>0.334448</v>
+        <v>0.330142</v>
       </c>
       <c r="D63" t="n">
-        <v>0.236305</v>
+        <v>0.236279</v>
       </c>
       <c r="E63" t="n">
-        <v>0.323498</v>
+        <v>0.323908</v>
       </c>
     </row>
     <row r="64">
@@ -5232,16 +5232,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184878</v>
+        <v>0.185922</v>
       </c>
       <c r="C64" t="n">
-        <v>0.374994</v>
+        <v>0.324536</v>
       </c>
       <c r="D64" t="n">
-        <v>0.23539</v>
+        <v>0.235289</v>
       </c>
       <c r="E64" t="n">
-        <v>0.32245</v>
+        <v>0.324288</v>
       </c>
     </row>
     <row r="65">
@@ -5249,16 +5249,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176483</v>
+        <v>0.177787</v>
       </c>
       <c r="C65" t="n">
-        <v>0.375689</v>
+        <v>0.309289</v>
       </c>
       <c r="D65" t="n">
-        <v>0.234491</v>
+        <v>0.234634</v>
       </c>
       <c r="E65" t="n">
-        <v>0.321585</v>
+        <v>0.322559</v>
       </c>
     </row>
     <row r="66">
@@ -5266,16 +5266,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.165996</v>
+        <v>0.16551</v>
       </c>
       <c r="C66" t="n">
-        <v>0.377155</v>
+        <v>0.304914</v>
       </c>
       <c r="D66" t="n">
-        <v>0.249277</v>
+        <v>0.248982</v>
       </c>
       <c r="E66" t="n">
-        <v>0.338085</v>
+        <v>0.338525</v>
       </c>
     </row>
     <row r="67">
@@ -5283,16 +5283,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.248124</v>
+        <v>0.249008</v>
       </c>
       <c r="C67" t="n">
-        <v>0.378278</v>
+        <v>0.375213</v>
       </c>
       <c r="D67" t="n">
-        <v>0.247587</v>
+        <v>0.247659</v>
       </c>
       <c r="E67" t="n">
-        <v>0.336256</v>
+        <v>0.336422</v>
       </c>
     </row>
     <row r="68">
@@ -5300,16 +5300,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.244336</v>
+        <v>0.247377</v>
       </c>
       <c r="C68" t="n">
-        <v>0.378989</v>
+        <v>0.372193</v>
       </c>
       <c r="D68" t="n">
-        <v>0.246349</v>
+        <v>0.246092</v>
       </c>
       <c r="E68" t="n">
-        <v>0.335</v>
+        <v>0.335328</v>
       </c>
     </row>
     <row r="69">
@@ -5317,16 +5317,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239976</v>
+        <v>0.241205</v>
       </c>
       <c r="C69" t="n">
-        <v>0.377526</v>
+        <v>0.369229</v>
       </c>
       <c r="D69" t="n">
-        <v>0.244867</v>
+        <v>0.244616</v>
       </c>
       <c r="E69" t="n">
-        <v>0.333841</v>
+        <v>0.334082</v>
       </c>
     </row>
     <row r="70">
@@ -5334,16 +5334,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235072</v>
+        <v>0.236655</v>
       </c>
       <c r="C70" t="n">
-        <v>0.379146</v>
+        <v>0.364097</v>
       </c>
       <c r="D70" t="n">
-        <v>0.243497</v>
+        <v>0.243562</v>
       </c>
       <c r="E70" t="n">
-        <v>0.33186</v>
+        <v>0.333132</v>
       </c>
     </row>
     <row r="71">
@@ -5351,16 +5351,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230155</v>
+        <v>0.232317</v>
       </c>
       <c r="C71" t="n">
-        <v>0.377963</v>
+        <v>0.357539</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2426</v>
+        <v>0.242366</v>
       </c>
       <c r="E71" t="n">
-        <v>0.330862</v>
+        <v>0.331502</v>
       </c>
     </row>
     <row r="72">
@@ -5368,16 +5368,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.224998</v>
+        <v>0.228471</v>
       </c>
       <c r="C72" t="n">
-        <v>0.380956</v>
+        <v>0.469899</v>
       </c>
       <c r="D72" t="n">
-        <v>0.241329</v>
+        <v>0.241265</v>
       </c>
       <c r="E72" t="n">
-        <v>0.330189</v>
+        <v>0.329372</v>
       </c>
     </row>
     <row r="73">
@@ -5385,16 +5385,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.21929</v>
+        <v>0.222713</v>
       </c>
       <c r="C73" t="n">
-        <v>0.380334</v>
+        <v>0.40457</v>
       </c>
       <c r="D73" t="n">
-        <v>0.240344</v>
+        <v>0.24028</v>
       </c>
       <c r="E73" t="n">
-        <v>0.328753</v>
+        <v>0.327883</v>
       </c>
     </row>
     <row r="74">
@@ -5402,16 +5402,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213777</v>
+        <v>0.214428</v>
       </c>
       <c r="C74" t="n">
-        <v>0.380134</v>
+        <v>0.465629</v>
       </c>
       <c r="D74" t="n">
-        <v>0.239368</v>
+        <v>0.239464</v>
       </c>
       <c r="E74" t="n">
-        <v>0.328031</v>
+        <v>0.328389</v>
       </c>
     </row>
     <row r="75">
@@ -5419,16 +5419,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.20753</v>
+        <v>0.210668</v>
       </c>
       <c r="C75" t="n">
-        <v>0.380467</v>
+        <v>0.416585</v>
       </c>
       <c r="D75" t="n">
-        <v>0.238312</v>
+        <v>0.238378</v>
       </c>
       <c r="E75" t="n">
-        <v>0.327012</v>
+        <v>0.327215</v>
       </c>
     </row>
     <row r="76">
@@ -5436,16 +5436,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.201662</v>
+        <v>0.204366</v>
       </c>
       <c r="C76" t="n">
-        <v>0.380913</v>
+        <v>0.391846</v>
       </c>
       <c r="D76" t="n">
-        <v>0.237631</v>
+        <v>0.237451</v>
       </c>
       <c r="E76" t="n">
-        <v>0.326082</v>
+        <v>0.326172</v>
       </c>
     </row>
     <row r="77">
@@ -5453,16 +5453,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19464</v>
+        <v>0.194943</v>
       </c>
       <c r="C77" t="n">
-        <v>0.382438</v>
+        <v>0.398969</v>
       </c>
       <c r="D77" t="n">
-        <v>0.23666</v>
+        <v>0.236521</v>
       </c>
       <c r="E77" t="n">
-        <v>0.32547</v>
+        <v>0.325328</v>
       </c>
     </row>
     <row r="78">
@@ -5470,16 +5470,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.187468</v>
+        <v>0.187507</v>
       </c>
       <c r="C78" t="n">
-        <v>0.43985</v>
+        <v>0.396822</v>
       </c>
       <c r="D78" t="n">
-        <v>0.236097</v>
+        <v>0.23594</v>
       </c>
       <c r="E78" t="n">
-        <v>0.324265</v>
+        <v>0.322922</v>
       </c>
     </row>
     <row r="79">
@@ -5487,16 +5487,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179296</v>
+        <v>0.178733</v>
       </c>
       <c r="C79" t="n">
-        <v>0.433646</v>
+        <v>0.367471</v>
       </c>
       <c r="D79" t="n">
-        <v>0.235215</v>
+        <v>0.235267</v>
       </c>
       <c r="E79" t="n">
-        <v>0.323486</v>
+        <v>0.323773</v>
       </c>
     </row>
     <row r="80">
@@ -5504,16 +5504,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.168798</v>
+        <v>0.168276</v>
       </c>
       <c r="C80" t="n">
-        <v>0.428332</v>
+        <v>0.334081</v>
       </c>
       <c r="D80" t="n">
-        <v>0.251366</v>
+        <v>0.251996</v>
       </c>
       <c r="E80" t="n">
-        <v>0.336922</v>
+        <v>0.337903</v>
       </c>
     </row>
     <row r="81">
@@ -5521,16 +5521,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248836</v>
+        <v>0.252342</v>
       </c>
       <c r="C81" t="n">
-        <v>0.428527</v>
+        <v>0.377349</v>
       </c>
       <c r="D81" t="n">
-        <v>0.249508</v>
+        <v>0.249758</v>
       </c>
       <c r="E81" t="n">
-        <v>0.335421</v>
+        <v>0.335997</v>
       </c>
     </row>
     <row r="82">
@@ -5538,16 +5538,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245477</v>
+        <v>0.246639</v>
       </c>
       <c r="C82" t="n">
-        <v>0.424076</v>
+        <v>0.364167</v>
       </c>
       <c r="D82" t="n">
-        <v>0.247249</v>
+        <v>0.247958</v>
       </c>
       <c r="E82" t="n">
-        <v>0.334489</v>
+        <v>0.334899</v>
       </c>
     </row>
     <row r="83">
@@ -5555,16 +5555,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241042</v>
+        <v>0.245519</v>
       </c>
       <c r="C83" t="n">
-        <v>0.417833</v>
+        <v>0.359394</v>
       </c>
       <c r="D83" t="n">
-        <v>0.246339</v>
+        <v>0.246389</v>
       </c>
       <c r="E83" t="n">
-        <v>0.332867</v>
+        <v>0.334235</v>
       </c>
     </row>
     <row r="84">
@@ -5572,16 +5572,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236341</v>
+        <v>0.237588</v>
       </c>
       <c r="C84" t="n">
-        <v>0.415994</v>
+        <v>0.353756</v>
       </c>
       <c r="D84" t="n">
-        <v>0.244503</v>
+        <v>0.244812</v>
       </c>
       <c r="E84" t="n">
-        <v>0.331474</v>
+        <v>0.331829</v>
       </c>
     </row>
     <row r="85">
@@ -5589,16 +5589,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231535</v>
+        <v>0.232717</v>
       </c>
       <c r="C85" t="n">
-        <v>0.410738</v>
+        <v>0.348723</v>
       </c>
       <c r="D85" t="n">
-        <v>0.243594</v>
+        <v>0.243768</v>
       </c>
       <c r="E85" t="n">
-        <v>0.330304</v>
+        <v>0.330552</v>
       </c>
     </row>
     <row r="86">
@@ -5606,16 +5606,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226311</v>
+        <v>0.227476</v>
       </c>
       <c r="C86" t="n">
-        <v>0.409431</v>
+        <v>0.342601</v>
       </c>
       <c r="D86" t="n">
-        <v>0.24227</v>
+        <v>0.242489</v>
       </c>
       <c r="E86" t="n">
-        <v>0.329167</v>
+        <v>0.329498</v>
       </c>
     </row>
     <row r="87">
@@ -5623,16 +5623,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220519</v>
+        <v>0.221631</v>
       </c>
       <c r="C87" t="n">
-        <v>0.406267</v>
+        <v>0.416942</v>
       </c>
       <c r="D87" t="n">
-        <v>0.240836</v>
+        <v>0.240906</v>
       </c>
       <c r="E87" t="n">
-        <v>0.327786</v>
+        <v>0.328056</v>
       </c>
     </row>
     <row r="88">
@@ -5640,16 +5640,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.21499</v>
+        <v>0.215994</v>
       </c>
       <c r="C88" t="n">
-        <v>0.403007</v>
+        <v>0.467258</v>
       </c>
       <c r="D88" t="n">
-        <v>0.239635</v>
+        <v>0.239633</v>
       </c>
       <c r="E88" t="n">
-        <v>0.326752</v>
+        <v>0.32844</v>
       </c>
     </row>
     <row r="89">
@@ -5657,16 +5657,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.208957</v>
+        <v>0.21256</v>
       </c>
       <c r="C89" t="n">
-        <v>0.400497</v>
+        <v>0.419551</v>
       </c>
       <c r="D89" t="n">
-        <v>0.238784</v>
+        <v>0.238601</v>
       </c>
       <c r="E89" t="n">
-        <v>0.325669</v>
+        <v>0.327409</v>
       </c>
     </row>
     <row r="90">
@@ -5674,16 +5674,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.203114</v>
+        <v>0.203803</v>
       </c>
       <c r="C90" t="n">
-        <v>0.401893</v>
+        <v>0.428939</v>
       </c>
       <c r="D90" t="n">
-        <v>0.237844</v>
+        <v>0.237835</v>
       </c>
       <c r="E90" t="n">
-        <v>0.324718</v>
+        <v>0.325012</v>
       </c>
     </row>
     <row r="91">
@@ -5691,16 +5691,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196592</v>
+        <v>0.196899</v>
       </c>
       <c r="C91" t="n">
-        <v>0.396707</v>
+        <v>0.371663</v>
       </c>
       <c r="D91" t="n">
-        <v>0.237015</v>
+        <v>0.237014</v>
       </c>
       <c r="E91" t="n">
-        <v>0.323769</v>
+        <v>0.325351</v>
       </c>
     </row>
     <row r="92">
@@ -5708,16 +5708,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189206</v>
+        <v>0.191408</v>
       </c>
       <c r="C92" t="n">
-        <v>0.442941</v>
+        <v>0.315236</v>
       </c>
       <c r="D92" t="n">
-        <v>0.236173</v>
+        <v>0.2362</v>
       </c>
       <c r="E92" t="n">
-        <v>0.322936</v>
+        <v>0.324454</v>
       </c>
     </row>
     <row r="93">
@@ -5725,16 +5725,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181171</v>
+        <v>0.180913</v>
       </c>
       <c r="C93" t="n">
-        <v>0.439997</v>
+        <v>0.347716</v>
       </c>
       <c r="D93" t="n">
-        <v>0.235492</v>
+        <v>0.235447</v>
       </c>
       <c r="E93" t="n">
-        <v>0.322489</v>
+        <v>0.322671</v>
       </c>
     </row>
     <row r="94">
@@ -5742,16 +5742,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.171691</v>
+        <v>0.172349</v>
       </c>
       <c r="C94" t="n">
-        <v>0.435025</v>
+        <v>0.360607</v>
       </c>
       <c r="D94" t="n">
-        <v>0.252424</v>
+        <v>0.25202</v>
       </c>
       <c r="E94" t="n">
-        <v>0.338112</v>
+        <v>0.341009</v>
       </c>
     </row>
     <row r="95">
@@ -5759,16 +5759,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249649</v>
+        <v>0.252857</v>
       </c>
       <c r="C95" t="n">
-        <v>0.43313</v>
+        <v>0.489885</v>
       </c>
       <c r="D95" t="n">
-        <v>0.250274</v>
+        <v>0.249702</v>
       </c>
       <c r="E95" t="n">
-        <v>0.337559</v>
+        <v>0.34029</v>
       </c>
     </row>
     <row r="96">
@@ -5776,16 +5776,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.246084</v>
+        <v>0.247121</v>
       </c>
       <c r="C96" t="n">
-        <v>0.427564</v>
+        <v>0.453042</v>
       </c>
       <c r="D96" t="n">
-        <v>0.248383</v>
+        <v>0.248296</v>
       </c>
       <c r="E96" t="n">
-        <v>0.337675</v>
+        <v>0.337974</v>
       </c>
     </row>
     <row r="97">
@@ -5793,16 +5793,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242075</v>
+        <v>0.245654</v>
       </c>
       <c r="C97" t="n">
-        <v>0.418962</v>
+        <v>0.353717</v>
       </c>
       <c r="D97" t="n">
-        <v>0.246772</v>
+        <v>0.246681</v>
       </c>
       <c r="E97" t="n">
-        <v>0.335255</v>
+        <v>0.334165</v>
       </c>
     </row>
     <row r="98">
@@ -5810,16 +5810,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237239</v>
+        <v>0.240983</v>
       </c>
       <c r="C98" t="n">
-        <v>0.413475</v>
+        <v>0.348302</v>
       </c>
       <c r="D98" t="n">
-        <v>0.245271</v>
+        <v>0.245318</v>
       </c>
       <c r="E98" t="n">
-        <v>0.33217</v>
+        <v>0.333597</v>
       </c>
     </row>
     <row r="99">
@@ -5827,16 +5827,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.232248</v>
+        <v>0.236325</v>
       </c>
       <c r="C99" t="n">
-        <v>0.413216</v>
+        <v>0.342676</v>
       </c>
       <c r="D99" t="n">
-        <v>0.243848</v>
+        <v>0.244124</v>
       </c>
       <c r="E99" t="n">
-        <v>0.330973</v>
+        <v>0.332254</v>
       </c>
     </row>
     <row r="100">
@@ -5844,16 +5844,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.227161</v>
+        <v>0.231065</v>
       </c>
       <c r="C100" t="n">
-        <v>0.409879</v>
+        <v>0.337693</v>
       </c>
       <c r="D100" t="n">
-        <v>0.242493</v>
+        <v>0.242264</v>
       </c>
       <c r="E100" t="n">
-        <v>0.329904</v>
+        <v>0.331195</v>
       </c>
     </row>
     <row r="101">
@@ -5861,16 +5861,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.221602</v>
+        <v>0.223086</v>
       </c>
       <c r="C101" t="n">
-        <v>0.402808</v>
+        <v>0.405271</v>
       </c>
       <c r="D101" t="n">
-        <v>0.241208</v>
+        <v>0.241302</v>
       </c>
       <c r="E101" t="n">
-        <v>0.329084</v>
+        <v>0.330235</v>
       </c>
     </row>
     <row r="102">
@@ -5878,16 +5878,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.216278</v>
+        <v>0.21745</v>
       </c>
       <c r="C102" t="n">
-        <v>0.398263</v>
+        <v>0.447769</v>
       </c>
       <c r="D102" t="n">
-        <v>0.240303</v>
+        <v>0.240182</v>
       </c>
       <c r="E102" t="n">
-        <v>0.32793</v>
+        <v>0.327646</v>
       </c>
     </row>
     <row r="103">
@@ -5895,16 +5895,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.210123</v>
+        <v>0.211691</v>
       </c>
       <c r="C103" t="n">
-        <v>0.39695</v>
+        <v>0.430119</v>
       </c>
       <c r="D103" t="n">
-        <v>0.238875</v>
+        <v>0.238903</v>
       </c>
       <c r="E103" t="n">
-        <v>0.327406</v>
+        <v>0.328291</v>
       </c>
     </row>
     <row r="104">
@@ -5912,16 +5912,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204383</v>
+        <v>0.207795</v>
       </c>
       <c r="C104" t="n">
-        <v>0.394875</v>
+        <v>0.458898</v>
       </c>
       <c r="D104" t="n">
-        <v>0.238332</v>
+        <v>0.238285</v>
       </c>
       <c r="E104" t="n">
-        <v>0.325914</v>
+        <v>0.325589</v>
       </c>
     </row>
     <row r="105">
@@ -5929,16 +5929,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.198213</v>
+        <v>0.198936</v>
       </c>
       <c r="C105" t="n">
-        <v>0.391712</v>
+        <v>0.430434</v>
       </c>
       <c r="D105" t="n">
-        <v>0.237471</v>
+        <v>0.237814</v>
       </c>
       <c r="E105" t="n">
-        <v>0.325166</v>
+        <v>0.326209</v>
       </c>
     </row>
     <row r="106">
@@ -5946,16 +5946,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191581</v>
+        <v>0.191153</v>
       </c>
       <c r="C106" t="n">
-        <v>0.386709</v>
+        <v>0.387681</v>
       </c>
       <c r="D106" t="n">
-        <v>0.236675</v>
+        <v>0.236947</v>
       </c>
       <c r="E106" t="n">
-        <v>0.324318</v>
+        <v>0.323768</v>
       </c>
     </row>
     <row r="107">
@@ -5963,16 +5963,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183373</v>
+        <v>0.183678</v>
       </c>
       <c r="C107" t="n">
-        <v>0.418127</v>
+        <v>0.37713</v>
       </c>
       <c r="D107" t="n">
-        <v>0.235889</v>
+        <v>0.236166</v>
       </c>
       <c r="E107" t="n">
-        <v>0.323077</v>
+        <v>0.322817</v>
       </c>
     </row>
     <row r="108">
@@ -5980,16 +5980,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174635</v>
+        <v>0.1736</v>
       </c>
       <c r="C108" t="n">
-        <v>0.414899</v>
+        <v>0.393916</v>
       </c>
       <c r="D108" t="n">
-        <v>0.252425</v>
+        <v>0.252721</v>
       </c>
       <c r="E108" t="n">
-        <v>0.337927</v>
+        <v>0.33934</v>
       </c>
     </row>
     <row r="109">
@@ -5997,16 +5997,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.162719</v>
+        <v>0.162519</v>
       </c>
       <c r="C109" t="n">
-        <v>0.409776</v>
+        <v>0.341319</v>
       </c>
       <c r="D109" t="n">
-        <v>0.250077</v>
+        <v>0.249987</v>
       </c>
       <c r="E109" t="n">
-        <v>0.335918</v>
+        <v>0.338058</v>
       </c>
     </row>
     <row r="110">
@@ -6014,16 +6014,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.246644</v>
+        <v>0.248197</v>
       </c>
       <c r="C110" t="n">
-        <v>0.406034</v>
+        <v>0.517867</v>
       </c>
       <c r="D110" t="n">
-        <v>0.248073</v>
+        <v>0.248286</v>
       </c>
       <c r="E110" t="n">
-        <v>0.33438</v>
+        <v>0.335595</v>
       </c>
     </row>
     <row r="111">
@@ -6031,16 +6031,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.242734</v>
+        <v>0.244166</v>
       </c>
       <c r="C111" t="n">
-        <v>0.402596</v>
+        <v>0.517933</v>
       </c>
       <c r="D111" t="n">
-        <v>0.24648</v>
+        <v>0.24655</v>
       </c>
       <c r="E111" t="n">
-        <v>0.333275</v>
+        <v>0.334336</v>
       </c>
     </row>
     <row r="112">
@@ -6048,16 +6048,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238258</v>
+        <v>0.239765</v>
       </c>
       <c r="C112" t="n">
-        <v>0.398193</v>
+        <v>0.511166</v>
       </c>
       <c r="D112" t="n">
-        <v>0.244961</v>
+        <v>0.245073</v>
       </c>
       <c r="E112" t="n">
-        <v>0.332015</v>
+        <v>0.333077</v>
       </c>
     </row>
     <row r="113">
@@ -6065,16 +6065,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.233389</v>
+        <v>0.235003</v>
       </c>
       <c r="C113" t="n">
-        <v>0.395622</v>
+        <v>0.502051</v>
       </c>
       <c r="D113" t="n">
-        <v>0.243489</v>
+        <v>0.243795</v>
       </c>
       <c r="E113" t="n">
-        <v>0.330662</v>
+        <v>0.331839</v>
       </c>
     </row>
     <row r="114">
@@ -6082,16 +6082,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.228208</v>
+        <v>0.229779</v>
       </c>
       <c r="C114" t="n">
-        <v>0.391229</v>
+        <v>0.492974</v>
       </c>
       <c r="D114" t="n">
-        <v>0.242561</v>
+        <v>0.242416</v>
       </c>
       <c r="E114" t="n">
-        <v>0.329403</v>
+        <v>0.330838</v>
       </c>
     </row>
     <row r="115">
@@ -6099,16 +6099,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.222799</v>
+        <v>0.225607</v>
       </c>
       <c r="C115" t="n">
-        <v>0.390929</v>
+        <v>0.393146</v>
       </c>
       <c r="D115" t="n">
-        <v>0.241382</v>
+        <v>0.241472</v>
       </c>
       <c r="E115" t="n">
-        <v>0.327986</v>
+        <v>0.329066</v>
       </c>
     </row>
     <row r="116">
@@ -6116,16 +6116,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217241</v>
+        <v>0.218691</v>
       </c>
       <c r="C116" t="n">
-        <v>0.386914</v>
+        <v>0.419728</v>
       </c>
       <c r="D116" t="n">
-        <v>0.240242</v>
+        <v>0.24012</v>
       </c>
       <c r="E116" t="n">
-        <v>0.326924</v>
+        <v>0.329205</v>
       </c>
     </row>
     <row r="117">
@@ -6133,16 +6133,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.211759</v>
+        <v>0.213035</v>
       </c>
       <c r="C117" t="n">
-        <v>0.383697</v>
+        <v>0.420815</v>
       </c>
       <c r="D117" t="n">
-        <v>0.2394</v>
+        <v>0.239432</v>
       </c>
       <c r="E117" t="n">
-        <v>0.325816</v>
+        <v>0.328068</v>
       </c>
     </row>
     <row r="118">
@@ -6150,16 +6150,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.205882</v>
+        <v>0.208842</v>
       </c>
       <c r="C118" t="n">
-        <v>0.381697</v>
+        <v>0.398303</v>
       </c>
       <c r="D118" t="n">
-        <v>0.23842</v>
+        <v>0.23861</v>
       </c>
       <c r="E118" t="n">
-        <v>0.324886</v>
+        <v>0.327206</v>
       </c>
     </row>
     <row r="119">
@@ -6167,16 +6167,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.199195</v>
+        <v>0.202162</v>
       </c>
       <c r="C119" t="n">
-        <v>0.379312</v>
+        <v>0.420918</v>
       </c>
       <c r="D119" t="n">
-        <v>0.237483</v>
+        <v>0.23761</v>
       </c>
       <c r="E119" t="n">
-        <v>0.323923</v>
+        <v>0.324895</v>
       </c>
     </row>
     <row r="120">
@@ -6184,16 +6184,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.192586</v>
+        <v>0.192998</v>
       </c>
       <c r="C120" t="n">
-        <v>0.37733</v>
+        <v>0.417946</v>
       </c>
       <c r="D120" t="n">
-        <v>0.236609</v>
+        <v>0.236732</v>
       </c>
       <c r="E120" t="n">
-        <v>0.323271</v>
+        <v>0.324886</v>
       </c>
     </row>
     <row r="121">
@@ -6201,16 +6201,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.184821</v>
+        <v>0.184322</v>
       </c>
       <c r="C121" t="n">
-        <v>0.443351</v>
+        <v>0.419292</v>
       </c>
       <c r="D121" t="n">
-        <v>0.236028</v>
+        <v>0.236052</v>
       </c>
       <c r="E121" t="n">
-        <v>0.32225</v>
+        <v>0.323968</v>
       </c>
     </row>
     <row r="122">
@@ -6218,16 +6218,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.17762</v>
+        <v>0.175018</v>
       </c>
       <c r="C122" t="n">
-        <v>0.438857</v>
+        <v>0.423938</v>
       </c>
       <c r="D122" t="n">
-        <v>0.235214</v>
+        <v>0.235345</v>
       </c>
       <c r="E122" t="n">
-        <v>0.32153</v>
+        <v>0.323196</v>
       </c>
     </row>
     <row r="123">
@@ -6235,16 +6235,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.166475</v>
+        <v>0.165562</v>
       </c>
       <c r="C123" t="n">
-        <v>0.433153</v>
+        <v>0.311797</v>
       </c>
       <c r="D123" t="n">
-        <v>0.250503</v>
+        <v>0.250591</v>
       </c>
       <c r="E123" t="n">
-        <v>0.336464</v>
+        <v>0.337633</v>
       </c>
     </row>
     <row r="124">
@@ -6252,16 +6252,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.247499</v>
+        <v>0.249107</v>
       </c>
       <c r="C124" t="n">
-        <v>0.428766</v>
+        <v>0.525594</v>
       </c>
       <c r="D124" t="n">
-        <v>0.248421</v>
+        <v>0.248549</v>
       </c>
       <c r="E124" t="n">
-        <v>0.334622</v>
+        <v>0.335959</v>
       </c>
     </row>
     <row r="125">
@@ -6269,16 +6269,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.243763</v>
+        <v>0.245258</v>
       </c>
       <c r="C125" t="n">
-        <v>0.425777</v>
+        <v>0.493223</v>
       </c>
       <c r="D125" t="n">
-        <v>0.246723</v>
+        <v>0.246826</v>
       </c>
       <c r="E125" t="n">
-        <v>0.334208</v>
+        <v>0.334535</v>
       </c>
     </row>
     <row r="126">
@@ -6286,16 +6286,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.239332</v>
+        <v>0.240718</v>
       </c>
       <c r="C126" t="n">
-        <v>0.419522</v>
+        <v>0.501182</v>
       </c>
       <c r="D126" t="n">
-        <v>0.245234</v>
+        <v>0.245313</v>
       </c>
       <c r="E126" t="n">
-        <v>0.332841</v>
+        <v>0.333433</v>
       </c>
     </row>
     <row r="127">
@@ -6303,16 +6303,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.234525</v>
+        <v>0.238433</v>
       </c>
       <c r="C127" t="n">
-        <v>0.413325</v>
+        <v>0.500997</v>
       </c>
       <c r="D127" t="n">
-        <v>0.243944</v>
+        <v>0.244064</v>
       </c>
       <c r="E127" t="n">
-        <v>0.330939</v>
+        <v>0.3318</v>
       </c>
     </row>
     <row r="128">
@@ -6320,16 +6320,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.229408</v>
+        <v>0.230755</v>
       </c>
       <c r="C128" t="n">
-        <v>0.40986</v>
+        <v>0.469117</v>
       </c>
       <c r="D128" t="n">
-        <v>0.242513</v>
+        <v>0.242675</v>
       </c>
       <c r="E128" t="n">
-        <v>0.329845</v>
+        <v>0.331104</v>
       </c>
     </row>
     <row r="129">
@@ -6337,16 +6337,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224023</v>
+        <v>0.227993</v>
       </c>
       <c r="C129" t="n">
-        <v>0.404833</v>
+        <v>0.375498</v>
       </c>
       <c r="D129" t="n">
-        <v>0.24147</v>
+        <v>0.24135</v>
       </c>
       <c r="E129" t="n">
-        <v>0.329531</v>
+        <v>0.329997</v>
       </c>
     </row>
     <row r="130">
@@ -6354,16 +6354,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.218439</v>
+        <v>0.219838</v>
       </c>
       <c r="C130" t="n">
-        <v>0.399663</v>
+        <v>0.398975</v>
       </c>
       <c r="D130" t="n">
-        <v>0.240411</v>
+        <v>0.240529</v>
       </c>
       <c r="E130" t="n">
-        <v>0.328474</v>
+        <v>0.328856</v>
       </c>
     </row>
     <row r="131">
@@ -6371,16 +6371,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.212802</v>
+        <v>0.213744</v>
       </c>
       <c r="C131" t="n">
-        <v>0.397039</v>
+        <v>0.388376</v>
       </c>
       <c r="D131" t="n">
-        <v>0.239474</v>
+        <v>0.239499</v>
       </c>
       <c r="E131" t="n">
-        <v>0.32741</v>
+        <v>0.32698</v>
       </c>
     </row>
     <row r="132">
@@ -6388,16 +6388,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.206773</v>
+        <v>0.210175</v>
       </c>
       <c r="C132" t="n">
-        <v>0.393542</v>
+        <v>0.409701</v>
       </c>
       <c r="D132" t="n">
-        <v>0.238525</v>
+        <v>0.238406</v>
       </c>
       <c r="E132" t="n">
-        <v>0.32648</v>
+        <v>0.326777</v>
       </c>
     </row>
     <row r="133">
@@ -6405,16 +6405,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.200797</v>
+        <v>0.203605</v>
       </c>
       <c r="C133" t="n">
-        <v>0.390182</v>
+        <v>0.426864</v>
       </c>
       <c r="D133" t="n">
-        <v>0.237635</v>
+        <v>0.237614</v>
       </c>
       <c r="E133" t="n">
-        <v>0.325418</v>
+        <v>0.325841</v>
       </c>
     </row>
     <row r="134">
@@ -6422,16 +6422,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194285</v>
+        <v>0.196418</v>
       </c>
       <c r="C134" t="n">
-        <v>0.388107</v>
+        <v>0.373024</v>
       </c>
       <c r="D134" t="n">
-        <v>0.236791</v>
+        <v>0.236879</v>
       </c>
       <c r="E134" t="n">
-        <v>0.324546</v>
+        <v>0.323727</v>
       </c>
     </row>
     <row r="135">
@@ -6439,16 +6439,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.186763</v>
+        <v>0.18702</v>
       </c>
       <c r="C135" t="n">
-        <v>0.454295</v>
+        <v>0.419218</v>
       </c>
       <c r="D135" t="n">
-        <v>0.236044</v>
+        <v>0.236196</v>
       </c>
       <c r="E135" t="n">
-        <v>0.323749</v>
+        <v>0.32454</v>
       </c>
     </row>
     <row r="136">
@@ -6456,16 +6456,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.17829</v>
+        <v>0.177319</v>
       </c>
       <c r="C136" t="n">
-        <v>0.448486</v>
+        <v>0.345137</v>
       </c>
       <c r="D136" t="n">
-        <v>0.235282</v>
+        <v>0.235523</v>
       </c>
       <c r="E136" t="n">
-        <v>0.322916</v>
+        <v>0.322347</v>
       </c>
     </row>
     <row r="137">
@@ -6473,16 +6473,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168841</v>
+        <v>0.168019</v>
       </c>
       <c r="C137" t="n">
-        <v>0.439232</v>
+        <v>0.370627</v>
       </c>
       <c r="D137" t="n">
-        <v>0.250782</v>
+        <v>0.250939</v>
       </c>
       <c r="E137" t="n">
-        <v>0.33668</v>
+        <v>0.337748</v>
       </c>
     </row>
     <row r="138">
@@ -6490,16 +6490,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.249551</v>
+        <v>0.249791</v>
       </c>
       <c r="C138" t="n">
-        <v>0.435258</v>
+        <v>0.483918</v>
       </c>
       <c r="D138" t="n">
-        <v>0.248811</v>
+        <v>0.249015</v>
       </c>
       <c r="E138" t="n">
-        <v>0.335956</v>
+        <v>0.336163</v>
       </c>
     </row>
     <row r="139">
@@ -6507,16 +6507,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244506</v>
+        <v>0.248174</v>
       </c>
       <c r="C139" t="n">
-        <v>0.428446</v>
+        <v>0.463898</v>
       </c>
       <c r="D139" t="n">
-        <v>0.247029</v>
+        <v>0.24719</v>
       </c>
       <c r="E139" t="n">
-        <v>0.333652</v>
+        <v>0.335625</v>
       </c>
     </row>
     <row r="140">
@@ -6524,16 +6524,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240297</v>
+        <v>0.241897</v>
       </c>
       <c r="C140" t="n">
-        <v>0.424077</v>
+        <v>0.488321</v>
       </c>
       <c r="D140" t="n">
-        <v>0.245535</v>
+        <v>0.245698</v>
       </c>
       <c r="E140" t="n">
-        <v>0.332926</v>
+        <v>0.333512</v>
       </c>
     </row>
     <row r="141">
@@ -6541,16 +6541,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.237251</v>
+        <v>0.237081</v>
       </c>
       <c r="C141" t="n">
-        <v>0.418584</v>
+        <v>0.401473</v>
       </c>
       <c r="D141" t="n">
-        <v>0.244157</v>
+        <v>0.244259</v>
       </c>
       <c r="E141" t="n">
-        <v>0.331551</v>
+        <v>0.332955</v>
       </c>
     </row>
     <row r="142">
@@ -6558,16 +6558,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.232139</v>
+        <v>0.232168</v>
       </c>
       <c r="C142" t="n">
-        <v>0.41389</v>
+        <v>0.359505</v>
       </c>
       <c r="D142" t="n">
-        <v>0.242877</v>
+        <v>0.242931</v>
       </c>
       <c r="E142" t="n">
-        <v>0.330248</v>
+        <v>0.331765</v>
       </c>
     </row>
     <row r="143">
@@ -6575,16 +6575,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.22696</v>
+        <v>0.229085</v>
       </c>
       <c r="C143" t="n">
-        <v>0.408366</v>
+        <v>0.327471</v>
       </c>
       <c r="D143" t="n">
-        <v>0.241658</v>
+        <v>0.241763</v>
       </c>
       <c r="E143" t="n">
-        <v>0.329081</v>
+        <v>0.329194</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -4178,16 +4178,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.194782</v>
+        <v>0.190899</v>
       </c>
       <c r="C2" t="n">
-        <v>0.30603</v>
+        <v>0.307311</v>
       </c>
       <c r="D2" t="n">
-        <v>0.208308</v>
+        <v>0.207469</v>
       </c>
       <c r="E2" t="n">
-        <v>0.314915</v>
+        <v>0.314375</v>
       </c>
     </row>
     <row r="3">
@@ -4195,16 +4195,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.189989</v>
+        <v>0.188465</v>
       </c>
       <c r="C3" t="n">
-        <v>0.307166</v>
+        <v>0.30819</v>
       </c>
       <c r="D3" t="n">
-        <v>0.211993</v>
+        <v>0.213023</v>
       </c>
       <c r="E3" t="n">
-        <v>0.315924</v>
+        <v>0.315926</v>
       </c>
     </row>
     <row r="4">
@@ -4212,16 +4212,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.183284</v>
+        <v>0.182256</v>
       </c>
       <c r="C4" t="n">
-        <v>0.308505</v>
+        <v>0.308194</v>
       </c>
       <c r="D4" t="n">
-        <v>0.213669</v>
+        <v>0.21249</v>
       </c>
       <c r="E4" t="n">
-        <v>0.315186</v>
+        <v>0.314862</v>
       </c>
     </row>
     <row r="5">
@@ -4229,16 +4229,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.180356</v>
+        <v>0.179193</v>
       </c>
       <c r="C5" t="n">
-        <v>0.309114</v>
+        <v>0.309428</v>
       </c>
       <c r="D5" t="n">
-        <v>0.215109</v>
+        <v>0.216126</v>
       </c>
       <c r="E5" t="n">
-        <v>0.314479</v>
+        <v>0.314518</v>
       </c>
     </row>
     <row r="6">
@@ -4246,16 +4246,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.174314</v>
+        <v>0.17385</v>
       </c>
       <c r="C6" t="n">
-        <v>0.310635</v>
+        <v>0.309747</v>
       </c>
       <c r="D6" t="n">
-        <v>0.216075</v>
+        <v>0.216811</v>
       </c>
       <c r="E6" t="n">
-        <v>0.314869</v>
+        <v>0.313145</v>
       </c>
     </row>
     <row r="7">
@@ -4263,16 +4263,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.167012</v>
+        <v>0.171021</v>
       </c>
       <c r="C7" t="n">
-        <v>0.303733</v>
+        <v>0.302427</v>
       </c>
       <c r="D7" t="n">
-        <v>0.218366</v>
+        <v>0.219327</v>
       </c>
       <c r="E7" t="n">
-        <v>0.312958</v>
+        <v>0.312248</v>
       </c>
     </row>
     <row r="8">
@@ -4280,16 +4280,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.159191</v>
+        <v>0.160633</v>
       </c>
       <c r="C8" t="n">
-        <v>0.304542</v>
+        <v>0.303914</v>
       </c>
       <c r="D8" t="n">
-        <v>0.219443</v>
+        <v>0.219887</v>
       </c>
       <c r="E8" t="n">
-        <v>0.312904</v>
+        <v>0.312584</v>
       </c>
     </row>
     <row r="9">
@@ -4297,16 +4297,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150313</v>
+        <v>0.152689</v>
       </c>
       <c r="C9" t="n">
-        <v>0.304033</v>
+        <v>0.304466</v>
       </c>
       <c r="D9" t="n">
-        <v>0.234542</v>
+        <v>0.233627</v>
       </c>
       <c r="E9" t="n">
-        <v>0.330334</v>
+        <v>0.3294</v>
       </c>
     </row>
     <row r="10">
@@ -4314,16 +4314,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229044</v>
+        <v>0.228228</v>
       </c>
       <c r="C10" t="n">
-        <v>0.305332</v>
+        <v>0.305535</v>
       </c>
       <c r="D10" t="n">
-        <v>0.233156</v>
+        <v>0.232725</v>
       </c>
       <c r="E10" t="n">
-        <v>0.328154</v>
+        <v>0.327478</v>
       </c>
     </row>
     <row r="11">
@@ -4331,16 +4331,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.228019</v>
+        <v>0.227623</v>
       </c>
       <c r="C11" t="n">
-        <v>0.305632</v>
+        <v>0.305654</v>
       </c>
       <c r="D11" t="n">
-        <v>0.232956</v>
+        <v>0.233948</v>
       </c>
       <c r="E11" t="n">
-        <v>0.328619</v>
+        <v>0.328591</v>
       </c>
     </row>
     <row r="12">
@@ -4348,16 +4348,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.224269</v>
+        <v>0.223508</v>
       </c>
       <c r="C12" t="n">
-        <v>0.306755</v>
+        <v>0.305938</v>
       </c>
       <c r="D12" t="n">
-        <v>0.233798</v>
+        <v>0.232737</v>
       </c>
       <c r="E12" t="n">
-        <v>0.327498</v>
+        <v>0.326975</v>
       </c>
     </row>
     <row r="13">
@@ -4365,16 +4365,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222737</v>
+        <v>0.222108</v>
       </c>
       <c r="C13" t="n">
-        <v>0.307506</v>
+        <v>0.307002</v>
       </c>
       <c r="D13" t="n">
-        <v>0.232967</v>
+        <v>0.233013</v>
       </c>
       <c r="E13" t="n">
-        <v>0.32712</v>
+        <v>0.325623</v>
       </c>
     </row>
     <row r="14">
@@ -4382,16 +4382,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216406</v>
+        <v>0.216232</v>
       </c>
       <c r="C14" t="n">
-        <v>0.308025</v>
+        <v>0.308215</v>
       </c>
       <c r="D14" t="n">
-        <v>0.233826</v>
+        <v>0.233399</v>
       </c>
       <c r="E14" t="n">
-        <v>0.324624</v>
+        <v>0.324391</v>
       </c>
     </row>
     <row r="15">
@@ -4399,16 +4399,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212476</v>
+        <v>0.211337</v>
       </c>
       <c r="C15" t="n">
-        <v>0.309418</v>
+        <v>0.308423</v>
       </c>
       <c r="D15" t="n">
-        <v>0.233711</v>
+        <v>0.234004</v>
       </c>
       <c r="E15" t="n">
-        <v>0.324139</v>
+        <v>0.323024</v>
       </c>
     </row>
     <row r="16">
@@ -4416,16 +4416,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.21022</v>
+        <v>0.211637</v>
       </c>
       <c r="C16" t="n">
-        <v>0.310396</v>
+        <v>0.310079</v>
       </c>
       <c r="D16" t="n">
-        <v>0.233012</v>
+        <v>0.232863</v>
       </c>
       <c r="E16" t="n">
-        <v>0.323017</v>
+        <v>0.323069</v>
       </c>
     </row>
     <row r="17">
@@ -4433,16 +4433,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203994</v>
+        <v>0.206402</v>
       </c>
       <c r="C17" t="n">
-        <v>0.310857</v>
+        <v>0.311042</v>
       </c>
       <c r="D17" t="n">
-        <v>0.232598</v>
+        <v>0.232399</v>
       </c>
       <c r="E17" t="n">
-        <v>0.323385</v>
+        <v>0.323088</v>
       </c>
     </row>
     <row r="18">
@@ -4450,16 +4450,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198728</v>
+        <v>0.198714</v>
       </c>
       <c r="C18" t="n">
-        <v>0.311864</v>
+        <v>0.311309</v>
       </c>
       <c r="D18" t="n">
-        <v>0.233161</v>
+        <v>0.232837</v>
       </c>
       <c r="E18" t="n">
-        <v>0.322613</v>
+        <v>0.322469</v>
       </c>
     </row>
     <row r="19">
@@ -4467,16 +4467,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193335</v>
+        <v>0.192853</v>
       </c>
       <c r="C19" t="n">
-        <v>0.313554</v>
+        <v>0.31322</v>
       </c>
       <c r="D19" t="n">
-        <v>0.232094</v>
+        <v>0.231966</v>
       </c>
       <c r="E19" t="n">
-        <v>0.320626</v>
+        <v>0.320996</v>
       </c>
     </row>
     <row r="20">
@@ -4484,16 +4484,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188197</v>
+        <v>0.187953</v>
       </c>
       <c r="C20" t="n">
-        <v>0.313169</v>
+        <v>0.313227</v>
       </c>
       <c r="D20" t="n">
-        <v>0.232762</v>
+        <v>0.232008</v>
       </c>
       <c r="E20" t="n">
-        <v>0.321178</v>
+        <v>0.321285</v>
       </c>
     </row>
     <row r="21">
@@ -4501,16 +4501,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181137</v>
+        <v>0.180103</v>
       </c>
       <c r="C21" t="n">
-        <v>0.309464</v>
+        <v>0.308965</v>
       </c>
       <c r="D21" t="n">
-        <v>0.232118</v>
+        <v>0.231507</v>
       </c>
       <c r="E21" t="n">
-        <v>0.320161</v>
+        <v>0.319735</v>
       </c>
     </row>
     <row r="22">
@@ -4518,16 +4518,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174101</v>
+        <v>0.172365</v>
       </c>
       <c r="C22" t="n">
-        <v>0.309679</v>
+        <v>0.309119</v>
       </c>
       <c r="D22" t="n">
-        <v>0.231837</v>
+        <v>0.231753</v>
       </c>
       <c r="E22" t="n">
-        <v>0.319736</v>
+        <v>0.31959</v>
       </c>
     </row>
     <row r="23">
@@ -4535,16 +4535,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165207</v>
+        <v>0.163046</v>
       </c>
       <c r="C23" t="n">
-        <v>0.309303</v>
+        <v>0.309335</v>
       </c>
       <c r="D23" t="n">
-        <v>0.24614</v>
+        <v>0.245266</v>
       </c>
       <c r="E23" t="n">
-        <v>0.33457</v>
+        <v>0.334614</v>
       </c>
     </row>
     <row r="24">
@@ -4552,16 +4552,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243296</v>
+        <v>0.241411</v>
       </c>
       <c r="C24" t="n">
-        <v>0.309193</v>
+        <v>0.308983</v>
       </c>
       <c r="D24" t="n">
-        <v>0.244038</v>
+        <v>0.243052</v>
       </c>
       <c r="E24" t="n">
-        <v>0.332223</v>
+        <v>0.331931</v>
       </c>
     </row>
     <row r="25">
@@ -4569,16 +4569,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.239659</v>
+        <v>0.237577</v>
       </c>
       <c r="C25" t="n">
-        <v>0.311264</v>
+        <v>0.310292</v>
       </c>
       <c r="D25" t="n">
-        <v>0.242745</v>
+        <v>0.242823</v>
       </c>
       <c r="E25" t="n">
-        <v>0.332793</v>
+        <v>0.332047</v>
       </c>
     </row>
     <row r="26">
@@ -4586,16 +4586,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234589</v>
+        <v>0.233994</v>
       </c>
       <c r="C26" t="n">
-        <v>0.311817</v>
+        <v>0.31095</v>
       </c>
       <c r="D26" t="n">
-        <v>0.242464</v>
+        <v>0.241816</v>
       </c>
       <c r="E26" t="n">
-        <v>0.330534</v>
+        <v>0.330234</v>
       </c>
     </row>
     <row r="27">
@@ -4603,16 +4603,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230873</v>
+        <v>0.230295</v>
       </c>
       <c r="C27" t="n">
-        <v>0.311967</v>
+        <v>0.312123</v>
       </c>
       <c r="D27" t="n">
-        <v>0.240881</v>
+        <v>0.241096</v>
       </c>
       <c r="E27" t="n">
-        <v>0.329461</v>
+        <v>0.329323</v>
       </c>
     </row>
     <row r="28">
@@ -4620,16 +4620,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225181</v>
+        <v>0.224916</v>
       </c>
       <c r="C28" t="n">
-        <v>0.311264</v>
+        <v>0.310913</v>
       </c>
       <c r="D28" t="n">
-        <v>0.240225</v>
+        <v>0.240105</v>
       </c>
       <c r="E28" t="n">
-        <v>0.328438</v>
+        <v>0.328108</v>
       </c>
     </row>
     <row r="29">
@@ -4637,16 +4637,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.221284</v>
+        <v>0.220846</v>
       </c>
       <c r="C29" t="n">
-        <v>0.312386</v>
+        <v>0.312227</v>
       </c>
       <c r="D29" t="n">
-        <v>0.240017</v>
+        <v>0.239626</v>
       </c>
       <c r="E29" t="n">
-        <v>0.327206</v>
+        <v>0.326973</v>
       </c>
     </row>
     <row r="30">
@@ -4654,16 +4654,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.217222</v>
+        <v>0.216627</v>
       </c>
       <c r="C30" t="n">
-        <v>0.312252</v>
+        <v>0.312124</v>
       </c>
       <c r="D30" t="n">
-        <v>0.239312</v>
+        <v>0.238813</v>
       </c>
       <c r="E30" t="n">
-        <v>0.326392</v>
+        <v>0.326036</v>
       </c>
     </row>
     <row r="31">
@@ -4671,16 +4671,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.213276</v>
+        <v>0.212724</v>
       </c>
       <c r="C31" t="n">
-        <v>0.313488</v>
+        <v>0.313485</v>
       </c>
       <c r="D31" t="n">
-        <v>0.238102</v>
+        <v>0.237968</v>
       </c>
       <c r="E31" t="n">
-        <v>0.325496</v>
+        <v>0.324969</v>
       </c>
     </row>
     <row r="32">
@@ -4688,16 +4688,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.207556</v>
+        <v>0.2073</v>
       </c>
       <c r="C32" t="n">
-        <v>0.313624</v>
+        <v>0.313284</v>
       </c>
       <c r="D32" t="n">
-        <v>0.237112</v>
+        <v>0.237043</v>
       </c>
       <c r="E32" t="n">
-        <v>0.324707</v>
+        <v>0.324349</v>
       </c>
     </row>
     <row r="33">
@@ -4705,16 +4705,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200594</v>
+        <v>0.200245</v>
       </c>
       <c r="C33" t="n">
-        <v>0.315147</v>
+        <v>0.315128</v>
       </c>
       <c r="D33" t="n">
-        <v>0.236534</v>
+        <v>0.236267</v>
       </c>
       <c r="E33" t="n">
-        <v>0.324186</v>
+        <v>0.323314</v>
       </c>
     </row>
     <row r="34">
@@ -4722,16 +4722,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193734</v>
+        <v>0.192955</v>
       </c>
       <c r="C34" t="n">
-        <v>0.316169</v>
+        <v>0.315775</v>
       </c>
       <c r="D34" t="n">
-        <v>0.235667</v>
+        <v>0.235757</v>
       </c>
       <c r="E34" t="n">
-        <v>0.322841</v>
+        <v>0.322421</v>
       </c>
     </row>
     <row r="35">
@@ -4739,16 +4739,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187</v>
+        <v>0.186209</v>
       </c>
       <c r="C35" t="n">
-        <v>0.313798</v>
+        <v>0.312421</v>
       </c>
       <c r="D35" t="n">
-        <v>0.235071</v>
+        <v>0.234844</v>
       </c>
       <c r="E35" t="n">
-        <v>0.321398</v>
+        <v>0.320902</v>
       </c>
     </row>
     <row r="36">
@@ -4756,16 +4756,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180223</v>
+        <v>0.179504</v>
       </c>
       <c r="C36" t="n">
-        <v>0.313589</v>
+        <v>0.313772</v>
       </c>
       <c r="D36" t="n">
-        <v>0.234563</v>
+        <v>0.234575</v>
       </c>
       <c r="E36" t="n">
-        <v>0.320292</v>
+        <v>0.320007</v>
       </c>
     </row>
     <row r="37">
@@ -4773,16 +4773,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169388</v>
+        <v>0.169033</v>
       </c>
       <c r="C37" t="n">
-        <v>0.31367</v>
+        <v>0.312484</v>
       </c>
       <c r="D37" t="n">
-        <v>0.24804</v>
+        <v>0.249112</v>
       </c>
       <c r="E37" t="n">
-        <v>0.33731</v>
+        <v>0.336383</v>
       </c>
     </row>
     <row r="38">
@@ -4790,16 +4790,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246272</v>
+        <v>0.246074</v>
       </c>
       <c r="C38" t="n">
-        <v>0.313682</v>
+        <v>0.313391</v>
       </c>
       <c r="D38" t="n">
-        <v>0.246224</v>
+        <v>0.246299</v>
       </c>
       <c r="E38" t="n">
-        <v>0.335475</v>
+        <v>0.335004</v>
       </c>
     </row>
     <row r="39">
@@ -4807,16 +4807,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.243009</v>
+        <v>0.242675</v>
       </c>
       <c r="C39" t="n">
-        <v>0.313725</v>
+        <v>0.314031</v>
       </c>
       <c r="D39" t="n">
-        <v>0.245391</v>
+        <v>0.245395</v>
       </c>
       <c r="E39" t="n">
-        <v>0.335448</v>
+        <v>0.334784</v>
       </c>
     </row>
     <row r="40">
@@ -4824,16 +4824,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239368</v>
+        <v>0.239077</v>
       </c>
       <c r="C40" t="n">
-        <v>0.313418</v>
+        <v>0.313017</v>
       </c>
       <c r="D40" t="n">
-        <v>0.244118</v>
+        <v>0.243904</v>
       </c>
       <c r="E40" t="n">
-        <v>0.334215</v>
+        <v>0.333576</v>
       </c>
     </row>
     <row r="41">
@@ -4841,16 +4841,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.235067</v>
+        <v>0.234557</v>
       </c>
       <c r="C41" t="n">
-        <v>0.313969</v>
+        <v>0.31318</v>
       </c>
       <c r="D41" t="n">
-        <v>0.243347</v>
+        <v>0.242906</v>
       </c>
       <c r="E41" t="n">
-        <v>0.332399</v>
+        <v>0.331373</v>
       </c>
     </row>
     <row r="42">
@@ -4858,16 +4858,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230917</v>
+        <v>0.230625</v>
       </c>
       <c r="C42" t="n">
-        <v>0.315029</v>
+        <v>0.314023</v>
       </c>
       <c r="D42" t="n">
-        <v>0.24172</v>
+        <v>0.241714</v>
       </c>
       <c r="E42" t="n">
-        <v>0.331038</v>
+        <v>0.330685</v>
       </c>
     </row>
     <row r="43">
@@ -4875,16 +4875,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.226566</v>
+        <v>0.225429</v>
       </c>
       <c r="C43" t="n">
-        <v>0.31455</v>
+        <v>0.315147</v>
       </c>
       <c r="D43" t="n">
-        <v>0.240717</v>
+        <v>0.24057</v>
       </c>
       <c r="E43" t="n">
-        <v>0.330112</v>
+        <v>0.329883</v>
       </c>
     </row>
     <row r="44">
@@ -4892,16 +4892,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220315</v>
+        <v>0.219836</v>
       </c>
       <c r="C44" t="n">
-        <v>0.316439</v>
+        <v>0.317197</v>
       </c>
       <c r="D44" t="n">
-        <v>0.23979</v>
+        <v>0.239577</v>
       </c>
       <c r="E44" t="n">
-        <v>0.329078</v>
+        <v>0.329055</v>
       </c>
     </row>
     <row r="45">
@@ -4909,16 +4909,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.21408</v>
+        <v>0.213928</v>
       </c>
       <c r="C45" t="n">
-        <v>0.316685</v>
+        <v>0.316347</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2389</v>
+        <v>0.238865</v>
       </c>
       <c r="E45" t="n">
-        <v>0.327968</v>
+        <v>0.327656</v>
       </c>
     </row>
     <row r="46">
@@ -4926,16 +4926,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.208862</v>
+        <v>0.208632</v>
       </c>
       <c r="C46" t="n">
-        <v>0.316925</v>
+        <v>0.317376</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2381</v>
+        <v>0.238007</v>
       </c>
       <c r="E46" t="n">
-        <v>0.327819</v>
+        <v>0.326549</v>
       </c>
     </row>
     <row r="47">
@@ -4943,16 +4943,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203168</v>
+        <v>0.202807</v>
       </c>
       <c r="C47" t="n">
-        <v>0.31782</v>
+        <v>0.318679</v>
       </c>
       <c r="D47" t="n">
-        <v>0.237382</v>
+        <v>0.237206</v>
       </c>
       <c r="E47" t="n">
-        <v>0.32633</v>
+        <v>0.325785</v>
       </c>
     </row>
     <row r="48">
@@ -4960,16 +4960,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197055</v>
+        <v>0.19843</v>
       </c>
       <c r="C48" t="n">
-        <v>0.319578</v>
+        <v>0.319604</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2363</v>
+        <v>0.236172</v>
       </c>
       <c r="E48" t="n">
-        <v>0.324736</v>
+        <v>0.324407</v>
       </c>
     </row>
     <row r="49">
@@ -4977,16 +4977,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189564</v>
+        <v>0.189625</v>
       </c>
       <c r="C49" t="n">
-        <v>0.320166</v>
+        <v>0.319348</v>
       </c>
       <c r="D49" t="n">
-        <v>0.235691</v>
+        <v>0.235661</v>
       </c>
       <c r="E49" t="n">
-        <v>0.324101</v>
+        <v>0.323559</v>
       </c>
     </row>
     <row r="50">
@@ -4994,16 +4994,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182264</v>
+        <v>0.18229</v>
       </c>
       <c r="C50" t="n">
-        <v>0.317837</v>
+        <v>0.319016</v>
       </c>
       <c r="D50" t="n">
-        <v>0.234904</v>
+        <v>0.234833</v>
       </c>
       <c r="E50" t="n">
-        <v>0.322997</v>
+        <v>0.322457</v>
       </c>
     </row>
     <row r="51">
@@ -5011,16 +5011,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173369</v>
+        <v>0.173472</v>
       </c>
       <c r="C51" t="n">
-        <v>0.319162</v>
+        <v>0.318205</v>
       </c>
       <c r="D51" t="n">
-        <v>0.249538</v>
+        <v>0.248862</v>
       </c>
       <c r="E51" t="n">
-        <v>0.338036</v>
+        <v>0.337561</v>
       </c>
     </row>
     <row r="52">
@@ -5028,16 +5028,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.162851</v>
+        <v>0.162202</v>
       </c>
       <c r="C52" t="n">
-        <v>0.319348</v>
+        <v>0.318054</v>
       </c>
       <c r="D52" t="n">
-        <v>0.247959</v>
+        <v>0.247665</v>
       </c>
       <c r="E52" t="n">
-        <v>0.336684</v>
+        <v>0.336342</v>
       </c>
     </row>
     <row r="53">
@@ -5045,16 +5045,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.245971</v>
+        <v>0.246202</v>
       </c>
       <c r="C53" t="n">
-        <v>0.319194</v>
+        <v>0.317903</v>
       </c>
       <c r="D53" t="n">
-        <v>0.246941</v>
+        <v>0.246785</v>
       </c>
       <c r="E53" t="n">
-        <v>0.335388</v>
+        <v>0.334286</v>
       </c>
     </row>
     <row r="54">
@@ -5062,16 +5062,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242326</v>
+        <v>0.241788</v>
       </c>
       <c r="C54" t="n">
-        <v>0.320377</v>
+        <v>0.318586</v>
       </c>
       <c r="D54" t="n">
-        <v>0.24535</v>
+        <v>0.245286</v>
       </c>
       <c r="E54" t="n">
-        <v>0.333653</v>
+        <v>0.332974</v>
       </c>
     </row>
     <row r="55">
@@ -5079,16 +5079,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.238194</v>
+        <v>0.238161</v>
       </c>
       <c r="C55" t="n">
-        <v>0.321153</v>
+        <v>0.318857</v>
       </c>
       <c r="D55" t="n">
-        <v>0.244077</v>
+        <v>0.243799</v>
       </c>
       <c r="E55" t="n">
-        <v>0.332453</v>
+        <v>0.331926</v>
       </c>
     </row>
     <row r="56">
@@ -5096,16 +5096,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233364</v>
+        <v>0.2333</v>
       </c>
       <c r="C56" t="n">
-        <v>0.321934</v>
+        <v>0.31916</v>
       </c>
       <c r="D56" t="n">
-        <v>0.242647</v>
+        <v>0.24252</v>
       </c>
       <c r="E56" t="n">
-        <v>0.330857</v>
+        <v>0.330334</v>
       </c>
     </row>
     <row r="57">
@@ -5113,16 +5113,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228192</v>
+        <v>0.227758</v>
       </c>
       <c r="C57" t="n">
-        <v>0.323482</v>
+        <v>0.320778</v>
       </c>
       <c r="D57" t="n">
-        <v>0.241284</v>
+        <v>0.241322</v>
       </c>
       <c r="E57" t="n">
-        <v>0.329468</v>
+        <v>0.329257</v>
       </c>
     </row>
     <row r="58">
@@ -5130,16 +5130,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222804</v>
+        <v>0.222306</v>
       </c>
       <c r="C58" t="n">
-        <v>0.324021</v>
+        <v>0.321734</v>
       </c>
       <c r="D58" t="n">
-        <v>0.240642</v>
+        <v>0.240485</v>
       </c>
       <c r="E58" t="n">
-        <v>0.328104</v>
+        <v>0.327959</v>
       </c>
     </row>
     <row r="59">
@@ -5147,16 +5147,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217251</v>
+        <v>0.21687</v>
       </c>
       <c r="C59" t="n">
-        <v>0.326245</v>
+        <v>0.323966</v>
       </c>
       <c r="D59" t="n">
-        <v>0.239578</v>
+        <v>0.239432</v>
       </c>
       <c r="E59" t="n">
-        <v>0.327273</v>
+        <v>0.327606</v>
       </c>
     </row>
     <row r="60">
@@ -5164,16 +5164,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211127</v>
+        <v>0.211041</v>
       </c>
       <c r="C60" t="n">
-        <v>0.327765</v>
+        <v>0.324541</v>
       </c>
       <c r="D60" t="n">
-        <v>0.238685</v>
+        <v>0.238468</v>
       </c>
       <c r="E60" t="n">
-        <v>0.326171</v>
+        <v>0.325974</v>
       </c>
     </row>
     <row r="61">
@@ -5181,16 +5181,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.205681</v>
+        <v>0.205353</v>
       </c>
       <c r="C61" t="n">
-        <v>0.330565</v>
+        <v>0.32646</v>
       </c>
       <c r="D61" t="n">
-        <v>0.237825</v>
+        <v>0.237858</v>
       </c>
       <c r="E61" t="n">
-        <v>0.325045</v>
+        <v>0.324974</v>
       </c>
     </row>
     <row r="62">
@@ -5198,16 +5198,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.199145</v>
+        <v>0.199345</v>
       </c>
       <c r="C62" t="n">
-        <v>0.333005</v>
+        <v>0.329323</v>
       </c>
       <c r="D62" t="n">
-        <v>0.237175</v>
+        <v>0.236903</v>
       </c>
       <c r="E62" t="n">
-        <v>0.324544</v>
+        <v>0.324111</v>
       </c>
     </row>
     <row r="63">
@@ -5215,16 +5215,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.192922</v>
+        <v>0.193069</v>
       </c>
       <c r="C63" t="n">
-        <v>0.334448</v>
+        <v>0.331926</v>
       </c>
       <c r="D63" t="n">
-        <v>0.236305</v>
+        <v>0.236067</v>
       </c>
       <c r="E63" t="n">
-        <v>0.323498</v>
+        <v>0.323571</v>
       </c>
     </row>
     <row r="64">
@@ -5232,16 +5232,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184878</v>
+        <v>0.18571</v>
       </c>
       <c r="C64" t="n">
-        <v>0.374994</v>
+        <v>0.371076</v>
       </c>
       <c r="D64" t="n">
-        <v>0.23539</v>
+        <v>0.235118</v>
       </c>
       <c r="E64" t="n">
-        <v>0.32245</v>
+        <v>0.322376</v>
       </c>
     </row>
     <row r="65">
@@ -5249,16 +5249,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176483</v>
+        <v>0.177558</v>
       </c>
       <c r="C65" t="n">
-        <v>0.375689</v>
+        <v>0.37364</v>
       </c>
       <c r="D65" t="n">
-        <v>0.234491</v>
+        <v>0.234324</v>
       </c>
       <c r="E65" t="n">
-        <v>0.321585</v>
+        <v>0.321639</v>
       </c>
     </row>
     <row r="66">
@@ -5266,16 +5266,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.165996</v>
+        <v>0.167753</v>
       </c>
       <c r="C66" t="n">
-        <v>0.377155</v>
+        <v>0.375575</v>
       </c>
       <c r="D66" t="n">
-        <v>0.249277</v>
+        <v>0.249475</v>
       </c>
       <c r="E66" t="n">
-        <v>0.338085</v>
+        <v>0.337736</v>
       </c>
     </row>
     <row r="67">
@@ -5283,16 +5283,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.248124</v>
+        <v>0.247532</v>
       </c>
       <c r="C67" t="n">
-        <v>0.378278</v>
+        <v>0.377461</v>
       </c>
       <c r="D67" t="n">
-        <v>0.247587</v>
+        <v>0.247458</v>
       </c>
       <c r="E67" t="n">
-        <v>0.336256</v>
+        <v>0.336443</v>
       </c>
     </row>
     <row r="68">
@@ -5300,16 +5300,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.244336</v>
+        <v>0.244084</v>
       </c>
       <c r="C68" t="n">
-        <v>0.378989</v>
+        <v>0.379778</v>
       </c>
       <c r="D68" t="n">
-        <v>0.246349</v>
+        <v>0.246102</v>
       </c>
       <c r="E68" t="n">
-        <v>0.335</v>
+        <v>0.334745</v>
       </c>
     </row>
     <row r="69">
@@ -5317,16 +5317,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239976</v>
+        <v>0.239563</v>
       </c>
       <c r="C69" t="n">
-        <v>0.377526</v>
+        <v>0.379462</v>
       </c>
       <c r="D69" t="n">
-        <v>0.244867</v>
+        <v>0.244704</v>
       </c>
       <c r="E69" t="n">
-        <v>0.333841</v>
+        <v>0.334058</v>
       </c>
     </row>
     <row r="70">
@@ -5334,16 +5334,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235072</v>
+        <v>0.235149</v>
       </c>
       <c r="C70" t="n">
-        <v>0.379146</v>
+        <v>0.381075</v>
       </c>
       <c r="D70" t="n">
-        <v>0.243497</v>
+        <v>0.243322</v>
       </c>
       <c r="E70" t="n">
-        <v>0.33186</v>
+        <v>0.332602</v>
       </c>
     </row>
     <row r="71">
@@ -5351,16 +5351,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230155</v>
+        <v>0.230123</v>
       </c>
       <c r="C71" t="n">
-        <v>0.377963</v>
+        <v>0.380885</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2426</v>
+        <v>0.242331</v>
       </c>
       <c r="E71" t="n">
-        <v>0.330862</v>
+        <v>0.330719</v>
       </c>
     </row>
     <row r="72">
@@ -5368,16 +5368,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.224998</v>
+        <v>0.224836</v>
       </c>
       <c r="C72" t="n">
-        <v>0.380956</v>
+        <v>0.383371</v>
       </c>
       <c r="D72" t="n">
-        <v>0.241329</v>
+        <v>0.241061</v>
       </c>
       <c r="E72" t="n">
-        <v>0.330189</v>
+        <v>0.330037</v>
       </c>
     </row>
     <row r="73">
@@ -5385,16 +5385,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.21929</v>
+        <v>0.21931</v>
       </c>
       <c r="C73" t="n">
-        <v>0.380334</v>
+        <v>0.382182</v>
       </c>
       <c r="D73" t="n">
-        <v>0.240344</v>
+        <v>0.239989</v>
       </c>
       <c r="E73" t="n">
-        <v>0.328753</v>
+        <v>0.328473</v>
       </c>
     </row>
     <row r="74">
@@ -5402,16 +5402,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213777</v>
+        <v>0.213631</v>
       </c>
       <c r="C74" t="n">
-        <v>0.380134</v>
+        <v>0.381919</v>
       </c>
       <c r="D74" t="n">
-        <v>0.239368</v>
+        <v>0.239057</v>
       </c>
       <c r="E74" t="n">
-        <v>0.328031</v>
+        <v>0.328209</v>
       </c>
     </row>
     <row r="75">
@@ -5419,16 +5419,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.20753</v>
+        <v>0.2075</v>
       </c>
       <c r="C75" t="n">
-        <v>0.380467</v>
+        <v>0.382703</v>
       </c>
       <c r="D75" t="n">
-        <v>0.238312</v>
+        <v>0.238247</v>
       </c>
       <c r="E75" t="n">
-        <v>0.327012</v>
+        <v>0.326939</v>
       </c>
     </row>
     <row r="76">
@@ -5436,16 +5436,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.201662</v>
+        <v>0.2016</v>
       </c>
       <c r="C76" t="n">
-        <v>0.380913</v>
+        <v>0.382746</v>
       </c>
       <c r="D76" t="n">
-        <v>0.237631</v>
+        <v>0.237402</v>
       </c>
       <c r="E76" t="n">
-        <v>0.326082</v>
+        <v>0.325881</v>
       </c>
     </row>
     <row r="77">
@@ -5453,16 +5453,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19464</v>
+        <v>0.1946</v>
       </c>
       <c r="C77" t="n">
-        <v>0.382438</v>
+        <v>0.384072</v>
       </c>
       <c r="D77" t="n">
-        <v>0.23666</v>
+        <v>0.236614</v>
       </c>
       <c r="E77" t="n">
-        <v>0.32547</v>
+        <v>0.324811</v>
       </c>
     </row>
     <row r="78">
@@ -5470,16 +5470,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.187468</v>
+        <v>0.187318</v>
       </c>
       <c r="C78" t="n">
-        <v>0.43985</v>
+        <v>0.442447</v>
       </c>
       <c r="D78" t="n">
-        <v>0.236097</v>
+        <v>0.235884</v>
       </c>
       <c r="E78" t="n">
-        <v>0.324265</v>
+        <v>0.323821</v>
       </c>
     </row>
     <row r="79">
@@ -5487,16 +5487,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179296</v>
+        <v>0.178965</v>
       </c>
       <c r="C79" t="n">
-        <v>0.433646</v>
+        <v>0.437023</v>
       </c>
       <c r="D79" t="n">
-        <v>0.235215</v>
+        <v>0.235091</v>
       </c>
       <c r="E79" t="n">
-        <v>0.323486</v>
+        <v>0.323365</v>
       </c>
     </row>
     <row r="80">
@@ -5504,16 +5504,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.168798</v>
+        <v>0.168896</v>
       </c>
       <c r="C80" t="n">
-        <v>0.428332</v>
+        <v>0.430064</v>
       </c>
       <c r="D80" t="n">
-        <v>0.251366</v>
+        <v>0.253549</v>
       </c>
       <c r="E80" t="n">
-        <v>0.336922</v>
+        <v>0.33696</v>
       </c>
     </row>
     <row r="81">
@@ -5521,16 +5521,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248836</v>
+        <v>0.248793</v>
       </c>
       <c r="C81" t="n">
-        <v>0.428527</v>
+        <v>0.430844</v>
       </c>
       <c r="D81" t="n">
-        <v>0.249508</v>
+        <v>0.251258</v>
       </c>
       <c r="E81" t="n">
-        <v>0.335421</v>
+        <v>0.335337</v>
       </c>
     </row>
     <row r="82">
@@ -5538,16 +5538,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245477</v>
+        <v>0.245091</v>
       </c>
       <c r="C82" t="n">
-        <v>0.424076</v>
+        <v>0.427206</v>
       </c>
       <c r="D82" t="n">
-        <v>0.247249</v>
+        <v>0.249638</v>
       </c>
       <c r="E82" t="n">
-        <v>0.334489</v>
+        <v>0.334415</v>
       </c>
     </row>
     <row r="83">
@@ -5555,16 +5555,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241042</v>
+        <v>0.240976</v>
       </c>
       <c r="C83" t="n">
-        <v>0.417833</v>
+        <v>0.420801</v>
       </c>
       <c r="D83" t="n">
-        <v>0.246339</v>
+        <v>0.247262</v>
       </c>
       <c r="E83" t="n">
-        <v>0.332867</v>
+        <v>0.333049</v>
       </c>
     </row>
     <row r="84">
@@ -5572,16 +5572,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236341</v>
+        <v>0.236078</v>
       </c>
       <c r="C84" t="n">
-        <v>0.415994</v>
+        <v>0.418267</v>
       </c>
       <c r="D84" t="n">
-        <v>0.244503</v>
+        <v>0.245686</v>
       </c>
       <c r="E84" t="n">
-        <v>0.331474</v>
+        <v>0.331434</v>
       </c>
     </row>
     <row r="85">
@@ -5589,16 +5589,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231535</v>
+        <v>0.231314</v>
       </c>
       <c r="C85" t="n">
-        <v>0.410738</v>
+        <v>0.412507</v>
       </c>
       <c r="D85" t="n">
-        <v>0.243594</v>
+        <v>0.244214</v>
       </c>
       <c r="E85" t="n">
-        <v>0.330304</v>
+        <v>0.330322</v>
       </c>
     </row>
     <row r="86">
@@ -5606,16 +5606,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226311</v>
+        <v>0.226083</v>
       </c>
       <c r="C86" t="n">
-        <v>0.409431</v>
+        <v>0.411993</v>
       </c>
       <c r="D86" t="n">
-        <v>0.24227</v>
+        <v>0.242538</v>
       </c>
       <c r="E86" t="n">
-        <v>0.329167</v>
+        <v>0.329267</v>
       </c>
     </row>
     <row r="87">
@@ -5623,16 +5623,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220519</v>
+        <v>0.22054</v>
       </c>
       <c r="C87" t="n">
-        <v>0.406267</v>
+        <v>0.408411</v>
       </c>
       <c r="D87" t="n">
-        <v>0.240836</v>
+        <v>0.241095</v>
       </c>
       <c r="E87" t="n">
-        <v>0.327786</v>
+        <v>0.327682</v>
       </c>
     </row>
     <row r="88">
@@ -5640,16 +5640,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.21499</v>
+        <v>0.215095</v>
       </c>
       <c r="C88" t="n">
-        <v>0.403007</v>
+        <v>0.405488</v>
       </c>
       <c r="D88" t="n">
-        <v>0.239635</v>
+        <v>0.239584</v>
       </c>
       <c r="E88" t="n">
-        <v>0.326752</v>
+        <v>0.326714</v>
       </c>
     </row>
     <row r="89">
@@ -5657,16 +5657,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.208957</v>
+        <v>0.209132</v>
       </c>
       <c r="C89" t="n">
-        <v>0.400497</v>
+        <v>0.401611</v>
       </c>
       <c r="D89" t="n">
-        <v>0.238784</v>
+        <v>0.238674</v>
       </c>
       <c r="E89" t="n">
-        <v>0.325669</v>
+        <v>0.325727</v>
       </c>
     </row>
     <row r="90">
@@ -5674,16 +5674,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.203114</v>
+        <v>0.203258</v>
       </c>
       <c r="C90" t="n">
-        <v>0.401893</v>
+        <v>0.404355</v>
       </c>
       <c r="D90" t="n">
-        <v>0.237844</v>
+        <v>0.237758</v>
       </c>
       <c r="E90" t="n">
-        <v>0.324718</v>
+        <v>0.324751</v>
       </c>
     </row>
     <row r="91">
@@ -5691,16 +5691,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196592</v>
+        <v>0.196785</v>
       </c>
       <c r="C91" t="n">
-        <v>0.396707</v>
+        <v>0.398221</v>
       </c>
       <c r="D91" t="n">
-        <v>0.237015</v>
+        <v>0.236962</v>
       </c>
       <c r="E91" t="n">
-        <v>0.323769</v>
+        <v>0.323789</v>
       </c>
     </row>
     <row r="92">
@@ -5708,16 +5708,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189206</v>
+        <v>0.189497</v>
       </c>
       <c r="C92" t="n">
-        <v>0.442941</v>
+        <v>0.446891</v>
       </c>
       <c r="D92" t="n">
-        <v>0.236173</v>
+        <v>0.236053</v>
       </c>
       <c r="E92" t="n">
-        <v>0.322936</v>
+        <v>0.322986</v>
       </c>
     </row>
     <row r="93">
@@ -5725,16 +5725,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181171</v>
+        <v>0.181227</v>
       </c>
       <c r="C93" t="n">
-        <v>0.439997</v>
+        <v>0.444403</v>
       </c>
       <c r="D93" t="n">
-        <v>0.235492</v>
+        <v>0.235403</v>
       </c>
       <c r="E93" t="n">
-        <v>0.322489</v>
+        <v>0.322607</v>
       </c>
     </row>
     <row r="94">
@@ -5742,16 +5742,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.171691</v>
+        <v>0.171814</v>
       </c>
       <c r="C94" t="n">
-        <v>0.435025</v>
+        <v>0.439573</v>
       </c>
       <c r="D94" t="n">
-        <v>0.252424</v>
+        <v>0.252169</v>
       </c>
       <c r="E94" t="n">
-        <v>0.338112</v>
+        <v>0.338138</v>
       </c>
     </row>
     <row r="95">
@@ -5759,16 +5759,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249649</v>
+        <v>0.249386</v>
       </c>
       <c r="C95" t="n">
-        <v>0.43313</v>
+        <v>0.439231</v>
       </c>
       <c r="D95" t="n">
-        <v>0.250274</v>
+        <v>0.250056</v>
       </c>
       <c r="E95" t="n">
-        <v>0.337559</v>
+        <v>0.338959</v>
       </c>
     </row>
     <row r="96">
@@ -5776,16 +5776,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.246084</v>
+        <v>0.24611</v>
       </c>
       <c r="C96" t="n">
-        <v>0.427564</v>
+        <v>0.431199</v>
       </c>
       <c r="D96" t="n">
-        <v>0.248383</v>
+        <v>0.248195</v>
       </c>
       <c r="E96" t="n">
-        <v>0.337675</v>
+        <v>0.337644</v>
       </c>
     </row>
     <row r="97">
@@ -5793,16 +5793,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242075</v>
+        <v>0.241912</v>
       </c>
       <c r="C97" t="n">
-        <v>0.418962</v>
+        <v>0.420652</v>
       </c>
       <c r="D97" t="n">
-        <v>0.246772</v>
+        <v>0.247135</v>
       </c>
       <c r="E97" t="n">
-        <v>0.335255</v>
+        <v>0.335216</v>
       </c>
     </row>
     <row r="98">
@@ -5810,16 +5810,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237239</v>
+        <v>0.237181</v>
       </c>
       <c r="C98" t="n">
-        <v>0.413475</v>
+        <v>0.416599</v>
       </c>
       <c r="D98" t="n">
-        <v>0.245271</v>
+        <v>0.245474</v>
       </c>
       <c r="E98" t="n">
-        <v>0.33217</v>
+        <v>0.332073</v>
       </c>
     </row>
     <row r="99">
@@ -5827,16 +5827,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.232248</v>
+        <v>0.232342</v>
       </c>
       <c r="C99" t="n">
-        <v>0.413216</v>
+        <v>0.41587</v>
       </c>
       <c r="D99" t="n">
-        <v>0.243848</v>
+        <v>0.244058</v>
       </c>
       <c r="E99" t="n">
-        <v>0.330973</v>
+        <v>0.330956</v>
       </c>
     </row>
     <row r="100">
@@ -5844,16 +5844,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.227161</v>
+        <v>0.227134</v>
       </c>
       <c r="C100" t="n">
-        <v>0.409879</v>
+        <v>0.412811</v>
       </c>
       <c r="D100" t="n">
-        <v>0.242493</v>
+        <v>0.242359</v>
       </c>
       <c r="E100" t="n">
-        <v>0.329904</v>
+        <v>0.329772</v>
       </c>
     </row>
     <row r="101">
@@ -5861,16 +5861,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.221602</v>
+        <v>0.221577</v>
       </c>
       <c r="C101" t="n">
-        <v>0.402808</v>
+        <v>0.406551</v>
       </c>
       <c r="D101" t="n">
-        <v>0.241208</v>
+        <v>0.241351</v>
       </c>
       <c r="E101" t="n">
-        <v>0.329084</v>
+        <v>0.32896</v>
       </c>
     </row>
     <row r="102">
@@ -5878,16 +5878,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.216278</v>
+        <v>0.215912</v>
       </c>
       <c r="C102" t="n">
-        <v>0.398263</v>
+        <v>0.40096</v>
       </c>
       <c r="D102" t="n">
-        <v>0.240303</v>
+        <v>0.240215</v>
       </c>
       <c r="E102" t="n">
-        <v>0.32793</v>
+        <v>0.327956</v>
       </c>
     </row>
     <row r="103">
@@ -5895,16 +5895,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.210123</v>
+        <v>0.210135</v>
       </c>
       <c r="C103" t="n">
-        <v>0.39695</v>
+        <v>0.400246</v>
       </c>
       <c r="D103" t="n">
-        <v>0.238875</v>
+        <v>0.238808</v>
       </c>
       <c r="E103" t="n">
-        <v>0.327406</v>
+        <v>0.326858</v>
       </c>
     </row>
     <row r="104">
@@ -5912,16 +5912,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204383</v>
+        <v>0.204085</v>
       </c>
       <c r="C104" t="n">
-        <v>0.394875</v>
+        <v>0.39696</v>
       </c>
       <c r="D104" t="n">
-        <v>0.238332</v>
+        <v>0.238284</v>
       </c>
       <c r="E104" t="n">
-        <v>0.325914</v>
+        <v>0.325901</v>
       </c>
     </row>
     <row r="105">
@@ -5929,16 +5929,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.198213</v>
+        <v>0.19794</v>
       </c>
       <c r="C105" t="n">
-        <v>0.391712</v>
+        <v>0.393513</v>
       </c>
       <c r="D105" t="n">
-        <v>0.237471</v>
+        <v>0.237355</v>
       </c>
       <c r="E105" t="n">
-        <v>0.325166</v>
+        <v>0.325099</v>
       </c>
     </row>
     <row r="106">
@@ -5946,16 +5946,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191581</v>
+        <v>0.191198</v>
       </c>
       <c r="C106" t="n">
-        <v>0.386709</v>
+        <v>0.388239</v>
       </c>
       <c r="D106" t="n">
-        <v>0.236675</v>
+        <v>0.23666</v>
       </c>
       <c r="E106" t="n">
-        <v>0.324318</v>
+        <v>0.324443</v>
       </c>
     </row>
     <row r="107">
@@ -5963,16 +5963,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183373</v>
+        <v>0.183651</v>
       </c>
       <c r="C107" t="n">
-        <v>0.418127</v>
+        <v>0.421298</v>
       </c>
       <c r="D107" t="n">
-        <v>0.235889</v>
+        <v>0.235806</v>
       </c>
       <c r="E107" t="n">
-        <v>0.323077</v>
+        <v>0.323131</v>
       </c>
     </row>
     <row r="108">
@@ -5980,16 +5980,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174635</v>
+        <v>0.174139</v>
       </c>
       <c r="C108" t="n">
-        <v>0.414899</v>
+        <v>0.417973</v>
       </c>
       <c r="D108" t="n">
-        <v>0.252425</v>
+        <v>0.25266</v>
       </c>
       <c r="E108" t="n">
-        <v>0.337927</v>
+        <v>0.338111</v>
       </c>
     </row>
     <row r="109">
@@ -5997,16 +5997,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.162719</v>
+        <v>0.164143</v>
       </c>
       <c r="C109" t="n">
-        <v>0.409776</v>
+        <v>0.412302</v>
       </c>
       <c r="D109" t="n">
-        <v>0.250077</v>
+        <v>0.250112</v>
       </c>
       <c r="E109" t="n">
-        <v>0.335918</v>
+        <v>0.336185</v>
       </c>
     </row>
     <row r="110">
@@ -6014,16 +6014,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.246644</v>
+        <v>0.246573</v>
       </c>
       <c r="C110" t="n">
-        <v>0.406034</v>
+        <v>0.408672</v>
       </c>
       <c r="D110" t="n">
-        <v>0.248073</v>
+        <v>0.248186</v>
       </c>
       <c r="E110" t="n">
-        <v>0.33438</v>
+        <v>0.334569</v>
       </c>
     </row>
     <row r="111">
@@ -6031,16 +6031,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.242734</v>
+        <v>0.242722</v>
       </c>
       <c r="C111" t="n">
-        <v>0.402596</v>
+        <v>0.407222</v>
       </c>
       <c r="D111" t="n">
-        <v>0.24648</v>
+        <v>0.246533</v>
       </c>
       <c r="E111" t="n">
-        <v>0.333275</v>
+        <v>0.333283</v>
       </c>
     </row>
     <row r="112">
@@ -6048,16 +6048,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238258</v>
+        <v>0.238233</v>
       </c>
       <c r="C112" t="n">
-        <v>0.398193</v>
+        <v>0.402403</v>
       </c>
       <c r="D112" t="n">
-        <v>0.244961</v>
+        <v>0.245099</v>
       </c>
       <c r="E112" t="n">
-        <v>0.332015</v>
+        <v>0.332048</v>
       </c>
     </row>
     <row r="113">
@@ -6065,16 +6065,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.233389</v>
+        <v>0.233484</v>
       </c>
       <c r="C113" t="n">
-        <v>0.395622</v>
+        <v>0.40003</v>
       </c>
       <c r="D113" t="n">
-        <v>0.243489</v>
+        <v>0.24374</v>
       </c>
       <c r="E113" t="n">
-        <v>0.330662</v>
+        <v>0.331006</v>
       </c>
     </row>
     <row r="114">
@@ -6082,16 +6082,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.228208</v>
+        <v>0.228292</v>
       </c>
       <c r="C114" t="n">
-        <v>0.391229</v>
+        <v>0.395109</v>
       </c>
       <c r="D114" t="n">
-        <v>0.242561</v>
+        <v>0.242474</v>
       </c>
       <c r="E114" t="n">
-        <v>0.329403</v>
+        <v>0.329485</v>
       </c>
     </row>
     <row r="115">
@@ -6099,16 +6099,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.222799</v>
+        <v>0.223043</v>
       </c>
       <c r="C115" t="n">
-        <v>0.390929</v>
+        <v>0.394147</v>
       </c>
       <c r="D115" t="n">
-        <v>0.241382</v>
+        <v>0.24142</v>
       </c>
       <c r="E115" t="n">
-        <v>0.327986</v>
+        <v>0.32803</v>
       </c>
     </row>
     <row r="116">
@@ -6116,16 +6116,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217241</v>
+        <v>0.217154</v>
       </c>
       <c r="C116" t="n">
-        <v>0.386914</v>
+        <v>0.388811</v>
       </c>
       <c r="D116" t="n">
-        <v>0.240242</v>
+        <v>0.240361</v>
       </c>
       <c r="E116" t="n">
-        <v>0.326924</v>
+        <v>0.326944</v>
       </c>
     </row>
     <row r="117">
@@ -6133,16 +6133,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.211759</v>
+        <v>0.211297</v>
       </c>
       <c r="C117" t="n">
-        <v>0.383697</v>
+        <v>0.386098</v>
       </c>
       <c r="D117" t="n">
-        <v>0.2394</v>
+        <v>0.239329</v>
       </c>
       <c r="E117" t="n">
-        <v>0.325816</v>
+        <v>0.325819</v>
       </c>
     </row>
     <row r="118">
@@ -6150,16 +6150,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.205882</v>
+        <v>0.205512</v>
       </c>
       <c r="C118" t="n">
-        <v>0.381697</v>
+        <v>0.38421</v>
       </c>
       <c r="D118" t="n">
-        <v>0.23842</v>
+        <v>0.238369</v>
       </c>
       <c r="E118" t="n">
-        <v>0.324886</v>
+        <v>0.324882</v>
       </c>
     </row>
     <row r="119">
@@ -6167,16 +6167,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.199195</v>
+        <v>0.19909</v>
       </c>
       <c r="C119" t="n">
-        <v>0.379312</v>
+        <v>0.380871</v>
       </c>
       <c r="D119" t="n">
-        <v>0.237483</v>
+        <v>0.237549</v>
       </c>
       <c r="E119" t="n">
-        <v>0.323923</v>
+        <v>0.32391</v>
       </c>
     </row>
     <row r="120">
@@ -6184,16 +6184,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.192586</v>
+        <v>0.19263</v>
       </c>
       <c r="C120" t="n">
-        <v>0.37733</v>
+        <v>0.378647</v>
       </c>
       <c r="D120" t="n">
-        <v>0.236609</v>
+        <v>0.236661</v>
       </c>
       <c r="E120" t="n">
-        <v>0.323271</v>
+        <v>0.323205</v>
       </c>
     </row>
     <row r="121">
@@ -6201,16 +6201,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.184821</v>
+        <v>0.184933</v>
       </c>
       <c r="C121" t="n">
-        <v>0.443351</v>
+        <v>0.446924</v>
       </c>
       <c r="D121" t="n">
-        <v>0.236028</v>
+        <v>0.235929</v>
       </c>
       <c r="E121" t="n">
-        <v>0.32225</v>
+        <v>0.322267</v>
       </c>
     </row>
     <row r="122">
@@ -6218,16 +6218,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.17762</v>
+        <v>0.177601</v>
       </c>
       <c r="C122" t="n">
-        <v>0.438857</v>
+        <v>0.441604</v>
       </c>
       <c r="D122" t="n">
-        <v>0.235214</v>
+        <v>0.23522</v>
       </c>
       <c r="E122" t="n">
-        <v>0.32153</v>
+        <v>0.321431</v>
       </c>
     </row>
     <row r="123">
@@ -6235,16 +6235,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.166475</v>
+        <v>0.166544</v>
       </c>
       <c r="C123" t="n">
-        <v>0.433153</v>
+        <v>0.436092</v>
       </c>
       <c r="D123" t="n">
-        <v>0.250503</v>
+        <v>0.250433</v>
       </c>
       <c r="E123" t="n">
-        <v>0.336464</v>
+        <v>0.33662</v>
       </c>
     </row>
     <row r="124">
@@ -6252,16 +6252,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.247499</v>
+        <v>0.247437</v>
       </c>
       <c r="C124" t="n">
-        <v>0.428766</v>
+        <v>0.431476</v>
       </c>
       <c r="D124" t="n">
-        <v>0.248421</v>
+        <v>0.24838</v>
       </c>
       <c r="E124" t="n">
-        <v>0.334622</v>
+        <v>0.334734</v>
       </c>
     </row>
     <row r="125">
@@ -6269,16 +6269,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.243763</v>
+        <v>0.243574</v>
       </c>
       <c r="C125" t="n">
-        <v>0.425777</v>
+        <v>0.42815</v>
       </c>
       <c r="D125" t="n">
-        <v>0.246723</v>
+        <v>0.246717</v>
       </c>
       <c r="E125" t="n">
-        <v>0.334208</v>
+        <v>0.334195</v>
       </c>
     </row>
     <row r="126">
@@ -6286,16 +6286,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.239332</v>
+        <v>0.239224</v>
       </c>
       <c r="C126" t="n">
-        <v>0.419522</v>
+        <v>0.421931</v>
       </c>
       <c r="D126" t="n">
-        <v>0.245234</v>
+        <v>0.24519</v>
       </c>
       <c r="E126" t="n">
-        <v>0.332841</v>
+        <v>0.333014</v>
       </c>
     </row>
     <row r="127">
@@ -6303,16 +6303,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.234525</v>
+        <v>0.2344</v>
       </c>
       <c r="C127" t="n">
-        <v>0.413325</v>
+        <v>0.415403</v>
       </c>
       <c r="D127" t="n">
-        <v>0.243944</v>
+        <v>0.243903</v>
       </c>
       <c r="E127" t="n">
-        <v>0.330939</v>
+        <v>0.331061</v>
       </c>
     </row>
     <row r="128">
@@ -6320,16 +6320,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.229408</v>
+        <v>0.229352</v>
       </c>
       <c r="C128" t="n">
-        <v>0.40986</v>
+        <v>0.411653</v>
       </c>
       <c r="D128" t="n">
-        <v>0.242513</v>
+        <v>0.242663</v>
       </c>
       <c r="E128" t="n">
-        <v>0.329845</v>
+        <v>0.329974</v>
       </c>
     </row>
     <row r="129">
@@ -6337,16 +6337,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224023</v>
+        <v>0.224042</v>
       </c>
       <c r="C129" t="n">
-        <v>0.404833</v>
+        <v>0.408121</v>
       </c>
       <c r="D129" t="n">
-        <v>0.24147</v>
+        <v>0.241523</v>
       </c>
       <c r="E129" t="n">
-        <v>0.329531</v>
+        <v>0.329424</v>
       </c>
     </row>
     <row r="130">
@@ -6354,16 +6354,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.218439</v>
+        <v>0.218557</v>
       </c>
       <c r="C130" t="n">
-        <v>0.399663</v>
+        <v>0.401749</v>
       </c>
       <c r="D130" t="n">
-        <v>0.240411</v>
+        <v>0.240419</v>
       </c>
       <c r="E130" t="n">
-        <v>0.328474</v>
+        <v>0.328535</v>
       </c>
     </row>
     <row r="131">
@@ -6371,16 +6371,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.212802</v>
+        <v>0.212852</v>
       </c>
       <c r="C131" t="n">
-        <v>0.397039</v>
+        <v>0.399451</v>
       </c>
       <c r="D131" t="n">
-        <v>0.239474</v>
+        <v>0.239453</v>
       </c>
       <c r="E131" t="n">
-        <v>0.32741</v>
+        <v>0.327457</v>
       </c>
     </row>
     <row r="132">
@@ -6388,16 +6388,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.206773</v>
+        <v>0.207021</v>
       </c>
       <c r="C132" t="n">
-        <v>0.393542</v>
+        <v>0.396327</v>
       </c>
       <c r="D132" t="n">
         <v>0.238525</v>
       </c>
       <c r="E132" t="n">
-        <v>0.32648</v>
+        <v>0.326397</v>
       </c>
     </row>
     <row r="133">
@@ -6405,16 +6405,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.200797</v>
+        <v>0.200925</v>
       </c>
       <c r="C133" t="n">
-        <v>0.390182</v>
+        <v>0.39158</v>
       </c>
       <c r="D133" t="n">
-        <v>0.237635</v>
+        <v>0.23762</v>
       </c>
       <c r="E133" t="n">
-        <v>0.325418</v>
+        <v>0.325525</v>
       </c>
     </row>
     <row r="134">
@@ -6422,16 +6422,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194285</v>
+        <v>0.194309</v>
       </c>
       <c r="C134" t="n">
-        <v>0.388107</v>
+        <v>0.389562</v>
       </c>
       <c r="D134" t="n">
-        <v>0.236791</v>
+        <v>0.236839</v>
       </c>
       <c r="E134" t="n">
-        <v>0.324546</v>
+        <v>0.324781</v>
       </c>
     </row>
     <row r="135">
@@ -6439,16 +6439,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.186763</v>
+        <v>0.187363</v>
       </c>
       <c r="C135" t="n">
-        <v>0.454295</v>
+        <v>0.456759</v>
       </c>
       <c r="D135" t="n">
-        <v>0.236044</v>
+        <v>0.236098</v>
       </c>
       <c r="E135" t="n">
-        <v>0.323749</v>
+        <v>0.323816</v>
       </c>
     </row>
     <row r="136">
@@ -6456,16 +6456,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.17829</v>
+        <v>0.178886</v>
       </c>
       <c r="C136" t="n">
-        <v>0.448486</v>
+        <v>0.451571</v>
       </c>
       <c r="D136" t="n">
-        <v>0.235282</v>
+        <v>0.235311</v>
       </c>
       <c r="E136" t="n">
-        <v>0.322916</v>
+        <v>0.322978</v>
       </c>
     </row>
     <row r="137">
@@ -6473,16 +6473,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168841</v>
+        <v>0.168293</v>
       </c>
       <c r="C137" t="n">
-        <v>0.439232</v>
+        <v>0.441724</v>
       </c>
       <c r="D137" t="n">
-        <v>0.250782</v>
+        <v>0.25091</v>
       </c>
       <c r="E137" t="n">
-        <v>0.33668</v>
+        <v>0.336671</v>
       </c>
     </row>
     <row r="138">
@@ -6490,16 +6490,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.249551</v>
+        <v>0.248268</v>
       </c>
       <c r="C138" t="n">
-        <v>0.435258</v>
+        <v>0.437619</v>
       </c>
       <c r="D138" t="n">
-        <v>0.248811</v>
+        <v>0.248875</v>
       </c>
       <c r="E138" t="n">
-        <v>0.335956</v>
+        <v>0.336159</v>
       </c>
     </row>
     <row r="139">
@@ -6507,16 +6507,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244506</v>
+        <v>0.244412</v>
       </c>
       <c r="C139" t="n">
-        <v>0.428446</v>
+        <v>0.430752</v>
       </c>
       <c r="D139" t="n">
-        <v>0.247029</v>
+        <v>0.247207</v>
       </c>
       <c r="E139" t="n">
-        <v>0.333652</v>
+        <v>0.333777</v>
       </c>
     </row>
     <row r="140">
@@ -6524,16 +6524,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.240297</v>
+        <v>0.241881</v>
       </c>
       <c r="C140" t="n">
-        <v>0.424077</v>
+        <v>0.427334</v>
       </c>
       <c r="D140" t="n">
-        <v>0.245535</v>
+        <v>0.245716</v>
       </c>
       <c r="E140" t="n">
-        <v>0.332926</v>
+        <v>0.333156</v>
       </c>
     </row>
     <row r="141">
@@ -6541,16 +6541,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.237251</v>
+        <v>0.237255</v>
       </c>
       <c r="C141" t="n">
-        <v>0.418584</v>
+        <v>0.420689</v>
       </c>
       <c r="D141" t="n">
-        <v>0.244157</v>
+        <v>0.244315</v>
       </c>
       <c r="E141" t="n">
-        <v>0.331551</v>
+        <v>0.33184</v>
       </c>
     </row>
     <row r="142">
@@ -6558,16 +6558,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.232139</v>
+        <v>0.232286</v>
       </c>
       <c r="C142" t="n">
-        <v>0.41389</v>
+        <v>0.415717</v>
       </c>
       <c r="D142" t="n">
-        <v>0.242877</v>
+        <v>0.243019</v>
       </c>
       <c r="E142" t="n">
-        <v>0.330248</v>
+        <v>0.330536</v>
       </c>
     </row>
     <row r="143">
@@ -6575,16 +6575,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.22696</v>
+        <v>0.226913</v>
       </c>
       <c r="C143" t="n">
-        <v>0.408366</v>
+        <v>0.409914</v>
       </c>
       <c r="D143" t="n">
-        <v>0.241658</v>
+        <v>0.241898</v>
       </c>
       <c r="E143" t="n">
-        <v>0.329081</v>
+        <v>0.329322</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -4140,7 +4140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4178,16 +4178,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.190899</v>
+        <v>0.195456</v>
       </c>
       <c r="C2" t="n">
-        <v>0.307311</v>
+        <v>0.315985</v>
       </c>
       <c r="D2" t="n">
-        <v>0.207469</v>
+        <v>0.305703</v>
       </c>
       <c r="E2" t="n">
-        <v>0.314375</v>
+        <v>0.211884</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.317576</v>
       </c>
     </row>
     <row r="3">
@@ -4195,16 +4198,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.188465</v>
+        <v>0.193907</v>
       </c>
       <c r="C3" t="n">
-        <v>0.30819</v>
+        <v>0.313191</v>
       </c>
       <c r="D3" t="n">
-        <v>0.213023</v>
+        <v>0.306807</v>
       </c>
       <c r="E3" t="n">
-        <v>0.315926</v>
+        <v>0.212435</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.317198</v>
       </c>
     </row>
     <row r="4">
@@ -4212,16 +4218,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.182256</v>
+        <v>0.188321</v>
       </c>
       <c r="C4" t="n">
-        <v>0.308194</v>
+        <v>0.307309</v>
       </c>
       <c r="D4" t="n">
-        <v>0.21249</v>
+        <v>0.308167</v>
       </c>
       <c r="E4" t="n">
-        <v>0.314862</v>
+        <v>0.214697</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.31535</v>
       </c>
     </row>
     <row r="5">
@@ -4229,16 +4238,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.179193</v>
+        <v>0.181318</v>
       </c>
       <c r="C5" t="n">
-        <v>0.309428</v>
+        <v>0.304032</v>
       </c>
       <c r="D5" t="n">
-        <v>0.216126</v>
+        <v>0.309389</v>
       </c>
       <c r="E5" t="n">
-        <v>0.314518</v>
+        <v>0.215592</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.314097</v>
       </c>
     </row>
     <row r="6">
@@ -4246,16 +4258,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.17385</v>
+        <v>0.175712</v>
       </c>
       <c r="C6" t="n">
-        <v>0.309747</v>
+        <v>0.300367</v>
       </c>
       <c r="D6" t="n">
-        <v>0.216811</v>
+        <v>0.310127</v>
       </c>
       <c r="E6" t="n">
-        <v>0.313145</v>
+        <v>0.217024</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.312708</v>
       </c>
     </row>
     <row r="7">
@@ -4263,16 +4278,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.171021</v>
+        <v>0.166985</v>
       </c>
       <c r="C7" t="n">
-        <v>0.302427</v>
+        <v>0.292994</v>
       </c>
       <c r="D7" t="n">
-        <v>0.219327</v>
+        <v>0.304365</v>
       </c>
       <c r="E7" t="n">
-        <v>0.312248</v>
+        <v>0.218291</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.311884</v>
       </c>
     </row>
     <row r="8">
@@ -4280,16 +4298,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.160633</v>
+        <v>0.159517</v>
       </c>
       <c r="C8" t="n">
-        <v>0.303914</v>
+        <v>0.284271</v>
       </c>
       <c r="D8" t="n">
-        <v>0.219887</v>
+        <v>0.304293</v>
       </c>
       <c r="E8" t="n">
-        <v>0.312584</v>
+        <v>0.219528</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.312022</v>
       </c>
     </row>
     <row r="9">
@@ -4297,16 +4318,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.152689</v>
+        <v>0.149816</v>
       </c>
       <c r="C9" t="n">
-        <v>0.304466</v>
+        <v>0.277039</v>
       </c>
       <c r="D9" t="n">
-        <v>0.233627</v>
+        <v>0.304724</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3294</v>
+        <v>0.235047</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.327435</v>
       </c>
     </row>
     <row r="10">
@@ -4314,16 +4338,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.228228</v>
+        <v>0.231459</v>
       </c>
       <c r="C10" t="n">
-        <v>0.305535</v>
+        <v>0.349299</v>
       </c>
       <c r="D10" t="n">
-        <v>0.232725</v>
+        <v>0.305741</v>
       </c>
       <c r="E10" t="n">
-        <v>0.327478</v>
+        <v>0.23443</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.326641</v>
       </c>
     </row>
     <row r="11">
@@ -4331,16 +4358,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.227623</v>
+        <v>0.226381</v>
       </c>
       <c r="C11" t="n">
-        <v>0.305654</v>
+        <v>0.346291</v>
       </c>
       <c r="D11" t="n">
-        <v>0.233948</v>
+        <v>0.307075</v>
       </c>
       <c r="E11" t="n">
-        <v>0.328591</v>
+        <v>0.23466</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.326142</v>
       </c>
     </row>
     <row r="12">
@@ -4348,16 +4378,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.223508</v>
+        <v>0.225971</v>
       </c>
       <c r="C12" t="n">
-        <v>0.305938</v>
+        <v>0.342883</v>
       </c>
       <c r="D12" t="n">
-        <v>0.232737</v>
+        <v>0.308924</v>
       </c>
       <c r="E12" t="n">
-        <v>0.326975</v>
+        <v>0.234502</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.327308</v>
       </c>
     </row>
     <row r="13">
@@ -4365,16 +4398,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222108</v>
+        <v>0.222077</v>
       </c>
       <c r="C13" t="n">
-        <v>0.307002</v>
+        <v>0.337713</v>
       </c>
       <c r="D13" t="n">
-        <v>0.233013</v>
+        <v>0.307531</v>
       </c>
       <c r="E13" t="n">
-        <v>0.325623</v>
+        <v>0.2336</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.325606</v>
       </c>
     </row>
     <row r="14">
@@ -4382,16 +4418,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216232</v>
+        <v>0.218231</v>
       </c>
       <c r="C14" t="n">
-        <v>0.308215</v>
+        <v>0.334523</v>
       </c>
       <c r="D14" t="n">
-        <v>0.233399</v>
+        <v>0.308573</v>
       </c>
       <c r="E14" t="n">
-        <v>0.324391</v>
+        <v>0.234393</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.324229</v>
       </c>
     </row>
     <row r="15">
@@ -4399,16 +4438,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.211337</v>
+        <v>0.214731</v>
       </c>
       <c r="C15" t="n">
-        <v>0.308423</v>
+        <v>0.330191</v>
       </c>
       <c r="D15" t="n">
-        <v>0.234004</v>
+        <v>0.30885</v>
       </c>
       <c r="E15" t="n">
-        <v>0.323024</v>
+        <v>0.234397</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.323364</v>
       </c>
     </row>
     <row r="16">
@@ -4416,16 +4458,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211637</v>
+        <v>0.210893</v>
       </c>
       <c r="C16" t="n">
-        <v>0.310079</v>
+        <v>0.323431</v>
       </c>
       <c r="D16" t="n">
-        <v>0.232863</v>
+        <v>0.310564</v>
       </c>
       <c r="E16" t="n">
-        <v>0.323069</v>
+        <v>0.234472</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.32232</v>
       </c>
     </row>
     <row r="17">
@@ -4433,16 +4478,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206402</v>
+        <v>0.205312</v>
       </c>
       <c r="C17" t="n">
-        <v>0.311042</v>
+        <v>0.315137</v>
       </c>
       <c r="D17" t="n">
-        <v>0.232399</v>
+        <v>0.31113</v>
       </c>
       <c r="E17" t="n">
-        <v>0.323088</v>
+        <v>0.234321</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.323735</v>
       </c>
     </row>
     <row r="18">
@@ -4450,16 +4498,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198714</v>
+        <v>0.198695</v>
       </c>
       <c r="C18" t="n">
-        <v>0.311309</v>
+        <v>0.30902</v>
       </c>
       <c r="D18" t="n">
-        <v>0.232837</v>
+        <v>0.312326</v>
       </c>
       <c r="E18" t="n">
-        <v>0.322469</v>
+        <v>0.23401</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.321536</v>
       </c>
     </row>
     <row r="19">
@@ -4467,16 +4518,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.192853</v>
+        <v>0.193032</v>
       </c>
       <c r="C19" t="n">
-        <v>0.31322</v>
+        <v>0.305218</v>
       </c>
       <c r="D19" t="n">
-        <v>0.231966</v>
+        <v>0.31394</v>
       </c>
       <c r="E19" t="n">
-        <v>0.320996</v>
+        <v>0.232679</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.320485</v>
       </c>
     </row>
     <row r="20">
@@ -4484,16 +4538,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187953</v>
+        <v>0.188011</v>
       </c>
       <c r="C20" t="n">
-        <v>0.313227</v>
+        <v>0.308608</v>
       </c>
       <c r="D20" t="n">
-        <v>0.232008</v>
+        <v>0.313809</v>
       </c>
       <c r="E20" t="n">
-        <v>0.321285</v>
+        <v>0.232691</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.320231</v>
       </c>
     </row>
     <row r="21">
@@ -4501,16 +4558,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.180103</v>
+        <v>0.180918</v>
       </c>
       <c r="C21" t="n">
-        <v>0.308965</v>
+        <v>0.299098</v>
       </c>
       <c r="D21" t="n">
-        <v>0.231507</v>
+        <v>0.3098</v>
       </c>
       <c r="E21" t="n">
-        <v>0.319735</v>
+        <v>0.231562</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.318939</v>
       </c>
     </row>
     <row r="22">
@@ -4518,16 +4578,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.172365</v>
+        <v>0.17251</v>
       </c>
       <c r="C22" t="n">
-        <v>0.309119</v>
+        <v>0.29096</v>
       </c>
       <c r="D22" t="n">
-        <v>0.231753</v>
+        <v>0.309319</v>
       </c>
       <c r="E22" t="n">
-        <v>0.31959</v>
+        <v>0.232078</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.318514</v>
       </c>
     </row>
     <row r="23">
@@ -4535,16 +4598,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.163046</v>
+        <v>0.162715</v>
       </c>
       <c r="C23" t="n">
-        <v>0.309335</v>
+        <v>0.275946</v>
       </c>
       <c r="D23" t="n">
-        <v>0.245266</v>
+        <v>0.309619</v>
       </c>
       <c r="E23" t="n">
-        <v>0.334614</v>
+        <v>0.246503</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.334113</v>
       </c>
     </row>
     <row r="24">
@@ -4552,16 +4618,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241411</v>
+        <v>0.24179</v>
       </c>
       <c r="C24" t="n">
-        <v>0.308983</v>
+        <v>0.350881</v>
       </c>
       <c r="D24" t="n">
-        <v>0.243052</v>
+        <v>0.309582</v>
       </c>
       <c r="E24" t="n">
-        <v>0.331931</v>
+        <v>0.244589</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.331839</v>
       </c>
     </row>
     <row r="25">
@@ -4569,16 +4638,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.237577</v>
+        <v>0.239388</v>
       </c>
       <c r="C25" t="n">
-        <v>0.310292</v>
+        <v>0.348823</v>
       </c>
       <c r="D25" t="n">
-        <v>0.242823</v>
+        <v>0.310668</v>
       </c>
       <c r="E25" t="n">
-        <v>0.332047</v>
+        <v>0.243556</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.33194</v>
       </c>
     </row>
     <row r="26">
@@ -4586,16 +4658,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233994</v>
+        <v>0.235072</v>
       </c>
       <c r="C26" t="n">
-        <v>0.31095</v>
+        <v>0.344536</v>
       </c>
       <c r="D26" t="n">
-        <v>0.241816</v>
+        <v>0.310488</v>
       </c>
       <c r="E26" t="n">
-        <v>0.330234</v>
+        <v>0.242702</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.330703</v>
       </c>
     </row>
     <row r="27">
@@ -4603,16 +4678,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230295</v>
+        <v>0.230964</v>
       </c>
       <c r="C27" t="n">
-        <v>0.312123</v>
+        <v>0.340087</v>
       </c>
       <c r="D27" t="n">
-        <v>0.241096</v>
+        <v>0.31107</v>
       </c>
       <c r="E27" t="n">
-        <v>0.329323</v>
+        <v>0.241859</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.329042</v>
       </c>
     </row>
     <row r="28">
@@ -4620,16 +4698,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.224916</v>
+        <v>0.227072</v>
       </c>
       <c r="C28" t="n">
-        <v>0.310913</v>
+        <v>0.33498</v>
       </c>
       <c r="D28" t="n">
-        <v>0.240105</v>
+        <v>0.311818</v>
       </c>
       <c r="E28" t="n">
-        <v>0.328108</v>
+        <v>0.240811</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.328516</v>
       </c>
     </row>
     <row r="29">
@@ -4637,16 +4718,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220846</v>
+        <v>0.224962</v>
       </c>
       <c r="C29" t="n">
-        <v>0.312227</v>
+        <v>0.330078</v>
       </c>
       <c r="D29" t="n">
-        <v>0.239626</v>
+        <v>0.312042</v>
       </c>
       <c r="E29" t="n">
-        <v>0.326973</v>
+        <v>0.240176</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.328135</v>
       </c>
     </row>
     <row r="30">
@@ -4654,16 +4738,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.216627</v>
+        <v>0.218232</v>
       </c>
       <c r="C30" t="n">
-        <v>0.312124</v>
+        <v>0.328316</v>
       </c>
       <c r="D30" t="n">
-        <v>0.238813</v>
+        <v>0.312612</v>
       </c>
       <c r="E30" t="n">
-        <v>0.326036</v>
+        <v>0.239259</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.32663</v>
       </c>
     </row>
     <row r="31">
@@ -4671,16 +4758,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.212724</v>
+        <v>0.212052</v>
       </c>
       <c r="C31" t="n">
-        <v>0.313485</v>
+        <v>0.32601</v>
       </c>
       <c r="D31" t="n">
-        <v>0.237968</v>
+        <v>0.31326</v>
       </c>
       <c r="E31" t="n">
-        <v>0.324969</v>
+        <v>0.238288</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.32455</v>
       </c>
     </row>
     <row r="32">
@@ -4688,16 +4778,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2073</v>
+        <v>0.20676</v>
       </c>
       <c r="C32" t="n">
-        <v>0.313284</v>
+        <v>0.321221</v>
       </c>
       <c r="D32" t="n">
-        <v>0.237043</v>
+        <v>0.314764</v>
       </c>
       <c r="E32" t="n">
-        <v>0.324349</v>
+        <v>0.23716</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.324222</v>
       </c>
     </row>
     <row r="33">
@@ -4705,16 +4798,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200245</v>
+        <v>0.201091</v>
       </c>
       <c r="C33" t="n">
-        <v>0.315128</v>
+        <v>0.31474</v>
       </c>
       <c r="D33" t="n">
-        <v>0.236267</v>
+        <v>0.31551</v>
       </c>
       <c r="E33" t="n">
-        <v>0.323314</v>
+        <v>0.236147</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.32359</v>
       </c>
     </row>
     <row r="34">
@@ -4722,16 +4818,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192955</v>
+        <v>0.1952</v>
       </c>
       <c r="C34" t="n">
-        <v>0.315775</v>
+        <v>0.30903</v>
       </c>
       <c r="D34" t="n">
-        <v>0.235757</v>
+        <v>0.316722</v>
       </c>
       <c r="E34" t="n">
-        <v>0.322421</v>
+        <v>0.235923</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.322886</v>
       </c>
     </row>
     <row r="35">
@@ -4739,16 +4838,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186209</v>
+        <v>0.18856</v>
       </c>
       <c r="C35" t="n">
-        <v>0.312421</v>
+        <v>0.298536</v>
       </c>
       <c r="D35" t="n">
-        <v>0.234844</v>
+        <v>0.314003</v>
       </c>
       <c r="E35" t="n">
-        <v>0.320902</v>
+        <v>0.235146</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.320457</v>
       </c>
     </row>
     <row r="36">
@@ -4756,16 +4858,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179504</v>
+        <v>0.179882</v>
       </c>
       <c r="C36" t="n">
-        <v>0.313772</v>
+        <v>0.286941</v>
       </c>
       <c r="D36" t="n">
-        <v>0.234575</v>
+        <v>0.314148</v>
       </c>
       <c r="E36" t="n">
-        <v>0.320007</v>
+        <v>0.234783</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.319402</v>
       </c>
     </row>
     <row r="37">
@@ -4773,16 +4878,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169033</v>
+        <v>0.171336</v>
       </c>
       <c r="C37" t="n">
-        <v>0.312484</v>
+        <v>0.279659</v>
       </c>
       <c r="D37" t="n">
-        <v>0.249112</v>
+        <v>0.313949</v>
       </c>
       <c r="E37" t="n">
-        <v>0.336383</v>
+        <v>0.24886</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.335901</v>
       </c>
     </row>
     <row r="38">
@@ -4790,16 +4898,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246074</v>
+        <v>0.247522</v>
       </c>
       <c r="C38" t="n">
-        <v>0.313391</v>
+        <v>0.355145</v>
       </c>
       <c r="D38" t="n">
-        <v>0.246299</v>
+        <v>0.312647</v>
       </c>
       <c r="E38" t="n">
-        <v>0.335004</v>
+        <v>0.246726</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.334874</v>
       </c>
     </row>
     <row r="39">
@@ -4807,16 +4918,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.242675</v>
+        <v>0.243423</v>
       </c>
       <c r="C39" t="n">
-        <v>0.314031</v>
+        <v>0.356712</v>
       </c>
       <c r="D39" t="n">
-        <v>0.245395</v>
+        <v>0.313472</v>
       </c>
       <c r="E39" t="n">
-        <v>0.334784</v>
+        <v>0.24572</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.334205</v>
       </c>
     </row>
     <row r="40">
@@ -4824,16 +4938,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239077</v>
+        <v>0.239932</v>
       </c>
       <c r="C40" t="n">
-        <v>0.313017</v>
+        <v>0.349615</v>
       </c>
       <c r="D40" t="n">
-        <v>0.243904</v>
+        <v>0.312993</v>
       </c>
       <c r="E40" t="n">
-        <v>0.333576</v>
+        <v>0.244686</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.332675</v>
       </c>
     </row>
     <row r="41">
@@ -4841,16 +4958,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234557</v>
+        <v>0.235579</v>
       </c>
       <c r="C41" t="n">
-        <v>0.31318</v>
+        <v>0.348147</v>
       </c>
       <c r="D41" t="n">
-        <v>0.242906</v>
+        <v>0.314058</v>
       </c>
       <c r="E41" t="n">
-        <v>0.331373</v>
+        <v>0.243675</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.331607</v>
       </c>
     </row>
     <row r="42">
@@ -4858,16 +4978,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230625</v>
+        <v>0.230847</v>
       </c>
       <c r="C42" t="n">
-        <v>0.314023</v>
+        <v>0.340223</v>
       </c>
       <c r="D42" t="n">
-        <v>0.241714</v>
+        <v>0.313743</v>
       </c>
       <c r="E42" t="n">
-        <v>0.330685</v>
+        <v>0.242149</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.330242</v>
       </c>
     </row>
     <row r="43">
@@ -4875,16 +4998,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.225429</v>
+        <v>0.227512</v>
       </c>
       <c r="C43" t="n">
-        <v>0.315147</v>
+        <v>0.338647</v>
       </c>
       <c r="D43" t="n">
-        <v>0.24057</v>
+        <v>0.314283</v>
       </c>
       <c r="E43" t="n">
-        <v>0.329883</v>
+        <v>0.240845</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.328816</v>
       </c>
     </row>
     <row r="44">
@@ -4892,16 +5018,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.219836</v>
+        <v>0.220788</v>
       </c>
       <c r="C44" t="n">
-        <v>0.317197</v>
+        <v>0.325197</v>
       </c>
       <c r="D44" t="n">
-        <v>0.239577</v>
+        <v>0.315839</v>
       </c>
       <c r="E44" t="n">
-        <v>0.329055</v>
+        <v>0.239895</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.328258</v>
       </c>
     </row>
     <row r="45">
@@ -4909,16 +5038,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.213928</v>
+        <v>0.215169</v>
       </c>
       <c r="C45" t="n">
-        <v>0.316347</v>
+        <v>0.336227</v>
       </c>
       <c r="D45" t="n">
-        <v>0.238865</v>
+        <v>0.315616</v>
       </c>
       <c r="E45" t="n">
-        <v>0.327656</v>
+        <v>0.238839</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.327118</v>
       </c>
     </row>
     <row r="46">
@@ -4926,16 +5058,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.208632</v>
+        <v>0.209952</v>
       </c>
       <c r="C46" t="n">
-        <v>0.317376</v>
+        <v>0.322312</v>
       </c>
       <c r="D46" t="n">
-        <v>0.238007</v>
+        <v>0.316889</v>
       </c>
       <c r="E46" t="n">
-        <v>0.326549</v>
+        <v>0.23795</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.325606</v>
       </c>
     </row>
     <row r="47">
@@ -4943,16 +5078,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.202807</v>
+        <v>0.204233</v>
       </c>
       <c r="C47" t="n">
-        <v>0.318679</v>
+        <v>0.318232</v>
       </c>
       <c r="D47" t="n">
-        <v>0.237206</v>
+        <v>0.318076</v>
       </c>
       <c r="E47" t="n">
-        <v>0.325785</v>
+        <v>0.237484</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.324788</v>
       </c>
     </row>
     <row r="48">
@@ -4960,16 +5098,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.19843</v>
+        <v>0.198734</v>
       </c>
       <c r="C48" t="n">
-        <v>0.319604</v>
+        <v>0.306001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.236172</v>
+        <v>0.317522</v>
       </c>
       <c r="E48" t="n">
-        <v>0.324407</v>
+        <v>0.236614</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.323684</v>
       </c>
     </row>
     <row r="49">
@@ -4977,16 +5118,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189625</v>
+        <v>0.191313</v>
       </c>
       <c r="C49" t="n">
-        <v>0.319348</v>
+        <v>0.302909</v>
       </c>
       <c r="D49" t="n">
-        <v>0.235661</v>
+        <v>0.318985</v>
       </c>
       <c r="E49" t="n">
-        <v>0.323559</v>
+        <v>0.235724</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.323058</v>
       </c>
     </row>
     <row r="50">
@@ -4994,16 +5138,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.18229</v>
+        <v>0.183949</v>
       </c>
       <c r="C50" t="n">
-        <v>0.319016</v>
+        <v>0.299069</v>
       </c>
       <c r="D50" t="n">
-        <v>0.234833</v>
+        <v>0.317888</v>
       </c>
       <c r="E50" t="n">
-        <v>0.322457</v>
+        <v>0.235064</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.322125</v>
       </c>
     </row>
     <row r="51">
@@ -5011,16 +5158,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173472</v>
+        <v>0.175187</v>
       </c>
       <c r="C51" t="n">
-        <v>0.318205</v>
+        <v>0.286007</v>
       </c>
       <c r="D51" t="n">
-        <v>0.248862</v>
+        <v>0.317666</v>
       </c>
       <c r="E51" t="n">
-        <v>0.337561</v>
+        <v>0.249238</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.337059</v>
       </c>
     </row>
     <row r="52">
@@ -5028,16 +5178,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.162202</v>
+        <v>0.163987</v>
       </c>
       <c r="C52" t="n">
-        <v>0.318054</v>
+        <v>0.281178</v>
       </c>
       <c r="D52" t="n">
-        <v>0.247665</v>
+        <v>0.319785</v>
       </c>
       <c r="E52" t="n">
-        <v>0.336342</v>
+        <v>0.247924</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.335705</v>
       </c>
     </row>
     <row r="53">
@@ -5045,16 +5198,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246202</v>
+        <v>0.246322</v>
       </c>
       <c r="C53" t="n">
-        <v>0.317903</v>
+        <v>0.359246</v>
       </c>
       <c r="D53" t="n">
-        <v>0.246785</v>
+        <v>0.318876</v>
       </c>
       <c r="E53" t="n">
-        <v>0.334286</v>
+        <v>0.246669</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.334186</v>
       </c>
     </row>
     <row r="54">
@@ -5062,16 +5218,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241788</v>
+        <v>0.241774</v>
       </c>
       <c r="C54" t="n">
-        <v>0.318586</v>
+        <v>0.357314</v>
       </c>
       <c r="D54" t="n">
-        <v>0.245286</v>
+        <v>0.320656</v>
       </c>
       <c r="E54" t="n">
-        <v>0.332974</v>
+        <v>0.24543</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.332949</v>
       </c>
     </row>
     <row r="55">
@@ -5079,16 +5238,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.238161</v>
+        <v>0.238097</v>
       </c>
       <c r="C55" t="n">
-        <v>0.318857</v>
+        <v>0.354169</v>
       </c>
       <c r="D55" t="n">
-        <v>0.243799</v>
+        <v>0.321472</v>
       </c>
       <c r="E55" t="n">
-        <v>0.331926</v>
+        <v>0.243937</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.331339</v>
       </c>
     </row>
     <row r="56">
@@ -5096,16 +5258,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.2333</v>
+        <v>0.233362</v>
       </c>
       <c r="C56" t="n">
-        <v>0.31916</v>
+        <v>0.349906</v>
       </c>
       <c r="D56" t="n">
-        <v>0.24252</v>
+        <v>0.32398</v>
       </c>
       <c r="E56" t="n">
-        <v>0.330334</v>
+        <v>0.242856</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.330074</v>
       </c>
     </row>
     <row r="57">
@@ -5113,16 +5278,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227758</v>
+        <v>0.228484</v>
       </c>
       <c r="C57" t="n">
-        <v>0.320778</v>
+        <v>0.346327</v>
       </c>
       <c r="D57" t="n">
-        <v>0.241322</v>
+        <v>0.324333</v>
       </c>
       <c r="E57" t="n">
-        <v>0.329257</v>
+        <v>0.24174</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.328686</v>
       </c>
     </row>
     <row r="58">
@@ -5130,16 +5298,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222306</v>
+        <v>0.222656</v>
       </c>
       <c r="C58" t="n">
-        <v>0.321734</v>
+        <v>0.32601</v>
       </c>
       <c r="D58" t="n">
-        <v>0.240485</v>
+        <v>0.327522</v>
       </c>
       <c r="E58" t="n">
-        <v>0.327959</v>
+        <v>0.240636</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.328232</v>
       </c>
     </row>
     <row r="59">
@@ -5147,16 +5318,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.21687</v>
+        <v>0.218019</v>
       </c>
       <c r="C59" t="n">
-        <v>0.323966</v>
+        <v>0.337491</v>
       </c>
       <c r="D59" t="n">
-        <v>0.239432</v>
+        <v>0.328904</v>
       </c>
       <c r="E59" t="n">
-        <v>0.327606</v>
+        <v>0.239846</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.327218</v>
       </c>
     </row>
     <row r="60">
@@ -5164,16 +5338,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211041</v>
+        <v>0.212139</v>
       </c>
       <c r="C60" t="n">
-        <v>0.324541</v>
+        <v>0.317183</v>
       </c>
       <c r="D60" t="n">
-        <v>0.238468</v>
+        <v>0.330681</v>
       </c>
       <c r="E60" t="n">
-        <v>0.325974</v>
+        <v>0.238859</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.325799</v>
       </c>
     </row>
     <row r="61">
@@ -5181,16 +5358,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.205353</v>
+        <v>0.206087</v>
       </c>
       <c r="C61" t="n">
-        <v>0.32646</v>
+        <v>0.32249</v>
       </c>
       <c r="D61" t="n">
-        <v>0.237858</v>
+        <v>0.331926</v>
       </c>
       <c r="E61" t="n">
-        <v>0.324974</v>
+        <v>0.237901</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.325387</v>
       </c>
     </row>
     <row r="62">
@@ -5198,16 +5378,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.199345</v>
+        <v>0.200182</v>
       </c>
       <c r="C62" t="n">
-        <v>0.329323</v>
+        <v>0.314177</v>
       </c>
       <c r="D62" t="n">
-        <v>0.236903</v>
+        <v>0.334031</v>
       </c>
       <c r="E62" t="n">
-        <v>0.324111</v>
+        <v>0.237172</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.324086</v>
       </c>
     </row>
     <row r="63">
@@ -5215,16 +5398,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.193069</v>
+        <v>0.194297</v>
       </c>
       <c r="C63" t="n">
-        <v>0.331926</v>
+        <v>0.326079</v>
       </c>
       <c r="D63" t="n">
-        <v>0.236067</v>
+        <v>0.337024</v>
       </c>
       <c r="E63" t="n">
-        <v>0.323571</v>
+        <v>0.236285</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.323528</v>
       </c>
     </row>
     <row r="64">
@@ -5232,16 +5418,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.18571</v>
+        <v>0.186986</v>
       </c>
       <c r="C64" t="n">
-        <v>0.371076</v>
+        <v>0.312292</v>
       </c>
       <c r="D64" t="n">
-        <v>0.235118</v>
+        <v>0.376991</v>
       </c>
       <c r="E64" t="n">
-        <v>0.322376</v>
+        <v>0.23535</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.321752</v>
       </c>
     </row>
     <row r="65">
@@ -5249,16 +5438,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177558</v>
+        <v>0.177648</v>
       </c>
       <c r="C65" t="n">
-        <v>0.37364</v>
+        <v>0.32921</v>
       </c>
       <c r="D65" t="n">
-        <v>0.234324</v>
+        <v>0.375313</v>
       </c>
       <c r="E65" t="n">
-        <v>0.321639</v>
+        <v>0.2346</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.320774</v>
       </c>
     </row>
     <row r="66">
@@ -5266,16 +5458,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167753</v>
+        <v>0.167874</v>
       </c>
       <c r="C66" t="n">
-        <v>0.375575</v>
+        <v>0.303699</v>
       </c>
       <c r="D66" t="n">
-        <v>0.249475</v>
+        <v>0.3775</v>
       </c>
       <c r="E66" t="n">
-        <v>0.337736</v>
+        <v>0.248999</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.337092</v>
       </c>
     </row>
     <row r="67">
@@ -5283,16 +5478,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247532</v>
+        <v>0.247767</v>
       </c>
       <c r="C67" t="n">
-        <v>0.377461</v>
+        <v>0.453407</v>
       </c>
       <c r="D67" t="n">
-        <v>0.247458</v>
+        <v>0.378131</v>
       </c>
       <c r="E67" t="n">
-        <v>0.336443</v>
+        <v>0.247592</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.335483</v>
       </c>
     </row>
     <row r="68">
@@ -5300,16 +5498,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.244084</v>
+        <v>0.244035</v>
       </c>
       <c r="C68" t="n">
-        <v>0.379778</v>
+        <v>0.370516</v>
       </c>
       <c r="D68" t="n">
-        <v>0.246102</v>
+        <v>0.379166</v>
       </c>
       <c r="E68" t="n">
-        <v>0.334745</v>
+        <v>0.246287</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.334176</v>
       </c>
     </row>
     <row r="69">
@@ -5317,16 +5518,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239563</v>
+        <v>0.239956</v>
       </c>
       <c r="C69" t="n">
-        <v>0.379462</v>
+        <v>0.368142</v>
       </c>
       <c r="D69" t="n">
-        <v>0.244704</v>
+        <v>0.379493</v>
       </c>
       <c r="E69" t="n">
-        <v>0.334058</v>
+        <v>0.245106</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.333165</v>
       </c>
     </row>
     <row r="70">
@@ -5334,16 +5538,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235149</v>
+        <v>0.235306</v>
       </c>
       <c r="C70" t="n">
-        <v>0.381075</v>
+        <v>0.362945</v>
       </c>
       <c r="D70" t="n">
-        <v>0.243322</v>
+        <v>0.37929</v>
       </c>
       <c r="E70" t="n">
-        <v>0.332602</v>
+        <v>0.243667</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.33152</v>
       </c>
     </row>
     <row r="71">
@@ -5351,16 +5558,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230123</v>
+        <v>0.2301</v>
       </c>
       <c r="C71" t="n">
-        <v>0.380885</v>
+        <v>0.357899</v>
       </c>
       <c r="D71" t="n">
-        <v>0.242331</v>
+        <v>0.379874</v>
       </c>
       <c r="E71" t="n">
-        <v>0.330719</v>
+        <v>0.242538</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.330773</v>
       </c>
     </row>
     <row r="72">
@@ -5368,16 +5578,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.224836</v>
+        <v>0.224894</v>
       </c>
       <c r="C72" t="n">
-        <v>0.383371</v>
+        <v>0.478638</v>
       </c>
       <c r="D72" t="n">
-        <v>0.241061</v>
+        <v>0.382078</v>
       </c>
       <c r="E72" t="n">
-        <v>0.330037</v>
+        <v>0.241335</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.32974</v>
       </c>
     </row>
     <row r="73">
@@ -5385,16 +5598,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.21931</v>
+        <v>0.220609</v>
       </c>
       <c r="C73" t="n">
-        <v>0.382182</v>
+        <v>0.418814</v>
       </c>
       <c r="D73" t="n">
-        <v>0.239989</v>
+        <v>0.380694</v>
       </c>
       <c r="E73" t="n">
-        <v>0.328473</v>
+        <v>0.240259</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.328111</v>
       </c>
     </row>
     <row r="74">
@@ -5402,16 +5618,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213631</v>
+        <v>0.213962</v>
       </c>
       <c r="C74" t="n">
-        <v>0.381919</v>
+        <v>0.473669</v>
       </c>
       <c r="D74" t="n">
-        <v>0.239057</v>
+        <v>0.379742</v>
       </c>
       <c r="E74" t="n">
-        <v>0.328209</v>
+        <v>0.239452</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.326883</v>
       </c>
     </row>
     <row r="75">
@@ -5419,16 +5638,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.2075</v>
+        <v>0.208227</v>
       </c>
       <c r="C75" t="n">
-        <v>0.382703</v>
+        <v>0.465969</v>
       </c>
       <c r="D75" t="n">
-        <v>0.238247</v>
+        <v>0.379463</v>
       </c>
       <c r="E75" t="n">
-        <v>0.326939</v>
+        <v>0.238338</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.32608</v>
       </c>
     </row>
     <row r="76">
@@ -5436,16 +5658,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2016</v>
+        <v>0.202491</v>
       </c>
       <c r="C76" t="n">
-        <v>0.382746</v>
+        <v>0.423549</v>
       </c>
       <c r="D76" t="n">
-        <v>0.237402</v>
+        <v>0.380513</v>
       </c>
       <c r="E76" t="n">
-        <v>0.325881</v>
+        <v>0.237405</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.325269</v>
       </c>
     </row>
     <row r="77">
@@ -5453,16 +5678,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1946</v>
+        <v>0.196062</v>
       </c>
       <c r="C77" t="n">
-        <v>0.384072</v>
+        <v>0.395604</v>
       </c>
       <c r="D77" t="n">
-        <v>0.236614</v>
+        <v>0.381184</v>
       </c>
       <c r="E77" t="n">
-        <v>0.324811</v>
+        <v>0.236793</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.323383</v>
       </c>
     </row>
     <row r="78">
@@ -5470,16 +5698,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.187318</v>
+        <v>0.189039</v>
       </c>
       <c r="C78" t="n">
-        <v>0.442447</v>
+        <v>0.405021</v>
       </c>
       <c r="D78" t="n">
-        <v>0.235884</v>
+        <v>0.437702</v>
       </c>
       <c r="E78" t="n">
-        <v>0.323821</v>
+        <v>0.236002</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.323383</v>
       </c>
     </row>
     <row r="79">
@@ -5487,16 +5718,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178965</v>
+        <v>0.179915</v>
       </c>
       <c r="C79" t="n">
-        <v>0.437023</v>
+        <v>0.325084</v>
       </c>
       <c r="D79" t="n">
-        <v>0.235091</v>
+        <v>0.433674</v>
       </c>
       <c r="E79" t="n">
-        <v>0.323365</v>
+        <v>0.23527</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.322937</v>
       </c>
     </row>
     <row r="80">
@@ -5504,16 +5738,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.168896</v>
+        <v>0.170686</v>
       </c>
       <c r="C80" t="n">
-        <v>0.430064</v>
+        <v>0.370007</v>
       </c>
       <c r="D80" t="n">
-        <v>0.253549</v>
+        <v>0.428339</v>
       </c>
       <c r="E80" t="n">
-        <v>0.33696</v>
+        <v>0.253049</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.336565</v>
       </c>
     </row>
     <row r="81">
@@ -5521,16 +5758,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248793</v>
+        <v>0.249215</v>
       </c>
       <c r="C81" t="n">
-        <v>0.430844</v>
+        <v>0.381195</v>
       </c>
       <c r="D81" t="n">
-        <v>0.251258</v>
+        <v>0.426348</v>
       </c>
       <c r="E81" t="n">
-        <v>0.335337</v>
+        <v>0.250065</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.334972</v>
       </c>
     </row>
     <row r="82">
@@ -5538,16 +5778,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245091</v>
+        <v>0.245069</v>
       </c>
       <c r="C82" t="n">
-        <v>0.427206</v>
+        <v>0.362955</v>
       </c>
       <c r="D82" t="n">
-        <v>0.249638</v>
+        <v>0.425437</v>
       </c>
       <c r="E82" t="n">
-        <v>0.334415</v>
+        <v>0.247854</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.334431</v>
       </c>
     </row>
     <row r="83">
@@ -5555,16 +5798,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.240976</v>
+        <v>0.24096</v>
       </c>
       <c r="C83" t="n">
-        <v>0.420801</v>
+        <v>0.357366</v>
       </c>
       <c r="D83" t="n">
-        <v>0.247262</v>
+        <v>0.418587</v>
       </c>
       <c r="E83" t="n">
-        <v>0.333049</v>
+        <v>0.247036</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.332343</v>
       </c>
     </row>
     <row r="84">
@@ -5572,16 +5818,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236078</v>
+        <v>0.236364</v>
       </c>
       <c r="C84" t="n">
-        <v>0.418267</v>
+        <v>0.353312</v>
       </c>
       <c r="D84" t="n">
-        <v>0.245686</v>
+        <v>0.414739</v>
       </c>
       <c r="E84" t="n">
-        <v>0.331434</v>
+        <v>0.245419</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.330952</v>
       </c>
     </row>
     <row r="85">
@@ -5589,16 +5838,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231314</v>
+        <v>0.231708</v>
       </c>
       <c r="C85" t="n">
-        <v>0.412507</v>
+        <v>0.367128</v>
       </c>
       <c r="D85" t="n">
-        <v>0.244214</v>
+        <v>0.413033</v>
       </c>
       <c r="E85" t="n">
-        <v>0.330322</v>
+        <v>0.243965</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.329961</v>
       </c>
     </row>
     <row r="86">
@@ -5606,16 +5858,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226083</v>
+        <v>0.227309</v>
       </c>
       <c r="C86" t="n">
-        <v>0.411993</v>
+        <v>0.342689</v>
       </c>
       <c r="D86" t="n">
-        <v>0.242538</v>
+        <v>0.410445</v>
       </c>
       <c r="E86" t="n">
-        <v>0.329267</v>
+        <v>0.242648</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.329176</v>
       </c>
     </row>
     <row r="87">
@@ -5623,16 +5878,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.22054</v>
+        <v>0.221269</v>
       </c>
       <c r="C87" t="n">
-        <v>0.408411</v>
+        <v>0.42662</v>
       </c>
       <c r="D87" t="n">
-        <v>0.241095</v>
+        <v>0.405811</v>
       </c>
       <c r="E87" t="n">
-        <v>0.327682</v>
+        <v>0.241169</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.327774</v>
       </c>
     </row>
     <row r="88">
@@ -5640,16 +5898,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215095</v>
+        <v>0.215333</v>
       </c>
       <c r="C88" t="n">
-        <v>0.405488</v>
+        <v>0.436016</v>
       </c>
       <c r="D88" t="n">
-        <v>0.239584</v>
+        <v>0.404151</v>
       </c>
       <c r="E88" t="n">
-        <v>0.326714</v>
+        <v>0.239714</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.326633</v>
       </c>
     </row>
     <row r="89">
@@ -5657,16 +5918,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.209132</v>
+        <v>0.209954</v>
       </c>
       <c r="C89" t="n">
-        <v>0.401611</v>
+        <v>0.422823</v>
       </c>
       <c r="D89" t="n">
-        <v>0.238674</v>
+        <v>0.40483</v>
       </c>
       <c r="E89" t="n">
-        <v>0.325727</v>
+        <v>0.23875</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.325803</v>
       </c>
     </row>
     <row r="90">
@@ -5674,16 +5938,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.203258</v>
+        <v>0.204084</v>
       </c>
       <c r="C90" t="n">
-        <v>0.404355</v>
+        <v>0.408438</v>
       </c>
       <c r="D90" t="n">
-        <v>0.237758</v>
+        <v>0.397712</v>
       </c>
       <c r="E90" t="n">
-        <v>0.324751</v>
+        <v>0.238086</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.324659</v>
       </c>
     </row>
     <row r="91">
@@ -5691,16 +5958,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196785</v>
+        <v>0.197562</v>
       </c>
       <c r="C91" t="n">
-        <v>0.398221</v>
+        <v>0.370655</v>
       </c>
       <c r="D91" t="n">
-        <v>0.236962</v>
+        <v>0.398775</v>
       </c>
       <c r="E91" t="n">
-        <v>0.323789</v>
+        <v>0.237057</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.323222</v>
       </c>
     </row>
     <row r="92">
@@ -5708,16 +5978,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189497</v>
+        <v>0.190482</v>
       </c>
       <c r="C92" t="n">
-        <v>0.446891</v>
+        <v>0.366188</v>
       </c>
       <c r="D92" t="n">
-        <v>0.236053</v>
+        <v>0.448898</v>
       </c>
       <c r="E92" t="n">
-        <v>0.322986</v>
+        <v>0.236261</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.322427</v>
       </c>
     </row>
     <row r="93">
@@ -5725,16 +5998,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181227</v>
+        <v>0.182101</v>
       </c>
       <c r="C93" t="n">
-        <v>0.444403</v>
+        <v>0.392342</v>
       </c>
       <c r="D93" t="n">
-        <v>0.235403</v>
+        <v>0.436602</v>
       </c>
       <c r="E93" t="n">
-        <v>0.322607</v>
+        <v>0.235496</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.32162</v>
       </c>
     </row>
     <row r="94">
@@ -5742,16 +6018,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.171814</v>
+        <v>0.173476</v>
       </c>
       <c r="C94" t="n">
-        <v>0.439573</v>
+        <v>0.378983</v>
       </c>
       <c r="D94" t="n">
-        <v>0.252169</v>
+        <v>0.43744</v>
       </c>
       <c r="E94" t="n">
-        <v>0.338138</v>
+        <v>0.252518</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.33792</v>
       </c>
     </row>
     <row r="95">
@@ -5759,16 +6038,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249386</v>
+        <v>0.249551</v>
       </c>
       <c r="C95" t="n">
-        <v>0.439231</v>
+        <v>0.517305</v>
       </c>
       <c r="D95" t="n">
-        <v>0.250056</v>
+        <v>0.4302</v>
       </c>
       <c r="E95" t="n">
-        <v>0.338959</v>
+        <v>0.249748</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.335993</v>
       </c>
     </row>
     <row r="96">
@@ -5776,16 +6058,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.24611</v>
+        <v>0.247267</v>
       </c>
       <c r="C96" t="n">
-        <v>0.431199</v>
+        <v>0.35635</v>
       </c>
       <c r="D96" t="n">
-        <v>0.248195</v>
+        <v>0.426529</v>
       </c>
       <c r="E96" t="n">
-        <v>0.337644</v>
+        <v>0.248371</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.33768</v>
       </c>
     </row>
     <row r="97">
@@ -5793,16 +6078,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241912</v>
+        <v>0.243268</v>
       </c>
       <c r="C97" t="n">
-        <v>0.420652</v>
+        <v>0.351886</v>
       </c>
       <c r="D97" t="n">
-        <v>0.247135</v>
+        <v>0.418088</v>
       </c>
       <c r="E97" t="n">
-        <v>0.335216</v>
+        <v>0.246934</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.33527</v>
       </c>
     </row>
     <row r="98">
@@ -5810,16 +6098,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237181</v>
+        <v>0.238857</v>
       </c>
       <c r="C98" t="n">
-        <v>0.416599</v>
+        <v>0.347481</v>
       </c>
       <c r="D98" t="n">
-        <v>0.245474</v>
+        <v>0.41467</v>
       </c>
       <c r="E98" t="n">
-        <v>0.332073</v>
+        <v>0.245464</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.332446</v>
       </c>
     </row>
     <row r="99">
@@ -5827,16 +6118,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.232342</v>
+        <v>0.234022</v>
       </c>
       <c r="C99" t="n">
-        <v>0.41587</v>
+        <v>0.342504</v>
       </c>
       <c r="D99" t="n">
-        <v>0.244058</v>
+        <v>0.411913</v>
       </c>
       <c r="E99" t="n">
-        <v>0.330956</v>
+        <v>0.243971</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.333285</v>
       </c>
     </row>
     <row r="100">
@@ -5844,16 +6138,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.227134</v>
+        <v>0.228932</v>
       </c>
       <c r="C100" t="n">
-        <v>0.412811</v>
+        <v>0.337233</v>
       </c>
       <c r="D100" t="n">
-        <v>0.242359</v>
+        <v>0.405987</v>
       </c>
       <c r="E100" t="n">
-        <v>0.329772</v>
+        <v>0.242831</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.329135</v>
       </c>
     </row>
     <row r="101">
@@ -5861,16 +6158,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.221577</v>
+        <v>0.223549</v>
       </c>
       <c r="C101" t="n">
-        <v>0.406551</v>
+        <v>0.405898</v>
       </c>
       <c r="D101" t="n">
-        <v>0.241351</v>
+        <v>0.4048</v>
       </c>
       <c r="E101" t="n">
-        <v>0.32896</v>
+        <v>0.241284</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.327503</v>
       </c>
     </row>
     <row r="102">
@@ -5878,16 +6178,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.215912</v>
+        <v>0.217523</v>
       </c>
       <c r="C102" t="n">
-        <v>0.40096</v>
+        <v>0.397168</v>
       </c>
       <c r="D102" t="n">
-        <v>0.240215</v>
+        <v>0.398967</v>
       </c>
       <c r="E102" t="n">
-        <v>0.327956</v>
+        <v>0.240412</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.327398</v>
       </c>
     </row>
     <row r="103">
@@ -5895,16 +6198,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.210135</v>
+        <v>0.211873</v>
       </c>
       <c r="C103" t="n">
-        <v>0.400246</v>
+        <v>0.443183</v>
       </c>
       <c r="D103" t="n">
-        <v>0.238808</v>
+        <v>0.396064</v>
       </c>
       <c r="E103" t="n">
-        <v>0.326858</v>
+        <v>0.239282</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.326509</v>
       </c>
     </row>
     <row r="104">
@@ -5912,16 +6218,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204085</v>
+        <v>0.206068</v>
       </c>
       <c r="C104" t="n">
-        <v>0.39696</v>
+        <v>0.399848</v>
       </c>
       <c r="D104" t="n">
-        <v>0.238284</v>
+        <v>0.394179</v>
       </c>
       <c r="E104" t="n">
-        <v>0.325901</v>
+        <v>0.2387</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.325476</v>
       </c>
     </row>
     <row r="105">
@@ -5929,16 +6238,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.19794</v>
+        <v>0.199461</v>
       </c>
       <c r="C105" t="n">
-        <v>0.393513</v>
+        <v>0.442134</v>
       </c>
       <c r="D105" t="n">
-        <v>0.237355</v>
+        <v>0.390662</v>
       </c>
       <c r="E105" t="n">
-        <v>0.325099</v>
+        <v>0.237665</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.32456</v>
       </c>
     </row>
     <row r="106">
@@ -5946,16 +6258,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191198</v>
+        <v>0.192343</v>
       </c>
       <c r="C106" t="n">
-        <v>0.388239</v>
+        <v>0.448701</v>
       </c>
       <c r="D106" t="n">
-        <v>0.23666</v>
+        <v>0.387819</v>
       </c>
       <c r="E106" t="n">
-        <v>0.324443</v>
+        <v>0.237165</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.323574</v>
       </c>
     </row>
     <row r="107">
@@ -5963,16 +6278,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183651</v>
+        <v>0.184087</v>
       </c>
       <c r="C107" t="n">
-        <v>0.421298</v>
+        <v>0.407338</v>
       </c>
       <c r="D107" t="n">
-        <v>0.235806</v>
+        <v>0.41999</v>
       </c>
       <c r="E107" t="n">
-        <v>0.323131</v>
+        <v>0.236073</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.321666</v>
       </c>
     </row>
     <row r="108">
@@ -5980,16 +6298,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174139</v>
+        <v>0.174993</v>
       </c>
       <c r="C108" t="n">
-        <v>0.417973</v>
+        <v>0.404473</v>
       </c>
       <c r="D108" t="n">
-        <v>0.25266</v>
+        <v>0.413566</v>
       </c>
       <c r="E108" t="n">
-        <v>0.338111</v>
+        <v>0.253081</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.337585</v>
       </c>
     </row>
     <row r="109">
@@ -5997,16 +6318,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.164143</v>
+        <v>0.163755</v>
       </c>
       <c r="C109" t="n">
-        <v>0.412302</v>
+        <v>0.392149</v>
       </c>
       <c r="D109" t="n">
-        <v>0.250112</v>
+        <v>0.408607</v>
       </c>
       <c r="E109" t="n">
-        <v>0.336185</v>
+        <v>0.250437</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.335871</v>
       </c>
     </row>
     <row r="110">
@@ -6014,16 +6338,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.246573</v>
+        <v>0.24806</v>
       </c>
       <c r="C110" t="n">
-        <v>0.408672</v>
+        <v>0.498327</v>
       </c>
       <c r="D110" t="n">
-        <v>0.248186</v>
+        <v>0.406039</v>
       </c>
       <c r="E110" t="n">
-        <v>0.334569</v>
+        <v>0.248385</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.334458</v>
       </c>
     </row>
     <row r="111">
@@ -6031,16 +6358,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.242722</v>
+        <v>0.243371</v>
       </c>
       <c r="C111" t="n">
-        <v>0.407222</v>
+        <v>0.49224</v>
       </c>
       <c r="D111" t="n">
-        <v>0.246533</v>
+        <v>0.401946</v>
       </c>
       <c r="E111" t="n">
-        <v>0.333283</v>
+        <v>0.246866</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.334003</v>
       </c>
     </row>
     <row r="112">
@@ -6048,16 +6378,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.238233</v>
+        <v>0.239826</v>
       </c>
       <c r="C112" t="n">
-        <v>0.402403</v>
+        <v>0.513277</v>
       </c>
       <c r="D112" t="n">
-        <v>0.245099</v>
+        <v>0.398337</v>
       </c>
       <c r="E112" t="n">
-        <v>0.332048</v>
+        <v>0.245252</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.33246</v>
       </c>
     </row>
     <row r="113">
@@ -6065,16 +6398,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.233484</v>
+        <v>0.234923</v>
       </c>
       <c r="C113" t="n">
-        <v>0.40003</v>
+        <v>0.5046929999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.24374</v>
+        <v>0.394171</v>
       </c>
       <c r="E113" t="n">
-        <v>0.331006</v>
+        <v>0.243959</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.331085</v>
       </c>
     </row>
     <row r="114">
@@ -6082,16 +6418,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.228292</v>
+        <v>0.229963</v>
       </c>
       <c r="C114" t="n">
-        <v>0.395109</v>
+        <v>0.495182</v>
       </c>
       <c r="D114" t="n">
-        <v>0.242474</v>
+        <v>0.391173</v>
       </c>
       <c r="E114" t="n">
-        <v>0.329485</v>
+        <v>0.242737</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.330015</v>
       </c>
     </row>
     <row r="115">
@@ -6099,16 +6438,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.223043</v>
+        <v>0.224543</v>
       </c>
       <c r="C115" t="n">
-        <v>0.394147</v>
+        <v>0.432704</v>
       </c>
       <c r="D115" t="n">
-        <v>0.24142</v>
+        <v>0.390315</v>
       </c>
       <c r="E115" t="n">
-        <v>0.32803</v>
+        <v>0.241581</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.327779</v>
       </c>
     </row>
     <row r="116">
@@ -6116,16 +6458,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217154</v>
+        <v>0.217991</v>
       </c>
       <c r="C116" t="n">
-        <v>0.388811</v>
+        <v>0.405584</v>
       </c>
       <c r="D116" t="n">
-        <v>0.240361</v>
+        <v>0.386094</v>
       </c>
       <c r="E116" t="n">
-        <v>0.326944</v>
+        <v>0.240479</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.327924</v>
       </c>
     </row>
     <row r="117">
@@ -6133,16 +6478,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.211297</v>
+        <v>0.212756</v>
       </c>
       <c r="C117" t="n">
-        <v>0.386098</v>
+        <v>0.385308</v>
       </c>
       <c r="D117" t="n">
-        <v>0.239329</v>
+        <v>0.383956</v>
       </c>
       <c r="E117" t="n">
-        <v>0.325819</v>
+        <v>0.23949</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.325569</v>
       </c>
     </row>
     <row r="118">
@@ -6150,16 +6498,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.205512</v>
+        <v>0.206407</v>
       </c>
       <c r="C118" t="n">
-        <v>0.38421</v>
+        <v>0.400436</v>
       </c>
       <c r="D118" t="n">
-        <v>0.238369</v>
+        <v>0.381497</v>
       </c>
       <c r="E118" t="n">
-        <v>0.324882</v>
+        <v>0.238682</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.324782</v>
       </c>
     </row>
     <row r="119">
@@ -6167,16 +6518,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.19909</v>
+        <v>0.200324</v>
       </c>
       <c r="C119" t="n">
-        <v>0.380871</v>
+        <v>0.431511</v>
       </c>
       <c r="D119" t="n">
-        <v>0.237549</v>
+        <v>0.380592</v>
       </c>
       <c r="E119" t="n">
-        <v>0.32391</v>
+        <v>0.237765</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.323702</v>
       </c>
     </row>
     <row r="120">
@@ -6184,16 +6538,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.19263</v>
+        <v>0.193462</v>
       </c>
       <c r="C120" t="n">
-        <v>0.378647</v>
+        <v>0.397419</v>
       </c>
       <c r="D120" t="n">
-        <v>0.236661</v>
+        <v>0.37863</v>
       </c>
       <c r="E120" t="n">
-        <v>0.323205</v>
+        <v>0.236968</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.322884</v>
       </c>
     </row>
     <row r="121">
@@ -6201,16 +6558,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.184933</v>
+        <v>0.185578</v>
       </c>
       <c r="C121" t="n">
-        <v>0.446924</v>
+        <v>0.40476</v>
       </c>
       <c r="D121" t="n">
-        <v>0.235929</v>
+        <v>0.453285</v>
       </c>
       <c r="E121" t="n">
-        <v>0.322267</v>
+        <v>0.236295</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.322178</v>
       </c>
     </row>
     <row r="122">
@@ -6218,16 +6578,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.177601</v>
+        <v>0.176676</v>
       </c>
       <c r="C122" t="n">
-        <v>0.441604</v>
+        <v>0.369121</v>
       </c>
       <c r="D122" t="n">
-        <v>0.23522</v>
+        <v>0.44683</v>
       </c>
       <c r="E122" t="n">
-        <v>0.321431</v>
+        <v>0.235508</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.32142</v>
       </c>
     </row>
     <row r="123">
@@ -6235,16 +6598,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.166544</v>
+        <v>0.165946</v>
       </c>
       <c r="C123" t="n">
-        <v>0.436092</v>
+        <v>0.357575</v>
       </c>
       <c r="D123" t="n">
-        <v>0.250433</v>
+        <v>0.43941</v>
       </c>
       <c r="E123" t="n">
-        <v>0.33662</v>
+        <v>0.250501</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.336229</v>
       </c>
     </row>
     <row r="124">
@@ -6252,16 +6618,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.247437</v>
+        <v>0.248867</v>
       </c>
       <c r="C124" t="n">
-        <v>0.431476</v>
+        <v>0.434353</v>
       </c>
       <c r="D124" t="n">
-        <v>0.24838</v>
+        <v>0.428724</v>
       </c>
       <c r="E124" t="n">
-        <v>0.334734</v>
+        <v>0.248574</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.335547</v>
       </c>
     </row>
     <row r="125">
@@ -6269,16 +6638,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.243574</v>
+        <v>0.245191</v>
       </c>
       <c r="C125" t="n">
-        <v>0.42815</v>
+        <v>0.438132</v>
       </c>
       <c r="D125" t="n">
-        <v>0.246717</v>
+        <v>0.424495</v>
       </c>
       <c r="E125" t="n">
-        <v>0.334195</v>
+        <v>0.246933</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.334378</v>
       </c>
     </row>
     <row r="126">
@@ -6286,16 +6658,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.239224</v>
+        <v>0.241101</v>
       </c>
       <c r="C126" t="n">
-        <v>0.421931</v>
+        <v>0.458085</v>
       </c>
       <c r="D126" t="n">
-        <v>0.24519</v>
+        <v>0.418999</v>
       </c>
       <c r="E126" t="n">
-        <v>0.333014</v>
+        <v>0.2455</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.333002</v>
       </c>
     </row>
     <row r="127">
@@ -6303,16 +6678,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.2344</v>
+        <v>0.236355</v>
       </c>
       <c r="C127" t="n">
-        <v>0.415403</v>
+        <v>0.466852</v>
       </c>
       <c r="D127" t="n">
-        <v>0.243903</v>
+        <v>0.41438</v>
       </c>
       <c r="E127" t="n">
-        <v>0.331061</v>
+        <v>0.244129</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.331834</v>
       </c>
     </row>
     <row r="128">
@@ -6320,16 +6698,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.229352</v>
+        <v>0.231142</v>
       </c>
       <c r="C128" t="n">
-        <v>0.411653</v>
+        <v>0.433262</v>
       </c>
       <c r="D128" t="n">
-        <v>0.242663</v>
+        <v>0.412397</v>
       </c>
       <c r="E128" t="n">
-        <v>0.329974</v>
+        <v>0.24289</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.330571</v>
       </c>
     </row>
     <row r="129">
@@ -6337,16 +6718,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224042</v>
+        <v>0.225565</v>
       </c>
       <c r="C129" t="n">
-        <v>0.408121</v>
+        <v>0.374824</v>
       </c>
       <c r="D129" t="n">
-        <v>0.241523</v>
+        <v>0.406039</v>
       </c>
       <c r="E129" t="n">
-        <v>0.329424</v>
+        <v>0.241546</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.329128</v>
       </c>
     </row>
     <row r="130">
@@ -6354,16 +6738,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.218557</v>
+        <v>0.219954</v>
       </c>
       <c r="C130" t="n">
-        <v>0.401749</v>
+        <v>0.412951</v>
       </c>
       <c r="D130" t="n">
-        <v>0.240419</v>
+        <v>0.400205</v>
       </c>
       <c r="E130" t="n">
-        <v>0.328535</v>
+        <v>0.240502</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.32828</v>
       </c>
     </row>
     <row r="131">
@@ -6371,16 +6758,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.212852</v>
+        <v>0.214167</v>
       </c>
       <c r="C131" t="n">
-        <v>0.399451</v>
+        <v>0.41002</v>
       </c>
       <c r="D131" t="n">
-        <v>0.239453</v>
+        <v>0.397017</v>
       </c>
       <c r="E131" t="n">
-        <v>0.327457</v>
+        <v>0.239436</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.327193</v>
       </c>
     </row>
     <row r="132">
@@ -6388,16 +6778,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207021</v>
+        <v>0.208126</v>
       </c>
       <c r="C132" t="n">
-        <v>0.396327</v>
+        <v>0.405689</v>
       </c>
       <c r="D132" t="n">
-        <v>0.238525</v>
+        <v>0.395909</v>
       </c>
       <c r="E132" t="n">
-        <v>0.326397</v>
+        <v>0.23853</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.32606</v>
       </c>
     </row>
     <row r="133">
@@ -6405,16 +6798,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.200925</v>
+        <v>0.202306</v>
       </c>
       <c r="C133" t="n">
-        <v>0.39158</v>
+        <v>0.411176</v>
       </c>
       <c r="D133" t="n">
-        <v>0.23762</v>
+        <v>0.392147</v>
       </c>
       <c r="E133" t="n">
-        <v>0.325525</v>
+        <v>0.237608</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.324966</v>
       </c>
     </row>
     <row r="134">
@@ -6422,16 +6818,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194309</v>
+        <v>0.195278</v>
       </c>
       <c r="C134" t="n">
-        <v>0.389562</v>
+        <v>0.373732</v>
       </c>
       <c r="D134" t="n">
-        <v>0.236839</v>
+        <v>0.389884</v>
       </c>
       <c r="E134" t="n">
-        <v>0.324781</v>
+        <v>0.236965</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.324134</v>
       </c>
     </row>
     <row r="135">
@@ -6439,16 +6838,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187363</v>
+        <v>0.188061</v>
       </c>
       <c r="C135" t="n">
-        <v>0.456759</v>
+        <v>0.401209</v>
       </c>
       <c r="D135" t="n">
-        <v>0.236098</v>
+        <v>0.455577</v>
       </c>
       <c r="E135" t="n">
-        <v>0.323816</v>
+        <v>0.236266</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.322184</v>
       </c>
     </row>
     <row r="136">
@@ -6456,16 +6858,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178886</v>
+        <v>0.178839</v>
       </c>
       <c r="C136" t="n">
-        <v>0.451571</v>
+        <v>0.350358</v>
       </c>
       <c r="D136" t="n">
-        <v>0.235311</v>
+        <v>0.451535</v>
       </c>
       <c r="E136" t="n">
-        <v>0.322978</v>
+        <v>0.235813</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.32263</v>
       </c>
     </row>
     <row r="137">
@@ -6473,16 +6878,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168293</v>
+        <v>0.168282</v>
       </c>
       <c r="C137" t="n">
-        <v>0.441724</v>
+        <v>0.363444</v>
       </c>
       <c r="D137" t="n">
-        <v>0.25091</v>
+        <v>0.442958</v>
       </c>
       <c r="E137" t="n">
-        <v>0.336671</v>
+        <v>0.250922</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.337603</v>
       </c>
     </row>
     <row r="138">
@@ -6490,16 +6898,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.248268</v>
+        <v>0.248792</v>
       </c>
       <c r="C138" t="n">
-        <v>0.437619</v>
+        <v>0.426448</v>
       </c>
       <c r="D138" t="n">
-        <v>0.248875</v>
+        <v>0.435108</v>
       </c>
       <c r="E138" t="n">
-        <v>0.336159</v>
+        <v>0.249136</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.336084</v>
       </c>
     </row>
     <row r="139">
@@ -6507,16 +6918,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244412</v>
+        <v>0.245602</v>
       </c>
       <c r="C139" t="n">
-        <v>0.430752</v>
+        <v>0.477613</v>
       </c>
       <c r="D139" t="n">
-        <v>0.247207</v>
+        <v>0.428172</v>
       </c>
       <c r="E139" t="n">
-        <v>0.333777</v>
+        <v>0.247497</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.334138</v>
       </c>
     </row>
     <row r="140">
@@ -6524,16 +6938,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.241881</v>
+        <v>0.241444</v>
       </c>
       <c r="C140" t="n">
-        <v>0.427334</v>
+        <v>0.469402</v>
       </c>
       <c r="D140" t="n">
-        <v>0.245716</v>
+        <v>0.426338</v>
       </c>
       <c r="E140" t="n">
-        <v>0.333156</v>
+        <v>0.245871</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.333294</v>
       </c>
     </row>
     <row r="141">
@@ -6541,16 +6958,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.237255</v>
+        <v>0.235704</v>
       </c>
       <c r="C141" t="n">
-        <v>0.420689</v>
+        <v>0.478794</v>
       </c>
       <c r="D141" t="n">
-        <v>0.244315</v>
+        <v>0.41788</v>
       </c>
       <c r="E141" t="n">
-        <v>0.33184</v>
+        <v>0.244502</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.332098</v>
       </c>
     </row>
     <row r="142">
@@ -6558,16 +6978,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.232286</v>
+        <v>0.231199</v>
       </c>
       <c r="C142" t="n">
-        <v>0.415717</v>
+        <v>0.359709</v>
       </c>
       <c r="D142" t="n">
-        <v>0.243019</v>
+        <v>0.412629</v>
       </c>
       <c r="E142" t="n">
-        <v>0.330536</v>
+        <v>0.243076</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.330249</v>
       </c>
     </row>
     <row r="143">
@@ -6575,16 +6998,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.226913</v>
+        <v>0.225732</v>
       </c>
       <c r="C143" t="n">
-        <v>0.409914</v>
+        <v>0.447914</v>
       </c>
       <c r="D143" t="n">
-        <v>0.241898</v>
+        <v>0.408071</v>
       </c>
       <c r="E143" t="n">
-        <v>0.329322</v>
+        <v>0.24186</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.328424</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0785698</v>
+                  <v>0.195456</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.07801</v>
+                  <v>0.193907</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.076334</v>
+                  <v>0.188321</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.07526380000000001</v>
+                  <v>0.181318</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.075381</v>
+                  <v>0.175712</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0733709</v>
+                  <v>0.166985</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.07293719999999999</v>
+                  <v>0.159517</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0715915</v>
+                  <v>0.149816</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.126204</v>
+                  <v>0.231459</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.121989</v>
+                  <v>0.226381</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.121594</v>
+                  <v>0.225971</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.117472</v>
+                  <v>0.222077</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.117571</v>
+                  <v>0.218231</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.115645</v>
+                  <v>0.214731</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.112146</v>
+                  <v>0.210893</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.109733</v>
+                  <v>0.205312</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.106337</v>
+                  <v>0.198695</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.103632</v>
+                  <v>0.193032</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0991889</v>
+                  <v>0.188011</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0962592</v>
+                  <v>0.180918</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.09309190000000001</v>
+                  <v>0.17251</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0899575</v>
+                  <v>0.162715</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.150258</v>
+                  <v>0.24179</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.147224</v>
+                  <v>0.239388</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.14444</v>
+                  <v>0.235072</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.140705</v>
+                  <v>0.230964</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.137402</v>
+                  <v>0.227072</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.133721</v>
+                  <v>0.224962</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.128955</v>
+                  <v>0.218232</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.12512</v>
+                  <v>0.212052</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.120441</v>
+                  <v>0.20676</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.114693</v>
+                  <v>0.201091</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.109617</v>
+                  <v>0.1952</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.104777</v>
+                  <v>0.18856</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.100498</v>
+                  <v>0.179882</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.095885</v>
+                  <v>0.171336</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.159284</v>
+                  <v>0.247522</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.156717</v>
+                  <v>0.243423</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.153778</v>
+                  <v>0.239932</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.149985</v>
+                  <v>0.235579</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.146067</v>
+                  <v>0.230847</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.14153</v>
+                  <v>0.227512</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.136851</v>
+                  <v>0.220788</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.131807</v>
+                  <v>0.215169</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.126538</v>
+                  <v>0.209952</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.121426</v>
+                  <v>0.204233</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.115851</v>
+                  <v>0.198734</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.110881</v>
+                  <v>0.191313</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.105341</v>
+                  <v>0.183949</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.100086</v>
+                  <v>0.175187</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.09492250000000001</v>
+                  <v>0.163987</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.161765</v>
+                  <v>0.246322</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.157751</v>
+                  <v>0.241774</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.153367</v>
+                  <v>0.238097</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.149046</v>
+                  <v>0.233362</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.144183</v>
+                  <v>0.228484</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.139449</v>
+                  <v>0.222656</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.134172</v>
+                  <v>0.218019</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.129251</v>
+                  <v>0.212139</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.124021</v>
+                  <v>0.206087</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.118888</v>
+                  <v>0.200182</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.113656</v>
+                  <v>0.194297</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.10868</v>
+                  <v>0.186986</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.103293</v>
+                  <v>0.177648</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.09785820000000001</v>
+                  <v>0.167874</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.163938</v>
+                  <v>0.247767</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.16019</v>
+                  <v>0.244035</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.156112</v>
+                  <v>0.239956</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.151234</v>
+                  <v>0.235306</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.1467</v>
+                  <v>0.2301</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.141537</v>
+                  <v>0.224894</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.136251</v>
+                  <v>0.220609</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.131385</v>
+                  <v>0.213962</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.125975</v>
+                  <v>0.208227</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.120806</v>
+                  <v>0.202491</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.115717</v>
+                  <v>0.196062</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.110491</v>
+                  <v>0.189039</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.105539</v>
+                  <v>0.179915</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.100332</v>
+                  <v>0.170686</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.164231</v>
+                  <v>0.249215</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.160433</v>
+                  <v>0.245069</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.156282</v>
+                  <v>0.24096</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.151513</v>
+                  <v>0.236364</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.146903</v>
+                  <v>0.231708</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.141991</v>
+                  <v>0.227309</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.136909</v>
+                  <v>0.221269</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.131753</v>
+                  <v>0.215333</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.126506</v>
+                  <v>0.209954</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.121357</v>
+                  <v>0.204084</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.116213</v>
+                  <v>0.197562</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.111081</v>
+                  <v>0.190482</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.106023</v>
+                  <v>0.182101</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.100876</v>
+                  <v>0.173476</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.165616</v>
+                  <v>0.249551</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.161892</v>
+                  <v>0.247267</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.157627</v>
+                  <v>0.243268</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.153045</v>
+                  <v>0.238857</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.148124</v>
+                  <v>0.234022</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.143096</v>
+                  <v>0.228932</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.137765</v>
+                  <v>0.223549</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.132801</v>
+                  <v>0.217523</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.127657</v>
+                  <v>0.211873</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.12242</v>
+                  <v>0.206068</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.11725</v>
+                  <v>0.199461</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.112112</v>
+                  <v>0.192343</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.10702</v>
+                  <v>0.184087</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.101872</v>
+                  <v>0.174993</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0966104</v>
+                  <v>0.163755</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.163181</v>
+                  <v>0.24806</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.159031</v>
+                  <v>0.243371</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.154378</v>
+                  <v>0.239826</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.149186</v>
+                  <v>0.234923</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.144248</v>
+                  <v>0.229963</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.138994</v>
+                  <v>0.224543</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.13388</v>
+                  <v>0.217991</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.128563</v>
+                  <v>0.212756</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.123492</v>
+                  <v>0.206407</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.118464</v>
+                  <v>0.200324</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.113129</v>
+                  <v>0.193462</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.108013</v>
+                  <v>0.185578</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.102901</v>
+                  <v>0.176676</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0977628</v>
+                  <v>0.165946</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.173028</v>
+                  <v>0.248867</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.168888</v>
+                  <v>0.245191</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.163702</v>
+                  <v>0.241101</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.158768</v>
+                  <v>0.236355</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.152967</v>
+                  <v>0.231142</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.147432</v>
+                  <v>0.225565</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.141975</v>
+                  <v>0.219954</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.13661</v>
+                  <v>0.214167</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.131002</v>
+                  <v>0.208126</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.125727</v>
+                  <v>0.202306</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.120213</v>
+                  <v>0.195278</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.114864</v>
+                  <v>0.188061</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.10935</v>
+                  <v>0.178839</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.103983</v>
+                  <v>0.168282</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.174103</v>
+                  <v>0.248792</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.16957</v>
+                  <v>0.245602</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.164907</v>
+                  <v>0.241444</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.159763</v>
+                  <v>0.235704</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.154327</v>
+                  <v>0.231199</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.148619</v>
+                  <v>0.225732</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.278661</v>
+                  <v>0.315985</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.281787</v>
+                  <v>0.313191</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.284602</v>
+                  <v>0.307309</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.285648</v>
+                  <v>0.304032</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.287433</v>
+                  <v>0.300367</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.274449</v>
+                  <v>0.292994</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.276621</v>
+                  <v>0.284271</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.278775</v>
+                  <v>0.277039</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.281341</v>
+                  <v>0.349299</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.282871</v>
+                  <v>0.346291</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.286431</v>
+                  <v>0.342883</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.286907</v>
+                  <v>0.337713</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.288799</v>
+                  <v>0.334523</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.290491</v>
+                  <v>0.330191</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.290309</v>
+                  <v>0.323431</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.291906</v>
+                  <v>0.315137</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.292277</v>
+                  <v>0.30902</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.293213</v>
+                  <v>0.305218</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.294434</v>
+                  <v>0.308608</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.283856</v>
+                  <v>0.299098</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.284349</v>
+                  <v>0.29096</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.284879</v>
+                  <v>0.275946</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.286239</v>
+                  <v>0.350881</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.287601</v>
+                  <v>0.348823</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.2876</v>
+                  <v>0.344536</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.288997</v>
+                  <v>0.340087</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.290481</v>
+                  <v>0.33498</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.291662</v>
+                  <v>0.330078</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.29328</v>
+                  <v>0.328316</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.294138</v>
+                  <v>0.32601</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.293505</v>
+                  <v>0.321221</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.296216</v>
+                  <v>0.31474</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.297426</v>
+                  <v>0.30903</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.285782</v>
+                  <v>0.298536</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.286008</v>
+                  <v>0.286941</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.287226</v>
+                  <v>0.279659</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.28761</v>
+                  <v>0.355145</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.289069</v>
+                  <v>0.356712</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.291258</v>
+                  <v>0.349615</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.292044</v>
+                  <v>0.348147</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.292541</v>
+                  <v>0.340223</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.294038</v>
+                  <v>0.338647</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.29517</v>
+                  <v>0.325197</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.295882</v>
+                  <v>0.336227</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.29714</v>
+                  <v>0.322312</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.297698</v>
+                  <v>0.318232</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.298015</v>
+                  <v>0.306001</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.2997</v>
+                  <v>0.302909</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.288124</v>
+                  <v>0.299069</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.28907</v>
+                  <v>0.286007</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.290364</v>
+                  <v>0.281178</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.29106</v>
+                  <v>0.359246</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.292367</v>
+                  <v>0.357314</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.292745</v>
+                  <v>0.354169</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.294376</v>
+                  <v>0.349906</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.295477</v>
+                  <v>0.346327</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.297108</v>
+                  <v>0.32601</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.298193</v>
+                  <v>0.337491</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.299347</v>
+                  <v>0.317183</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.300971</v>
+                  <v>0.32249</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.301872</v>
+                  <v>0.314177</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.302877</v>
+                  <v>0.326079</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.295352</v>
+                  <v>0.312292</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.297121</v>
+                  <v>0.32921</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.29808</v>
+                  <v>0.303699</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.300501</v>
+                  <v>0.453407</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.301419</v>
+                  <v>0.370516</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.304017</v>
+                  <v>0.368142</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.306256</v>
+                  <v>0.362945</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.30713</v>
+                  <v>0.357899</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.309409</v>
+                  <v>0.478638</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.312199</v>
+                  <v>0.418814</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.306165</v>
+                  <v>0.473669</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.309771</v>
+                  <v>0.465969</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.312349</v>
+                  <v>0.423549</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.315075</v>
+                  <v>0.395604</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.308787</v>
+                  <v>0.405021</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.31033</v>
+                  <v>0.325084</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.311713</v>
+                  <v>0.370007</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.31323</v>
+                  <v>0.381195</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.314737</v>
+                  <v>0.362955</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.31414</v>
+                  <v>0.357366</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.315762</v>
+                  <v>0.353312</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.318579</v>
+                  <v>0.367128</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.321262</v>
+                  <v>0.342689</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.323652</v>
+                  <v>0.42662</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325257</v>
+                  <v>0.436016</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.315909</v>
+                  <v>0.422823</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.318185</v>
+                  <v>0.408438</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.320763</v>
+                  <v>0.370655</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.295097</v>
+                  <v>0.366188</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.295977</v>
+                  <v>0.392342</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.297469</v>
+                  <v>0.378983</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.299469</v>
+                  <v>0.517305</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.301571</v>
+                  <v>0.35635</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.296998</v>
+                  <v>0.351886</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.299261</v>
+                  <v>0.347481</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.302162</v>
+                  <v>0.342504</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.303709</v>
+                  <v>0.337233</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.306448</v>
+                  <v>0.405898</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.310136</v>
+                  <v>0.397168</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.306796</v>
+                  <v>0.443183</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.30934</v>
+                  <v>0.399848</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.311905</v>
+                  <v>0.442134</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.313813</v>
+                  <v>0.448701</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.290918</v>
+                  <v>0.407338</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.292794</v>
+                  <v>0.404473</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.294234</v>
+                  <v>0.392149</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.295679</v>
+                  <v>0.498327</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.295282</v>
+                  <v>0.49224</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.296912</v>
+                  <v>0.513277</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.299968</v>
+                  <v>0.5046929999999999</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.299754</v>
+                  <v>0.495182</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.301842</v>
+                  <v>0.432704</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.304744</v>
+                  <v>0.405584</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.305408</v>
+                  <v>0.385308</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.307885</v>
+                  <v>0.400436</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.307962</v>
+                  <v>0.431511</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.310472</v>
+                  <v>0.397419</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.29361</v>
+                  <v>0.40476</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.293955</v>
+                  <v>0.369121</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.295548</v>
+                  <v>0.357575</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.29582</v>
+                  <v>0.434353</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.297457</v>
+                  <v>0.438132</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.298432</v>
+                  <v>0.458085</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.299124</v>
+                  <v>0.466852</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.30075</v>
+                  <v>0.433262</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.303137</v>
+                  <v>0.374824</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.304833</v>
+                  <v>0.412951</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.306146</v>
+                  <v>0.41002</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.307038</v>
+                  <v>0.405689</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.308538</v>
+                  <v>0.411176</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.311238</v>
+                  <v>0.373732</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.29305</v>
+                  <v>0.401209</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.293936</v>
+                  <v>0.350358</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.295193</v>
+                  <v>0.363444</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.295602</v>
+                  <v>0.426448</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.296406</v>
+                  <v>0.477613</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.297767</v>
+                  <v>0.469402</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.298622</v>
+                  <v>0.478794</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.300831</v>
+                  <v>0.359709</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.302162</v>
+                  <v>0.447914</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.161377</v>
+                  <v>0.305703</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.161805</v>
+                  <v>0.306807</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.16165</v>
+                  <v>0.308167</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.161383</v>
+                  <v>0.309389</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.161432</v>
+                  <v>0.310127</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.160883</v>
+                  <v>0.304365</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160682</v>
+                  <v>0.304293</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.168008</v>
+                  <v>0.304724</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.167609</v>
+                  <v>0.305741</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.167601</v>
+                  <v>0.307075</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.167266</v>
+                  <v>0.308924</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.166521</v>
+                  <v>0.307531</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.167893</v>
+                  <v>0.308573</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.16697</v>
+                  <v>0.30885</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.166146</v>
+                  <v>0.310564</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.165718</v>
+                  <v>0.31113</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.164994</v>
+                  <v>0.312326</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.164471</v>
+                  <v>0.31394</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.164271</v>
+                  <v>0.313809</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.163875</v>
+                  <v>0.3098</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163013</v>
+                  <v>0.309319</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.173693</v>
+                  <v>0.309619</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.173392</v>
+                  <v>0.309582</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.171978</v>
+                  <v>0.310668</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.172057</v>
+                  <v>0.310488</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.172897</v>
+                  <v>0.31107</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.17029</v>
+                  <v>0.311818</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.171219</v>
+                  <v>0.312042</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.169221</v>
+                  <v>0.312612</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.168358</v>
+                  <v>0.31326</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.168837</v>
+                  <v>0.314764</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.16865</v>
+                  <v>0.31551</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.166213</v>
+                  <v>0.316722</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.165749</v>
+                  <v>0.314003</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.165377</v>
+                  <v>0.314148</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.181607</v>
+                  <v>0.313949</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.179581</v>
+                  <v>0.312647</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.179549</v>
+                  <v>0.313472</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.177059</v>
+                  <v>0.312993</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.176741</v>
+                  <v>0.314058</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.175916</v>
+                  <v>0.313743</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.174191</v>
+                  <v>0.314283</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.173126</v>
+                  <v>0.315839</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.17289</v>
+                  <v>0.315616</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.171398</v>
+                  <v>0.316889</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.170656</v>
+                  <v>0.318076</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.169676</v>
+                  <v>0.317522</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.168742</v>
+                  <v>0.318985</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.167746</v>
+                  <v>0.317888</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.184643</v>
+                  <v>0.317666</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.18327</v>
+                  <v>0.319785</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.181852</v>
+                  <v>0.318876</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.180821</v>
+                  <v>0.320656</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.179281</v>
+                  <v>0.321472</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.178364</v>
+                  <v>0.32398</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.177349</v>
+                  <v>0.324333</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.176061</v>
+                  <v>0.327522</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.174862</v>
+                  <v>0.328904</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.17382</v>
+                  <v>0.330681</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.172776</v>
+                  <v>0.331926</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.171758</v>
+                  <v>0.334031</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.170447</v>
+                  <v>0.337024</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.169347</v>
+                  <v>0.376991</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.168119</v>
+                  <v>0.375313</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.185031</v>
+                  <v>0.3775</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.183681</v>
+                  <v>0.378131</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.182192</v>
+                  <v>0.379166</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.181223</v>
+                  <v>0.379493</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.1797</v>
+                  <v>0.37929</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.178455</v>
+                  <v>0.379874</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.177282</v>
+                  <v>0.382078</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.176083</v>
+                  <v>0.380694</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.174918</v>
+                  <v>0.379742</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.173816</v>
+                  <v>0.379463</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.172569</v>
+                  <v>0.380513</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.171501</v>
+                  <v>0.381184</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.170134</v>
+                  <v>0.437702</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.168946</v>
+                  <v>0.433674</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.18571</v>
+                  <v>0.428339</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.184182</v>
+                  <v>0.426348</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.182808</v>
+                  <v>0.425437</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.181466</v>
+                  <v>0.418587</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.180095</v>
+                  <v>0.414739</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.178727</v>
+                  <v>0.413033</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.177617</v>
+                  <v>0.410445</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.176367</v>
+                  <v>0.405811</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.175199</v>
+                  <v>0.404151</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.174092</v>
+                  <v>0.40483</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.17285</v>
+                  <v>0.397712</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.171697</v>
+                  <v>0.398775</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.170479</v>
+                  <v>0.448898</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.169232</v>
+                  <v>0.436602</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.186238</v>
+                  <v>0.43744</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.184776</v>
+                  <v>0.4302</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.183353</v>
+                  <v>0.426529</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.182029</v>
+                  <v>0.418088</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.180636</v>
+                  <v>0.41467</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.179256</v>
+                  <v>0.411913</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.178057</v>
+                  <v>0.405987</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.176775</v>
+                  <v>0.4048</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.175665</v>
+                  <v>0.398967</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.174317</v>
+                  <v>0.396064</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.173185</v>
+                  <v>0.394179</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.171964</v>
+                  <v>0.390662</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.170756</v>
+                  <v>0.387819</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.169512</v>
+                  <v>0.41999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.186733</v>
+                  <v>0.413566</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.18519</v>
+                  <v>0.408607</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.183764</v>
+                  <v>0.406039</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.182269</v>
+                  <v>0.401946</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.180909</v>
+                  <v>0.398337</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.179595</v>
+                  <v>0.394171</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.178396</v>
+                  <v>0.391173</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.177056</v>
+                  <v>0.390315</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.175815</v>
+                  <v>0.386094</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.174734</v>
+                  <v>0.383956</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.173443</v>
+                  <v>0.381497</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.172265</v>
+                  <v>0.380592</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.171018</v>
+                  <v>0.37863</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.169873</v>
+                  <v>0.453285</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.16868</v>
+                  <v>0.44683</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.185604</v>
+                  <v>0.43941</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.18407</v>
+                  <v>0.428724</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.182541</v>
+                  <v>0.424495</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.181177</v>
+                  <v>0.418999</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.179915</v>
+                  <v>0.41438</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.178443</v>
+                  <v>0.412397</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.177278</v>
+                  <v>0.406039</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.176076</v>
+                  <v>0.400205</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.174889</v>
+                  <v>0.397017</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.173751</v>
+                  <v>0.395909</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.172529</v>
+                  <v>0.392147</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.17138</v>
+                  <v>0.389884</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.170068</v>
+                  <v>0.455577</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.16884</v>
+                  <v>0.451535</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.196116</v>
+                  <v>0.442958</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.193136</v>
+                  <v>0.435108</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.191085</v>
+                  <v>0.428172</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.189452</v>
+                  <v>0.426338</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.187873</v>
+                  <v>0.41788</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.186202</v>
+                  <v>0.412629</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.184527</v>
+                  <v>0.408071</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.27075</v>
+                  <v>0.211884</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.271662</v>
+                  <v>0.212435</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.271133</v>
+                  <v>0.214697</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.274026</v>
+                  <v>0.215592</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.270847</v>
+                  <v>0.217024</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.274797</v>
+                  <v>0.218291</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.271653</v>
+                  <v>0.219528</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.280982</v>
+                  <v>0.235047</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.283694</v>
+                  <v>0.23443</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.281135</v>
+                  <v>0.23466</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.283407</v>
+                  <v>0.234502</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.278207</v>
+                  <v>0.2336</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.278501</v>
+                  <v>0.234393</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.277398</v>
+                  <v>0.234397</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.276845</v>
+                  <v>0.234472</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.27666</v>
+                  <v>0.234321</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.275895</v>
+                  <v>0.23401</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.273221</v>
+                  <v>0.232679</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.275609</v>
+                  <v>0.232691</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.272189</v>
+                  <v>0.231562</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.272107</v>
+                  <v>0.232078</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.285413</v>
+                  <v>0.246503</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.284843</v>
+                  <v>0.244589</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.284983</v>
+                  <v>0.243556</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.280853</v>
+                  <v>0.242702</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.281688</v>
+                  <v>0.241859</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.279487</v>
+                  <v>0.240811</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.280677</v>
+                  <v>0.240176</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.280292</v>
+                  <v>0.239259</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.280893</v>
+                  <v>0.238288</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.278407</v>
+                  <v>0.23716</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.279064</v>
+                  <v>0.236147</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.276623</v>
+                  <v>0.235923</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.275242</v>
+                  <v>0.235146</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.273643</v>
+                  <v>0.234783</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.28665</v>
+                  <v>0.24886</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.288314</v>
+                  <v>0.246726</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.283276</v>
+                  <v>0.24572</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.283897</v>
+                  <v>0.244686</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.282851</v>
+                  <v>0.243675</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.282467</v>
+                  <v>0.242149</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.280855</v>
+                  <v>0.240845</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.281927</v>
+                  <v>0.239895</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.278974</v>
+                  <v>0.238839</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.278439</v>
+                  <v>0.23795</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.280525</v>
+                  <v>0.237484</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.275232</v>
+                  <v>0.236614</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.274341</v>
+                  <v>0.235724</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.276063</v>
+                  <v>0.235064</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.291693</v>
+                  <v>0.249238</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.289798</v>
+                  <v>0.247924</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.287898</v>
+                  <v>0.246669</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.28715</v>
+                  <v>0.24543</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.28391</v>
+                  <v>0.243937</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.284432</v>
+                  <v>0.242856</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.28238</v>
+                  <v>0.24174</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.282797</v>
+                  <v>0.240636</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.281096</v>
+                  <v>0.239846</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.277033</v>
+                  <v>0.238859</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.276516</v>
+                  <v>0.237901</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.276848</v>
+                  <v>0.237172</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.279088</v>
+                  <v>0.236285</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.276751</v>
+                  <v>0.23535</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276998</v>
+                  <v>0.2346</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.28964</v>
+                  <v>0.248999</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.286487</v>
+                  <v>0.247592</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.28763</v>
+                  <v>0.246287</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.286477</v>
+                  <v>0.245106</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.285516</v>
+                  <v>0.243667</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.28524</v>
+                  <v>0.242538</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.283961</v>
+                  <v>0.241335</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.284223</v>
+                  <v>0.240259</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.280482</v>
+                  <v>0.239452</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.27945</v>
+                  <v>0.238338</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.279581</v>
+                  <v>0.237405</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.279018</v>
+                  <v>0.236793</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.274384</v>
+                  <v>0.236002</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.276461</v>
+                  <v>0.23527</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.292322</v>
+                  <v>0.253049</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.289118</v>
+                  <v>0.250065</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.288247</v>
+                  <v>0.247854</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.288563</v>
+                  <v>0.247036</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.287533</v>
+                  <v>0.245419</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.286304</v>
+                  <v>0.243965</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.283101</v>
+                  <v>0.242648</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.280356</v>
+                  <v>0.241169</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.280392</v>
+                  <v>0.239714</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.281045</v>
+                  <v>0.23875</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.276278</v>
+                  <v>0.238086</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.277672</v>
+                  <v>0.237057</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.276009</v>
+                  <v>0.236261</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.276803</v>
+                  <v>0.235496</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.294846</v>
+                  <v>0.252518</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.289587</v>
+                  <v>0.249748</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.288815</v>
+                  <v>0.248371</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.285001</v>
+                  <v>0.246934</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.285394</v>
+                  <v>0.245464</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.283591</v>
+                  <v>0.243971</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.285928</v>
+                  <v>0.242831</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.28276</v>
+                  <v>0.241284</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.281078</v>
+                  <v>0.240412</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.280155</v>
+                  <v>0.239282</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.279521</v>
+                  <v>0.2387</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.279457</v>
+                  <v>0.237665</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.278278</v>
+                  <v>0.237165</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.275865</v>
+                  <v>0.236073</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.292885</v>
+                  <v>0.253081</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.29214</v>
+                  <v>0.250437</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.289121</v>
+                  <v>0.248385</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.285812</v>
+                  <v>0.246866</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.289304</v>
+                  <v>0.245252</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.281765</v>
+                  <v>0.243959</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.28236</v>
+                  <v>0.242737</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.283506</v>
+                  <v>0.241581</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.282489</v>
+                  <v>0.240479</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.27951</v>
+                  <v>0.23949</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.277523</v>
+                  <v>0.238682</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.279182</v>
+                  <v>0.237765</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.276473</v>
+                  <v>0.236968</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.276892</v>
+                  <v>0.236295</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.275816</v>
+                  <v>0.235508</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.289797</v>
+                  <v>0.250501</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.29229</v>
+                  <v>0.248574</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.288339</v>
+                  <v>0.246933</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.286976</v>
+                  <v>0.2455</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.284306</v>
+                  <v>0.244129</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.282697</v>
+                  <v>0.24289</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.281096</v>
+                  <v>0.241546</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.281267</v>
+                  <v>0.240502</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.279271</v>
+                  <v>0.239436</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.277611</v>
+                  <v>0.23853</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.27983</v>
+                  <v>0.237608</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.276196</v>
+                  <v>0.236965</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.275866</v>
+                  <v>0.236266</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.275209</v>
+                  <v>0.235813</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.297215</v>
+                  <v>0.250922</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.294804</v>
+                  <v>0.249136</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.292807</v>
+                  <v>0.247497</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.292284</v>
+                  <v>0.245871</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.286689</v>
+                  <v>0.244502</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.286559</v>
+                  <v>0.243076</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.287475</v>
+                  <v>0.24186</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.317576</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.317198</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.31535</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.314097</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.312708</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.311884</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.312022</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.327435</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.326641</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.326142</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.327308</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.325606</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.324229</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.323364</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.32232</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.323735</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.321536</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.320485</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.320231</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.318939</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.318514</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.334113</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.331839</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.33194</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.330703</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.329042</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.328516</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.328135</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.32663</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.32455</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.324222</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.32359</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.322886</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.320457</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.319402</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.335901</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.334874</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.334205</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.332675</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.331607</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.330242</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.328816</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.328258</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.327118</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.325606</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.324788</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.323684</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.323058</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.322125</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.337059</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.335705</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.334186</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.332949</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.331339</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.330074</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.328686</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.328232</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.327218</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.325799</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.325387</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.324086</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.323528</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.321752</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.320774</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.337092</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.335483</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.334176</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.333165</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.33152</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.330773</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.32974</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.328111</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.326883</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.32608</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.325269</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.323383</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.323383</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.322937</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.336565</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.334972</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.334431</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.332343</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.330952</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.329961</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.329176</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.327774</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.326633</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.325803</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.324659</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.323222</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.322427</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.32162</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.33792</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.335993</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.33768</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.33527</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.332446</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.333285</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.329135</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.327503</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.327398</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.326509</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.325476</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.32456</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.323574</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.321666</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.337585</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.335871</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.334458</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.334003</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.33246</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.331085</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.330015</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.327779</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.327924</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.325569</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.324782</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.323702</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.322884</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.322178</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.32142</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.336229</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.335547</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.334378</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.333002</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.331834</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.330571</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.329128</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.32828</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.327193</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.32606</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.324966</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.324134</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.322184</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.32263</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.337603</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.336084</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.334138</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.333294</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.332098</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.330249</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.328424</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3750,7 +4652,7 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="0.5"/>
+          <max val="0.6000000000000001"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -3793,7 +4695,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4143,7 +5045,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4159,15 +5061,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.195456</v>
+        <v>0.200294</v>
       </c>
       <c r="C2" t="n">
-        <v>0.315985</v>
+        <v>0.31659</v>
       </c>
       <c r="D2" t="n">
-        <v>0.305703</v>
+        <v>0.305634</v>
       </c>
       <c r="E2" t="n">
-        <v>0.211884</v>
+        <v>0.210783</v>
       </c>
       <c r="F2" t="n">
-        <v>0.317576</v>
+        <v>0.317267</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.193907</v>
+        <v>0.194011</v>
       </c>
       <c r="C3" t="n">
-        <v>0.313191</v>
+        <v>0.313723</v>
       </c>
       <c r="D3" t="n">
-        <v>0.306807</v>
+        <v>0.307652</v>
       </c>
       <c r="E3" t="n">
-        <v>0.212435</v>
+        <v>0.211491</v>
       </c>
       <c r="F3" t="n">
-        <v>0.317198</v>
+        <v>0.317262</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.188321</v>
+        <v>0.189252</v>
       </c>
       <c r="C4" t="n">
-        <v>0.307309</v>
+        <v>0.30793</v>
       </c>
       <c r="D4" t="n">
-        <v>0.308167</v>
+        <v>0.309183</v>
       </c>
       <c r="E4" t="n">
-        <v>0.214697</v>
+        <v>0.214307</v>
       </c>
       <c r="F4" t="n">
-        <v>0.31535</v>
+        <v>0.315485</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.181318</v>
+        <v>0.182401</v>
       </c>
       <c r="C5" t="n">
-        <v>0.304032</v>
+        <v>0.307774</v>
       </c>
       <c r="D5" t="n">
-        <v>0.309389</v>
+        <v>0.30952</v>
       </c>
       <c r="E5" t="n">
-        <v>0.215592</v>
+        <v>0.215395</v>
       </c>
       <c r="F5" t="n">
-        <v>0.314097</v>
+        <v>0.31487</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.175712</v>
+        <v>0.176159</v>
       </c>
       <c r="C6" t="n">
-        <v>0.300367</v>
+        <v>0.300265</v>
       </c>
       <c r="D6" t="n">
-        <v>0.310127</v>
+        <v>0.310051</v>
       </c>
       <c r="E6" t="n">
-        <v>0.217024</v>
+        <v>0.21725</v>
       </c>
       <c r="F6" t="n">
-        <v>0.312708</v>
+        <v>0.313042</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.166985</v>
+        <v>0.167221</v>
       </c>
       <c r="C7" t="n">
-        <v>0.292994</v>
+        <v>0.291435</v>
       </c>
       <c r="D7" t="n">
-        <v>0.304365</v>
+        <v>0.305019</v>
       </c>
       <c r="E7" t="n">
-        <v>0.218291</v>
+        <v>0.218409</v>
       </c>
       <c r="F7" t="n">
-        <v>0.311884</v>
+        <v>0.311836</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.159517</v>
+        <v>0.159039</v>
       </c>
       <c r="C8" t="n">
-        <v>0.284271</v>
+        <v>0.284275</v>
       </c>
       <c r="D8" t="n">
-        <v>0.304293</v>
+        <v>0.304431</v>
       </c>
       <c r="E8" t="n">
-        <v>0.219528</v>
+        <v>0.220225</v>
       </c>
       <c r="F8" t="n">
-        <v>0.312022</v>
+        <v>0.31375</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149816</v>
+        <v>0.148593</v>
       </c>
       <c r="C9" t="n">
-        <v>0.277039</v>
+        <v>0.27137</v>
       </c>
       <c r="D9" t="n">
-        <v>0.304724</v>
+        <v>0.304824</v>
       </c>
       <c r="E9" t="n">
-        <v>0.235047</v>
+        <v>0.234382</v>
       </c>
       <c r="F9" t="n">
-        <v>0.327435</v>
+        <v>0.327079</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231459</v>
+        <v>0.231894</v>
       </c>
       <c r="C10" t="n">
-        <v>0.349299</v>
+        <v>0.347589</v>
       </c>
       <c r="D10" t="n">
-        <v>0.305741</v>
+        <v>0.306654</v>
       </c>
       <c r="E10" t="n">
-        <v>0.23443</v>
+        <v>0.234605</v>
       </c>
       <c r="F10" t="n">
-        <v>0.326641</v>
+        <v>0.326805</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.226381</v>
+        <v>0.228899</v>
       </c>
       <c r="C11" t="n">
-        <v>0.346291</v>
+        <v>0.34601</v>
       </c>
       <c r="D11" t="n">
-        <v>0.307075</v>
+        <v>0.306698</v>
       </c>
       <c r="E11" t="n">
-        <v>0.23466</v>
+        <v>0.235144</v>
       </c>
       <c r="F11" t="n">
-        <v>0.326142</v>
+        <v>0.326537</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225971</v>
+        <v>0.225968</v>
       </c>
       <c r="C12" t="n">
-        <v>0.342883</v>
+        <v>0.342634</v>
       </c>
       <c r="D12" t="n">
-        <v>0.308924</v>
+        <v>0.307243</v>
       </c>
       <c r="E12" t="n">
-        <v>0.234502</v>
+        <v>0.234651</v>
       </c>
       <c r="F12" t="n">
-        <v>0.327308</v>
+        <v>0.327015</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222077</v>
+        <v>0.221901</v>
       </c>
       <c r="C13" t="n">
-        <v>0.337713</v>
+        <v>0.337846</v>
       </c>
       <c r="D13" t="n">
-        <v>0.307531</v>
+        <v>0.30728</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2336</v>
+        <v>0.234475</v>
       </c>
       <c r="F13" t="n">
-        <v>0.325606</v>
+        <v>0.325369</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218231</v>
+        <v>0.21917</v>
       </c>
       <c r="C14" t="n">
-        <v>0.334523</v>
+        <v>0.333465</v>
       </c>
       <c r="D14" t="n">
-        <v>0.308573</v>
+        <v>0.308434</v>
       </c>
       <c r="E14" t="n">
-        <v>0.234393</v>
+        <v>0.235431</v>
       </c>
       <c r="F14" t="n">
-        <v>0.324229</v>
+        <v>0.323822</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214731</v>
+        <v>0.215639</v>
       </c>
       <c r="C15" t="n">
-        <v>0.330191</v>
+        <v>0.329852</v>
       </c>
       <c r="D15" t="n">
-        <v>0.30885</v>
+        <v>0.307973</v>
       </c>
       <c r="E15" t="n">
-        <v>0.234397</v>
+        <v>0.234297</v>
       </c>
       <c r="F15" t="n">
-        <v>0.323364</v>
+        <v>0.323918</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210893</v>
+        <v>0.211657</v>
       </c>
       <c r="C16" t="n">
-        <v>0.323431</v>
+        <v>0.323665</v>
       </c>
       <c r="D16" t="n">
-        <v>0.310564</v>
+        <v>0.309492</v>
       </c>
       <c r="E16" t="n">
-        <v>0.234472</v>
+        <v>0.234169</v>
       </c>
       <c r="F16" t="n">
-        <v>0.32232</v>
+        <v>0.32215</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205312</v>
+        <v>0.206536</v>
       </c>
       <c r="C17" t="n">
-        <v>0.315137</v>
+        <v>0.315025</v>
       </c>
       <c r="D17" t="n">
-        <v>0.31113</v>
+        <v>0.309044</v>
       </c>
       <c r="E17" t="n">
-        <v>0.234321</v>
+        <v>0.23419</v>
       </c>
       <c r="F17" t="n">
-        <v>0.323735</v>
+        <v>0.323755</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198695</v>
+        <v>0.199522</v>
       </c>
       <c r="C18" t="n">
-        <v>0.30902</v>
+        <v>0.309858</v>
       </c>
       <c r="D18" t="n">
-        <v>0.312326</v>
+        <v>0.311151</v>
       </c>
       <c r="E18" t="n">
-        <v>0.23401</v>
+        <v>0.233685</v>
       </c>
       <c r="F18" t="n">
-        <v>0.321536</v>
+        <v>0.322074</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193032</v>
+        <v>0.19385</v>
       </c>
       <c r="C19" t="n">
-        <v>0.305218</v>
+        <v>0.30593</v>
       </c>
       <c r="D19" t="n">
-        <v>0.31394</v>
+        <v>0.312665</v>
       </c>
       <c r="E19" t="n">
-        <v>0.232679</v>
+        <v>0.23204</v>
       </c>
       <c r="F19" t="n">
-        <v>0.320485</v>
+        <v>0.320383</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188011</v>
+        <v>0.188353</v>
       </c>
       <c r="C20" t="n">
-        <v>0.308608</v>
+        <v>0.30886</v>
       </c>
       <c r="D20" t="n">
-        <v>0.313809</v>
+        <v>0.311947</v>
       </c>
       <c r="E20" t="n">
-        <v>0.232691</v>
+        <v>0.232676</v>
       </c>
       <c r="F20" t="n">
-        <v>0.320231</v>
+        <v>0.320999</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.180918</v>
+        <v>0.181601</v>
       </c>
       <c r="C21" t="n">
-        <v>0.299098</v>
+        <v>0.298816</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3098</v>
+        <v>0.309536</v>
       </c>
       <c r="E21" t="n">
-        <v>0.231562</v>
+        <v>0.231679</v>
       </c>
       <c r="F21" t="n">
-        <v>0.318939</v>
+        <v>0.318785</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.17251</v>
+        <v>0.172699</v>
       </c>
       <c r="C22" t="n">
-        <v>0.29096</v>
+        <v>0.290381</v>
       </c>
       <c r="D22" t="n">
-        <v>0.309319</v>
+        <v>0.309034</v>
       </c>
       <c r="E22" t="n">
-        <v>0.232078</v>
+        <v>0.232512</v>
       </c>
       <c r="F22" t="n">
-        <v>0.318514</v>
+        <v>0.318463</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.162715</v>
+        <v>0.162645</v>
       </c>
       <c r="C23" t="n">
-        <v>0.275946</v>
+        <v>0.275848</v>
       </c>
       <c r="D23" t="n">
-        <v>0.309619</v>
+        <v>0.308508</v>
       </c>
       <c r="E23" t="n">
-        <v>0.246503</v>
+        <v>0.24718</v>
       </c>
       <c r="F23" t="n">
-        <v>0.334113</v>
+        <v>0.334221</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.24179</v>
+        <v>0.24058</v>
       </c>
       <c r="C24" t="n">
-        <v>0.350881</v>
+        <v>0.349125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.309582</v>
+        <v>0.309185</v>
       </c>
       <c r="E24" t="n">
-        <v>0.244589</v>
+        <v>0.245431</v>
       </c>
       <c r="F24" t="n">
-        <v>0.331839</v>
+        <v>0.331984</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.239388</v>
+        <v>0.240079</v>
       </c>
       <c r="C25" t="n">
-        <v>0.348823</v>
+        <v>0.348844</v>
       </c>
       <c r="D25" t="n">
-        <v>0.310668</v>
+        <v>0.31071</v>
       </c>
       <c r="E25" t="n">
-        <v>0.243556</v>
+        <v>0.243652</v>
       </c>
       <c r="F25" t="n">
-        <v>0.33194</v>
+        <v>0.331946</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.235072</v>
+        <v>0.235794</v>
       </c>
       <c r="C26" t="n">
-        <v>0.344536</v>
+        <v>0.344656</v>
       </c>
       <c r="D26" t="n">
-        <v>0.310488</v>
+        <v>0.311278</v>
       </c>
       <c r="E26" t="n">
-        <v>0.242702</v>
+        <v>0.242871</v>
       </c>
       <c r="F26" t="n">
-        <v>0.330703</v>
+        <v>0.330463</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230964</v>
+        <v>0.231038</v>
       </c>
       <c r="C27" t="n">
-        <v>0.340087</v>
+        <v>0.33982</v>
       </c>
       <c r="D27" t="n">
-        <v>0.31107</v>
+        <v>0.311436</v>
       </c>
       <c r="E27" t="n">
-        <v>0.241859</v>
+        <v>0.242055</v>
       </c>
       <c r="F27" t="n">
-        <v>0.329042</v>
+        <v>0.329064</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.227072</v>
+        <v>0.22801</v>
       </c>
       <c r="C28" t="n">
-        <v>0.33498</v>
+        <v>0.335131</v>
       </c>
       <c r="D28" t="n">
-        <v>0.311818</v>
+        <v>0.311712</v>
       </c>
       <c r="E28" t="n">
-        <v>0.240811</v>
+        <v>0.240614</v>
       </c>
       <c r="F28" t="n">
-        <v>0.328516</v>
+        <v>0.329066</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.224962</v>
+        <v>0.226084</v>
       </c>
       <c r="C29" t="n">
-        <v>0.330078</v>
+        <v>0.330743</v>
       </c>
       <c r="D29" t="n">
-        <v>0.312042</v>
+        <v>0.312177</v>
       </c>
       <c r="E29" t="n">
-        <v>0.240176</v>
+        <v>0.240726</v>
       </c>
       <c r="F29" t="n">
-        <v>0.328135</v>
+        <v>0.326823</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.218232</v>
+        <v>0.219145</v>
       </c>
       <c r="C30" t="n">
-        <v>0.328316</v>
+        <v>0.329212</v>
       </c>
       <c r="D30" t="n">
-        <v>0.312612</v>
+        <v>0.31228</v>
       </c>
       <c r="E30" t="n">
-        <v>0.239259</v>
+        <v>0.239483</v>
       </c>
       <c r="F30" t="n">
-        <v>0.32663</v>
+        <v>0.326446</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.212052</v>
+        <v>0.21278</v>
       </c>
       <c r="C31" t="n">
-        <v>0.32601</v>
+        <v>0.326383</v>
       </c>
       <c r="D31" t="n">
-        <v>0.31326</v>
+        <v>0.31316</v>
       </c>
       <c r="E31" t="n">
-        <v>0.238288</v>
+        <v>0.238519</v>
       </c>
       <c r="F31" t="n">
-        <v>0.32455</v>
+        <v>0.324436</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20676</v>
+        <v>0.20693</v>
       </c>
       <c r="C32" t="n">
-        <v>0.321221</v>
+        <v>0.320809</v>
       </c>
       <c r="D32" t="n">
-        <v>0.314764</v>
+        <v>0.314911</v>
       </c>
       <c r="E32" t="n">
-        <v>0.23716</v>
+        <v>0.237578</v>
       </c>
       <c r="F32" t="n">
-        <v>0.324222</v>
+        <v>0.323942</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201091</v>
+        <v>0.201707</v>
       </c>
       <c r="C33" t="n">
-        <v>0.31474</v>
+        <v>0.315441</v>
       </c>
       <c r="D33" t="n">
-        <v>0.31551</v>
+        <v>0.315498</v>
       </c>
       <c r="E33" t="n">
-        <v>0.236147</v>
+        <v>0.236959</v>
       </c>
       <c r="F33" t="n">
-        <v>0.32359</v>
+        <v>0.323423</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1952</v>
+        <v>0.195122</v>
       </c>
       <c r="C34" t="n">
-        <v>0.30903</v>
+        <v>0.311769</v>
       </c>
       <c r="D34" t="n">
-        <v>0.316722</v>
+        <v>0.317342</v>
       </c>
       <c r="E34" t="n">
-        <v>0.235923</v>
+        <v>0.23607</v>
       </c>
       <c r="F34" t="n">
-        <v>0.322886</v>
+        <v>0.322317</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.18856</v>
+        <v>0.188229</v>
       </c>
       <c r="C35" t="n">
-        <v>0.298536</v>
+        <v>0.297461</v>
       </c>
       <c r="D35" t="n">
-        <v>0.314003</v>
+        <v>0.313147</v>
       </c>
       <c r="E35" t="n">
-        <v>0.235146</v>
+        <v>0.23513</v>
       </c>
       <c r="F35" t="n">
-        <v>0.320457</v>
+        <v>0.320055</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179882</v>
+        <v>0.17974</v>
       </c>
       <c r="C36" t="n">
-        <v>0.286941</v>
+        <v>0.286527</v>
       </c>
       <c r="D36" t="n">
-        <v>0.314148</v>
+        <v>0.313537</v>
       </c>
       <c r="E36" t="n">
-        <v>0.234783</v>
+        <v>0.235115</v>
       </c>
       <c r="F36" t="n">
-        <v>0.319402</v>
+        <v>0.319481</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171336</v>
+        <v>0.170466</v>
       </c>
       <c r="C37" t="n">
-        <v>0.279659</v>
+        <v>0.279347</v>
       </c>
       <c r="D37" t="n">
-        <v>0.313949</v>
+        <v>0.313651</v>
       </c>
       <c r="E37" t="n">
-        <v>0.24886</v>
+        <v>0.249417</v>
       </c>
       <c r="F37" t="n">
-        <v>0.335901</v>
+        <v>0.336108</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247522</v>
+        <v>0.247895</v>
       </c>
       <c r="C38" t="n">
-        <v>0.355145</v>
+        <v>0.35977</v>
       </c>
       <c r="D38" t="n">
-        <v>0.312647</v>
+        <v>0.313074</v>
       </c>
       <c r="E38" t="n">
-        <v>0.246726</v>
+        <v>0.246857</v>
       </c>
       <c r="F38" t="n">
-        <v>0.334874</v>
+        <v>0.334616</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.243423</v>
+        <v>0.245044</v>
       </c>
       <c r="C39" t="n">
-        <v>0.356712</v>
+        <v>0.356515</v>
       </c>
       <c r="D39" t="n">
-        <v>0.313472</v>
+        <v>0.313262</v>
       </c>
       <c r="E39" t="n">
-        <v>0.24572</v>
+        <v>0.245825</v>
       </c>
       <c r="F39" t="n">
-        <v>0.334205</v>
+        <v>0.333746</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239932</v>
+        <v>0.242089</v>
       </c>
       <c r="C40" t="n">
-        <v>0.349615</v>
+        <v>0.352865</v>
       </c>
       <c r="D40" t="n">
-        <v>0.312993</v>
+        <v>0.313088</v>
       </c>
       <c r="E40" t="n">
-        <v>0.244686</v>
+        <v>0.244848</v>
       </c>
       <c r="F40" t="n">
-        <v>0.332675</v>
+        <v>0.332755</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.235579</v>
+        <v>0.236219</v>
       </c>
       <c r="C41" t="n">
-        <v>0.348147</v>
+        <v>0.347693</v>
       </c>
       <c r="D41" t="n">
-        <v>0.314058</v>
+        <v>0.31364</v>
       </c>
       <c r="E41" t="n">
-        <v>0.243675</v>
+        <v>0.243459</v>
       </c>
       <c r="F41" t="n">
-        <v>0.331607</v>
+        <v>0.331724</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230847</v>
+        <v>0.231572</v>
       </c>
       <c r="C42" t="n">
-        <v>0.340223</v>
+        <v>0.343132</v>
       </c>
       <c r="D42" t="n">
-        <v>0.313743</v>
+        <v>0.313913</v>
       </c>
       <c r="E42" t="n">
-        <v>0.242149</v>
+        <v>0.242263</v>
       </c>
       <c r="F42" t="n">
-        <v>0.330242</v>
+        <v>0.330036</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.227512</v>
+        <v>0.226505</v>
       </c>
       <c r="C43" t="n">
-        <v>0.338647</v>
+        <v>0.337874</v>
       </c>
       <c r="D43" t="n">
-        <v>0.314283</v>
+        <v>0.313705</v>
       </c>
       <c r="E43" t="n">
-        <v>0.240845</v>
+        <v>0.241246</v>
       </c>
       <c r="F43" t="n">
-        <v>0.328816</v>
+        <v>0.328957</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220788</v>
+        <v>0.220847</v>
       </c>
       <c r="C44" t="n">
-        <v>0.325197</v>
+        <v>0.325115</v>
       </c>
       <c r="D44" t="n">
-        <v>0.315839</v>
+        <v>0.314729</v>
       </c>
       <c r="E44" t="n">
-        <v>0.239895</v>
+        <v>0.239775</v>
       </c>
       <c r="F44" t="n">
-        <v>0.328258</v>
+        <v>0.327937</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215169</v>
+        <v>0.215666</v>
       </c>
       <c r="C45" t="n">
-        <v>0.336227</v>
+        <v>0.334929</v>
       </c>
       <c r="D45" t="n">
-        <v>0.315616</v>
+        <v>0.315024</v>
       </c>
       <c r="E45" t="n">
-        <v>0.238839</v>
+        <v>0.239018</v>
       </c>
       <c r="F45" t="n">
-        <v>0.327118</v>
+        <v>0.327184</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209952</v>
+        <v>0.209924</v>
       </c>
       <c r="C46" t="n">
-        <v>0.322312</v>
+        <v>0.321509</v>
       </c>
       <c r="D46" t="n">
-        <v>0.316889</v>
+        <v>0.316302</v>
       </c>
       <c r="E46" t="n">
-        <v>0.23795</v>
+        <v>0.238147</v>
       </c>
       <c r="F46" t="n">
-        <v>0.325606</v>
+        <v>0.325414</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204233</v>
+        <v>0.20454</v>
       </c>
       <c r="C47" t="n">
-        <v>0.318232</v>
+        <v>0.319026</v>
       </c>
       <c r="D47" t="n">
-        <v>0.318076</v>
+        <v>0.317158</v>
       </c>
       <c r="E47" t="n">
-        <v>0.237484</v>
+        <v>0.237426</v>
       </c>
       <c r="F47" t="n">
-        <v>0.324788</v>
+        <v>0.325289</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198734</v>
+        <v>0.198779</v>
       </c>
       <c r="C48" t="n">
-        <v>0.306001</v>
+        <v>0.305737</v>
       </c>
       <c r="D48" t="n">
-        <v>0.317522</v>
+        <v>0.317181</v>
       </c>
       <c r="E48" t="n">
-        <v>0.236614</v>
+        <v>0.236525</v>
       </c>
       <c r="F48" t="n">
-        <v>0.323684</v>
+        <v>0.323705</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191313</v>
+        <v>0.191496</v>
       </c>
       <c r="C49" t="n">
-        <v>0.302909</v>
+        <v>0.303486</v>
       </c>
       <c r="D49" t="n">
-        <v>0.318985</v>
+        <v>0.318904</v>
       </c>
       <c r="E49" t="n">
-        <v>0.235724</v>
+        <v>0.23574</v>
       </c>
       <c r="F49" t="n">
-        <v>0.323058</v>
+        <v>0.323141</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183949</v>
+        <v>0.184163</v>
       </c>
       <c r="C50" t="n">
-        <v>0.299069</v>
+        <v>0.29839</v>
       </c>
       <c r="D50" t="n">
-        <v>0.317888</v>
+        <v>0.318239</v>
       </c>
       <c r="E50" t="n">
-        <v>0.235064</v>
+        <v>0.23523</v>
       </c>
       <c r="F50" t="n">
-        <v>0.322125</v>
+        <v>0.322115</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175187</v>
+        <v>0.175465</v>
       </c>
       <c r="C51" t="n">
-        <v>0.286007</v>
+        <v>0.285761</v>
       </c>
       <c r="D51" t="n">
-        <v>0.317666</v>
+        <v>0.317293</v>
       </c>
       <c r="E51" t="n">
-        <v>0.249238</v>
+        <v>0.249789</v>
       </c>
       <c r="F51" t="n">
-        <v>0.337059</v>
+        <v>0.336864</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.163987</v>
+        <v>0.164251</v>
       </c>
       <c r="C52" t="n">
-        <v>0.281178</v>
+        <v>0.281362</v>
       </c>
       <c r="D52" t="n">
-        <v>0.319785</v>
+        <v>0.319716</v>
       </c>
       <c r="E52" t="n">
-        <v>0.247924</v>
+        <v>0.248506</v>
       </c>
       <c r="F52" t="n">
-        <v>0.335705</v>
+        <v>0.335811</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246322</v>
+        <v>0.246488</v>
       </c>
       <c r="C53" t="n">
-        <v>0.359246</v>
+        <v>0.358332</v>
       </c>
       <c r="D53" t="n">
-        <v>0.318876</v>
+        <v>0.319106</v>
       </c>
       <c r="E53" t="n">
-        <v>0.246669</v>
+        <v>0.247051</v>
       </c>
       <c r="F53" t="n">
-        <v>0.334186</v>
+        <v>0.334045</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241774</v>
+        <v>0.242325</v>
       </c>
       <c r="C54" t="n">
-        <v>0.357314</v>
+        <v>0.356531</v>
       </c>
       <c r="D54" t="n">
-        <v>0.320656</v>
+        <v>0.321221</v>
       </c>
       <c r="E54" t="n">
-        <v>0.24543</v>
+        <v>0.245328</v>
       </c>
       <c r="F54" t="n">
-        <v>0.332949</v>
+        <v>0.332988</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.238097</v>
+        <v>0.240009</v>
       </c>
       <c r="C55" t="n">
-        <v>0.354169</v>
+        <v>0.352518</v>
       </c>
       <c r="D55" t="n">
-        <v>0.321472</v>
+        <v>0.321745</v>
       </c>
       <c r="E55" t="n">
-        <v>0.243937</v>
+        <v>0.244245</v>
       </c>
       <c r="F55" t="n">
-        <v>0.331339</v>
+        <v>0.33128</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233362</v>
+        <v>0.233661</v>
       </c>
       <c r="C56" t="n">
-        <v>0.349906</v>
+        <v>0.348603</v>
       </c>
       <c r="D56" t="n">
-        <v>0.32398</v>
+        <v>0.32322</v>
       </c>
       <c r="E56" t="n">
-        <v>0.242856</v>
+        <v>0.242896</v>
       </c>
       <c r="F56" t="n">
-        <v>0.330074</v>
+        <v>0.330007</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228484</v>
+        <v>0.228756</v>
       </c>
       <c r="C57" t="n">
-        <v>0.346327</v>
+        <v>0.344726</v>
       </c>
       <c r="D57" t="n">
-        <v>0.324333</v>
+        <v>0.323847</v>
       </c>
       <c r="E57" t="n">
-        <v>0.24174</v>
+        <v>0.241893</v>
       </c>
       <c r="F57" t="n">
-        <v>0.328686</v>
+        <v>0.328629</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222656</v>
+        <v>0.223043</v>
       </c>
       <c r="C58" t="n">
-        <v>0.32601</v>
+        <v>0.32629</v>
       </c>
       <c r="D58" t="n">
-        <v>0.327522</v>
+        <v>0.326065</v>
       </c>
       <c r="E58" t="n">
-        <v>0.240636</v>
+        <v>0.241006</v>
       </c>
       <c r="F58" t="n">
-        <v>0.328232</v>
+        <v>0.327566</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.218019</v>
+        <v>0.217913</v>
       </c>
       <c r="C59" t="n">
-        <v>0.337491</v>
+        <v>0.337615</v>
       </c>
       <c r="D59" t="n">
-        <v>0.328904</v>
+        <v>0.328026</v>
       </c>
       <c r="E59" t="n">
-        <v>0.239846</v>
+        <v>0.239961</v>
       </c>
       <c r="F59" t="n">
-        <v>0.327218</v>
+        <v>0.326991</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212139</v>
+        <v>0.212604</v>
       </c>
       <c r="C60" t="n">
-        <v>0.317183</v>
+        <v>0.317475</v>
       </c>
       <c r="D60" t="n">
-        <v>0.330681</v>
+        <v>0.329548</v>
       </c>
       <c r="E60" t="n">
-        <v>0.238859</v>
+        <v>0.238876</v>
       </c>
       <c r="F60" t="n">
-        <v>0.325799</v>
+        <v>0.32568</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206087</v>
+        <v>0.206707</v>
       </c>
       <c r="C61" t="n">
-        <v>0.32249</v>
+        <v>0.324786</v>
       </c>
       <c r="D61" t="n">
-        <v>0.331926</v>
+        <v>0.330829</v>
       </c>
       <c r="E61" t="n">
-        <v>0.237901</v>
+        <v>0.237998</v>
       </c>
       <c r="F61" t="n">
-        <v>0.325387</v>
+        <v>0.324888</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200182</v>
+        <v>0.20106</v>
       </c>
       <c r="C62" t="n">
-        <v>0.314177</v>
+        <v>0.316154</v>
       </c>
       <c r="D62" t="n">
-        <v>0.334031</v>
+        <v>0.332904</v>
       </c>
       <c r="E62" t="n">
-        <v>0.237172</v>
+        <v>0.23735</v>
       </c>
       <c r="F62" t="n">
-        <v>0.324086</v>
+        <v>0.32411</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194297</v>
+        <v>0.194299</v>
       </c>
       <c r="C63" t="n">
-        <v>0.326079</v>
+        <v>0.327755</v>
       </c>
       <c r="D63" t="n">
-        <v>0.337024</v>
+        <v>0.337114</v>
       </c>
       <c r="E63" t="n">
-        <v>0.236285</v>
+        <v>0.236558</v>
       </c>
       <c r="F63" t="n">
-        <v>0.323528</v>
+        <v>0.323591</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.186986</v>
+        <v>0.187076</v>
       </c>
       <c r="C64" t="n">
-        <v>0.312292</v>
+        <v>0.312674</v>
       </c>
       <c r="D64" t="n">
-        <v>0.376991</v>
+        <v>0.377123</v>
       </c>
       <c r="E64" t="n">
-        <v>0.23535</v>
+        <v>0.235616</v>
       </c>
       <c r="F64" t="n">
-        <v>0.321752</v>
+        <v>0.321736</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177648</v>
+        <v>0.177598</v>
       </c>
       <c r="C65" t="n">
-        <v>0.32921</v>
+        <v>0.327485</v>
       </c>
       <c r="D65" t="n">
-        <v>0.375313</v>
+        <v>0.377157</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2346</v>
+        <v>0.234731</v>
       </c>
       <c r="F65" t="n">
-        <v>0.320774</v>
+        <v>0.321094</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167874</v>
+        <v>0.167343</v>
       </c>
       <c r="C66" t="n">
-        <v>0.303699</v>
+        <v>0.302196</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3775</v>
+        <v>0.377127</v>
       </c>
       <c r="E66" t="n">
-        <v>0.248999</v>
+        <v>0.249132</v>
       </c>
       <c r="F66" t="n">
-        <v>0.337092</v>
+        <v>0.337277</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247767</v>
+        <v>0.247356</v>
       </c>
       <c r="C67" t="n">
-        <v>0.453407</v>
+        <v>0.452807</v>
       </c>
       <c r="D67" t="n">
-        <v>0.378131</v>
+        <v>0.378582</v>
       </c>
       <c r="E67" t="n">
-        <v>0.247592</v>
+        <v>0.247716</v>
       </c>
       <c r="F67" t="n">
-        <v>0.335483</v>
+        <v>0.335927</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.244035</v>
+        <v>0.243936</v>
       </c>
       <c r="C68" t="n">
-        <v>0.370516</v>
+        <v>0.370495</v>
       </c>
       <c r="D68" t="n">
-        <v>0.379166</v>
+        <v>0.379172</v>
       </c>
       <c r="E68" t="n">
-        <v>0.246287</v>
+        <v>0.246098</v>
       </c>
       <c r="F68" t="n">
-        <v>0.334176</v>
+        <v>0.334203</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239956</v>
+        <v>0.240184</v>
       </c>
       <c r="C69" t="n">
-        <v>0.368142</v>
+        <v>0.367637</v>
       </c>
       <c r="D69" t="n">
-        <v>0.379493</v>
+        <v>0.379839</v>
       </c>
       <c r="E69" t="n">
-        <v>0.245106</v>
+        <v>0.244838</v>
       </c>
       <c r="F69" t="n">
-        <v>0.333165</v>
+        <v>0.333169</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235306</v>
+        <v>0.2352</v>
       </c>
       <c r="C70" t="n">
-        <v>0.362945</v>
+        <v>0.362796</v>
       </c>
       <c r="D70" t="n">
-        <v>0.37929</v>
+        <v>0.379783</v>
       </c>
       <c r="E70" t="n">
-        <v>0.243667</v>
+        <v>0.243663</v>
       </c>
       <c r="F70" t="n">
-        <v>0.33152</v>
+        <v>0.331455</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2301</v>
+        <v>0.230495</v>
       </c>
       <c r="C71" t="n">
-        <v>0.357899</v>
+        <v>0.357744</v>
       </c>
       <c r="D71" t="n">
-        <v>0.379874</v>
+        <v>0.380222</v>
       </c>
       <c r="E71" t="n">
-        <v>0.242538</v>
+        <v>0.242387</v>
       </c>
       <c r="F71" t="n">
-        <v>0.330773</v>
+        <v>0.330828</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.224894</v>
+        <v>0.225007</v>
       </c>
       <c r="C72" t="n">
-        <v>0.478638</v>
+        <v>0.479638</v>
       </c>
       <c r="D72" t="n">
-        <v>0.382078</v>
+        <v>0.382886</v>
       </c>
       <c r="E72" t="n">
-        <v>0.241335</v>
+        <v>0.241049</v>
       </c>
       <c r="F72" t="n">
-        <v>0.32974</v>
+        <v>0.329697</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.220609</v>
+        <v>0.220459</v>
       </c>
       <c r="C73" t="n">
-        <v>0.418814</v>
+        <v>0.418738</v>
       </c>
       <c r="D73" t="n">
-        <v>0.380694</v>
+        <v>0.380955</v>
       </c>
       <c r="E73" t="n">
-        <v>0.240259</v>
+        <v>0.240195</v>
       </c>
       <c r="F73" t="n">
-        <v>0.328111</v>
+        <v>0.328058</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213962</v>
+        <v>0.213485</v>
       </c>
       <c r="C74" t="n">
-        <v>0.473669</v>
+        <v>0.475135</v>
       </c>
       <c r="D74" t="n">
-        <v>0.379742</v>
+        <v>0.38026</v>
       </c>
       <c r="E74" t="n">
-        <v>0.239452</v>
+        <v>0.239362</v>
       </c>
       <c r="F74" t="n">
-        <v>0.326883</v>
+        <v>0.326849</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.208227</v>
+        <v>0.208793</v>
       </c>
       <c r="C75" t="n">
-        <v>0.465969</v>
+        <v>0.467507</v>
       </c>
       <c r="D75" t="n">
-        <v>0.379463</v>
+        <v>0.379313</v>
       </c>
       <c r="E75" t="n">
-        <v>0.238338</v>
+        <v>0.238281</v>
       </c>
       <c r="F75" t="n">
-        <v>0.32608</v>
+        <v>0.326113</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.202491</v>
+        <v>0.20228</v>
       </c>
       <c r="C76" t="n">
-        <v>0.423549</v>
+        <v>0.42337</v>
       </c>
       <c r="D76" t="n">
-        <v>0.380513</v>
+        <v>0.380489</v>
       </c>
       <c r="E76" t="n">
-        <v>0.237405</v>
+        <v>0.237486</v>
       </c>
       <c r="F76" t="n">
-        <v>0.325269</v>
+        <v>0.325159</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196062</v>
+        <v>0.19609</v>
       </c>
       <c r="C77" t="n">
-        <v>0.395604</v>
+        <v>0.395883</v>
       </c>
       <c r="D77" t="n">
-        <v>0.381184</v>
+        <v>0.381225</v>
       </c>
       <c r="E77" t="n">
-        <v>0.236793</v>
+        <v>0.23664</v>
       </c>
       <c r="F77" t="n">
-        <v>0.323383</v>
+        <v>0.32335</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.189039</v>
+        <v>0.188997</v>
       </c>
       <c r="C78" t="n">
-        <v>0.405021</v>
+        <v>0.405367</v>
       </c>
       <c r="D78" t="n">
-        <v>0.437702</v>
+        <v>0.437504</v>
       </c>
       <c r="E78" t="n">
-        <v>0.236002</v>
+        <v>0.235873</v>
       </c>
       <c r="F78" t="n">
-        <v>0.323383</v>
+        <v>0.323219</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179915</v>
+        <v>0.179597</v>
       </c>
       <c r="C79" t="n">
-        <v>0.325084</v>
+        <v>0.324828</v>
       </c>
       <c r="D79" t="n">
-        <v>0.433674</v>
+        <v>0.433362</v>
       </c>
       <c r="E79" t="n">
-        <v>0.23527</v>
+        <v>0.235101</v>
       </c>
       <c r="F79" t="n">
-        <v>0.322937</v>
+        <v>0.322829</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170686</v>
+        <v>0.170397</v>
       </c>
       <c r="C80" t="n">
-        <v>0.370007</v>
+        <v>0.370067</v>
       </c>
       <c r="D80" t="n">
-        <v>0.428339</v>
+        <v>0.427834</v>
       </c>
       <c r="E80" t="n">
-        <v>0.253049</v>
+        <v>0.252142</v>
       </c>
       <c r="F80" t="n">
-        <v>0.336565</v>
+        <v>0.336621</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.249215</v>
+        <v>0.248981</v>
       </c>
       <c r="C81" t="n">
-        <v>0.381195</v>
+        <v>0.381239</v>
       </c>
       <c r="D81" t="n">
-        <v>0.426348</v>
+        <v>0.426451</v>
       </c>
       <c r="E81" t="n">
-        <v>0.250065</v>
+        <v>0.249863</v>
       </c>
       <c r="F81" t="n">
-        <v>0.334972</v>
+        <v>0.335036</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245069</v>
+        <v>0.245085</v>
       </c>
       <c r="C82" t="n">
-        <v>0.362955</v>
+        <v>0.363286</v>
       </c>
       <c r="D82" t="n">
-        <v>0.425437</v>
+        <v>0.424542</v>
       </c>
       <c r="E82" t="n">
-        <v>0.247854</v>
+        <v>0.247627</v>
       </c>
       <c r="F82" t="n">
-        <v>0.334431</v>
+        <v>0.334641</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.24096</v>
+        <v>0.241517</v>
       </c>
       <c r="C83" t="n">
-        <v>0.357366</v>
+        <v>0.357226</v>
       </c>
       <c r="D83" t="n">
-        <v>0.418587</v>
+        <v>0.417808</v>
       </c>
       <c r="E83" t="n">
-        <v>0.247036</v>
+        <v>0.246539</v>
       </c>
       <c r="F83" t="n">
-        <v>0.332343</v>
+        <v>0.332315</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236364</v>
+        <v>0.236257</v>
       </c>
       <c r="C84" t="n">
-        <v>0.353312</v>
+        <v>0.35328</v>
       </c>
       <c r="D84" t="n">
-        <v>0.414739</v>
+        <v>0.41373</v>
       </c>
       <c r="E84" t="n">
-        <v>0.245419</v>
+        <v>0.245102</v>
       </c>
       <c r="F84" t="n">
-        <v>0.330952</v>
+        <v>0.330988</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231708</v>
+        <v>0.232855</v>
       </c>
       <c r="C85" t="n">
-        <v>0.367128</v>
+        <v>0.347277</v>
       </c>
       <c r="D85" t="n">
-        <v>0.413033</v>
+        <v>0.410829</v>
       </c>
       <c r="E85" t="n">
-        <v>0.243965</v>
+        <v>0.243964</v>
       </c>
       <c r="F85" t="n">
-        <v>0.329961</v>
+        <v>0.329616</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.227309</v>
+        <v>0.226662</v>
       </c>
       <c r="C86" t="n">
-        <v>0.342689</v>
+        <v>0.342165</v>
       </c>
       <c r="D86" t="n">
-        <v>0.410445</v>
+        <v>0.410225</v>
       </c>
       <c r="E86" t="n">
-        <v>0.242648</v>
+        <v>0.24196</v>
       </c>
       <c r="F86" t="n">
-        <v>0.329176</v>
+        <v>0.329191</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.221269</v>
+        <v>0.221158</v>
       </c>
       <c r="C87" t="n">
-        <v>0.42662</v>
+        <v>0.425921</v>
       </c>
       <c r="D87" t="n">
-        <v>0.405811</v>
+        <v>0.404955</v>
       </c>
       <c r="E87" t="n">
-        <v>0.241169</v>
+        <v>0.240867</v>
       </c>
       <c r="F87" t="n">
-        <v>0.327774</v>
+        <v>0.327866</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215333</v>
+        <v>0.215439</v>
       </c>
       <c r="C88" t="n">
-        <v>0.436016</v>
+        <v>0.435577</v>
       </c>
       <c r="D88" t="n">
-        <v>0.404151</v>
+        <v>0.40383</v>
       </c>
       <c r="E88" t="n">
-        <v>0.239714</v>
+        <v>0.239488</v>
       </c>
       <c r="F88" t="n">
-        <v>0.326633</v>
+        <v>0.326391</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.209954</v>
+        <v>0.210277</v>
       </c>
       <c r="C89" t="n">
-        <v>0.422823</v>
+        <v>0.422412</v>
       </c>
       <c r="D89" t="n">
-        <v>0.40483</v>
+        <v>0.404323</v>
       </c>
       <c r="E89" t="n">
-        <v>0.23875</v>
+        <v>0.238436</v>
       </c>
       <c r="F89" t="n">
-        <v>0.325803</v>
+        <v>0.325541</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204084</v>
+        <v>0.204027</v>
       </c>
       <c r="C90" t="n">
-        <v>0.408438</v>
+        <v>0.407847</v>
       </c>
       <c r="D90" t="n">
-        <v>0.397712</v>
+        <v>0.397493</v>
       </c>
       <c r="E90" t="n">
-        <v>0.238086</v>
+        <v>0.237726</v>
       </c>
       <c r="F90" t="n">
-        <v>0.324659</v>
+        <v>0.324429</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197562</v>
+        <v>0.197532</v>
       </c>
       <c r="C91" t="n">
-        <v>0.370655</v>
+        <v>0.370653</v>
       </c>
       <c r="D91" t="n">
-        <v>0.398775</v>
+        <v>0.398327</v>
       </c>
       <c r="E91" t="n">
-        <v>0.237057</v>
+        <v>0.236792</v>
       </c>
       <c r="F91" t="n">
-        <v>0.323222</v>
+        <v>0.323014</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190482</v>
+        <v>0.190307</v>
       </c>
       <c r="C92" t="n">
-        <v>0.366188</v>
+        <v>0.365986</v>
       </c>
       <c r="D92" t="n">
-        <v>0.448898</v>
+        <v>0.448369</v>
       </c>
       <c r="E92" t="n">
-        <v>0.236261</v>
+        <v>0.236067</v>
       </c>
       <c r="F92" t="n">
-        <v>0.322427</v>
+        <v>0.322233</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182101</v>
+        <v>0.181859</v>
       </c>
       <c r="C93" t="n">
-        <v>0.392342</v>
+        <v>0.392273</v>
       </c>
       <c r="D93" t="n">
-        <v>0.436602</v>
+        <v>0.43654</v>
       </c>
       <c r="E93" t="n">
-        <v>0.235496</v>
+        <v>0.235503</v>
       </c>
       <c r="F93" t="n">
-        <v>0.32162</v>
+        <v>0.321578</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.173476</v>
+        <v>0.173683</v>
       </c>
       <c r="C94" t="n">
-        <v>0.378983</v>
+        <v>0.378798</v>
       </c>
       <c r="D94" t="n">
-        <v>0.43744</v>
+        <v>0.437237</v>
       </c>
       <c r="E94" t="n">
-        <v>0.252518</v>
+        <v>0.252203</v>
       </c>
       <c r="F94" t="n">
-        <v>0.33792</v>
+        <v>0.337788</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249551</v>
+        <v>0.249494</v>
       </c>
       <c r="C95" t="n">
-        <v>0.517305</v>
+        <v>0.516684</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4302</v>
+        <v>0.429836</v>
       </c>
       <c r="E95" t="n">
-        <v>0.249748</v>
+        <v>0.250281</v>
       </c>
       <c r="F95" t="n">
-        <v>0.335993</v>
+        <v>0.335443</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.247267</v>
+        <v>0.247305</v>
       </c>
       <c r="C96" t="n">
-        <v>0.35635</v>
+        <v>0.35624</v>
       </c>
       <c r="D96" t="n">
-        <v>0.426529</v>
+        <v>0.426123</v>
       </c>
       <c r="E96" t="n">
-        <v>0.248371</v>
+        <v>0.248332</v>
       </c>
       <c r="F96" t="n">
-        <v>0.33768</v>
+        <v>0.337739</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.243268</v>
+        <v>0.243553</v>
       </c>
       <c r="C97" t="n">
-        <v>0.351886</v>
+        <v>0.351686</v>
       </c>
       <c r="D97" t="n">
-        <v>0.418088</v>
+        <v>0.417279</v>
       </c>
       <c r="E97" t="n">
-        <v>0.246934</v>
+        <v>0.246655</v>
       </c>
       <c r="F97" t="n">
-        <v>0.33527</v>
+        <v>0.335265</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.238857</v>
+        <v>0.239063</v>
       </c>
       <c r="C98" t="n">
-        <v>0.347481</v>
+        <v>0.347421</v>
       </c>
       <c r="D98" t="n">
-        <v>0.41467</v>
+        <v>0.413893</v>
       </c>
       <c r="E98" t="n">
-        <v>0.245464</v>
+        <v>0.24547</v>
       </c>
       <c r="F98" t="n">
-        <v>0.332446</v>
+        <v>0.332383</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.234022</v>
+        <v>0.23423</v>
       </c>
       <c r="C99" t="n">
-        <v>0.342504</v>
+        <v>0.342515</v>
       </c>
       <c r="D99" t="n">
-        <v>0.411913</v>
+        <v>0.41137</v>
       </c>
       <c r="E99" t="n">
-        <v>0.243971</v>
+        <v>0.243597</v>
       </c>
       <c r="F99" t="n">
-        <v>0.333285</v>
+        <v>0.33328</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228932</v>
+        <v>0.228977</v>
       </c>
       <c r="C100" t="n">
-        <v>0.337233</v>
+        <v>0.337354</v>
       </c>
       <c r="D100" t="n">
-        <v>0.405987</v>
+        <v>0.405378</v>
       </c>
       <c r="E100" t="n">
-        <v>0.242831</v>
+        <v>0.24234</v>
       </c>
       <c r="F100" t="n">
-        <v>0.329135</v>
+        <v>0.32966</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223549</v>
+        <v>0.22334</v>
       </c>
       <c r="C101" t="n">
-        <v>0.405898</v>
+        <v>0.405661</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4048</v>
+        <v>0.402831</v>
       </c>
       <c r="E101" t="n">
-        <v>0.241284</v>
+        <v>0.241434</v>
       </c>
       <c r="F101" t="n">
-        <v>0.327503</v>
+        <v>0.327556</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.217523</v>
+        <v>0.217299</v>
       </c>
       <c r="C102" t="n">
-        <v>0.397168</v>
+        <v>0.396812</v>
       </c>
       <c r="D102" t="n">
-        <v>0.398967</v>
+        <v>0.398099</v>
       </c>
       <c r="E102" t="n">
-        <v>0.240412</v>
+        <v>0.240302</v>
       </c>
       <c r="F102" t="n">
-        <v>0.327398</v>
+        <v>0.327462</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211873</v>
+        <v>0.211506</v>
       </c>
       <c r="C103" t="n">
-        <v>0.443183</v>
+        <v>0.442124</v>
       </c>
       <c r="D103" t="n">
-        <v>0.396064</v>
+        <v>0.395462</v>
       </c>
       <c r="E103" t="n">
-        <v>0.239282</v>
+        <v>0.239207</v>
       </c>
       <c r="F103" t="n">
-        <v>0.326509</v>
+        <v>0.32648</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.206068</v>
+        <v>0.205395</v>
       </c>
       <c r="C104" t="n">
-        <v>0.399848</v>
+        <v>0.399315</v>
       </c>
       <c r="D104" t="n">
-        <v>0.394179</v>
+        <v>0.39349</v>
       </c>
       <c r="E104" t="n">
-        <v>0.2387</v>
+        <v>0.238525</v>
       </c>
       <c r="F104" t="n">
-        <v>0.325476</v>
+        <v>0.325456</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199461</v>
+        <v>0.199085</v>
       </c>
       <c r="C105" t="n">
-        <v>0.442134</v>
+        <v>0.441175</v>
       </c>
       <c r="D105" t="n">
-        <v>0.390662</v>
+        <v>0.39003</v>
       </c>
       <c r="E105" t="n">
-        <v>0.237665</v>
+        <v>0.237593</v>
       </c>
       <c r="F105" t="n">
-        <v>0.32456</v>
+        <v>0.32459</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192343</v>
+        <v>0.192007</v>
       </c>
       <c r="C106" t="n">
-        <v>0.448701</v>
+        <v>0.44744</v>
       </c>
       <c r="D106" t="n">
-        <v>0.387819</v>
+        <v>0.387212</v>
       </c>
       <c r="E106" t="n">
-        <v>0.237165</v>
+        <v>0.237055</v>
       </c>
       <c r="F106" t="n">
-        <v>0.323574</v>
+        <v>0.323584</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.184087</v>
+        <v>0.183842</v>
       </c>
       <c r="C107" t="n">
-        <v>0.407338</v>
+        <v>0.406273</v>
       </c>
       <c r="D107" t="n">
-        <v>0.41999</v>
+        <v>0.418637</v>
       </c>
       <c r="E107" t="n">
-        <v>0.236073</v>
+        <v>0.23591</v>
       </c>
       <c r="F107" t="n">
-        <v>0.321666</v>
+        <v>0.321705</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174993</v>
+        <v>0.175387</v>
       </c>
       <c r="C108" t="n">
-        <v>0.404473</v>
+        <v>0.40377</v>
       </c>
       <c r="D108" t="n">
-        <v>0.413566</v>
+        <v>0.412429</v>
       </c>
       <c r="E108" t="n">
-        <v>0.253081</v>
+        <v>0.252747</v>
       </c>
       <c r="F108" t="n">
-        <v>0.337585</v>
+        <v>0.337519</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163755</v>
+        <v>0.163504</v>
       </c>
       <c r="C109" t="n">
-        <v>0.392149</v>
+        <v>0.390905</v>
       </c>
       <c r="D109" t="n">
-        <v>0.408607</v>
+        <v>0.407942</v>
       </c>
       <c r="E109" t="n">
-        <v>0.250437</v>
+        <v>0.250404</v>
       </c>
       <c r="F109" t="n">
-        <v>0.335871</v>
+        <v>0.335951</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.24806</v>
+        <v>0.248111</v>
       </c>
       <c r="C110" t="n">
-        <v>0.498327</v>
+        <v>0.496956</v>
       </c>
       <c r="D110" t="n">
-        <v>0.406039</v>
+        <v>0.404987</v>
       </c>
       <c r="E110" t="n">
-        <v>0.248385</v>
+        <v>0.248374</v>
       </c>
       <c r="F110" t="n">
-        <v>0.334458</v>
+        <v>0.334382</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.243371</v>
+        <v>0.244232</v>
       </c>
       <c r="C111" t="n">
-        <v>0.49224</v>
+        <v>0.490903</v>
       </c>
       <c r="D111" t="n">
-        <v>0.401946</v>
+        <v>0.401436</v>
       </c>
       <c r="E111" t="n">
-        <v>0.246866</v>
+        <v>0.246722</v>
       </c>
       <c r="F111" t="n">
-        <v>0.334003</v>
+        <v>0.334014</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.239826</v>
+        <v>0.239843</v>
       </c>
       <c r="C112" t="n">
-        <v>0.513277</v>
+        <v>0.511228</v>
       </c>
       <c r="D112" t="n">
-        <v>0.398337</v>
+        <v>0.39745</v>
       </c>
       <c r="E112" t="n">
-        <v>0.245252</v>
+        <v>0.245214</v>
       </c>
       <c r="F112" t="n">
-        <v>0.33246</v>
+        <v>0.332411</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234923</v>
+        <v>0.234992</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5046929999999999</v>
+        <v>0.503409</v>
       </c>
       <c r="D113" t="n">
-        <v>0.394171</v>
+        <v>0.393102</v>
       </c>
       <c r="E113" t="n">
-        <v>0.243959</v>
+        <v>0.243694</v>
       </c>
       <c r="F113" t="n">
-        <v>0.331085</v>
+        <v>0.331044</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229963</v>
+        <v>0.229743</v>
       </c>
       <c r="C114" t="n">
-        <v>0.495182</v>
+        <v>0.493774</v>
       </c>
       <c r="D114" t="n">
-        <v>0.391173</v>
+        <v>0.390818</v>
       </c>
       <c r="E114" t="n">
-        <v>0.242737</v>
+        <v>0.242389</v>
       </c>
       <c r="F114" t="n">
-        <v>0.330015</v>
+        <v>0.329992</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224543</v>
+        <v>0.224559</v>
       </c>
       <c r="C115" t="n">
-        <v>0.432704</v>
+        <v>0.432213</v>
       </c>
       <c r="D115" t="n">
-        <v>0.390315</v>
+        <v>0.387407</v>
       </c>
       <c r="E115" t="n">
-        <v>0.241581</v>
+        <v>0.241593</v>
       </c>
       <c r="F115" t="n">
-        <v>0.327779</v>
+        <v>0.327835</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217991</v>
+        <v>0.218252</v>
       </c>
       <c r="C116" t="n">
-        <v>0.405584</v>
+        <v>0.405092</v>
       </c>
       <c r="D116" t="n">
-        <v>0.386094</v>
+        <v>0.385313</v>
       </c>
       <c r="E116" t="n">
-        <v>0.240479</v>
+        <v>0.240441</v>
       </c>
       <c r="F116" t="n">
-        <v>0.327924</v>
+        <v>0.327922</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212756</v>
+        <v>0.212979</v>
       </c>
       <c r="C117" t="n">
-        <v>0.385308</v>
+        <v>0.384808</v>
       </c>
       <c r="D117" t="n">
-        <v>0.383956</v>
+        <v>0.382233</v>
       </c>
       <c r="E117" t="n">
-        <v>0.23949</v>
+        <v>0.239471</v>
       </c>
       <c r="F117" t="n">
-        <v>0.325569</v>
+        <v>0.325611</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206407</v>
+        <v>0.206693</v>
       </c>
       <c r="C118" t="n">
-        <v>0.400436</v>
+        <v>0.400122</v>
       </c>
       <c r="D118" t="n">
-        <v>0.381497</v>
+        <v>0.380315</v>
       </c>
       <c r="E118" t="n">
-        <v>0.238682</v>
+        <v>0.238532</v>
       </c>
       <c r="F118" t="n">
-        <v>0.324782</v>
+        <v>0.32473</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200324</v>
+        <v>0.200531</v>
       </c>
       <c r="C119" t="n">
-        <v>0.431511</v>
+        <v>0.430271</v>
       </c>
       <c r="D119" t="n">
-        <v>0.380592</v>
+        <v>0.378791</v>
       </c>
       <c r="E119" t="n">
-        <v>0.237765</v>
+        <v>0.237773</v>
       </c>
       <c r="F119" t="n">
-        <v>0.323702</v>
+        <v>0.323724</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193462</v>
+        <v>0.193438</v>
       </c>
       <c r="C120" t="n">
-        <v>0.397419</v>
+        <v>0.397</v>
       </c>
       <c r="D120" t="n">
-        <v>0.37863</v>
+        <v>0.377356</v>
       </c>
       <c r="E120" t="n">
-        <v>0.236968</v>
+        <v>0.236931</v>
       </c>
       <c r="F120" t="n">
-        <v>0.322884</v>
+        <v>0.322891</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185578</v>
+        <v>0.185576</v>
       </c>
       <c r="C121" t="n">
-        <v>0.40476</v>
+        <v>0.403794</v>
       </c>
       <c r="D121" t="n">
-        <v>0.453285</v>
+        <v>0.45114</v>
       </c>
       <c r="E121" t="n">
-        <v>0.236295</v>
+        <v>0.236111</v>
       </c>
       <c r="F121" t="n">
-        <v>0.322178</v>
+        <v>0.322159</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176676</v>
+        <v>0.176692</v>
       </c>
       <c r="C122" t="n">
-        <v>0.369121</v>
+        <v>0.369082</v>
       </c>
       <c r="D122" t="n">
-        <v>0.44683</v>
+        <v>0.443884</v>
       </c>
       <c r="E122" t="n">
-        <v>0.235508</v>
+        <v>0.235403</v>
       </c>
       <c r="F122" t="n">
-        <v>0.32142</v>
+        <v>0.321442</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.165946</v>
+        <v>0.165989</v>
       </c>
       <c r="C123" t="n">
-        <v>0.357575</v>
+        <v>0.357358</v>
       </c>
       <c r="D123" t="n">
-        <v>0.43941</v>
+        <v>0.437165</v>
       </c>
       <c r="E123" t="n">
-        <v>0.250501</v>
+        <v>0.250563</v>
       </c>
       <c r="F123" t="n">
-        <v>0.336229</v>
+        <v>0.336225</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.248867</v>
+        <v>0.248983</v>
       </c>
       <c r="C124" t="n">
-        <v>0.434353</v>
+        <v>0.434298</v>
       </c>
       <c r="D124" t="n">
-        <v>0.428724</v>
+        <v>0.426615</v>
       </c>
       <c r="E124" t="n">
-        <v>0.248574</v>
+        <v>0.248608</v>
       </c>
       <c r="F124" t="n">
-        <v>0.335547</v>
+        <v>0.335609</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.245191</v>
+        <v>0.245293</v>
       </c>
       <c r="C125" t="n">
-        <v>0.438132</v>
+        <v>0.437493</v>
       </c>
       <c r="D125" t="n">
-        <v>0.424495</v>
+        <v>0.422894</v>
       </c>
       <c r="E125" t="n">
-        <v>0.246933</v>
+        <v>0.246865</v>
       </c>
       <c r="F125" t="n">
-        <v>0.334378</v>
+        <v>0.33435</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.241101</v>
+        <v>0.241217</v>
       </c>
       <c r="C126" t="n">
-        <v>0.458085</v>
+        <v>0.457098</v>
       </c>
       <c r="D126" t="n">
-        <v>0.418999</v>
+        <v>0.417566</v>
       </c>
       <c r="E126" t="n">
-        <v>0.2455</v>
+        <v>0.245428</v>
       </c>
       <c r="F126" t="n">
-        <v>0.333002</v>
+        <v>0.333043</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236355</v>
+        <v>0.236198</v>
       </c>
       <c r="C127" t="n">
-        <v>0.466852</v>
+        <v>0.466153</v>
       </c>
       <c r="D127" t="n">
-        <v>0.41438</v>
+        <v>0.412997</v>
       </c>
       <c r="E127" t="n">
-        <v>0.244129</v>
+        <v>0.244086</v>
       </c>
       <c r="F127" t="n">
-        <v>0.331834</v>
+        <v>0.331827</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.231142</v>
+        <v>0.231255</v>
       </c>
       <c r="C128" t="n">
-        <v>0.433262</v>
+        <v>0.432421</v>
       </c>
       <c r="D128" t="n">
-        <v>0.412397</v>
+        <v>0.410965</v>
       </c>
       <c r="E128" t="n">
-        <v>0.24289</v>
+        <v>0.242723</v>
       </c>
       <c r="F128" t="n">
-        <v>0.330571</v>
+        <v>0.330579</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.225565</v>
+        <v>0.224918</v>
       </c>
       <c r="C129" t="n">
-        <v>0.374824</v>
+        <v>0.374575</v>
       </c>
       <c r="D129" t="n">
-        <v>0.406039</v>
+        <v>0.404593</v>
       </c>
       <c r="E129" t="n">
-        <v>0.241546</v>
+        <v>0.241538</v>
       </c>
       <c r="F129" t="n">
-        <v>0.329128</v>
+        <v>0.329057</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219954</v>
+        <v>0.219259</v>
       </c>
       <c r="C130" t="n">
-        <v>0.412951</v>
+        <v>0.412278</v>
       </c>
       <c r="D130" t="n">
-        <v>0.400205</v>
+        <v>0.398634</v>
       </c>
       <c r="E130" t="n">
-        <v>0.240502</v>
+        <v>0.240478</v>
       </c>
       <c r="F130" t="n">
-        <v>0.32828</v>
+        <v>0.328231</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.214167</v>
+        <v>0.213657</v>
       </c>
       <c r="C131" t="n">
-        <v>0.41002</v>
+        <v>0.409497</v>
       </c>
       <c r="D131" t="n">
-        <v>0.397017</v>
+        <v>0.396542</v>
       </c>
       <c r="E131" t="n">
-        <v>0.239436</v>
+        <v>0.239406</v>
       </c>
       <c r="F131" t="n">
-        <v>0.327193</v>
+        <v>0.32714</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.208126</v>
+        <v>0.208068</v>
       </c>
       <c r="C132" t="n">
-        <v>0.405689</v>
+        <v>0.404696</v>
       </c>
       <c r="D132" t="n">
-        <v>0.395909</v>
+        <v>0.395157</v>
       </c>
       <c r="E132" t="n">
-        <v>0.23853</v>
+        <v>0.238492</v>
       </c>
       <c r="F132" t="n">
-        <v>0.32606</v>
+        <v>0.325764</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.202306</v>
+        <v>0.202207</v>
       </c>
       <c r="C133" t="n">
-        <v>0.411176</v>
+        <v>0.410326</v>
       </c>
       <c r="D133" t="n">
-        <v>0.392147</v>
+        <v>0.390114</v>
       </c>
       <c r="E133" t="n">
-        <v>0.237608</v>
+        <v>0.237763</v>
       </c>
       <c r="F133" t="n">
-        <v>0.324966</v>
+        <v>0.324856</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.195278</v>
+        <v>0.19559</v>
       </c>
       <c r="C134" t="n">
-        <v>0.373732</v>
+        <v>0.373344</v>
       </c>
       <c r="D134" t="n">
-        <v>0.389884</v>
+        <v>0.389524</v>
       </c>
       <c r="E134" t="n">
-        <v>0.236965</v>
+        <v>0.237007</v>
       </c>
       <c r="F134" t="n">
-        <v>0.324134</v>
+        <v>0.324148</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.188061</v>
+        <v>0.187814</v>
       </c>
       <c r="C135" t="n">
-        <v>0.401209</v>
+        <v>0.399766</v>
       </c>
       <c r="D135" t="n">
-        <v>0.455577</v>
+        <v>0.453674</v>
       </c>
       <c r="E135" t="n">
-        <v>0.236266</v>
+        <v>0.236201</v>
       </c>
       <c r="F135" t="n">
-        <v>0.322184</v>
+        <v>0.322212</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178839</v>
+        <v>0.178743</v>
       </c>
       <c r="C136" t="n">
-        <v>0.350358</v>
+        <v>0.349997</v>
       </c>
       <c r="D136" t="n">
-        <v>0.451535</v>
+        <v>0.449192</v>
       </c>
       <c r="E136" t="n">
-        <v>0.235813</v>
+        <v>0.235715</v>
       </c>
       <c r="F136" t="n">
-        <v>0.32263</v>
+        <v>0.322638</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168282</v>
+        <v>0.16808</v>
       </c>
       <c r="C137" t="n">
-        <v>0.363444</v>
+        <v>0.36292</v>
       </c>
       <c r="D137" t="n">
-        <v>0.442958</v>
+        <v>0.441943</v>
       </c>
       <c r="E137" t="n">
-        <v>0.250922</v>
+        <v>0.250849</v>
       </c>
       <c r="F137" t="n">
-        <v>0.337603</v>
+        <v>0.337632</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.248792</v>
+        <v>0.248318</v>
       </c>
       <c r="C138" t="n">
-        <v>0.426448</v>
+        <v>0.425791</v>
       </c>
       <c r="D138" t="n">
-        <v>0.435108</v>
+        <v>0.433604</v>
       </c>
       <c r="E138" t="n">
-        <v>0.249136</v>
+        <v>0.249068</v>
       </c>
       <c r="F138" t="n">
-        <v>0.336084</v>
+        <v>0.335601</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.245602</v>
+        <v>0.244928</v>
       </c>
       <c r="C139" t="n">
-        <v>0.477613</v>
+        <v>0.477396</v>
       </c>
       <c r="D139" t="n">
-        <v>0.428172</v>
+        <v>0.4278</v>
       </c>
       <c r="E139" t="n">
-        <v>0.247497</v>
+        <v>0.247423</v>
       </c>
       <c r="F139" t="n">
-        <v>0.334138</v>
+        <v>0.334071</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.241444</v>
+        <v>0.24055</v>
       </c>
       <c r="C140" t="n">
-        <v>0.469402</v>
+        <v>0.468807</v>
       </c>
       <c r="D140" t="n">
-        <v>0.426338</v>
+        <v>0.425777</v>
       </c>
       <c r="E140" t="n">
-        <v>0.245871</v>
+        <v>0.245723</v>
       </c>
       <c r="F140" t="n">
-        <v>0.333294</v>
+        <v>0.333283</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.235704</v>
+        <v>0.23584</v>
       </c>
       <c r="C141" t="n">
-        <v>0.478794</v>
+        <v>0.478192</v>
       </c>
       <c r="D141" t="n">
-        <v>0.41788</v>
+        <v>0.417193</v>
       </c>
       <c r="E141" t="n">
-        <v>0.244502</v>
+        <v>0.244394</v>
       </c>
       <c r="F141" t="n">
-        <v>0.332098</v>
+        <v>0.332019</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231199</v>
+        <v>0.231109</v>
       </c>
       <c r="C142" t="n">
-        <v>0.359709</v>
+        <v>0.359466</v>
       </c>
       <c r="D142" t="n">
-        <v>0.412629</v>
+        <v>0.411625</v>
       </c>
       <c r="E142" t="n">
-        <v>0.243076</v>
+        <v>0.243127</v>
       </c>
       <c r="F142" t="n">
-        <v>0.330249</v>
+        <v>0.330114</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225732</v>
+        <v>0.225846</v>
       </c>
       <c r="C143" t="n">
-        <v>0.447914</v>
+        <v>0.448449</v>
       </c>
       <c r="D143" t="n">
-        <v>0.408071</v>
+        <v>0.407635</v>
       </c>
       <c r="E143" t="n">
-        <v>0.24186</v>
+        <v>0.241966</v>
       </c>
       <c r="F143" t="n">
-        <v>0.328424</v>
+        <v>0.328373</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.200294</v>
+        <v>0.19705</v>
       </c>
       <c r="C2" t="n">
-        <v>0.31659</v>
+        <v>0.315981</v>
       </c>
       <c r="D2" t="n">
-        <v>0.305634</v>
+        <v>0.306196</v>
       </c>
       <c r="E2" t="n">
-        <v>0.210783</v>
+        <v>0.211609</v>
       </c>
       <c r="F2" t="n">
-        <v>0.317267</v>
+        <v>0.317446</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194011</v>
+        <v>0.193541</v>
       </c>
       <c r="C3" t="n">
-        <v>0.313723</v>
+        <v>0.312894</v>
       </c>
       <c r="D3" t="n">
-        <v>0.307652</v>
+        <v>0.306916</v>
       </c>
       <c r="E3" t="n">
-        <v>0.211491</v>
+        <v>0.211625</v>
       </c>
       <c r="F3" t="n">
-        <v>0.317262</v>
+        <v>0.315439</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.189252</v>
+        <v>0.188871</v>
       </c>
       <c r="C4" t="n">
-        <v>0.30793</v>
+        <v>0.310821</v>
       </c>
       <c r="D4" t="n">
-        <v>0.309183</v>
+        <v>0.307927</v>
       </c>
       <c r="E4" t="n">
-        <v>0.214307</v>
+        <v>0.21423</v>
       </c>
       <c r="F4" t="n">
-        <v>0.315485</v>
+        <v>0.317306</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182401</v>
+        <v>0.181043</v>
       </c>
       <c r="C5" t="n">
-        <v>0.307774</v>
+        <v>0.306394</v>
       </c>
       <c r="D5" t="n">
-        <v>0.30952</v>
+        <v>0.309469</v>
       </c>
       <c r="E5" t="n">
-        <v>0.215395</v>
+        <v>0.215013</v>
       </c>
       <c r="F5" t="n">
-        <v>0.31487</v>
+        <v>0.317079</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.176159</v>
+        <v>0.175014</v>
       </c>
       <c r="C6" t="n">
-        <v>0.300265</v>
+        <v>0.297751</v>
       </c>
       <c r="D6" t="n">
-        <v>0.310051</v>
+        <v>0.309849</v>
       </c>
       <c r="E6" t="n">
-        <v>0.21725</v>
+        <v>0.216573</v>
       </c>
       <c r="F6" t="n">
-        <v>0.313042</v>
+        <v>0.312336</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.167221</v>
+        <v>0.167978</v>
       </c>
       <c r="C7" t="n">
-        <v>0.291435</v>
+        <v>0.292698</v>
       </c>
       <c r="D7" t="n">
-        <v>0.305019</v>
+        <v>0.304968</v>
       </c>
       <c r="E7" t="n">
-        <v>0.218409</v>
+        <v>0.218694</v>
       </c>
       <c r="F7" t="n">
-        <v>0.311836</v>
+        <v>0.312429</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.159039</v>
+        <v>0.159148</v>
       </c>
       <c r="C8" t="n">
-        <v>0.284275</v>
+        <v>0.285095</v>
       </c>
       <c r="D8" t="n">
-        <v>0.304431</v>
+        <v>0.304736</v>
       </c>
       <c r="E8" t="n">
-        <v>0.220225</v>
+        <v>0.219675</v>
       </c>
       <c r="F8" t="n">
-        <v>0.31375</v>
+        <v>0.313404</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148593</v>
+        <v>0.148115</v>
       </c>
       <c r="C9" t="n">
-        <v>0.27137</v>
+        <v>0.27309</v>
       </c>
       <c r="D9" t="n">
-        <v>0.304824</v>
+        <v>0.304584</v>
       </c>
       <c r="E9" t="n">
-        <v>0.234382</v>
+        <v>0.235627</v>
       </c>
       <c r="F9" t="n">
-        <v>0.327079</v>
+        <v>0.329001</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231894</v>
+        <v>0.233278</v>
       </c>
       <c r="C10" t="n">
-        <v>0.347589</v>
+        <v>0.348326</v>
       </c>
       <c r="D10" t="n">
-        <v>0.306654</v>
+        <v>0.304482</v>
       </c>
       <c r="E10" t="n">
-        <v>0.234605</v>
+        <v>0.233971</v>
       </c>
       <c r="F10" t="n">
-        <v>0.326805</v>
+        <v>0.327062</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.228899</v>
+        <v>0.229308</v>
       </c>
       <c r="C11" t="n">
-        <v>0.34601</v>
+        <v>0.346184</v>
       </c>
       <c r="D11" t="n">
-        <v>0.306698</v>
+        <v>0.305963</v>
       </c>
       <c r="E11" t="n">
-        <v>0.235144</v>
+        <v>0.234712</v>
       </c>
       <c r="F11" t="n">
-        <v>0.326537</v>
+        <v>0.32663</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225968</v>
+        <v>0.226849</v>
       </c>
       <c r="C12" t="n">
-        <v>0.342634</v>
+        <v>0.343243</v>
       </c>
       <c r="D12" t="n">
-        <v>0.307243</v>
+        <v>0.306198</v>
       </c>
       <c r="E12" t="n">
-        <v>0.234651</v>
+        <v>0.233429</v>
       </c>
       <c r="F12" t="n">
-        <v>0.327015</v>
+        <v>0.327286</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221901</v>
+        <v>0.22256</v>
       </c>
       <c r="C13" t="n">
-        <v>0.337846</v>
+        <v>0.337671</v>
       </c>
       <c r="D13" t="n">
-        <v>0.30728</v>
+        <v>0.306597</v>
       </c>
       <c r="E13" t="n">
-        <v>0.234475</v>
+        <v>0.233025</v>
       </c>
       <c r="F13" t="n">
-        <v>0.325369</v>
+        <v>0.325642</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.21917</v>
+        <v>0.218274</v>
       </c>
       <c r="C14" t="n">
-        <v>0.333465</v>
+        <v>0.33398</v>
       </c>
       <c r="D14" t="n">
-        <v>0.308434</v>
+        <v>0.309259</v>
       </c>
       <c r="E14" t="n">
-        <v>0.235431</v>
+        <v>0.235059</v>
       </c>
       <c r="F14" t="n">
-        <v>0.323822</v>
+        <v>0.324287</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215639</v>
+        <v>0.214135</v>
       </c>
       <c r="C15" t="n">
-        <v>0.329852</v>
+        <v>0.329609</v>
       </c>
       <c r="D15" t="n">
-        <v>0.307973</v>
+        <v>0.308951</v>
       </c>
       <c r="E15" t="n">
-        <v>0.234297</v>
+        <v>0.23434</v>
       </c>
       <c r="F15" t="n">
-        <v>0.323918</v>
+        <v>0.32456</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211657</v>
+        <v>0.210808</v>
       </c>
       <c r="C16" t="n">
-        <v>0.323665</v>
+        <v>0.323494</v>
       </c>
       <c r="D16" t="n">
-        <v>0.309492</v>
+        <v>0.310516</v>
       </c>
       <c r="E16" t="n">
-        <v>0.234169</v>
+        <v>0.234157</v>
       </c>
       <c r="F16" t="n">
-        <v>0.32215</v>
+        <v>0.32251</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206536</v>
+        <v>0.205804</v>
       </c>
       <c r="C17" t="n">
-        <v>0.315025</v>
+        <v>0.315148</v>
       </c>
       <c r="D17" t="n">
-        <v>0.309044</v>
+        <v>0.309565</v>
       </c>
       <c r="E17" t="n">
-        <v>0.23419</v>
+        <v>0.234448</v>
       </c>
       <c r="F17" t="n">
-        <v>0.323755</v>
+        <v>0.323964</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199522</v>
+        <v>0.198401</v>
       </c>
       <c r="C18" t="n">
-        <v>0.309858</v>
+        <v>0.311404</v>
       </c>
       <c r="D18" t="n">
-        <v>0.311151</v>
+        <v>0.311451</v>
       </c>
       <c r="E18" t="n">
-        <v>0.233685</v>
+        <v>0.233568</v>
       </c>
       <c r="F18" t="n">
-        <v>0.322074</v>
+        <v>0.32169</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.19385</v>
+        <v>0.194077</v>
       </c>
       <c r="C19" t="n">
-        <v>0.30593</v>
+        <v>0.305903</v>
       </c>
       <c r="D19" t="n">
-        <v>0.312665</v>
+        <v>0.312373</v>
       </c>
       <c r="E19" t="n">
-        <v>0.23204</v>
+        <v>0.232452</v>
       </c>
       <c r="F19" t="n">
-        <v>0.320383</v>
+        <v>0.320655</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188353</v>
+        <v>0.188923</v>
       </c>
       <c r="C20" t="n">
-        <v>0.30886</v>
+        <v>0.308572</v>
       </c>
       <c r="D20" t="n">
-        <v>0.311947</v>
+        <v>0.313146</v>
       </c>
       <c r="E20" t="n">
-        <v>0.232676</v>
+        <v>0.232809</v>
       </c>
       <c r="F20" t="n">
-        <v>0.320999</v>
+        <v>0.320453</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181601</v>
+        <v>0.181082</v>
       </c>
       <c r="C21" t="n">
-        <v>0.298816</v>
+        <v>0.299026</v>
       </c>
       <c r="D21" t="n">
-        <v>0.309536</v>
+        <v>0.309795</v>
       </c>
       <c r="E21" t="n">
-        <v>0.231679</v>
+        <v>0.23194</v>
       </c>
       <c r="F21" t="n">
-        <v>0.318785</v>
+        <v>0.318799</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.172699</v>
+        <v>0.171954</v>
       </c>
       <c r="C22" t="n">
-        <v>0.290381</v>
+        <v>0.290829</v>
       </c>
       <c r="D22" t="n">
-        <v>0.309034</v>
+        <v>0.309078</v>
       </c>
       <c r="E22" t="n">
-        <v>0.232512</v>
+        <v>0.232317</v>
       </c>
       <c r="F22" t="n">
-        <v>0.318463</v>
+        <v>0.318717</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.162645</v>
+        <v>0.163722</v>
       </c>
       <c r="C23" t="n">
-        <v>0.275848</v>
+        <v>0.276141</v>
       </c>
       <c r="D23" t="n">
-        <v>0.308508</v>
+        <v>0.309124</v>
       </c>
       <c r="E23" t="n">
-        <v>0.24718</v>
+        <v>0.247006</v>
       </c>
       <c r="F23" t="n">
-        <v>0.334221</v>
+        <v>0.334053</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.24058</v>
+        <v>0.24011</v>
       </c>
       <c r="C24" t="n">
-        <v>0.349125</v>
+        <v>0.34921</v>
       </c>
       <c r="D24" t="n">
-        <v>0.309185</v>
+        <v>0.309723</v>
       </c>
       <c r="E24" t="n">
-        <v>0.245431</v>
+        <v>0.244611</v>
       </c>
       <c r="F24" t="n">
-        <v>0.331984</v>
+        <v>0.331339</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240079</v>
+        <v>0.239727</v>
       </c>
       <c r="C25" t="n">
-        <v>0.348844</v>
+        <v>0.348644</v>
       </c>
       <c r="D25" t="n">
-        <v>0.31071</v>
+        <v>0.310463</v>
       </c>
       <c r="E25" t="n">
-        <v>0.243652</v>
+        <v>0.243689</v>
       </c>
       <c r="F25" t="n">
-        <v>0.331946</v>
+        <v>0.331697</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.235794</v>
+        <v>0.236357</v>
       </c>
       <c r="C26" t="n">
-        <v>0.344656</v>
+        <v>0.344366</v>
       </c>
       <c r="D26" t="n">
-        <v>0.311278</v>
+        <v>0.310676</v>
       </c>
       <c r="E26" t="n">
-        <v>0.242871</v>
+        <v>0.242898</v>
       </c>
       <c r="F26" t="n">
-        <v>0.330463</v>
+        <v>0.329925</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.231038</v>
+        <v>0.231542</v>
       </c>
       <c r="C27" t="n">
-        <v>0.33982</v>
+        <v>0.339816</v>
       </c>
       <c r="D27" t="n">
-        <v>0.311436</v>
+        <v>0.310591</v>
       </c>
       <c r="E27" t="n">
-        <v>0.242055</v>
+        <v>0.24172</v>
       </c>
       <c r="F27" t="n">
-        <v>0.329064</v>
+        <v>0.329173</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.22801</v>
+        <v>0.22722</v>
       </c>
       <c r="C28" t="n">
-        <v>0.335131</v>
+        <v>0.334693</v>
       </c>
       <c r="D28" t="n">
-        <v>0.311712</v>
+        <v>0.311628</v>
       </c>
       <c r="E28" t="n">
-        <v>0.240614</v>
+        <v>0.240424</v>
       </c>
       <c r="F28" t="n">
-        <v>0.329066</v>
+        <v>0.328799</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.226084</v>
+        <v>0.223927</v>
       </c>
       <c r="C29" t="n">
-        <v>0.330743</v>
+        <v>0.330248</v>
       </c>
       <c r="D29" t="n">
-        <v>0.312177</v>
+        <v>0.312529</v>
       </c>
       <c r="E29" t="n">
-        <v>0.240726</v>
+        <v>0.240084</v>
       </c>
       <c r="F29" t="n">
-        <v>0.326823</v>
+        <v>0.328112</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.219145</v>
+        <v>0.217557</v>
       </c>
       <c r="C30" t="n">
-        <v>0.329212</v>
+        <v>0.328612</v>
       </c>
       <c r="D30" t="n">
-        <v>0.31228</v>
+        <v>0.312107</v>
       </c>
       <c r="E30" t="n">
-        <v>0.239483</v>
+        <v>0.239324</v>
       </c>
       <c r="F30" t="n">
-        <v>0.326446</v>
+        <v>0.326776</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.21278</v>
+        <v>0.211657</v>
       </c>
       <c r="C31" t="n">
-        <v>0.326383</v>
+        <v>0.32471</v>
       </c>
       <c r="D31" t="n">
-        <v>0.31316</v>
+        <v>0.313261</v>
       </c>
       <c r="E31" t="n">
-        <v>0.238519</v>
+        <v>0.238594</v>
       </c>
       <c r="F31" t="n">
-        <v>0.324436</v>
+        <v>0.324422</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20693</v>
+        <v>0.206582</v>
       </c>
       <c r="C32" t="n">
-        <v>0.320809</v>
+        <v>0.321277</v>
       </c>
       <c r="D32" t="n">
-        <v>0.314911</v>
+        <v>0.314221</v>
       </c>
       <c r="E32" t="n">
-        <v>0.237578</v>
+        <v>0.237304</v>
       </c>
       <c r="F32" t="n">
-        <v>0.323942</v>
+        <v>0.324017</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201707</v>
+        <v>0.2011</v>
       </c>
       <c r="C33" t="n">
-        <v>0.315441</v>
+        <v>0.315143</v>
       </c>
       <c r="D33" t="n">
-        <v>0.315498</v>
+        <v>0.31611</v>
       </c>
       <c r="E33" t="n">
-        <v>0.236959</v>
+        <v>0.236264</v>
       </c>
       <c r="F33" t="n">
-        <v>0.323423</v>
+        <v>0.322639</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195122</v>
+        <v>0.194929</v>
       </c>
       <c r="C34" t="n">
-        <v>0.311769</v>
+        <v>0.308804</v>
       </c>
       <c r="D34" t="n">
-        <v>0.317342</v>
+        <v>0.317229</v>
       </c>
       <c r="E34" t="n">
-        <v>0.23607</v>
+        <v>0.235918</v>
       </c>
       <c r="F34" t="n">
-        <v>0.322317</v>
+        <v>0.322441</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.188229</v>
+        <v>0.188049</v>
       </c>
       <c r="C35" t="n">
-        <v>0.297461</v>
+        <v>0.297199</v>
       </c>
       <c r="D35" t="n">
-        <v>0.313147</v>
+        <v>0.313696</v>
       </c>
       <c r="E35" t="n">
-        <v>0.23513</v>
+        <v>0.235271</v>
       </c>
       <c r="F35" t="n">
-        <v>0.320055</v>
+        <v>0.320134</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.17974</v>
+        <v>0.179655</v>
       </c>
       <c r="C36" t="n">
-        <v>0.286527</v>
+        <v>0.285984</v>
       </c>
       <c r="D36" t="n">
-        <v>0.313537</v>
+        <v>0.313809</v>
       </c>
       <c r="E36" t="n">
-        <v>0.235115</v>
+        <v>0.234826</v>
       </c>
       <c r="F36" t="n">
-        <v>0.319481</v>
+        <v>0.319416</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170466</v>
+        <v>0.169672</v>
       </c>
       <c r="C37" t="n">
-        <v>0.279347</v>
+        <v>0.279831</v>
       </c>
       <c r="D37" t="n">
-        <v>0.313651</v>
+        <v>0.313594</v>
       </c>
       <c r="E37" t="n">
-        <v>0.249417</v>
+        <v>0.248855</v>
       </c>
       <c r="F37" t="n">
-        <v>0.336108</v>
+        <v>0.335977</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247895</v>
+        <v>0.247375</v>
       </c>
       <c r="C38" t="n">
-        <v>0.35977</v>
+        <v>0.359629</v>
       </c>
       <c r="D38" t="n">
-        <v>0.313074</v>
+        <v>0.312823</v>
       </c>
       <c r="E38" t="n">
-        <v>0.246857</v>
+        <v>0.246764</v>
       </c>
       <c r="F38" t="n">
-        <v>0.334616</v>
+        <v>0.334907</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.245044</v>
+        <v>0.244418</v>
       </c>
       <c r="C39" t="n">
-        <v>0.356515</v>
+        <v>0.356655</v>
       </c>
       <c r="D39" t="n">
-        <v>0.313262</v>
+        <v>0.313261</v>
       </c>
       <c r="E39" t="n">
-        <v>0.245825</v>
+        <v>0.245625</v>
       </c>
       <c r="F39" t="n">
-        <v>0.333746</v>
+        <v>0.33345</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.242089</v>
+        <v>0.241174</v>
       </c>
       <c r="C40" t="n">
-        <v>0.352865</v>
+        <v>0.35298</v>
       </c>
       <c r="D40" t="n">
-        <v>0.313088</v>
+        <v>0.313542</v>
       </c>
       <c r="E40" t="n">
-        <v>0.244848</v>
+        <v>0.244733</v>
       </c>
       <c r="F40" t="n">
-        <v>0.332755</v>
+        <v>0.333043</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.236219</v>
+        <v>0.235596</v>
       </c>
       <c r="C41" t="n">
-        <v>0.347693</v>
+        <v>0.347606</v>
       </c>
       <c r="D41" t="n">
-        <v>0.31364</v>
+        <v>0.314023</v>
       </c>
       <c r="E41" t="n">
-        <v>0.243459</v>
+        <v>0.243427</v>
       </c>
       <c r="F41" t="n">
-        <v>0.331724</v>
+        <v>0.331659</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.231572</v>
+        <v>0.231597</v>
       </c>
       <c r="C42" t="n">
-        <v>0.343132</v>
+        <v>0.34351</v>
       </c>
       <c r="D42" t="n">
-        <v>0.313913</v>
+        <v>0.314502</v>
       </c>
       <c r="E42" t="n">
-        <v>0.242263</v>
+        <v>0.241933</v>
       </c>
       <c r="F42" t="n">
-        <v>0.330036</v>
+        <v>0.330197</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.226505</v>
+        <v>0.225916</v>
       </c>
       <c r="C43" t="n">
-        <v>0.337874</v>
+        <v>0.33759</v>
       </c>
       <c r="D43" t="n">
-        <v>0.313705</v>
+        <v>0.314153</v>
       </c>
       <c r="E43" t="n">
-        <v>0.241246</v>
+        <v>0.240851</v>
       </c>
       <c r="F43" t="n">
-        <v>0.328957</v>
+        <v>0.328816</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220847</v>
+        <v>0.220186</v>
       </c>
       <c r="C44" t="n">
-        <v>0.325115</v>
+        <v>0.32516</v>
       </c>
       <c r="D44" t="n">
-        <v>0.314729</v>
+        <v>0.316045</v>
       </c>
       <c r="E44" t="n">
-        <v>0.239775</v>
+        <v>0.23994</v>
       </c>
       <c r="F44" t="n">
-        <v>0.327937</v>
+        <v>0.327665</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215666</v>
+        <v>0.215053</v>
       </c>
       <c r="C45" t="n">
-        <v>0.334929</v>
+        <v>0.337493</v>
       </c>
       <c r="D45" t="n">
-        <v>0.315024</v>
+        <v>0.315552</v>
       </c>
       <c r="E45" t="n">
-        <v>0.239018</v>
+        <v>0.238858</v>
       </c>
       <c r="F45" t="n">
-        <v>0.327184</v>
+        <v>0.32727</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209924</v>
+        <v>0.209826</v>
       </c>
       <c r="C46" t="n">
-        <v>0.321509</v>
+        <v>0.323533</v>
       </c>
       <c r="D46" t="n">
-        <v>0.316302</v>
+        <v>0.31782</v>
       </c>
       <c r="E46" t="n">
-        <v>0.238147</v>
+        <v>0.238173</v>
       </c>
       <c r="F46" t="n">
-        <v>0.325414</v>
+        <v>0.325896</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.20454</v>
+        <v>0.20435</v>
       </c>
       <c r="C47" t="n">
-        <v>0.319026</v>
+        <v>0.319215</v>
       </c>
       <c r="D47" t="n">
-        <v>0.317158</v>
+        <v>0.318516</v>
       </c>
       <c r="E47" t="n">
-        <v>0.237426</v>
+        <v>0.237435</v>
       </c>
       <c r="F47" t="n">
-        <v>0.325289</v>
+        <v>0.324717</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198779</v>
+        <v>0.198763</v>
       </c>
       <c r="C48" t="n">
-        <v>0.305737</v>
+        <v>0.306658</v>
       </c>
       <c r="D48" t="n">
-        <v>0.317181</v>
+        <v>0.318092</v>
       </c>
       <c r="E48" t="n">
-        <v>0.236525</v>
+        <v>0.236471</v>
       </c>
       <c r="F48" t="n">
-        <v>0.323705</v>
+        <v>0.323611</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191496</v>
+        <v>0.19128</v>
       </c>
       <c r="C49" t="n">
-        <v>0.303486</v>
+        <v>0.304331</v>
       </c>
       <c r="D49" t="n">
-        <v>0.318904</v>
+        <v>0.319512</v>
       </c>
       <c r="E49" t="n">
-        <v>0.23574</v>
+        <v>0.235694</v>
       </c>
       <c r="F49" t="n">
-        <v>0.323141</v>
+        <v>0.32317</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.184163</v>
+        <v>0.184132</v>
       </c>
       <c r="C50" t="n">
-        <v>0.29839</v>
+        <v>0.30085</v>
       </c>
       <c r="D50" t="n">
-        <v>0.318239</v>
+        <v>0.318652</v>
       </c>
       <c r="E50" t="n">
-        <v>0.23523</v>
+        <v>0.235236</v>
       </c>
       <c r="F50" t="n">
-        <v>0.322115</v>
+        <v>0.321915</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175465</v>
+        <v>0.174834</v>
       </c>
       <c r="C51" t="n">
-        <v>0.285761</v>
+        <v>0.286343</v>
       </c>
       <c r="D51" t="n">
-        <v>0.317293</v>
+        <v>0.318104</v>
       </c>
       <c r="E51" t="n">
-        <v>0.249789</v>
+        <v>0.249248</v>
       </c>
       <c r="F51" t="n">
-        <v>0.336864</v>
+        <v>0.337134</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.164251</v>
+        <v>0.16419</v>
       </c>
       <c r="C52" t="n">
-        <v>0.281362</v>
+        <v>0.280942</v>
       </c>
       <c r="D52" t="n">
-        <v>0.319716</v>
+        <v>0.319559</v>
       </c>
       <c r="E52" t="n">
-        <v>0.248506</v>
+        <v>0.248159</v>
       </c>
       <c r="F52" t="n">
-        <v>0.335811</v>
+        <v>0.3358</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246488</v>
+        <v>0.246607</v>
       </c>
       <c r="C53" t="n">
-        <v>0.358332</v>
+        <v>0.360207</v>
       </c>
       <c r="D53" t="n">
-        <v>0.319106</v>
+        <v>0.319113</v>
       </c>
       <c r="E53" t="n">
-        <v>0.247051</v>
+        <v>0.246774</v>
       </c>
       <c r="F53" t="n">
-        <v>0.334045</v>
+        <v>0.334176</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242325</v>
+        <v>0.242264</v>
       </c>
       <c r="C54" t="n">
-        <v>0.356531</v>
+        <v>0.358341</v>
       </c>
       <c r="D54" t="n">
-        <v>0.321221</v>
+        <v>0.320468</v>
       </c>
       <c r="E54" t="n">
-        <v>0.245328</v>
+        <v>0.245249</v>
       </c>
       <c r="F54" t="n">
-        <v>0.332988</v>
+        <v>0.333075</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.240009</v>
+        <v>0.237964</v>
       </c>
       <c r="C55" t="n">
-        <v>0.352518</v>
+        <v>0.356742</v>
       </c>
       <c r="D55" t="n">
-        <v>0.321745</v>
+        <v>0.321615</v>
       </c>
       <c r="E55" t="n">
-        <v>0.244245</v>
+        <v>0.24387</v>
       </c>
       <c r="F55" t="n">
-        <v>0.33128</v>
+        <v>0.331265</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233661</v>
+        <v>0.233491</v>
       </c>
       <c r="C56" t="n">
-        <v>0.348603</v>
+        <v>0.351963</v>
       </c>
       <c r="D56" t="n">
-        <v>0.32322</v>
+        <v>0.323161</v>
       </c>
       <c r="E56" t="n">
-        <v>0.242896</v>
+        <v>0.242665</v>
       </c>
       <c r="F56" t="n">
-        <v>0.330007</v>
+        <v>0.32987</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228756</v>
+        <v>0.22862</v>
       </c>
       <c r="C57" t="n">
-        <v>0.344726</v>
+        <v>0.347666</v>
       </c>
       <c r="D57" t="n">
-        <v>0.323847</v>
+        <v>0.324666</v>
       </c>
       <c r="E57" t="n">
-        <v>0.241893</v>
+        <v>0.241552</v>
       </c>
       <c r="F57" t="n">
-        <v>0.328629</v>
+        <v>0.328601</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223043</v>
+        <v>0.2227</v>
       </c>
       <c r="C58" t="n">
-        <v>0.32629</v>
+        <v>0.32664</v>
       </c>
       <c r="D58" t="n">
-        <v>0.326065</v>
+        <v>0.328544</v>
       </c>
       <c r="E58" t="n">
-        <v>0.241006</v>
+        <v>0.240671</v>
       </c>
       <c r="F58" t="n">
-        <v>0.327566</v>
+        <v>0.328103</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217913</v>
+        <v>0.218229</v>
       </c>
       <c r="C59" t="n">
-        <v>0.337615</v>
+        <v>0.340657</v>
       </c>
       <c r="D59" t="n">
-        <v>0.328026</v>
+        <v>0.329622</v>
       </c>
       <c r="E59" t="n">
-        <v>0.239961</v>
+        <v>0.239814</v>
       </c>
       <c r="F59" t="n">
-        <v>0.326991</v>
+        <v>0.327037</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212604</v>
+        <v>0.212558</v>
       </c>
       <c r="C60" t="n">
-        <v>0.317475</v>
+        <v>0.31839</v>
       </c>
       <c r="D60" t="n">
-        <v>0.329548</v>
+        <v>0.332148</v>
       </c>
       <c r="E60" t="n">
-        <v>0.238876</v>
+        <v>0.238786</v>
       </c>
       <c r="F60" t="n">
-        <v>0.32568</v>
+        <v>0.325852</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206707</v>
+        <v>0.206084</v>
       </c>
       <c r="C61" t="n">
-        <v>0.324786</v>
+        <v>0.324627</v>
       </c>
       <c r="D61" t="n">
-        <v>0.330829</v>
+        <v>0.333026</v>
       </c>
       <c r="E61" t="n">
-        <v>0.237998</v>
+        <v>0.238038</v>
       </c>
       <c r="F61" t="n">
-        <v>0.324888</v>
+        <v>0.325546</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.20106</v>
+        <v>0.200812</v>
       </c>
       <c r="C62" t="n">
-        <v>0.316154</v>
+        <v>0.316787</v>
       </c>
       <c r="D62" t="n">
-        <v>0.332904</v>
+        <v>0.335679</v>
       </c>
       <c r="E62" t="n">
-        <v>0.23735</v>
+        <v>0.237175</v>
       </c>
       <c r="F62" t="n">
-        <v>0.32411</v>
+        <v>0.324203</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194299</v>
+        <v>0.194827</v>
       </c>
       <c r="C63" t="n">
-        <v>0.327755</v>
+        <v>0.329394</v>
       </c>
       <c r="D63" t="n">
-        <v>0.337114</v>
+        <v>0.338368</v>
       </c>
       <c r="E63" t="n">
-        <v>0.236558</v>
+        <v>0.236021</v>
       </c>
       <c r="F63" t="n">
-        <v>0.323591</v>
+        <v>0.323793</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187076</v>
+        <v>0.187386</v>
       </c>
       <c r="C64" t="n">
-        <v>0.312674</v>
+        <v>0.3138</v>
       </c>
       <c r="D64" t="n">
-        <v>0.377123</v>
+        <v>0.376851</v>
       </c>
       <c r="E64" t="n">
-        <v>0.235616</v>
+        <v>0.235407</v>
       </c>
       <c r="F64" t="n">
-        <v>0.321736</v>
+        <v>0.32188</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177598</v>
+        <v>0.17771</v>
       </c>
       <c r="C65" t="n">
-        <v>0.327485</v>
+        <v>0.329939</v>
       </c>
       <c r="D65" t="n">
-        <v>0.377157</v>
+        <v>0.377775</v>
       </c>
       <c r="E65" t="n">
-        <v>0.234731</v>
+        <v>0.234381</v>
       </c>
       <c r="F65" t="n">
-        <v>0.321094</v>
+        <v>0.321189</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167343</v>
+        <v>0.167817</v>
       </c>
       <c r="C66" t="n">
-        <v>0.302196</v>
+        <v>0.303026</v>
       </c>
       <c r="D66" t="n">
-        <v>0.377127</v>
+        <v>0.379256</v>
       </c>
       <c r="E66" t="n">
-        <v>0.249132</v>
+        <v>0.248714</v>
       </c>
       <c r="F66" t="n">
-        <v>0.337277</v>
+        <v>0.337141</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247356</v>
+        <v>0.24721</v>
       </c>
       <c r="C67" t="n">
-        <v>0.452807</v>
+        <v>0.451074</v>
       </c>
       <c r="D67" t="n">
-        <v>0.378582</v>
+        <v>0.379892</v>
       </c>
       <c r="E67" t="n">
-        <v>0.247716</v>
+        <v>0.247175</v>
       </c>
       <c r="F67" t="n">
-        <v>0.335927</v>
+        <v>0.335772</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243936</v>
+        <v>0.244095</v>
       </c>
       <c r="C68" t="n">
-        <v>0.370495</v>
+        <v>0.370342</v>
       </c>
       <c r="D68" t="n">
-        <v>0.379172</v>
+        <v>0.379804</v>
       </c>
       <c r="E68" t="n">
-        <v>0.246098</v>
+        <v>0.24612</v>
       </c>
       <c r="F68" t="n">
-        <v>0.334203</v>
+        <v>0.334042</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240184</v>
+        <v>0.239733</v>
       </c>
       <c r="C69" t="n">
-        <v>0.367637</v>
+        <v>0.367314</v>
       </c>
       <c r="D69" t="n">
-        <v>0.379839</v>
+        <v>0.37969</v>
       </c>
       <c r="E69" t="n">
-        <v>0.244838</v>
+        <v>0.244643</v>
       </c>
       <c r="F69" t="n">
-        <v>0.333169</v>
+        <v>0.332969</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2352</v>
+        <v>0.235046</v>
       </c>
       <c r="C70" t="n">
-        <v>0.362796</v>
+        <v>0.362465</v>
       </c>
       <c r="D70" t="n">
-        <v>0.379783</v>
+        <v>0.379299</v>
       </c>
       <c r="E70" t="n">
-        <v>0.243663</v>
+        <v>0.243536</v>
       </c>
       <c r="F70" t="n">
-        <v>0.331455</v>
+        <v>0.331579</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230495</v>
+        <v>0.230523</v>
       </c>
       <c r="C71" t="n">
-        <v>0.357744</v>
+        <v>0.357366</v>
       </c>
       <c r="D71" t="n">
-        <v>0.380222</v>
+        <v>0.379511</v>
       </c>
       <c r="E71" t="n">
-        <v>0.242387</v>
+        <v>0.242457</v>
       </c>
       <c r="F71" t="n">
-        <v>0.330828</v>
+        <v>0.330583</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225007</v>
+        <v>0.224961</v>
       </c>
       <c r="C72" t="n">
-        <v>0.479638</v>
+        <v>0.477325</v>
       </c>
       <c r="D72" t="n">
-        <v>0.382886</v>
+        <v>0.381743</v>
       </c>
       <c r="E72" t="n">
-        <v>0.241049</v>
+        <v>0.241207</v>
       </c>
       <c r="F72" t="n">
-        <v>0.329697</v>
+        <v>0.32966</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.220459</v>
+        <v>0.219555</v>
       </c>
       <c r="C73" t="n">
-        <v>0.418738</v>
+        <v>0.418304</v>
       </c>
       <c r="D73" t="n">
-        <v>0.380955</v>
+        <v>0.380543</v>
       </c>
       <c r="E73" t="n">
-        <v>0.240195</v>
+        <v>0.240058</v>
       </c>
       <c r="F73" t="n">
-        <v>0.328058</v>
+        <v>0.328045</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213485</v>
+        <v>0.213857</v>
       </c>
       <c r="C74" t="n">
-        <v>0.475135</v>
+        <v>0.473163</v>
       </c>
       <c r="D74" t="n">
-        <v>0.38026</v>
+        <v>0.380101</v>
       </c>
       <c r="E74" t="n">
-        <v>0.239362</v>
+        <v>0.239346</v>
       </c>
       <c r="F74" t="n">
-        <v>0.326849</v>
+        <v>0.326868</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.208793</v>
+        <v>0.208186</v>
       </c>
       <c r="C75" t="n">
-        <v>0.467507</v>
+        <v>0.465514</v>
       </c>
       <c r="D75" t="n">
-        <v>0.379313</v>
+        <v>0.378651</v>
       </c>
       <c r="E75" t="n">
-        <v>0.238281</v>
+        <v>0.238173</v>
       </c>
       <c r="F75" t="n">
-        <v>0.326113</v>
+        <v>0.325961</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.20228</v>
+        <v>0.202261</v>
       </c>
       <c r="C76" t="n">
-        <v>0.42337</v>
+        <v>0.422647</v>
       </c>
       <c r="D76" t="n">
-        <v>0.380489</v>
+        <v>0.379089</v>
       </c>
       <c r="E76" t="n">
-        <v>0.237486</v>
+        <v>0.237503</v>
       </c>
       <c r="F76" t="n">
-        <v>0.325159</v>
+        <v>0.32511</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19609</v>
+        <v>0.195929</v>
       </c>
       <c r="C77" t="n">
-        <v>0.395883</v>
+        <v>0.395517</v>
       </c>
       <c r="D77" t="n">
-        <v>0.381225</v>
+        <v>0.380775</v>
       </c>
       <c r="E77" t="n">
-        <v>0.23664</v>
+        <v>0.236691</v>
       </c>
       <c r="F77" t="n">
-        <v>0.32335</v>
+        <v>0.323244</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188997</v>
+        <v>0.189015</v>
       </c>
       <c r="C78" t="n">
-        <v>0.405367</v>
+        <v>0.40476</v>
       </c>
       <c r="D78" t="n">
-        <v>0.437504</v>
+        <v>0.436628</v>
       </c>
       <c r="E78" t="n">
-        <v>0.235873</v>
+        <v>0.23581</v>
       </c>
       <c r="F78" t="n">
-        <v>0.323219</v>
+        <v>0.323403</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179597</v>
+        <v>0.179673</v>
       </c>
       <c r="C79" t="n">
-        <v>0.324828</v>
+        <v>0.324452</v>
       </c>
       <c r="D79" t="n">
-        <v>0.433362</v>
+        <v>0.433236</v>
       </c>
       <c r="E79" t="n">
-        <v>0.235101</v>
+        <v>0.235044</v>
       </c>
       <c r="F79" t="n">
-        <v>0.322829</v>
+        <v>0.322809</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170397</v>
+        <v>0.170671</v>
       </c>
       <c r="C80" t="n">
-        <v>0.370067</v>
+        <v>0.369401</v>
       </c>
       <c r="D80" t="n">
-        <v>0.427834</v>
+        <v>0.42734</v>
       </c>
       <c r="E80" t="n">
-        <v>0.252142</v>
+        <v>0.251895</v>
       </c>
       <c r="F80" t="n">
-        <v>0.336621</v>
+        <v>0.336732</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248981</v>
+        <v>0.248906</v>
       </c>
       <c r="C81" t="n">
-        <v>0.381239</v>
+        <v>0.380813</v>
       </c>
       <c r="D81" t="n">
-        <v>0.426451</v>
+        <v>0.42619</v>
       </c>
       <c r="E81" t="n">
-        <v>0.249863</v>
+        <v>0.249859</v>
       </c>
       <c r="F81" t="n">
-        <v>0.335036</v>
+        <v>0.33488</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245085</v>
+        <v>0.245785</v>
       </c>
       <c r="C82" t="n">
-        <v>0.363286</v>
+        <v>0.363275</v>
       </c>
       <c r="D82" t="n">
-        <v>0.424542</v>
+        <v>0.42492</v>
       </c>
       <c r="E82" t="n">
-        <v>0.247627</v>
+        <v>0.247713</v>
       </c>
       <c r="F82" t="n">
-        <v>0.334641</v>
+        <v>0.334564</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241517</v>
+        <v>0.240872</v>
       </c>
       <c r="C83" t="n">
-        <v>0.357226</v>
+        <v>0.357184</v>
       </c>
       <c r="D83" t="n">
-        <v>0.417808</v>
+        <v>0.417674</v>
       </c>
       <c r="E83" t="n">
-        <v>0.246539</v>
+        <v>0.24644</v>
       </c>
       <c r="F83" t="n">
-        <v>0.332315</v>
+        <v>0.33238</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236257</v>
+        <v>0.236322</v>
       </c>
       <c r="C84" t="n">
-        <v>0.35328</v>
+        <v>0.353364</v>
       </c>
       <c r="D84" t="n">
-        <v>0.41373</v>
+        <v>0.413686</v>
       </c>
       <c r="E84" t="n">
-        <v>0.245102</v>
+        <v>0.244889</v>
       </c>
       <c r="F84" t="n">
-        <v>0.330988</v>
+        <v>0.331064</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232855</v>
+        <v>0.232593</v>
       </c>
       <c r="C85" t="n">
-        <v>0.347277</v>
+        <v>0.34745</v>
       </c>
       <c r="D85" t="n">
-        <v>0.410829</v>
+        <v>0.411192</v>
       </c>
       <c r="E85" t="n">
-        <v>0.243964</v>
+        <v>0.243839</v>
       </c>
       <c r="F85" t="n">
-        <v>0.329616</v>
+        <v>0.329712</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226662</v>
+        <v>0.227486</v>
       </c>
       <c r="C86" t="n">
-        <v>0.342165</v>
+        <v>0.342521</v>
       </c>
       <c r="D86" t="n">
-        <v>0.410225</v>
+        <v>0.410077</v>
       </c>
       <c r="E86" t="n">
-        <v>0.24196</v>
+        <v>0.24207</v>
       </c>
       <c r="F86" t="n">
-        <v>0.329191</v>
+        <v>0.329117</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.221158</v>
+        <v>0.220994</v>
       </c>
       <c r="C87" t="n">
-        <v>0.425921</v>
+        <v>0.425849</v>
       </c>
       <c r="D87" t="n">
-        <v>0.404955</v>
+        <v>0.404762</v>
       </c>
       <c r="E87" t="n">
-        <v>0.240867</v>
+        <v>0.240899</v>
       </c>
       <c r="F87" t="n">
-        <v>0.327866</v>
+        <v>0.327414</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215439</v>
+        <v>0.215671</v>
       </c>
       <c r="C88" t="n">
-        <v>0.435577</v>
+        <v>0.435808</v>
       </c>
       <c r="D88" t="n">
-        <v>0.40383</v>
+        <v>0.403248</v>
       </c>
       <c r="E88" t="n">
-        <v>0.239488</v>
+        <v>0.239621</v>
       </c>
       <c r="F88" t="n">
-        <v>0.326391</v>
+        <v>0.326238</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.210277</v>
+        <v>0.209788</v>
       </c>
       <c r="C89" t="n">
-        <v>0.422412</v>
+        <v>0.422676</v>
       </c>
       <c r="D89" t="n">
-        <v>0.404323</v>
+        <v>0.404257</v>
       </c>
       <c r="E89" t="n">
-        <v>0.238436</v>
+        <v>0.23861</v>
       </c>
       <c r="F89" t="n">
-        <v>0.325541</v>
+        <v>0.325373</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204027</v>
+        <v>0.204322</v>
       </c>
       <c r="C90" t="n">
-        <v>0.407847</v>
+        <v>0.407801</v>
       </c>
       <c r="D90" t="n">
-        <v>0.397493</v>
+        <v>0.397882</v>
       </c>
       <c r="E90" t="n">
-        <v>0.237726</v>
+        <v>0.237779</v>
       </c>
       <c r="F90" t="n">
-        <v>0.324429</v>
+        <v>0.324306</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197532</v>
+        <v>0.197317</v>
       </c>
       <c r="C91" t="n">
-        <v>0.370653</v>
+        <v>0.370767</v>
       </c>
       <c r="D91" t="n">
-        <v>0.398327</v>
+        <v>0.398283</v>
       </c>
       <c r="E91" t="n">
-        <v>0.236792</v>
+        <v>0.236817</v>
       </c>
       <c r="F91" t="n">
-        <v>0.323014</v>
+        <v>0.322991</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190307</v>
+        <v>0.190353</v>
       </c>
       <c r="C92" t="n">
-        <v>0.365986</v>
+        <v>0.365903</v>
       </c>
       <c r="D92" t="n">
         <v>0.448369</v>
       </c>
       <c r="E92" t="n">
-        <v>0.236067</v>
+        <v>0.235983</v>
       </c>
       <c r="F92" t="n">
-        <v>0.322233</v>
+        <v>0.322167</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181859</v>
+        <v>0.182329</v>
       </c>
       <c r="C93" t="n">
-        <v>0.392273</v>
+        <v>0.392182</v>
       </c>
       <c r="D93" t="n">
-        <v>0.43654</v>
+        <v>0.435366</v>
       </c>
       <c r="E93" t="n">
-        <v>0.235503</v>
+        <v>0.23564</v>
       </c>
       <c r="F93" t="n">
-        <v>0.321578</v>
+        <v>0.321312</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.173683</v>
+        <v>0.174147</v>
       </c>
       <c r="C94" t="n">
-        <v>0.378798</v>
+        <v>0.37902</v>
       </c>
       <c r="D94" t="n">
-        <v>0.437237</v>
+        <v>0.436522</v>
       </c>
       <c r="E94" t="n">
-        <v>0.252203</v>
+        <v>0.252044</v>
       </c>
       <c r="F94" t="n">
-        <v>0.337788</v>
+        <v>0.337941</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249494</v>
+        <v>0.249465</v>
       </c>
       <c r="C95" t="n">
-        <v>0.516684</v>
+        <v>0.515686</v>
       </c>
       <c r="D95" t="n">
-        <v>0.429836</v>
+        <v>0.42951</v>
       </c>
       <c r="E95" t="n">
-        <v>0.250281</v>
+        <v>0.249689</v>
       </c>
       <c r="F95" t="n">
-        <v>0.335443</v>
+        <v>0.33548</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.247305</v>
+        <v>0.247149</v>
       </c>
       <c r="C96" t="n">
-        <v>0.35624</v>
+        <v>0.355819</v>
       </c>
       <c r="D96" t="n">
-        <v>0.426123</v>
+        <v>0.425885</v>
       </c>
       <c r="E96" t="n">
-        <v>0.248332</v>
+        <v>0.247972</v>
       </c>
       <c r="F96" t="n">
-        <v>0.337739</v>
+        <v>0.337732</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.243553</v>
+        <v>0.242746</v>
       </c>
       <c r="C97" t="n">
-        <v>0.351686</v>
+        <v>0.351591</v>
       </c>
       <c r="D97" t="n">
-        <v>0.417279</v>
+        <v>0.416914</v>
       </c>
       <c r="E97" t="n">
-        <v>0.246655</v>
+        <v>0.246086</v>
       </c>
       <c r="F97" t="n">
-        <v>0.335265</v>
+        <v>0.335228</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.239063</v>
+        <v>0.238691</v>
       </c>
       <c r="C98" t="n">
-        <v>0.347421</v>
+        <v>0.347303</v>
       </c>
       <c r="D98" t="n">
-        <v>0.413893</v>
+        <v>0.414645</v>
       </c>
       <c r="E98" t="n">
-        <v>0.24547</v>
+        <v>0.245057</v>
       </c>
       <c r="F98" t="n">
-        <v>0.332383</v>
+        <v>0.332377</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.23423</v>
+        <v>0.233921</v>
       </c>
       <c r="C99" t="n">
-        <v>0.342515</v>
+        <v>0.342218</v>
       </c>
       <c r="D99" t="n">
-        <v>0.41137</v>
+        <v>0.411077</v>
       </c>
       <c r="E99" t="n">
-        <v>0.243597</v>
+        <v>0.243726</v>
       </c>
       <c r="F99" t="n">
-        <v>0.33328</v>
+        <v>0.333262</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228977</v>
+        <v>0.228778</v>
       </c>
       <c r="C100" t="n">
-        <v>0.337354</v>
+        <v>0.337409</v>
       </c>
       <c r="D100" t="n">
-        <v>0.405378</v>
+        <v>0.405497</v>
       </c>
       <c r="E100" t="n">
-        <v>0.24234</v>
+        <v>0.242554</v>
       </c>
       <c r="F100" t="n">
-        <v>0.32966</v>
+        <v>0.329078</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.22334</v>
+        <v>0.22325</v>
       </c>
       <c r="C101" t="n">
-        <v>0.405661</v>
+        <v>0.405376</v>
       </c>
       <c r="D101" t="n">
-        <v>0.402831</v>
+        <v>0.403964</v>
       </c>
       <c r="E101" t="n">
-        <v>0.241434</v>
+        <v>0.241184</v>
       </c>
       <c r="F101" t="n">
-        <v>0.327556</v>
+        <v>0.327617</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.217299</v>
+        <v>0.217356</v>
       </c>
       <c r="C102" t="n">
-        <v>0.396812</v>
+        <v>0.396799</v>
       </c>
       <c r="D102" t="n">
-        <v>0.398099</v>
+        <v>0.398267</v>
       </c>
       <c r="E102" t="n">
-        <v>0.240302</v>
+        <v>0.240036</v>
       </c>
       <c r="F102" t="n">
-        <v>0.327462</v>
+        <v>0.327498</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211506</v>
+        <v>0.211664</v>
       </c>
       <c r="C103" t="n">
-        <v>0.442124</v>
+        <v>0.44231</v>
       </c>
       <c r="D103" t="n">
-        <v>0.395462</v>
+        <v>0.395362</v>
       </c>
       <c r="E103" t="n">
-        <v>0.239207</v>
+        <v>0.239094</v>
       </c>
       <c r="F103" t="n">
-        <v>0.32648</v>
+        <v>0.326566</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.205395</v>
+        <v>0.205433</v>
       </c>
       <c r="C104" t="n">
-        <v>0.399315</v>
+        <v>0.399461</v>
       </c>
       <c r="D104" t="n">
-        <v>0.39349</v>
+        <v>0.39337</v>
       </c>
       <c r="E104" t="n">
-        <v>0.238525</v>
+        <v>0.238393</v>
       </c>
       <c r="F104" t="n">
-        <v>0.325456</v>
+        <v>0.325445</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199085</v>
+        <v>0.198857</v>
       </c>
       <c r="C105" t="n">
-        <v>0.441175</v>
+        <v>0.441269</v>
       </c>
       <c r="D105" t="n">
-        <v>0.39003</v>
+        <v>0.38971</v>
       </c>
       <c r="E105" t="n">
-        <v>0.237593</v>
+        <v>0.237551</v>
       </c>
       <c r="F105" t="n">
-        <v>0.32459</v>
+        <v>0.324617</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192007</v>
+        <v>0.191904</v>
       </c>
       <c r="C106" t="n">
-        <v>0.44744</v>
+        <v>0.44774</v>
       </c>
       <c r="D106" t="n">
-        <v>0.387212</v>
+        <v>0.387021</v>
       </c>
       <c r="E106" t="n">
-        <v>0.237055</v>
+        <v>0.236921</v>
       </c>
       <c r="F106" t="n">
-        <v>0.323584</v>
+        <v>0.323718</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183842</v>
+        <v>0.183802</v>
       </c>
       <c r="C107" t="n">
-        <v>0.406273</v>
+        <v>0.406576</v>
       </c>
       <c r="D107" t="n">
-        <v>0.418637</v>
+        <v>0.41866</v>
       </c>
       <c r="E107" t="n">
-        <v>0.23591</v>
+        <v>0.235772</v>
       </c>
       <c r="F107" t="n">
-        <v>0.321705</v>
+        <v>0.321704</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.175387</v>
+        <v>0.174665</v>
       </c>
       <c r="C108" t="n">
-        <v>0.40377</v>
+        <v>0.403967</v>
       </c>
       <c r="D108" t="n">
-        <v>0.412429</v>
+        <v>0.413061</v>
       </c>
       <c r="E108" t="n">
-        <v>0.252747</v>
+        <v>0.252274</v>
       </c>
       <c r="F108" t="n">
-        <v>0.337519</v>
+        <v>0.337639</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163504</v>
+        <v>0.163286</v>
       </c>
       <c r="C109" t="n">
-        <v>0.390905</v>
+        <v>0.391292</v>
       </c>
       <c r="D109" t="n">
-        <v>0.407942</v>
+        <v>0.407599</v>
       </c>
       <c r="E109" t="n">
-        <v>0.250404</v>
+        <v>0.250071</v>
       </c>
       <c r="F109" t="n">
-        <v>0.335951</v>
+        <v>0.336108</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.248111</v>
+        <v>0.248018</v>
       </c>
       <c r="C110" t="n">
-        <v>0.496956</v>
+        <v>0.497928</v>
       </c>
       <c r="D110" t="n">
-        <v>0.404987</v>
+        <v>0.405843</v>
       </c>
       <c r="E110" t="n">
-        <v>0.248374</v>
+        <v>0.248</v>
       </c>
       <c r="F110" t="n">
-        <v>0.334382</v>
+        <v>0.334523</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.244232</v>
+        <v>0.243938</v>
       </c>
       <c r="C111" t="n">
-        <v>0.490903</v>
+        <v>0.491916</v>
       </c>
       <c r="D111" t="n">
-        <v>0.401436</v>
+        <v>0.400748</v>
       </c>
       <c r="E111" t="n">
-        <v>0.246722</v>
+        <v>0.246428</v>
       </c>
       <c r="F111" t="n">
-        <v>0.334014</v>
+        <v>0.334078</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.239843</v>
+        <v>0.239861</v>
       </c>
       <c r="C112" t="n">
-        <v>0.511228</v>
+        <v>0.512584</v>
       </c>
       <c r="D112" t="n">
-        <v>0.39745</v>
+        <v>0.397684</v>
       </c>
       <c r="E112" t="n">
-        <v>0.245214</v>
+        <v>0.245015</v>
       </c>
       <c r="F112" t="n">
-        <v>0.332411</v>
+        <v>0.332407</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234992</v>
+        <v>0.23483</v>
       </c>
       <c r="C113" t="n">
-        <v>0.503409</v>
+        <v>0.504589</v>
       </c>
       <c r="D113" t="n">
-        <v>0.393102</v>
+        <v>0.394003</v>
       </c>
       <c r="E113" t="n">
-        <v>0.243694</v>
+        <v>0.243631</v>
       </c>
       <c r="F113" t="n">
-        <v>0.331044</v>
+        <v>0.331162</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229743</v>
+        <v>0.229867</v>
       </c>
       <c r="C114" t="n">
-        <v>0.493774</v>
+        <v>0.494763</v>
       </c>
       <c r="D114" t="n">
-        <v>0.390818</v>
+        <v>0.391278</v>
       </c>
       <c r="E114" t="n">
-        <v>0.242389</v>
+        <v>0.242322</v>
       </c>
       <c r="F114" t="n">
-        <v>0.329992</v>
+        <v>0.330083</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224559</v>
+        <v>0.224434</v>
       </c>
       <c r="C115" t="n">
-        <v>0.432213</v>
+        <v>0.432722</v>
       </c>
       <c r="D115" t="n">
-        <v>0.387407</v>
+        <v>0.38828</v>
       </c>
       <c r="E115" t="n">
-        <v>0.241593</v>
+        <v>0.241439</v>
       </c>
       <c r="F115" t="n">
-        <v>0.327835</v>
+        <v>0.327899</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.218252</v>
+        <v>0.217903</v>
       </c>
       <c r="C116" t="n">
-        <v>0.405092</v>
+        <v>0.405805</v>
       </c>
       <c r="D116" t="n">
-        <v>0.385313</v>
+        <v>0.385361</v>
       </c>
       <c r="E116" t="n">
-        <v>0.240441</v>
+        <v>0.240488</v>
       </c>
       <c r="F116" t="n">
-        <v>0.327922</v>
+        <v>0.327983</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212979</v>
+        <v>0.212666</v>
       </c>
       <c r="C117" t="n">
-        <v>0.384808</v>
+        <v>0.385632</v>
       </c>
       <c r="D117" t="n">
-        <v>0.382233</v>
+        <v>0.383044</v>
       </c>
       <c r="E117" t="n">
-        <v>0.239471</v>
+        <v>0.239287</v>
       </c>
       <c r="F117" t="n">
-        <v>0.325611</v>
+        <v>0.325688</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206693</v>
+        <v>0.206416</v>
       </c>
       <c r="C118" t="n">
-        <v>0.400122</v>
+        <v>0.400314</v>
       </c>
       <c r="D118" t="n">
-        <v>0.380315</v>
+        <v>0.380763</v>
       </c>
       <c r="E118" t="n">
-        <v>0.238532</v>
+        <v>0.23844</v>
       </c>
       <c r="F118" t="n">
-        <v>0.32473</v>
+        <v>0.324852</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200531</v>
+        <v>0.200234</v>
       </c>
       <c r="C119" t="n">
-        <v>0.430271</v>
+        <v>0.431062</v>
       </c>
       <c r="D119" t="n">
-        <v>0.378791</v>
+        <v>0.380198</v>
       </c>
       <c r="E119" t="n">
-        <v>0.237773</v>
+        <v>0.237727</v>
       </c>
       <c r="F119" t="n">
-        <v>0.323724</v>
+        <v>0.323771</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193438</v>
+        <v>0.193278</v>
       </c>
       <c r="C120" t="n">
-        <v>0.397</v>
+        <v>0.397499</v>
       </c>
       <c r="D120" t="n">
-        <v>0.377356</v>
+        <v>0.377822</v>
       </c>
       <c r="E120" t="n">
-        <v>0.236931</v>
+        <v>0.236837</v>
       </c>
       <c r="F120" t="n">
-        <v>0.322891</v>
+        <v>0.32299</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185576</v>
+        <v>0.185692</v>
       </c>
       <c r="C121" t="n">
-        <v>0.403794</v>
+        <v>0.404807</v>
       </c>
       <c r="D121" t="n">
-        <v>0.45114</v>
+        <v>0.451945</v>
       </c>
       <c r="E121" t="n">
-        <v>0.236111</v>
+        <v>0.23601</v>
       </c>
       <c r="F121" t="n">
-        <v>0.322159</v>
+        <v>0.322226</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176692</v>
+        <v>0.176463</v>
       </c>
       <c r="C122" t="n">
-        <v>0.369082</v>
+        <v>0.369468</v>
       </c>
       <c r="D122" t="n">
-        <v>0.443884</v>
+        <v>0.444529</v>
       </c>
       <c r="E122" t="n">
-        <v>0.235403</v>
+        <v>0.235432</v>
       </c>
       <c r="F122" t="n">
-        <v>0.321442</v>
+        <v>0.321503</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.165989</v>
+        <v>0.165768</v>
       </c>
       <c r="C123" t="n">
-        <v>0.357358</v>
+        <v>0.358135</v>
       </c>
       <c r="D123" t="n">
-        <v>0.437165</v>
+        <v>0.438089</v>
       </c>
       <c r="E123" t="n">
-        <v>0.250563</v>
+        <v>0.250241</v>
       </c>
       <c r="F123" t="n">
-        <v>0.336225</v>
+        <v>0.3364</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.248983</v>
+        <v>0.248841</v>
       </c>
       <c r="C124" t="n">
-        <v>0.434298</v>
+        <v>0.433953</v>
       </c>
       <c r="D124" t="n">
-        <v>0.426615</v>
+        <v>0.427323</v>
       </c>
       <c r="E124" t="n">
-        <v>0.248608</v>
+        <v>0.248352</v>
       </c>
       <c r="F124" t="n">
-        <v>0.335609</v>
+        <v>0.335747</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.245293</v>
+        <v>0.245122</v>
       </c>
       <c r="C125" t="n">
-        <v>0.437493</v>
+        <v>0.43763</v>
       </c>
       <c r="D125" t="n">
-        <v>0.422894</v>
+        <v>0.423541</v>
       </c>
       <c r="E125" t="n">
-        <v>0.246865</v>
+        <v>0.246686</v>
       </c>
       <c r="F125" t="n">
-        <v>0.33435</v>
+        <v>0.334408</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.241217</v>
+        <v>0.24076</v>
       </c>
       <c r="C126" t="n">
-        <v>0.457098</v>
+        <v>0.457251</v>
       </c>
       <c r="D126" t="n">
-        <v>0.417566</v>
+        <v>0.418148</v>
       </c>
       <c r="E126" t="n">
-        <v>0.245428</v>
+        <v>0.245296</v>
       </c>
       <c r="F126" t="n">
-        <v>0.333043</v>
+        <v>0.333111</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236198</v>
+        <v>0.236006</v>
       </c>
       <c r="C127" t="n">
-        <v>0.466153</v>
+        <v>0.466272</v>
       </c>
       <c r="D127" t="n">
-        <v>0.412997</v>
+        <v>0.413806</v>
       </c>
       <c r="E127" t="n">
-        <v>0.244086</v>
+        <v>0.243995</v>
       </c>
       <c r="F127" t="n">
-        <v>0.331827</v>
+        <v>0.331868</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.231255</v>
+        <v>0.230955</v>
       </c>
       <c r="C128" t="n">
-        <v>0.432421</v>
+        <v>0.432616</v>
       </c>
       <c r="D128" t="n">
-        <v>0.410965</v>
+        <v>0.411017</v>
       </c>
       <c r="E128" t="n">
-        <v>0.242723</v>
+        <v>0.24258</v>
       </c>
       <c r="F128" t="n">
-        <v>0.330579</v>
+        <v>0.330653</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224918</v>
+        <v>0.224867</v>
       </c>
       <c r="C129" t="n">
-        <v>0.374575</v>
+        <v>0.37481</v>
       </c>
       <c r="D129" t="n">
-        <v>0.404593</v>
+        <v>0.40406</v>
       </c>
       <c r="E129" t="n">
-        <v>0.241538</v>
+        <v>0.241497</v>
       </c>
       <c r="F129" t="n">
-        <v>0.329057</v>
+        <v>0.329139</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219259</v>
+        <v>0.219379</v>
       </c>
       <c r="C130" t="n">
-        <v>0.412278</v>
+        <v>0.412375</v>
       </c>
       <c r="D130" t="n">
-        <v>0.398634</v>
+        <v>0.399236</v>
       </c>
       <c r="E130" t="n">
-        <v>0.240478</v>
+        <v>0.240527</v>
       </c>
       <c r="F130" t="n">
-        <v>0.328231</v>
+        <v>0.328367</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.213657</v>
+        <v>0.213626</v>
       </c>
       <c r="C131" t="n">
-        <v>0.409497</v>
+        <v>0.40968</v>
       </c>
       <c r="D131" t="n">
-        <v>0.396542</v>
+        <v>0.396659</v>
       </c>
       <c r="E131" t="n">
-        <v>0.239406</v>
+        <v>0.239396</v>
       </c>
       <c r="F131" t="n">
-        <v>0.32714</v>
+        <v>0.327171</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.208068</v>
+        <v>0.207758</v>
       </c>
       <c r="C132" t="n">
-        <v>0.404696</v>
+        <v>0.405042</v>
       </c>
       <c r="D132" t="n">
-        <v>0.395157</v>
+        <v>0.395123</v>
       </c>
       <c r="E132" t="n">
-        <v>0.238492</v>
+        <v>0.238269</v>
       </c>
       <c r="F132" t="n">
-        <v>0.325764</v>
+        <v>0.325786</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.202207</v>
+        <v>0.201926</v>
       </c>
       <c r="C133" t="n">
-        <v>0.410326</v>
+        <v>0.410699</v>
       </c>
       <c r="D133" t="n">
-        <v>0.390114</v>
+        <v>0.390705</v>
       </c>
       <c r="E133" t="n">
-        <v>0.237763</v>
+        <v>0.237716</v>
       </c>
       <c r="F133" t="n">
-        <v>0.324856</v>
+        <v>0.324944</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.19559</v>
+        <v>0.195438</v>
       </c>
       <c r="C134" t="n">
-        <v>0.373344</v>
+        <v>0.373452</v>
       </c>
       <c r="D134" t="n">
-        <v>0.389524</v>
+        <v>0.389265</v>
       </c>
       <c r="E134" t="n">
-        <v>0.237007</v>
+        <v>0.236766</v>
       </c>
       <c r="F134" t="n">
-        <v>0.324148</v>
+        <v>0.32418</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187814</v>
+        <v>0.187583</v>
       </c>
       <c r="C135" t="n">
-        <v>0.399766</v>
+        <v>0.400336</v>
       </c>
       <c r="D135" t="n">
-        <v>0.453674</v>
+        <v>0.454283</v>
       </c>
       <c r="E135" t="n">
-        <v>0.236201</v>
+        <v>0.236053</v>
       </c>
       <c r="F135" t="n">
-        <v>0.322212</v>
+        <v>0.322266</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178743</v>
+        <v>0.178758</v>
       </c>
       <c r="C136" t="n">
-        <v>0.349997</v>
+        <v>0.350053</v>
       </c>
       <c r="D136" t="n">
-        <v>0.449192</v>
+        <v>0.449329</v>
       </c>
       <c r="E136" t="n">
-        <v>0.235715</v>
+        <v>0.235415</v>
       </c>
       <c r="F136" t="n">
-        <v>0.322638</v>
+        <v>0.322687</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16808</v>
+        <v>0.168067</v>
       </c>
       <c r="C137" t="n">
-        <v>0.36292</v>
+        <v>0.363068</v>
       </c>
       <c r="D137" t="n">
-        <v>0.441943</v>
+        <v>0.441826</v>
       </c>
       <c r="E137" t="n">
-        <v>0.250849</v>
+        <v>0.250601</v>
       </c>
       <c r="F137" t="n">
-        <v>0.337632</v>
+        <v>0.337662</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.248318</v>
+        <v>0.248669</v>
       </c>
       <c r="C138" t="n">
-        <v>0.425791</v>
+        <v>0.426088</v>
       </c>
       <c r="D138" t="n">
-        <v>0.433604</v>
+        <v>0.434132</v>
       </c>
       <c r="E138" t="n">
-        <v>0.249068</v>
+        <v>0.248725</v>
       </c>
       <c r="F138" t="n">
-        <v>0.335601</v>
+        <v>0.335666</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244928</v>
+        <v>0.245542</v>
       </c>
       <c r="C139" t="n">
-        <v>0.477396</v>
+        <v>0.477557</v>
       </c>
       <c r="D139" t="n">
-        <v>0.4278</v>
+        <v>0.427475</v>
       </c>
       <c r="E139" t="n">
-        <v>0.247423</v>
+        <v>0.246894</v>
       </c>
       <c r="F139" t="n">
-        <v>0.334071</v>
+        <v>0.334032</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.24055</v>
+        <v>0.241443</v>
       </c>
       <c r="C140" t="n">
-        <v>0.468807</v>
+        <v>0.46862</v>
       </c>
       <c r="D140" t="n">
-        <v>0.425777</v>
+        <v>0.426031</v>
       </c>
       <c r="E140" t="n">
-        <v>0.245723</v>
+        <v>0.245525</v>
       </c>
       <c r="F140" t="n">
-        <v>0.333283</v>
+        <v>0.333229</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.23584</v>
+        <v>0.236221</v>
       </c>
       <c r="C141" t="n">
-        <v>0.478192</v>
+        <v>0.479002</v>
       </c>
       <c r="D141" t="n">
-        <v>0.417193</v>
+        <v>0.417068</v>
       </c>
       <c r="E141" t="n">
-        <v>0.244394</v>
+        <v>0.244208</v>
       </c>
       <c r="F141" t="n">
-        <v>0.332019</v>
+        <v>0.331997</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231109</v>
+        <v>0.230867</v>
       </c>
       <c r="C142" t="n">
-        <v>0.359466</v>
+        <v>0.36002</v>
       </c>
       <c r="D142" t="n">
-        <v>0.411625</v>
+        <v>0.412104</v>
       </c>
       <c r="E142" t="n">
-        <v>0.243127</v>
+        <v>0.242944</v>
       </c>
       <c r="F142" t="n">
-        <v>0.330114</v>
+        <v>0.3302</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225846</v>
+        <v>0.225691</v>
       </c>
       <c r="C143" t="n">
-        <v>0.448449</v>
+        <v>0.448421</v>
       </c>
       <c r="D143" t="n">
-        <v>0.407635</v>
+        <v>0.407417</v>
       </c>
       <c r="E143" t="n">
-        <v>0.241966</v>
+        <v>0.241662</v>
       </c>
       <c r="F143" t="n">
-        <v>0.328373</v>
+        <v>0.328342</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.19705</v>
+        <v>0.195221</v>
       </c>
       <c r="C2" t="n">
-        <v>0.315981</v>
+        <v>0.316354</v>
       </c>
       <c r="D2" t="n">
-        <v>0.306196</v>
+        <v>0.304332</v>
       </c>
       <c r="E2" t="n">
-        <v>0.211609</v>
+        <v>0.210453</v>
       </c>
       <c r="F2" t="n">
-        <v>0.317446</v>
+        <v>0.318671</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.193541</v>
+        <v>0.193302</v>
       </c>
       <c r="C3" t="n">
-        <v>0.312894</v>
+        <v>0.316744</v>
       </c>
       <c r="D3" t="n">
-        <v>0.306916</v>
+        <v>0.30699</v>
       </c>
       <c r="E3" t="n">
-        <v>0.211625</v>
+        <v>0.211426</v>
       </c>
       <c r="F3" t="n">
-        <v>0.315439</v>
+        <v>0.317883</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.188871</v>
+        <v>0.18639</v>
       </c>
       <c r="C4" t="n">
-        <v>0.310821</v>
+        <v>0.31431</v>
       </c>
       <c r="D4" t="n">
-        <v>0.307927</v>
+        <v>0.307666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.21423</v>
+        <v>0.214661</v>
       </c>
       <c r="F4" t="n">
-        <v>0.317306</v>
+        <v>0.315846</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.181043</v>
+        <v>0.181799</v>
       </c>
       <c r="C5" t="n">
-        <v>0.306394</v>
+        <v>0.30688</v>
       </c>
       <c r="D5" t="n">
-        <v>0.309469</v>
+        <v>0.308373</v>
       </c>
       <c r="E5" t="n">
-        <v>0.215013</v>
+        <v>0.215619</v>
       </c>
       <c r="F5" t="n">
-        <v>0.317079</v>
+        <v>0.31609</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.175014</v>
+        <v>0.175653</v>
       </c>
       <c r="C6" t="n">
-        <v>0.297751</v>
+        <v>0.302038</v>
       </c>
       <c r="D6" t="n">
-        <v>0.309849</v>
+        <v>0.309936</v>
       </c>
       <c r="E6" t="n">
-        <v>0.216573</v>
+        <v>0.21701</v>
       </c>
       <c r="F6" t="n">
-        <v>0.312336</v>
+        <v>0.313042</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.167978</v>
+        <v>0.168444</v>
       </c>
       <c r="C7" t="n">
-        <v>0.292698</v>
+        <v>0.295512</v>
       </c>
       <c r="D7" t="n">
-        <v>0.304968</v>
+        <v>0.304119</v>
       </c>
       <c r="E7" t="n">
-        <v>0.218694</v>
+        <v>0.219028</v>
       </c>
       <c r="F7" t="n">
-        <v>0.312429</v>
+        <v>0.314733</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.159148</v>
+        <v>0.158755</v>
       </c>
       <c r="C8" t="n">
-        <v>0.285095</v>
+        <v>0.285692</v>
       </c>
       <c r="D8" t="n">
-        <v>0.304736</v>
+        <v>0.304521</v>
       </c>
       <c r="E8" t="n">
-        <v>0.219675</v>
+        <v>0.219445</v>
       </c>
       <c r="F8" t="n">
-        <v>0.313404</v>
+        <v>0.312801</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148115</v>
+        <v>0.149987</v>
       </c>
       <c r="C9" t="n">
-        <v>0.27309</v>
+        <v>0.277625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.304584</v>
+        <v>0.304944</v>
       </c>
       <c r="E9" t="n">
-        <v>0.235627</v>
+        <v>0.234231</v>
       </c>
       <c r="F9" t="n">
-        <v>0.329001</v>
+        <v>0.328036</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.233278</v>
+        <v>0.232667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.348326</v>
+        <v>0.349733</v>
       </c>
       <c r="D10" t="n">
-        <v>0.304482</v>
+        <v>0.305461</v>
       </c>
       <c r="E10" t="n">
-        <v>0.233971</v>
+        <v>0.233726</v>
       </c>
       <c r="F10" t="n">
-        <v>0.327062</v>
+        <v>0.326797</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.229308</v>
+        <v>0.227325</v>
       </c>
       <c r="C11" t="n">
-        <v>0.346184</v>
+        <v>0.346266</v>
       </c>
       <c r="D11" t="n">
-        <v>0.305963</v>
+        <v>0.305404</v>
       </c>
       <c r="E11" t="n">
-        <v>0.234712</v>
+        <v>0.233996</v>
       </c>
       <c r="F11" t="n">
-        <v>0.32663</v>
+        <v>0.327034</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.226849</v>
+        <v>0.225357</v>
       </c>
       <c r="C12" t="n">
-        <v>0.343243</v>
+        <v>0.342626</v>
       </c>
       <c r="D12" t="n">
-        <v>0.306198</v>
+        <v>0.307972</v>
       </c>
       <c r="E12" t="n">
-        <v>0.233429</v>
+        <v>0.234224</v>
       </c>
       <c r="F12" t="n">
-        <v>0.327286</v>
+        <v>0.327432</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.22256</v>
+        <v>0.221688</v>
       </c>
       <c r="C13" t="n">
-        <v>0.337671</v>
+        <v>0.337962</v>
       </c>
       <c r="D13" t="n">
-        <v>0.306597</v>
+        <v>0.308392</v>
       </c>
       <c r="E13" t="n">
-        <v>0.233025</v>
+        <v>0.233397</v>
       </c>
       <c r="F13" t="n">
-        <v>0.325642</v>
+        <v>0.325725</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218274</v>
+        <v>0.218266</v>
       </c>
       <c r="C14" t="n">
-        <v>0.33398</v>
+        <v>0.334799</v>
       </c>
       <c r="D14" t="n">
-        <v>0.309259</v>
+        <v>0.30843</v>
       </c>
       <c r="E14" t="n">
-        <v>0.235059</v>
+        <v>0.234554</v>
       </c>
       <c r="F14" t="n">
-        <v>0.324287</v>
+        <v>0.324419</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214135</v>
+        <v>0.214367</v>
       </c>
       <c r="C15" t="n">
-        <v>0.329609</v>
+        <v>0.329253</v>
       </c>
       <c r="D15" t="n">
-        <v>0.308951</v>
+        <v>0.307872</v>
       </c>
       <c r="E15" t="n">
-        <v>0.23434</v>
+        <v>0.234505</v>
       </c>
       <c r="F15" t="n">
-        <v>0.32456</v>
+        <v>0.323539</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210808</v>
+        <v>0.210824</v>
       </c>
       <c r="C16" t="n">
-        <v>0.323494</v>
+        <v>0.323841</v>
       </c>
       <c r="D16" t="n">
-        <v>0.310516</v>
+        <v>0.309992</v>
       </c>
       <c r="E16" t="n">
-        <v>0.234157</v>
+        <v>0.233469</v>
       </c>
       <c r="F16" t="n">
-        <v>0.32251</v>
+        <v>0.322445</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205804</v>
+        <v>0.205923</v>
       </c>
       <c r="C17" t="n">
-        <v>0.315148</v>
+        <v>0.314352</v>
       </c>
       <c r="D17" t="n">
-        <v>0.309565</v>
+        <v>0.309365</v>
       </c>
       <c r="E17" t="n">
-        <v>0.234448</v>
+        <v>0.234143</v>
       </c>
       <c r="F17" t="n">
-        <v>0.323964</v>
+        <v>0.323401</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198401</v>
+        <v>0.198964</v>
       </c>
       <c r="C18" t="n">
-        <v>0.311404</v>
+        <v>0.309288</v>
       </c>
       <c r="D18" t="n">
-        <v>0.311451</v>
+        <v>0.311645</v>
       </c>
       <c r="E18" t="n">
-        <v>0.233568</v>
+        <v>0.233609</v>
       </c>
       <c r="F18" t="n">
-        <v>0.32169</v>
+        <v>0.322281</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194077</v>
+        <v>0.193098</v>
       </c>
       <c r="C19" t="n">
-        <v>0.305903</v>
+        <v>0.305139</v>
       </c>
       <c r="D19" t="n">
-        <v>0.312373</v>
+        <v>0.312318</v>
       </c>
       <c r="E19" t="n">
-        <v>0.232452</v>
+        <v>0.232264</v>
       </c>
       <c r="F19" t="n">
-        <v>0.320655</v>
+        <v>0.320857</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188923</v>
+        <v>0.187921</v>
       </c>
       <c r="C20" t="n">
-        <v>0.308572</v>
+        <v>0.308154</v>
       </c>
       <c r="D20" t="n">
-        <v>0.313146</v>
+        <v>0.313284</v>
       </c>
       <c r="E20" t="n">
-        <v>0.232809</v>
+        <v>0.232869</v>
       </c>
       <c r="F20" t="n">
-        <v>0.320453</v>
+        <v>0.320772</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181082</v>
+        <v>0.180885</v>
       </c>
       <c r="C21" t="n">
-        <v>0.299026</v>
+        <v>0.29897</v>
       </c>
       <c r="D21" t="n">
-        <v>0.309795</v>
+        <v>0.310062</v>
       </c>
       <c r="E21" t="n">
-        <v>0.23194</v>
+        <v>0.232108</v>
       </c>
       <c r="F21" t="n">
-        <v>0.318799</v>
+        <v>0.318656</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.171954</v>
+        <v>0.172057</v>
       </c>
       <c r="C22" t="n">
-        <v>0.290829</v>
+        <v>0.290241</v>
       </c>
       <c r="D22" t="n">
-        <v>0.309078</v>
+        <v>0.309523</v>
       </c>
       <c r="E22" t="n">
-        <v>0.232317</v>
+        <v>0.232223</v>
       </c>
       <c r="F22" t="n">
-        <v>0.318717</v>
+        <v>0.318398</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.163722</v>
+        <v>0.163406</v>
       </c>
       <c r="C23" t="n">
-        <v>0.276141</v>
+        <v>0.275183</v>
       </c>
       <c r="D23" t="n">
-        <v>0.309124</v>
+        <v>0.309069</v>
       </c>
       <c r="E23" t="n">
-        <v>0.247006</v>
+        <v>0.246253</v>
       </c>
       <c r="F23" t="n">
-        <v>0.334053</v>
+        <v>0.334111</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.24011</v>
+        <v>0.240877</v>
       </c>
       <c r="C24" t="n">
-        <v>0.34921</v>
+        <v>0.349452</v>
       </c>
       <c r="D24" t="n">
-        <v>0.309723</v>
+        <v>0.30998</v>
       </c>
       <c r="E24" t="n">
-        <v>0.244611</v>
+        <v>0.245172</v>
       </c>
       <c r="F24" t="n">
-        <v>0.331339</v>
+        <v>0.331699</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.239727</v>
+        <v>0.23933</v>
       </c>
       <c r="C25" t="n">
-        <v>0.348644</v>
+        <v>0.348325</v>
       </c>
       <c r="D25" t="n">
-        <v>0.310463</v>
+        <v>0.310989</v>
       </c>
       <c r="E25" t="n">
-        <v>0.243689</v>
+        <v>0.243984</v>
       </c>
       <c r="F25" t="n">
-        <v>0.331697</v>
+        <v>0.331877</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.236357</v>
+        <v>0.235712</v>
       </c>
       <c r="C26" t="n">
-        <v>0.344366</v>
+        <v>0.344363</v>
       </c>
       <c r="D26" t="n">
-        <v>0.310676</v>
+        <v>0.31027</v>
       </c>
       <c r="E26" t="n">
-        <v>0.242898</v>
+        <v>0.242915</v>
       </c>
       <c r="F26" t="n">
-        <v>0.329925</v>
+        <v>0.330181</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.231542</v>
+        <v>0.231126</v>
       </c>
       <c r="C27" t="n">
-        <v>0.339816</v>
+        <v>0.339717</v>
       </c>
       <c r="D27" t="n">
-        <v>0.310591</v>
+        <v>0.310854</v>
       </c>
       <c r="E27" t="n">
-        <v>0.24172</v>
+        <v>0.241773</v>
       </c>
       <c r="F27" t="n">
-        <v>0.329173</v>
+        <v>0.329526</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.22722</v>
+        <v>0.227813</v>
       </c>
       <c r="C28" t="n">
-        <v>0.334693</v>
+        <v>0.334627</v>
       </c>
       <c r="D28" t="n">
-        <v>0.311628</v>
+        <v>0.311492</v>
       </c>
       <c r="E28" t="n">
-        <v>0.240424</v>
+        <v>0.240789</v>
       </c>
       <c r="F28" t="n">
-        <v>0.328799</v>
+        <v>0.328062</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.223927</v>
+        <v>0.224911</v>
       </c>
       <c r="C29" t="n">
-        <v>0.330248</v>
+        <v>0.32976</v>
       </c>
       <c r="D29" t="n">
-        <v>0.312529</v>
+        <v>0.312356</v>
       </c>
       <c r="E29" t="n">
-        <v>0.240084</v>
+        <v>0.239902</v>
       </c>
       <c r="F29" t="n">
-        <v>0.328112</v>
+        <v>0.327046</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.217557</v>
+        <v>0.21884</v>
       </c>
       <c r="C30" t="n">
-        <v>0.328612</v>
+        <v>0.327886</v>
       </c>
       <c r="D30" t="n">
-        <v>0.312107</v>
+        <v>0.312382</v>
       </c>
       <c r="E30" t="n">
-        <v>0.239324</v>
+        <v>0.239143</v>
       </c>
       <c r="F30" t="n">
-        <v>0.326776</v>
+        <v>0.326167</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211657</v>
+        <v>0.213141</v>
       </c>
       <c r="C31" t="n">
-        <v>0.32471</v>
+        <v>0.324799</v>
       </c>
       <c r="D31" t="n">
-        <v>0.313261</v>
+        <v>0.312909</v>
       </c>
       <c r="E31" t="n">
-        <v>0.238594</v>
+        <v>0.238382</v>
       </c>
       <c r="F31" t="n">
-        <v>0.324422</v>
+        <v>0.32554</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206582</v>
+        <v>0.207317</v>
       </c>
       <c r="C32" t="n">
-        <v>0.321277</v>
+        <v>0.320857</v>
       </c>
       <c r="D32" t="n">
-        <v>0.314221</v>
+        <v>0.314519</v>
       </c>
       <c r="E32" t="n">
-        <v>0.237304</v>
+        <v>0.237553</v>
       </c>
       <c r="F32" t="n">
-        <v>0.324017</v>
+        <v>0.324098</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2011</v>
+        <v>0.202337</v>
       </c>
       <c r="C33" t="n">
-        <v>0.315143</v>
+        <v>0.314368</v>
       </c>
       <c r="D33" t="n">
-        <v>0.31611</v>
+        <v>0.315227</v>
       </c>
       <c r="E33" t="n">
-        <v>0.236264</v>
+        <v>0.236779</v>
       </c>
       <c r="F33" t="n">
-        <v>0.322639</v>
+        <v>0.323418</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.194929</v>
+        <v>0.195522</v>
       </c>
       <c r="C34" t="n">
-        <v>0.308804</v>
+        <v>0.309335</v>
       </c>
       <c r="D34" t="n">
-        <v>0.317229</v>
+        <v>0.315427</v>
       </c>
       <c r="E34" t="n">
-        <v>0.235918</v>
+        <v>0.235917</v>
       </c>
       <c r="F34" t="n">
-        <v>0.322441</v>
+        <v>0.322478</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.188049</v>
+        <v>0.187966</v>
       </c>
       <c r="C35" t="n">
-        <v>0.297199</v>
+        <v>0.297428</v>
       </c>
       <c r="D35" t="n">
-        <v>0.313696</v>
+        <v>0.313468</v>
       </c>
       <c r="E35" t="n">
-        <v>0.235271</v>
+        <v>0.235074</v>
       </c>
       <c r="F35" t="n">
-        <v>0.320134</v>
+        <v>0.320058</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179655</v>
+        <v>0.180031</v>
       </c>
       <c r="C36" t="n">
-        <v>0.285984</v>
+        <v>0.285271</v>
       </c>
       <c r="D36" t="n">
-        <v>0.313809</v>
+        <v>0.313476</v>
       </c>
       <c r="E36" t="n">
-        <v>0.234826</v>
+        <v>0.23489</v>
       </c>
       <c r="F36" t="n">
-        <v>0.319416</v>
+        <v>0.319415</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169672</v>
+        <v>0.170137</v>
       </c>
       <c r="C37" t="n">
-        <v>0.279831</v>
+        <v>0.27951</v>
       </c>
       <c r="D37" t="n">
-        <v>0.313594</v>
+        <v>0.313921</v>
       </c>
       <c r="E37" t="n">
-        <v>0.248855</v>
+        <v>0.248725</v>
       </c>
       <c r="F37" t="n">
-        <v>0.335977</v>
+        <v>0.335843</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247375</v>
+        <v>0.248798</v>
       </c>
       <c r="C38" t="n">
-        <v>0.359629</v>
+        <v>0.359766</v>
       </c>
       <c r="D38" t="n">
-        <v>0.312823</v>
+        <v>0.31312</v>
       </c>
       <c r="E38" t="n">
-        <v>0.246764</v>
+        <v>0.247078</v>
       </c>
       <c r="F38" t="n">
-        <v>0.334907</v>
+        <v>0.334613</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.244418</v>
+        <v>0.245224</v>
       </c>
       <c r="C39" t="n">
-        <v>0.356655</v>
+        <v>0.35685</v>
       </c>
       <c r="D39" t="n">
-        <v>0.313261</v>
+        <v>0.313495</v>
       </c>
       <c r="E39" t="n">
-        <v>0.245625</v>
+        <v>0.246083</v>
       </c>
       <c r="F39" t="n">
-        <v>0.33345</v>
+        <v>0.333896</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.241174</v>
+        <v>0.240053</v>
       </c>
       <c r="C40" t="n">
-        <v>0.35298</v>
+        <v>0.349521</v>
       </c>
       <c r="D40" t="n">
-        <v>0.313542</v>
+        <v>0.313041</v>
       </c>
       <c r="E40" t="n">
-        <v>0.244733</v>
+        <v>0.244562</v>
       </c>
       <c r="F40" t="n">
-        <v>0.333043</v>
+        <v>0.33274</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.235596</v>
+        <v>0.236158</v>
       </c>
       <c r="C41" t="n">
-        <v>0.347606</v>
+        <v>0.34795</v>
       </c>
       <c r="D41" t="n">
-        <v>0.314023</v>
+        <v>0.314072</v>
       </c>
       <c r="E41" t="n">
-        <v>0.243427</v>
+        <v>0.243524</v>
       </c>
       <c r="F41" t="n">
-        <v>0.331659</v>
+        <v>0.331398</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.231597</v>
+        <v>0.230891</v>
       </c>
       <c r="C42" t="n">
-        <v>0.34351</v>
+        <v>0.340607</v>
       </c>
       <c r="D42" t="n">
-        <v>0.314502</v>
+        <v>0.313553</v>
       </c>
       <c r="E42" t="n">
-        <v>0.241933</v>
+        <v>0.242073</v>
       </c>
       <c r="F42" t="n">
-        <v>0.330197</v>
+        <v>0.330041</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.225916</v>
+        <v>0.22584</v>
       </c>
       <c r="C43" t="n">
-        <v>0.33759</v>
+        <v>0.337472</v>
       </c>
       <c r="D43" t="n">
-        <v>0.314153</v>
+        <v>0.314032</v>
       </c>
       <c r="E43" t="n">
-        <v>0.240851</v>
+        <v>0.241015</v>
       </c>
       <c r="F43" t="n">
-        <v>0.328816</v>
+        <v>0.329239</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220186</v>
+        <v>0.221372</v>
       </c>
       <c r="C44" t="n">
-        <v>0.32516</v>
+        <v>0.324983</v>
       </c>
       <c r="D44" t="n">
-        <v>0.316045</v>
+        <v>0.314883</v>
       </c>
       <c r="E44" t="n">
-        <v>0.23994</v>
+        <v>0.240181</v>
       </c>
       <c r="F44" t="n">
-        <v>0.327665</v>
+        <v>0.328173</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215053</v>
+        <v>0.215381</v>
       </c>
       <c r="C45" t="n">
-        <v>0.337493</v>
+        <v>0.334405</v>
       </c>
       <c r="D45" t="n">
-        <v>0.315552</v>
+        <v>0.315566</v>
       </c>
       <c r="E45" t="n">
-        <v>0.238858</v>
+        <v>0.238963</v>
       </c>
       <c r="F45" t="n">
-        <v>0.32727</v>
+        <v>0.327106</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209826</v>
+        <v>0.209699</v>
       </c>
       <c r="C46" t="n">
-        <v>0.323533</v>
+        <v>0.32263</v>
       </c>
       <c r="D46" t="n">
-        <v>0.31782</v>
+        <v>0.317695</v>
       </c>
       <c r="E46" t="n">
-        <v>0.238173</v>
+        <v>0.238217</v>
       </c>
       <c r="F46" t="n">
-        <v>0.325896</v>
+        <v>0.325997</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.20435</v>
+        <v>0.204213</v>
       </c>
       <c r="C47" t="n">
-        <v>0.319215</v>
+        <v>0.318931</v>
       </c>
       <c r="D47" t="n">
-        <v>0.318516</v>
+        <v>0.318337</v>
       </c>
       <c r="E47" t="n">
-        <v>0.237435</v>
+        <v>0.237571</v>
       </c>
       <c r="F47" t="n">
-        <v>0.324717</v>
+        <v>0.324789</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198763</v>
+        <v>0.198519</v>
       </c>
       <c r="C48" t="n">
-        <v>0.306658</v>
+        <v>0.306418</v>
       </c>
       <c r="D48" t="n">
-        <v>0.318092</v>
+        <v>0.317776</v>
       </c>
       <c r="E48" t="n">
-        <v>0.236471</v>
+        <v>0.236412</v>
       </c>
       <c r="F48" t="n">
-        <v>0.323611</v>
+        <v>0.323764</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.19128</v>
+        <v>0.191239</v>
       </c>
       <c r="C49" t="n">
-        <v>0.304331</v>
+        <v>0.303498</v>
       </c>
       <c r="D49" t="n">
-        <v>0.319512</v>
+        <v>0.319864</v>
       </c>
       <c r="E49" t="n">
-        <v>0.235694</v>
+        <v>0.235818</v>
       </c>
       <c r="F49" t="n">
-        <v>0.32317</v>
+        <v>0.32302</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.184132</v>
+        <v>0.18401</v>
       </c>
       <c r="C50" t="n">
-        <v>0.30085</v>
+        <v>0.300773</v>
       </c>
       <c r="D50" t="n">
-        <v>0.318652</v>
+        <v>0.31798</v>
       </c>
       <c r="E50" t="n">
-        <v>0.235236</v>
+        <v>0.23501</v>
       </c>
       <c r="F50" t="n">
-        <v>0.321915</v>
+        <v>0.321937</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174834</v>
+        <v>0.175011</v>
       </c>
       <c r="C51" t="n">
-        <v>0.286343</v>
+        <v>0.286236</v>
       </c>
       <c r="D51" t="n">
-        <v>0.318104</v>
+        <v>0.317757</v>
       </c>
       <c r="E51" t="n">
-        <v>0.249248</v>
+        <v>0.249323</v>
       </c>
       <c r="F51" t="n">
-        <v>0.337134</v>
+        <v>0.336778</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.16419</v>
+        <v>0.16416</v>
       </c>
       <c r="C52" t="n">
-        <v>0.280942</v>
+        <v>0.28077</v>
       </c>
       <c r="D52" t="n">
-        <v>0.319559</v>
+        <v>0.319531</v>
       </c>
       <c r="E52" t="n">
-        <v>0.248159</v>
+        <v>0.248458</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3358</v>
+        <v>0.335495</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246607</v>
+        <v>0.246225</v>
       </c>
       <c r="C53" t="n">
-        <v>0.360207</v>
+        <v>0.359869</v>
       </c>
       <c r="D53" t="n">
-        <v>0.319113</v>
+        <v>0.319476</v>
       </c>
       <c r="E53" t="n">
-        <v>0.246774</v>
+        <v>0.246831</v>
       </c>
       <c r="F53" t="n">
-        <v>0.334176</v>
+        <v>0.333922</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242264</v>
+        <v>0.242466</v>
       </c>
       <c r="C54" t="n">
-        <v>0.358341</v>
+        <v>0.359563</v>
       </c>
       <c r="D54" t="n">
-        <v>0.320468</v>
+        <v>0.320706</v>
       </c>
       <c r="E54" t="n">
-        <v>0.245249</v>
+        <v>0.245168</v>
       </c>
       <c r="F54" t="n">
-        <v>0.333075</v>
+        <v>0.332758</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237964</v>
+        <v>0.238297</v>
       </c>
       <c r="C55" t="n">
-        <v>0.356742</v>
+        <v>0.354318</v>
       </c>
       <c r="D55" t="n">
-        <v>0.321615</v>
+        <v>0.321146</v>
       </c>
       <c r="E55" t="n">
-        <v>0.24387</v>
+        <v>0.243888</v>
       </c>
       <c r="F55" t="n">
-        <v>0.331265</v>
+        <v>0.331069</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233491</v>
+        <v>0.233847</v>
       </c>
       <c r="C56" t="n">
-        <v>0.351963</v>
+        <v>0.349179</v>
       </c>
       <c r="D56" t="n">
-        <v>0.323161</v>
+        <v>0.323192</v>
       </c>
       <c r="E56" t="n">
-        <v>0.242665</v>
+        <v>0.242827</v>
       </c>
       <c r="F56" t="n">
-        <v>0.32987</v>
+        <v>0.329669</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.22862</v>
+        <v>0.228667</v>
       </c>
       <c r="C57" t="n">
-        <v>0.347666</v>
+        <v>0.345848</v>
       </c>
       <c r="D57" t="n">
-        <v>0.324666</v>
+        <v>0.323851</v>
       </c>
       <c r="E57" t="n">
-        <v>0.241552</v>
+        <v>0.241773</v>
       </c>
       <c r="F57" t="n">
-        <v>0.328601</v>
+        <v>0.328541</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.2227</v>
+        <v>0.22286</v>
       </c>
       <c r="C58" t="n">
-        <v>0.32664</v>
+        <v>0.326184</v>
       </c>
       <c r="D58" t="n">
-        <v>0.328544</v>
+        <v>0.326887</v>
       </c>
       <c r="E58" t="n">
-        <v>0.240671</v>
+        <v>0.240636</v>
       </c>
       <c r="F58" t="n">
-        <v>0.328103</v>
+        <v>0.328073</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.218229</v>
+        <v>0.217964</v>
       </c>
       <c r="C59" t="n">
-        <v>0.340657</v>
+        <v>0.33831</v>
       </c>
       <c r="D59" t="n">
-        <v>0.329622</v>
+        <v>0.328074</v>
       </c>
       <c r="E59" t="n">
-        <v>0.239814</v>
+        <v>0.239773</v>
       </c>
       <c r="F59" t="n">
-        <v>0.327037</v>
+        <v>0.327081</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212558</v>
+        <v>0.212915</v>
       </c>
       <c r="C60" t="n">
-        <v>0.31839</v>
+        <v>0.317563</v>
       </c>
       <c r="D60" t="n">
-        <v>0.332148</v>
+        <v>0.331151</v>
       </c>
       <c r="E60" t="n">
-        <v>0.238786</v>
+        <v>0.238684</v>
       </c>
       <c r="F60" t="n">
-        <v>0.325852</v>
+        <v>0.325619</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206084</v>
+        <v>0.20624</v>
       </c>
       <c r="C61" t="n">
-        <v>0.324627</v>
+        <v>0.323497</v>
       </c>
       <c r="D61" t="n">
-        <v>0.333026</v>
+        <v>0.33211</v>
       </c>
       <c r="E61" t="n">
-        <v>0.238038</v>
+        <v>0.237976</v>
       </c>
       <c r="F61" t="n">
-        <v>0.325546</v>
+        <v>0.325226</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200812</v>
+        <v>0.200444</v>
       </c>
       <c r="C62" t="n">
-        <v>0.316787</v>
+        <v>0.31538</v>
       </c>
       <c r="D62" t="n">
-        <v>0.335679</v>
+        <v>0.334031</v>
       </c>
       <c r="E62" t="n">
-        <v>0.237175</v>
+        <v>0.237086</v>
       </c>
       <c r="F62" t="n">
-        <v>0.324203</v>
+        <v>0.324028</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194827</v>
+        <v>0.194427</v>
       </c>
       <c r="C63" t="n">
-        <v>0.329394</v>
+        <v>0.327334</v>
       </c>
       <c r="D63" t="n">
-        <v>0.338368</v>
+        <v>0.337325</v>
       </c>
       <c r="E63" t="n">
-        <v>0.236021</v>
+        <v>0.236223</v>
       </c>
       <c r="F63" t="n">
-        <v>0.323793</v>
+        <v>0.323549</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187386</v>
+        <v>0.187294</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3138</v>
+        <v>0.312781</v>
       </c>
       <c r="D64" t="n">
-        <v>0.376851</v>
+        <v>0.374469</v>
       </c>
       <c r="E64" t="n">
-        <v>0.235407</v>
+        <v>0.235282</v>
       </c>
       <c r="F64" t="n">
-        <v>0.32188</v>
+        <v>0.321867</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17771</v>
+        <v>0.177627</v>
       </c>
       <c r="C65" t="n">
-        <v>0.329939</v>
+        <v>0.328361</v>
       </c>
       <c r="D65" t="n">
-        <v>0.377775</v>
+        <v>0.376111</v>
       </c>
       <c r="E65" t="n">
-        <v>0.234381</v>
+        <v>0.23448</v>
       </c>
       <c r="F65" t="n">
-        <v>0.321189</v>
+        <v>0.321022</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167817</v>
+        <v>0.16737</v>
       </c>
       <c r="C66" t="n">
-        <v>0.303026</v>
+        <v>0.30377</v>
       </c>
       <c r="D66" t="n">
-        <v>0.379256</v>
+        <v>0.37743</v>
       </c>
       <c r="E66" t="n">
-        <v>0.248714</v>
+        <v>0.249015</v>
       </c>
       <c r="F66" t="n">
-        <v>0.337141</v>
+        <v>0.337201</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.24721</v>
+        <v>0.247475</v>
       </c>
       <c r="C67" t="n">
-        <v>0.451074</v>
+        <v>0.450901</v>
       </c>
       <c r="D67" t="n">
-        <v>0.379892</v>
+        <v>0.377607</v>
       </c>
       <c r="E67" t="n">
-        <v>0.247175</v>
+        <v>0.247382</v>
       </c>
       <c r="F67" t="n">
-        <v>0.335772</v>
+        <v>0.335596</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.244095</v>
+        <v>0.244136</v>
       </c>
       <c r="C68" t="n">
-        <v>0.370342</v>
+        <v>0.370365</v>
       </c>
       <c r="D68" t="n">
-        <v>0.379804</v>
+        <v>0.378504</v>
       </c>
       <c r="E68" t="n">
-        <v>0.24612</v>
+        <v>0.246114</v>
       </c>
       <c r="F68" t="n">
-        <v>0.334042</v>
+        <v>0.334406</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239733</v>
+        <v>0.239627</v>
       </c>
       <c r="C69" t="n">
-        <v>0.367314</v>
+        <v>0.367681</v>
       </c>
       <c r="D69" t="n">
-        <v>0.37969</v>
+        <v>0.378074</v>
       </c>
       <c r="E69" t="n">
-        <v>0.244643</v>
+        <v>0.244698</v>
       </c>
       <c r="F69" t="n">
-        <v>0.332969</v>
+        <v>0.333163</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235046</v>
+        <v>0.235465</v>
       </c>
       <c r="C70" t="n">
-        <v>0.362465</v>
+        <v>0.362312</v>
       </c>
       <c r="D70" t="n">
-        <v>0.379299</v>
+        <v>0.377969</v>
       </c>
       <c r="E70" t="n">
-        <v>0.243536</v>
+        <v>0.243636</v>
       </c>
       <c r="F70" t="n">
-        <v>0.331579</v>
+        <v>0.331537</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230523</v>
+        <v>0.230308</v>
       </c>
       <c r="C71" t="n">
-        <v>0.357366</v>
+        <v>0.357666</v>
       </c>
       <c r="D71" t="n">
-        <v>0.379511</v>
+        <v>0.378572</v>
       </c>
       <c r="E71" t="n">
-        <v>0.242457</v>
+        <v>0.242556</v>
       </c>
       <c r="F71" t="n">
-        <v>0.330583</v>
+        <v>0.330669</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.224961</v>
+        <v>0.225135</v>
       </c>
       <c r="C72" t="n">
-        <v>0.477325</v>
+        <v>0.475744</v>
       </c>
       <c r="D72" t="n">
-        <v>0.381743</v>
+        <v>0.38196</v>
       </c>
       <c r="E72" t="n">
-        <v>0.241207</v>
+        <v>0.241259</v>
       </c>
       <c r="F72" t="n">
-        <v>0.32966</v>
+        <v>0.329634</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219555</v>
+        <v>0.219617</v>
       </c>
       <c r="C73" t="n">
-        <v>0.418304</v>
+        <v>0.417509</v>
       </c>
       <c r="D73" t="n">
-        <v>0.380543</v>
+        <v>0.380522</v>
       </c>
       <c r="E73" t="n">
-        <v>0.240058</v>
+        <v>0.240201</v>
       </c>
       <c r="F73" t="n">
-        <v>0.328045</v>
+        <v>0.327885</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213857</v>
+        <v>0.213888</v>
       </c>
       <c r="C74" t="n">
-        <v>0.473163</v>
+        <v>0.472552</v>
       </c>
       <c r="D74" t="n">
-        <v>0.380101</v>
+        <v>0.379375</v>
       </c>
       <c r="E74" t="n">
-        <v>0.239346</v>
+        <v>0.239211</v>
       </c>
       <c r="F74" t="n">
-        <v>0.326868</v>
+        <v>0.326784</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.208186</v>
+        <v>0.208053</v>
       </c>
       <c r="C75" t="n">
-        <v>0.465514</v>
+        <v>0.464961</v>
       </c>
       <c r="D75" t="n">
-        <v>0.378651</v>
+        <v>0.378056</v>
       </c>
       <c r="E75" t="n">
-        <v>0.238173</v>
+        <v>0.238263</v>
       </c>
       <c r="F75" t="n">
-        <v>0.325961</v>
+        <v>0.325928</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.202261</v>
+        <v>0.202119</v>
       </c>
       <c r="C76" t="n">
-        <v>0.422647</v>
+        <v>0.422746</v>
       </c>
       <c r="D76" t="n">
-        <v>0.379089</v>
+        <v>0.379488</v>
       </c>
       <c r="E76" t="n">
-        <v>0.237503</v>
+        <v>0.237217</v>
       </c>
       <c r="F76" t="n">
-        <v>0.32511</v>
+        <v>0.325079</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.195929</v>
+        <v>0.196016</v>
       </c>
       <c r="C77" t="n">
-        <v>0.395517</v>
+        <v>0.395618</v>
       </c>
       <c r="D77" t="n">
-        <v>0.380775</v>
+        <v>0.380652</v>
       </c>
       <c r="E77" t="n">
-        <v>0.236691</v>
+        <v>0.236553</v>
       </c>
       <c r="F77" t="n">
-        <v>0.323244</v>
+        <v>0.323183</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.189015</v>
+        <v>0.188855</v>
       </c>
       <c r="C78" t="n">
-        <v>0.40476</v>
+        <v>0.404808</v>
       </c>
       <c r="D78" t="n">
-        <v>0.436628</v>
+        <v>0.436229</v>
       </c>
       <c r="E78" t="n">
-        <v>0.23581</v>
+        <v>0.235755</v>
       </c>
       <c r="F78" t="n">
-        <v>0.323403</v>
+        <v>0.32333</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179673</v>
+        <v>0.179682</v>
       </c>
       <c r="C79" t="n">
-        <v>0.324452</v>
+        <v>0.324432</v>
       </c>
       <c r="D79" t="n">
-        <v>0.433236</v>
+        <v>0.433133</v>
       </c>
       <c r="E79" t="n">
-        <v>0.235044</v>
+        <v>0.235103</v>
       </c>
       <c r="F79" t="n">
-        <v>0.322809</v>
+        <v>0.322762</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170671</v>
+        <v>0.170581</v>
       </c>
       <c r="C80" t="n">
-        <v>0.369401</v>
+        <v>0.369473</v>
       </c>
       <c r="D80" t="n">
-        <v>0.42734</v>
+        <v>0.427647</v>
       </c>
       <c r="E80" t="n">
-        <v>0.251895</v>
+        <v>0.251341</v>
       </c>
       <c r="F80" t="n">
-        <v>0.336732</v>
+        <v>0.336771</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248906</v>
+        <v>0.249546</v>
       </c>
       <c r="C81" t="n">
-        <v>0.380813</v>
+        <v>0.380585</v>
       </c>
       <c r="D81" t="n">
-        <v>0.42619</v>
+        <v>0.426521</v>
       </c>
       <c r="E81" t="n">
         <v>0.249859</v>
       </c>
       <c r="F81" t="n">
-        <v>0.33488</v>
+        <v>0.334915</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245785</v>
+        <v>0.245656</v>
       </c>
       <c r="C82" t="n">
-        <v>0.363275</v>
+        <v>0.363581</v>
       </c>
       <c r="D82" t="n">
-        <v>0.42492</v>
+        <v>0.424994</v>
       </c>
       <c r="E82" t="n">
-        <v>0.247713</v>
+        <v>0.247207</v>
       </c>
       <c r="F82" t="n">
-        <v>0.334564</v>
+        <v>0.334909</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.240872</v>
+        <v>0.241088</v>
       </c>
       <c r="C83" t="n">
-        <v>0.357184</v>
+        <v>0.357435</v>
       </c>
       <c r="D83" t="n">
-        <v>0.417674</v>
+        <v>0.418194</v>
       </c>
       <c r="E83" t="n">
-        <v>0.24644</v>
+        <v>0.246283</v>
       </c>
       <c r="F83" t="n">
-        <v>0.33238</v>
+        <v>0.332338</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236322</v>
+        <v>0.236207</v>
       </c>
       <c r="C84" t="n">
-        <v>0.353364</v>
+        <v>0.353475</v>
       </c>
       <c r="D84" t="n">
-        <v>0.413686</v>
+        <v>0.414338</v>
       </c>
       <c r="E84" t="n">
-        <v>0.244889</v>
+        <v>0.244811</v>
       </c>
       <c r="F84" t="n">
-        <v>0.331064</v>
+        <v>0.331021</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232593</v>
+        <v>0.232203</v>
       </c>
       <c r="C85" t="n">
-        <v>0.34745</v>
+        <v>0.367307</v>
       </c>
       <c r="D85" t="n">
-        <v>0.411192</v>
+        <v>0.412479</v>
       </c>
       <c r="E85" t="n">
-        <v>0.243839</v>
+        <v>0.24422</v>
       </c>
       <c r="F85" t="n">
-        <v>0.329712</v>
+        <v>0.329945</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.227486</v>
+        <v>0.226452</v>
       </c>
       <c r="C86" t="n">
-        <v>0.342521</v>
+        <v>0.34259</v>
       </c>
       <c r="D86" t="n">
-        <v>0.410077</v>
+        <v>0.410461</v>
       </c>
       <c r="E86" t="n">
-        <v>0.24207</v>
+        <v>0.242378</v>
       </c>
       <c r="F86" t="n">
-        <v>0.329117</v>
+        <v>0.328777</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220994</v>
+        <v>0.221146</v>
       </c>
       <c r="C87" t="n">
-        <v>0.425849</v>
+        <v>0.426056</v>
       </c>
       <c r="D87" t="n">
-        <v>0.404762</v>
+        <v>0.405129</v>
       </c>
       <c r="E87" t="n">
-        <v>0.240899</v>
+        <v>0.240918</v>
       </c>
       <c r="F87" t="n">
-        <v>0.327414</v>
+        <v>0.327532</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215671</v>
+        <v>0.215596</v>
       </c>
       <c r="C88" t="n">
-        <v>0.435808</v>
+        <v>0.435858</v>
       </c>
       <c r="D88" t="n">
-        <v>0.403248</v>
+        <v>0.403649</v>
       </c>
       <c r="E88" t="n">
-        <v>0.239621</v>
+        <v>0.239459</v>
       </c>
       <c r="F88" t="n">
-        <v>0.326238</v>
+        <v>0.326304</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.209788</v>
+        <v>0.209879</v>
       </c>
       <c r="C89" t="n">
-        <v>0.422676</v>
+        <v>0.422737</v>
       </c>
       <c r="D89" t="n">
-        <v>0.404257</v>
+        <v>0.403973</v>
       </c>
       <c r="E89" t="n">
-        <v>0.23861</v>
+        <v>0.238632</v>
       </c>
       <c r="F89" t="n">
-        <v>0.325373</v>
+        <v>0.325484</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204322</v>
+        <v>0.204205</v>
       </c>
       <c r="C90" t="n">
-        <v>0.407801</v>
+        <v>0.408366</v>
       </c>
       <c r="D90" t="n">
-        <v>0.397882</v>
+        <v>0.397621</v>
       </c>
       <c r="E90" t="n">
-        <v>0.237779</v>
+        <v>0.237669</v>
       </c>
       <c r="F90" t="n">
-        <v>0.324306</v>
+        <v>0.324382</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197317</v>
+        <v>0.197791</v>
       </c>
       <c r="C91" t="n">
-        <v>0.370767</v>
+        <v>0.371095</v>
       </c>
       <c r="D91" t="n">
-        <v>0.398283</v>
+        <v>0.397747</v>
       </c>
       <c r="E91" t="n">
-        <v>0.236817</v>
+        <v>0.236757</v>
       </c>
       <c r="F91" t="n">
-        <v>0.322991</v>
+        <v>0.322986</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190353</v>
+        <v>0.190514</v>
       </c>
       <c r="C92" t="n">
-        <v>0.365903</v>
+        <v>0.365592</v>
       </c>
       <c r="D92" t="n">
-        <v>0.448369</v>
+        <v>0.44825</v>
       </c>
       <c r="E92" t="n">
-        <v>0.235983</v>
+        <v>0.236032</v>
       </c>
       <c r="F92" t="n">
-        <v>0.322167</v>
+        <v>0.32223</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182329</v>
+        <v>0.182267</v>
       </c>
       <c r="C93" t="n">
-        <v>0.392182</v>
+        <v>0.392066</v>
       </c>
       <c r="D93" t="n">
-        <v>0.435366</v>
+        <v>0.435237</v>
       </c>
       <c r="E93" t="n">
-        <v>0.23564</v>
+        <v>0.235329</v>
       </c>
       <c r="F93" t="n">
-        <v>0.321312</v>
+        <v>0.321384</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.174147</v>
+        <v>0.173984</v>
       </c>
       <c r="C94" t="n">
-        <v>0.37902</v>
+        <v>0.378563</v>
       </c>
       <c r="D94" t="n">
-        <v>0.436522</v>
+        <v>0.436707</v>
       </c>
       <c r="E94" t="n">
-        <v>0.252044</v>
+        <v>0.252129</v>
       </c>
       <c r="F94" t="n">
-        <v>0.337941</v>
+        <v>0.337816</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249465</v>
+        <v>0.249667</v>
       </c>
       <c r="C95" t="n">
-        <v>0.515686</v>
+        <v>0.5157</v>
       </c>
       <c r="D95" t="n">
-        <v>0.42951</v>
+        <v>0.430053</v>
       </c>
       <c r="E95" t="n">
-        <v>0.249689</v>
+        <v>0.249678</v>
       </c>
       <c r="F95" t="n">
-        <v>0.33548</v>
+        <v>0.337213</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.247149</v>
+        <v>0.246798</v>
       </c>
       <c r="C96" t="n">
-        <v>0.355819</v>
+        <v>0.356483</v>
       </c>
       <c r="D96" t="n">
-        <v>0.425885</v>
+        <v>0.42608</v>
       </c>
       <c r="E96" t="n">
-        <v>0.247972</v>
+        <v>0.248221</v>
       </c>
       <c r="F96" t="n">
-        <v>0.337732</v>
+        <v>0.337681</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.242746</v>
+        <v>0.243323</v>
       </c>
       <c r="C97" t="n">
-        <v>0.351591</v>
+        <v>0.351825</v>
       </c>
       <c r="D97" t="n">
-        <v>0.416914</v>
+        <v>0.417649</v>
       </c>
       <c r="E97" t="n">
-        <v>0.246086</v>
+        <v>0.2466</v>
       </c>
       <c r="F97" t="n">
-        <v>0.335228</v>
+        <v>0.335407</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.238691</v>
+        <v>0.238407</v>
       </c>
       <c r="C98" t="n">
-        <v>0.347303</v>
+        <v>0.347246</v>
       </c>
       <c r="D98" t="n">
-        <v>0.414645</v>
+        <v>0.414016</v>
       </c>
       <c r="E98" t="n">
-        <v>0.245057</v>
+        <v>0.245192</v>
       </c>
       <c r="F98" t="n">
-        <v>0.332377</v>
+        <v>0.332507</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.233921</v>
+        <v>0.234028</v>
       </c>
       <c r="C99" t="n">
-        <v>0.342218</v>
+        <v>0.342417</v>
       </c>
       <c r="D99" t="n">
-        <v>0.411077</v>
+        <v>0.411494</v>
       </c>
       <c r="E99" t="n">
-        <v>0.243726</v>
+        <v>0.243901</v>
       </c>
       <c r="F99" t="n">
-        <v>0.333262</v>
+        <v>0.333296</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228778</v>
+        <v>0.228796</v>
       </c>
       <c r="C100" t="n">
-        <v>0.337409</v>
+        <v>0.337355</v>
       </c>
       <c r="D100" t="n">
-        <v>0.405497</v>
+        <v>0.40541</v>
       </c>
       <c r="E100" t="n">
-        <v>0.242554</v>
+        <v>0.242627</v>
       </c>
       <c r="F100" t="n">
-        <v>0.329078</v>
+        <v>0.329119</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.22325</v>
+        <v>0.223285</v>
       </c>
       <c r="C101" t="n">
-        <v>0.405376</v>
+        <v>0.405274</v>
       </c>
       <c r="D101" t="n">
-        <v>0.403964</v>
+        <v>0.404153</v>
       </c>
       <c r="E101" t="n">
-        <v>0.241184</v>
+        <v>0.241503</v>
       </c>
       <c r="F101" t="n">
-        <v>0.327617</v>
+        <v>0.327557</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.217356</v>
+        <v>0.217422</v>
       </c>
       <c r="C102" t="n">
-        <v>0.396799</v>
+        <v>0.396781</v>
       </c>
       <c r="D102" t="n">
-        <v>0.398267</v>
+        <v>0.398526</v>
       </c>
       <c r="E102" t="n">
-        <v>0.240036</v>
+        <v>0.240116</v>
       </c>
       <c r="F102" t="n">
-        <v>0.327498</v>
+        <v>0.327459</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211664</v>
+        <v>0.21164</v>
       </c>
       <c r="C103" t="n">
-        <v>0.44231</v>
+        <v>0.441986</v>
       </c>
       <c r="D103" t="n">
-        <v>0.395362</v>
+        <v>0.395641</v>
       </c>
       <c r="E103" t="n">
-        <v>0.239094</v>
+        <v>0.23902</v>
       </c>
       <c r="F103" t="n">
-        <v>0.326566</v>
+        <v>0.326587</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.205433</v>
+        <v>0.205456</v>
       </c>
       <c r="C104" t="n">
-        <v>0.399461</v>
+        <v>0.399297</v>
       </c>
       <c r="D104" t="n">
-        <v>0.39337</v>
+        <v>0.393323</v>
       </c>
       <c r="E104" t="n">
-        <v>0.238393</v>
+        <v>0.238265</v>
       </c>
       <c r="F104" t="n">
-        <v>0.325445</v>
+        <v>0.325524</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.198857</v>
+        <v>0.199172</v>
       </c>
       <c r="C105" t="n">
-        <v>0.441269</v>
+        <v>0.44136</v>
       </c>
       <c r="D105" t="n">
-        <v>0.38971</v>
+        <v>0.389966</v>
       </c>
       <c r="E105" t="n">
-        <v>0.237551</v>
+        <v>0.237672</v>
       </c>
       <c r="F105" t="n">
-        <v>0.324617</v>
+        <v>0.324662</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.191904</v>
+        <v>0.191815</v>
       </c>
       <c r="C106" t="n">
-        <v>0.44774</v>
+        <v>0.447803</v>
       </c>
       <c r="D106" t="n">
-        <v>0.387021</v>
+        <v>0.387523</v>
       </c>
       <c r="E106" t="n">
-        <v>0.236921</v>
+        <v>0.236785</v>
       </c>
       <c r="F106" t="n">
-        <v>0.323718</v>
+        <v>0.323674</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183802</v>
+        <v>0.183824</v>
       </c>
       <c r="C107" t="n">
-        <v>0.406576</v>
+        <v>0.406393</v>
       </c>
       <c r="D107" t="n">
-        <v>0.41866</v>
+        <v>0.418962</v>
       </c>
       <c r="E107" t="n">
-        <v>0.235772</v>
+        <v>0.236224</v>
       </c>
       <c r="F107" t="n">
-        <v>0.321704</v>
+        <v>0.321671</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174665</v>
+        <v>0.174576</v>
       </c>
       <c r="C108" t="n">
-        <v>0.403967</v>
+        <v>0.403768</v>
       </c>
       <c r="D108" t="n">
-        <v>0.413061</v>
+        <v>0.412949</v>
       </c>
       <c r="E108" t="n">
-        <v>0.252274</v>
+        <v>0.252417</v>
       </c>
       <c r="F108" t="n">
-        <v>0.337639</v>
+        <v>0.337615</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163286</v>
+        <v>0.163137</v>
       </c>
       <c r="C109" t="n">
-        <v>0.391292</v>
+        <v>0.391234</v>
       </c>
       <c r="D109" t="n">
-        <v>0.407599</v>
+        <v>0.407165</v>
       </c>
       <c r="E109" t="n">
-        <v>0.250071</v>
+        <v>0.250088</v>
       </c>
       <c r="F109" t="n">
-        <v>0.336108</v>
+        <v>0.336005</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.248018</v>
+        <v>0.248098</v>
       </c>
       <c r="C110" t="n">
-        <v>0.497928</v>
+        <v>0.497166</v>
       </c>
       <c r="D110" t="n">
-        <v>0.405843</v>
+        <v>0.404456</v>
       </c>
       <c r="E110" t="n">
-        <v>0.248</v>
+        <v>0.248299</v>
       </c>
       <c r="F110" t="n">
-        <v>0.334523</v>
+        <v>0.33445</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.243938</v>
+        <v>0.24416</v>
       </c>
       <c r="C111" t="n">
-        <v>0.491916</v>
+        <v>0.490797</v>
       </c>
       <c r="D111" t="n">
-        <v>0.400748</v>
+        <v>0.403419</v>
       </c>
       <c r="E111" t="n">
-        <v>0.246428</v>
+        <v>0.246851</v>
       </c>
       <c r="F111" t="n">
-        <v>0.334078</v>
+        <v>0.334132</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.239861</v>
+        <v>0.239846</v>
       </c>
       <c r="C112" t="n">
-        <v>0.512584</v>
+        <v>0.514796</v>
       </c>
       <c r="D112" t="n">
-        <v>0.397684</v>
+        <v>0.398626</v>
       </c>
       <c r="E112" t="n">
-        <v>0.245015</v>
+        <v>0.245441</v>
       </c>
       <c r="F112" t="n">
-        <v>0.332407</v>
+        <v>0.332505</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.23483</v>
+        <v>0.235245</v>
       </c>
       <c r="C113" t="n">
-        <v>0.504589</v>
+        <v>0.506086</v>
       </c>
       <c r="D113" t="n">
-        <v>0.394003</v>
+        <v>0.395197</v>
       </c>
       <c r="E113" t="n">
-        <v>0.243631</v>
+        <v>0.243943</v>
       </c>
       <c r="F113" t="n">
-        <v>0.331162</v>
+        <v>0.331081</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229867</v>
+        <v>0.230413</v>
       </c>
       <c r="C114" t="n">
-        <v>0.494763</v>
+        <v>0.496211</v>
       </c>
       <c r="D114" t="n">
-        <v>0.391278</v>
+        <v>0.391884</v>
       </c>
       <c r="E114" t="n">
-        <v>0.242322</v>
+        <v>0.242583</v>
       </c>
       <c r="F114" t="n">
-        <v>0.330083</v>
+        <v>0.330035</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224434</v>
+        <v>0.224928</v>
       </c>
       <c r="C115" t="n">
-        <v>0.432722</v>
+        <v>0.433482</v>
       </c>
       <c r="D115" t="n">
-        <v>0.38828</v>
+        <v>0.389183</v>
       </c>
       <c r="E115" t="n">
-        <v>0.241439</v>
+        <v>0.241713</v>
       </c>
       <c r="F115" t="n">
-        <v>0.327899</v>
+        <v>0.327859</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217903</v>
+        <v>0.218659</v>
       </c>
       <c r="C116" t="n">
-        <v>0.405805</v>
+        <v>0.406576</v>
       </c>
       <c r="D116" t="n">
-        <v>0.385361</v>
+        <v>0.386331</v>
       </c>
       <c r="E116" t="n">
-        <v>0.240488</v>
+        <v>0.240649</v>
       </c>
       <c r="F116" t="n">
-        <v>0.327983</v>
+        <v>0.328016</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212666</v>
+        <v>0.213054</v>
       </c>
       <c r="C117" t="n">
-        <v>0.385632</v>
+        <v>0.38596</v>
       </c>
       <c r="D117" t="n">
-        <v>0.383044</v>
+        <v>0.384022</v>
       </c>
       <c r="E117" t="n">
-        <v>0.239287</v>
+        <v>0.239684</v>
       </c>
       <c r="F117" t="n">
-        <v>0.325688</v>
+        <v>0.325716</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206416</v>
+        <v>0.207065</v>
       </c>
       <c r="C118" t="n">
-        <v>0.400314</v>
+        <v>0.401547</v>
       </c>
       <c r="D118" t="n">
-        <v>0.380763</v>
+        <v>0.381383</v>
       </c>
       <c r="E118" t="n">
-        <v>0.23844</v>
+        <v>0.238641</v>
       </c>
       <c r="F118" t="n">
-        <v>0.324852</v>
+        <v>0.324872</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200234</v>
+        <v>0.200938</v>
       </c>
       <c r="C119" t="n">
-        <v>0.431062</v>
+        <v>0.432729</v>
       </c>
       <c r="D119" t="n">
-        <v>0.380198</v>
+        <v>0.380313</v>
       </c>
       <c r="E119" t="n">
-        <v>0.237727</v>
+        <v>0.237963</v>
       </c>
       <c r="F119" t="n">
-        <v>0.323771</v>
+        <v>0.323818</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193278</v>
+        <v>0.193899</v>
       </c>
       <c r="C120" t="n">
-        <v>0.397499</v>
+        <v>0.398399</v>
       </c>
       <c r="D120" t="n">
-        <v>0.377822</v>
+        <v>0.378005</v>
       </c>
       <c r="E120" t="n">
-        <v>0.236837</v>
+        <v>0.237121</v>
       </c>
       <c r="F120" t="n">
-        <v>0.32299</v>
+        <v>0.322976</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185692</v>
+        <v>0.185761</v>
       </c>
       <c r="C121" t="n">
-        <v>0.404807</v>
+        <v>0.405792</v>
       </c>
       <c r="D121" t="n">
-        <v>0.451945</v>
+        <v>0.454178</v>
       </c>
       <c r="E121" t="n">
-        <v>0.23601</v>
+        <v>0.23638</v>
       </c>
       <c r="F121" t="n">
-        <v>0.322226</v>
+        <v>0.322301</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176463</v>
+        <v>0.177349</v>
       </c>
       <c r="C122" t="n">
-        <v>0.369468</v>
+        <v>0.370512</v>
       </c>
       <c r="D122" t="n">
-        <v>0.444529</v>
+        <v>0.446483</v>
       </c>
       <c r="E122" t="n">
-        <v>0.235432</v>
+        <v>0.235653</v>
       </c>
       <c r="F122" t="n">
-        <v>0.321503</v>
+        <v>0.321567</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.165768</v>
+        <v>0.165922</v>
       </c>
       <c r="C123" t="n">
-        <v>0.358135</v>
+        <v>0.35897</v>
       </c>
       <c r="D123" t="n">
-        <v>0.438089</v>
+        <v>0.439713</v>
       </c>
       <c r="E123" t="n">
-        <v>0.250241</v>
+        <v>0.250722</v>
       </c>
       <c r="F123" t="n">
-        <v>0.3364</v>
+        <v>0.336294</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.248841</v>
+        <v>0.248906</v>
       </c>
       <c r="C124" t="n">
-        <v>0.433953</v>
+        <v>0.434297</v>
       </c>
       <c r="D124" t="n">
-        <v>0.427323</v>
+        <v>0.428821</v>
       </c>
       <c r="E124" t="n">
-        <v>0.248352</v>
+        <v>0.248776</v>
       </c>
       <c r="F124" t="n">
-        <v>0.335747</v>
+        <v>0.335763</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.245122</v>
+        <v>0.245089</v>
       </c>
       <c r="C125" t="n">
-        <v>0.43763</v>
+        <v>0.437991</v>
       </c>
       <c r="D125" t="n">
-        <v>0.423541</v>
+        <v>0.424511</v>
       </c>
       <c r="E125" t="n">
-        <v>0.246686</v>
+        <v>0.247049</v>
       </c>
       <c r="F125" t="n">
-        <v>0.334408</v>
+        <v>0.334416</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.24076</v>
+        <v>0.241139</v>
       </c>
       <c r="C126" t="n">
-        <v>0.457251</v>
+        <v>0.457663</v>
       </c>
       <c r="D126" t="n">
-        <v>0.418148</v>
+        <v>0.419472</v>
       </c>
       <c r="E126" t="n">
-        <v>0.245296</v>
+        <v>0.24564</v>
       </c>
       <c r="F126" t="n">
-        <v>0.333111</v>
+        <v>0.333184</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236006</v>
+        <v>0.236405</v>
       </c>
       <c r="C127" t="n">
-        <v>0.466272</v>
+        <v>0.466361</v>
       </c>
       <c r="D127" t="n">
-        <v>0.413806</v>
+        <v>0.414745</v>
       </c>
       <c r="E127" t="n">
-        <v>0.243995</v>
+        <v>0.24421</v>
       </c>
       <c r="F127" t="n">
-        <v>0.331868</v>
+        <v>0.331901</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.230955</v>
+        <v>0.231218</v>
       </c>
       <c r="C128" t="n">
-        <v>0.432616</v>
+        <v>0.433032</v>
       </c>
       <c r="D128" t="n">
-        <v>0.411017</v>
+        <v>0.411915</v>
       </c>
       <c r="E128" t="n">
-        <v>0.24258</v>
+        <v>0.24293</v>
       </c>
       <c r="F128" t="n">
-        <v>0.330653</v>
+        <v>0.330773</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224867</v>
+        <v>0.225077</v>
       </c>
       <c r="C129" t="n">
-        <v>0.37481</v>
+        <v>0.375399</v>
       </c>
       <c r="D129" t="n">
-        <v>0.40406</v>
+        <v>0.405118</v>
       </c>
       <c r="E129" t="n">
-        <v>0.241497</v>
+        <v>0.241676</v>
       </c>
       <c r="F129" t="n">
-        <v>0.329139</v>
+        <v>0.329196</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219379</v>
+        <v>0.219632</v>
       </c>
       <c r="C130" t="n">
-        <v>0.412375</v>
+        <v>0.413358</v>
       </c>
       <c r="D130" t="n">
-        <v>0.399236</v>
+        <v>0.400189</v>
       </c>
       <c r="E130" t="n">
-        <v>0.240527</v>
+        <v>0.240623</v>
       </c>
       <c r="F130" t="n">
-        <v>0.328367</v>
+        <v>0.328387</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.213626</v>
+        <v>0.213972</v>
       </c>
       <c r="C131" t="n">
-        <v>0.40968</v>
+        <v>0.410452</v>
       </c>
       <c r="D131" t="n">
-        <v>0.396659</v>
+        <v>0.397455</v>
       </c>
       <c r="E131" t="n">
-        <v>0.239396</v>
+        <v>0.239597</v>
       </c>
       <c r="F131" t="n">
-        <v>0.327171</v>
+        <v>0.327294</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207758</v>
+        <v>0.208048</v>
       </c>
       <c r="C132" t="n">
-        <v>0.405042</v>
+        <v>0.40603</v>
       </c>
       <c r="D132" t="n">
-        <v>0.395123</v>
+        <v>0.396803</v>
       </c>
       <c r="E132" t="n">
-        <v>0.238269</v>
+        <v>0.238561</v>
       </c>
       <c r="F132" t="n">
-        <v>0.325786</v>
+        <v>0.325862</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.201926</v>
+        <v>0.201975</v>
       </c>
       <c r="C133" t="n">
-        <v>0.410699</v>
+        <v>0.410995</v>
       </c>
       <c r="D133" t="n">
-        <v>0.390705</v>
+        <v>0.39054</v>
       </c>
       <c r="E133" t="n">
-        <v>0.237716</v>
+        <v>0.237839</v>
       </c>
       <c r="F133" t="n">
-        <v>0.324944</v>
+        <v>0.324999</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.195438</v>
+        <v>0.195279</v>
       </c>
       <c r="C134" t="n">
-        <v>0.373452</v>
+        <v>0.373911</v>
       </c>
       <c r="D134" t="n">
-        <v>0.389265</v>
+        <v>0.389533</v>
       </c>
       <c r="E134" t="n">
-        <v>0.236766</v>
+        <v>0.237315</v>
       </c>
       <c r="F134" t="n">
-        <v>0.32418</v>
+        <v>0.324278</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187583</v>
+        <v>0.188359</v>
       </c>
       <c r="C135" t="n">
-        <v>0.400336</v>
+        <v>0.401238</v>
       </c>
       <c r="D135" t="n">
-        <v>0.454283</v>
+        <v>0.456311</v>
       </c>
       <c r="E135" t="n">
-        <v>0.236053</v>
+        <v>0.236409</v>
       </c>
       <c r="F135" t="n">
-        <v>0.322266</v>
+        <v>0.322301</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178758</v>
+        <v>0.178548</v>
       </c>
       <c r="C136" t="n">
-        <v>0.350053</v>
+        <v>0.350024</v>
       </c>
       <c r="D136" t="n">
-        <v>0.449329</v>
+        <v>0.452466</v>
       </c>
       <c r="E136" t="n">
-        <v>0.235415</v>
+        <v>0.236027</v>
       </c>
       <c r="F136" t="n">
-        <v>0.322687</v>
+        <v>0.32273</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168067</v>
+        <v>0.168418</v>
       </c>
       <c r="C137" t="n">
-        <v>0.363068</v>
+        <v>0.364</v>
       </c>
       <c r="D137" t="n">
-        <v>0.441826</v>
+        <v>0.443647</v>
       </c>
       <c r="E137" t="n">
-        <v>0.250601</v>
+        <v>0.251018</v>
       </c>
       <c r="F137" t="n">
-        <v>0.337662</v>
+        <v>0.337821</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.248669</v>
+        <v>0.248397</v>
       </c>
       <c r="C138" t="n">
-        <v>0.426088</v>
+        <v>0.427149</v>
       </c>
       <c r="D138" t="n">
-        <v>0.434132</v>
+        <v>0.436123</v>
       </c>
       <c r="E138" t="n">
-        <v>0.248725</v>
+        <v>0.249134</v>
       </c>
       <c r="F138" t="n">
-        <v>0.335666</v>
+        <v>0.336052</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.245542</v>
+        <v>0.245613</v>
       </c>
       <c r="C139" t="n">
-        <v>0.477557</v>
+        <v>0.478806</v>
       </c>
       <c r="D139" t="n">
-        <v>0.427475</v>
+        <v>0.429684</v>
       </c>
       <c r="E139" t="n">
-        <v>0.246894</v>
+        <v>0.247403</v>
       </c>
       <c r="F139" t="n">
-        <v>0.334032</v>
+        <v>0.334262</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.241443</v>
+        <v>0.241409</v>
       </c>
       <c r="C140" t="n">
-        <v>0.46862</v>
+        <v>0.470499</v>
       </c>
       <c r="D140" t="n">
-        <v>0.426031</v>
+        <v>0.427962</v>
       </c>
       <c r="E140" t="n">
-        <v>0.245525</v>
+        <v>0.245841</v>
       </c>
       <c r="F140" t="n">
-        <v>0.333229</v>
+        <v>0.333401</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236221</v>
+        <v>0.236165</v>
       </c>
       <c r="C141" t="n">
-        <v>0.479002</v>
+        <v>0.480235</v>
       </c>
       <c r="D141" t="n">
-        <v>0.417068</v>
+        <v>0.41913</v>
       </c>
       <c r="E141" t="n">
-        <v>0.244208</v>
+        <v>0.24455</v>
       </c>
       <c r="F141" t="n">
-        <v>0.331997</v>
+        <v>0.33216</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.230867</v>
+        <v>0.231161</v>
       </c>
       <c r="C142" t="n">
-        <v>0.36002</v>
+        <v>0.360089</v>
       </c>
       <c r="D142" t="n">
-        <v>0.412104</v>
+        <v>0.4139</v>
       </c>
       <c r="E142" t="n">
-        <v>0.242944</v>
+        <v>0.243285</v>
       </c>
       <c r="F142" t="n">
-        <v>0.3302</v>
+        <v>0.330326</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225691</v>
+        <v>0.226038</v>
       </c>
       <c r="C143" t="n">
-        <v>0.448421</v>
+        <v>0.449736</v>
       </c>
       <c r="D143" t="n">
-        <v>0.407417</v>
+        <v>0.40934</v>
       </c>
       <c r="E143" t="n">
-        <v>0.241662</v>
+        <v>0.242953</v>
       </c>
       <c r="F143" t="n">
-        <v>0.328342</v>
+        <v>0.32858</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.200294</v>
+        <v>0.19288</v>
       </c>
       <c r="C2" t="n">
-        <v>0.31659</v>
+        <v>0.314219</v>
       </c>
       <c r="D2" t="n">
-        <v>0.305634</v>
+        <v>0.305713</v>
       </c>
       <c r="E2" t="n">
-        <v>0.210783</v>
+        <v>0.134878</v>
       </c>
       <c r="F2" t="n">
-        <v>0.317267</v>
+        <v>0.259985</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194011</v>
+        <v>0.192911</v>
       </c>
       <c r="C3" t="n">
-        <v>0.313723</v>
+        <v>0.313436</v>
       </c>
       <c r="D3" t="n">
-        <v>0.307652</v>
+        <v>0.308768</v>
       </c>
       <c r="E3" t="n">
-        <v>0.211491</v>
+        <v>0.131932</v>
       </c>
       <c r="F3" t="n">
-        <v>0.317262</v>
+        <v>0.259172</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.189252</v>
+        <v>0.187014</v>
       </c>
       <c r="C4" t="n">
-        <v>0.30793</v>
+        <v>0.31272</v>
       </c>
       <c r="D4" t="n">
-        <v>0.309183</v>
+        <v>0.307731</v>
       </c>
       <c r="E4" t="n">
-        <v>0.214307</v>
+        <v>0.130815</v>
       </c>
       <c r="F4" t="n">
-        <v>0.315485</v>
+        <v>0.256069</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182401</v>
+        <v>0.181091</v>
       </c>
       <c r="C5" t="n">
-        <v>0.307774</v>
+        <v>0.306084</v>
       </c>
       <c r="D5" t="n">
-        <v>0.30952</v>
+        <v>0.308401</v>
       </c>
       <c r="E5" t="n">
-        <v>0.215395</v>
+        <v>0.129722</v>
       </c>
       <c r="F5" t="n">
-        <v>0.31487</v>
+        <v>0.252037</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.176159</v>
+        <v>0.17636</v>
       </c>
       <c r="C6" t="n">
-        <v>0.300265</v>
+        <v>0.295768</v>
       </c>
       <c r="D6" t="n">
-        <v>0.310051</v>
+        <v>0.309973</v>
       </c>
       <c r="E6" t="n">
-        <v>0.21725</v>
+        <v>0.128864</v>
       </c>
       <c r="F6" t="n">
-        <v>0.313042</v>
+        <v>0.248023</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.167221</v>
+        <v>0.168167</v>
       </c>
       <c r="C7" t="n">
-        <v>0.291435</v>
+        <v>0.291942</v>
       </c>
       <c r="D7" t="n">
-        <v>0.305019</v>
+        <v>0.304579</v>
       </c>
       <c r="E7" t="n">
-        <v>0.218409</v>
+        <v>0.126598</v>
       </c>
       <c r="F7" t="n">
-        <v>0.311836</v>
+        <v>0.244455</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.159039</v>
+        <v>0.158038</v>
       </c>
       <c r="C8" t="n">
-        <v>0.284275</v>
+        <v>0.284843</v>
       </c>
       <c r="D8" t="n">
-        <v>0.304431</v>
+        <v>0.303867</v>
       </c>
       <c r="E8" t="n">
-        <v>0.220225</v>
+        <v>0.122594</v>
       </c>
       <c r="F8" t="n">
-        <v>0.31375</v>
+        <v>0.24176</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148593</v>
+        <v>0.148545</v>
       </c>
       <c r="C9" t="n">
-        <v>0.27137</v>
+        <v>0.276832</v>
       </c>
       <c r="D9" t="n">
-        <v>0.304824</v>
+        <v>0.304236</v>
       </c>
       <c r="E9" t="n">
-        <v>0.234382</v>
+        <v>0.19068</v>
       </c>
       <c r="F9" t="n">
-        <v>0.327079</v>
+        <v>0.289611</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231894</v>
+        <v>0.234823</v>
       </c>
       <c r="C10" t="n">
-        <v>0.347589</v>
+        <v>0.347825</v>
       </c>
       <c r="D10" t="n">
-        <v>0.306654</v>
+        <v>0.305372</v>
       </c>
       <c r="E10" t="n">
-        <v>0.234605</v>
+        <v>0.185403</v>
       </c>
       <c r="F10" t="n">
-        <v>0.326805</v>
+        <v>0.287562</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.228899</v>
+        <v>0.229648</v>
       </c>
       <c r="C11" t="n">
-        <v>0.34601</v>
+        <v>0.346202</v>
       </c>
       <c r="D11" t="n">
-        <v>0.306698</v>
+        <v>0.306016</v>
       </c>
       <c r="E11" t="n">
-        <v>0.235144</v>
+        <v>0.183328</v>
       </c>
       <c r="F11" t="n">
-        <v>0.326537</v>
+        <v>0.285483</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225968</v>
+        <v>0.226793</v>
       </c>
       <c r="C12" t="n">
-        <v>0.342634</v>
+        <v>0.342357</v>
       </c>
       <c r="D12" t="n">
-        <v>0.307243</v>
+        <v>0.307373</v>
       </c>
       <c r="E12" t="n">
-        <v>0.234651</v>
+        <v>0.178882</v>
       </c>
       <c r="F12" t="n">
-        <v>0.327015</v>
+        <v>0.281193</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221901</v>
+        <v>0.224229</v>
       </c>
       <c r="C13" t="n">
-        <v>0.337846</v>
+        <v>0.337858</v>
       </c>
       <c r="D13" t="n">
-        <v>0.30728</v>
+        <v>0.307252</v>
       </c>
       <c r="E13" t="n">
-        <v>0.234475</v>
+        <v>0.175038</v>
       </c>
       <c r="F13" t="n">
-        <v>0.325369</v>
+        <v>0.279329</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.21917</v>
+        <v>0.219188</v>
       </c>
       <c r="C14" t="n">
-        <v>0.333465</v>
+        <v>0.333129</v>
       </c>
       <c r="D14" t="n">
-        <v>0.308434</v>
+        <v>0.308185</v>
       </c>
       <c r="E14" t="n">
-        <v>0.235431</v>
+        <v>0.170924</v>
       </c>
       <c r="F14" t="n">
-        <v>0.323822</v>
+        <v>0.277536</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215639</v>
+        <v>0.215011</v>
       </c>
       <c r="C15" t="n">
-        <v>0.329852</v>
+        <v>0.329962</v>
       </c>
       <c r="D15" t="n">
-        <v>0.307973</v>
+        <v>0.308076</v>
       </c>
       <c r="E15" t="n">
-        <v>0.234297</v>
+        <v>0.168878</v>
       </c>
       <c r="F15" t="n">
-        <v>0.323918</v>
+        <v>0.273853</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211657</v>
+        <v>0.211954</v>
       </c>
       <c r="C16" t="n">
-        <v>0.323665</v>
+        <v>0.324137</v>
       </c>
       <c r="D16" t="n">
-        <v>0.309492</v>
+        <v>0.309267</v>
       </c>
       <c r="E16" t="n">
-        <v>0.234169</v>
+        <v>0.164739</v>
       </c>
       <c r="F16" t="n">
-        <v>0.32215</v>
+        <v>0.270493</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206536</v>
+        <v>0.205986</v>
       </c>
       <c r="C17" t="n">
-        <v>0.315025</v>
+        <v>0.315541</v>
       </c>
       <c r="D17" t="n">
-        <v>0.309044</v>
+        <v>0.309533</v>
       </c>
       <c r="E17" t="n">
-        <v>0.23419</v>
+        <v>0.160605</v>
       </c>
       <c r="F17" t="n">
-        <v>0.323755</v>
+        <v>0.267268</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199522</v>
+        <v>0.199212</v>
       </c>
       <c r="C18" t="n">
-        <v>0.309858</v>
+        <v>0.310555</v>
       </c>
       <c r="D18" t="n">
-        <v>0.311151</v>
+        <v>0.311817</v>
       </c>
       <c r="E18" t="n">
-        <v>0.233685</v>
+        <v>0.156838</v>
       </c>
       <c r="F18" t="n">
-        <v>0.322074</v>
+        <v>0.264681</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.19385</v>
+        <v>0.194668</v>
       </c>
       <c r="C19" t="n">
-        <v>0.30593</v>
+        <v>0.306428</v>
       </c>
       <c r="D19" t="n">
-        <v>0.312665</v>
+        <v>0.312621</v>
       </c>
       <c r="E19" t="n">
-        <v>0.23204</v>
+        <v>0.152609</v>
       </c>
       <c r="F19" t="n">
-        <v>0.320383</v>
+        <v>0.261249</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188353</v>
+        <v>0.188036</v>
       </c>
       <c r="C20" t="n">
-        <v>0.30886</v>
+        <v>0.308934</v>
       </c>
       <c r="D20" t="n">
-        <v>0.311947</v>
+        <v>0.312695</v>
       </c>
       <c r="E20" t="n">
-        <v>0.232676</v>
+        <v>0.149629</v>
       </c>
       <c r="F20" t="n">
-        <v>0.320999</v>
+        <v>0.25857</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181601</v>
+        <v>0.181036</v>
       </c>
       <c r="C21" t="n">
-        <v>0.298816</v>
+        <v>0.298605</v>
       </c>
       <c r="D21" t="n">
-        <v>0.309536</v>
+        <v>0.309655</v>
       </c>
       <c r="E21" t="n">
-        <v>0.231679</v>
+        <v>0.146081</v>
       </c>
       <c r="F21" t="n">
-        <v>0.318785</v>
+        <v>0.253871</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.172699</v>
+        <v>0.172314</v>
       </c>
       <c r="C22" t="n">
-        <v>0.290381</v>
+        <v>0.291105</v>
       </c>
       <c r="D22" t="n">
-        <v>0.309034</v>
+        <v>0.309577</v>
       </c>
       <c r="E22" t="n">
-        <v>0.232512</v>
+        <v>0.141678</v>
       </c>
       <c r="F22" t="n">
-        <v>0.318463</v>
+        <v>0.242767</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.162645</v>
+        <v>0.162642</v>
       </c>
       <c r="C23" t="n">
-        <v>0.275848</v>
+        <v>0.276236</v>
       </c>
       <c r="D23" t="n">
-        <v>0.308508</v>
+        <v>0.309548</v>
       </c>
       <c r="E23" t="n">
-        <v>0.24718</v>
+        <v>0.202942</v>
       </c>
       <c r="F23" t="n">
-        <v>0.334221</v>
+        <v>0.295502</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.24058</v>
+        <v>0.240353</v>
       </c>
       <c r="C24" t="n">
-        <v>0.349125</v>
+        <v>0.349947</v>
       </c>
       <c r="D24" t="n">
-        <v>0.309185</v>
+        <v>0.310165</v>
       </c>
       <c r="E24" t="n">
-        <v>0.245431</v>
+        <v>0.19536</v>
       </c>
       <c r="F24" t="n">
-        <v>0.331984</v>
+        <v>0.291858</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240079</v>
+        <v>0.239947</v>
       </c>
       <c r="C25" t="n">
-        <v>0.348844</v>
+        <v>0.348987</v>
       </c>
       <c r="D25" t="n">
-        <v>0.31071</v>
+        <v>0.310536</v>
       </c>
       <c r="E25" t="n">
-        <v>0.243652</v>
+        <v>0.189694</v>
       </c>
       <c r="F25" t="n">
-        <v>0.331946</v>
+        <v>0.288719</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.235794</v>
+        <v>0.237839</v>
       </c>
       <c r="C26" t="n">
-        <v>0.344656</v>
+        <v>0.345343</v>
       </c>
       <c r="D26" t="n">
-        <v>0.311278</v>
+        <v>0.310219</v>
       </c>
       <c r="E26" t="n">
-        <v>0.242871</v>
+        <v>0.185556</v>
       </c>
       <c r="F26" t="n">
-        <v>0.330463</v>
+        <v>0.28657</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.231038</v>
+        <v>0.231797</v>
       </c>
       <c r="C27" t="n">
-        <v>0.33982</v>
+        <v>0.340318</v>
       </c>
       <c r="D27" t="n">
-        <v>0.311436</v>
+        <v>0.310966</v>
       </c>
       <c r="E27" t="n">
-        <v>0.242055</v>
+        <v>0.182645</v>
       </c>
       <c r="F27" t="n">
-        <v>0.329064</v>
+        <v>0.282902</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.22801</v>
+        <v>0.227392</v>
       </c>
       <c r="C28" t="n">
-        <v>0.335131</v>
+        <v>0.333096</v>
       </c>
       <c r="D28" t="n">
-        <v>0.311712</v>
+        <v>0.311765</v>
       </c>
       <c r="E28" t="n">
-        <v>0.240614</v>
+        <v>0.177826</v>
       </c>
       <c r="F28" t="n">
-        <v>0.329066</v>
+        <v>0.279774</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.226084</v>
+        <v>0.224131</v>
       </c>
       <c r="C29" t="n">
-        <v>0.330743</v>
+        <v>0.330883</v>
       </c>
       <c r="D29" t="n">
-        <v>0.312177</v>
+        <v>0.312303</v>
       </c>
       <c r="E29" t="n">
-        <v>0.240726</v>
+        <v>0.174832</v>
       </c>
       <c r="F29" t="n">
-        <v>0.326823</v>
+        <v>0.277796</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.219145</v>
+        <v>0.218361</v>
       </c>
       <c r="C30" t="n">
-        <v>0.329212</v>
+        <v>0.328172</v>
       </c>
       <c r="D30" t="n">
-        <v>0.31228</v>
+        <v>0.312967</v>
       </c>
       <c r="E30" t="n">
-        <v>0.239483</v>
+        <v>0.171042</v>
       </c>
       <c r="F30" t="n">
-        <v>0.326446</v>
+        <v>0.275026</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.21278</v>
+        <v>0.211933</v>
       </c>
       <c r="C31" t="n">
-        <v>0.326383</v>
+        <v>0.324785</v>
       </c>
       <c r="D31" t="n">
-        <v>0.31316</v>
+        <v>0.31408</v>
       </c>
       <c r="E31" t="n">
-        <v>0.238519</v>
+        <v>0.166235</v>
       </c>
       <c r="F31" t="n">
-        <v>0.324436</v>
+        <v>0.270823</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20693</v>
+        <v>0.20717</v>
       </c>
       <c r="C32" t="n">
-        <v>0.320809</v>
+        <v>0.321969</v>
       </c>
       <c r="D32" t="n">
-        <v>0.314911</v>
+        <v>0.314567</v>
       </c>
       <c r="E32" t="n">
-        <v>0.237578</v>
+        <v>0.162314</v>
       </c>
       <c r="F32" t="n">
-        <v>0.323942</v>
+        <v>0.266643</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201707</v>
+        <v>0.201864</v>
       </c>
       <c r="C33" t="n">
-        <v>0.315441</v>
+        <v>0.315245</v>
       </c>
       <c r="D33" t="n">
-        <v>0.315498</v>
+        <v>0.315482</v>
       </c>
       <c r="E33" t="n">
-        <v>0.236959</v>
+        <v>0.158144</v>
       </c>
       <c r="F33" t="n">
-        <v>0.323423</v>
+        <v>0.263565</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195122</v>
+        <v>0.195438</v>
       </c>
       <c r="C34" t="n">
-        <v>0.311769</v>
+        <v>0.308794</v>
       </c>
       <c r="D34" t="n">
-        <v>0.317342</v>
+        <v>0.317103</v>
       </c>
       <c r="E34" t="n">
-        <v>0.23607</v>
+        <v>0.155911</v>
       </c>
       <c r="F34" t="n">
-        <v>0.322317</v>
+        <v>0.260834</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.188229</v>
+        <v>0.188639</v>
       </c>
       <c r="C35" t="n">
-        <v>0.297461</v>
+        <v>0.296648</v>
       </c>
       <c r="D35" t="n">
-        <v>0.313147</v>
+        <v>0.313182</v>
       </c>
       <c r="E35" t="n">
-        <v>0.23513</v>
+        <v>0.151146</v>
       </c>
       <c r="F35" t="n">
-        <v>0.320055</v>
+        <v>0.25648</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.17974</v>
+        <v>0.180211</v>
       </c>
       <c r="C36" t="n">
-        <v>0.286527</v>
+        <v>0.286087</v>
       </c>
       <c r="D36" t="n">
-        <v>0.313537</v>
+        <v>0.314056</v>
       </c>
       <c r="E36" t="n">
-        <v>0.235115</v>
+        <v>0.147259</v>
       </c>
       <c r="F36" t="n">
-        <v>0.319481</v>
+        <v>0.247241</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170466</v>
+        <v>0.170923</v>
       </c>
       <c r="C37" t="n">
-        <v>0.279347</v>
+        <v>0.280254</v>
       </c>
       <c r="D37" t="n">
-        <v>0.313651</v>
+        <v>0.313461</v>
       </c>
       <c r="E37" t="n">
-        <v>0.249417</v>
+        <v>0.201711</v>
       </c>
       <c r="F37" t="n">
-        <v>0.336108</v>
+        <v>0.295627</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247895</v>
+        <v>0.247669</v>
       </c>
       <c r="C38" t="n">
-        <v>0.35977</v>
+        <v>0.355349</v>
       </c>
       <c r="D38" t="n">
-        <v>0.313074</v>
+        <v>0.313463</v>
       </c>
       <c r="E38" t="n">
-        <v>0.246857</v>
+        <v>0.200166</v>
       </c>
       <c r="F38" t="n">
-        <v>0.334616</v>
+        <v>0.291683</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.245044</v>
+        <v>0.244936</v>
       </c>
       <c r="C39" t="n">
-        <v>0.356515</v>
+        <v>0.356806</v>
       </c>
       <c r="D39" t="n">
-        <v>0.313262</v>
+        <v>0.313415</v>
       </c>
       <c r="E39" t="n">
-        <v>0.245825</v>
+        <v>0.192162</v>
       </c>
       <c r="F39" t="n">
-        <v>0.333746</v>
+        <v>0.291628</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.242089</v>
+        <v>0.240341</v>
       </c>
       <c r="C40" t="n">
-        <v>0.352865</v>
+        <v>0.34961</v>
       </c>
       <c r="D40" t="n">
-        <v>0.313088</v>
+        <v>0.312577</v>
       </c>
       <c r="E40" t="n">
-        <v>0.244848</v>
+        <v>0.190987</v>
       </c>
       <c r="F40" t="n">
-        <v>0.332755</v>
+        <v>0.287785</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.236219</v>
+        <v>0.23547</v>
       </c>
       <c r="C41" t="n">
-        <v>0.347693</v>
+        <v>0.348497</v>
       </c>
       <c r="D41" t="n">
-        <v>0.31364</v>
+        <v>0.313263</v>
       </c>
       <c r="E41" t="n">
-        <v>0.243459</v>
+        <v>0.188134</v>
       </c>
       <c r="F41" t="n">
-        <v>0.331724</v>
+        <v>0.284788</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.231572</v>
+        <v>0.231402</v>
       </c>
       <c r="C42" t="n">
-        <v>0.343132</v>
+        <v>0.342932</v>
       </c>
       <c r="D42" t="n">
-        <v>0.313913</v>
+        <v>0.314224</v>
       </c>
       <c r="E42" t="n">
-        <v>0.242263</v>
+        <v>0.183057</v>
       </c>
       <c r="F42" t="n">
-        <v>0.330036</v>
+        <v>0.281563</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.226505</v>
+        <v>0.227398</v>
       </c>
       <c r="C43" t="n">
-        <v>0.337874</v>
+        <v>0.337942</v>
       </c>
       <c r="D43" t="n">
-        <v>0.313705</v>
+        <v>0.313974</v>
       </c>
       <c r="E43" t="n">
-        <v>0.241246</v>
+        <v>0.177781</v>
       </c>
       <c r="F43" t="n">
-        <v>0.328957</v>
+        <v>0.279197</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220847</v>
+        <v>0.221319</v>
       </c>
       <c r="C44" t="n">
-        <v>0.325115</v>
+        <v>0.325011</v>
       </c>
       <c r="D44" t="n">
-        <v>0.314729</v>
+        <v>0.31537</v>
       </c>
       <c r="E44" t="n">
-        <v>0.239775</v>
+        <v>0.171628</v>
       </c>
       <c r="F44" t="n">
-        <v>0.327937</v>
+        <v>0.275702</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215666</v>
+        <v>0.215486</v>
       </c>
       <c r="C45" t="n">
-        <v>0.334929</v>
+        <v>0.334424</v>
       </c>
       <c r="D45" t="n">
-        <v>0.315024</v>
+        <v>0.315352</v>
       </c>
       <c r="E45" t="n">
-        <v>0.239018</v>
+        <v>0.168847</v>
       </c>
       <c r="F45" t="n">
-        <v>0.327184</v>
+        <v>0.272049</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209924</v>
+        <v>0.209987</v>
       </c>
       <c r="C46" t="n">
-        <v>0.321509</v>
+        <v>0.321593</v>
       </c>
       <c r="D46" t="n">
-        <v>0.316302</v>
+        <v>0.316645</v>
       </c>
       <c r="E46" t="n">
-        <v>0.238147</v>
+        <v>0.164532</v>
       </c>
       <c r="F46" t="n">
-        <v>0.325414</v>
+        <v>0.269193</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.20454</v>
+        <v>0.204077</v>
       </c>
       <c r="C47" t="n">
-        <v>0.319026</v>
+        <v>0.317929</v>
       </c>
       <c r="D47" t="n">
-        <v>0.317158</v>
+        <v>0.317242</v>
       </c>
       <c r="E47" t="n">
-        <v>0.237426</v>
+        <v>0.160765</v>
       </c>
       <c r="F47" t="n">
-        <v>0.325289</v>
+        <v>0.265703</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198779</v>
+        <v>0.199058</v>
       </c>
       <c r="C48" t="n">
-        <v>0.305737</v>
+        <v>0.30585</v>
       </c>
       <c r="D48" t="n">
-        <v>0.317181</v>
+        <v>0.317509</v>
       </c>
       <c r="E48" t="n">
-        <v>0.236525</v>
+        <v>0.158221</v>
       </c>
       <c r="F48" t="n">
-        <v>0.323705</v>
+        <v>0.260079</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191496</v>
+        <v>0.191344</v>
       </c>
       <c r="C49" t="n">
-        <v>0.303486</v>
+        <v>0.301733</v>
       </c>
       <c r="D49" t="n">
-        <v>0.318904</v>
+        <v>0.319455</v>
       </c>
       <c r="E49" t="n">
-        <v>0.23574</v>
+        <v>0.154152</v>
       </c>
       <c r="F49" t="n">
-        <v>0.323141</v>
+        <v>0.258507</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.184163</v>
+        <v>0.183556</v>
       </c>
       <c r="C50" t="n">
-        <v>0.29839</v>
+        <v>0.299791</v>
       </c>
       <c r="D50" t="n">
-        <v>0.318239</v>
+        <v>0.318144</v>
       </c>
       <c r="E50" t="n">
-        <v>0.23523</v>
+        <v>0.149994</v>
       </c>
       <c r="F50" t="n">
-        <v>0.322115</v>
+        <v>0.254927</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175465</v>
+        <v>0.175117</v>
       </c>
       <c r="C51" t="n">
-        <v>0.285761</v>
+        <v>0.286184</v>
       </c>
       <c r="D51" t="n">
-        <v>0.317293</v>
+        <v>0.319644</v>
       </c>
       <c r="E51" t="n">
-        <v>0.249789</v>
+        <v>0.206646</v>
       </c>
       <c r="F51" t="n">
-        <v>0.336864</v>
+        <v>0.299276</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.164251</v>
+        <v>0.16353</v>
       </c>
       <c r="C52" t="n">
-        <v>0.281362</v>
+        <v>0.282104</v>
       </c>
       <c r="D52" t="n">
-        <v>0.319716</v>
+        <v>0.31993</v>
       </c>
       <c r="E52" t="n">
-        <v>0.248506</v>
+        <v>0.199056</v>
       </c>
       <c r="F52" t="n">
-        <v>0.335811</v>
+        <v>0.295572</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246488</v>
+        <v>0.245858</v>
       </c>
       <c r="C53" t="n">
-        <v>0.358332</v>
+        <v>0.359625</v>
       </c>
       <c r="D53" t="n">
-        <v>0.319106</v>
+        <v>0.320927</v>
       </c>
       <c r="E53" t="n">
-        <v>0.247051</v>
+        <v>0.199934</v>
       </c>
       <c r="F53" t="n">
-        <v>0.334045</v>
+        <v>0.292637</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242325</v>
+        <v>0.242113</v>
       </c>
       <c r="C54" t="n">
-        <v>0.356531</v>
+        <v>0.356962</v>
       </c>
       <c r="D54" t="n">
-        <v>0.321221</v>
+        <v>0.320694</v>
       </c>
       <c r="E54" t="n">
-        <v>0.245328</v>
+        <v>0.193502</v>
       </c>
       <c r="F54" t="n">
-        <v>0.332988</v>
+        <v>0.288879</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.240009</v>
+        <v>0.238286</v>
       </c>
       <c r="C55" t="n">
-        <v>0.352518</v>
+        <v>0.35376</v>
       </c>
       <c r="D55" t="n">
-        <v>0.321745</v>
+        <v>0.322409</v>
       </c>
       <c r="E55" t="n">
-        <v>0.244245</v>
+        <v>0.187347</v>
       </c>
       <c r="F55" t="n">
-        <v>0.33128</v>
+        <v>0.285629</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233661</v>
+        <v>0.233715</v>
       </c>
       <c r="C56" t="n">
-        <v>0.348603</v>
+        <v>0.350832</v>
       </c>
       <c r="D56" t="n">
-        <v>0.32322</v>
+        <v>0.323244</v>
       </c>
       <c r="E56" t="n">
-        <v>0.242896</v>
+        <v>0.184436</v>
       </c>
       <c r="F56" t="n">
-        <v>0.330007</v>
+        <v>0.283133</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228756</v>
+        <v>0.228609</v>
       </c>
       <c r="C57" t="n">
-        <v>0.344726</v>
+        <v>0.344457</v>
       </c>
       <c r="D57" t="n">
-        <v>0.323847</v>
+        <v>0.323515</v>
       </c>
       <c r="E57" t="n">
-        <v>0.241893</v>
+        <v>0.179314</v>
       </c>
       <c r="F57" t="n">
-        <v>0.328629</v>
+        <v>0.280301</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223043</v>
+        <v>0.222983</v>
       </c>
       <c r="C58" t="n">
-        <v>0.32629</v>
+        <v>0.326194</v>
       </c>
       <c r="D58" t="n">
-        <v>0.326065</v>
+        <v>0.326241</v>
       </c>
       <c r="E58" t="n">
-        <v>0.241006</v>
+        <v>0.173469</v>
       </c>
       <c r="F58" t="n">
-        <v>0.327566</v>
+        <v>0.277082</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217913</v>
+        <v>0.217745</v>
       </c>
       <c r="C59" t="n">
-        <v>0.337615</v>
+        <v>0.337182</v>
       </c>
       <c r="D59" t="n">
-        <v>0.328026</v>
+        <v>0.328389</v>
       </c>
       <c r="E59" t="n">
-        <v>0.239961</v>
+        <v>0.169858</v>
       </c>
       <c r="F59" t="n">
-        <v>0.326991</v>
+        <v>0.273399</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212604</v>
+        <v>0.212284</v>
       </c>
       <c r="C60" t="n">
-        <v>0.317475</v>
+        <v>0.31768</v>
       </c>
       <c r="D60" t="n">
-        <v>0.329548</v>
+        <v>0.329896</v>
       </c>
       <c r="E60" t="n">
-        <v>0.238876</v>
+        <v>0.166036</v>
       </c>
       <c r="F60" t="n">
-        <v>0.32568</v>
+        <v>0.269867</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206707</v>
+        <v>0.206326</v>
       </c>
       <c r="C61" t="n">
-        <v>0.324786</v>
+        <v>0.323479</v>
       </c>
       <c r="D61" t="n">
-        <v>0.330829</v>
+        <v>0.330436</v>
       </c>
       <c r="E61" t="n">
-        <v>0.237998</v>
+        <v>0.162476</v>
       </c>
       <c r="F61" t="n">
-        <v>0.324888</v>
+        <v>0.266484</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.20106</v>
+        <v>0.200326</v>
       </c>
       <c r="C62" t="n">
-        <v>0.316154</v>
+        <v>0.314682</v>
       </c>
       <c r="D62" t="n">
-        <v>0.332904</v>
+        <v>0.331996</v>
       </c>
       <c r="E62" t="n">
-        <v>0.23735</v>
+        <v>0.159977</v>
       </c>
       <c r="F62" t="n">
-        <v>0.32411</v>
+        <v>0.263509</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194299</v>
+        <v>0.194187</v>
       </c>
       <c r="C63" t="n">
-        <v>0.327755</v>
+        <v>0.328234</v>
       </c>
       <c r="D63" t="n">
-        <v>0.337114</v>
+        <v>0.336252</v>
       </c>
       <c r="E63" t="n">
-        <v>0.236558</v>
+        <v>0.155838</v>
       </c>
       <c r="F63" t="n">
-        <v>0.323591</v>
+        <v>0.259833</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187076</v>
+        <v>0.186793</v>
       </c>
       <c r="C64" t="n">
-        <v>0.312674</v>
+        <v>0.312932</v>
       </c>
       <c r="D64" t="n">
-        <v>0.377123</v>
+        <v>0.375564</v>
       </c>
       <c r="E64" t="n">
-        <v>0.235616</v>
+        <v>0.151692</v>
       </c>
       <c r="F64" t="n">
-        <v>0.321736</v>
+        <v>0.256018</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177598</v>
+        <v>0.177395</v>
       </c>
       <c r="C65" t="n">
-        <v>0.327485</v>
+        <v>0.327278</v>
       </c>
       <c r="D65" t="n">
-        <v>0.377157</v>
+        <v>0.376803</v>
       </c>
       <c r="E65" t="n">
-        <v>0.234731</v>
+        <v>0.148178</v>
       </c>
       <c r="F65" t="n">
-        <v>0.321094</v>
+        <v>0.248599</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167343</v>
+        <v>0.167764</v>
       </c>
       <c r="C66" t="n">
-        <v>0.302196</v>
+        <v>0.303169</v>
       </c>
       <c r="D66" t="n">
-        <v>0.377127</v>
+        <v>0.378592</v>
       </c>
       <c r="E66" t="n">
-        <v>0.249132</v>
+        <v>0.20076</v>
       </c>
       <c r="F66" t="n">
-        <v>0.337277</v>
+        <v>0.297577</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247356</v>
+        <v>0.247624</v>
       </c>
       <c r="C67" t="n">
-        <v>0.452807</v>
+        <v>0.450219</v>
       </c>
       <c r="D67" t="n">
-        <v>0.378582</v>
+        <v>0.376291</v>
       </c>
       <c r="E67" t="n">
-        <v>0.247716</v>
+        <v>0.197816</v>
       </c>
       <c r="F67" t="n">
-        <v>0.335927</v>
+        <v>0.29366</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243936</v>
+        <v>0.2445</v>
       </c>
       <c r="C68" t="n">
-        <v>0.370495</v>
+        <v>0.369461</v>
       </c>
       <c r="D68" t="n">
-        <v>0.379172</v>
+        <v>0.378223</v>
       </c>
       <c r="E68" t="n">
-        <v>0.246098</v>
+        <v>0.193418</v>
       </c>
       <c r="F68" t="n">
-        <v>0.334203</v>
+        <v>0.290743</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240184</v>
+        <v>0.240639</v>
       </c>
       <c r="C69" t="n">
-        <v>0.367637</v>
+        <v>0.367026</v>
       </c>
       <c r="D69" t="n">
-        <v>0.379839</v>
+        <v>0.380122</v>
       </c>
       <c r="E69" t="n">
-        <v>0.244838</v>
+        <v>0.190587</v>
       </c>
       <c r="F69" t="n">
-        <v>0.333169</v>
+        <v>0.287397</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2352</v>
+        <v>0.235094</v>
       </c>
       <c r="C70" t="n">
-        <v>0.362796</v>
+        <v>0.362396</v>
       </c>
       <c r="D70" t="n">
-        <v>0.379783</v>
+        <v>0.378766</v>
       </c>
       <c r="E70" t="n">
-        <v>0.243663</v>
+        <v>0.186369</v>
       </c>
       <c r="F70" t="n">
-        <v>0.331455</v>
+        <v>0.283947</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230495</v>
+        <v>0.230337</v>
       </c>
       <c r="C71" t="n">
-        <v>0.357744</v>
+        <v>0.357668</v>
       </c>
       <c r="D71" t="n">
-        <v>0.380222</v>
+        <v>0.380167</v>
       </c>
       <c r="E71" t="n">
-        <v>0.242387</v>
+        <v>0.180957</v>
       </c>
       <c r="F71" t="n">
-        <v>0.330828</v>
+        <v>0.276935</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225007</v>
+        <v>0.224825</v>
       </c>
       <c r="C72" t="n">
-        <v>0.479638</v>
+        <v>0.480527</v>
       </c>
       <c r="D72" t="n">
-        <v>0.382886</v>
+        <v>0.382096</v>
       </c>
       <c r="E72" t="n">
-        <v>0.241049</v>
+        <v>0.177826</v>
       </c>
       <c r="F72" t="n">
-        <v>0.329697</v>
+        <v>0.273853</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.220459</v>
+        <v>0.219353</v>
       </c>
       <c r="C73" t="n">
-        <v>0.418738</v>
+        <v>0.419233</v>
       </c>
       <c r="D73" t="n">
-        <v>0.380955</v>
+        <v>0.380628</v>
       </c>
       <c r="E73" t="n">
-        <v>0.240195</v>
+        <v>0.171148</v>
       </c>
       <c r="F73" t="n">
-        <v>0.328058</v>
+        <v>0.270596</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213485</v>
+        <v>0.213632</v>
       </c>
       <c r="C74" t="n">
-        <v>0.475135</v>
+        <v>0.476403</v>
       </c>
       <c r="D74" t="n">
-        <v>0.38026</v>
+        <v>0.37953</v>
       </c>
       <c r="E74" t="n">
-        <v>0.239362</v>
+        <v>0.168806</v>
       </c>
       <c r="F74" t="n">
-        <v>0.326849</v>
+        <v>0.271089</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.208793</v>
+        <v>0.208227</v>
       </c>
       <c r="C75" t="n">
-        <v>0.467507</v>
+        <v>0.468632</v>
       </c>
       <c r="D75" t="n">
-        <v>0.379313</v>
+        <v>0.37786</v>
       </c>
       <c r="E75" t="n">
-        <v>0.238281</v>
+        <v>0.16575</v>
       </c>
       <c r="F75" t="n">
-        <v>0.326113</v>
+        <v>0.263827</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.20228</v>
+        <v>0.202363</v>
       </c>
       <c r="C76" t="n">
-        <v>0.42337</v>
+        <v>0.424993</v>
       </c>
       <c r="D76" t="n">
-        <v>0.380489</v>
+        <v>0.379849</v>
       </c>
       <c r="E76" t="n">
-        <v>0.237486</v>
+        <v>0.161674</v>
       </c>
       <c r="F76" t="n">
-        <v>0.325159</v>
+        <v>0.264478</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19609</v>
+        <v>0.196341</v>
       </c>
       <c r="C77" t="n">
-        <v>0.395883</v>
+        <v>0.396736</v>
       </c>
       <c r="D77" t="n">
-        <v>0.381225</v>
+        <v>0.381272</v>
       </c>
       <c r="E77" t="n">
-        <v>0.23664</v>
+        <v>0.156724</v>
       </c>
       <c r="F77" t="n">
-        <v>0.32335</v>
+        <v>0.26086</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188997</v>
+        <v>0.189049</v>
       </c>
       <c r="C78" t="n">
-        <v>0.405367</v>
+        <v>0.406585</v>
       </c>
       <c r="D78" t="n">
-        <v>0.437504</v>
+        <v>0.436862</v>
       </c>
       <c r="E78" t="n">
-        <v>0.235873</v>
+        <v>0.153422</v>
       </c>
       <c r="F78" t="n">
-        <v>0.323219</v>
+        <v>0.256861</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179597</v>
+        <v>0.179772</v>
       </c>
       <c r="C79" t="n">
-        <v>0.324828</v>
+        <v>0.325106</v>
       </c>
       <c r="D79" t="n">
-        <v>0.433362</v>
+        <v>0.435178</v>
       </c>
       <c r="E79" t="n">
-        <v>0.235101</v>
+        <v>0.149754</v>
       </c>
       <c r="F79" t="n">
-        <v>0.322829</v>
+        <v>0.253376</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170397</v>
+        <v>0.170693</v>
       </c>
       <c r="C80" t="n">
-        <v>0.370067</v>
+        <v>0.370876</v>
       </c>
       <c r="D80" t="n">
-        <v>0.427834</v>
+        <v>0.428868</v>
       </c>
       <c r="E80" t="n">
-        <v>0.252142</v>
+        <v>0.204531</v>
       </c>
       <c r="F80" t="n">
-        <v>0.336621</v>
+        <v>0.29837</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248981</v>
+        <v>0.24892</v>
       </c>
       <c r="C81" t="n">
-        <v>0.381239</v>
+        <v>0.381047</v>
       </c>
       <c r="D81" t="n">
-        <v>0.426451</v>
+        <v>0.429002</v>
       </c>
       <c r="E81" t="n">
-        <v>0.249863</v>
+        <v>0.201872</v>
       </c>
       <c r="F81" t="n">
-        <v>0.335036</v>
+        <v>0.290781</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245085</v>
+        <v>0.245174</v>
       </c>
       <c r="C82" t="n">
-        <v>0.363286</v>
+        <v>0.362942</v>
       </c>
       <c r="D82" t="n">
-        <v>0.424542</v>
+        <v>0.425089</v>
       </c>
       <c r="E82" t="n">
-        <v>0.247627</v>
+        <v>0.197296</v>
       </c>
       <c r="F82" t="n">
-        <v>0.334641</v>
+        <v>0.291091</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241517</v>
+        <v>0.240848</v>
       </c>
       <c r="C83" t="n">
-        <v>0.357226</v>
+        <v>0.356937</v>
       </c>
       <c r="D83" t="n">
-        <v>0.417808</v>
+        <v>0.418477</v>
       </c>
       <c r="E83" t="n">
-        <v>0.246539</v>
+        <v>0.189858</v>
       </c>
       <c r="F83" t="n">
-        <v>0.332315</v>
+        <v>0.287683</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236257</v>
+        <v>0.236231</v>
       </c>
       <c r="C84" t="n">
-        <v>0.35328</v>
+        <v>0.353146</v>
       </c>
       <c r="D84" t="n">
-        <v>0.41373</v>
+        <v>0.415145</v>
       </c>
       <c r="E84" t="n">
-        <v>0.245102</v>
+        <v>0.187112</v>
       </c>
       <c r="F84" t="n">
-        <v>0.330988</v>
+        <v>0.281082</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232855</v>
+        <v>0.232013</v>
       </c>
       <c r="C85" t="n">
-        <v>0.347277</v>
+        <v>0.367409</v>
       </c>
       <c r="D85" t="n">
-        <v>0.410829</v>
+        <v>0.414665</v>
       </c>
       <c r="E85" t="n">
-        <v>0.243964</v>
+        <v>0.184119</v>
       </c>
       <c r="F85" t="n">
-        <v>0.329616</v>
+        <v>0.277477</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226662</v>
+        <v>0.227327</v>
       </c>
       <c r="C86" t="n">
-        <v>0.342165</v>
+        <v>0.342569</v>
       </c>
       <c r="D86" t="n">
-        <v>0.410225</v>
+        <v>0.4112</v>
       </c>
       <c r="E86" t="n">
-        <v>0.24196</v>
+        <v>0.179415</v>
       </c>
       <c r="F86" t="n">
-        <v>0.329191</v>
+        <v>0.274608</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.221158</v>
+        <v>0.220725</v>
       </c>
       <c r="C87" t="n">
-        <v>0.425921</v>
+        <v>0.427261</v>
       </c>
       <c r="D87" t="n">
-        <v>0.404955</v>
+        <v>0.406195</v>
       </c>
       <c r="E87" t="n">
-        <v>0.240867</v>
+        <v>0.17246</v>
       </c>
       <c r="F87" t="n">
-        <v>0.327866</v>
+        <v>0.271402</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215439</v>
+        <v>0.215321</v>
       </c>
       <c r="C88" t="n">
-        <v>0.435577</v>
+        <v>0.438218</v>
       </c>
       <c r="D88" t="n">
-        <v>0.40383</v>
+        <v>0.403894</v>
       </c>
       <c r="E88" t="n">
-        <v>0.239488</v>
+        <v>0.171496</v>
       </c>
       <c r="F88" t="n">
-        <v>0.326391</v>
+        <v>0.267807</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.210277</v>
+        <v>0.209606</v>
       </c>
       <c r="C89" t="n">
-        <v>0.422412</v>
+        <v>0.425459</v>
       </c>
       <c r="D89" t="n">
-        <v>0.404323</v>
+        <v>0.404261</v>
       </c>
       <c r="E89" t="n">
-        <v>0.238436</v>
+        <v>0.167139</v>
       </c>
       <c r="F89" t="n">
-        <v>0.325541</v>
+        <v>0.264648</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204027</v>
+        <v>0.204244</v>
       </c>
       <c r="C90" t="n">
-        <v>0.407847</v>
+        <v>0.412101</v>
       </c>
       <c r="D90" t="n">
-        <v>0.397493</v>
+        <v>0.398557</v>
       </c>
       <c r="E90" t="n">
-        <v>0.237726</v>
+        <v>0.162457</v>
       </c>
       <c r="F90" t="n">
-        <v>0.324429</v>
+        <v>0.262988</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197532</v>
+        <v>0.197862</v>
       </c>
       <c r="C91" t="n">
-        <v>0.370653</v>
+        <v>0.37145</v>
       </c>
       <c r="D91" t="n">
-        <v>0.398327</v>
+        <v>0.399389</v>
       </c>
       <c r="E91" t="n">
-        <v>0.236792</v>
+        <v>0.158095</v>
       </c>
       <c r="F91" t="n">
-        <v>0.323014</v>
+        <v>0.257586</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190307</v>
+        <v>0.190384</v>
       </c>
       <c r="C92" t="n">
-        <v>0.365986</v>
+        <v>0.366729</v>
       </c>
       <c r="D92" t="n">
-        <v>0.448369</v>
+        <v>0.448968</v>
       </c>
       <c r="E92" t="n">
-        <v>0.236067</v>
+        <v>0.154935</v>
       </c>
       <c r="F92" t="n">
-        <v>0.322233</v>
+        <v>0.254028</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181859</v>
+        <v>0.182002</v>
       </c>
       <c r="C93" t="n">
-        <v>0.392273</v>
+        <v>0.393697</v>
       </c>
       <c r="D93" t="n">
-        <v>0.43654</v>
+        <v>0.437424</v>
       </c>
       <c r="E93" t="n">
-        <v>0.235503</v>
+        <v>0.151068</v>
       </c>
       <c r="F93" t="n">
-        <v>0.321578</v>
+        <v>0.254293</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.173683</v>
+        <v>0.173486</v>
       </c>
       <c r="C94" t="n">
-        <v>0.378798</v>
+        <v>0.380379</v>
       </c>
       <c r="D94" t="n">
-        <v>0.437237</v>
+        <v>0.436444</v>
       </c>
       <c r="E94" t="n">
-        <v>0.252203</v>
+        <v>0.203962</v>
       </c>
       <c r="F94" t="n">
-        <v>0.337788</v>
+        <v>0.298495</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249494</v>
+        <v>0.249621</v>
       </c>
       <c r="C95" t="n">
-        <v>0.516684</v>
+        <v>0.51766</v>
       </c>
       <c r="D95" t="n">
-        <v>0.429836</v>
+        <v>0.431977</v>
       </c>
       <c r="E95" t="n">
-        <v>0.250281</v>
+        <v>0.199382</v>
       </c>
       <c r="F95" t="n">
-        <v>0.335443</v>
+        <v>0.294558</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.247305</v>
+        <v>0.247329</v>
       </c>
       <c r="C96" t="n">
-        <v>0.35624</v>
+        <v>0.355892</v>
       </c>
       <c r="D96" t="n">
-        <v>0.426123</v>
+        <v>0.427814</v>
       </c>
       <c r="E96" t="n">
-        <v>0.248332</v>
+        <v>0.194486</v>
       </c>
       <c r="F96" t="n">
-        <v>0.337739</v>
+        <v>0.294058</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.243553</v>
+        <v>0.243346</v>
       </c>
       <c r="C97" t="n">
-        <v>0.351686</v>
+        <v>0.351543</v>
       </c>
       <c r="D97" t="n">
-        <v>0.417279</v>
+        <v>0.418764</v>
       </c>
       <c r="E97" t="n">
-        <v>0.246655</v>
+        <v>0.192927</v>
       </c>
       <c r="F97" t="n">
-        <v>0.335265</v>
+        <v>0.288277</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.239063</v>
+        <v>0.238964</v>
       </c>
       <c r="C98" t="n">
-        <v>0.347421</v>
+        <v>0.347404</v>
       </c>
       <c r="D98" t="n">
-        <v>0.413893</v>
+        <v>0.415431</v>
       </c>
       <c r="E98" t="n">
-        <v>0.24547</v>
+        <v>0.189007</v>
       </c>
       <c r="F98" t="n">
-        <v>0.332383</v>
+        <v>0.284763</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.23423</v>
+        <v>0.234285</v>
       </c>
       <c r="C99" t="n">
-        <v>0.342515</v>
+        <v>0.34255</v>
       </c>
       <c r="D99" t="n">
-        <v>0.41137</v>
+        <v>0.412958</v>
       </c>
       <c r="E99" t="n">
-        <v>0.243597</v>
+        <v>0.183753</v>
       </c>
       <c r="F99" t="n">
-        <v>0.33328</v>
+        <v>0.284285</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228977</v>
+        <v>0.228832</v>
       </c>
       <c r="C100" t="n">
-        <v>0.337354</v>
+        <v>0.337606</v>
       </c>
       <c r="D100" t="n">
-        <v>0.405378</v>
+        <v>0.406998</v>
       </c>
       <c r="E100" t="n">
-        <v>0.24234</v>
+        <v>0.179127</v>
       </c>
       <c r="F100" t="n">
-        <v>0.32966</v>
+        <v>0.278793</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.22334</v>
+        <v>0.223102</v>
       </c>
       <c r="C101" t="n">
-        <v>0.405661</v>
+        <v>0.405861</v>
       </c>
       <c r="D101" t="n">
-        <v>0.402831</v>
+        <v>0.403524</v>
       </c>
       <c r="E101" t="n">
-        <v>0.241434</v>
+        <v>0.175134</v>
       </c>
       <c r="F101" t="n">
-        <v>0.327556</v>
+        <v>0.27546</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.217299</v>
+        <v>0.217273</v>
       </c>
       <c r="C102" t="n">
-        <v>0.396812</v>
+        <v>0.397646</v>
       </c>
       <c r="D102" t="n">
-        <v>0.398099</v>
+        <v>0.399567</v>
       </c>
       <c r="E102" t="n">
-        <v>0.240302</v>
+        <v>0.171023</v>
       </c>
       <c r="F102" t="n">
-        <v>0.327462</v>
+        <v>0.269143</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211506</v>
+        <v>0.211286</v>
       </c>
       <c r="C103" t="n">
-        <v>0.442124</v>
+        <v>0.443911</v>
       </c>
       <c r="D103" t="n">
-        <v>0.395462</v>
+        <v>0.396949</v>
       </c>
       <c r="E103" t="n">
-        <v>0.239207</v>
+        <v>0.166774</v>
       </c>
       <c r="F103" t="n">
-        <v>0.32648</v>
+        <v>0.26915</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.205395</v>
+        <v>0.2054</v>
       </c>
       <c r="C104" t="n">
-        <v>0.399315</v>
+        <v>0.432005</v>
       </c>
       <c r="D104" t="n">
-        <v>0.39349</v>
+        <v>0.394665</v>
       </c>
       <c r="E104" t="n">
-        <v>0.238525</v>
+        <v>0.16224</v>
       </c>
       <c r="F104" t="n">
-        <v>0.325456</v>
+        <v>0.265671</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199085</v>
+        <v>0.199079</v>
       </c>
       <c r="C105" t="n">
-        <v>0.441175</v>
+        <v>0.44293</v>
       </c>
       <c r="D105" t="n">
-        <v>0.39003</v>
+        <v>0.391377</v>
       </c>
       <c r="E105" t="n">
-        <v>0.237593</v>
+        <v>0.159037</v>
       </c>
       <c r="F105" t="n">
-        <v>0.32459</v>
+        <v>0.26224</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192007</v>
+        <v>0.192239</v>
       </c>
       <c r="C106" t="n">
-        <v>0.44744</v>
+        <v>0.449601</v>
       </c>
       <c r="D106" t="n">
-        <v>0.387212</v>
+        <v>0.388709</v>
       </c>
       <c r="E106" t="n">
-        <v>0.237055</v>
+        <v>0.15526</v>
       </c>
       <c r="F106" t="n">
-        <v>0.323584</v>
+        <v>0.258596</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183842</v>
+        <v>0.184061</v>
       </c>
       <c r="C107" t="n">
-        <v>0.406273</v>
+        <v>0.408046</v>
       </c>
       <c r="D107" t="n">
-        <v>0.418637</v>
+        <v>0.421179</v>
       </c>
       <c r="E107" t="n">
-        <v>0.23591</v>
+        <v>0.151967</v>
       </c>
       <c r="F107" t="n">
-        <v>0.321705</v>
+        <v>0.254965</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.175387</v>
+        <v>0.174702</v>
       </c>
       <c r="C108" t="n">
-        <v>0.40377</v>
+        <v>0.40541</v>
       </c>
       <c r="D108" t="n">
-        <v>0.412429</v>
+        <v>0.414458</v>
       </c>
       <c r="E108" t="n">
-        <v>0.252747</v>
+        <v>0.204284</v>
       </c>
       <c r="F108" t="n">
-        <v>0.337519</v>
+        <v>0.299125</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163504</v>
+        <v>0.16355</v>
       </c>
       <c r="C109" t="n">
-        <v>0.390905</v>
+        <v>0.392784</v>
       </c>
       <c r="D109" t="n">
-        <v>0.407942</v>
+        <v>0.409056</v>
       </c>
       <c r="E109" t="n">
-        <v>0.250404</v>
+        <v>0.199833</v>
       </c>
       <c r="F109" t="n">
-        <v>0.335951</v>
+        <v>0.295497</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.248111</v>
+        <v>0.248248</v>
       </c>
       <c r="C110" t="n">
-        <v>0.496956</v>
+        <v>0.499357</v>
       </c>
       <c r="D110" t="n">
-        <v>0.404987</v>
+        <v>0.406478</v>
       </c>
       <c r="E110" t="n">
-        <v>0.248374</v>
+        <v>0.193952</v>
       </c>
       <c r="F110" t="n">
-        <v>0.334382</v>
+        <v>0.291896</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.244232</v>
+        <v>0.244709</v>
       </c>
       <c r="C111" t="n">
-        <v>0.490903</v>
+        <v>0.493367</v>
       </c>
       <c r="D111" t="n">
-        <v>0.401436</v>
+        <v>0.401993</v>
       </c>
       <c r="E111" t="n">
-        <v>0.246722</v>
+        <v>0.190894</v>
       </c>
       <c r="F111" t="n">
-        <v>0.334014</v>
+        <v>0.285403</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.239843</v>
+        <v>0.240274</v>
       </c>
       <c r="C112" t="n">
-        <v>0.511228</v>
+        <v>0.514471</v>
       </c>
       <c r="D112" t="n">
-        <v>0.39745</v>
+        <v>0.398771</v>
       </c>
       <c r="E112" t="n">
-        <v>0.245214</v>
+        <v>0.188862</v>
       </c>
       <c r="F112" t="n">
-        <v>0.332411</v>
+        <v>0.282182</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234992</v>
+        <v>0.235359</v>
       </c>
       <c r="C113" t="n">
-        <v>0.503409</v>
+        <v>0.505922</v>
       </c>
       <c r="D113" t="n">
-        <v>0.393102</v>
+        <v>0.394858</v>
       </c>
       <c r="E113" t="n">
-        <v>0.243694</v>
+        <v>0.181466</v>
       </c>
       <c r="F113" t="n">
-        <v>0.331044</v>
+        <v>0.282005</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229743</v>
+        <v>0.229892</v>
       </c>
       <c r="C114" t="n">
-        <v>0.493774</v>
+        <v>0.496386</v>
       </c>
       <c r="D114" t="n">
-        <v>0.390818</v>
+        <v>0.391822</v>
       </c>
       <c r="E114" t="n">
-        <v>0.242389</v>
+        <v>0.178314</v>
       </c>
       <c r="F114" t="n">
-        <v>0.329992</v>
+        <v>0.27902</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224559</v>
+        <v>0.224384</v>
       </c>
       <c r="C115" t="n">
-        <v>0.432213</v>
+        <v>0.433911</v>
       </c>
       <c r="D115" t="n">
-        <v>0.387407</v>
+        <v>0.389765</v>
       </c>
       <c r="E115" t="n">
-        <v>0.241593</v>
+        <v>0.174425</v>
       </c>
       <c r="F115" t="n">
-        <v>0.327835</v>
+        <v>0.275994</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.218252</v>
+        <v>0.217981</v>
       </c>
       <c r="C116" t="n">
-        <v>0.405092</v>
+        <v>0.406911</v>
       </c>
       <c r="D116" t="n">
-        <v>0.385313</v>
+        <v>0.386057</v>
       </c>
       <c r="E116" t="n">
-        <v>0.240441</v>
+        <v>0.169846</v>
       </c>
       <c r="F116" t="n">
-        <v>0.327922</v>
+        <v>0.271781</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212979</v>
+        <v>0.212772</v>
       </c>
       <c r="C117" t="n">
-        <v>0.384808</v>
+        <v>0.385735</v>
       </c>
       <c r="D117" t="n">
-        <v>0.382233</v>
+        <v>0.383989</v>
       </c>
       <c r="E117" t="n">
-        <v>0.239471</v>
+        <v>0.168039</v>
       </c>
       <c r="F117" t="n">
-        <v>0.325611</v>
+        <v>0.269875</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206693</v>
+        <v>0.206881</v>
       </c>
       <c r="C118" t="n">
-        <v>0.400122</v>
+        <v>0.401398</v>
       </c>
       <c r="D118" t="n">
-        <v>0.380315</v>
+        <v>0.381223</v>
       </c>
       <c r="E118" t="n">
-        <v>0.238532</v>
+        <v>0.163186</v>
       </c>
       <c r="F118" t="n">
-        <v>0.32473</v>
+        <v>0.266471</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200531</v>
+        <v>0.200399</v>
       </c>
       <c r="C119" t="n">
-        <v>0.430271</v>
+        <v>0.432495</v>
       </c>
       <c r="D119" t="n">
-        <v>0.378791</v>
+        <v>0.380986</v>
       </c>
       <c r="E119" t="n">
-        <v>0.237773</v>
+        <v>0.1594</v>
       </c>
       <c r="F119" t="n">
-        <v>0.323724</v>
+        <v>0.262957</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193438</v>
+        <v>0.193654</v>
       </c>
       <c r="C120" t="n">
-        <v>0.397</v>
+        <v>0.398474</v>
       </c>
       <c r="D120" t="n">
-        <v>0.377356</v>
+        <v>0.379112</v>
       </c>
       <c r="E120" t="n">
-        <v>0.236931</v>
+        <v>0.15576</v>
       </c>
       <c r="F120" t="n">
-        <v>0.322891</v>
+        <v>0.259264</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185576</v>
+        <v>0.185824</v>
       </c>
       <c r="C121" t="n">
-        <v>0.403794</v>
+        <v>0.405809</v>
       </c>
       <c r="D121" t="n">
-        <v>0.45114</v>
+        <v>0.445504</v>
       </c>
       <c r="E121" t="n">
-        <v>0.236111</v>
+        <v>0.15241</v>
       </c>
       <c r="F121" t="n">
-        <v>0.322159</v>
+        <v>0.255368</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176692</v>
+        <v>0.176761</v>
       </c>
       <c r="C122" t="n">
-        <v>0.369082</v>
+        <v>0.370182</v>
       </c>
       <c r="D122" t="n">
-        <v>0.443884</v>
+        <v>0.446061</v>
       </c>
       <c r="E122" t="n">
-        <v>0.235403</v>
+        <v>0.148342</v>
       </c>
       <c r="F122" t="n">
-        <v>0.321442</v>
+        <v>0.247373</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.165989</v>
+        <v>0.166134</v>
       </c>
       <c r="C123" t="n">
-        <v>0.357358</v>
+        <v>0.35878</v>
       </c>
       <c r="D123" t="n">
-        <v>0.437165</v>
+        <v>0.441841</v>
       </c>
       <c r="E123" t="n">
-        <v>0.250563</v>
+        <v>0.200889</v>
       </c>
       <c r="F123" t="n">
-        <v>0.336225</v>
+        <v>0.292867</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.248983</v>
+        <v>0.249155</v>
       </c>
       <c r="C124" t="n">
-        <v>0.434298</v>
+        <v>0.434661</v>
       </c>
       <c r="D124" t="n">
-        <v>0.426615</v>
+        <v>0.429142</v>
       </c>
       <c r="E124" t="n">
-        <v>0.248608</v>
+        <v>0.196376</v>
       </c>
       <c r="F124" t="n">
-        <v>0.335609</v>
+        <v>0.289822</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.245293</v>
+        <v>0.245141</v>
       </c>
       <c r="C125" t="n">
-        <v>0.437493</v>
+        <v>0.438372</v>
       </c>
       <c r="D125" t="n">
-        <v>0.422894</v>
+        <v>0.424907</v>
       </c>
       <c r="E125" t="n">
-        <v>0.246865</v>
+        <v>0.191886</v>
       </c>
       <c r="F125" t="n">
-        <v>0.33435</v>
+        <v>0.286254</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.241217</v>
+        <v>0.240794</v>
       </c>
       <c r="C126" t="n">
-        <v>0.457098</v>
+        <v>0.457782</v>
       </c>
       <c r="D126" t="n">
-        <v>0.417566</v>
+        <v>0.419485</v>
       </c>
       <c r="E126" t="n">
-        <v>0.245428</v>
+        <v>0.187361</v>
       </c>
       <c r="F126" t="n">
-        <v>0.333043</v>
+        <v>0.282959</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236198</v>
+        <v>0.235914</v>
       </c>
       <c r="C127" t="n">
-        <v>0.466153</v>
+        <v>0.466346</v>
       </c>
       <c r="D127" t="n">
-        <v>0.412997</v>
+        <v>0.414944</v>
       </c>
       <c r="E127" t="n">
-        <v>0.244086</v>
+        <v>0.183528</v>
       </c>
       <c r="F127" t="n">
-        <v>0.331827</v>
+        <v>0.27975</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.231255</v>
+        <v>0.230958</v>
       </c>
       <c r="C128" t="n">
-        <v>0.432421</v>
+        <v>0.432921</v>
       </c>
       <c r="D128" t="n">
-        <v>0.410965</v>
+        <v>0.412088</v>
       </c>
       <c r="E128" t="n">
-        <v>0.242723</v>
+        <v>0.18246</v>
       </c>
       <c r="F128" t="n">
-        <v>0.330579</v>
+        <v>0.276494</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224918</v>
+        <v>0.224781</v>
       </c>
       <c r="C129" t="n">
-        <v>0.374575</v>
+        <v>0.374945</v>
       </c>
       <c r="D129" t="n">
-        <v>0.404593</v>
+        <v>0.405039</v>
       </c>
       <c r="E129" t="n">
-        <v>0.241538</v>
+        <v>0.175535</v>
       </c>
       <c r="F129" t="n">
-        <v>0.329057</v>
+        <v>0.273185</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219259</v>
+        <v>0.219201</v>
       </c>
       <c r="C130" t="n">
-        <v>0.412278</v>
+        <v>0.412837</v>
       </c>
       <c r="D130" t="n">
-        <v>0.398634</v>
+        <v>0.40448</v>
       </c>
       <c r="E130" t="n">
-        <v>0.240478</v>
+        <v>0.171536</v>
       </c>
       <c r="F130" t="n">
-        <v>0.328231</v>
+        <v>0.271615</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.213657</v>
+        <v>0.213878</v>
       </c>
       <c r="C131" t="n">
-        <v>0.409497</v>
+        <v>0.410165</v>
       </c>
       <c r="D131" t="n">
-        <v>0.396542</v>
+        <v>0.397501</v>
       </c>
       <c r="E131" t="n">
-        <v>0.239406</v>
+        <v>0.168214</v>
       </c>
       <c r="F131" t="n">
-        <v>0.32714</v>
+        <v>0.270375</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.208068</v>
+        <v>0.208092</v>
       </c>
       <c r="C132" t="n">
-        <v>0.404696</v>
+        <v>0.405847</v>
       </c>
       <c r="D132" t="n">
-        <v>0.395157</v>
+        <v>0.395555</v>
       </c>
       <c r="E132" t="n">
-        <v>0.238492</v>
+        <v>0.165032</v>
       </c>
       <c r="F132" t="n">
-        <v>0.325764</v>
+        <v>0.267356</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.202207</v>
+        <v>0.202198</v>
       </c>
       <c r="C133" t="n">
-        <v>0.410326</v>
+        <v>0.410841</v>
       </c>
       <c r="D133" t="n">
-        <v>0.390114</v>
+        <v>0.391563</v>
       </c>
       <c r="E133" t="n">
-        <v>0.237763</v>
+        <v>0.160756</v>
       </c>
       <c r="F133" t="n">
-        <v>0.324856</v>
+        <v>0.260195</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.19559</v>
+        <v>0.195247</v>
       </c>
       <c r="C134" t="n">
-        <v>0.373344</v>
+        <v>0.373831</v>
       </c>
       <c r="D134" t="n">
-        <v>0.389524</v>
+        <v>0.389979</v>
       </c>
       <c r="E134" t="n">
-        <v>0.237007</v>
+        <v>0.157355</v>
       </c>
       <c r="F134" t="n">
-        <v>0.324148</v>
+        <v>0.260013</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187814</v>
+        <v>0.187921</v>
       </c>
       <c r="C135" t="n">
-        <v>0.399766</v>
+        <v>0.401746</v>
       </c>
       <c r="D135" t="n">
-        <v>0.453674</v>
+        <v>0.453254</v>
       </c>
       <c r="E135" t="n">
-        <v>0.236201</v>
+        <v>0.15337</v>
       </c>
       <c r="F135" t="n">
-        <v>0.322212</v>
+        <v>0.256099</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178743</v>
+        <v>0.179229</v>
       </c>
       <c r="C136" t="n">
-        <v>0.349997</v>
+        <v>0.350078</v>
       </c>
       <c r="D136" t="n">
-        <v>0.449192</v>
+        <v>0.451907</v>
       </c>
       <c r="E136" t="n">
-        <v>0.235715</v>
+        <v>0.149784</v>
       </c>
       <c r="F136" t="n">
-        <v>0.322638</v>
+        <v>0.249441</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16808</v>
+        <v>0.168717</v>
       </c>
       <c r="C137" t="n">
-        <v>0.36292</v>
+        <v>0.363606</v>
       </c>
       <c r="D137" t="n">
-        <v>0.441943</v>
+        <v>0.440971</v>
       </c>
       <c r="E137" t="n">
-        <v>0.250849</v>
+        <v>0.201604</v>
       </c>
       <c r="F137" t="n">
-        <v>0.337632</v>
+        <v>0.297049</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.248318</v>
+        <v>0.248757</v>
       </c>
       <c r="C138" t="n">
-        <v>0.425791</v>
+        <v>0.426833</v>
       </c>
       <c r="D138" t="n">
-        <v>0.433604</v>
+        <v>0.435906</v>
       </c>
       <c r="E138" t="n">
-        <v>0.249068</v>
+        <v>0.199967</v>
       </c>
       <c r="F138" t="n">
-        <v>0.335601</v>
+        <v>0.293959</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244928</v>
+        <v>0.245656</v>
       </c>
       <c r="C139" t="n">
-        <v>0.477396</v>
+        <v>0.478812</v>
       </c>
       <c r="D139" t="n">
-        <v>0.4278</v>
+        <v>0.429354</v>
       </c>
       <c r="E139" t="n">
-        <v>0.247423</v>
+        <v>0.194289</v>
       </c>
       <c r="F139" t="n">
-        <v>0.334071</v>
+        <v>0.290115</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.24055</v>
+        <v>0.241513</v>
       </c>
       <c r="C140" t="n">
-        <v>0.468807</v>
+        <v>0.470252</v>
       </c>
       <c r="D140" t="n">
-        <v>0.425777</v>
+        <v>0.427789</v>
       </c>
       <c r="E140" t="n">
-        <v>0.245723</v>
+        <v>0.191371</v>
       </c>
       <c r="F140" t="n">
-        <v>0.333283</v>
+        <v>0.284744</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.23584</v>
+        <v>0.235724</v>
       </c>
       <c r="C141" t="n">
-        <v>0.478192</v>
+        <v>0.48002</v>
       </c>
       <c r="D141" t="n">
-        <v>0.417193</v>
+        <v>0.418907</v>
       </c>
       <c r="E141" t="n">
-        <v>0.244394</v>
+        <v>0.187061</v>
       </c>
       <c r="F141" t="n">
-        <v>0.332019</v>
+        <v>0.280264</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231109</v>
+        <v>0.231</v>
       </c>
       <c r="C142" t="n">
-        <v>0.359466</v>
+        <v>0.360053</v>
       </c>
       <c r="D142" t="n">
-        <v>0.411625</v>
+        <v>0.413897</v>
       </c>
       <c r="E142" t="n">
-        <v>0.243127</v>
+        <v>0.182944</v>
       </c>
       <c r="F142" t="n">
-        <v>0.330114</v>
+        <v>0.277087</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225846</v>
+        <v>0.225476</v>
       </c>
       <c r="C143" t="n">
-        <v>0.448449</v>
+        <v>0.449709</v>
       </c>
       <c r="D143" t="n">
-        <v>0.407635</v>
+        <v>0.409361</v>
       </c>
       <c r="E143" t="n">
-        <v>0.241966</v>
+        <v>0.178937</v>
       </c>
       <c r="F143" t="n">
-        <v>0.328373</v>
+        <v>0.273948</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.19288</v>
+        <v>0.19479</v>
       </c>
       <c r="C2" t="n">
-        <v>0.314219</v>
+        <v>0.317135</v>
       </c>
       <c r="D2" t="n">
-        <v>0.305713</v>
+        <v>0.306357</v>
       </c>
       <c r="E2" t="n">
-        <v>0.134878</v>
+        <v>0.135159</v>
       </c>
       <c r="F2" t="n">
-        <v>0.259985</v>
+        <v>0.2608</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.192911</v>
+        <v>0.194009</v>
       </c>
       <c r="C3" t="n">
-        <v>0.313436</v>
+        <v>0.318733</v>
       </c>
       <c r="D3" t="n">
-        <v>0.308768</v>
+        <v>0.309139</v>
       </c>
       <c r="E3" t="n">
-        <v>0.131932</v>
+        <v>0.129521</v>
       </c>
       <c r="F3" t="n">
-        <v>0.259172</v>
+        <v>0.252355</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.187014</v>
+        <v>0.188348</v>
       </c>
       <c r="C4" t="n">
-        <v>0.31272</v>
+        <v>0.309273</v>
       </c>
       <c r="D4" t="n">
-        <v>0.307731</v>
+        <v>0.309357</v>
       </c>
       <c r="E4" t="n">
-        <v>0.130815</v>
+        <v>0.130919</v>
       </c>
       <c r="F4" t="n">
-        <v>0.256069</v>
+        <v>0.254497</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.181091</v>
+        <v>0.182983</v>
       </c>
       <c r="C5" t="n">
-        <v>0.306084</v>
+        <v>0.305447</v>
       </c>
       <c r="D5" t="n">
-        <v>0.308401</v>
+        <v>0.309017</v>
       </c>
       <c r="E5" t="n">
-        <v>0.129722</v>
+        <v>0.129824</v>
       </c>
       <c r="F5" t="n">
-        <v>0.252037</v>
+        <v>0.251277</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.17636</v>
+        <v>0.17627</v>
       </c>
       <c r="C6" t="n">
-        <v>0.295768</v>
+        <v>0.299897</v>
       </c>
       <c r="D6" t="n">
-        <v>0.309973</v>
+        <v>0.310411</v>
       </c>
       <c r="E6" t="n">
-        <v>0.128864</v>
+        <v>0.128449</v>
       </c>
       <c r="F6" t="n">
-        <v>0.248023</v>
+        <v>0.248129</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.168167</v>
+        <v>0.166868</v>
       </c>
       <c r="C7" t="n">
-        <v>0.291942</v>
+        <v>0.294332</v>
       </c>
       <c r="D7" t="n">
-        <v>0.304579</v>
+        <v>0.305701</v>
       </c>
       <c r="E7" t="n">
-        <v>0.126598</v>
+        <v>0.126058</v>
       </c>
       <c r="F7" t="n">
-        <v>0.244455</v>
+        <v>0.244756</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.158038</v>
+        <v>0.158972</v>
       </c>
       <c r="C8" t="n">
-        <v>0.284843</v>
+        <v>0.286255</v>
       </c>
       <c r="D8" t="n">
-        <v>0.303867</v>
+        <v>0.304679</v>
       </c>
       <c r="E8" t="n">
-        <v>0.122594</v>
+        <v>0.122855</v>
       </c>
       <c r="F8" t="n">
-        <v>0.24176</v>
+        <v>0.24186</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148545</v>
+        <v>0.148814</v>
       </c>
       <c r="C9" t="n">
-        <v>0.276832</v>
+        <v>0.278344</v>
       </c>
       <c r="D9" t="n">
-        <v>0.304236</v>
+        <v>0.305907</v>
       </c>
       <c r="E9" t="n">
-        <v>0.19068</v>
+        <v>0.192881</v>
       </c>
       <c r="F9" t="n">
-        <v>0.289611</v>
+        <v>0.290854</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.234823</v>
+        <v>0.233479</v>
       </c>
       <c r="C10" t="n">
-        <v>0.347825</v>
+        <v>0.34863</v>
       </c>
       <c r="D10" t="n">
-        <v>0.305372</v>
+        <v>0.306324</v>
       </c>
       <c r="E10" t="n">
-        <v>0.185403</v>
+        <v>0.188416</v>
       </c>
       <c r="F10" t="n">
-        <v>0.287562</v>
+        <v>0.287652</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.229648</v>
+        <v>0.229643</v>
       </c>
       <c r="C11" t="n">
-        <v>0.346202</v>
+        <v>0.347428</v>
       </c>
       <c r="D11" t="n">
-        <v>0.306016</v>
+        <v>0.306479</v>
       </c>
       <c r="E11" t="n">
-        <v>0.183328</v>
+        <v>0.185857</v>
       </c>
       <c r="F11" t="n">
-        <v>0.285483</v>
+        <v>0.285412</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.226793</v>
+        <v>0.227077</v>
       </c>
       <c r="C12" t="n">
-        <v>0.342357</v>
+        <v>0.345186</v>
       </c>
       <c r="D12" t="n">
-        <v>0.307373</v>
+        <v>0.307717</v>
       </c>
       <c r="E12" t="n">
-        <v>0.178882</v>
+        <v>0.180988</v>
       </c>
       <c r="F12" t="n">
-        <v>0.281193</v>
+        <v>0.281626</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.224229</v>
+        <v>0.224116</v>
       </c>
       <c r="C13" t="n">
-        <v>0.337858</v>
+        <v>0.339032</v>
       </c>
       <c r="D13" t="n">
-        <v>0.307252</v>
+        <v>0.309137</v>
       </c>
       <c r="E13" t="n">
-        <v>0.175038</v>
+        <v>0.176664</v>
       </c>
       <c r="F13" t="n">
-        <v>0.279329</v>
+        <v>0.275302</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.219188</v>
+        <v>0.21924</v>
       </c>
       <c r="C14" t="n">
-        <v>0.333129</v>
+        <v>0.334745</v>
       </c>
       <c r="D14" t="n">
-        <v>0.308185</v>
+        <v>0.309339</v>
       </c>
       <c r="E14" t="n">
-        <v>0.170924</v>
+        <v>0.173376</v>
       </c>
       <c r="F14" t="n">
-        <v>0.277536</v>
+        <v>0.276612</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215011</v>
+        <v>0.216426</v>
       </c>
       <c r="C15" t="n">
-        <v>0.329962</v>
+        <v>0.330916</v>
       </c>
       <c r="D15" t="n">
-        <v>0.308076</v>
+        <v>0.31028</v>
       </c>
       <c r="E15" t="n">
-        <v>0.168878</v>
+        <v>0.170496</v>
       </c>
       <c r="F15" t="n">
-        <v>0.273853</v>
+        <v>0.274546</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211954</v>
+        <v>0.21214</v>
       </c>
       <c r="C16" t="n">
-        <v>0.324137</v>
+        <v>0.323728</v>
       </c>
       <c r="D16" t="n">
-        <v>0.309267</v>
+        <v>0.310288</v>
       </c>
       <c r="E16" t="n">
-        <v>0.164739</v>
+        <v>0.164918</v>
       </c>
       <c r="F16" t="n">
-        <v>0.270493</v>
+        <v>0.270464</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205986</v>
+        <v>0.206488</v>
       </c>
       <c r="C17" t="n">
-        <v>0.315541</v>
+        <v>0.315216</v>
       </c>
       <c r="D17" t="n">
-        <v>0.309533</v>
+        <v>0.310539</v>
       </c>
       <c r="E17" t="n">
-        <v>0.160605</v>
+        <v>0.159997</v>
       </c>
       <c r="F17" t="n">
-        <v>0.267268</v>
+        <v>0.267703</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199212</v>
+        <v>0.19963</v>
       </c>
       <c r="C18" t="n">
-        <v>0.310555</v>
+        <v>0.308947</v>
       </c>
       <c r="D18" t="n">
-        <v>0.311817</v>
+        <v>0.312401</v>
       </c>
       <c r="E18" t="n">
-        <v>0.156838</v>
+        <v>0.156208</v>
       </c>
       <c r="F18" t="n">
-        <v>0.264681</v>
+        <v>0.263832</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194668</v>
+        <v>0.194399</v>
       </c>
       <c r="C19" t="n">
-        <v>0.306428</v>
+        <v>0.303566</v>
       </c>
       <c r="D19" t="n">
-        <v>0.312621</v>
+        <v>0.315313</v>
       </c>
       <c r="E19" t="n">
-        <v>0.152609</v>
+        <v>0.152235</v>
       </c>
       <c r="F19" t="n">
-        <v>0.261249</v>
+        <v>0.26195</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188036</v>
+        <v>0.188893</v>
       </c>
       <c r="C20" t="n">
-        <v>0.308934</v>
+        <v>0.308954</v>
       </c>
       <c r="D20" t="n">
-        <v>0.312695</v>
+        <v>0.314944</v>
       </c>
       <c r="E20" t="n">
-        <v>0.149629</v>
+        <v>0.150363</v>
       </c>
       <c r="F20" t="n">
-        <v>0.25857</v>
+        <v>0.257674</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181036</v>
+        <v>0.181489</v>
       </c>
       <c r="C21" t="n">
-        <v>0.298605</v>
+        <v>0.299048</v>
       </c>
       <c r="D21" t="n">
-        <v>0.309655</v>
+        <v>0.310851</v>
       </c>
       <c r="E21" t="n">
-        <v>0.146081</v>
+        <v>0.146103</v>
       </c>
       <c r="F21" t="n">
-        <v>0.253871</v>
+        <v>0.252631</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.172314</v>
+        <v>0.173763</v>
       </c>
       <c r="C22" t="n">
-        <v>0.291105</v>
+        <v>0.290905</v>
       </c>
       <c r="D22" t="n">
-        <v>0.309577</v>
+        <v>0.310559</v>
       </c>
       <c r="E22" t="n">
-        <v>0.141678</v>
+        <v>0.142103</v>
       </c>
       <c r="F22" t="n">
-        <v>0.242767</v>
+        <v>0.24305</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.162642</v>
+        <v>0.164325</v>
       </c>
       <c r="C23" t="n">
-        <v>0.276236</v>
+        <v>0.27423</v>
       </c>
       <c r="D23" t="n">
-        <v>0.309548</v>
+        <v>0.309982</v>
       </c>
       <c r="E23" t="n">
-        <v>0.202942</v>
+        <v>0.201741</v>
       </c>
       <c r="F23" t="n">
-        <v>0.295502</v>
+        <v>0.295788</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240353</v>
+        <v>0.244622</v>
       </c>
       <c r="C24" t="n">
-        <v>0.349947</v>
+        <v>0.351081</v>
       </c>
       <c r="D24" t="n">
-        <v>0.310165</v>
+        <v>0.309922</v>
       </c>
       <c r="E24" t="n">
-        <v>0.19536</v>
+        <v>0.19563</v>
       </c>
       <c r="F24" t="n">
-        <v>0.291858</v>
+        <v>0.291237</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.239947</v>
+        <v>0.238973</v>
       </c>
       <c r="C25" t="n">
-        <v>0.348987</v>
+        <v>0.345804</v>
       </c>
       <c r="D25" t="n">
-        <v>0.310536</v>
+        <v>0.312156</v>
       </c>
       <c r="E25" t="n">
-        <v>0.189694</v>
+        <v>0.192295</v>
       </c>
       <c r="F25" t="n">
-        <v>0.288719</v>
+        <v>0.288628</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.237839</v>
+        <v>0.236781</v>
       </c>
       <c r="C26" t="n">
-        <v>0.345343</v>
+        <v>0.344006</v>
       </c>
       <c r="D26" t="n">
-        <v>0.310219</v>
+        <v>0.311042</v>
       </c>
       <c r="E26" t="n">
-        <v>0.185556</v>
+        <v>0.187589</v>
       </c>
       <c r="F26" t="n">
-        <v>0.28657</v>
+        <v>0.285579</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.231797</v>
+        <v>0.231786</v>
       </c>
       <c r="C27" t="n">
-        <v>0.340318</v>
+        <v>0.339432</v>
       </c>
       <c r="D27" t="n">
-        <v>0.310966</v>
+        <v>0.310908</v>
       </c>
       <c r="E27" t="n">
-        <v>0.182645</v>
+        <v>0.183069</v>
       </c>
       <c r="F27" t="n">
-        <v>0.282902</v>
+        <v>0.282208</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.227392</v>
+        <v>0.228073</v>
       </c>
       <c r="C28" t="n">
-        <v>0.333096</v>
+        <v>0.334132</v>
       </c>
       <c r="D28" t="n">
-        <v>0.311765</v>
+        <v>0.312257</v>
       </c>
       <c r="E28" t="n">
-        <v>0.177826</v>
+        <v>0.17778</v>
       </c>
       <c r="F28" t="n">
-        <v>0.279774</v>
+        <v>0.279712</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.224131</v>
+        <v>0.224022</v>
       </c>
       <c r="C29" t="n">
-        <v>0.330883</v>
+        <v>0.330477</v>
       </c>
       <c r="D29" t="n">
-        <v>0.312303</v>
+        <v>0.312777</v>
       </c>
       <c r="E29" t="n">
-        <v>0.174832</v>
+        <v>0.174372</v>
       </c>
       <c r="F29" t="n">
-        <v>0.277796</v>
+        <v>0.27767</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.218361</v>
+        <v>0.218231</v>
       </c>
       <c r="C30" t="n">
-        <v>0.328172</v>
+        <v>0.328832</v>
       </c>
       <c r="D30" t="n">
-        <v>0.312967</v>
+        <v>0.312956</v>
       </c>
       <c r="E30" t="n">
-        <v>0.171042</v>
+        <v>0.171509</v>
       </c>
       <c r="F30" t="n">
-        <v>0.275026</v>
+        <v>0.274348</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211933</v>
+        <v>0.212622</v>
       </c>
       <c r="C31" t="n">
-        <v>0.324785</v>
+        <v>0.324026</v>
       </c>
       <c r="D31" t="n">
-        <v>0.31408</v>
+        <v>0.31318</v>
       </c>
       <c r="E31" t="n">
-        <v>0.166235</v>
+        <v>0.166362</v>
       </c>
       <c r="F31" t="n">
-        <v>0.270823</v>
+        <v>0.270309</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20717</v>
+        <v>0.207214</v>
       </c>
       <c r="C32" t="n">
-        <v>0.321969</v>
+        <v>0.321623</v>
       </c>
       <c r="D32" t="n">
-        <v>0.314567</v>
+        <v>0.314626</v>
       </c>
       <c r="E32" t="n">
-        <v>0.162314</v>
+        <v>0.162974</v>
       </c>
       <c r="F32" t="n">
-        <v>0.266643</v>
+        <v>0.267475</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201864</v>
+        <v>0.201813</v>
       </c>
       <c r="C33" t="n">
-        <v>0.315245</v>
+        <v>0.31392</v>
       </c>
       <c r="D33" t="n">
-        <v>0.315482</v>
+        <v>0.315568</v>
       </c>
       <c r="E33" t="n">
-        <v>0.158144</v>
+        <v>0.15872</v>
       </c>
       <c r="F33" t="n">
-        <v>0.263565</v>
+        <v>0.258396</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195438</v>
+        <v>0.195344</v>
       </c>
       <c r="C34" t="n">
-        <v>0.308794</v>
+        <v>0.308505</v>
       </c>
       <c r="D34" t="n">
-        <v>0.317103</v>
+        <v>0.315787</v>
       </c>
       <c r="E34" t="n">
-        <v>0.155911</v>
+        <v>0.155746</v>
       </c>
       <c r="F34" t="n">
-        <v>0.260834</v>
+        <v>0.260702</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.188639</v>
+        <v>0.188968</v>
       </c>
       <c r="C35" t="n">
-        <v>0.296648</v>
+        <v>0.297167</v>
       </c>
       <c r="D35" t="n">
-        <v>0.313182</v>
+        <v>0.313797</v>
       </c>
       <c r="E35" t="n">
-        <v>0.151146</v>
+        <v>0.151367</v>
       </c>
       <c r="F35" t="n">
-        <v>0.25648</v>
+        <v>0.255189</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180211</v>
+        <v>0.180541</v>
       </c>
       <c r="C36" t="n">
-        <v>0.286087</v>
+        <v>0.285476</v>
       </c>
       <c r="D36" t="n">
-        <v>0.314056</v>
+        <v>0.314499</v>
       </c>
       <c r="E36" t="n">
-        <v>0.147259</v>
+        <v>0.147455</v>
       </c>
       <c r="F36" t="n">
-        <v>0.247241</v>
+        <v>0.247259</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170923</v>
+        <v>0.172639</v>
       </c>
       <c r="C37" t="n">
-        <v>0.280254</v>
+        <v>0.279408</v>
       </c>
       <c r="D37" t="n">
-        <v>0.313461</v>
+        <v>0.313114</v>
       </c>
       <c r="E37" t="n">
-        <v>0.201711</v>
+        <v>0.202689</v>
       </c>
       <c r="F37" t="n">
-        <v>0.295627</v>
+        <v>0.298334</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247669</v>
+        <v>0.24727</v>
       </c>
       <c r="C38" t="n">
-        <v>0.355349</v>
+        <v>0.35732</v>
       </c>
       <c r="D38" t="n">
-        <v>0.313463</v>
+        <v>0.313383</v>
       </c>
       <c r="E38" t="n">
-        <v>0.200166</v>
+        <v>0.20002</v>
       </c>
       <c r="F38" t="n">
-        <v>0.291683</v>
+        <v>0.295034</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.244936</v>
+        <v>0.243635</v>
       </c>
       <c r="C39" t="n">
-        <v>0.356806</v>
+        <v>0.355683</v>
       </c>
       <c r="D39" t="n">
-        <v>0.313415</v>
+        <v>0.314462</v>
       </c>
       <c r="E39" t="n">
-        <v>0.192162</v>
+        <v>0.193813</v>
       </c>
       <c r="F39" t="n">
-        <v>0.291628</v>
+        <v>0.291791</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.240341</v>
+        <v>0.239692</v>
       </c>
       <c r="C40" t="n">
-        <v>0.34961</v>
+        <v>0.350805</v>
       </c>
       <c r="D40" t="n">
-        <v>0.312577</v>
+        <v>0.313799</v>
       </c>
       <c r="E40" t="n">
-        <v>0.190987</v>
+        <v>0.188965</v>
       </c>
       <c r="F40" t="n">
-        <v>0.287785</v>
+        <v>0.287511</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.23547</v>
+        <v>0.235737</v>
       </c>
       <c r="C41" t="n">
-        <v>0.348497</v>
+        <v>0.347192</v>
       </c>
       <c r="D41" t="n">
-        <v>0.313263</v>
+        <v>0.313748</v>
       </c>
       <c r="E41" t="n">
-        <v>0.188134</v>
+        <v>0.184844</v>
       </c>
       <c r="F41" t="n">
-        <v>0.284788</v>
+        <v>0.284426</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.231402</v>
+        <v>0.231444</v>
       </c>
       <c r="C42" t="n">
-        <v>0.342932</v>
+        <v>0.34186</v>
       </c>
       <c r="D42" t="n">
-        <v>0.314224</v>
+        <v>0.315306</v>
       </c>
       <c r="E42" t="n">
-        <v>0.183057</v>
+        <v>0.181333</v>
       </c>
       <c r="F42" t="n">
-        <v>0.281563</v>
+        <v>0.282228</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.227398</v>
+        <v>0.226058</v>
       </c>
       <c r="C43" t="n">
-        <v>0.337942</v>
+        <v>0.336511</v>
       </c>
       <c r="D43" t="n">
-        <v>0.313974</v>
+        <v>0.315645</v>
       </c>
       <c r="E43" t="n">
-        <v>0.177781</v>
+        <v>0.175643</v>
       </c>
       <c r="F43" t="n">
-        <v>0.279197</v>
+        <v>0.279208</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.221319</v>
+        <v>0.220641</v>
       </c>
       <c r="C44" t="n">
-        <v>0.325011</v>
+        <v>0.325139</v>
       </c>
       <c r="D44" t="n">
-        <v>0.31537</v>
+        <v>0.315466</v>
       </c>
       <c r="E44" t="n">
-        <v>0.171628</v>
+        <v>0.172247</v>
       </c>
       <c r="F44" t="n">
-        <v>0.275702</v>
+        <v>0.275931</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215486</v>
+        <v>0.215856</v>
       </c>
       <c r="C45" t="n">
-        <v>0.334424</v>
+        <v>0.334515</v>
       </c>
       <c r="D45" t="n">
-        <v>0.315352</v>
+        <v>0.316882</v>
       </c>
       <c r="E45" t="n">
-        <v>0.168847</v>
+        <v>0.168835</v>
       </c>
       <c r="F45" t="n">
-        <v>0.272049</v>
+        <v>0.272222</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209987</v>
+        <v>0.210159</v>
       </c>
       <c r="C46" t="n">
-        <v>0.321593</v>
+        <v>0.32149</v>
       </c>
       <c r="D46" t="n">
-        <v>0.316645</v>
+        <v>0.316646</v>
       </c>
       <c r="E46" t="n">
-        <v>0.164532</v>
+        <v>0.16446</v>
       </c>
       <c r="F46" t="n">
-        <v>0.269193</v>
+        <v>0.268951</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204077</v>
+        <v>0.204918</v>
       </c>
       <c r="C47" t="n">
-        <v>0.317929</v>
+        <v>0.318012</v>
       </c>
       <c r="D47" t="n">
-        <v>0.317242</v>
+        <v>0.317656</v>
       </c>
       <c r="E47" t="n">
-        <v>0.160765</v>
+        <v>0.160733</v>
       </c>
       <c r="F47" t="n">
-        <v>0.265703</v>
+        <v>0.266048</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.199058</v>
+        <v>0.19887</v>
       </c>
       <c r="C48" t="n">
-        <v>0.30585</v>
+        <v>0.305997</v>
       </c>
       <c r="D48" t="n">
-        <v>0.317509</v>
+        <v>0.317081</v>
       </c>
       <c r="E48" t="n">
-        <v>0.158221</v>
+        <v>0.157719</v>
       </c>
       <c r="F48" t="n">
-        <v>0.260079</v>
+        <v>0.262682</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191344</v>
+        <v>0.1913</v>
       </c>
       <c r="C49" t="n">
-        <v>0.301733</v>
+        <v>0.306745</v>
       </c>
       <c r="D49" t="n">
-        <v>0.319455</v>
+        <v>0.32011</v>
       </c>
       <c r="E49" t="n">
-        <v>0.154152</v>
+        <v>0.154099</v>
       </c>
       <c r="F49" t="n">
-        <v>0.258507</v>
+        <v>0.25877</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183556</v>
+        <v>0.183996</v>
       </c>
       <c r="C50" t="n">
-        <v>0.299791</v>
+        <v>0.301611</v>
       </c>
       <c r="D50" t="n">
-        <v>0.318144</v>
+        <v>0.319356</v>
       </c>
       <c r="E50" t="n">
-        <v>0.149994</v>
+        <v>0.149791</v>
       </c>
       <c r="F50" t="n">
-        <v>0.254927</v>
+        <v>0.254824</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175117</v>
+        <v>0.175028</v>
       </c>
       <c r="C51" t="n">
-        <v>0.286184</v>
+        <v>0.28635</v>
       </c>
       <c r="D51" t="n">
-        <v>0.319644</v>
+        <v>0.318208</v>
       </c>
       <c r="E51" t="n">
-        <v>0.206646</v>
+        <v>0.202124</v>
       </c>
       <c r="F51" t="n">
-        <v>0.299276</v>
+        <v>0.299369</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.16353</v>
+        <v>0.164249</v>
       </c>
       <c r="C52" t="n">
-        <v>0.282104</v>
+        <v>0.281121</v>
       </c>
       <c r="D52" t="n">
-        <v>0.31993</v>
+        <v>0.317463</v>
       </c>
       <c r="E52" t="n">
-        <v>0.199056</v>
+        <v>0.200714</v>
       </c>
       <c r="F52" t="n">
-        <v>0.295572</v>
+        <v>0.295634</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.245858</v>
+        <v>0.245955</v>
       </c>
       <c r="C53" t="n">
-        <v>0.359625</v>
+        <v>0.358402</v>
       </c>
       <c r="D53" t="n">
-        <v>0.320927</v>
+        <v>0.320919</v>
       </c>
       <c r="E53" t="n">
-        <v>0.199934</v>
+        <v>0.193683</v>
       </c>
       <c r="F53" t="n">
-        <v>0.292637</v>
+        <v>0.29253</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242113</v>
+        <v>0.242048</v>
       </c>
       <c r="C54" t="n">
-        <v>0.356962</v>
+        <v>0.355866</v>
       </c>
       <c r="D54" t="n">
-        <v>0.320694</v>
+        <v>0.321365</v>
       </c>
       <c r="E54" t="n">
-        <v>0.193502</v>
+        <v>0.192002</v>
       </c>
       <c r="F54" t="n">
-        <v>0.288879</v>
+        <v>0.28893</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.238286</v>
+        <v>0.238157</v>
       </c>
       <c r="C55" t="n">
-        <v>0.35376</v>
+        <v>0.352532</v>
       </c>
       <c r="D55" t="n">
-        <v>0.322409</v>
+        <v>0.323213</v>
       </c>
       <c r="E55" t="n">
-        <v>0.187347</v>
+        <v>0.184793</v>
       </c>
       <c r="F55" t="n">
-        <v>0.285629</v>
+        <v>0.28524</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233715</v>
+        <v>0.233658</v>
       </c>
       <c r="C56" t="n">
-        <v>0.350832</v>
+        <v>0.348967</v>
       </c>
       <c r="D56" t="n">
-        <v>0.323244</v>
+        <v>0.324853</v>
       </c>
       <c r="E56" t="n">
-        <v>0.184436</v>
+        <v>0.180622</v>
       </c>
       <c r="F56" t="n">
-        <v>0.283133</v>
+        <v>0.2828</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228609</v>
+        <v>0.228742</v>
       </c>
       <c r="C57" t="n">
-        <v>0.344457</v>
+        <v>0.345202</v>
       </c>
       <c r="D57" t="n">
-        <v>0.323515</v>
+        <v>0.324683</v>
       </c>
       <c r="E57" t="n">
-        <v>0.179314</v>
+        <v>0.178155</v>
       </c>
       <c r="F57" t="n">
-        <v>0.280301</v>
+        <v>0.279866</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222983</v>
+        <v>0.223054</v>
       </c>
       <c r="C58" t="n">
-        <v>0.326194</v>
+        <v>0.326616</v>
       </c>
       <c r="D58" t="n">
-        <v>0.326241</v>
+        <v>0.328074</v>
       </c>
       <c r="E58" t="n">
-        <v>0.173469</v>
+        <v>0.173103</v>
       </c>
       <c r="F58" t="n">
-        <v>0.277082</v>
+        <v>0.277128</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217745</v>
+        <v>0.218122</v>
       </c>
       <c r="C59" t="n">
-        <v>0.337182</v>
+        <v>0.338657</v>
       </c>
       <c r="D59" t="n">
-        <v>0.328389</v>
+        <v>0.330505</v>
       </c>
       <c r="E59" t="n">
-        <v>0.169858</v>
+        <v>0.169433</v>
       </c>
       <c r="F59" t="n">
-        <v>0.273399</v>
+        <v>0.273302</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212284</v>
+        <v>0.212844</v>
       </c>
       <c r="C60" t="n">
-        <v>0.31768</v>
+        <v>0.317741</v>
       </c>
       <c r="D60" t="n">
-        <v>0.329896</v>
+        <v>0.333081</v>
       </c>
       <c r="E60" t="n">
-        <v>0.166036</v>
+        <v>0.165515</v>
       </c>
       <c r="F60" t="n">
-        <v>0.269867</v>
+        <v>0.269754</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206326</v>
+        <v>0.206191</v>
       </c>
       <c r="C61" t="n">
-        <v>0.323479</v>
+        <v>0.32335</v>
       </c>
       <c r="D61" t="n">
-        <v>0.330436</v>
+        <v>0.33381</v>
       </c>
       <c r="E61" t="n">
-        <v>0.162476</v>
+        <v>0.162279</v>
       </c>
       <c r="F61" t="n">
-        <v>0.266484</v>
+        <v>0.26702</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200326</v>
+        <v>0.200749</v>
       </c>
       <c r="C62" t="n">
-        <v>0.314682</v>
+        <v>0.315859</v>
       </c>
       <c r="D62" t="n">
-        <v>0.331996</v>
+        <v>0.335793</v>
       </c>
       <c r="E62" t="n">
-        <v>0.159977</v>
+        <v>0.160095</v>
       </c>
       <c r="F62" t="n">
-        <v>0.263509</v>
+        <v>0.2634</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194187</v>
+        <v>0.194314</v>
       </c>
       <c r="C63" t="n">
-        <v>0.328234</v>
+        <v>0.32955</v>
       </c>
       <c r="D63" t="n">
-        <v>0.336252</v>
+        <v>0.339593</v>
       </c>
       <c r="E63" t="n">
-        <v>0.155838</v>
+        <v>0.155162</v>
       </c>
       <c r="F63" t="n">
-        <v>0.259833</v>
+        <v>0.259983</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.186793</v>
+        <v>0.187366</v>
       </c>
       <c r="C64" t="n">
-        <v>0.312932</v>
+        <v>0.317296</v>
       </c>
       <c r="D64" t="n">
-        <v>0.375564</v>
+        <v>0.384154</v>
       </c>
       <c r="E64" t="n">
-        <v>0.151692</v>
+        <v>0.151673</v>
       </c>
       <c r="F64" t="n">
-        <v>0.256018</v>
+        <v>0.250677</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177395</v>
+        <v>0.177697</v>
       </c>
       <c r="C65" t="n">
-        <v>0.327278</v>
+        <v>0.336246</v>
       </c>
       <c r="D65" t="n">
-        <v>0.376803</v>
+        <v>0.387356</v>
       </c>
       <c r="E65" t="n">
-        <v>0.148178</v>
+        <v>0.147914</v>
       </c>
       <c r="F65" t="n">
-        <v>0.248599</v>
+        <v>0.252594</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167764</v>
+        <v>0.168265</v>
       </c>
       <c r="C66" t="n">
-        <v>0.303169</v>
+        <v>0.307032</v>
       </c>
       <c r="D66" t="n">
-        <v>0.378592</v>
+        <v>0.391679</v>
       </c>
       <c r="E66" t="n">
-        <v>0.20076</v>
+        <v>0.203672</v>
       </c>
       <c r="F66" t="n">
-        <v>0.297577</v>
+        <v>0.297585</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247624</v>
+        <v>0.247854</v>
       </c>
       <c r="C67" t="n">
-        <v>0.450219</v>
+        <v>0.46415</v>
       </c>
       <c r="D67" t="n">
-        <v>0.376291</v>
+        <v>0.388298</v>
       </c>
       <c r="E67" t="n">
-        <v>0.197816</v>
+        <v>0.1982</v>
       </c>
       <c r="F67" t="n">
-        <v>0.29366</v>
+        <v>0.293654</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2445</v>
+        <v>0.244624</v>
       </c>
       <c r="C68" t="n">
-        <v>0.369461</v>
+        <v>0.374661</v>
       </c>
       <c r="D68" t="n">
-        <v>0.378223</v>
+        <v>0.388272</v>
       </c>
       <c r="E68" t="n">
-        <v>0.193418</v>
+        <v>0.194629</v>
       </c>
       <c r="F68" t="n">
-        <v>0.290743</v>
+        <v>0.290881</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240639</v>
+        <v>0.240205</v>
       </c>
       <c r="C69" t="n">
-        <v>0.367026</v>
+        <v>0.372739</v>
       </c>
       <c r="D69" t="n">
-        <v>0.380122</v>
+        <v>0.394183</v>
       </c>
       <c r="E69" t="n">
-        <v>0.190587</v>
+        <v>0.190268</v>
       </c>
       <c r="F69" t="n">
-        <v>0.287397</v>
+        <v>0.287554</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.235094</v>
+        <v>0.23546</v>
       </c>
       <c r="C70" t="n">
-        <v>0.362396</v>
+        <v>0.367918</v>
       </c>
       <c r="D70" t="n">
-        <v>0.378766</v>
+        <v>0.391171</v>
       </c>
       <c r="E70" t="n">
-        <v>0.186369</v>
+        <v>0.184772</v>
       </c>
       <c r="F70" t="n">
-        <v>0.283947</v>
+        <v>0.28405</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230337</v>
+        <v>0.230598</v>
       </c>
       <c r="C71" t="n">
-        <v>0.357668</v>
+        <v>0.362625</v>
       </c>
       <c r="D71" t="n">
-        <v>0.380167</v>
+        <v>0.393937</v>
       </c>
       <c r="E71" t="n">
-        <v>0.180957</v>
+        <v>0.182234</v>
       </c>
       <c r="F71" t="n">
-        <v>0.276935</v>
+        <v>0.280832</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.224825</v>
+        <v>0.224686</v>
       </c>
       <c r="C72" t="n">
-        <v>0.480527</v>
+        <v>0.503918</v>
       </c>
       <c r="D72" t="n">
-        <v>0.382096</v>
+        <v>0.395973</v>
       </c>
       <c r="E72" t="n">
-        <v>0.177826</v>
+        <v>0.175846</v>
       </c>
       <c r="F72" t="n">
-        <v>0.273853</v>
+        <v>0.274058</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219353</v>
+        <v>0.219527</v>
       </c>
       <c r="C73" t="n">
-        <v>0.419233</v>
+        <v>0.435968</v>
       </c>
       <c r="D73" t="n">
-        <v>0.380628</v>
+        <v>0.393739</v>
       </c>
       <c r="E73" t="n">
-        <v>0.171148</v>
+        <v>0.171649</v>
       </c>
       <c r="F73" t="n">
-        <v>0.270596</v>
+        <v>0.271191</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213632</v>
+        <v>0.213822</v>
       </c>
       <c r="C74" t="n">
-        <v>0.476403</v>
+        <v>0.502924</v>
       </c>
       <c r="D74" t="n">
-        <v>0.37953</v>
+        <v>0.392639</v>
       </c>
       <c r="E74" t="n">
-        <v>0.168806</v>
+        <v>0.167581</v>
       </c>
       <c r="F74" t="n">
-        <v>0.271089</v>
+        <v>0.271091</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.208227</v>
+        <v>0.208186</v>
       </c>
       <c r="C75" t="n">
-        <v>0.468632</v>
+        <v>0.493518</v>
       </c>
       <c r="D75" t="n">
-        <v>0.37786</v>
+        <v>0.391313</v>
       </c>
       <c r="E75" t="n">
-        <v>0.16575</v>
+        <v>0.164767</v>
       </c>
       <c r="F75" t="n">
-        <v>0.263827</v>
+        <v>0.267999</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.202363</v>
+        <v>0.202708</v>
       </c>
       <c r="C76" t="n">
-        <v>0.424993</v>
+        <v>0.446375</v>
       </c>
       <c r="D76" t="n">
-        <v>0.379849</v>
+        <v>0.392883</v>
       </c>
       <c r="E76" t="n">
-        <v>0.161674</v>
+        <v>0.160746</v>
       </c>
       <c r="F76" t="n">
-        <v>0.264478</v>
+        <v>0.264853</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196341</v>
+        <v>0.19602</v>
       </c>
       <c r="C77" t="n">
-        <v>0.396736</v>
+        <v>0.413499</v>
       </c>
       <c r="D77" t="n">
-        <v>0.381272</v>
+        <v>0.393509</v>
       </c>
       <c r="E77" t="n">
-        <v>0.156724</v>
+        <v>0.157612</v>
       </c>
       <c r="F77" t="n">
-        <v>0.26086</v>
+        <v>0.261122</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.189049</v>
+        <v>0.188995</v>
       </c>
       <c r="C78" t="n">
-        <v>0.406585</v>
+        <v>0.424939</v>
       </c>
       <c r="D78" t="n">
-        <v>0.436862</v>
+        <v>0.461804</v>
       </c>
       <c r="E78" t="n">
-        <v>0.153422</v>
+        <v>0.153249</v>
       </c>
       <c r="F78" t="n">
-        <v>0.256861</v>
+        <v>0.257263</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179772</v>
+        <v>0.179723</v>
       </c>
       <c r="C79" t="n">
-        <v>0.325106</v>
+        <v>0.334477</v>
       </c>
       <c r="D79" t="n">
-        <v>0.435178</v>
+        <v>0.459292</v>
       </c>
       <c r="E79" t="n">
-        <v>0.149754</v>
+        <v>0.149731</v>
       </c>
       <c r="F79" t="n">
-        <v>0.253376</v>
+        <v>0.253821</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170693</v>
+        <v>0.170653</v>
       </c>
       <c r="C80" t="n">
-        <v>0.370876</v>
+        <v>0.386183</v>
       </c>
       <c r="D80" t="n">
-        <v>0.428868</v>
+        <v>0.451322</v>
       </c>
       <c r="E80" t="n">
-        <v>0.204531</v>
+        <v>0.206284</v>
       </c>
       <c r="F80" t="n">
-        <v>0.29837</v>
+        <v>0.29835</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.24892</v>
+        <v>0.248831</v>
       </c>
       <c r="C81" t="n">
-        <v>0.381047</v>
+        <v>0.384384</v>
       </c>
       <c r="D81" t="n">
-        <v>0.429002</v>
+        <v>0.448119</v>
       </c>
       <c r="E81" t="n">
-        <v>0.201872</v>
+        <v>0.201857</v>
       </c>
       <c r="F81" t="n">
-        <v>0.290781</v>
+        <v>0.294914</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245174</v>
+        <v>0.245683</v>
       </c>
       <c r="C82" t="n">
-        <v>0.362942</v>
+        <v>0.367009</v>
       </c>
       <c r="D82" t="n">
-        <v>0.425089</v>
+        <v>0.447389</v>
       </c>
       <c r="E82" t="n">
-        <v>0.197296</v>
+        <v>0.195658</v>
       </c>
       <c r="F82" t="n">
-        <v>0.291091</v>
+        <v>0.291301</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.240848</v>
+        <v>0.241058</v>
       </c>
       <c r="C83" t="n">
-        <v>0.356937</v>
+        <v>0.360296</v>
       </c>
       <c r="D83" t="n">
-        <v>0.418477</v>
+        <v>0.437512</v>
       </c>
       <c r="E83" t="n">
-        <v>0.189858</v>
+        <v>0.190282</v>
       </c>
       <c r="F83" t="n">
-        <v>0.287683</v>
+        <v>0.287367</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236231</v>
+        <v>0.236242</v>
       </c>
       <c r="C84" t="n">
-        <v>0.353146</v>
+        <v>0.356054</v>
       </c>
       <c r="D84" t="n">
-        <v>0.415145</v>
+        <v>0.435801</v>
       </c>
       <c r="E84" t="n">
-        <v>0.187112</v>
+        <v>0.187647</v>
       </c>
       <c r="F84" t="n">
-        <v>0.281082</v>
+        <v>0.284386</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232013</v>
+        <v>0.231496</v>
       </c>
       <c r="C85" t="n">
-        <v>0.367409</v>
+        <v>0.373137</v>
       </c>
       <c r="D85" t="n">
-        <v>0.414665</v>
+        <v>0.43133</v>
       </c>
       <c r="E85" t="n">
-        <v>0.184119</v>
+        <v>0.183435</v>
       </c>
       <c r="F85" t="n">
-        <v>0.277477</v>
+        <v>0.277703</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.227327</v>
+        <v>0.226392</v>
       </c>
       <c r="C86" t="n">
-        <v>0.342569</v>
+        <v>0.345655</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4112</v>
+        <v>0.429465</v>
       </c>
       <c r="E86" t="n">
-        <v>0.179415</v>
+        <v>0.179326</v>
       </c>
       <c r="F86" t="n">
-        <v>0.274608</v>
+        <v>0.274699</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220725</v>
+        <v>0.221067</v>
       </c>
       <c r="C87" t="n">
-        <v>0.427261</v>
+        <v>0.471051</v>
       </c>
       <c r="D87" t="n">
-        <v>0.406195</v>
+        <v>0.423294</v>
       </c>
       <c r="E87" t="n">
-        <v>0.17246</v>
+        <v>0.175643</v>
       </c>
       <c r="F87" t="n">
-        <v>0.271402</v>
+        <v>0.2715</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215321</v>
+        <v>0.215322</v>
       </c>
       <c r="C88" t="n">
-        <v>0.438218</v>
+        <v>0.458683</v>
       </c>
       <c r="D88" t="n">
-        <v>0.403894</v>
+        <v>0.420261</v>
       </c>
       <c r="E88" t="n">
-        <v>0.171496</v>
+        <v>0.171972</v>
       </c>
       <c r="F88" t="n">
-        <v>0.267807</v>
+        <v>0.26831</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.209606</v>
+        <v>0.210365</v>
       </c>
       <c r="C89" t="n">
-        <v>0.425459</v>
+        <v>0.445309</v>
       </c>
       <c r="D89" t="n">
-        <v>0.404261</v>
+        <v>0.421342</v>
       </c>
       <c r="E89" t="n">
-        <v>0.167139</v>
+        <v>0.166843</v>
       </c>
       <c r="F89" t="n">
-        <v>0.264648</v>
+        <v>0.264967</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204244</v>
+        <v>0.204497</v>
       </c>
       <c r="C90" t="n">
-        <v>0.412101</v>
+        <v>0.434085</v>
       </c>
       <c r="D90" t="n">
-        <v>0.398557</v>
+        <v>0.41319</v>
       </c>
       <c r="E90" t="n">
-        <v>0.162457</v>
+        <v>0.16349</v>
       </c>
       <c r="F90" t="n">
-        <v>0.262988</v>
+        <v>0.261609</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197862</v>
+        <v>0.197831</v>
       </c>
       <c r="C91" t="n">
-        <v>0.37145</v>
+        <v>0.38189</v>
       </c>
       <c r="D91" t="n">
-        <v>0.399389</v>
+        <v>0.412895</v>
       </c>
       <c r="E91" t="n">
-        <v>0.158095</v>
+        <v>0.159018</v>
       </c>
       <c r="F91" t="n">
-        <v>0.257586</v>
+        <v>0.257772</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190384</v>
+        <v>0.190576</v>
       </c>
       <c r="C92" t="n">
-        <v>0.366729</v>
+        <v>0.378815</v>
       </c>
       <c r="D92" t="n">
-        <v>0.448968</v>
+        <v>0.473158</v>
       </c>
       <c r="E92" t="n">
-        <v>0.154935</v>
+        <v>0.154848</v>
       </c>
       <c r="F92" t="n">
-        <v>0.254028</v>
+        <v>0.254168</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182002</v>
+        <v>0.182389</v>
       </c>
       <c r="C93" t="n">
-        <v>0.393697</v>
+        <v>0.410992</v>
       </c>
       <c r="D93" t="n">
-        <v>0.437424</v>
+        <v>0.463235</v>
       </c>
       <c r="E93" t="n">
-        <v>0.151068</v>
+        <v>0.151228</v>
       </c>
       <c r="F93" t="n">
-        <v>0.254293</v>
+        <v>0.253906</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.173486</v>
+        <v>0.174064</v>
       </c>
       <c r="C94" t="n">
-        <v>0.380379</v>
+        <v>0.403128</v>
       </c>
       <c r="D94" t="n">
-        <v>0.436444</v>
+        <v>0.461813</v>
       </c>
       <c r="E94" t="n">
-        <v>0.203962</v>
+        <v>0.205847</v>
       </c>
       <c r="F94" t="n">
-        <v>0.298495</v>
+        <v>0.301383</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249621</v>
+        <v>0.249575</v>
       </c>
       <c r="C95" t="n">
-        <v>0.51766</v>
+        <v>0.540728</v>
       </c>
       <c r="D95" t="n">
-        <v>0.431977</v>
+        <v>0.454891</v>
       </c>
       <c r="E95" t="n">
-        <v>0.199382</v>
+        <v>0.200135</v>
       </c>
       <c r="F95" t="n">
-        <v>0.294558</v>
+        <v>0.296873</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.247329</v>
+        <v>0.247397</v>
       </c>
       <c r="C96" t="n">
-        <v>0.355892</v>
+        <v>0.357674</v>
       </c>
       <c r="D96" t="n">
-        <v>0.427814</v>
+        <v>0.449508</v>
       </c>
       <c r="E96" t="n">
-        <v>0.194486</v>
+        <v>0.195514</v>
       </c>
       <c r="F96" t="n">
-        <v>0.294058</v>
+        <v>0.291712</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.243346</v>
+        <v>0.243378</v>
       </c>
       <c r="C97" t="n">
-        <v>0.351543</v>
+        <v>0.353491</v>
       </c>
       <c r="D97" t="n">
-        <v>0.418764</v>
+        <v>0.439409</v>
       </c>
       <c r="E97" t="n">
-        <v>0.192927</v>
+        <v>0.193819</v>
       </c>
       <c r="F97" t="n">
-        <v>0.288277</v>
+        <v>0.288232</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.238964</v>
+        <v>0.238712</v>
       </c>
       <c r="C98" t="n">
-        <v>0.347404</v>
+        <v>0.34903</v>
       </c>
       <c r="D98" t="n">
-        <v>0.415431</v>
+        <v>0.435582</v>
       </c>
       <c r="E98" t="n">
-        <v>0.189007</v>
+        <v>0.189485</v>
       </c>
       <c r="F98" t="n">
-        <v>0.284763</v>
+        <v>0.287444</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.234285</v>
+        <v>0.233737</v>
       </c>
       <c r="C99" t="n">
-        <v>0.34255</v>
+        <v>0.429783</v>
       </c>
       <c r="D99" t="n">
-        <v>0.412958</v>
+        <v>0.428168</v>
       </c>
       <c r="E99" t="n">
-        <v>0.183753</v>
+        <v>0.184093</v>
       </c>
       <c r="F99" t="n">
-        <v>0.284285</v>
+        <v>0.281836</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228832</v>
+        <v>0.228824</v>
       </c>
       <c r="C100" t="n">
-        <v>0.337606</v>
+        <v>0.339121</v>
       </c>
       <c r="D100" t="n">
-        <v>0.406998</v>
+        <v>0.425252</v>
       </c>
       <c r="E100" t="n">
-        <v>0.179127</v>
+        <v>0.179668</v>
       </c>
       <c r="F100" t="n">
-        <v>0.278793</v>
+        <v>0.27887</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223102</v>
+        <v>0.223122</v>
       </c>
       <c r="C101" t="n">
-        <v>0.405861</v>
+        <v>0.420454</v>
       </c>
       <c r="D101" t="n">
-        <v>0.403524</v>
+        <v>0.423175</v>
       </c>
       <c r="E101" t="n">
-        <v>0.175134</v>
+        <v>0.174025</v>
       </c>
       <c r="F101" t="n">
-        <v>0.27546</v>
+        <v>0.275995</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.217273</v>
+        <v>0.217229</v>
       </c>
       <c r="C102" t="n">
-        <v>0.397646</v>
+        <v>0.411428</v>
       </c>
       <c r="D102" t="n">
-        <v>0.399567</v>
+        <v>0.416564</v>
       </c>
       <c r="E102" t="n">
-        <v>0.171023</v>
+        <v>0.17061</v>
       </c>
       <c r="F102" t="n">
-        <v>0.269143</v>
+        <v>0.268885</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211286</v>
+        <v>0.211323</v>
       </c>
       <c r="C103" t="n">
-        <v>0.443911</v>
+        <v>0.464848</v>
       </c>
       <c r="D103" t="n">
-        <v>0.396949</v>
+        <v>0.412647</v>
       </c>
       <c r="E103" t="n">
-        <v>0.166774</v>
+        <v>0.166852</v>
       </c>
       <c r="F103" t="n">
-        <v>0.26915</v>
+        <v>0.268957</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2054</v>
+        <v>0.205653</v>
       </c>
       <c r="C104" t="n">
-        <v>0.432005</v>
+        <v>0.45518</v>
       </c>
       <c r="D104" t="n">
-        <v>0.394665</v>
+        <v>0.410562</v>
       </c>
       <c r="E104" t="n">
-        <v>0.16224</v>
+        <v>0.162955</v>
       </c>
       <c r="F104" t="n">
-        <v>0.265671</v>
+        <v>0.265978</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199079</v>
+        <v>0.199338</v>
       </c>
       <c r="C105" t="n">
-        <v>0.44293</v>
+        <v>0.468368</v>
       </c>
       <c r="D105" t="n">
-        <v>0.391377</v>
+        <v>0.406468</v>
       </c>
       <c r="E105" t="n">
-        <v>0.159037</v>
+        <v>0.160022</v>
       </c>
       <c r="F105" t="n">
-        <v>0.26224</v>
+        <v>0.262361</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192239</v>
+        <v>0.192285</v>
       </c>
       <c r="C106" t="n">
-        <v>0.449601</v>
+        <v>0.477202</v>
       </c>
       <c r="D106" t="n">
-        <v>0.388709</v>
+        <v>0.402746</v>
       </c>
       <c r="E106" t="n">
-        <v>0.15526</v>
+        <v>0.15589</v>
       </c>
       <c r="F106" t="n">
-        <v>0.258596</v>
+        <v>0.258699</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.184061</v>
+        <v>0.184115</v>
       </c>
       <c r="C107" t="n">
-        <v>0.408046</v>
+        <v>0.431124</v>
       </c>
       <c r="D107" t="n">
-        <v>0.421179</v>
+        <v>0.444772</v>
       </c>
       <c r="E107" t="n">
-        <v>0.151967</v>
+        <v>0.152733</v>
       </c>
       <c r="F107" t="n">
-        <v>0.254965</v>
+        <v>0.254872</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174702</v>
+        <v>0.174782</v>
       </c>
       <c r="C108" t="n">
-        <v>0.40541</v>
+        <v>0.429483</v>
       </c>
       <c r="D108" t="n">
-        <v>0.414458</v>
+        <v>0.437282</v>
       </c>
       <c r="E108" t="n">
-        <v>0.204284</v>
+        <v>0.205249</v>
       </c>
       <c r="F108" t="n">
-        <v>0.299125</v>
+        <v>0.299242</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.16355</v>
+        <v>0.163615</v>
       </c>
       <c r="C109" t="n">
-        <v>0.392784</v>
+        <v>0.414508</v>
       </c>
       <c r="D109" t="n">
-        <v>0.409056</v>
+        <v>0.431813</v>
       </c>
       <c r="E109" t="n">
-        <v>0.199833</v>
+        <v>0.203959</v>
       </c>
       <c r="F109" t="n">
-        <v>0.295497</v>
+        <v>0.29581</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.248248</v>
+        <v>0.248243</v>
       </c>
       <c r="C110" t="n">
-        <v>0.499357</v>
+        <v>0.523381</v>
       </c>
       <c r="D110" t="n">
-        <v>0.406478</v>
+        <v>0.42759</v>
       </c>
       <c r="E110" t="n">
-        <v>0.193952</v>
+        <v>0.196104</v>
       </c>
       <c r="F110" t="n">
-        <v>0.291896</v>
+        <v>0.292062</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.244709</v>
+        <v>0.244211</v>
       </c>
       <c r="C111" t="n">
-        <v>0.493367</v>
+        <v>0.5171519999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.401993</v>
+        <v>0.422682</v>
       </c>
       <c r="E111" t="n">
-        <v>0.190894</v>
+        <v>0.19133</v>
       </c>
       <c r="F111" t="n">
-        <v>0.285403</v>
+        <v>0.285329</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.240274</v>
+        <v>0.239843</v>
       </c>
       <c r="C112" t="n">
-        <v>0.514471</v>
+        <v>0.540895</v>
       </c>
       <c r="D112" t="n">
-        <v>0.398771</v>
+        <v>0.418396</v>
       </c>
       <c r="E112" t="n">
-        <v>0.188862</v>
+        <v>0.187627</v>
       </c>
       <c r="F112" t="n">
-        <v>0.282182</v>
+        <v>0.282237</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.235359</v>
+        <v>0.234961</v>
       </c>
       <c r="C113" t="n">
-        <v>0.505922</v>
+        <v>0.532434</v>
       </c>
       <c r="D113" t="n">
-        <v>0.394858</v>
+        <v>0.413197</v>
       </c>
       <c r="E113" t="n">
-        <v>0.181466</v>
+        <v>0.18208</v>
       </c>
       <c r="F113" t="n">
-        <v>0.282005</v>
+        <v>0.282075</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229892</v>
+        <v>0.229814</v>
       </c>
       <c r="C114" t="n">
-        <v>0.496386</v>
+        <v>0.522321</v>
       </c>
       <c r="D114" t="n">
-        <v>0.391822</v>
+        <v>0.409494</v>
       </c>
       <c r="E114" t="n">
-        <v>0.178314</v>
+        <v>0.178461</v>
       </c>
       <c r="F114" t="n">
-        <v>0.27902</v>
+        <v>0.279157</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224384</v>
+        <v>0.224449</v>
       </c>
       <c r="C115" t="n">
-        <v>0.433911</v>
+        <v>0.453736</v>
       </c>
       <c r="D115" t="n">
-        <v>0.389765</v>
+        <v>0.407575</v>
       </c>
       <c r="E115" t="n">
-        <v>0.174425</v>
+        <v>0.173953</v>
       </c>
       <c r="F115" t="n">
-        <v>0.275994</v>
+        <v>0.276051</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217981</v>
+        <v>0.218022</v>
       </c>
       <c r="C116" t="n">
-        <v>0.406911</v>
+        <v>0.421672</v>
       </c>
       <c r="D116" t="n">
-        <v>0.386057</v>
+        <v>0.402649</v>
       </c>
       <c r="E116" t="n">
-        <v>0.169846</v>
+        <v>0.170279</v>
       </c>
       <c r="F116" t="n">
-        <v>0.271781</v>
+        <v>0.273406</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212772</v>
+        <v>0.212884</v>
       </c>
       <c r="C117" t="n">
-        <v>0.385735</v>
+        <v>0.386479</v>
       </c>
       <c r="D117" t="n">
-        <v>0.383989</v>
+        <v>0.399743</v>
       </c>
       <c r="E117" t="n">
-        <v>0.168039</v>
+        <v>0.166536</v>
       </c>
       <c r="F117" t="n">
-        <v>0.269875</v>
+        <v>0.269945</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206881</v>
+        <v>0.206825</v>
       </c>
       <c r="C118" t="n">
-        <v>0.401398</v>
+        <v>0.418807</v>
       </c>
       <c r="D118" t="n">
-        <v>0.381223</v>
+        <v>0.395979</v>
       </c>
       <c r="E118" t="n">
-        <v>0.163186</v>
+        <v>0.164392</v>
       </c>
       <c r="F118" t="n">
-        <v>0.266471</v>
+        <v>0.266354</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200399</v>
+        <v>0.200765</v>
       </c>
       <c r="C119" t="n">
-        <v>0.432495</v>
+        <v>0.455633</v>
       </c>
       <c r="D119" t="n">
-        <v>0.380986</v>
+        <v>0.395543</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1594</v>
+        <v>0.160198</v>
       </c>
       <c r="F119" t="n">
-        <v>0.262957</v>
+        <v>0.263019</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193654</v>
+        <v>0.193719</v>
       </c>
       <c r="C120" t="n">
-        <v>0.398474</v>
+        <v>0.416838</v>
       </c>
       <c r="D120" t="n">
-        <v>0.379112</v>
+        <v>0.392879</v>
       </c>
       <c r="E120" t="n">
-        <v>0.15576</v>
+        <v>0.156518</v>
       </c>
       <c r="F120" t="n">
-        <v>0.259264</v>
+        <v>0.2594</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185824</v>
+        <v>0.186063</v>
       </c>
       <c r="C121" t="n">
-        <v>0.405809</v>
+        <v>0.429128</v>
       </c>
       <c r="D121" t="n">
-        <v>0.445504</v>
+        <v>0.47857</v>
       </c>
       <c r="E121" t="n">
-        <v>0.15241</v>
+        <v>0.152905</v>
       </c>
       <c r="F121" t="n">
-        <v>0.255368</v>
+        <v>0.25161</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176761</v>
+        <v>0.176863</v>
       </c>
       <c r="C122" t="n">
-        <v>0.370182</v>
+        <v>0.387792</v>
       </c>
       <c r="D122" t="n">
-        <v>0.446061</v>
+        <v>0.465685</v>
       </c>
       <c r="E122" t="n">
-        <v>0.148342</v>
+        <v>0.148784</v>
       </c>
       <c r="F122" t="n">
-        <v>0.247373</v>
+        <v>0.25214</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.166134</v>
+        <v>0.166376</v>
       </c>
       <c r="C123" t="n">
-        <v>0.35878</v>
+        <v>0.387883</v>
       </c>
       <c r="D123" t="n">
-        <v>0.441841</v>
+        <v>0.4652</v>
       </c>
       <c r="E123" t="n">
-        <v>0.200889</v>
+        <v>0.201484</v>
       </c>
       <c r="F123" t="n">
-        <v>0.292867</v>
+        <v>0.293244</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.249155</v>
+        <v>0.249026</v>
       </c>
       <c r="C124" t="n">
-        <v>0.434661</v>
+        <v>0.452374</v>
       </c>
       <c r="D124" t="n">
-        <v>0.429142</v>
+        <v>0.451774</v>
       </c>
       <c r="E124" t="n">
-        <v>0.196376</v>
+        <v>0.196771</v>
       </c>
       <c r="F124" t="n">
-        <v>0.289822</v>
+        <v>0.289787</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.245141</v>
+        <v>0.245179</v>
       </c>
       <c r="C125" t="n">
-        <v>0.438372</v>
+        <v>0.442694</v>
       </c>
       <c r="D125" t="n">
-        <v>0.424907</v>
+        <v>0.446828</v>
       </c>
       <c r="E125" t="n">
-        <v>0.191886</v>
+        <v>0.192047</v>
       </c>
       <c r="F125" t="n">
-        <v>0.286254</v>
+        <v>0.28687</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.240794</v>
+        <v>0.240826</v>
       </c>
       <c r="C126" t="n">
-        <v>0.457782</v>
+        <v>0.461399</v>
       </c>
       <c r="D126" t="n">
-        <v>0.419485</v>
+        <v>0.44069</v>
       </c>
       <c r="E126" t="n">
-        <v>0.187361</v>
+        <v>0.187635</v>
       </c>
       <c r="F126" t="n">
-        <v>0.282959</v>
+        <v>0.283057</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.235914</v>
+        <v>0.236106</v>
       </c>
       <c r="C127" t="n">
-        <v>0.466346</v>
+        <v>0.473456</v>
       </c>
       <c r="D127" t="n">
-        <v>0.414944</v>
+        <v>0.434644</v>
       </c>
       <c r="E127" t="n">
-        <v>0.183528</v>
+        <v>0.183661</v>
       </c>
       <c r="F127" t="n">
-        <v>0.27975</v>
+        <v>0.27989</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.230958</v>
+        <v>0.230972</v>
       </c>
       <c r="C128" t="n">
-        <v>0.432921</v>
+        <v>0.434948</v>
       </c>
       <c r="D128" t="n">
-        <v>0.412088</v>
+        <v>0.431773</v>
       </c>
       <c r="E128" t="n">
-        <v>0.18246</v>
+        <v>0.179543</v>
       </c>
       <c r="F128" t="n">
-        <v>0.276494</v>
+        <v>0.276619</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224781</v>
+        <v>0.225095</v>
       </c>
       <c r="C129" t="n">
-        <v>0.374945</v>
+        <v>0.384459</v>
       </c>
       <c r="D129" t="n">
-        <v>0.405039</v>
+        <v>0.423906</v>
       </c>
       <c r="E129" t="n">
-        <v>0.175535</v>
+        <v>0.175587</v>
       </c>
       <c r="F129" t="n">
-        <v>0.273185</v>
+        <v>0.273282</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219201</v>
+        <v>0.219518</v>
       </c>
       <c r="C130" t="n">
-        <v>0.412837</v>
+        <v>0.443332</v>
       </c>
       <c r="D130" t="n">
-        <v>0.40448</v>
+        <v>0.419068</v>
       </c>
       <c r="E130" t="n">
-        <v>0.171536</v>
+        <v>0.172175</v>
       </c>
       <c r="F130" t="n">
-        <v>0.271615</v>
+        <v>0.2706</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.213878</v>
+        <v>0.214231</v>
       </c>
       <c r="C131" t="n">
-        <v>0.410165</v>
+        <v>0.478241</v>
       </c>
       <c r="D131" t="n">
-        <v>0.397501</v>
+        <v>0.418188</v>
       </c>
       <c r="E131" t="n">
-        <v>0.168214</v>
+        <v>0.168788</v>
       </c>
       <c r="F131" t="n">
-        <v>0.270375</v>
+        <v>0.270821</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.208092</v>
+        <v>0.207891</v>
       </c>
       <c r="C132" t="n">
-        <v>0.405847</v>
+        <v>0.42291</v>
       </c>
       <c r="D132" t="n">
-        <v>0.395555</v>
+        <v>0.412592</v>
       </c>
       <c r="E132" t="n">
-        <v>0.165032</v>
+        <v>0.164994</v>
       </c>
       <c r="F132" t="n">
-        <v>0.267356</v>
+        <v>0.263815</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.202198</v>
+        <v>0.202152</v>
       </c>
       <c r="C133" t="n">
-        <v>0.410841</v>
+        <v>0.426584</v>
       </c>
       <c r="D133" t="n">
-        <v>0.391563</v>
+        <v>0.407497</v>
       </c>
       <c r="E133" t="n">
-        <v>0.160756</v>
+        <v>0.161082</v>
       </c>
       <c r="F133" t="n">
-        <v>0.260195</v>
+        <v>0.260564</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.195247</v>
+        <v>0.195384</v>
       </c>
       <c r="C134" t="n">
-        <v>0.373831</v>
+        <v>0.387942</v>
       </c>
       <c r="D134" t="n">
-        <v>0.389979</v>
+        <v>0.405076</v>
       </c>
       <c r="E134" t="n">
-        <v>0.157355</v>
+        <v>0.156639</v>
       </c>
       <c r="F134" t="n">
-        <v>0.260013</v>
+        <v>0.260221</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187921</v>
+        <v>0.187953</v>
       </c>
       <c r="C135" t="n">
-        <v>0.401746</v>
+        <v>0.414261</v>
       </c>
       <c r="D135" t="n">
-        <v>0.453254</v>
+        <v>0.484367</v>
       </c>
       <c r="E135" t="n">
-        <v>0.15337</v>
+        <v>0.152882</v>
       </c>
       <c r="F135" t="n">
-        <v>0.256099</v>
+        <v>0.256308</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.179229</v>
+        <v>0.179497</v>
       </c>
       <c r="C136" t="n">
-        <v>0.350078</v>
+        <v>0.360139</v>
       </c>
       <c r="D136" t="n">
-        <v>0.451907</v>
+        <v>0.478547</v>
       </c>
       <c r="E136" t="n">
-        <v>0.149784</v>
+        <v>0.149182</v>
       </c>
       <c r="F136" t="n">
-        <v>0.249441</v>
+        <v>0.247204</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168717</v>
+        <v>0.168474</v>
       </c>
       <c r="C137" t="n">
-        <v>0.363606</v>
+        <v>0.380587</v>
       </c>
       <c r="D137" t="n">
-        <v>0.440971</v>
+        <v>0.469126</v>
       </c>
       <c r="E137" t="n">
-        <v>0.201604</v>
+        <v>0.20185</v>
       </c>
       <c r="F137" t="n">
-        <v>0.297049</v>
+        <v>0.297465</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.248757</v>
+        <v>0.248636</v>
       </c>
       <c r="C138" t="n">
-        <v>0.426833</v>
+        <v>0.436227</v>
       </c>
       <c r="D138" t="n">
-        <v>0.435906</v>
+        <v>0.460308</v>
       </c>
       <c r="E138" t="n">
-        <v>0.199967</v>
+        <v>0.201295</v>
       </c>
       <c r="F138" t="n">
-        <v>0.293959</v>
+        <v>0.29384</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.245656</v>
+        <v>0.245459</v>
       </c>
       <c r="C139" t="n">
-        <v>0.478812</v>
+        <v>0.488071</v>
       </c>
       <c r="D139" t="n">
-        <v>0.429354</v>
+        <v>0.452627</v>
       </c>
       <c r="E139" t="n">
-        <v>0.194289</v>
+        <v>0.195218</v>
       </c>
       <c r="F139" t="n">
-        <v>0.290115</v>
+        <v>0.290259</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.241513</v>
+        <v>0.241304</v>
       </c>
       <c r="C140" t="n">
-        <v>0.470252</v>
+        <v>0.489729</v>
       </c>
       <c r="D140" t="n">
-        <v>0.427789</v>
+        <v>0.450061</v>
       </c>
       <c r="E140" t="n">
-        <v>0.191371</v>
+        <v>0.191763</v>
       </c>
       <c r="F140" t="n">
-        <v>0.284744</v>
+        <v>0.283992</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.235724</v>
+        <v>0.235815</v>
       </c>
       <c r="C141" t="n">
-        <v>0.48002</v>
+        <v>0.49384</v>
       </c>
       <c r="D141" t="n">
-        <v>0.418907</v>
+        <v>0.440009</v>
       </c>
       <c r="E141" t="n">
-        <v>0.187061</v>
+        <v>0.187492</v>
       </c>
       <c r="F141" t="n">
-        <v>0.280264</v>
+        <v>0.280537</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231</v>
+        <v>0.231031</v>
       </c>
       <c r="C142" t="n">
-        <v>0.360053</v>
+        <v>0.36579</v>
       </c>
       <c r="D142" t="n">
-        <v>0.413897</v>
+        <v>0.433203</v>
       </c>
       <c r="E142" t="n">
-        <v>0.182944</v>
+        <v>0.182881</v>
       </c>
       <c r="F142" t="n">
-        <v>0.277087</v>
+        <v>0.27743</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225476</v>
+        <v>0.225515</v>
       </c>
       <c r="C143" t="n">
-        <v>0.449709</v>
+        <v>0.451614</v>
       </c>
       <c r="D143" t="n">
-        <v>0.409361</v>
+        <v>0.428176</v>
       </c>
       <c r="E143" t="n">
-        <v>0.178937</v>
+        <v>0.179132</v>
       </c>
       <c r="F143" t="n">
-        <v>0.273948</v>
+        <v>0.274487</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.200294</v>
+        <v>0.195528</v>
       </c>
       <c r="C2" t="n">
-        <v>0.31659</v>
+        <v>0.315538</v>
       </c>
       <c r="D2" t="n">
-        <v>0.305634</v>
+        <v>0.30648</v>
       </c>
       <c r="E2" t="n">
-        <v>0.210783</v>
+        <v>0.136861</v>
       </c>
       <c r="F2" t="n">
-        <v>0.317267</v>
+        <v>0.255874</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194011</v>
+        <v>0.192408</v>
       </c>
       <c r="C3" t="n">
-        <v>0.313723</v>
+        <v>0.316998</v>
       </c>
       <c r="D3" t="n">
-        <v>0.307652</v>
+        <v>0.306511</v>
       </c>
       <c r="E3" t="n">
-        <v>0.211491</v>
+        <v>0.132773</v>
       </c>
       <c r="F3" t="n">
-        <v>0.317262</v>
+        <v>0.250455</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.189252</v>
+        <v>0.187471</v>
       </c>
       <c r="C4" t="n">
-        <v>0.30793</v>
+        <v>0.310415</v>
       </c>
       <c r="D4" t="n">
-        <v>0.309183</v>
+        <v>0.307907</v>
       </c>
       <c r="E4" t="n">
-        <v>0.214307</v>
+        <v>0.134088</v>
       </c>
       <c r="F4" t="n">
-        <v>0.315485</v>
+        <v>0.248569</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182401</v>
+        <v>0.181957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.307774</v>
+        <v>0.307175</v>
       </c>
       <c r="D5" t="n">
-        <v>0.30952</v>
+        <v>0.309358</v>
       </c>
       <c r="E5" t="n">
-        <v>0.215395</v>
+        <v>0.127148</v>
       </c>
       <c r="F5" t="n">
-        <v>0.31487</v>
+        <v>0.247141</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.176159</v>
+        <v>0.175564</v>
       </c>
       <c r="C6" t="n">
-        <v>0.300265</v>
+        <v>0.300455</v>
       </c>
       <c r="D6" t="n">
-        <v>0.310051</v>
+        <v>0.309524</v>
       </c>
       <c r="E6" t="n">
-        <v>0.21725</v>
+        <v>0.126008</v>
       </c>
       <c r="F6" t="n">
-        <v>0.313042</v>
+        <v>0.241813</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.167221</v>
+        <v>0.168041</v>
       </c>
       <c r="C7" t="n">
-        <v>0.291435</v>
+        <v>0.290859</v>
       </c>
       <c r="D7" t="n">
-        <v>0.305019</v>
+        <v>0.304632</v>
       </c>
       <c r="E7" t="n">
-        <v>0.218409</v>
+        <v>0.195946</v>
       </c>
       <c r="F7" t="n">
-        <v>0.311836</v>
+        <v>0.299162</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.159039</v>
+        <v>0.159802</v>
       </c>
       <c r="C8" t="n">
-        <v>0.284275</v>
+        <v>0.28139</v>
       </c>
       <c r="D8" t="n">
-        <v>0.304431</v>
+        <v>0.30414</v>
       </c>
       <c r="E8" t="n">
-        <v>0.220225</v>
+        <v>0.191733</v>
       </c>
       <c r="F8" t="n">
-        <v>0.31375</v>
+        <v>0.290985</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148593</v>
+        <v>0.149299</v>
       </c>
       <c r="C9" t="n">
-        <v>0.27137</v>
+        <v>0.27433</v>
       </c>
       <c r="D9" t="n">
-        <v>0.304824</v>
+        <v>0.305468</v>
       </c>
       <c r="E9" t="n">
-        <v>0.234382</v>
+        <v>0.185735</v>
       </c>
       <c r="F9" t="n">
-        <v>0.327079</v>
+        <v>0.290244</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231894</v>
+        <v>0.233212</v>
       </c>
       <c r="C10" t="n">
-        <v>0.347589</v>
+        <v>0.349452</v>
       </c>
       <c r="D10" t="n">
-        <v>0.306654</v>
+        <v>0.304719</v>
       </c>
       <c r="E10" t="n">
-        <v>0.234605</v>
+        <v>0.183901</v>
       </c>
       <c r="F10" t="n">
-        <v>0.326805</v>
+        <v>0.285038</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.228899</v>
+        <v>0.229545</v>
       </c>
       <c r="C11" t="n">
-        <v>0.34601</v>
+        <v>0.346057</v>
       </c>
       <c r="D11" t="n">
-        <v>0.306698</v>
+        <v>0.30633</v>
       </c>
       <c r="E11" t="n">
-        <v>0.235144</v>
+        <v>0.179851</v>
       </c>
       <c r="F11" t="n">
-        <v>0.326537</v>
+        <v>0.281273</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225968</v>
+        <v>0.226569</v>
       </c>
       <c r="C12" t="n">
-        <v>0.342634</v>
+        <v>0.34387</v>
       </c>
       <c r="D12" t="n">
-        <v>0.307243</v>
+        <v>0.30832</v>
       </c>
       <c r="E12" t="n">
-        <v>0.234651</v>
+        <v>0.176918</v>
       </c>
       <c r="F12" t="n">
-        <v>0.327015</v>
+        <v>0.279511</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221901</v>
+        <v>0.223809</v>
       </c>
       <c r="C13" t="n">
-        <v>0.337846</v>
+        <v>0.339167</v>
       </c>
       <c r="D13" t="n">
-        <v>0.30728</v>
+        <v>0.308832</v>
       </c>
       <c r="E13" t="n">
-        <v>0.234475</v>
+        <v>0.174282</v>
       </c>
       <c r="F13" t="n">
-        <v>0.325369</v>
+        <v>0.275697</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.21917</v>
+        <v>0.219456</v>
       </c>
       <c r="C14" t="n">
-        <v>0.333465</v>
+        <v>0.335445</v>
       </c>
       <c r="D14" t="n">
-        <v>0.308434</v>
+        <v>0.308547</v>
       </c>
       <c r="E14" t="n">
-        <v>0.235431</v>
+        <v>0.170773</v>
       </c>
       <c r="F14" t="n">
-        <v>0.323822</v>
+        <v>0.274612</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215639</v>
+        <v>0.215584</v>
       </c>
       <c r="C15" t="n">
-        <v>0.329852</v>
+        <v>0.330177</v>
       </c>
       <c r="D15" t="n">
-        <v>0.307973</v>
+        <v>0.308687</v>
       </c>
       <c r="E15" t="n">
-        <v>0.234297</v>
+        <v>0.167289</v>
       </c>
       <c r="F15" t="n">
-        <v>0.323918</v>
+        <v>0.271297</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211657</v>
+        <v>0.211384</v>
       </c>
       <c r="C16" t="n">
-        <v>0.323665</v>
+        <v>0.3249</v>
       </c>
       <c r="D16" t="n">
-        <v>0.309492</v>
+        <v>0.310237</v>
       </c>
       <c r="E16" t="n">
-        <v>0.234169</v>
+        <v>0.162224</v>
       </c>
       <c r="F16" t="n">
-        <v>0.32215</v>
+        <v>0.266721</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206536</v>
+        <v>0.2085</v>
       </c>
       <c r="C17" t="n">
-        <v>0.315025</v>
+        <v>0.315835</v>
       </c>
       <c r="D17" t="n">
-        <v>0.309044</v>
+        <v>0.310398</v>
       </c>
       <c r="E17" t="n">
-        <v>0.23419</v>
+        <v>0.157752</v>
       </c>
       <c r="F17" t="n">
-        <v>0.323755</v>
+        <v>0.263275</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199522</v>
+        <v>0.20019</v>
       </c>
       <c r="C18" t="n">
-        <v>0.309858</v>
+        <v>0.308427</v>
       </c>
       <c r="D18" t="n">
-        <v>0.311151</v>
+        <v>0.312305</v>
       </c>
       <c r="E18" t="n">
-        <v>0.233685</v>
+        <v>0.155574</v>
       </c>
       <c r="F18" t="n">
-        <v>0.322074</v>
+        <v>0.259979</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.19385</v>
+        <v>0.194935</v>
       </c>
       <c r="C19" t="n">
-        <v>0.30593</v>
+        <v>0.308173</v>
       </c>
       <c r="D19" t="n">
-        <v>0.312665</v>
+        <v>0.313438</v>
       </c>
       <c r="E19" t="n">
-        <v>0.23204</v>
+        <v>0.151689</v>
       </c>
       <c r="F19" t="n">
-        <v>0.320383</v>
+        <v>0.255846</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188353</v>
+        <v>0.189382</v>
       </c>
       <c r="C20" t="n">
-        <v>0.30886</v>
+        <v>0.306415</v>
       </c>
       <c r="D20" t="n">
-        <v>0.311947</v>
+        <v>0.313936</v>
       </c>
       <c r="E20" t="n">
-        <v>0.232676</v>
+        <v>0.147525</v>
       </c>
       <c r="F20" t="n">
-        <v>0.320999</v>
+        <v>0.251851</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181601</v>
+        <v>0.182089</v>
       </c>
       <c r="C21" t="n">
-        <v>0.298816</v>
+        <v>0.300607</v>
       </c>
       <c r="D21" t="n">
-        <v>0.309536</v>
+        <v>0.309695</v>
       </c>
       <c r="E21" t="n">
-        <v>0.231679</v>
+        <v>0.206201</v>
       </c>
       <c r="F21" t="n">
-        <v>0.318785</v>
+        <v>0.297553</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.172699</v>
+        <v>0.174224</v>
       </c>
       <c r="C22" t="n">
-        <v>0.290381</v>
+        <v>0.283347</v>
       </c>
       <c r="D22" t="n">
-        <v>0.309034</v>
+        <v>0.310337</v>
       </c>
       <c r="E22" t="n">
-        <v>0.232512</v>
+        <v>0.198556</v>
       </c>
       <c r="F22" t="n">
-        <v>0.318463</v>
+        <v>0.295772</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.162645</v>
+        <v>0.163962</v>
       </c>
       <c r="C23" t="n">
-        <v>0.275848</v>
+        <v>0.27267</v>
       </c>
       <c r="D23" t="n">
-        <v>0.308508</v>
+        <v>0.310092</v>
       </c>
       <c r="E23" t="n">
-        <v>0.24718</v>
+        <v>0.19435</v>
       </c>
       <c r="F23" t="n">
-        <v>0.334221</v>
+        <v>0.294162</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.24058</v>
+        <v>0.242417</v>
       </c>
       <c r="C24" t="n">
-        <v>0.349125</v>
+        <v>0.351005</v>
       </c>
       <c r="D24" t="n">
-        <v>0.309185</v>
+        <v>0.309932</v>
       </c>
       <c r="E24" t="n">
-        <v>0.245431</v>
+        <v>0.190127</v>
       </c>
       <c r="F24" t="n">
-        <v>0.331984</v>
+        <v>0.287418</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240079</v>
+        <v>0.241483</v>
       </c>
       <c r="C25" t="n">
-        <v>0.348844</v>
+        <v>0.348475</v>
       </c>
       <c r="D25" t="n">
-        <v>0.31071</v>
+        <v>0.311863</v>
       </c>
       <c r="E25" t="n">
-        <v>0.243652</v>
+        <v>0.187564</v>
       </c>
       <c r="F25" t="n">
-        <v>0.331946</v>
+        <v>0.286386</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.235794</v>
+        <v>0.235284</v>
       </c>
       <c r="C26" t="n">
-        <v>0.344656</v>
+        <v>0.344614</v>
       </c>
       <c r="D26" t="n">
-        <v>0.311278</v>
+        <v>0.311387</v>
       </c>
       <c r="E26" t="n">
-        <v>0.242871</v>
+        <v>0.183227</v>
       </c>
       <c r="F26" t="n">
-        <v>0.330463</v>
+        <v>0.284316</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.231038</v>
+        <v>0.231895</v>
       </c>
       <c r="C27" t="n">
-        <v>0.33982</v>
+        <v>0.340554</v>
       </c>
       <c r="D27" t="n">
-        <v>0.311436</v>
+        <v>0.311625</v>
       </c>
       <c r="E27" t="n">
-        <v>0.242055</v>
+        <v>0.179274</v>
       </c>
       <c r="F27" t="n">
-        <v>0.329064</v>
+        <v>0.280633</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.22801</v>
+        <v>0.227333</v>
       </c>
       <c r="C28" t="n">
-        <v>0.335131</v>
+        <v>0.340155</v>
       </c>
       <c r="D28" t="n">
-        <v>0.311712</v>
+        <v>0.311096</v>
       </c>
       <c r="E28" t="n">
-        <v>0.240614</v>
+        <v>0.175047</v>
       </c>
       <c r="F28" t="n">
-        <v>0.329066</v>
+        <v>0.276612</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.226084</v>
+        <v>0.222336</v>
       </c>
       <c r="C29" t="n">
-        <v>0.330743</v>
+        <v>0.331866</v>
       </c>
       <c r="D29" t="n">
-        <v>0.312177</v>
+        <v>0.312474</v>
       </c>
       <c r="E29" t="n">
-        <v>0.240726</v>
+        <v>0.172228</v>
       </c>
       <c r="F29" t="n">
-        <v>0.326823</v>
+        <v>0.273276</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.219145</v>
+        <v>0.217472</v>
       </c>
       <c r="C30" t="n">
-        <v>0.329212</v>
+        <v>0.324353</v>
       </c>
       <c r="D30" t="n">
-        <v>0.31228</v>
+        <v>0.313145</v>
       </c>
       <c r="E30" t="n">
-        <v>0.239483</v>
+        <v>0.169144</v>
       </c>
       <c r="F30" t="n">
-        <v>0.326446</v>
+        <v>0.269525</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.21278</v>
+        <v>0.211983</v>
       </c>
       <c r="C31" t="n">
-        <v>0.326383</v>
+        <v>0.323527</v>
       </c>
       <c r="D31" t="n">
-        <v>0.31316</v>
+        <v>0.314086</v>
       </c>
       <c r="E31" t="n">
-        <v>0.238519</v>
+        <v>0.165907</v>
       </c>
       <c r="F31" t="n">
-        <v>0.324436</v>
+        <v>0.267077</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20693</v>
+        <v>0.207226</v>
       </c>
       <c r="C32" t="n">
-        <v>0.320809</v>
+        <v>0.318001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.314911</v>
+        <v>0.314042</v>
       </c>
       <c r="E32" t="n">
-        <v>0.237578</v>
+        <v>0.1611</v>
       </c>
       <c r="F32" t="n">
-        <v>0.323942</v>
+        <v>0.264222</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201707</v>
+        <v>0.201465</v>
       </c>
       <c r="C33" t="n">
-        <v>0.315441</v>
+        <v>0.308892</v>
       </c>
       <c r="D33" t="n">
-        <v>0.315498</v>
+        <v>0.314936</v>
       </c>
       <c r="E33" t="n">
-        <v>0.236959</v>
+        <v>0.157076</v>
       </c>
       <c r="F33" t="n">
-        <v>0.323423</v>
+        <v>0.260011</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195122</v>
+        <v>0.19569</v>
       </c>
       <c r="C34" t="n">
-        <v>0.311769</v>
+        <v>0.307686</v>
       </c>
       <c r="D34" t="n">
-        <v>0.317342</v>
+        <v>0.316367</v>
       </c>
       <c r="E34" t="n">
-        <v>0.23607</v>
+        <v>0.152876</v>
       </c>
       <c r="F34" t="n">
-        <v>0.322317</v>
+        <v>0.256022</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.188229</v>
+        <v>0.188336</v>
       </c>
       <c r="C35" t="n">
-        <v>0.297461</v>
+        <v>0.300837</v>
       </c>
       <c r="D35" t="n">
-        <v>0.313147</v>
+        <v>0.314428</v>
       </c>
       <c r="E35" t="n">
-        <v>0.23513</v>
+        <v>0.148272</v>
       </c>
       <c r="F35" t="n">
-        <v>0.320055</v>
+        <v>0.251823</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.17974</v>
+        <v>0.180578</v>
       </c>
       <c r="C36" t="n">
-        <v>0.286527</v>
+        <v>0.291325</v>
       </c>
       <c r="D36" t="n">
-        <v>0.313537</v>
+        <v>0.313455</v>
       </c>
       <c r="E36" t="n">
-        <v>0.235115</v>
+        <v>0.203951</v>
       </c>
       <c r="F36" t="n">
-        <v>0.319481</v>
+        <v>0.296862</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170466</v>
+        <v>0.169667</v>
       </c>
       <c r="C37" t="n">
-        <v>0.279347</v>
+        <v>0.282218</v>
       </c>
       <c r="D37" t="n">
-        <v>0.313651</v>
+        <v>0.313474</v>
       </c>
       <c r="E37" t="n">
-        <v>0.249417</v>
+        <v>0.198935</v>
       </c>
       <c r="F37" t="n">
-        <v>0.336108</v>
+        <v>0.296811</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247895</v>
+        <v>0.246103</v>
       </c>
       <c r="C38" t="n">
-        <v>0.35977</v>
+        <v>0.360614</v>
       </c>
       <c r="D38" t="n">
-        <v>0.313074</v>
+        <v>0.313487</v>
       </c>
       <c r="E38" t="n">
-        <v>0.246857</v>
+        <v>0.194554</v>
       </c>
       <c r="F38" t="n">
-        <v>0.334616</v>
+        <v>0.294583</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.245044</v>
+        <v>0.24356</v>
       </c>
       <c r="C39" t="n">
-        <v>0.356515</v>
+        <v>0.357611</v>
       </c>
       <c r="D39" t="n">
-        <v>0.313262</v>
+        <v>0.312805</v>
       </c>
       <c r="E39" t="n">
-        <v>0.245825</v>
+        <v>0.189144</v>
       </c>
       <c r="F39" t="n">
-        <v>0.333746</v>
+        <v>0.290746</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.242089</v>
+        <v>0.238855</v>
       </c>
       <c r="C40" t="n">
-        <v>0.352865</v>
+        <v>0.35345</v>
       </c>
       <c r="D40" t="n">
-        <v>0.313088</v>
+        <v>0.313354</v>
       </c>
       <c r="E40" t="n">
-        <v>0.244848</v>
+        <v>0.18687</v>
       </c>
       <c r="F40" t="n">
-        <v>0.332755</v>
+        <v>0.287167</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.236219</v>
+        <v>0.235608</v>
       </c>
       <c r="C41" t="n">
-        <v>0.347693</v>
+        <v>0.349045</v>
       </c>
       <c r="D41" t="n">
-        <v>0.31364</v>
+        <v>0.313772</v>
       </c>
       <c r="E41" t="n">
-        <v>0.243459</v>
+        <v>0.183641</v>
       </c>
       <c r="F41" t="n">
-        <v>0.331724</v>
+        <v>0.283156</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.231572</v>
+        <v>0.232248</v>
       </c>
       <c r="C42" t="n">
-        <v>0.343132</v>
+        <v>0.343447</v>
       </c>
       <c r="D42" t="n">
-        <v>0.313913</v>
+        <v>0.313513</v>
       </c>
       <c r="E42" t="n">
-        <v>0.242263</v>
+        <v>0.178512</v>
       </c>
       <c r="F42" t="n">
-        <v>0.330036</v>
+        <v>0.279662</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.226505</v>
+        <v>0.225816</v>
       </c>
       <c r="C43" t="n">
-        <v>0.337874</v>
+        <v>0.339722</v>
       </c>
       <c r="D43" t="n">
-        <v>0.313705</v>
+        <v>0.314756</v>
       </c>
       <c r="E43" t="n">
-        <v>0.241246</v>
+        <v>0.175226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.328957</v>
+        <v>0.275812</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220847</v>
+        <v>0.220628</v>
       </c>
       <c r="C44" t="n">
-        <v>0.325115</v>
+        <v>0.332018</v>
       </c>
       <c r="D44" t="n">
-        <v>0.314729</v>
+        <v>0.315203</v>
       </c>
       <c r="E44" t="n">
-        <v>0.239775</v>
+        <v>0.170959</v>
       </c>
       <c r="F44" t="n">
-        <v>0.327937</v>
+        <v>0.273433</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215666</v>
+        <v>0.214888</v>
       </c>
       <c r="C45" t="n">
-        <v>0.334929</v>
+        <v>0.321488</v>
       </c>
       <c r="D45" t="n">
-        <v>0.315024</v>
+        <v>0.315292</v>
       </c>
       <c r="E45" t="n">
-        <v>0.239018</v>
+        <v>0.166979</v>
       </c>
       <c r="F45" t="n">
-        <v>0.327184</v>
+        <v>0.268895</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209924</v>
+        <v>0.209762</v>
       </c>
       <c r="C46" t="n">
-        <v>0.321509</v>
+        <v>0.321458</v>
       </c>
       <c r="D46" t="n">
-        <v>0.316302</v>
+        <v>0.316087</v>
       </c>
       <c r="E46" t="n">
-        <v>0.238147</v>
+        <v>0.16324</v>
       </c>
       <c r="F46" t="n">
-        <v>0.325414</v>
+        <v>0.265514</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.20454</v>
+        <v>0.204403</v>
       </c>
       <c r="C47" t="n">
-        <v>0.319026</v>
+        <v>0.317422</v>
       </c>
       <c r="D47" t="n">
-        <v>0.317158</v>
+        <v>0.317364</v>
       </c>
       <c r="E47" t="n">
-        <v>0.237426</v>
+        <v>0.158773</v>
       </c>
       <c r="F47" t="n">
-        <v>0.325289</v>
+        <v>0.261209</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198779</v>
+        <v>0.19858</v>
       </c>
       <c r="C48" t="n">
-        <v>0.305737</v>
+        <v>0.31238</v>
       </c>
       <c r="D48" t="n">
-        <v>0.317181</v>
+        <v>0.319</v>
       </c>
       <c r="E48" t="n">
-        <v>0.236525</v>
+        <v>0.154875</v>
       </c>
       <c r="F48" t="n">
-        <v>0.323705</v>
+        <v>0.258165</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191496</v>
+        <v>0.192045</v>
       </c>
       <c r="C49" t="n">
-        <v>0.303486</v>
+        <v>0.298155</v>
       </c>
       <c r="D49" t="n">
-        <v>0.318904</v>
+        <v>0.319361</v>
       </c>
       <c r="E49" t="n">
-        <v>0.23574</v>
+        <v>0.150839</v>
       </c>
       <c r="F49" t="n">
-        <v>0.323141</v>
+        <v>0.253938</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.184163</v>
+        <v>0.184823</v>
       </c>
       <c r="C50" t="n">
-        <v>0.29839</v>
+        <v>0.298522</v>
       </c>
       <c r="D50" t="n">
-        <v>0.318239</v>
+        <v>0.317659</v>
       </c>
       <c r="E50" t="n">
-        <v>0.23523</v>
+        <v>0.205574</v>
       </c>
       <c r="F50" t="n">
-        <v>0.322115</v>
+        <v>0.299168</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175465</v>
+        <v>0.174901</v>
       </c>
       <c r="C51" t="n">
-        <v>0.285761</v>
+        <v>0.284381</v>
       </c>
       <c r="D51" t="n">
-        <v>0.317293</v>
+        <v>0.319525</v>
       </c>
       <c r="E51" t="n">
-        <v>0.249789</v>
+        <v>0.201019</v>
       </c>
       <c r="F51" t="n">
-        <v>0.336864</v>
+        <v>0.298088</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.164251</v>
+        <v>0.1626</v>
       </c>
       <c r="C52" t="n">
-        <v>0.281362</v>
+        <v>0.280612</v>
       </c>
       <c r="D52" t="n">
-        <v>0.319716</v>
+        <v>0.319452</v>
       </c>
       <c r="E52" t="n">
-        <v>0.248506</v>
+        <v>0.19669</v>
       </c>
       <c r="F52" t="n">
-        <v>0.335811</v>
+        <v>0.292099</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246488</v>
+        <v>0.245446</v>
       </c>
       <c r="C53" t="n">
-        <v>0.358332</v>
+        <v>0.360721</v>
       </c>
       <c r="D53" t="n">
-        <v>0.319106</v>
+        <v>0.31879</v>
       </c>
       <c r="E53" t="n">
-        <v>0.247051</v>
+        <v>0.193199</v>
       </c>
       <c r="F53" t="n">
-        <v>0.334045</v>
+        <v>0.290035</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242325</v>
+        <v>0.241514</v>
       </c>
       <c r="C54" t="n">
-        <v>0.356531</v>
+        <v>0.359244</v>
       </c>
       <c r="D54" t="n">
-        <v>0.321221</v>
+        <v>0.319778</v>
       </c>
       <c r="E54" t="n">
-        <v>0.245328</v>
+        <v>0.188689</v>
       </c>
       <c r="F54" t="n">
-        <v>0.332988</v>
+        <v>0.2858</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.240009</v>
+        <v>0.23795</v>
       </c>
       <c r="C55" t="n">
-        <v>0.352518</v>
+        <v>0.354846</v>
       </c>
       <c r="D55" t="n">
-        <v>0.321745</v>
+        <v>0.321798</v>
       </c>
       <c r="E55" t="n">
-        <v>0.244245</v>
+        <v>0.184424</v>
       </c>
       <c r="F55" t="n">
-        <v>0.33128</v>
+        <v>0.284702</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233661</v>
+        <v>0.233267</v>
       </c>
       <c r="C56" t="n">
-        <v>0.348603</v>
+        <v>0.349686</v>
       </c>
       <c r="D56" t="n">
-        <v>0.32322</v>
+        <v>0.322497</v>
       </c>
       <c r="E56" t="n">
-        <v>0.242896</v>
+        <v>0.181031</v>
       </c>
       <c r="F56" t="n">
-        <v>0.330007</v>
+        <v>0.281599</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228756</v>
+        <v>0.22805</v>
       </c>
       <c r="C57" t="n">
-        <v>0.344726</v>
+        <v>0.345125</v>
       </c>
       <c r="D57" t="n">
-        <v>0.323847</v>
+        <v>0.3245</v>
       </c>
       <c r="E57" t="n">
-        <v>0.241893</v>
+        <v>0.177151</v>
       </c>
       <c r="F57" t="n">
-        <v>0.328629</v>
+        <v>0.277541</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223043</v>
+        <v>0.223955</v>
       </c>
       <c r="C58" t="n">
-        <v>0.32629</v>
+        <v>0.347506</v>
       </c>
       <c r="D58" t="n">
-        <v>0.326065</v>
+        <v>0.325511</v>
       </c>
       <c r="E58" t="n">
-        <v>0.241006</v>
+        <v>0.174131</v>
       </c>
       <c r="F58" t="n">
-        <v>0.327566</v>
+        <v>0.273898</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217913</v>
+        <v>0.218537</v>
       </c>
       <c r="C59" t="n">
-        <v>0.337615</v>
+        <v>0.321652</v>
       </c>
       <c r="D59" t="n">
-        <v>0.328026</v>
+        <v>0.327539</v>
       </c>
       <c r="E59" t="n">
-        <v>0.239961</v>
+        <v>0.169625</v>
       </c>
       <c r="F59" t="n">
-        <v>0.326991</v>
+        <v>0.269805</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212604</v>
+        <v>0.212456</v>
       </c>
       <c r="C60" t="n">
-        <v>0.317475</v>
+        <v>0.342935</v>
       </c>
       <c r="D60" t="n">
-        <v>0.329548</v>
+        <v>0.329026</v>
       </c>
       <c r="E60" t="n">
-        <v>0.238876</v>
+        <v>0.165281</v>
       </c>
       <c r="F60" t="n">
-        <v>0.32568</v>
+        <v>0.266068</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206707</v>
+        <v>0.20618</v>
       </c>
       <c r="C61" t="n">
-        <v>0.324786</v>
+        <v>0.315104</v>
       </c>
       <c r="D61" t="n">
-        <v>0.330829</v>
+        <v>0.331056</v>
       </c>
       <c r="E61" t="n">
-        <v>0.237998</v>
+        <v>0.161412</v>
       </c>
       <c r="F61" t="n">
-        <v>0.324888</v>
+        <v>0.262912</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.20106</v>
+        <v>0.20038</v>
       </c>
       <c r="C62" t="n">
-        <v>0.316154</v>
+        <v>0.33386</v>
       </c>
       <c r="D62" t="n">
-        <v>0.332904</v>
+        <v>0.33284</v>
       </c>
       <c r="E62" t="n">
-        <v>0.23735</v>
+        <v>0.157498</v>
       </c>
       <c r="F62" t="n">
-        <v>0.32411</v>
+        <v>0.259098</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194299</v>
+        <v>0.194277</v>
       </c>
       <c r="C63" t="n">
-        <v>0.327755</v>
+        <v>0.305063</v>
       </c>
       <c r="D63" t="n">
-        <v>0.337114</v>
+        <v>0.336472</v>
       </c>
       <c r="E63" t="n">
-        <v>0.236558</v>
+        <v>0.153059</v>
       </c>
       <c r="F63" t="n">
-        <v>0.323591</v>
+        <v>0.255547</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187076</v>
+        <v>0.186669</v>
       </c>
       <c r="C64" t="n">
-        <v>0.312674</v>
+        <v>0.336304</v>
       </c>
       <c r="D64" t="n">
-        <v>0.377123</v>
+        <v>0.372195</v>
       </c>
       <c r="E64" t="n">
-        <v>0.235616</v>
+        <v>0.206759</v>
       </c>
       <c r="F64" t="n">
-        <v>0.321736</v>
+        <v>0.300027</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177598</v>
+        <v>0.177342</v>
       </c>
       <c r="C65" t="n">
-        <v>0.327485</v>
+        <v>0.322732</v>
       </c>
       <c r="D65" t="n">
-        <v>0.377157</v>
+        <v>0.373621</v>
       </c>
       <c r="E65" t="n">
-        <v>0.234731</v>
+        <v>0.202716</v>
       </c>
       <c r="F65" t="n">
-        <v>0.321094</v>
+        <v>0.298098</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167343</v>
+        <v>0.166351</v>
       </c>
       <c r="C66" t="n">
-        <v>0.302196</v>
+        <v>0.342531</v>
       </c>
       <c r="D66" t="n">
-        <v>0.377127</v>
+        <v>0.376051</v>
       </c>
       <c r="E66" t="n">
-        <v>0.249132</v>
+        <v>0.197532</v>
       </c>
       <c r="F66" t="n">
-        <v>0.337277</v>
+        <v>0.294918</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247356</v>
+        <v>0.248421</v>
       </c>
       <c r="C67" t="n">
-        <v>0.452807</v>
+        <v>0.377057</v>
       </c>
       <c r="D67" t="n">
-        <v>0.378582</v>
+        <v>0.378804</v>
       </c>
       <c r="E67" t="n">
-        <v>0.247716</v>
+        <v>0.193706</v>
       </c>
       <c r="F67" t="n">
-        <v>0.335927</v>
+        <v>0.291146</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243936</v>
+        <v>0.245116</v>
       </c>
       <c r="C68" t="n">
-        <v>0.370495</v>
+        <v>0.372278</v>
       </c>
       <c r="D68" t="n">
-        <v>0.379172</v>
+        <v>0.379528</v>
       </c>
       <c r="E68" t="n">
-        <v>0.246098</v>
+        <v>0.189934</v>
       </c>
       <c r="F68" t="n">
-        <v>0.334203</v>
+        <v>0.288103</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240184</v>
+        <v>0.24109</v>
       </c>
       <c r="C69" t="n">
-        <v>0.367637</v>
+        <v>0.36871</v>
       </c>
       <c r="D69" t="n">
-        <v>0.379839</v>
+        <v>0.380261</v>
       </c>
       <c r="E69" t="n">
-        <v>0.244838</v>
+        <v>0.186142</v>
       </c>
       <c r="F69" t="n">
-        <v>0.333169</v>
+        <v>0.284101</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2352</v>
+        <v>0.235425</v>
       </c>
       <c r="C70" t="n">
-        <v>0.362796</v>
+        <v>0.363602</v>
       </c>
       <c r="D70" t="n">
-        <v>0.379783</v>
+        <v>0.381022</v>
       </c>
       <c r="E70" t="n">
-        <v>0.243663</v>
+        <v>0.182123</v>
       </c>
       <c r="F70" t="n">
-        <v>0.331455</v>
+        <v>0.281553</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230495</v>
+        <v>0.229811</v>
       </c>
       <c r="C71" t="n">
-        <v>0.357744</v>
+        <v>0.355678</v>
       </c>
       <c r="D71" t="n">
-        <v>0.380222</v>
+        <v>0.382776</v>
       </c>
       <c r="E71" t="n">
-        <v>0.242387</v>
+        <v>0.178725</v>
       </c>
       <c r="F71" t="n">
-        <v>0.330828</v>
+        <v>0.276917</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225007</v>
+        <v>0.224637</v>
       </c>
       <c r="C72" t="n">
-        <v>0.479638</v>
+        <v>0.470356</v>
       </c>
       <c r="D72" t="n">
-        <v>0.382886</v>
+        <v>0.380255</v>
       </c>
       <c r="E72" t="n">
-        <v>0.241049</v>
+        <v>0.175051</v>
       </c>
       <c r="F72" t="n">
-        <v>0.329697</v>
+        <v>0.275058</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.220459</v>
+        <v>0.219509</v>
       </c>
       <c r="C73" t="n">
-        <v>0.418738</v>
+        <v>0.377709</v>
       </c>
       <c r="D73" t="n">
-        <v>0.380955</v>
+        <v>0.380092</v>
       </c>
       <c r="E73" t="n">
-        <v>0.240195</v>
+        <v>0.171167</v>
       </c>
       <c r="F73" t="n">
-        <v>0.328058</v>
+        <v>0.272003</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213485</v>
+        <v>0.213309</v>
       </c>
       <c r="C74" t="n">
-        <v>0.475135</v>
+        <v>0.403857</v>
       </c>
       <c r="D74" t="n">
-        <v>0.38026</v>
+        <v>0.380405</v>
       </c>
       <c r="E74" t="n">
-        <v>0.239362</v>
+        <v>0.167246</v>
       </c>
       <c r="F74" t="n">
-        <v>0.326849</v>
+        <v>0.268046</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.208793</v>
+        <v>0.208652</v>
       </c>
       <c r="C75" t="n">
-        <v>0.467507</v>
+        <v>0.433558</v>
       </c>
       <c r="D75" t="n">
-        <v>0.379313</v>
+        <v>0.380552</v>
       </c>
       <c r="E75" t="n">
-        <v>0.238281</v>
+        <v>0.162974</v>
       </c>
       <c r="F75" t="n">
-        <v>0.326113</v>
+        <v>0.263723</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.20228</v>
+        <v>0.202702</v>
       </c>
       <c r="C76" t="n">
-        <v>0.42337</v>
+        <v>0.460984</v>
       </c>
       <c r="D76" t="n">
-        <v>0.380489</v>
+        <v>0.380328</v>
       </c>
       <c r="E76" t="n">
-        <v>0.237486</v>
+        <v>0.15888</v>
       </c>
       <c r="F76" t="n">
-        <v>0.325159</v>
+        <v>0.259921</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19609</v>
+        <v>0.195956</v>
       </c>
       <c r="C77" t="n">
-        <v>0.395883</v>
+        <v>0.431268</v>
       </c>
       <c r="D77" t="n">
-        <v>0.381225</v>
+        <v>0.379202</v>
       </c>
       <c r="E77" t="n">
-        <v>0.23664</v>
+        <v>0.154681</v>
       </c>
       <c r="F77" t="n">
-        <v>0.32335</v>
+        <v>0.256602</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188997</v>
+        <v>0.188222</v>
       </c>
       <c r="C78" t="n">
-        <v>0.405367</v>
+        <v>0.407713</v>
       </c>
       <c r="D78" t="n">
-        <v>0.437504</v>
+        <v>0.438505</v>
       </c>
       <c r="E78" t="n">
-        <v>0.235873</v>
+        <v>0.150478</v>
       </c>
       <c r="F78" t="n">
-        <v>0.323219</v>
+        <v>0.252785</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179597</v>
+        <v>0.18103</v>
       </c>
       <c r="C79" t="n">
-        <v>0.324828</v>
+        <v>0.302984</v>
       </c>
       <c r="D79" t="n">
-        <v>0.433362</v>
+        <v>0.432344</v>
       </c>
       <c r="E79" t="n">
-        <v>0.235101</v>
+        <v>0.204524</v>
       </c>
       <c r="F79" t="n">
-        <v>0.322829</v>
+        <v>0.297061</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170397</v>
+        <v>0.170797</v>
       </c>
       <c r="C80" t="n">
-        <v>0.370067</v>
+        <v>0.347291</v>
       </c>
       <c r="D80" t="n">
-        <v>0.427834</v>
+        <v>0.431478</v>
       </c>
       <c r="E80" t="n">
-        <v>0.252142</v>
+        <v>0.200407</v>
       </c>
       <c r="F80" t="n">
-        <v>0.336621</v>
+        <v>0.294906</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248981</v>
+        <v>0.248996</v>
       </c>
       <c r="C81" t="n">
-        <v>0.381239</v>
+        <v>0.366829</v>
       </c>
       <c r="D81" t="n">
-        <v>0.426451</v>
+        <v>0.426808</v>
       </c>
       <c r="E81" t="n">
-        <v>0.249863</v>
+        <v>0.195906</v>
       </c>
       <c r="F81" t="n">
-        <v>0.335036</v>
+        <v>0.286837</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245085</v>
+        <v>0.245109</v>
       </c>
       <c r="C82" t="n">
-        <v>0.363286</v>
+        <v>0.364133</v>
       </c>
       <c r="D82" t="n">
-        <v>0.424542</v>
+        <v>0.422689</v>
       </c>
       <c r="E82" t="n">
-        <v>0.247627</v>
+        <v>0.191316</v>
       </c>
       <c r="F82" t="n">
-        <v>0.334641</v>
+        <v>0.284218</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241517</v>
+        <v>0.240616</v>
       </c>
       <c r="C83" t="n">
-        <v>0.357226</v>
+        <v>0.358504</v>
       </c>
       <c r="D83" t="n">
-        <v>0.417808</v>
+        <v>0.419834</v>
       </c>
       <c r="E83" t="n">
-        <v>0.246539</v>
+        <v>0.188673</v>
       </c>
       <c r="F83" t="n">
-        <v>0.332315</v>
+        <v>0.281454</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236257</v>
+        <v>0.236203</v>
       </c>
       <c r="C84" t="n">
-        <v>0.35328</v>
+        <v>0.353797</v>
       </c>
       <c r="D84" t="n">
-        <v>0.41373</v>
+        <v>0.415834</v>
       </c>
       <c r="E84" t="n">
-        <v>0.245102</v>
+        <v>0.184341</v>
       </c>
       <c r="F84" t="n">
-        <v>0.330988</v>
+        <v>0.278065</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232855</v>
+        <v>0.231217</v>
       </c>
       <c r="C85" t="n">
-        <v>0.347277</v>
+        <v>0.398722</v>
       </c>
       <c r="D85" t="n">
-        <v>0.410829</v>
+        <v>0.41286</v>
       </c>
       <c r="E85" t="n">
-        <v>0.243964</v>
+        <v>0.180232</v>
       </c>
       <c r="F85" t="n">
-        <v>0.329616</v>
+        <v>0.274912</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226662</v>
+        <v>0.226531</v>
       </c>
       <c r="C86" t="n">
-        <v>0.342165</v>
+        <v>0.333979</v>
       </c>
       <c r="D86" t="n">
-        <v>0.410225</v>
+        <v>0.408249</v>
       </c>
       <c r="E86" t="n">
-        <v>0.24196</v>
+        <v>0.176122</v>
       </c>
       <c r="F86" t="n">
-        <v>0.329191</v>
+        <v>0.271897</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.221158</v>
+        <v>0.220517</v>
       </c>
       <c r="C87" t="n">
-        <v>0.425921</v>
+        <v>0.385333</v>
       </c>
       <c r="D87" t="n">
-        <v>0.404955</v>
+        <v>0.407349</v>
       </c>
       <c r="E87" t="n">
-        <v>0.240867</v>
+        <v>0.172858</v>
       </c>
       <c r="F87" t="n">
-        <v>0.327866</v>
+        <v>0.269758</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215439</v>
+        <v>0.215017</v>
       </c>
       <c r="C88" t="n">
-        <v>0.435577</v>
+        <v>0.355412</v>
       </c>
       <c r="D88" t="n">
-        <v>0.40383</v>
+        <v>0.406121</v>
       </c>
       <c r="E88" t="n">
-        <v>0.239488</v>
+        <v>0.168785</v>
       </c>
       <c r="F88" t="n">
-        <v>0.326391</v>
+        <v>0.267294</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.210277</v>
+        <v>0.210135</v>
       </c>
       <c r="C89" t="n">
-        <v>0.422412</v>
+        <v>0.442356</v>
       </c>
       <c r="D89" t="n">
-        <v>0.404323</v>
+        <v>0.402259</v>
       </c>
       <c r="E89" t="n">
-        <v>0.238436</v>
+        <v>0.164578</v>
       </c>
       <c r="F89" t="n">
-        <v>0.325541</v>
+        <v>0.26438</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204027</v>
+        <v>0.204067</v>
       </c>
       <c r="C90" t="n">
-        <v>0.407847</v>
+        <v>0.449034</v>
       </c>
       <c r="D90" t="n">
-        <v>0.397493</v>
+        <v>0.400102</v>
       </c>
       <c r="E90" t="n">
-        <v>0.237726</v>
+        <v>0.160235</v>
       </c>
       <c r="F90" t="n">
-        <v>0.324429</v>
+        <v>0.259963</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197532</v>
+        <v>0.197798</v>
       </c>
       <c r="C91" t="n">
-        <v>0.370653</v>
+        <v>0.385202</v>
       </c>
       <c r="D91" t="n">
-        <v>0.398327</v>
+        <v>0.397116</v>
       </c>
       <c r="E91" t="n">
-        <v>0.236792</v>
+        <v>0.155978</v>
       </c>
       <c r="F91" t="n">
-        <v>0.323014</v>
+        <v>0.257004</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190307</v>
+        <v>0.190571</v>
       </c>
       <c r="C92" t="n">
-        <v>0.365986</v>
+        <v>0.384648</v>
       </c>
       <c r="D92" t="n">
-        <v>0.448369</v>
+        <v>0.446989</v>
       </c>
       <c r="E92" t="n">
-        <v>0.236067</v>
+        <v>0.151743</v>
       </c>
       <c r="F92" t="n">
-        <v>0.322233</v>
+        <v>0.252221</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181859</v>
+        <v>0.182108</v>
       </c>
       <c r="C93" t="n">
-        <v>0.392273</v>
+        <v>0.382077</v>
       </c>
       <c r="D93" t="n">
-        <v>0.43654</v>
+        <v>0.436827</v>
       </c>
       <c r="E93" t="n">
-        <v>0.235503</v>
+        <v>0.205632</v>
       </c>
       <c r="F93" t="n">
-        <v>0.321578</v>
+        <v>0.294498</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.173683</v>
+        <v>0.171658</v>
       </c>
       <c r="C94" t="n">
-        <v>0.378798</v>
+        <v>0.381193</v>
       </c>
       <c r="D94" t="n">
-        <v>0.437237</v>
+        <v>0.429408</v>
       </c>
       <c r="E94" t="n">
-        <v>0.252203</v>
+        <v>0.201661</v>
       </c>
       <c r="F94" t="n">
-        <v>0.337788</v>
+        <v>0.291379</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249494</v>
+        <v>0.251495</v>
       </c>
       <c r="C95" t="n">
-        <v>0.516684</v>
+        <v>0.358537</v>
       </c>
       <c r="D95" t="n">
-        <v>0.429836</v>
+        <v>0.429094</v>
       </c>
       <c r="E95" t="n">
-        <v>0.250281</v>
+        <v>0.197256</v>
       </c>
       <c r="F95" t="n">
-        <v>0.335443</v>
+        <v>0.290962</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.247305</v>
+        <v>0.247337</v>
       </c>
       <c r="C96" t="n">
-        <v>0.35624</v>
+        <v>0.355958</v>
       </c>
       <c r="D96" t="n">
-        <v>0.426123</v>
+        <v>0.421495</v>
       </c>
       <c r="E96" t="n">
-        <v>0.248332</v>
+        <v>0.194418</v>
       </c>
       <c r="F96" t="n">
-        <v>0.337739</v>
+        <v>0.286157</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.243553</v>
+        <v>0.243073</v>
       </c>
       <c r="C97" t="n">
-        <v>0.351686</v>
+        <v>0.352141</v>
       </c>
       <c r="D97" t="n">
-        <v>0.417279</v>
+        <v>0.420027</v>
       </c>
       <c r="E97" t="n">
-        <v>0.246655</v>
+        <v>0.189174</v>
       </c>
       <c r="F97" t="n">
-        <v>0.335265</v>
+        <v>0.282095</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.239063</v>
+        <v>0.238997</v>
       </c>
       <c r="C98" t="n">
-        <v>0.347421</v>
+        <v>0.347466</v>
       </c>
       <c r="D98" t="n">
-        <v>0.413893</v>
+        <v>0.414561</v>
       </c>
       <c r="E98" t="n">
-        <v>0.24547</v>
+        <v>0.184809</v>
       </c>
       <c r="F98" t="n">
-        <v>0.332383</v>
+        <v>0.278724</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.23423</v>
+        <v>0.234511</v>
       </c>
       <c r="C99" t="n">
-        <v>0.342515</v>
+        <v>0.342831</v>
       </c>
       <c r="D99" t="n">
-        <v>0.41137</v>
+        <v>0.409426</v>
       </c>
       <c r="E99" t="n">
-        <v>0.243597</v>
+        <v>0.181001</v>
       </c>
       <c r="F99" t="n">
-        <v>0.33328</v>
+        <v>0.275706</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228977</v>
+        <v>0.228662</v>
       </c>
       <c r="C100" t="n">
-        <v>0.337354</v>
+        <v>0.376891</v>
       </c>
       <c r="D100" t="n">
-        <v>0.405378</v>
+        <v>0.405311</v>
       </c>
       <c r="E100" t="n">
-        <v>0.24234</v>
+        <v>0.177388</v>
       </c>
       <c r="F100" t="n">
-        <v>0.32966</v>
+        <v>0.273456</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.22334</v>
+        <v>0.223271</v>
       </c>
       <c r="C101" t="n">
-        <v>0.405661</v>
+        <v>0.45339</v>
       </c>
       <c r="D101" t="n">
-        <v>0.402831</v>
+        <v>0.402056</v>
       </c>
       <c r="E101" t="n">
-        <v>0.241434</v>
+        <v>0.173107</v>
       </c>
       <c r="F101" t="n">
-        <v>0.327556</v>
+        <v>0.270622</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.217299</v>
+        <v>0.217246</v>
       </c>
       <c r="C102" t="n">
-        <v>0.396812</v>
+        <v>0.35562</v>
       </c>
       <c r="D102" t="n">
-        <v>0.398099</v>
+        <v>0.397993</v>
       </c>
       <c r="E102" t="n">
-        <v>0.240302</v>
+        <v>0.16959</v>
       </c>
       <c r="F102" t="n">
-        <v>0.327462</v>
+        <v>0.268406</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211506</v>
+        <v>0.211282</v>
       </c>
       <c r="C103" t="n">
-        <v>0.442124</v>
+        <v>0.447631</v>
       </c>
       <c r="D103" t="n">
-        <v>0.395462</v>
+        <v>0.396812</v>
       </c>
       <c r="E103" t="n">
-        <v>0.239207</v>
+        <v>0.165623</v>
       </c>
       <c r="F103" t="n">
-        <v>0.32648</v>
+        <v>0.26514</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.205395</v>
+        <v>0.205038</v>
       </c>
       <c r="C104" t="n">
-        <v>0.399315</v>
+        <v>0.382458</v>
       </c>
       <c r="D104" t="n">
-        <v>0.39349</v>
+        <v>0.393043</v>
       </c>
       <c r="E104" t="n">
-        <v>0.238525</v>
+        <v>0.161348</v>
       </c>
       <c r="F104" t="n">
-        <v>0.325456</v>
+        <v>0.260914</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199085</v>
+        <v>0.199167</v>
       </c>
       <c r="C105" t="n">
-        <v>0.441175</v>
+        <v>0.462867</v>
       </c>
       <c r="D105" t="n">
-        <v>0.39003</v>
+        <v>0.39021</v>
       </c>
       <c r="E105" t="n">
-        <v>0.237593</v>
+        <v>0.15737</v>
       </c>
       <c r="F105" t="n">
-        <v>0.32459</v>
+        <v>0.258306</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192007</v>
+        <v>0.1922</v>
       </c>
       <c r="C106" t="n">
-        <v>0.44744</v>
+        <v>0.451204</v>
       </c>
       <c r="D106" t="n">
-        <v>0.387212</v>
+        <v>0.386403</v>
       </c>
       <c r="E106" t="n">
-        <v>0.237055</v>
+        <v>0.153074</v>
       </c>
       <c r="F106" t="n">
-        <v>0.323584</v>
+        <v>0.254318</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183842</v>
+        <v>0.184138</v>
       </c>
       <c r="C107" t="n">
-        <v>0.406273</v>
+        <v>0.413859</v>
       </c>
       <c r="D107" t="n">
-        <v>0.418637</v>
+        <v>0.420046</v>
       </c>
       <c r="E107" t="n">
-        <v>0.23591</v>
+        <v>0.207263</v>
       </c>
       <c r="F107" t="n">
-        <v>0.321705</v>
+        <v>0.295485</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.175387</v>
+        <v>0.174509</v>
       </c>
       <c r="C108" t="n">
-        <v>0.40377</v>
+        <v>0.409168</v>
       </c>
       <c r="D108" t="n">
-        <v>0.412429</v>
+        <v>0.41379</v>
       </c>
       <c r="E108" t="n">
-        <v>0.252747</v>
+        <v>0.202323</v>
       </c>
       <c r="F108" t="n">
-        <v>0.337519</v>
+        <v>0.291512</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163504</v>
+        <v>0.163698</v>
       </c>
       <c r="C109" t="n">
-        <v>0.390905</v>
+        <v>0.391539</v>
       </c>
       <c r="D109" t="n">
-        <v>0.407942</v>
+        <v>0.409241</v>
       </c>
       <c r="E109" t="n">
-        <v>0.250404</v>
+        <v>0.197999</v>
       </c>
       <c r="F109" t="n">
-        <v>0.335951</v>
+        <v>0.289369</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.248111</v>
+        <v>0.248119</v>
       </c>
       <c r="C110" t="n">
-        <v>0.496956</v>
+        <v>0.477809</v>
       </c>
       <c r="D110" t="n">
-        <v>0.404987</v>
+        <v>0.406637</v>
       </c>
       <c r="E110" t="n">
-        <v>0.248374</v>
+        <v>0.193724</v>
       </c>
       <c r="F110" t="n">
-        <v>0.334382</v>
+        <v>0.285888</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.244232</v>
+        <v>0.243753</v>
       </c>
       <c r="C111" t="n">
-        <v>0.490903</v>
+        <v>0.470026</v>
       </c>
       <c r="D111" t="n">
-        <v>0.401436</v>
+        <v>0.402278</v>
       </c>
       <c r="E111" t="n">
-        <v>0.246722</v>
+        <v>0.189966</v>
       </c>
       <c r="F111" t="n">
-        <v>0.334014</v>
+        <v>0.281559</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.239843</v>
+        <v>0.239951</v>
       </c>
       <c r="C112" t="n">
-        <v>0.511228</v>
+        <v>0.478197</v>
       </c>
       <c r="D112" t="n">
-        <v>0.39745</v>
+        <v>0.397952</v>
       </c>
       <c r="E112" t="n">
-        <v>0.245214</v>
+        <v>0.18576</v>
       </c>
       <c r="F112" t="n">
-        <v>0.332411</v>
+        <v>0.278763</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234992</v>
+        <v>0.234809</v>
       </c>
       <c r="C113" t="n">
-        <v>0.503409</v>
+        <v>0.467901</v>
       </c>
       <c r="D113" t="n">
-        <v>0.393102</v>
+        <v>0.394193</v>
       </c>
       <c r="E113" t="n">
-        <v>0.243694</v>
+        <v>0.181916</v>
       </c>
       <c r="F113" t="n">
-        <v>0.331044</v>
+        <v>0.276897</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229743</v>
+        <v>0.229584</v>
       </c>
       <c r="C114" t="n">
-        <v>0.493774</v>
+        <v>0.460147</v>
       </c>
       <c r="D114" t="n">
-        <v>0.390818</v>
+        <v>0.390457</v>
       </c>
       <c r="E114" t="n">
-        <v>0.242389</v>
+        <v>0.17838</v>
       </c>
       <c r="F114" t="n">
-        <v>0.329992</v>
+        <v>0.273443</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224559</v>
+        <v>0.224172</v>
       </c>
       <c r="C115" t="n">
-        <v>0.432213</v>
+        <v>0.434222</v>
       </c>
       <c r="D115" t="n">
-        <v>0.387407</v>
+        <v>0.387867</v>
       </c>
       <c r="E115" t="n">
-        <v>0.241593</v>
+        <v>0.174496</v>
       </c>
       <c r="F115" t="n">
-        <v>0.327835</v>
+        <v>0.273686</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.218252</v>
+        <v>0.21845</v>
       </c>
       <c r="C116" t="n">
-        <v>0.405092</v>
+        <v>0.443863</v>
       </c>
       <c r="D116" t="n">
-        <v>0.385313</v>
+        <v>0.385144</v>
       </c>
       <c r="E116" t="n">
-        <v>0.240441</v>
+        <v>0.170547</v>
       </c>
       <c r="F116" t="n">
-        <v>0.327922</v>
+        <v>0.268634</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212979</v>
+        <v>0.212131</v>
       </c>
       <c r="C117" t="n">
-        <v>0.384808</v>
+        <v>0.32506</v>
       </c>
       <c r="D117" t="n">
-        <v>0.382233</v>
+        <v>0.382848</v>
       </c>
       <c r="E117" t="n">
-        <v>0.239471</v>
+        <v>0.166516</v>
       </c>
       <c r="F117" t="n">
-        <v>0.325611</v>
+        <v>0.267007</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206693</v>
+        <v>0.206418</v>
       </c>
       <c r="C118" t="n">
-        <v>0.400122</v>
+        <v>0.420112</v>
       </c>
       <c r="D118" t="n">
-        <v>0.380315</v>
+        <v>0.382507</v>
       </c>
       <c r="E118" t="n">
-        <v>0.238532</v>
+        <v>0.162359</v>
       </c>
       <c r="F118" t="n">
-        <v>0.32473</v>
+        <v>0.261079</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200531</v>
+        <v>0.200556</v>
       </c>
       <c r="C119" t="n">
-        <v>0.430271</v>
+        <v>0.415911</v>
       </c>
       <c r="D119" t="n">
-        <v>0.378791</v>
+        <v>0.380224</v>
       </c>
       <c r="E119" t="n">
-        <v>0.237773</v>
+        <v>0.158208</v>
       </c>
       <c r="F119" t="n">
-        <v>0.323724</v>
+        <v>0.257696</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193438</v>
+        <v>0.19333</v>
       </c>
       <c r="C120" t="n">
-        <v>0.397</v>
+        <v>0.396085</v>
       </c>
       <c r="D120" t="n">
-        <v>0.377356</v>
+        <v>0.378783</v>
       </c>
       <c r="E120" t="n">
-        <v>0.236931</v>
+        <v>0.153904</v>
       </c>
       <c r="F120" t="n">
-        <v>0.322891</v>
+        <v>0.254424</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185576</v>
+        <v>0.186041</v>
       </c>
       <c r="C121" t="n">
-        <v>0.403794</v>
+        <v>0.392948</v>
       </c>
       <c r="D121" t="n">
-        <v>0.45114</v>
+        <v>0.446383</v>
       </c>
       <c r="E121" t="n">
-        <v>0.236111</v>
+        <v>0.208187</v>
       </c>
       <c r="F121" t="n">
-        <v>0.322159</v>
+        <v>0.296733</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176692</v>
+        <v>0.177225</v>
       </c>
       <c r="C122" t="n">
-        <v>0.369082</v>
+        <v>0.314528</v>
       </c>
       <c r="D122" t="n">
-        <v>0.443884</v>
+        <v>0.437137</v>
       </c>
       <c r="E122" t="n">
-        <v>0.235403</v>
+        <v>0.202979</v>
       </c>
       <c r="F122" t="n">
-        <v>0.321442</v>
+        <v>0.292643</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.165989</v>
+        <v>0.165967</v>
       </c>
       <c r="C123" t="n">
-        <v>0.357358</v>
+        <v>0.371919</v>
       </c>
       <c r="D123" t="n">
-        <v>0.437165</v>
+        <v>0.434039</v>
       </c>
       <c r="E123" t="n">
-        <v>0.250563</v>
+        <v>0.19893</v>
       </c>
       <c r="F123" t="n">
-        <v>0.336225</v>
+        <v>0.289279</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.248983</v>
+        <v>0.249256</v>
       </c>
       <c r="C124" t="n">
-        <v>0.434298</v>
+        <v>0.514154</v>
       </c>
       <c r="D124" t="n">
-        <v>0.426615</v>
+        <v>0.429145</v>
       </c>
       <c r="E124" t="n">
-        <v>0.248608</v>
+        <v>0.194449</v>
       </c>
       <c r="F124" t="n">
-        <v>0.335609</v>
+        <v>0.285333</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.245293</v>
+        <v>0.245029</v>
       </c>
       <c r="C125" t="n">
-        <v>0.437493</v>
+        <v>0.438228</v>
       </c>
       <c r="D125" t="n">
-        <v>0.422894</v>
+        <v>0.426708</v>
       </c>
       <c r="E125" t="n">
-        <v>0.246865</v>
+        <v>0.190355</v>
       </c>
       <c r="F125" t="n">
-        <v>0.33435</v>
+        <v>0.282163</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.241217</v>
+        <v>0.240847</v>
       </c>
       <c r="C126" t="n">
-        <v>0.457098</v>
+        <v>0.457051</v>
       </c>
       <c r="D126" t="n">
-        <v>0.417566</v>
+        <v>0.421688</v>
       </c>
       <c r="E126" t="n">
-        <v>0.245428</v>
+        <v>0.185936</v>
       </c>
       <c r="F126" t="n">
-        <v>0.333043</v>
+        <v>0.279064</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236198</v>
+        <v>0.235919</v>
       </c>
       <c r="C127" t="n">
-        <v>0.466153</v>
+        <v>0.462429</v>
       </c>
       <c r="D127" t="n">
-        <v>0.412997</v>
+        <v>0.41605</v>
       </c>
       <c r="E127" t="n">
-        <v>0.244086</v>
+        <v>0.182522</v>
       </c>
       <c r="F127" t="n">
-        <v>0.331827</v>
+        <v>0.276095</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.231255</v>
+        <v>0.23079</v>
       </c>
       <c r="C128" t="n">
-        <v>0.432421</v>
+        <v>0.462067</v>
       </c>
       <c r="D128" t="n">
-        <v>0.410965</v>
+        <v>0.411682</v>
       </c>
       <c r="E128" t="n">
-        <v>0.242723</v>
+        <v>0.179214</v>
       </c>
       <c r="F128" t="n">
-        <v>0.330579</v>
+        <v>0.274094</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224918</v>
+        <v>0.225489</v>
       </c>
       <c r="C129" t="n">
-        <v>0.374575</v>
+        <v>0.370085</v>
       </c>
       <c r="D129" t="n">
-        <v>0.404593</v>
+        <v>0.406467</v>
       </c>
       <c r="E129" t="n">
-        <v>0.241538</v>
+        <v>0.175082</v>
       </c>
       <c r="F129" t="n">
-        <v>0.329057</v>
+        <v>0.270345</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219259</v>
+        <v>0.219617</v>
       </c>
       <c r="C130" t="n">
-        <v>0.412278</v>
+        <v>0.383799</v>
       </c>
       <c r="D130" t="n">
-        <v>0.398634</v>
+        <v>0.403937</v>
       </c>
       <c r="E130" t="n">
-        <v>0.240478</v>
+        <v>0.171263</v>
       </c>
       <c r="F130" t="n">
-        <v>0.328231</v>
+        <v>0.267582</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.213657</v>
+        <v>0.213816</v>
       </c>
       <c r="C131" t="n">
-        <v>0.409497</v>
+        <v>0.384899</v>
       </c>
       <c r="D131" t="n">
-        <v>0.396542</v>
+        <v>0.395889</v>
       </c>
       <c r="E131" t="n">
-        <v>0.239406</v>
+        <v>0.167247</v>
       </c>
       <c r="F131" t="n">
-        <v>0.32714</v>
+        <v>0.264371</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.208068</v>
+        <v>0.208042</v>
       </c>
       <c r="C132" t="n">
-        <v>0.404696</v>
+        <v>0.402287</v>
       </c>
       <c r="D132" t="n">
-        <v>0.395157</v>
+        <v>0.394235</v>
       </c>
       <c r="E132" t="n">
-        <v>0.238492</v>
+        <v>0.163192</v>
       </c>
       <c r="F132" t="n">
-        <v>0.325764</v>
+        <v>0.261279</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.202207</v>
+        <v>0.201774</v>
       </c>
       <c r="C133" t="n">
-        <v>0.410326</v>
+        <v>0.38992</v>
       </c>
       <c r="D133" t="n">
-        <v>0.390114</v>
+        <v>0.391556</v>
       </c>
       <c r="E133" t="n">
-        <v>0.237763</v>
+        <v>0.158901</v>
       </c>
       <c r="F133" t="n">
-        <v>0.324856</v>
+        <v>0.258326</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.19559</v>
+        <v>0.195351</v>
       </c>
       <c r="C134" t="n">
-        <v>0.373344</v>
+        <v>0.37233</v>
       </c>
       <c r="D134" t="n">
-        <v>0.389524</v>
+        <v>0.388902</v>
       </c>
       <c r="E134" t="n">
-        <v>0.237007</v>
+        <v>0.154559</v>
       </c>
       <c r="F134" t="n">
-        <v>0.324148</v>
+        <v>0.255036</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187814</v>
+        <v>0.187756</v>
       </c>
       <c r="C135" t="n">
-        <v>0.399766</v>
+        <v>0.350083</v>
       </c>
       <c r="D135" t="n">
-        <v>0.453674</v>
+        <v>0.449848</v>
       </c>
       <c r="E135" t="n">
-        <v>0.236201</v>
+        <v>0.208902</v>
       </c>
       <c r="F135" t="n">
-        <v>0.322212</v>
+        <v>0.297164</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178743</v>
+        <v>0.179243</v>
       </c>
       <c r="C136" t="n">
-        <v>0.349997</v>
+        <v>0.365206</v>
       </c>
       <c r="D136" t="n">
-        <v>0.449192</v>
+        <v>0.443619</v>
       </c>
       <c r="E136" t="n">
-        <v>0.235715</v>
+        <v>0.204075</v>
       </c>
       <c r="F136" t="n">
-        <v>0.322638</v>
+        <v>0.295456</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16808</v>
+        <v>0.168453</v>
       </c>
       <c r="C137" t="n">
-        <v>0.36292</v>
+        <v>0.373845</v>
       </c>
       <c r="D137" t="n">
-        <v>0.441943</v>
+        <v>0.437464</v>
       </c>
       <c r="E137" t="n">
-        <v>0.250849</v>
+        <v>0.19947</v>
       </c>
       <c r="F137" t="n">
-        <v>0.337632</v>
+        <v>0.290962</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.248318</v>
+        <v>0.249021</v>
       </c>
       <c r="C138" t="n">
-        <v>0.425791</v>
+        <v>0.500264</v>
       </c>
       <c r="D138" t="n">
-        <v>0.433604</v>
+        <v>0.433418</v>
       </c>
       <c r="E138" t="n">
-        <v>0.249068</v>
+        <v>0.194862</v>
       </c>
       <c r="F138" t="n">
-        <v>0.335601</v>
+        <v>0.28739</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244928</v>
+        <v>0.245303</v>
       </c>
       <c r="C139" t="n">
-        <v>0.477396</v>
+        <v>0.495863</v>
       </c>
       <c r="D139" t="n">
-        <v>0.4278</v>
+        <v>0.43073</v>
       </c>
       <c r="E139" t="n">
-        <v>0.247423</v>
+        <v>0.191006</v>
       </c>
       <c r="F139" t="n">
-        <v>0.334071</v>
+        <v>0.284348</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.24055</v>
+        <v>0.241216</v>
       </c>
       <c r="C140" t="n">
-        <v>0.468807</v>
+        <v>0.489288</v>
       </c>
       <c r="D140" t="n">
-        <v>0.425777</v>
+        <v>0.420876</v>
       </c>
       <c r="E140" t="n">
-        <v>0.245723</v>
+        <v>0.186834</v>
       </c>
       <c r="F140" t="n">
-        <v>0.333283</v>
+        <v>0.279548</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.23584</v>
+        <v>0.235684</v>
       </c>
       <c r="C141" t="n">
-        <v>0.478192</v>
+        <v>0.4771</v>
       </c>
       <c r="D141" t="n">
-        <v>0.417193</v>
+        <v>0.42019</v>
       </c>
       <c r="E141" t="n">
-        <v>0.244394</v>
+        <v>0.183051</v>
       </c>
       <c r="F141" t="n">
-        <v>0.332019</v>
+        <v>0.276748</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231109</v>
+        <v>0.230433</v>
       </c>
       <c r="C142" t="n">
-        <v>0.359466</v>
+        <v>0.432321</v>
       </c>
       <c r="D142" t="n">
-        <v>0.411625</v>
+        <v>0.412865</v>
       </c>
       <c r="E142" t="n">
-        <v>0.243127</v>
+        <v>0.179778</v>
       </c>
       <c r="F142" t="n">
-        <v>0.330114</v>
+        <v>0.274543</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225846</v>
+        <v>0.225243</v>
       </c>
       <c r="C143" t="n">
-        <v>0.448449</v>
+        <v>0.359628</v>
       </c>
       <c r="D143" t="n">
-        <v>0.407635</v>
+        <v>0.408133</v>
       </c>
       <c r="E143" t="n">
-        <v>0.241966</v>
+        <v>0.176065</v>
       </c>
       <c r="F143" t="n">
-        <v>0.328373</v>
+        <v>0.27149</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.200294</v>
+        <v>0.18092</v>
       </c>
       <c r="C2" t="n">
-        <v>0.31659</v>
+        <v>0.317012</v>
       </c>
       <c r="D2" t="n">
-        <v>0.305634</v>
+        <v>0.313787</v>
       </c>
       <c r="E2" t="n">
-        <v>0.210783</v>
+        <v>0.130762</v>
       </c>
       <c r="F2" t="n">
-        <v>0.317267</v>
+        <v>0.259063</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194011</v>
+        <v>0.180223</v>
       </c>
       <c r="C3" t="n">
-        <v>0.313723</v>
+        <v>0.318637</v>
       </c>
       <c r="D3" t="n">
-        <v>0.307652</v>
+        <v>0.313204</v>
       </c>
       <c r="E3" t="n">
-        <v>0.211491</v>
+        <v>0.128578</v>
       </c>
       <c r="F3" t="n">
-        <v>0.317262</v>
+        <v>0.255454</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.189252</v>
+        <v>0.179387</v>
       </c>
       <c r="C4" t="n">
-        <v>0.30793</v>
+        <v>0.313541</v>
       </c>
       <c r="D4" t="n">
-        <v>0.309183</v>
+        <v>0.315021</v>
       </c>
       <c r="E4" t="n">
-        <v>0.214307</v>
+        <v>0.127752</v>
       </c>
       <c r="F4" t="n">
-        <v>0.315485</v>
+        <v>0.253762</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182401</v>
+        <v>0.173901</v>
       </c>
       <c r="C5" t="n">
-        <v>0.307774</v>
+        <v>0.307957</v>
       </c>
       <c r="D5" t="n">
-        <v>0.30952</v>
+        <v>0.316478</v>
       </c>
       <c r="E5" t="n">
-        <v>0.215395</v>
+        <v>0.123139</v>
       </c>
       <c r="F5" t="n">
-        <v>0.31487</v>
+        <v>0.257931</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.176159</v>
+        <v>0.168501</v>
       </c>
       <c r="C6" t="n">
-        <v>0.300265</v>
+        <v>0.300403</v>
       </c>
       <c r="D6" t="n">
-        <v>0.310051</v>
+        <v>0.318013</v>
       </c>
       <c r="E6" t="n">
-        <v>0.21725</v>
+        <v>0.121889</v>
       </c>
       <c r="F6" t="n">
-        <v>0.313042</v>
+        <v>0.253417</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.167221</v>
+        <v>0.164668</v>
       </c>
       <c r="C7" t="n">
-        <v>0.291435</v>
+        <v>0.294283</v>
       </c>
       <c r="D7" t="n">
-        <v>0.305019</v>
+        <v>0.309778</v>
       </c>
       <c r="E7" t="n">
-        <v>0.218409</v>
+        <v>0.120342</v>
       </c>
       <c r="F7" t="n">
-        <v>0.311836</v>
+        <v>0.250543</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.159039</v>
+        <v>0.155301</v>
       </c>
       <c r="C8" t="n">
-        <v>0.284275</v>
+        <v>0.288064</v>
       </c>
       <c r="D8" t="n">
-        <v>0.304431</v>
+        <v>0.308853</v>
       </c>
       <c r="E8" t="n">
-        <v>0.220225</v>
+        <v>0.117054</v>
       </c>
       <c r="F8" t="n">
-        <v>0.31375</v>
+        <v>0.24754</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148593</v>
+        <v>0.146613</v>
       </c>
       <c r="C9" t="n">
-        <v>0.27137</v>
+        <v>0.27972</v>
       </c>
       <c r="D9" t="n">
-        <v>0.304824</v>
+        <v>0.310831</v>
       </c>
       <c r="E9" t="n">
-        <v>0.234382</v>
+        <v>0.189937</v>
       </c>
       <c r="F9" t="n">
-        <v>0.327079</v>
+        <v>0.297381</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231894</v>
+        <v>0.229932</v>
       </c>
       <c r="C10" t="n">
-        <v>0.347589</v>
+        <v>0.350191</v>
       </c>
       <c r="D10" t="n">
-        <v>0.306654</v>
+        <v>0.310166</v>
       </c>
       <c r="E10" t="n">
-        <v>0.234605</v>
+        <v>0.186135</v>
       </c>
       <c r="F10" t="n">
-        <v>0.326805</v>
+        <v>0.292292</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.228899</v>
+        <v>0.226346</v>
       </c>
       <c r="C11" t="n">
-        <v>0.34601</v>
+        <v>0.35174</v>
       </c>
       <c r="D11" t="n">
-        <v>0.306698</v>
+        <v>0.311884</v>
       </c>
       <c r="E11" t="n">
-        <v>0.235144</v>
+        <v>0.183042</v>
       </c>
       <c r="F11" t="n">
-        <v>0.326537</v>
+        <v>0.288955</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225968</v>
+        <v>0.22327</v>
       </c>
       <c r="C12" t="n">
-        <v>0.342634</v>
+        <v>0.346911</v>
       </c>
       <c r="D12" t="n">
-        <v>0.307243</v>
+        <v>0.312682</v>
       </c>
       <c r="E12" t="n">
-        <v>0.234651</v>
+        <v>0.179495</v>
       </c>
       <c r="F12" t="n">
-        <v>0.327015</v>
+        <v>0.28805</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221901</v>
+        <v>0.220505</v>
       </c>
       <c r="C13" t="n">
-        <v>0.337846</v>
+        <v>0.343836</v>
       </c>
       <c r="D13" t="n">
-        <v>0.30728</v>
+        <v>0.312851</v>
       </c>
       <c r="E13" t="n">
-        <v>0.234475</v>
+        <v>0.173567</v>
       </c>
       <c r="F13" t="n">
-        <v>0.325369</v>
+        <v>0.285362</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.21917</v>
+        <v>0.217062</v>
       </c>
       <c r="C14" t="n">
-        <v>0.333465</v>
+        <v>0.340124</v>
       </c>
       <c r="D14" t="n">
-        <v>0.308434</v>
+        <v>0.313938</v>
       </c>
       <c r="E14" t="n">
-        <v>0.235431</v>
+        <v>0.170781</v>
       </c>
       <c r="F14" t="n">
-        <v>0.323822</v>
+        <v>0.28302</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215639</v>
+        <v>0.212873</v>
       </c>
       <c r="C15" t="n">
-        <v>0.329852</v>
+        <v>0.334625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.307973</v>
+        <v>0.315178</v>
       </c>
       <c r="E15" t="n">
-        <v>0.234297</v>
+        <v>0.166495</v>
       </c>
       <c r="F15" t="n">
-        <v>0.323918</v>
+        <v>0.280758</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211657</v>
+        <v>0.209375</v>
       </c>
       <c r="C16" t="n">
-        <v>0.323665</v>
+        <v>0.329585</v>
       </c>
       <c r="D16" t="n">
-        <v>0.309492</v>
+        <v>0.316211</v>
       </c>
       <c r="E16" t="n">
-        <v>0.234169</v>
+        <v>0.164942</v>
       </c>
       <c r="F16" t="n">
-        <v>0.32215</v>
+        <v>0.276936</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206536</v>
+        <v>0.204685</v>
       </c>
       <c r="C17" t="n">
-        <v>0.315025</v>
+        <v>0.319769</v>
       </c>
       <c r="D17" t="n">
-        <v>0.309044</v>
+        <v>0.31703</v>
       </c>
       <c r="E17" t="n">
-        <v>0.23419</v>
+        <v>0.160376</v>
       </c>
       <c r="F17" t="n">
-        <v>0.323755</v>
+        <v>0.275152</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199522</v>
+        <v>0.198326</v>
       </c>
       <c r="C18" t="n">
-        <v>0.309858</v>
+        <v>0.315951</v>
       </c>
       <c r="D18" t="n">
-        <v>0.311151</v>
+        <v>0.319052</v>
       </c>
       <c r="E18" t="n">
-        <v>0.233685</v>
+        <v>0.158303</v>
       </c>
       <c r="F18" t="n">
-        <v>0.322074</v>
+        <v>0.270073</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.19385</v>
+        <v>0.19338</v>
       </c>
       <c r="C19" t="n">
-        <v>0.30593</v>
+        <v>0.309751</v>
       </c>
       <c r="D19" t="n">
-        <v>0.312665</v>
+        <v>0.319943</v>
       </c>
       <c r="E19" t="n">
-        <v>0.23204</v>
+        <v>0.149382</v>
       </c>
       <c r="F19" t="n">
-        <v>0.320383</v>
+        <v>0.267108</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188353</v>
+        <v>0.187349</v>
       </c>
       <c r="C20" t="n">
-        <v>0.30886</v>
+        <v>0.314238</v>
       </c>
       <c r="D20" t="n">
-        <v>0.311947</v>
+        <v>0.320513</v>
       </c>
       <c r="E20" t="n">
-        <v>0.232676</v>
+        <v>0.150554</v>
       </c>
       <c r="F20" t="n">
-        <v>0.320999</v>
+        <v>0.264488</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181601</v>
+        <v>0.181349</v>
       </c>
       <c r="C21" t="n">
-        <v>0.298816</v>
+        <v>0.301776</v>
       </c>
       <c r="D21" t="n">
-        <v>0.309536</v>
+        <v>0.316331</v>
       </c>
       <c r="E21" t="n">
-        <v>0.231679</v>
+        <v>0.145673</v>
       </c>
       <c r="F21" t="n">
-        <v>0.318785</v>
+        <v>0.258961</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.172699</v>
+        <v>0.172951</v>
       </c>
       <c r="C22" t="n">
-        <v>0.290381</v>
+        <v>0.293643</v>
       </c>
       <c r="D22" t="n">
-        <v>0.309034</v>
+        <v>0.315223</v>
       </c>
       <c r="E22" t="n">
-        <v>0.232512</v>
+        <v>0.143152</v>
       </c>
       <c r="F22" t="n">
-        <v>0.318463</v>
+        <v>0.255379</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.162645</v>
+        <v>0.163698</v>
       </c>
       <c r="C23" t="n">
-        <v>0.275848</v>
+        <v>0.276778</v>
       </c>
       <c r="D23" t="n">
-        <v>0.308508</v>
+        <v>0.315494</v>
       </c>
       <c r="E23" t="n">
-        <v>0.24718</v>
+        <v>0.198219</v>
       </c>
       <c r="F23" t="n">
-        <v>0.334221</v>
+        <v>0.304559</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.24058</v>
+        <v>0.240109</v>
       </c>
       <c r="C24" t="n">
-        <v>0.349125</v>
+        <v>0.352837</v>
       </c>
       <c r="D24" t="n">
-        <v>0.309185</v>
+        <v>0.315771</v>
       </c>
       <c r="E24" t="n">
-        <v>0.245431</v>
+        <v>0.194764</v>
       </c>
       <c r="F24" t="n">
-        <v>0.331984</v>
+        <v>0.296546</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240079</v>
+        <v>0.239362</v>
       </c>
       <c r="C25" t="n">
-        <v>0.348844</v>
+        <v>0.352197</v>
       </c>
       <c r="D25" t="n">
-        <v>0.31071</v>
+        <v>0.31684</v>
       </c>
       <c r="E25" t="n">
-        <v>0.243652</v>
+        <v>0.188796</v>
       </c>
       <c r="F25" t="n">
-        <v>0.331946</v>
+        <v>0.294682</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.235794</v>
+        <v>0.236556</v>
       </c>
       <c r="C26" t="n">
-        <v>0.344656</v>
+        <v>0.348045</v>
       </c>
       <c r="D26" t="n">
-        <v>0.311278</v>
+        <v>0.317406</v>
       </c>
       <c r="E26" t="n">
-        <v>0.242871</v>
+        <v>0.185052</v>
       </c>
       <c r="F26" t="n">
-        <v>0.330463</v>
+        <v>0.292351</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.231038</v>
+        <v>0.230021</v>
       </c>
       <c r="C27" t="n">
-        <v>0.33982</v>
+        <v>0.343741</v>
       </c>
       <c r="D27" t="n">
-        <v>0.311436</v>
+        <v>0.317556</v>
       </c>
       <c r="E27" t="n">
-        <v>0.242055</v>
+        <v>0.177449</v>
       </c>
       <c r="F27" t="n">
-        <v>0.329064</v>
+        <v>0.29004</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.22801</v>
+        <v>0.226488</v>
       </c>
       <c r="C28" t="n">
-        <v>0.335131</v>
+        <v>0.338637</v>
       </c>
       <c r="D28" t="n">
-        <v>0.311712</v>
+        <v>0.318866</v>
       </c>
       <c r="E28" t="n">
-        <v>0.240614</v>
+        <v>0.174282</v>
       </c>
       <c r="F28" t="n">
-        <v>0.329066</v>
+        <v>0.286089</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.226084</v>
+        <v>0.223412</v>
       </c>
       <c r="C29" t="n">
-        <v>0.330743</v>
+        <v>0.333576</v>
       </c>
       <c r="D29" t="n">
-        <v>0.312177</v>
+        <v>0.318505</v>
       </c>
       <c r="E29" t="n">
-        <v>0.240726</v>
+        <v>0.170299</v>
       </c>
       <c r="F29" t="n">
-        <v>0.326823</v>
+        <v>0.284314</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.219145</v>
+        <v>0.216638</v>
       </c>
       <c r="C30" t="n">
-        <v>0.329212</v>
+        <v>0.332409</v>
       </c>
       <c r="D30" t="n">
-        <v>0.31228</v>
+        <v>0.319461</v>
       </c>
       <c r="E30" t="n">
-        <v>0.239483</v>
+        <v>0.166338</v>
       </c>
       <c r="F30" t="n">
-        <v>0.326446</v>
+        <v>0.281233</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.21278</v>
+        <v>0.211562</v>
       </c>
       <c r="C31" t="n">
-        <v>0.326383</v>
+        <v>0.326371</v>
       </c>
       <c r="D31" t="n">
-        <v>0.31316</v>
+        <v>0.320988</v>
       </c>
       <c r="E31" t="n">
-        <v>0.238519</v>
+        <v>0.167312</v>
       </c>
       <c r="F31" t="n">
-        <v>0.324436</v>
+        <v>0.277229</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20693</v>
+        <v>0.206431</v>
       </c>
       <c r="C32" t="n">
-        <v>0.320809</v>
+        <v>0.323847</v>
       </c>
       <c r="D32" t="n">
-        <v>0.314911</v>
+        <v>0.320824</v>
       </c>
       <c r="E32" t="n">
-        <v>0.237578</v>
+        <v>0.163645</v>
       </c>
       <c r="F32" t="n">
-        <v>0.323942</v>
+        <v>0.273429</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201707</v>
+        <v>0.200259</v>
       </c>
       <c r="C33" t="n">
-        <v>0.315441</v>
+        <v>0.316496</v>
       </c>
       <c r="D33" t="n">
-        <v>0.315498</v>
+        <v>0.322103</v>
       </c>
       <c r="E33" t="n">
-        <v>0.236959</v>
+        <v>0.160265</v>
       </c>
       <c r="F33" t="n">
-        <v>0.323423</v>
+        <v>0.270614</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195122</v>
+        <v>0.194856</v>
       </c>
       <c r="C34" t="n">
-        <v>0.311769</v>
+        <v>0.313751</v>
       </c>
       <c r="D34" t="n">
-        <v>0.317342</v>
+        <v>0.323237</v>
       </c>
       <c r="E34" t="n">
-        <v>0.23607</v>
+        <v>0.152579</v>
       </c>
       <c r="F34" t="n">
-        <v>0.322317</v>
+        <v>0.267235</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.188229</v>
+        <v>0.188151</v>
       </c>
       <c r="C35" t="n">
-        <v>0.297461</v>
+        <v>0.298386</v>
       </c>
       <c r="D35" t="n">
-        <v>0.313147</v>
+        <v>0.319202</v>
       </c>
       <c r="E35" t="n">
-        <v>0.23513</v>
+        <v>0.152329</v>
       </c>
       <c r="F35" t="n">
-        <v>0.320055</v>
+        <v>0.26338</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.17974</v>
+        <v>0.179773</v>
       </c>
       <c r="C36" t="n">
-        <v>0.286527</v>
+        <v>0.288233</v>
       </c>
       <c r="D36" t="n">
-        <v>0.313537</v>
+        <v>0.319838</v>
       </c>
       <c r="E36" t="n">
-        <v>0.235115</v>
+        <v>0.148636</v>
       </c>
       <c r="F36" t="n">
-        <v>0.319481</v>
+        <v>0.259082</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170466</v>
+        <v>0.171281</v>
       </c>
       <c r="C37" t="n">
-        <v>0.279347</v>
+        <v>0.280643</v>
       </c>
       <c r="D37" t="n">
-        <v>0.313651</v>
+        <v>0.320603</v>
       </c>
       <c r="E37" t="n">
-        <v>0.249417</v>
+        <v>0.198836</v>
       </c>
       <c r="F37" t="n">
-        <v>0.336108</v>
+        <v>0.307283</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247895</v>
+        <v>0.24645</v>
       </c>
       <c r="C38" t="n">
-        <v>0.35977</v>
+        <v>0.358948</v>
       </c>
       <c r="D38" t="n">
-        <v>0.313074</v>
+        <v>0.318783</v>
       </c>
       <c r="E38" t="n">
-        <v>0.246857</v>
+        <v>0.193665</v>
       </c>
       <c r="F38" t="n">
-        <v>0.334616</v>
+        <v>0.303201</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.245044</v>
+        <v>0.242954</v>
       </c>
       <c r="C39" t="n">
-        <v>0.356515</v>
+        <v>0.357615</v>
       </c>
       <c r="D39" t="n">
-        <v>0.313262</v>
+        <v>0.319856</v>
       </c>
       <c r="E39" t="n">
-        <v>0.245825</v>
+        <v>0.194655</v>
       </c>
       <c r="F39" t="n">
-        <v>0.333746</v>
+        <v>0.299273</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.242089</v>
+        <v>0.239809</v>
       </c>
       <c r="C40" t="n">
-        <v>0.352865</v>
+        <v>0.354727</v>
       </c>
       <c r="D40" t="n">
-        <v>0.313088</v>
+        <v>0.318766</v>
       </c>
       <c r="E40" t="n">
-        <v>0.244848</v>
+        <v>0.187702</v>
       </c>
       <c r="F40" t="n">
-        <v>0.332755</v>
+        <v>0.295796</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.236219</v>
+        <v>0.235204</v>
       </c>
       <c r="C41" t="n">
-        <v>0.347693</v>
+        <v>0.349631</v>
       </c>
       <c r="D41" t="n">
-        <v>0.31364</v>
+        <v>0.319422</v>
       </c>
       <c r="E41" t="n">
-        <v>0.243459</v>
+        <v>0.184379</v>
       </c>
       <c r="F41" t="n">
-        <v>0.331724</v>
+        <v>0.292367</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.231572</v>
+        <v>0.230188</v>
       </c>
       <c r="C42" t="n">
-        <v>0.343132</v>
+        <v>0.347651</v>
       </c>
       <c r="D42" t="n">
-        <v>0.313913</v>
+        <v>0.319282</v>
       </c>
       <c r="E42" t="n">
-        <v>0.242263</v>
+        <v>0.181183</v>
       </c>
       <c r="F42" t="n">
-        <v>0.330036</v>
+        <v>0.28773</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.226505</v>
+        <v>0.225332</v>
       </c>
       <c r="C43" t="n">
-        <v>0.337874</v>
+        <v>0.341024</v>
       </c>
       <c r="D43" t="n">
-        <v>0.313705</v>
+        <v>0.320303</v>
       </c>
       <c r="E43" t="n">
-        <v>0.241246</v>
+        <v>0.177141</v>
       </c>
       <c r="F43" t="n">
-        <v>0.328957</v>
+        <v>0.285429</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220847</v>
+        <v>0.220592</v>
       </c>
       <c r="C44" t="n">
-        <v>0.325115</v>
+        <v>0.327835</v>
       </c>
       <c r="D44" t="n">
-        <v>0.314729</v>
+        <v>0.320638</v>
       </c>
       <c r="E44" t="n">
-        <v>0.239775</v>
+        <v>0.174081</v>
       </c>
       <c r="F44" t="n">
-        <v>0.327937</v>
+        <v>0.281873</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215666</v>
+        <v>0.21522</v>
       </c>
       <c r="C45" t="n">
-        <v>0.334929</v>
+        <v>0.33921</v>
       </c>
       <c r="D45" t="n">
-        <v>0.315024</v>
+        <v>0.322903</v>
       </c>
       <c r="E45" t="n">
-        <v>0.239018</v>
+        <v>0.169817</v>
       </c>
       <c r="F45" t="n">
-        <v>0.327184</v>
+        <v>0.278462</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209924</v>
+        <v>0.20984</v>
       </c>
       <c r="C46" t="n">
-        <v>0.321509</v>
+        <v>0.326342</v>
       </c>
       <c r="D46" t="n">
-        <v>0.316302</v>
+        <v>0.322288</v>
       </c>
       <c r="E46" t="n">
-        <v>0.238147</v>
+        <v>0.167464</v>
       </c>
       <c r="F46" t="n">
-        <v>0.325414</v>
+        <v>0.275119</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.20454</v>
+        <v>0.204268</v>
       </c>
       <c r="C47" t="n">
-        <v>0.319026</v>
+        <v>0.325766</v>
       </c>
       <c r="D47" t="n">
-        <v>0.317158</v>
+        <v>0.324669</v>
       </c>
       <c r="E47" t="n">
-        <v>0.237426</v>
+        <v>0.158889</v>
       </c>
       <c r="F47" t="n">
-        <v>0.325289</v>
+        <v>0.271992</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198779</v>
+        <v>0.19858</v>
       </c>
       <c r="C48" t="n">
-        <v>0.305737</v>
+        <v>0.310669</v>
       </c>
       <c r="D48" t="n">
-        <v>0.317181</v>
+        <v>0.323697</v>
       </c>
       <c r="E48" t="n">
-        <v>0.236525</v>
+        <v>0.154906</v>
       </c>
       <c r="F48" t="n">
-        <v>0.323705</v>
+        <v>0.268763</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191496</v>
+        <v>0.191314</v>
       </c>
       <c r="C49" t="n">
-        <v>0.303486</v>
+        <v>0.305342</v>
       </c>
       <c r="D49" t="n">
-        <v>0.318904</v>
+        <v>0.325899</v>
       </c>
       <c r="E49" t="n">
-        <v>0.23574</v>
+        <v>0.151011</v>
       </c>
       <c r="F49" t="n">
-        <v>0.323141</v>
+        <v>0.265415</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.184163</v>
+        <v>0.183941</v>
       </c>
       <c r="C50" t="n">
-        <v>0.29839</v>
+        <v>0.302307</v>
       </c>
       <c r="D50" t="n">
-        <v>0.318239</v>
+        <v>0.324889</v>
       </c>
       <c r="E50" t="n">
-        <v>0.23523</v>
+        <v>0.146861</v>
       </c>
       <c r="F50" t="n">
-        <v>0.322115</v>
+        <v>0.261411</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175465</v>
+        <v>0.174583</v>
       </c>
       <c r="C51" t="n">
-        <v>0.285761</v>
+        <v>0.289549</v>
       </c>
       <c r="D51" t="n">
-        <v>0.317293</v>
+        <v>0.326089</v>
       </c>
       <c r="E51" t="n">
-        <v>0.249789</v>
+        <v>0.204777</v>
       </c>
       <c r="F51" t="n">
-        <v>0.336864</v>
+        <v>0.307843</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.164251</v>
+        <v>0.163865</v>
       </c>
       <c r="C52" t="n">
-        <v>0.281362</v>
+        <v>0.283649</v>
       </c>
       <c r="D52" t="n">
-        <v>0.319716</v>
+        <v>0.324158</v>
       </c>
       <c r="E52" t="n">
-        <v>0.248506</v>
+        <v>0.200204</v>
       </c>
       <c r="F52" t="n">
-        <v>0.335811</v>
+        <v>0.303445</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246488</v>
+        <v>0.245985</v>
       </c>
       <c r="C53" t="n">
-        <v>0.358332</v>
+        <v>0.36304</v>
       </c>
       <c r="D53" t="n">
-        <v>0.319106</v>
+        <v>0.327452</v>
       </c>
       <c r="E53" t="n">
-        <v>0.247051</v>
+        <v>0.196248</v>
       </c>
       <c r="F53" t="n">
-        <v>0.334045</v>
+        <v>0.298848</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242325</v>
+        <v>0.241809</v>
       </c>
       <c r="C54" t="n">
-        <v>0.356531</v>
+        <v>0.360034</v>
       </c>
       <c r="D54" t="n">
-        <v>0.321221</v>
+        <v>0.328559</v>
       </c>
       <c r="E54" t="n">
-        <v>0.245328</v>
+        <v>0.190948</v>
       </c>
       <c r="F54" t="n">
-        <v>0.332988</v>
+        <v>0.296741</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.240009</v>
+        <v>0.237729</v>
       </c>
       <c r="C55" t="n">
-        <v>0.352518</v>
+        <v>0.357548</v>
       </c>
       <c r="D55" t="n">
-        <v>0.321745</v>
+        <v>0.329492</v>
       </c>
       <c r="E55" t="n">
-        <v>0.244245</v>
+        <v>0.187265</v>
       </c>
       <c r="F55" t="n">
-        <v>0.33128</v>
+        <v>0.291782</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233661</v>
+        <v>0.233288</v>
       </c>
       <c r="C56" t="n">
-        <v>0.348603</v>
+        <v>0.352999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.32322</v>
+        <v>0.330836</v>
       </c>
       <c r="E56" t="n">
-        <v>0.242896</v>
+        <v>0.183575</v>
       </c>
       <c r="F56" t="n">
-        <v>0.330007</v>
+        <v>0.289233</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228756</v>
+        <v>0.228505</v>
       </c>
       <c r="C57" t="n">
-        <v>0.344726</v>
+        <v>0.349794</v>
       </c>
       <c r="D57" t="n">
-        <v>0.323847</v>
+        <v>0.329971</v>
       </c>
       <c r="E57" t="n">
-        <v>0.241893</v>
+        <v>0.179782</v>
       </c>
       <c r="F57" t="n">
-        <v>0.328629</v>
+        <v>0.286538</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223043</v>
+        <v>0.22305</v>
       </c>
       <c r="C58" t="n">
-        <v>0.32629</v>
+        <v>0.330543</v>
       </c>
       <c r="D58" t="n">
-        <v>0.326065</v>
+        <v>0.333926</v>
       </c>
       <c r="E58" t="n">
-        <v>0.241006</v>
+        <v>0.176006</v>
       </c>
       <c r="F58" t="n">
-        <v>0.327566</v>
+        <v>0.28322</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217913</v>
+        <v>0.217859</v>
       </c>
       <c r="C59" t="n">
-        <v>0.337615</v>
+        <v>0.341941</v>
       </c>
       <c r="D59" t="n">
-        <v>0.328026</v>
+        <v>0.336309</v>
       </c>
       <c r="E59" t="n">
-        <v>0.239961</v>
+        <v>0.172632</v>
       </c>
       <c r="F59" t="n">
-        <v>0.326991</v>
+        <v>0.279544</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212604</v>
+        <v>0.212523</v>
       </c>
       <c r="C60" t="n">
-        <v>0.317475</v>
+        <v>0.323022</v>
       </c>
       <c r="D60" t="n">
-        <v>0.329548</v>
+        <v>0.337863</v>
       </c>
       <c r="E60" t="n">
-        <v>0.238876</v>
+        <v>0.169139</v>
       </c>
       <c r="F60" t="n">
-        <v>0.32568</v>
+        <v>0.276376</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206707</v>
+        <v>0.206351</v>
       </c>
       <c r="C61" t="n">
-        <v>0.324786</v>
+        <v>0.328927</v>
       </c>
       <c r="D61" t="n">
-        <v>0.330829</v>
+        <v>0.34087</v>
       </c>
       <c r="E61" t="n">
-        <v>0.237998</v>
+        <v>0.165596</v>
       </c>
       <c r="F61" t="n">
-        <v>0.324888</v>
+        <v>0.273537</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.20106</v>
+        <v>0.200209</v>
       </c>
       <c r="C62" t="n">
-        <v>0.316154</v>
+        <v>0.319317</v>
       </c>
       <c r="D62" t="n">
-        <v>0.332904</v>
+        <v>0.342734</v>
       </c>
       <c r="E62" t="n">
-        <v>0.23735</v>
+        <v>0.16188</v>
       </c>
       <c r="F62" t="n">
-        <v>0.32411</v>
+        <v>0.269861</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194299</v>
+        <v>0.193896</v>
       </c>
       <c r="C63" t="n">
-        <v>0.327755</v>
+        <v>0.334236</v>
       </c>
       <c r="D63" t="n">
-        <v>0.337114</v>
+        <v>0.347241</v>
       </c>
       <c r="E63" t="n">
-        <v>0.236558</v>
+        <v>0.157989</v>
       </c>
       <c r="F63" t="n">
-        <v>0.323591</v>
+        <v>0.266865</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187076</v>
+        <v>0.187077</v>
       </c>
       <c r="C64" t="n">
-        <v>0.312674</v>
+        <v>0.319698</v>
       </c>
       <c r="D64" t="n">
-        <v>0.377123</v>
+        <v>0.39157</v>
       </c>
       <c r="E64" t="n">
-        <v>0.235616</v>
+        <v>0.153988</v>
       </c>
       <c r="F64" t="n">
-        <v>0.321736</v>
+        <v>0.263153</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177598</v>
+        <v>0.177401</v>
       </c>
       <c r="C65" t="n">
-        <v>0.327485</v>
+        <v>0.337924</v>
       </c>
       <c r="D65" t="n">
-        <v>0.377157</v>
+        <v>0.393983</v>
       </c>
       <c r="E65" t="n">
-        <v>0.234731</v>
+        <v>0.145335</v>
       </c>
       <c r="F65" t="n">
-        <v>0.321094</v>
+        <v>0.259664</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167343</v>
+        <v>0.167816</v>
       </c>
       <c r="C66" t="n">
-        <v>0.302196</v>
+        <v>0.310746</v>
       </c>
       <c r="D66" t="n">
-        <v>0.377127</v>
+        <v>0.396179</v>
       </c>
       <c r="E66" t="n">
-        <v>0.249132</v>
+        <v>0.205334</v>
       </c>
       <c r="F66" t="n">
-        <v>0.337277</v>
+        <v>0.30454</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247356</v>
+        <v>0.247</v>
       </c>
       <c r="C67" t="n">
-        <v>0.452807</v>
+        <v>0.481425</v>
       </c>
       <c r="D67" t="n">
-        <v>0.378582</v>
+        <v>0.394597</v>
       </c>
       <c r="E67" t="n">
-        <v>0.247716</v>
+        <v>0.199249</v>
       </c>
       <c r="F67" t="n">
-        <v>0.335927</v>
+        <v>0.300101</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243936</v>
+        <v>0.243843</v>
       </c>
       <c r="C68" t="n">
-        <v>0.370495</v>
+        <v>0.379725</v>
       </c>
       <c r="D68" t="n">
-        <v>0.379172</v>
+        <v>0.393654</v>
       </c>
       <c r="E68" t="n">
-        <v>0.246098</v>
+        <v>0.196651</v>
       </c>
       <c r="F68" t="n">
-        <v>0.334203</v>
+        <v>0.299049</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240184</v>
+        <v>0.241355</v>
       </c>
       <c r="C69" t="n">
-        <v>0.367637</v>
+        <v>0.377438</v>
       </c>
       <c r="D69" t="n">
-        <v>0.379839</v>
+        <v>0.399938</v>
       </c>
       <c r="E69" t="n">
-        <v>0.244838</v>
+        <v>0.191893</v>
       </c>
       <c r="F69" t="n">
-        <v>0.333169</v>
+        <v>0.29841</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2352</v>
+        <v>0.236268</v>
       </c>
       <c r="C70" t="n">
-        <v>0.362796</v>
+        <v>0.372861</v>
       </c>
       <c r="D70" t="n">
-        <v>0.379783</v>
+        <v>0.398774</v>
       </c>
       <c r="E70" t="n">
-        <v>0.243663</v>
+        <v>0.18772</v>
       </c>
       <c r="F70" t="n">
-        <v>0.331455</v>
+        <v>0.291889</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230495</v>
+        <v>0.231684</v>
       </c>
       <c r="C71" t="n">
-        <v>0.357744</v>
+        <v>0.368169</v>
       </c>
       <c r="D71" t="n">
-        <v>0.380222</v>
+        <v>0.402119</v>
       </c>
       <c r="E71" t="n">
-        <v>0.242387</v>
+        <v>0.17898</v>
       </c>
       <c r="F71" t="n">
-        <v>0.330828</v>
+        <v>0.28822</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225007</v>
+        <v>0.224924</v>
       </c>
       <c r="C72" t="n">
-        <v>0.479638</v>
+        <v>0.525169</v>
       </c>
       <c r="D72" t="n">
-        <v>0.382886</v>
+        <v>0.404942</v>
       </c>
       <c r="E72" t="n">
-        <v>0.241049</v>
+        <v>0.17392</v>
       </c>
       <c r="F72" t="n">
-        <v>0.329697</v>
+        <v>0.28594</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.220459</v>
+        <v>0.219611</v>
       </c>
       <c r="C73" t="n">
-        <v>0.418738</v>
+        <v>0.447246</v>
       </c>
       <c r="D73" t="n">
-        <v>0.380955</v>
+        <v>0.401796</v>
       </c>
       <c r="E73" t="n">
-        <v>0.240195</v>
+        <v>0.170701</v>
       </c>
       <c r="F73" t="n">
-        <v>0.328058</v>
+        <v>0.281583</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213485</v>
+        <v>0.213992</v>
       </c>
       <c r="C74" t="n">
-        <v>0.475135</v>
+        <v>0.521555</v>
       </c>
       <c r="D74" t="n">
-        <v>0.38026</v>
+        <v>0.401331</v>
       </c>
       <c r="E74" t="n">
-        <v>0.239362</v>
+        <v>0.170333</v>
       </c>
       <c r="F74" t="n">
-        <v>0.326849</v>
+        <v>0.278648</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.208793</v>
+        <v>0.20837</v>
       </c>
       <c r="C75" t="n">
-        <v>0.467507</v>
+        <v>0.512934</v>
       </c>
       <c r="D75" t="n">
-        <v>0.379313</v>
+        <v>0.401597</v>
       </c>
       <c r="E75" t="n">
-        <v>0.238281</v>
+        <v>0.162912</v>
       </c>
       <c r="F75" t="n">
-        <v>0.326113</v>
+        <v>0.274841</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.20228</v>
+        <v>0.202598</v>
       </c>
       <c r="C76" t="n">
-        <v>0.42337</v>
+        <v>0.457159</v>
       </c>
       <c r="D76" t="n">
-        <v>0.380489</v>
+        <v>0.401933</v>
       </c>
       <c r="E76" t="n">
-        <v>0.237486</v>
+        <v>0.163371</v>
       </c>
       <c r="F76" t="n">
-        <v>0.325159</v>
+        <v>0.271782</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19609</v>
+        <v>0.196063</v>
       </c>
       <c r="C77" t="n">
-        <v>0.395883</v>
+        <v>0.423535</v>
       </c>
       <c r="D77" t="n">
-        <v>0.381225</v>
+        <v>0.400728</v>
       </c>
       <c r="E77" t="n">
-        <v>0.23664</v>
+        <v>0.159864</v>
       </c>
       <c r="F77" t="n">
-        <v>0.32335</v>
+        <v>0.267864</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188997</v>
+        <v>0.188752</v>
       </c>
       <c r="C78" t="n">
-        <v>0.405367</v>
+        <v>0.434868</v>
       </c>
       <c r="D78" t="n">
-        <v>0.437504</v>
+        <v>0.468299</v>
       </c>
       <c r="E78" t="n">
-        <v>0.235873</v>
+        <v>0.156179</v>
       </c>
       <c r="F78" t="n">
-        <v>0.323219</v>
+        <v>0.264378</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179597</v>
+        <v>0.179497</v>
       </c>
       <c r="C79" t="n">
-        <v>0.324828</v>
+        <v>0.337128</v>
       </c>
       <c r="D79" t="n">
-        <v>0.433362</v>
+        <v>0.464669</v>
       </c>
       <c r="E79" t="n">
-        <v>0.235101</v>
+        <v>0.147301</v>
       </c>
       <c r="F79" t="n">
-        <v>0.322829</v>
+        <v>0.260841</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170397</v>
+        <v>0.170764</v>
       </c>
       <c r="C80" t="n">
-        <v>0.370067</v>
+        <v>0.393669</v>
       </c>
       <c r="D80" t="n">
-        <v>0.427834</v>
+        <v>0.458381</v>
       </c>
       <c r="E80" t="n">
-        <v>0.252142</v>
+        <v>0.20462</v>
       </c>
       <c r="F80" t="n">
-        <v>0.336621</v>
+        <v>0.30896</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248981</v>
+        <v>0.2488</v>
       </c>
       <c r="C81" t="n">
-        <v>0.381239</v>
+        <v>0.389116</v>
       </c>
       <c r="D81" t="n">
-        <v>0.426451</v>
+        <v>0.45499</v>
       </c>
       <c r="E81" t="n">
-        <v>0.249863</v>
+        <v>0.199039</v>
       </c>
       <c r="F81" t="n">
-        <v>0.335036</v>
+        <v>0.304756</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245085</v>
+        <v>0.245112</v>
       </c>
       <c r="C82" t="n">
-        <v>0.363286</v>
+        <v>0.371683</v>
       </c>
       <c r="D82" t="n">
-        <v>0.424542</v>
+        <v>0.454843</v>
       </c>
       <c r="E82" t="n">
-        <v>0.247627</v>
+        <v>0.197836</v>
       </c>
       <c r="F82" t="n">
-        <v>0.334641</v>
+        <v>0.297329</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241517</v>
+        <v>0.24091</v>
       </c>
       <c r="C83" t="n">
-        <v>0.357226</v>
+        <v>0.365666</v>
       </c>
       <c r="D83" t="n">
-        <v>0.417808</v>
+        <v>0.444281</v>
       </c>
       <c r="E83" t="n">
-        <v>0.246539</v>
+        <v>0.19275</v>
       </c>
       <c r="F83" t="n">
-        <v>0.332315</v>
+        <v>0.294245</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236257</v>
+        <v>0.236141</v>
       </c>
       <c r="C84" t="n">
-        <v>0.35328</v>
+        <v>0.362011</v>
       </c>
       <c r="D84" t="n">
-        <v>0.41373</v>
+        <v>0.443182</v>
       </c>
       <c r="E84" t="n">
-        <v>0.245102</v>
+        <v>0.184248</v>
       </c>
       <c r="F84" t="n">
-        <v>0.330988</v>
+        <v>0.290535</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232855</v>
+        <v>0.232824</v>
       </c>
       <c r="C85" t="n">
-        <v>0.347277</v>
+        <v>0.356038</v>
       </c>
       <c r="D85" t="n">
-        <v>0.410829</v>
+        <v>0.435471</v>
       </c>
       <c r="E85" t="n">
-        <v>0.243964</v>
+        <v>0.180475</v>
       </c>
       <c r="F85" t="n">
-        <v>0.329616</v>
+        <v>0.287581</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226662</v>
+        <v>0.227391</v>
       </c>
       <c r="C86" t="n">
-        <v>0.342165</v>
+        <v>0.350237</v>
       </c>
       <c r="D86" t="n">
-        <v>0.410225</v>
+        <v>0.43734</v>
       </c>
       <c r="E86" t="n">
-        <v>0.24196</v>
+        <v>0.176332</v>
       </c>
       <c r="F86" t="n">
-        <v>0.329191</v>
+        <v>0.284279</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.221158</v>
+        <v>0.220885</v>
       </c>
       <c r="C87" t="n">
-        <v>0.425921</v>
+        <v>0.479826</v>
       </c>
       <c r="D87" t="n">
-        <v>0.404955</v>
+        <v>0.432305</v>
       </c>
       <c r="E87" t="n">
-        <v>0.240867</v>
+        <v>0.172013</v>
       </c>
       <c r="F87" t="n">
-        <v>0.327866</v>
+        <v>0.280549</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215439</v>
+        <v>0.21556</v>
       </c>
       <c r="C88" t="n">
-        <v>0.435577</v>
+        <v>0.462531</v>
       </c>
       <c r="D88" t="n">
-        <v>0.40383</v>
+        <v>0.427028</v>
       </c>
       <c r="E88" t="n">
-        <v>0.239488</v>
+        <v>0.168716</v>
       </c>
       <c r="F88" t="n">
-        <v>0.326391</v>
+        <v>0.278633</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.210277</v>
+        <v>0.210576</v>
       </c>
       <c r="C89" t="n">
-        <v>0.422412</v>
+        <v>0.453995</v>
       </c>
       <c r="D89" t="n">
-        <v>0.404323</v>
+        <v>0.424059</v>
       </c>
       <c r="E89" t="n">
-        <v>0.238436</v>
+        <v>0.165106</v>
       </c>
       <c r="F89" t="n">
-        <v>0.325541</v>
+        <v>0.274478</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204027</v>
+        <v>0.20443</v>
       </c>
       <c r="C90" t="n">
-        <v>0.407847</v>
+        <v>0.437734</v>
       </c>
       <c r="D90" t="n">
-        <v>0.397493</v>
+        <v>0.420686</v>
       </c>
       <c r="E90" t="n">
-        <v>0.237726</v>
+        <v>0.161391</v>
       </c>
       <c r="F90" t="n">
-        <v>0.324429</v>
+        <v>0.271323</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197532</v>
+        <v>0.197829</v>
       </c>
       <c r="C91" t="n">
-        <v>0.370653</v>
+        <v>0.38697</v>
       </c>
       <c r="D91" t="n">
-        <v>0.398327</v>
+        <v>0.421678</v>
       </c>
       <c r="E91" t="n">
-        <v>0.236792</v>
+        <v>0.156976</v>
       </c>
       <c r="F91" t="n">
-        <v>0.323014</v>
+        <v>0.26789</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190307</v>
+        <v>0.190396</v>
       </c>
       <c r="C92" t="n">
-        <v>0.365986</v>
+        <v>0.384176</v>
       </c>
       <c r="D92" t="n">
-        <v>0.448369</v>
+        <v>0.477909</v>
       </c>
       <c r="E92" t="n">
-        <v>0.236067</v>
+        <v>0.153458</v>
       </c>
       <c r="F92" t="n">
-        <v>0.322233</v>
+        <v>0.264413</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181859</v>
+        <v>0.182097</v>
       </c>
       <c r="C93" t="n">
-        <v>0.392273</v>
+        <v>0.422134</v>
       </c>
       <c r="D93" t="n">
-        <v>0.43654</v>
+        <v>0.469405</v>
       </c>
       <c r="E93" t="n">
-        <v>0.235503</v>
+        <v>0.153744</v>
       </c>
       <c r="F93" t="n">
-        <v>0.321578</v>
+        <v>0.261903</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.173683</v>
+        <v>0.174045</v>
       </c>
       <c r="C94" t="n">
-        <v>0.378798</v>
+        <v>0.410524</v>
       </c>
       <c r="D94" t="n">
-        <v>0.437237</v>
+        <v>0.467784</v>
       </c>
       <c r="E94" t="n">
-        <v>0.252203</v>
+        <v>0.205763</v>
       </c>
       <c r="F94" t="n">
-        <v>0.337788</v>
+        <v>0.308702</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249494</v>
+        <v>0.249583</v>
       </c>
       <c r="C95" t="n">
-        <v>0.516684</v>
+        <v>0.567624</v>
       </c>
       <c r="D95" t="n">
-        <v>0.429836</v>
+        <v>0.462167</v>
       </c>
       <c r="E95" t="n">
-        <v>0.250281</v>
+        <v>0.202515</v>
       </c>
       <c r="F95" t="n">
-        <v>0.335443</v>
+        <v>0.297961</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.247305</v>
+        <v>0.2476</v>
       </c>
       <c r="C96" t="n">
-        <v>0.35624</v>
+        <v>0.360092</v>
       </c>
       <c r="D96" t="n">
-        <v>0.426123</v>
+        <v>0.458174</v>
       </c>
       <c r="E96" t="n">
-        <v>0.248332</v>
+        <v>0.197955</v>
       </c>
       <c r="F96" t="n">
-        <v>0.337739</v>
+        <v>0.292605</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.243553</v>
+        <v>0.243234</v>
       </c>
       <c r="C97" t="n">
-        <v>0.351686</v>
+        <v>0.355599</v>
       </c>
       <c r="D97" t="n">
-        <v>0.417279</v>
+        <v>0.447431</v>
       </c>
       <c r="E97" t="n">
-        <v>0.246655</v>
+        <v>0.19333</v>
       </c>
       <c r="F97" t="n">
-        <v>0.335265</v>
+        <v>0.289392</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.239063</v>
+        <v>0.238982</v>
       </c>
       <c r="C98" t="n">
-        <v>0.347421</v>
+        <v>0.351288</v>
       </c>
       <c r="D98" t="n">
-        <v>0.413893</v>
+        <v>0.443374</v>
       </c>
       <c r="E98" t="n">
-        <v>0.24547</v>
+        <v>0.18874</v>
       </c>
       <c r="F98" t="n">
-        <v>0.332383</v>
+        <v>0.287006</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.23423</v>
+        <v>0.234146</v>
       </c>
       <c r="C99" t="n">
-        <v>0.342515</v>
+        <v>0.429579</v>
       </c>
       <c r="D99" t="n">
-        <v>0.41137</v>
+        <v>0.43423</v>
       </c>
       <c r="E99" t="n">
-        <v>0.243597</v>
+        <v>0.185059</v>
       </c>
       <c r="F99" t="n">
-        <v>0.33328</v>
+        <v>0.282183</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228977</v>
+        <v>0.228962</v>
       </c>
       <c r="C100" t="n">
-        <v>0.337354</v>
+        <v>0.340884</v>
       </c>
       <c r="D100" t="n">
-        <v>0.405378</v>
+        <v>0.432573</v>
       </c>
       <c r="E100" t="n">
-        <v>0.24234</v>
+        <v>0.181054</v>
       </c>
       <c r="F100" t="n">
-        <v>0.32966</v>
+        <v>0.27893</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.22334</v>
+        <v>0.223383</v>
       </c>
       <c r="C101" t="n">
-        <v>0.405661</v>
+        <v>0.425087</v>
       </c>
       <c r="D101" t="n">
-        <v>0.402831</v>
+        <v>0.428998</v>
       </c>
       <c r="E101" t="n">
-        <v>0.241434</v>
+        <v>0.176348</v>
       </c>
       <c r="F101" t="n">
-        <v>0.327556</v>
+        <v>0.276014</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.217299</v>
+        <v>0.217516</v>
       </c>
       <c r="C102" t="n">
-        <v>0.396812</v>
+        <v>0.417699</v>
       </c>
       <c r="D102" t="n">
-        <v>0.398099</v>
+        <v>0.42282</v>
       </c>
       <c r="E102" t="n">
-        <v>0.240302</v>
+        <v>0.16907</v>
       </c>
       <c r="F102" t="n">
-        <v>0.327462</v>
+        <v>0.278266</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211506</v>
+        <v>0.211475</v>
       </c>
       <c r="C103" t="n">
-        <v>0.442124</v>
+        <v>0.46426</v>
       </c>
       <c r="D103" t="n">
-        <v>0.395462</v>
+        <v>0.41973</v>
       </c>
       <c r="E103" t="n">
-        <v>0.239207</v>
+        <v>0.169571</v>
       </c>
       <c r="F103" t="n">
-        <v>0.32648</v>
+        <v>0.274699</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.205395</v>
+        <v>0.205477</v>
       </c>
       <c r="C104" t="n">
-        <v>0.399315</v>
+        <v>0.454126</v>
       </c>
       <c r="D104" t="n">
-        <v>0.39349</v>
+        <v>0.417041</v>
       </c>
       <c r="E104" t="n">
-        <v>0.238525</v>
+        <v>0.166416</v>
       </c>
       <c r="F104" t="n">
-        <v>0.325456</v>
+        <v>0.265949</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199085</v>
+        <v>0.19898</v>
       </c>
       <c r="C105" t="n">
-        <v>0.441175</v>
+        <v>0.476489</v>
       </c>
       <c r="D105" t="n">
-        <v>0.39003</v>
+        <v>0.413073</v>
       </c>
       <c r="E105" t="n">
-        <v>0.237593</v>
+        <v>0.162574</v>
       </c>
       <c r="F105" t="n">
-        <v>0.32459</v>
+        <v>0.263045</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192007</v>
+        <v>0.192064</v>
       </c>
       <c r="C106" t="n">
-        <v>0.44744</v>
+        <v>0.476718</v>
       </c>
       <c r="D106" t="n">
-        <v>0.387212</v>
+        <v>0.409711</v>
       </c>
       <c r="E106" t="n">
-        <v>0.237055</v>
+        <v>0.158659</v>
       </c>
       <c r="F106" t="n">
-        <v>0.323584</v>
+        <v>0.259399</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183842</v>
+        <v>0.184051</v>
       </c>
       <c r="C107" t="n">
-        <v>0.406273</v>
+        <v>0.430482</v>
       </c>
       <c r="D107" t="n">
-        <v>0.418637</v>
+        <v>0.451389</v>
       </c>
       <c r="E107" t="n">
-        <v>0.23591</v>
+        <v>0.155398</v>
       </c>
       <c r="F107" t="n">
-        <v>0.321705</v>
+        <v>0.261296</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.175387</v>
+        <v>0.174738</v>
       </c>
       <c r="C108" t="n">
-        <v>0.40377</v>
+        <v>0.435433</v>
       </c>
       <c r="D108" t="n">
-        <v>0.412429</v>
+        <v>0.444397</v>
       </c>
       <c r="E108" t="n">
-        <v>0.252747</v>
+        <v>0.206938</v>
       </c>
       <c r="F108" t="n">
-        <v>0.337519</v>
+        <v>0.301197</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163504</v>
+        <v>0.16348</v>
       </c>
       <c r="C109" t="n">
-        <v>0.390905</v>
+        <v>0.418084</v>
       </c>
       <c r="D109" t="n">
-        <v>0.407942</v>
+        <v>0.436941</v>
       </c>
       <c r="E109" t="n">
-        <v>0.250404</v>
+        <v>0.203043</v>
       </c>
       <c r="F109" t="n">
-        <v>0.335951</v>
+        <v>0.29801</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.248111</v>
+        <v>0.248136</v>
       </c>
       <c r="C110" t="n">
-        <v>0.496956</v>
+        <v>0.533972</v>
       </c>
       <c r="D110" t="n">
-        <v>0.404987</v>
+        <v>0.436335</v>
       </c>
       <c r="E110" t="n">
-        <v>0.248374</v>
+        <v>0.198327</v>
       </c>
       <c r="F110" t="n">
-        <v>0.334382</v>
+        <v>0.29145</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.244232</v>
+        <v>0.244456</v>
       </c>
       <c r="C111" t="n">
-        <v>0.490903</v>
+        <v>0.527502</v>
       </c>
       <c r="D111" t="n">
-        <v>0.401436</v>
+        <v>0.430783</v>
       </c>
       <c r="E111" t="n">
-        <v>0.246722</v>
+        <v>0.189311</v>
       </c>
       <c r="F111" t="n">
-        <v>0.334014</v>
+        <v>0.295265</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.239843</v>
+        <v>0.240184</v>
       </c>
       <c r="C112" t="n">
-        <v>0.511228</v>
+        <v>0.557606</v>
       </c>
       <c r="D112" t="n">
-        <v>0.39745</v>
+        <v>0.426207</v>
       </c>
       <c r="E112" t="n">
-        <v>0.245214</v>
+        <v>0.185737</v>
       </c>
       <c r="F112" t="n">
-        <v>0.332411</v>
+        <v>0.291839</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234992</v>
+        <v>0.235249</v>
       </c>
       <c r="C113" t="n">
-        <v>0.503409</v>
+        <v>0.547821</v>
       </c>
       <c r="D113" t="n">
-        <v>0.393102</v>
+        <v>0.421414</v>
       </c>
       <c r="E113" t="n">
-        <v>0.243694</v>
+        <v>0.185987</v>
       </c>
       <c r="F113" t="n">
-        <v>0.331044</v>
+        <v>0.281769</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229743</v>
+        <v>0.230099</v>
       </c>
       <c r="C114" t="n">
-        <v>0.493774</v>
+        <v>0.536505</v>
       </c>
       <c r="D114" t="n">
-        <v>0.390818</v>
+        <v>0.417582</v>
       </c>
       <c r="E114" t="n">
-        <v>0.242389</v>
+        <v>0.182349</v>
       </c>
       <c r="F114" t="n">
-        <v>0.329992</v>
+        <v>0.279134</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224559</v>
+        <v>0.224391</v>
       </c>
       <c r="C115" t="n">
-        <v>0.432213</v>
+        <v>0.461072</v>
       </c>
       <c r="D115" t="n">
-        <v>0.387407</v>
+        <v>0.412805</v>
       </c>
       <c r="E115" t="n">
-        <v>0.241593</v>
+        <v>0.177319</v>
       </c>
       <c r="F115" t="n">
-        <v>0.327835</v>
+        <v>0.275483</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.218252</v>
+        <v>0.218255</v>
       </c>
       <c r="C116" t="n">
-        <v>0.405092</v>
+        <v>0.426683</v>
       </c>
       <c r="D116" t="n">
-        <v>0.385313</v>
+        <v>0.409205</v>
       </c>
       <c r="E116" t="n">
-        <v>0.240441</v>
+        <v>0.17377</v>
       </c>
       <c r="F116" t="n">
-        <v>0.327922</v>
+        <v>0.273247</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212979</v>
+        <v>0.212932</v>
       </c>
       <c r="C117" t="n">
-        <v>0.384808</v>
+        <v>0.390882</v>
       </c>
       <c r="D117" t="n">
-        <v>0.382233</v>
+        <v>0.405369</v>
       </c>
       <c r="E117" t="n">
-        <v>0.239471</v>
+        <v>0.170347</v>
       </c>
       <c r="F117" t="n">
-        <v>0.325611</v>
+        <v>0.275042</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206693</v>
+        <v>0.206332</v>
       </c>
       <c r="C118" t="n">
-        <v>0.400122</v>
+        <v>0.424926</v>
       </c>
       <c r="D118" t="n">
-        <v>0.380315</v>
+        <v>0.402783</v>
       </c>
       <c r="E118" t="n">
-        <v>0.238532</v>
+        <v>0.166872</v>
       </c>
       <c r="F118" t="n">
-        <v>0.32473</v>
+        <v>0.267334</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200531</v>
+        <v>0.20034</v>
       </c>
       <c r="C119" t="n">
-        <v>0.430271</v>
+        <v>0.463006</v>
       </c>
       <c r="D119" t="n">
-        <v>0.378791</v>
+        <v>0.40174</v>
       </c>
       <c r="E119" t="n">
-        <v>0.237773</v>
+        <v>0.163071</v>
       </c>
       <c r="F119" t="n">
-        <v>0.323724</v>
+        <v>0.263203</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193438</v>
+        <v>0.193645</v>
       </c>
       <c r="C120" t="n">
-        <v>0.397</v>
+        <v>0.422163</v>
       </c>
       <c r="D120" t="n">
-        <v>0.377356</v>
+        <v>0.399003</v>
       </c>
       <c r="E120" t="n">
-        <v>0.236931</v>
+        <v>0.159105</v>
       </c>
       <c r="F120" t="n">
-        <v>0.322891</v>
+        <v>0.259984</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185576</v>
+        <v>0.186082</v>
       </c>
       <c r="C121" t="n">
-        <v>0.403794</v>
+        <v>0.434789</v>
       </c>
       <c r="D121" t="n">
-        <v>0.45114</v>
+        <v>0.486783</v>
       </c>
       <c r="E121" t="n">
-        <v>0.236111</v>
+        <v>0.154969</v>
       </c>
       <c r="F121" t="n">
-        <v>0.322159</v>
+        <v>0.256981</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176692</v>
+        <v>0.177078</v>
       </c>
       <c r="C122" t="n">
-        <v>0.369082</v>
+        <v>0.391263</v>
       </c>
       <c r="D122" t="n">
-        <v>0.443884</v>
+        <v>0.469815</v>
       </c>
       <c r="E122" t="n">
-        <v>0.235403</v>
+        <v>0.151861</v>
       </c>
       <c r="F122" t="n">
-        <v>0.321442</v>
+        <v>0.256315</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.165989</v>
+        <v>0.166235</v>
       </c>
       <c r="C123" t="n">
-        <v>0.357358</v>
+        <v>0.38927</v>
       </c>
       <c r="D123" t="n">
-        <v>0.437165</v>
+        <v>0.473201</v>
       </c>
       <c r="E123" t="n">
-        <v>0.250563</v>
+        <v>0.200011</v>
       </c>
       <c r="F123" t="n">
-        <v>0.336225</v>
+        <v>0.302894</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.248983</v>
+        <v>0.249204</v>
       </c>
       <c r="C124" t="n">
-        <v>0.434298</v>
+        <v>0.458083</v>
       </c>
       <c r="D124" t="n">
-        <v>0.426615</v>
+        <v>0.458622</v>
       </c>
       <c r="E124" t="n">
-        <v>0.248608</v>
+        <v>0.195307</v>
       </c>
       <c r="F124" t="n">
-        <v>0.335609</v>
+        <v>0.299237</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.245293</v>
+        <v>0.245328</v>
       </c>
       <c r="C125" t="n">
-        <v>0.437493</v>
+        <v>0.446373</v>
       </c>
       <c r="D125" t="n">
-        <v>0.422894</v>
+        <v>0.454227</v>
       </c>
       <c r="E125" t="n">
-        <v>0.246865</v>
+        <v>0.19038</v>
       </c>
       <c r="F125" t="n">
-        <v>0.33435</v>
+        <v>0.296162</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.241217</v>
+        <v>0.24111</v>
       </c>
       <c r="C126" t="n">
-        <v>0.457098</v>
+        <v>0.466021</v>
       </c>
       <c r="D126" t="n">
-        <v>0.417566</v>
+        <v>0.448038</v>
       </c>
       <c r="E126" t="n">
-        <v>0.245428</v>
+        <v>0.185964</v>
       </c>
       <c r="F126" t="n">
-        <v>0.333043</v>
+        <v>0.292331</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236198</v>
+        <v>0.236273</v>
       </c>
       <c r="C127" t="n">
-        <v>0.466153</v>
+        <v>0.480417</v>
       </c>
       <c r="D127" t="n">
-        <v>0.412997</v>
+        <v>0.442374</v>
       </c>
       <c r="E127" t="n">
-        <v>0.244086</v>
+        <v>0.181948</v>
       </c>
       <c r="F127" t="n">
-        <v>0.331827</v>
+        <v>0.288883</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.231255</v>
+        <v>0.231081</v>
       </c>
       <c r="C128" t="n">
-        <v>0.432421</v>
+        <v>0.439949</v>
       </c>
       <c r="D128" t="n">
-        <v>0.410965</v>
+        <v>0.439453</v>
       </c>
       <c r="E128" t="n">
-        <v>0.242723</v>
+        <v>0.178051</v>
       </c>
       <c r="F128" t="n">
-        <v>0.330579</v>
+        <v>0.286106</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224918</v>
+        <v>0.225549</v>
       </c>
       <c r="C129" t="n">
-        <v>0.374575</v>
+        <v>0.508312</v>
       </c>
       <c r="D129" t="n">
-        <v>0.404593</v>
+        <v>0.429992</v>
       </c>
       <c r="E129" t="n">
-        <v>0.241538</v>
+        <v>0.174181</v>
       </c>
       <c r="F129" t="n">
-        <v>0.329057</v>
+        <v>0.2822</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219259</v>
+        <v>0.219642</v>
       </c>
       <c r="C130" t="n">
-        <v>0.412278</v>
+        <v>0.450292</v>
       </c>
       <c r="D130" t="n">
-        <v>0.398634</v>
+        <v>0.427902</v>
       </c>
       <c r="E130" t="n">
-        <v>0.240478</v>
+        <v>0.171006</v>
       </c>
       <c r="F130" t="n">
-        <v>0.328231</v>
+        <v>0.279064</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.213657</v>
+        <v>0.214091</v>
       </c>
       <c r="C131" t="n">
-        <v>0.409497</v>
+        <v>0.491724</v>
       </c>
       <c r="D131" t="n">
-        <v>0.396542</v>
+        <v>0.425047</v>
       </c>
       <c r="E131" t="n">
-        <v>0.239406</v>
+        <v>0.167121</v>
       </c>
       <c r="F131" t="n">
-        <v>0.32714</v>
+        <v>0.275998</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.208068</v>
+        <v>0.207957</v>
       </c>
       <c r="C132" t="n">
-        <v>0.404696</v>
+        <v>0.433456</v>
       </c>
       <c r="D132" t="n">
-        <v>0.395157</v>
+        <v>0.417884</v>
       </c>
       <c r="E132" t="n">
-        <v>0.238492</v>
+        <v>0.164067</v>
       </c>
       <c r="F132" t="n">
-        <v>0.325764</v>
+        <v>0.272663</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.202207</v>
+        <v>0.201936</v>
       </c>
       <c r="C133" t="n">
-        <v>0.410326</v>
+        <v>0.433481</v>
       </c>
       <c r="D133" t="n">
-        <v>0.390114</v>
+        <v>0.413812</v>
       </c>
       <c r="E133" t="n">
-        <v>0.237763</v>
+        <v>0.159619</v>
       </c>
       <c r="F133" t="n">
-        <v>0.324856</v>
+        <v>0.269655</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.19559</v>
+        <v>0.195233</v>
       </c>
       <c r="C134" t="n">
-        <v>0.373344</v>
+        <v>0.394185</v>
       </c>
       <c r="D134" t="n">
-        <v>0.389524</v>
+        <v>0.412474</v>
       </c>
       <c r="E134" t="n">
-        <v>0.237007</v>
+        <v>0.160295</v>
       </c>
       <c r="F134" t="n">
-        <v>0.324148</v>
+        <v>0.266388</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187814</v>
+        <v>0.188148</v>
       </c>
       <c r="C135" t="n">
-        <v>0.399766</v>
+        <v>0.429922</v>
       </c>
       <c r="D135" t="n">
-        <v>0.453674</v>
+        <v>0.487042</v>
       </c>
       <c r="E135" t="n">
-        <v>0.236201</v>
+        <v>0.156056</v>
       </c>
       <c r="F135" t="n">
-        <v>0.322212</v>
+        <v>0.257772</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178743</v>
+        <v>0.178751</v>
       </c>
       <c r="C136" t="n">
-        <v>0.349997</v>
+        <v>0.363349</v>
       </c>
       <c r="D136" t="n">
-        <v>0.449192</v>
+        <v>0.484811</v>
       </c>
       <c r="E136" t="n">
-        <v>0.235715</v>
+        <v>0.152122</v>
       </c>
       <c r="F136" t="n">
-        <v>0.322638</v>
+        <v>0.254026</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16808</v>
+        <v>0.168307</v>
       </c>
       <c r="C137" t="n">
-        <v>0.36292</v>
+        <v>0.385681</v>
       </c>
       <c r="D137" t="n">
-        <v>0.441943</v>
+        <v>0.472545</v>
       </c>
       <c r="E137" t="n">
-        <v>0.250849</v>
+        <v>0.20412</v>
       </c>
       <c r="F137" t="n">
-        <v>0.337632</v>
+        <v>0.297995</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.248318</v>
+        <v>0.248482</v>
       </c>
       <c r="C138" t="n">
-        <v>0.425791</v>
+        <v>0.440659</v>
       </c>
       <c r="D138" t="n">
-        <v>0.433604</v>
+        <v>0.466986</v>
       </c>
       <c r="E138" t="n">
-        <v>0.249068</v>
+        <v>0.199543</v>
       </c>
       <c r="F138" t="n">
-        <v>0.335601</v>
+        <v>0.294345</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244928</v>
+        <v>0.245649</v>
       </c>
       <c r="C139" t="n">
-        <v>0.477396</v>
+        <v>0.495448</v>
       </c>
       <c r="D139" t="n">
-        <v>0.4278</v>
+        <v>0.459094</v>
       </c>
       <c r="E139" t="n">
-        <v>0.247423</v>
+        <v>0.195048</v>
       </c>
       <c r="F139" t="n">
-        <v>0.334071</v>
+        <v>0.290887</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.24055</v>
+        <v>0.241543</v>
       </c>
       <c r="C140" t="n">
-        <v>0.468807</v>
+        <v>0.499527</v>
       </c>
       <c r="D140" t="n">
-        <v>0.425777</v>
+        <v>0.457375</v>
       </c>
       <c r="E140" t="n">
-        <v>0.245723</v>
+        <v>0.186921</v>
       </c>
       <c r="F140" t="n">
-        <v>0.333283</v>
+        <v>0.292877</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.23584</v>
+        <v>0.236034</v>
       </c>
       <c r="C141" t="n">
-        <v>0.478192</v>
+        <v>0.497218</v>
       </c>
       <c r="D141" t="n">
-        <v>0.417193</v>
+        <v>0.446694</v>
       </c>
       <c r="E141" t="n">
-        <v>0.244394</v>
+        <v>0.183413</v>
       </c>
       <c r="F141" t="n">
-        <v>0.332019</v>
+        <v>0.28948</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231109</v>
+        <v>0.231158</v>
       </c>
       <c r="C142" t="n">
-        <v>0.359466</v>
+        <v>0.369742</v>
       </c>
       <c r="D142" t="n">
-        <v>0.411625</v>
+        <v>0.441046</v>
       </c>
       <c r="E142" t="n">
-        <v>0.243127</v>
+        <v>0.178961</v>
       </c>
       <c r="F142" t="n">
-        <v>0.330114</v>
+        <v>0.285889</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225846</v>
+        <v>0.225794</v>
       </c>
       <c r="C143" t="n">
-        <v>0.448449</v>
+        <v>0.457967</v>
       </c>
       <c r="D143" t="n">
-        <v>0.407635</v>
+        <v>0.434284</v>
       </c>
       <c r="E143" t="n">
-        <v>0.241966</v>
+        <v>0.17561</v>
       </c>
       <c r="F143" t="n">
-        <v>0.328373</v>
+        <v>0.282898</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.18092</v>
+        <v>0.196538</v>
       </c>
       <c r="C2" t="n">
-        <v>0.317012</v>
+        <v>0.316511</v>
       </c>
       <c r="D2" t="n">
-        <v>0.313787</v>
+        <v>0.305059</v>
       </c>
       <c r="E2" t="n">
-        <v>0.130762</v>
+        <v>0.126597</v>
       </c>
       <c r="F2" t="n">
-        <v>0.259063</v>
+        <v>0.260206</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.180223</v>
+        <v>0.194853</v>
       </c>
       <c r="C3" t="n">
-        <v>0.318637</v>
+        <v>0.317377</v>
       </c>
       <c r="D3" t="n">
-        <v>0.313204</v>
+        <v>0.306058</v>
       </c>
       <c r="E3" t="n">
-        <v>0.128578</v>
+        <v>0.125001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.255454</v>
+        <v>0.259499</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.179387</v>
+        <v>0.186744</v>
       </c>
       <c r="C4" t="n">
-        <v>0.313541</v>
+        <v>0.314423</v>
       </c>
       <c r="D4" t="n">
-        <v>0.315021</v>
+        <v>0.308148</v>
       </c>
       <c r="E4" t="n">
-        <v>0.127752</v>
+        <v>0.123195</v>
       </c>
       <c r="F4" t="n">
-        <v>0.253762</v>
+        <v>0.257694</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.173901</v>
+        <v>0.183897</v>
       </c>
       <c r="C5" t="n">
-        <v>0.307957</v>
+        <v>0.305741</v>
       </c>
       <c r="D5" t="n">
-        <v>0.316478</v>
+        <v>0.309057</v>
       </c>
       <c r="E5" t="n">
-        <v>0.123139</v>
+        <v>0.123796</v>
       </c>
       <c r="F5" t="n">
-        <v>0.257931</v>
+        <v>0.252552</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.168501</v>
+        <v>0.177944</v>
       </c>
       <c r="C6" t="n">
-        <v>0.300403</v>
+        <v>0.303733</v>
       </c>
       <c r="D6" t="n">
-        <v>0.318013</v>
+        <v>0.310488</v>
       </c>
       <c r="E6" t="n">
-        <v>0.121889</v>
+        <v>0.122508</v>
       </c>
       <c r="F6" t="n">
-        <v>0.253417</v>
+        <v>0.250175</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.164668</v>
+        <v>0.170052</v>
       </c>
       <c r="C7" t="n">
-        <v>0.294283</v>
+        <v>0.293752</v>
       </c>
       <c r="D7" t="n">
-        <v>0.309778</v>
+        <v>0.301032</v>
       </c>
       <c r="E7" t="n">
-        <v>0.120342</v>
+        <v>0.121103</v>
       </c>
       <c r="F7" t="n">
-        <v>0.250543</v>
+        <v>0.247732</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.155301</v>
+        <v>0.163529</v>
       </c>
       <c r="C8" t="n">
-        <v>0.288064</v>
+        <v>0.286168</v>
       </c>
       <c r="D8" t="n">
-        <v>0.308853</v>
+        <v>0.301706</v>
       </c>
       <c r="E8" t="n">
-        <v>0.117054</v>
+        <v>0.120661</v>
       </c>
       <c r="F8" t="n">
-        <v>0.24754</v>
+        <v>0.245038</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.146613</v>
+        <v>0.153071</v>
       </c>
       <c r="C9" t="n">
-        <v>0.27972</v>
+        <v>0.275374</v>
       </c>
       <c r="D9" t="n">
-        <v>0.310831</v>
+        <v>0.302797</v>
       </c>
       <c r="E9" t="n">
-        <v>0.189937</v>
+        <v>0.17615</v>
       </c>
       <c r="F9" t="n">
-        <v>0.297381</v>
+        <v>0.294595</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229932</v>
+        <v>0.236614</v>
       </c>
       <c r="C10" t="n">
-        <v>0.350191</v>
+        <v>0.355155</v>
       </c>
       <c r="D10" t="n">
-        <v>0.310166</v>
+        <v>0.303923</v>
       </c>
       <c r="E10" t="n">
-        <v>0.186135</v>
+        <v>0.173723</v>
       </c>
       <c r="F10" t="n">
-        <v>0.292292</v>
+        <v>0.290115</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.226346</v>
+        <v>0.232528</v>
       </c>
       <c r="C11" t="n">
-        <v>0.35174</v>
+        <v>0.353063</v>
       </c>
       <c r="D11" t="n">
-        <v>0.311884</v>
+        <v>0.30523</v>
       </c>
       <c r="E11" t="n">
-        <v>0.183042</v>
+        <v>0.170437</v>
       </c>
       <c r="F11" t="n">
-        <v>0.288955</v>
+        <v>0.288834</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.22327</v>
+        <v>0.227681</v>
       </c>
       <c r="C12" t="n">
-        <v>0.346911</v>
+        <v>0.349237</v>
       </c>
       <c r="D12" t="n">
-        <v>0.312682</v>
+        <v>0.306904</v>
       </c>
       <c r="E12" t="n">
-        <v>0.179495</v>
+        <v>0.167908</v>
       </c>
       <c r="F12" t="n">
-        <v>0.28805</v>
+        <v>0.28643</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.220505</v>
+        <v>0.223682</v>
       </c>
       <c r="C13" t="n">
-        <v>0.343836</v>
+        <v>0.344605</v>
       </c>
       <c r="D13" t="n">
-        <v>0.312851</v>
+        <v>0.307566</v>
       </c>
       <c r="E13" t="n">
-        <v>0.173567</v>
+        <v>0.164448</v>
       </c>
       <c r="F13" t="n">
-        <v>0.285362</v>
+        <v>0.285909</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.217062</v>
+        <v>0.220895</v>
       </c>
       <c r="C14" t="n">
-        <v>0.340124</v>
+        <v>0.339796</v>
       </c>
       <c r="D14" t="n">
-        <v>0.313938</v>
+        <v>0.308431</v>
       </c>
       <c r="E14" t="n">
-        <v>0.170781</v>
+        <v>0.161193</v>
       </c>
       <c r="F14" t="n">
-        <v>0.28302</v>
+        <v>0.280595</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212873</v>
+        <v>0.218465</v>
       </c>
       <c r="C15" t="n">
-        <v>0.334625</v>
+        <v>0.327171</v>
       </c>
       <c r="D15" t="n">
-        <v>0.315178</v>
+        <v>0.308327</v>
       </c>
       <c r="E15" t="n">
-        <v>0.166495</v>
+        <v>0.157283</v>
       </c>
       <c r="F15" t="n">
-        <v>0.280758</v>
+        <v>0.278161</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209375</v>
+        <v>0.21187</v>
       </c>
       <c r="C16" t="n">
-        <v>0.329585</v>
+        <v>0.322312</v>
       </c>
       <c r="D16" t="n">
-        <v>0.316211</v>
+        <v>0.308849</v>
       </c>
       <c r="E16" t="n">
-        <v>0.164942</v>
+        <v>0.154281</v>
       </c>
       <c r="F16" t="n">
-        <v>0.276936</v>
+        <v>0.273921</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204685</v>
+        <v>0.210225</v>
       </c>
       <c r="C17" t="n">
-        <v>0.319769</v>
+        <v>0.315957</v>
       </c>
       <c r="D17" t="n">
-        <v>0.31703</v>
+        <v>0.310298</v>
       </c>
       <c r="E17" t="n">
-        <v>0.160376</v>
+        <v>0.151091</v>
       </c>
       <c r="F17" t="n">
-        <v>0.275152</v>
+        <v>0.270997</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198326</v>
+        <v>0.20172</v>
       </c>
       <c r="C18" t="n">
-        <v>0.315951</v>
+        <v>0.310928</v>
       </c>
       <c r="D18" t="n">
-        <v>0.319052</v>
+        <v>0.310981</v>
       </c>
       <c r="E18" t="n">
-        <v>0.158303</v>
+        <v>0.149343</v>
       </c>
       <c r="F18" t="n">
-        <v>0.270073</v>
+        <v>0.267996</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.19338</v>
+        <v>0.195479</v>
       </c>
       <c r="C19" t="n">
-        <v>0.309751</v>
+        <v>0.30645</v>
       </c>
       <c r="D19" t="n">
-        <v>0.319943</v>
+        <v>0.312106</v>
       </c>
       <c r="E19" t="n">
-        <v>0.149382</v>
+        <v>0.146761</v>
       </c>
       <c r="F19" t="n">
-        <v>0.267108</v>
+        <v>0.264641</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187349</v>
+        <v>0.191262</v>
       </c>
       <c r="C20" t="n">
-        <v>0.314238</v>
+        <v>0.304434</v>
       </c>
       <c r="D20" t="n">
-        <v>0.320513</v>
+        <v>0.312787</v>
       </c>
       <c r="E20" t="n">
-        <v>0.150554</v>
+        <v>0.14406</v>
       </c>
       <c r="F20" t="n">
-        <v>0.264488</v>
+        <v>0.261132</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181349</v>
+        <v>0.18461</v>
       </c>
       <c r="C21" t="n">
-        <v>0.301776</v>
+        <v>0.298001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.316331</v>
+        <v>0.309369</v>
       </c>
       <c r="E21" t="n">
-        <v>0.145673</v>
+        <v>0.141745</v>
       </c>
       <c r="F21" t="n">
-        <v>0.258961</v>
+        <v>0.256327</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.172951</v>
+        <v>0.173987</v>
       </c>
       <c r="C22" t="n">
-        <v>0.293643</v>
+        <v>0.283994</v>
       </c>
       <c r="D22" t="n">
-        <v>0.315223</v>
+        <v>0.309621</v>
       </c>
       <c r="E22" t="n">
-        <v>0.143152</v>
+        <v>0.137957</v>
       </c>
       <c r="F22" t="n">
-        <v>0.255379</v>
+        <v>0.256004</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.163698</v>
+        <v>0.164777</v>
       </c>
       <c r="C23" t="n">
-        <v>0.276778</v>
+        <v>0.277631</v>
       </c>
       <c r="D23" t="n">
-        <v>0.315494</v>
+        <v>0.309065</v>
       </c>
       <c r="E23" t="n">
-        <v>0.198219</v>
+        <v>0.184503</v>
       </c>
       <c r="F23" t="n">
-        <v>0.304559</v>
+        <v>0.297521</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240109</v>
+        <v>0.245818</v>
       </c>
       <c r="C24" t="n">
-        <v>0.352837</v>
+        <v>0.354318</v>
       </c>
       <c r="D24" t="n">
-        <v>0.315771</v>
+        <v>0.3107</v>
       </c>
       <c r="E24" t="n">
-        <v>0.194764</v>
+        <v>0.180444</v>
       </c>
       <c r="F24" t="n">
-        <v>0.296546</v>
+        <v>0.294367</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.239362</v>
+        <v>0.240849</v>
       </c>
       <c r="C25" t="n">
-        <v>0.352197</v>
+        <v>0.350216</v>
       </c>
       <c r="D25" t="n">
-        <v>0.31684</v>
+        <v>0.310382</v>
       </c>
       <c r="E25" t="n">
-        <v>0.188796</v>
+        <v>0.178035</v>
       </c>
       <c r="F25" t="n">
-        <v>0.294682</v>
+        <v>0.291525</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.236556</v>
+        <v>0.236503</v>
       </c>
       <c r="C26" t="n">
-        <v>0.348045</v>
+        <v>0.34506</v>
       </c>
       <c r="D26" t="n">
-        <v>0.317406</v>
+        <v>0.310644</v>
       </c>
       <c r="E26" t="n">
-        <v>0.185052</v>
+        <v>0.173672</v>
       </c>
       <c r="F26" t="n">
-        <v>0.292351</v>
+        <v>0.288518</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230021</v>
+        <v>0.234942</v>
       </c>
       <c r="C27" t="n">
-        <v>0.343741</v>
+        <v>0.340896</v>
       </c>
       <c r="D27" t="n">
-        <v>0.317556</v>
+        <v>0.310879</v>
       </c>
       <c r="E27" t="n">
-        <v>0.177449</v>
+        <v>0.170536</v>
       </c>
       <c r="F27" t="n">
-        <v>0.29004</v>
+        <v>0.280584</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.226488</v>
+        <v>0.228939</v>
       </c>
       <c r="C28" t="n">
-        <v>0.338637</v>
+        <v>0.336554</v>
       </c>
       <c r="D28" t="n">
-        <v>0.318866</v>
+        <v>0.310332</v>
       </c>
       <c r="E28" t="n">
-        <v>0.174282</v>
+        <v>0.166763</v>
       </c>
       <c r="F28" t="n">
-        <v>0.286089</v>
+        <v>0.278514</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.223412</v>
+        <v>0.223877</v>
       </c>
       <c r="C29" t="n">
-        <v>0.333576</v>
+        <v>0.331615</v>
       </c>
       <c r="D29" t="n">
-        <v>0.318505</v>
+        <v>0.311935</v>
       </c>
       <c r="E29" t="n">
-        <v>0.170299</v>
+        <v>0.164426</v>
       </c>
       <c r="F29" t="n">
-        <v>0.284314</v>
+        <v>0.275845</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.216638</v>
+        <v>0.219334</v>
       </c>
       <c r="C30" t="n">
-        <v>0.332409</v>
+        <v>0.328659</v>
       </c>
       <c r="D30" t="n">
-        <v>0.319461</v>
+        <v>0.312656</v>
       </c>
       <c r="E30" t="n">
-        <v>0.166338</v>
+        <v>0.162031</v>
       </c>
       <c r="F30" t="n">
-        <v>0.281233</v>
+        <v>0.273385</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211562</v>
+        <v>0.212484</v>
       </c>
       <c r="C31" t="n">
-        <v>0.326371</v>
+        <v>0.323363</v>
       </c>
       <c r="D31" t="n">
-        <v>0.320988</v>
+        <v>0.3132</v>
       </c>
       <c r="E31" t="n">
-        <v>0.167312</v>
+        <v>0.158096</v>
       </c>
       <c r="F31" t="n">
-        <v>0.277229</v>
+        <v>0.27389</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206431</v>
+        <v>0.208819</v>
       </c>
       <c r="C32" t="n">
-        <v>0.323847</v>
+        <v>0.322451</v>
       </c>
       <c r="D32" t="n">
-        <v>0.320824</v>
+        <v>0.314223</v>
       </c>
       <c r="E32" t="n">
-        <v>0.163645</v>
+        <v>0.155006</v>
       </c>
       <c r="F32" t="n">
-        <v>0.273429</v>
+        <v>0.27146</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200259</v>
+        <v>0.201549</v>
       </c>
       <c r="C33" t="n">
-        <v>0.316496</v>
+        <v>0.31479</v>
       </c>
       <c r="D33" t="n">
-        <v>0.322103</v>
+        <v>0.316432</v>
       </c>
       <c r="E33" t="n">
-        <v>0.160265</v>
+        <v>0.152385</v>
       </c>
       <c r="F33" t="n">
-        <v>0.270614</v>
+        <v>0.267806</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.194856</v>
+        <v>0.196422</v>
       </c>
       <c r="C34" t="n">
-        <v>0.313751</v>
+        <v>0.310098</v>
       </c>
       <c r="D34" t="n">
-        <v>0.323237</v>
+        <v>0.317572</v>
       </c>
       <c r="E34" t="n">
-        <v>0.152579</v>
+        <v>0.149249</v>
       </c>
       <c r="F34" t="n">
-        <v>0.267235</v>
+        <v>0.264606</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.188151</v>
+        <v>0.189239</v>
       </c>
       <c r="C35" t="n">
-        <v>0.298386</v>
+        <v>0.303537</v>
       </c>
       <c r="D35" t="n">
-        <v>0.319202</v>
+        <v>0.31146</v>
       </c>
       <c r="E35" t="n">
-        <v>0.152329</v>
+        <v>0.146016</v>
       </c>
       <c r="F35" t="n">
-        <v>0.26338</v>
+        <v>0.259604</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179773</v>
+        <v>0.179349</v>
       </c>
       <c r="C36" t="n">
-        <v>0.288233</v>
+        <v>0.290706</v>
       </c>
       <c r="D36" t="n">
-        <v>0.319838</v>
+        <v>0.311939</v>
       </c>
       <c r="E36" t="n">
-        <v>0.148636</v>
+        <v>0.143003</v>
       </c>
       <c r="F36" t="n">
-        <v>0.259082</v>
+        <v>0.257447</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171281</v>
+        <v>0.170486</v>
       </c>
       <c r="C37" t="n">
-        <v>0.280643</v>
+        <v>0.27967</v>
       </c>
       <c r="D37" t="n">
-        <v>0.320603</v>
+        <v>0.311767</v>
       </c>
       <c r="E37" t="n">
-        <v>0.198836</v>
+        <v>0.187447</v>
       </c>
       <c r="F37" t="n">
-        <v>0.307283</v>
+        <v>0.299961</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.24645</v>
+        <v>0.247196</v>
       </c>
       <c r="C38" t="n">
-        <v>0.358948</v>
+        <v>0.36296</v>
       </c>
       <c r="D38" t="n">
-        <v>0.318783</v>
+        <v>0.311547</v>
       </c>
       <c r="E38" t="n">
-        <v>0.193665</v>
+        <v>0.183938</v>
       </c>
       <c r="F38" t="n">
-        <v>0.303201</v>
+        <v>0.292644</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.242954</v>
+        <v>0.243966</v>
       </c>
       <c r="C39" t="n">
-        <v>0.357615</v>
+        <v>0.359233</v>
       </c>
       <c r="D39" t="n">
-        <v>0.319856</v>
+        <v>0.311461</v>
       </c>
       <c r="E39" t="n">
-        <v>0.194655</v>
+        <v>0.179877</v>
       </c>
       <c r="F39" t="n">
-        <v>0.299273</v>
+        <v>0.295268</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239809</v>
+        <v>0.241238</v>
       </c>
       <c r="C40" t="n">
-        <v>0.354727</v>
+        <v>0.355935</v>
       </c>
       <c r="D40" t="n">
-        <v>0.318766</v>
+        <v>0.312473</v>
       </c>
       <c r="E40" t="n">
-        <v>0.187702</v>
+        <v>0.175724</v>
       </c>
       <c r="F40" t="n">
-        <v>0.295796</v>
+        <v>0.290886</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.235204</v>
+        <v>0.238577</v>
       </c>
       <c r="C41" t="n">
-        <v>0.349631</v>
+        <v>0.350905</v>
       </c>
       <c r="D41" t="n">
-        <v>0.319422</v>
+        <v>0.312484</v>
       </c>
       <c r="E41" t="n">
-        <v>0.184379</v>
+        <v>0.172397</v>
       </c>
       <c r="F41" t="n">
-        <v>0.292367</v>
+        <v>0.287894</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230188</v>
+        <v>0.232253</v>
       </c>
       <c r="C42" t="n">
-        <v>0.347651</v>
+        <v>0.345946</v>
       </c>
       <c r="D42" t="n">
-        <v>0.319282</v>
+        <v>0.312758</v>
       </c>
       <c r="E42" t="n">
-        <v>0.181183</v>
+        <v>0.16869</v>
       </c>
       <c r="F42" t="n">
-        <v>0.28773</v>
+        <v>0.286069</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.225332</v>
+        <v>0.227508</v>
       </c>
       <c r="C43" t="n">
-        <v>0.341024</v>
+        <v>0.340753</v>
       </c>
       <c r="D43" t="n">
-        <v>0.320303</v>
+        <v>0.313274</v>
       </c>
       <c r="E43" t="n">
-        <v>0.177141</v>
+        <v>0.166407</v>
       </c>
       <c r="F43" t="n">
-        <v>0.285429</v>
+        <v>0.282155</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220592</v>
+        <v>0.222691</v>
       </c>
       <c r="C44" t="n">
-        <v>0.327835</v>
+        <v>0.328326</v>
       </c>
       <c r="D44" t="n">
-        <v>0.320638</v>
+        <v>0.314101</v>
       </c>
       <c r="E44" t="n">
-        <v>0.174081</v>
+        <v>0.163015</v>
       </c>
       <c r="F44" t="n">
-        <v>0.281873</v>
+        <v>0.279172</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.21522</v>
+        <v>0.217719</v>
       </c>
       <c r="C45" t="n">
-        <v>0.33921</v>
+        <v>0.328515</v>
       </c>
       <c r="D45" t="n">
-        <v>0.322903</v>
+        <v>0.315427</v>
       </c>
       <c r="E45" t="n">
-        <v>0.169817</v>
+        <v>0.160277</v>
       </c>
       <c r="F45" t="n">
-        <v>0.278462</v>
+        <v>0.275674</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.20984</v>
+        <v>0.210307</v>
       </c>
       <c r="C46" t="n">
-        <v>0.326342</v>
+        <v>0.321403</v>
       </c>
       <c r="D46" t="n">
-        <v>0.322288</v>
+        <v>0.316123</v>
       </c>
       <c r="E46" t="n">
-        <v>0.167464</v>
+        <v>0.157097</v>
       </c>
       <c r="F46" t="n">
-        <v>0.275119</v>
+        <v>0.273215</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204268</v>
+        <v>0.204054</v>
       </c>
       <c r="C47" t="n">
-        <v>0.325766</v>
+        <v>0.314536</v>
       </c>
       <c r="D47" t="n">
-        <v>0.324669</v>
+        <v>0.317562</v>
       </c>
       <c r="E47" t="n">
-        <v>0.158889</v>
+        <v>0.154834</v>
       </c>
       <c r="F47" t="n">
-        <v>0.271992</v>
+        <v>0.26877</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.19858</v>
+        <v>0.199849</v>
       </c>
       <c r="C48" t="n">
-        <v>0.310669</v>
+        <v>0.306619</v>
       </c>
       <c r="D48" t="n">
-        <v>0.323697</v>
+        <v>0.316414</v>
       </c>
       <c r="E48" t="n">
-        <v>0.154906</v>
+        <v>0.151965</v>
       </c>
       <c r="F48" t="n">
-        <v>0.268763</v>
+        <v>0.265459</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191314</v>
+        <v>0.191669</v>
       </c>
       <c r="C49" t="n">
-        <v>0.305342</v>
+        <v>0.303822</v>
       </c>
       <c r="D49" t="n">
-        <v>0.325899</v>
+        <v>0.318254</v>
       </c>
       <c r="E49" t="n">
-        <v>0.151011</v>
+        <v>0.148638</v>
       </c>
       <c r="F49" t="n">
-        <v>0.265415</v>
+        <v>0.261635</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183941</v>
+        <v>0.182671</v>
       </c>
       <c r="C50" t="n">
-        <v>0.302307</v>
+        <v>0.294185</v>
       </c>
       <c r="D50" t="n">
-        <v>0.324889</v>
+        <v>0.316628</v>
       </c>
       <c r="E50" t="n">
-        <v>0.146861</v>
+        <v>0.145688</v>
       </c>
       <c r="F50" t="n">
-        <v>0.261411</v>
+        <v>0.253749</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174583</v>
+        <v>0.173058</v>
       </c>
       <c r="C51" t="n">
-        <v>0.289549</v>
+        <v>0.285322</v>
       </c>
       <c r="D51" t="n">
-        <v>0.326089</v>
+        <v>0.314838</v>
       </c>
       <c r="E51" t="n">
-        <v>0.204777</v>
+        <v>0.189209</v>
       </c>
       <c r="F51" t="n">
-        <v>0.307843</v>
+        <v>0.301379</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.163865</v>
+        <v>0.161306</v>
       </c>
       <c r="C52" t="n">
-        <v>0.283649</v>
+        <v>0.280532</v>
       </c>
       <c r="D52" t="n">
-        <v>0.324158</v>
+        <v>0.316338</v>
       </c>
       <c r="E52" t="n">
-        <v>0.200204</v>
+        <v>0.185192</v>
       </c>
       <c r="F52" t="n">
-        <v>0.303445</v>
+        <v>0.299012</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.245985</v>
+        <v>0.247027</v>
       </c>
       <c r="C53" t="n">
-        <v>0.36304</v>
+        <v>0.360466</v>
       </c>
       <c r="D53" t="n">
-        <v>0.327452</v>
+        <v>0.31679</v>
       </c>
       <c r="E53" t="n">
-        <v>0.196248</v>
+        <v>0.181918</v>
       </c>
       <c r="F53" t="n">
-        <v>0.298848</v>
+        <v>0.296587</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241809</v>
+        <v>0.243474</v>
       </c>
       <c r="C54" t="n">
-        <v>0.360034</v>
+        <v>0.356469</v>
       </c>
       <c r="D54" t="n">
-        <v>0.328559</v>
+        <v>0.318091</v>
       </c>
       <c r="E54" t="n">
-        <v>0.190948</v>
+        <v>0.177723</v>
       </c>
       <c r="F54" t="n">
-        <v>0.296741</v>
+        <v>0.292037</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237729</v>
+        <v>0.241529</v>
       </c>
       <c r="C55" t="n">
-        <v>0.357548</v>
+        <v>0.352859</v>
       </c>
       <c r="D55" t="n">
-        <v>0.329492</v>
+        <v>0.318938</v>
       </c>
       <c r="E55" t="n">
-        <v>0.187265</v>
+        <v>0.17364</v>
       </c>
       <c r="F55" t="n">
-        <v>0.291782</v>
+        <v>0.28822</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233288</v>
+        <v>0.234216</v>
       </c>
       <c r="C56" t="n">
-        <v>0.352999</v>
+        <v>0.348597</v>
       </c>
       <c r="D56" t="n">
-        <v>0.330836</v>
+        <v>0.320339</v>
       </c>
       <c r="E56" t="n">
-        <v>0.183575</v>
+        <v>0.170715</v>
       </c>
       <c r="F56" t="n">
-        <v>0.289233</v>
+        <v>0.285163</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228505</v>
+        <v>0.229023</v>
       </c>
       <c r="C57" t="n">
-        <v>0.349794</v>
+        <v>0.344211</v>
       </c>
       <c r="D57" t="n">
-        <v>0.329971</v>
+        <v>0.321887</v>
       </c>
       <c r="E57" t="n">
-        <v>0.179782</v>
+        <v>0.167386</v>
       </c>
       <c r="F57" t="n">
-        <v>0.286538</v>
+        <v>0.28218</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.22305</v>
+        <v>0.22402</v>
       </c>
       <c r="C58" t="n">
-        <v>0.330543</v>
+        <v>0.326568</v>
       </c>
       <c r="D58" t="n">
-        <v>0.333926</v>
+        <v>0.323319</v>
       </c>
       <c r="E58" t="n">
-        <v>0.176006</v>
+        <v>0.164018</v>
       </c>
       <c r="F58" t="n">
-        <v>0.28322</v>
+        <v>0.27834</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217859</v>
+        <v>0.218409</v>
       </c>
       <c r="C59" t="n">
-        <v>0.341941</v>
+        <v>0.337193</v>
       </c>
       <c r="D59" t="n">
-        <v>0.336309</v>
+        <v>0.327163</v>
       </c>
       <c r="E59" t="n">
-        <v>0.172632</v>
+        <v>0.161266</v>
       </c>
       <c r="F59" t="n">
-        <v>0.279544</v>
+        <v>0.275883</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212523</v>
+        <v>0.212631</v>
       </c>
       <c r="C60" t="n">
-        <v>0.323022</v>
+        <v>0.3187</v>
       </c>
       <c r="D60" t="n">
-        <v>0.337863</v>
+        <v>0.326717</v>
       </c>
       <c r="E60" t="n">
-        <v>0.169139</v>
+        <v>0.158253</v>
       </c>
       <c r="F60" t="n">
-        <v>0.276376</v>
+        <v>0.272317</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206351</v>
+        <v>0.209023</v>
       </c>
       <c r="C61" t="n">
-        <v>0.328927</v>
+        <v>0.345008</v>
       </c>
       <c r="D61" t="n">
-        <v>0.34087</v>
+        <v>0.329254</v>
       </c>
       <c r="E61" t="n">
-        <v>0.165596</v>
+        <v>0.15578</v>
       </c>
       <c r="F61" t="n">
-        <v>0.273537</v>
+        <v>0.270014</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200209</v>
+        <v>0.200949</v>
       </c>
       <c r="C62" t="n">
-        <v>0.319317</v>
+        <v>0.322869</v>
       </c>
       <c r="D62" t="n">
-        <v>0.342734</v>
+        <v>0.334259</v>
       </c>
       <c r="E62" t="n">
-        <v>0.16188</v>
+        <v>0.152822</v>
       </c>
       <c r="F62" t="n">
-        <v>0.269861</v>
+        <v>0.266599</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.193896</v>
+        <v>0.195748</v>
       </c>
       <c r="C63" t="n">
-        <v>0.334236</v>
+        <v>0.329014</v>
       </c>
       <c r="D63" t="n">
-        <v>0.347241</v>
+        <v>0.337125</v>
       </c>
       <c r="E63" t="n">
-        <v>0.157989</v>
+        <v>0.150257</v>
       </c>
       <c r="F63" t="n">
-        <v>0.266865</v>
+        <v>0.262991</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187077</v>
+        <v>0.187207</v>
       </c>
       <c r="C64" t="n">
-        <v>0.319698</v>
+        <v>0.315573</v>
       </c>
       <c r="D64" t="n">
-        <v>0.39157</v>
+        <v>0.372103</v>
       </c>
       <c r="E64" t="n">
-        <v>0.153988</v>
+        <v>0.147389</v>
       </c>
       <c r="F64" t="n">
-        <v>0.263153</v>
+        <v>0.259464</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177401</v>
+        <v>0.177832</v>
       </c>
       <c r="C65" t="n">
-        <v>0.337924</v>
+        <v>0.3048</v>
       </c>
       <c r="D65" t="n">
-        <v>0.393983</v>
+        <v>0.373263</v>
       </c>
       <c r="E65" t="n">
-        <v>0.145335</v>
+        <v>0.144447</v>
       </c>
       <c r="F65" t="n">
-        <v>0.259664</v>
+        <v>0.256133</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167816</v>
+        <v>0.16561</v>
       </c>
       <c r="C66" t="n">
-        <v>0.310746</v>
+        <v>0.303251</v>
       </c>
       <c r="D66" t="n">
-        <v>0.396179</v>
+        <v>0.376584</v>
       </c>
       <c r="E66" t="n">
-        <v>0.205334</v>
+        <v>0.188012</v>
       </c>
       <c r="F66" t="n">
-        <v>0.30454</v>
+        <v>0.299912</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247</v>
+        <v>0.251008</v>
       </c>
       <c r="C67" t="n">
-        <v>0.481425</v>
+        <v>0.378327</v>
       </c>
       <c r="D67" t="n">
-        <v>0.394597</v>
+        <v>0.376435</v>
       </c>
       <c r="E67" t="n">
-        <v>0.199249</v>
+        <v>0.18342</v>
       </c>
       <c r="F67" t="n">
-        <v>0.300101</v>
+        <v>0.29737</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243843</v>
+        <v>0.245943</v>
       </c>
       <c r="C68" t="n">
-        <v>0.379725</v>
+        <v>0.373058</v>
       </c>
       <c r="D68" t="n">
-        <v>0.393654</v>
+        <v>0.377739</v>
       </c>
       <c r="E68" t="n">
-        <v>0.196651</v>
+        <v>0.180113</v>
       </c>
       <c r="F68" t="n">
-        <v>0.299049</v>
+        <v>0.293339</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.241355</v>
+        <v>0.241622</v>
       </c>
       <c r="C69" t="n">
-        <v>0.377438</v>
+        <v>0.367331</v>
       </c>
       <c r="D69" t="n">
-        <v>0.399938</v>
+        <v>0.37855</v>
       </c>
       <c r="E69" t="n">
-        <v>0.191893</v>
+        <v>0.176608</v>
       </c>
       <c r="F69" t="n">
-        <v>0.29841</v>
+        <v>0.290785</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.236268</v>
+        <v>0.236664</v>
       </c>
       <c r="C70" t="n">
-        <v>0.372861</v>
+        <v>0.362704</v>
       </c>
       <c r="D70" t="n">
-        <v>0.398774</v>
+        <v>0.377841</v>
       </c>
       <c r="E70" t="n">
-        <v>0.18772</v>
+        <v>0.17293</v>
       </c>
       <c r="F70" t="n">
-        <v>0.291889</v>
+        <v>0.285653</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.231684</v>
+        <v>0.231676</v>
       </c>
       <c r="C71" t="n">
-        <v>0.368169</v>
+        <v>0.35772</v>
       </c>
       <c r="D71" t="n">
-        <v>0.402119</v>
+        <v>0.380345</v>
       </c>
       <c r="E71" t="n">
-        <v>0.17898</v>
+        <v>0.170215</v>
       </c>
       <c r="F71" t="n">
-        <v>0.28822</v>
+        <v>0.279145</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.224924</v>
+        <v>0.22682</v>
       </c>
       <c r="C72" t="n">
-        <v>0.525169</v>
+        <v>0.445234</v>
       </c>
       <c r="D72" t="n">
-        <v>0.404942</v>
+        <v>0.380513</v>
       </c>
       <c r="E72" t="n">
-        <v>0.17392</v>
+        <v>0.166695</v>
       </c>
       <c r="F72" t="n">
-        <v>0.28594</v>
+        <v>0.276158</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219611</v>
+        <v>0.220562</v>
       </c>
       <c r="C73" t="n">
-        <v>0.447246</v>
+        <v>0.407814</v>
       </c>
       <c r="D73" t="n">
-        <v>0.401796</v>
+        <v>0.380433</v>
       </c>
       <c r="E73" t="n">
-        <v>0.170701</v>
+        <v>0.16361</v>
       </c>
       <c r="F73" t="n">
-        <v>0.281583</v>
+        <v>0.273288</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213992</v>
+        <v>0.216834</v>
       </c>
       <c r="C74" t="n">
-        <v>0.521555</v>
+        <v>0.354495</v>
       </c>
       <c r="D74" t="n">
-        <v>0.401331</v>
+        <v>0.383151</v>
       </c>
       <c r="E74" t="n">
-        <v>0.170333</v>
+        <v>0.160549</v>
       </c>
       <c r="F74" t="n">
-        <v>0.278648</v>
+        <v>0.27441</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.20837</v>
+        <v>0.208693</v>
       </c>
       <c r="C75" t="n">
-        <v>0.512934</v>
+        <v>0.454838</v>
       </c>
       <c r="D75" t="n">
-        <v>0.401597</v>
+        <v>0.378477</v>
       </c>
       <c r="E75" t="n">
-        <v>0.162912</v>
+        <v>0.157613</v>
       </c>
       <c r="F75" t="n">
-        <v>0.274841</v>
+        <v>0.270856</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.202598</v>
+        <v>0.202927</v>
       </c>
       <c r="C76" t="n">
-        <v>0.457159</v>
+        <v>0.413475</v>
       </c>
       <c r="D76" t="n">
-        <v>0.401933</v>
+        <v>0.381153</v>
       </c>
       <c r="E76" t="n">
-        <v>0.163371</v>
+        <v>0.155049</v>
       </c>
       <c r="F76" t="n">
-        <v>0.271782</v>
+        <v>0.267723</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196063</v>
+        <v>0.19551</v>
       </c>
       <c r="C77" t="n">
-        <v>0.423535</v>
+        <v>0.412283</v>
       </c>
       <c r="D77" t="n">
-        <v>0.400728</v>
+        <v>0.380885</v>
       </c>
       <c r="E77" t="n">
-        <v>0.159864</v>
+        <v>0.151823</v>
       </c>
       <c r="F77" t="n">
-        <v>0.267864</v>
+        <v>0.2643</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188752</v>
+        <v>0.188315</v>
       </c>
       <c r="C78" t="n">
-        <v>0.434868</v>
+        <v>0.396945</v>
       </c>
       <c r="D78" t="n">
-        <v>0.468299</v>
+        <v>0.441594</v>
       </c>
       <c r="E78" t="n">
-        <v>0.156179</v>
+        <v>0.148767</v>
       </c>
       <c r="F78" t="n">
-        <v>0.264378</v>
+        <v>0.260527</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179497</v>
+        <v>0.17999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.337128</v>
+        <v>0.347399</v>
       </c>
       <c r="D79" t="n">
-        <v>0.464669</v>
+        <v>0.440402</v>
       </c>
       <c r="E79" t="n">
-        <v>0.147301</v>
+        <v>0.145825</v>
       </c>
       <c r="F79" t="n">
-        <v>0.260841</v>
+        <v>0.2576</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170764</v>
+        <v>0.16847</v>
       </c>
       <c r="C80" t="n">
-        <v>0.393669</v>
+        <v>0.342355</v>
       </c>
       <c r="D80" t="n">
-        <v>0.458381</v>
+        <v>0.432467</v>
       </c>
       <c r="E80" t="n">
-        <v>0.20462</v>
+        <v>0.189212</v>
       </c>
       <c r="F80" t="n">
-        <v>0.30896</v>
+        <v>0.302751</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.2488</v>
+        <v>0.25251</v>
       </c>
       <c r="C81" t="n">
-        <v>0.389116</v>
+        <v>0.369026</v>
       </c>
       <c r="D81" t="n">
-        <v>0.45499</v>
+        <v>0.427449</v>
       </c>
       <c r="E81" t="n">
-        <v>0.199039</v>
+        <v>0.185668</v>
       </c>
       <c r="F81" t="n">
-        <v>0.304756</v>
+        <v>0.29865</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245112</v>
+        <v>0.246928</v>
       </c>
       <c r="C82" t="n">
-        <v>0.371683</v>
+        <v>0.364951</v>
       </c>
       <c r="D82" t="n">
-        <v>0.454843</v>
+        <v>0.422836</v>
       </c>
       <c r="E82" t="n">
-        <v>0.197836</v>
+        <v>0.181853</v>
       </c>
       <c r="F82" t="n">
-        <v>0.297329</v>
+        <v>0.294244</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.24091</v>
+        <v>0.24455</v>
       </c>
       <c r="C83" t="n">
-        <v>0.365666</v>
+        <v>0.360502</v>
       </c>
       <c r="D83" t="n">
-        <v>0.444281</v>
+        <v>0.42287</v>
       </c>
       <c r="E83" t="n">
-        <v>0.19275</v>
+        <v>0.177945</v>
       </c>
       <c r="F83" t="n">
-        <v>0.294245</v>
+        <v>0.290132</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236141</v>
+        <v>0.240042</v>
       </c>
       <c r="C84" t="n">
-        <v>0.362011</v>
+        <v>0.355332</v>
       </c>
       <c r="D84" t="n">
-        <v>0.443182</v>
+        <v>0.418403</v>
       </c>
       <c r="E84" t="n">
-        <v>0.184248</v>
+        <v>0.17503</v>
       </c>
       <c r="F84" t="n">
-        <v>0.290535</v>
+        <v>0.28248</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232824</v>
+        <v>0.232607</v>
       </c>
       <c r="C85" t="n">
-        <v>0.356038</v>
+        <v>0.367186</v>
       </c>
       <c r="D85" t="n">
-        <v>0.435471</v>
+        <v>0.412129</v>
       </c>
       <c r="E85" t="n">
-        <v>0.180475</v>
+        <v>0.171587</v>
       </c>
       <c r="F85" t="n">
-        <v>0.287581</v>
+        <v>0.280158</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.227391</v>
+        <v>0.227183</v>
       </c>
       <c r="C86" t="n">
-        <v>0.350237</v>
+        <v>0.343802</v>
       </c>
       <c r="D86" t="n">
-        <v>0.43734</v>
+        <v>0.407011</v>
       </c>
       <c r="E86" t="n">
-        <v>0.176332</v>
+        <v>0.168224</v>
       </c>
       <c r="F86" t="n">
-        <v>0.284279</v>
+        <v>0.276366</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220885</v>
+        <v>0.22158</v>
       </c>
       <c r="C87" t="n">
-        <v>0.479826</v>
+        <v>0.406137</v>
       </c>
       <c r="D87" t="n">
-        <v>0.432305</v>
+        <v>0.409156</v>
       </c>
       <c r="E87" t="n">
-        <v>0.172013</v>
+        <v>0.165201</v>
       </c>
       <c r="F87" t="n">
-        <v>0.280549</v>
+        <v>0.274159</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.21556</v>
+        <v>0.2161</v>
       </c>
       <c r="C88" t="n">
-        <v>0.462531</v>
+        <v>0.481782</v>
       </c>
       <c r="D88" t="n">
-        <v>0.427028</v>
+        <v>0.403273</v>
       </c>
       <c r="E88" t="n">
-        <v>0.168716</v>
+        <v>0.162568</v>
       </c>
       <c r="F88" t="n">
-        <v>0.278633</v>
+        <v>0.270047</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.210576</v>
+        <v>0.212468</v>
       </c>
       <c r="C89" t="n">
-        <v>0.453995</v>
+        <v>0.325572</v>
       </c>
       <c r="D89" t="n">
-        <v>0.424059</v>
+        <v>0.400769</v>
       </c>
       <c r="E89" t="n">
-        <v>0.165106</v>
+        <v>0.158783</v>
       </c>
       <c r="F89" t="n">
-        <v>0.274478</v>
+        <v>0.26673</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.20443</v>
+        <v>0.203939</v>
       </c>
       <c r="C90" t="n">
-        <v>0.437734</v>
+        <v>0.429569</v>
       </c>
       <c r="D90" t="n">
-        <v>0.420686</v>
+        <v>0.401833</v>
       </c>
       <c r="E90" t="n">
-        <v>0.161391</v>
+        <v>0.156025</v>
       </c>
       <c r="F90" t="n">
-        <v>0.271323</v>
+        <v>0.264007</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197829</v>
+        <v>0.197962</v>
       </c>
       <c r="C91" t="n">
-        <v>0.38697</v>
+        <v>0.382291</v>
       </c>
       <c r="D91" t="n">
-        <v>0.421678</v>
+        <v>0.396248</v>
       </c>
       <c r="E91" t="n">
-        <v>0.156976</v>
+        <v>0.153022</v>
       </c>
       <c r="F91" t="n">
-        <v>0.26789</v>
+        <v>0.260314</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190396</v>
+        <v>0.189569</v>
       </c>
       <c r="C92" t="n">
-        <v>0.384176</v>
+        <v>0.379566</v>
       </c>
       <c r="D92" t="n">
-        <v>0.477909</v>
+        <v>0.449426</v>
       </c>
       <c r="E92" t="n">
-        <v>0.153458</v>
+        <v>0.149787</v>
       </c>
       <c r="F92" t="n">
-        <v>0.264413</v>
+        <v>0.256866</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182097</v>
+        <v>0.18255</v>
       </c>
       <c r="C93" t="n">
-        <v>0.422134</v>
+        <v>0.292951</v>
       </c>
       <c r="D93" t="n">
-        <v>0.469405</v>
+        <v>0.444535</v>
       </c>
       <c r="E93" t="n">
-        <v>0.153744</v>
+        <v>0.146751</v>
       </c>
       <c r="F93" t="n">
-        <v>0.261903</v>
+        <v>0.257138</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.174045</v>
+        <v>0.172721</v>
       </c>
       <c r="C94" t="n">
-        <v>0.410524</v>
+        <v>0.378124</v>
       </c>
       <c r="D94" t="n">
-        <v>0.467784</v>
+        <v>0.435501</v>
       </c>
       <c r="E94" t="n">
-        <v>0.205763</v>
+        <v>0.190672</v>
       </c>
       <c r="F94" t="n">
-        <v>0.308702</v>
+        <v>0.300511</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249583</v>
+        <v>0.250709</v>
       </c>
       <c r="C95" t="n">
-        <v>0.567624</v>
+        <v>0.482947</v>
       </c>
       <c r="D95" t="n">
-        <v>0.462167</v>
+        <v>0.429967</v>
       </c>
       <c r="E95" t="n">
-        <v>0.202515</v>
+        <v>0.186587</v>
       </c>
       <c r="F95" t="n">
-        <v>0.297961</v>
+        <v>0.29946</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.2476</v>
+        <v>0.247515</v>
       </c>
       <c r="C96" t="n">
-        <v>0.360092</v>
+        <v>0.359609</v>
       </c>
       <c r="D96" t="n">
-        <v>0.458174</v>
+        <v>0.429893</v>
       </c>
       <c r="E96" t="n">
-        <v>0.197955</v>
+        <v>0.183108</v>
       </c>
       <c r="F96" t="n">
-        <v>0.292605</v>
+        <v>0.293435</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.243234</v>
+        <v>0.243408</v>
       </c>
       <c r="C97" t="n">
-        <v>0.355599</v>
+        <v>0.354634</v>
       </c>
       <c r="D97" t="n">
-        <v>0.447431</v>
+        <v>0.421117</v>
       </c>
       <c r="E97" t="n">
-        <v>0.19333</v>
+        <v>0.178935</v>
       </c>
       <c r="F97" t="n">
-        <v>0.289392</v>
+        <v>0.290077</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.238982</v>
+        <v>0.238895</v>
       </c>
       <c r="C98" t="n">
-        <v>0.351288</v>
+        <v>0.349941</v>
       </c>
       <c r="D98" t="n">
-        <v>0.443374</v>
+        <v>0.416185</v>
       </c>
       <c r="E98" t="n">
-        <v>0.18874</v>
+        <v>0.175441</v>
       </c>
       <c r="F98" t="n">
-        <v>0.287006</v>
+        <v>0.286967</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.234146</v>
+        <v>0.233951</v>
       </c>
       <c r="C99" t="n">
-        <v>0.429579</v>
+        <v>0.344377</v>
       </c>
       <c r="D99" t="n">
-        <v>0.43423</v>
+        <v>0.412048</v>
       </c>
       <c r="E99" t="n">
-        <v>0.185059</v>
+        <v>0.172088</v>
       </c>
       <c r="F99" t="n">
-        <v>0.282183</v>
+        <v>0.283684</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228962</v>
+        <v>0.228629</v>
       </c>
       <c r="C100" t="n">
-        <v>0.340884</v>
+        <v>0.337939</v>
       </c>
       <c r="D100" t="n">
-        <v>0.432573</v>
+        <v>0.410653</v>
       </c>
       <c r="E100" t="n">
-        <v>0.181054</v>
+        <v>0.169015</v>
       </c>
       <c r="F100" t="n">
-        <v>0.27893</v>
+        <v>0.280838</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223383</v>
+        <v>0.223285</v>
       </c>
       <c r="C101" t="n">
-        <v>0.425087</v>
+        <v>0.43808</v>
       </c>
       <c r="D101" t="n">
-        <v>0.428998</v>
+        <v>0.403582</v>
       </c>
       <c r="E101" t="n">
-        <v>0.176348</v>
+        <v>0.165858</v>
       </c>
       <c r="F101" t="n">
-        <v>0.276014</v>
+        <v>0.277457</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.217516</v>
+        <v>0.219804</v>
       </c>
       <c r="C102" t="n">
-        <v>0.417699</v>
+        <v>0.367613</v>
       </c>
       <c r="D102" t="n">
-        <v>0.42282</v>
+        <v>0.401118</v>
       </c>
       <c r="E102" t="n">
-        <v>0.16907</v>
+        <v>0.162601</v>
       </c>
       <c r="F102" t="n">
-        <v>0.278266</v>
+        <v>0.270046</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211475</v>
+        <v>0.213586</v>
       </c>
       <c r="C103" t="n">
-        <v>0.46426</v>
+        <v>0.433933</v>
       </c>
       <c r="D103" t="n">
-        <v>0.41973</v>
+        <v>0.397105</v>
       </c>
       <c r="E103" t="n">
-        <v>0.169571</v>
+        <v>0.15982</v>
       </c>
       <c r="F103" t="n">
-        <v>0.274699</v>
+        <v>0.271116</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.205477</v>
+        <v>0.20758</v>
       </c>
       <c r="C104" t="n">
-        <v>0.454126</v>
+        <v>0.394131</v>
       </c>
       <c r="D104" t="n">
-        <v>0.417041</v>
+        <v>0.394967</v>
       </c>
       <c r="E104" t="n">
-        <v>0.166416</v>
+        <v>0.156677</v>
       </c>
       <c r="F104" t="n">
-        <v>0.265949</v>
+        <v>0.268276</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.19898</v>
+        <v>0.200684</v>
       </c>
       <c r="C105" t="n">
-        <v>0.476489</v>
+        <v>0.455616</v>
       </c>
       <c r="D105" t="n">
-        <v>0.413073</v>
+        <v>0.391608</v>
       </c>
       <c r="E105" t="n">
-        <v>0.162574</v>
+        <v>0.153575</v>
       </c>
       <c r="F105" t="n">
-        <v>0.263045</v>
+        <v>0.265208</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192064</v>
+        <v>0.193432</v>
       </c>
       <c r="C106" t="n">
-        <v>0.476718</v>
+        <v>0.433963</v>
       </c>
       <c r="D106" t="n">
-        <v>0.409711</v>
+        <v>0.390133</v>
       </c>
       <c r="E106" t="n">
-        <v>0.158659</v>
+        <v>0.150851</v>
       </c>
       <c r="F106" t="n">
-        <v>0.259399</v>
+        <v>0.26163</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.184051</v>
+        <v>0.184452</v>
       </c>
       <c r="C107" t="n">
-        <v>0.430482</v>
+        <v>0.394045</v>
       </c>
       <c r="D107" t="n">
-        <v>0.451389</v>
+        <v>0.41967</v>
       </c>
       <c r="E107" t="n">
-        <v>0.155398</v>
+        <v>0.147934</v>
       </c>
       <c r="F107" t="n">
-        <v>0.261296</v>
+        <v>0.258085</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174738</v>
+        <v>0.174492</v>
       </c>
       <c r="C108" t="n">
-        <v>0.435433</v>
+        <v>0.434179</v>
       </c>
       <c r="D108" t="n">
-        <v>0.444397</v>
+        <v>0.416207</v>
       </c>
       <c r="E108" t="n">
-        <v>0.206938</v>
+        <v>0.19123</v>
       </c>
       <c r="F108" t="n">
-        <v>0.301197</v>
+        <v>0.301523</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.16348</v>
+        <v>0.162796</v>
       </c>
       <c r="C109" t="n">
-        <v>0.418084</v>
+        <v>0.419122</v>
       </c>
       <c r="D109" t="n">
-        <v>0.436941</v>
+        <v>0.413457</v>
       </c>
       <c r="E109" t="n">
-        <v>0.203043</v>
+        <v>0.187902</v>
       </c>
       <c r="F109" t="n">
-        <v>0.29801</v>
+        <v>0.298191</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.248136</v>
+        <v>0.248311</v>
       </c>
       <c r="C110" t="n">
-        <v>0.533972</v>
+        <v>0.496977</v>
       </c>
       <c r="D110" t="n">
-        <v>0.436335</v>
+        <v>0.407538</v>
       </c>
       <c r="E110" t="n">
-        <v>0.198327</v>
+        <v>0.183678</v>
       </c>
       <c r="F110" t="n">
-        <v>0.29145</v>
+        <v>0.293738</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.244456</v>
+        <v>0.244448</v>
       </c>
       <c r="C111" t="n">
-        <v>0.527502</v>
+        <v>0.489727</v>
       </c>
       <c r="D111" t="n">
-        <v>0.430783</v>
+        <v>0.404078</v>
       </c>
       <c r="E111" t="n">
-        <v>0.189311</v>
+        <v>0.179822</v>
       </c>
       <c r="F111" t="n">
-        <v>0.295265</v>
+        <v>0.285919</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.240184</v>
+        <v>0.242116</v>
       </c>
       <c r="C112" t="n">
-        <v>0.557606</v>
+        <v>0.463668</v>
       </c>
       <c r="D112" t="n">
-        <v>0.426207</v>
+        <v>0.400109</v>
       </c>
       <c r="E112" t="n">
-        <v>0.185737</v>
+        <v>0.176309</v>
       </c>
       <c r="F112" t="n">
-        <v>0.291839</v>
+        <v>0.282433</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.235249</v>
+        <v>0.237526</v>
       </c>
       <c r="C113" t="n">
-        <v>0.547821</v>
+        <v>0.455803</v>
       </c>
       <c r="D113" t="n">
-        <v>0.421414</v>
+        <v>0.396933</v>
       </c>
       <c r="E113" t="n">
-        <v>0.185987</v>
+        <v>0.173162</v>
       </c>
       <c r="F113" t="n">
-        <v>0.281769</v>
+        <v>0.283827</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.230099</v>
+        <v>0.232246</v>
       </c>
       <c r="C114" t="n">
-        <v>0.536505</v>
+        <v>0.445309</v>
       </c>
       <c r="D114" t="n">
-        <v>0.417582</v>
+        <v>0.392974</v>
       </c>
       <c r="E114" t="n">
-        <v>0.182349</v>
+        <v>0.170057</v>
       </c>
       <c r="F114" t="n">
-        <v>0.279134</v>
+        <v>0.281788</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224391</v>
+        <v>0.226656</v>
       </c>
       <c r="C115" t="n">
-        <v>0.461072</v>
+        <v>0.449751</v>
       </c>
       <c r="D115" t="n">
-        <v>0.412805</v>
+        <v>0.391044</v>
       </c>
       <c r="E115" t="n">
-        <v>0.177319</v>
+        <v>0.166942</v>
       </c>
       <c r="F115" t="n">
-        <v>0.275483</v>
+        <v>0.278714</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.218255</v>
+        <v>0.221054</v>
       </c>
       <c r="C116" t="n">
-        <v>0.426683</v>
+        <v>0.416395</v>
       </c>
       <c r="D116" t="n">
-        <v>0.409205</v>
+        <v>0.385886</v>
       </c>
       <c r="E116" t="n">
-        <v>0.17377</v>
+        <v>0.163611</v>
       </c>
       <c r="F116" t="n">
-        <v>0.273247</v>
+        <v>0.275391</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212932</v>
+        <v>0.215251</v>
       </c>
       <c r="C117" t="n">
-        <v>0.390882</v>
+        <v>0.358428</v>
       </c>
       <c r="D117" t="n">
-        <v>0.405369</v>
+        <v>0.385619</v>
       </c>
       <c r="E117" t="n">
-        <v>0.170347</v>
+        <v>0.160094</v>
       </c>
       <c r="F117" t="n">
-        <v>0.275042</v>
+        <v>0.272271</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206332</v>
+        <v>0.209364</v>
       </c>
       <c r="C118" t="n">
-        <v>0.424926</v>
+        <v>0.424299</v>
       </c>
       <c r="D118" t="n">
-        <v>0.402783</v>
+        <v>0.382175</v>
       </c>
       <c r="E118" t="n">
-        <v>0.166872</v>
+        <v>0.157926</v>
       </c>
       <c r="F118" t="n">
-        <v>0.267334</v>
+        <v>0.269272</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.20034</v>
+        <v>0.203039</v>
       </c>
       <c r="C119" t="n">
-        <v>0.463006</v>
+        <v>0.381344</v>
       </c>
       <c r="D119" t="n">
-        <v>0.40174</v>
+        <v>0.379792</v>
       </c>
       <c r="E119" t="n">
-        <v>0.163071</v>
+        <v>0.154709</v>
       </c>
       <c r="F119" t="n">
-        <v>0.263203</v>
+        <v>0.266092</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193645</v>
+        <v>0.194787</v>
       </c>
       <c r="C120" t="n">
-        <v>0.422163</v>
+        <v>0.408267</v>
       </c>
       <c r="D120" t="n">
-        <v>0.399003</v>
+        <v>0.37992</v>
       </c>
       <c r="E120" t="n">
-        <v>0.159105</v>
+        <v>0.151323</v>
       </c>
       <c r="F120" t="n">
-        <v>0.259984</v>
+        <v>0.262284</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.186082</v>
+        <v>0.186628</v>
       </c>
       <c r="C121" t="n">
-        <v>0.434789</v>
+        <v>0.388816</v>
       </c>
       <c r="D121" t="n">
-        <v>0.486783</v>
+        <v>0.451279</v>
       </c>
       <c r="E121" t="n">
-        <v>0.154969</v>
+        <v>0.14833</v>
       </c>
       <c r="F121" t="n">
-        <v>0.256981</v>
+        <v>0.25861</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.177078</v>
+        <v>0.177131</v>
       </c>
       <c r="C122" t="n">
-        <v>0.391263</v>
+        <v>0.354276</v>
       </c>
       <c r="D122" t="n">
-        <v>0.469815</v>
+        <v>0.441242</v>
       </c>
       <c r="E122" t="n">
-        <v>0.151861</v>
+        <v>0.145109</v>
       </c>
       <c r="F122" t="n">
-        <v>0.256315</v>
+        <v>0.25501</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.166235</v>
+        <v>0.165788</v>
       </c>
       <c r="C123" t="n">
-        <v>0.38927</v>
+        <v>0.334681</v>
       </c>
       <c r="D123" t="n">
-        <v>0.473201</v>
+        <v>0.440055</v>
       </c>
       <c r="E123" t="n">
-        <v>0.200011</v>
+        <v>0.188842</v>
       </c>
       <c r="F123" t="n">
-        <v>0.302894</v>
+        <v>0.294145</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.249204</v>
+        <v>0.251203</v>
       </c>
       <c r="C124" t="n">
-        <v>0.458083</v>
+        <v>0.422585</v>
       </c>
       <c r="D124" t="n">
-        <v>0.458622</v>
+        <v>0.429794</v>
       </c>
       <c r="E124" t="n">
-        <v>0.195307</v>
+        <v>0.184718</v>
       </c>
       <c r="F124" t="n">
-        <v>0.299237</v>
+        <v>0.290126</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.245328</v>
+        <v>0.247339</v>
       </c>
       <c r="C125" t="n">
-        <v>0.446373</v>
+        <v>0.454484</v>
       </c>
       <c r="D125" t="n">
-        <v>0.454227</v>
+        <v>0.425497</v>
       </c>
       <c r="E125" t="n">
-        <v>0.19038</v>
+        <v>0.180969</v>
       </c>
       <c r="F125" t="n">
-        <v>0.296162</v>
+        <v>0.287635</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.24111</v>
+        <v>0.2432</v>
       </c>
       <c r="C126" t="n">
-        <v>0.466021</v>
+        <v>0.491879</v>
       </c>
       <c r="D126" t="n">
-        <v>0.448038</v>
+        <v>0.421876</v>
       </c>
       <c r="E126" t="n">
-        <v>0.185964</v>
+        <v>0.177398</v>
       </c>
       <c r="F126" t="n">
-        <v>0.292331</v>
+        <v>0.283948</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236273</v>
+        <v>0.238091</v>
       </c>
       <c r="C127" t="n">
-        <v>0.480417</v>
+        <v>0.452238</v>
       </c>
       <c r="D127" t="n">
-        <v>0.442374</v>
+        <v>0.413919</v>
       </c>
       <c r="E127" t="n">
-        <v>0.181948</v>
+        <v>0.173933</v>
       </c>
       <c r="F127" t="n">
-        <v>0.288883</v>
+        <v>0.28071</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.231081</v>
+        <v>0.233337</v>
       </c>
       <c r="C128" t="n">
-        <v>0.439949</v>
+        <v>0.463463</v>
       </c>
       <c r="D128" t="n">
-        <v>0.439453</v>
+        <v>0.413351</v>
       </c>
       <c r="E128" t="n">
-        <v>0.178051</v>
+        <v>0.170437</v>
       </c>
       <c r="F128" t="n">
-        <v>0.286106</v>
+        <v>0.277522</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.225549</v>
+        <v>0.227994</v>
       </c>
       <c r="C129" t="n">
-        <v>0.508312</v>
+        <v>0.374617</v>
       </c>
       <c r="D129" t="n">
-        <v>0.429992</v>
+        <v>0.406591</v>
       </c>
       <c r="E129" t="n">
-        <v>0.174181</v>
+        <v>0.167232</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2822</v>
+        <v>0.274343</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219642</v>
+        <v>0.222441</v>
       </c>
       <c r="C130" t="n">
-        <v>0.450292</v>
+        <v>0.390696</v>
       </c>
       <c r="D130" t="n">
-        <v>0.427902</v>
+        <v>0.400847</v>
       </c>
       <c r="E130" t="n">
-        <v>0.171006</v>
+        <v>0.164317</v>
       </c>
       <c r="F130" t="n">
-        <v>0.279064</v>
+        <v>0.271212</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.214091</v>
+        <v>0.216638</v>
       </c>
       <c r="C131" t="n">
-        <v>0.491724</v>
+        <v>0.403241</v>
       </c>
       <c r="D131" t="n">
-        <v>0.425047</v>
+        <v>0.399637</v>
       </c>
       <c r="E131" t="n">
-        <v>0.167121</v>
+        <v>0.161305</v>
       </c>
       <c r="F131" t="n">
-        <v>0.275998</v>
+        <v>0.267971</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207957</v>
+        <v>0.208275</v>
       </c>
       <c r="C132" t="n">
-        <v>0.433456</v>
+        <v>0.41539</v>
       </c>
       <c r="D132" t="n">
-        <v>0.417884</v>
+        <v>0.396112</v>
       </c>
       <c r="E132" t="n">
-        <v>0.164067</v>
+        <v>0.158355</v>
       </c>
       <c r="F132" t="n">
-        <v>0.272663</v>
+        <v>0.265452</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.201936</v>
+        <v>0.20406</v>
       </c>
       <c r="C133" t="n">
-        <v>0.433481</v>
+        <v>0.391724</v>
       </c>
       <c r="D133" t="n">
-        <v>0.413812</v>
+        <v>0.391348</v>
       </c>
       <c r="E133" t="n">
-        <v>0.159619</v>
+        <v>0.155419</v>
       </c>
       <c r="F133" t="n">
-        <v>0.269655</v>
+        <v>0.261825</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.195233</v>
+        <v>0.195253</v>
       </c>
       <c r="C134" t="n">
-        <v>0.394185</v>
+        <v>0.381</v>
       </c>
       <c r="D134" t="n">
-        <v>0.412474</v>
+        <v>0.390114</v>
       </c>
       <c r="E134" t="n">
-        <v>0.160295</v>
+        <v>0.151966</v>
       </c>
       <c r="F134" t="n">
-        <v>0.266388</v>
+        <v>0.262829</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.188148</v>
+        <v>0.187178</v>
       </c>
       <c r="C135" t="n">
-        <v>0.429922</v>
+        <v>0.361931</v>
       </c>
       <c r="D135" t="n">
-        <v>0.487042</v>
+        <v>0.454655</v>
       </c>
       <c r="E135" t="n">
-        <v>0.156056</v>
+        <v>0.148942</v>
       </c>
       <c r="F135" t="n">
-        <v>0.257772</v>
+        <v>0.25971</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178751</v>
+        <v>0.179341</v>
       </c>
       <c r="C136" t="n">
-        <v>0.363349</v>
+        <v>0.355122</v>
       </c>
       <c r="D136" t="n">
-        <v>0.484811</v>
+        <v>0.443218</v>
       </c>
       <c r="E136" t="n">
-        <v>0.152122</v>
+        <v>0.145818</v>
       </c>
       <c r="F136" t="n">
-        <v>0.254026</v>
+        <v>0.255886</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168307</v>
+        <v>0.16825</v>
       </c>
       <c r="C137" t="n">
-        <v>0.385681</v>
+        <v>0.423733</v>
       </c>
       <c r="D137" t="n">
-        <v>0.472545</v>
+        <v>0.439118</v>
       </c>
       <c r="E137" t="n">
-        <v>0.20412</v>
+        <v>0.189379</v>
       </c>
       <c r="F137" t="n">
-        <v>0.297995</v>
+        <v>0.298903</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.248482</v>
+        <v>0.251844</v>
       </c>
       <c r="C138" t="n">
-        <v>0.440659</v>
+        <v>0.477024</v>
       </c>
       <c r="D138" t="n">
-        <v>0.466986</v>
+        <v>0.438993</v>
       </c>
       <c r="E138" t="n">
-        <v>0.199543</v>
+        <v>0.185338</v>
       </c>
       <c r="F138" t="n">
-        <v>0.294345</v>
+        <v>0.295261</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.245649</v>
+        <v>0.248244</v>
       </c>
       <c r="C139" t="n">
-        <v>0.495448</v>
+        <v>0.501525</v>
       </c>
       <c r="D139" t="n">
-        <v>0.459094</v>
+        <v>0.429637</v>
       </c>
       <c r="E139" t="n">
-        <v>0.195048</v>
+        <v>0.181544</v>
       </c>
       <c r="F139" t="n">
-        <v>0.290887</v>
+        <v>0.292433</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.241543</v>
+        <v>0.244088</v>
       </c>
       <c r="C140" t="n">
-        <v>0.499527</v>
+        <v>0.489296</v>
       </c>
       <c r="D140" t="n">
-        <v>0.457375</v>
+        <v>0.423259</v>
       </c>
       <c r="E140" t="n">
-        <v>0.186921</v>
+        <v>0.177905</v>
       </c>
       <c r="F140" t="n">
-        <v>0.292877</v>
+        <v>0.2836</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236034</v>
+        <v>0.239468</v>
       </c>
       <c r="C141" t="n">
-        <v>0.497218</v>
+        <v>0.50452</v>
       </c>
       <c r="D141" t="n">
-        <v>0.446694</v>
+        <v>0.419187</v>
       </c>
       <c r="E141" t="n">
-        <v>0.183413</v>
+        <v>0.174485</v>
       </c>
       <c r="F141" t="n">
-        <v>0.28948</v>
+        <v>0.281189</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231158</v>
+        <v>0.234414</v>
       </c>
       <c r="C142" t="n">
-        <v>0.369742</v>
+        <v>0.363104</v>
       </c>
       <c r="D142" t="n">
-        <v>0.441046</v>
+        <v>0.414252</v>
       </c>
       <c r="E142" t="n">
-        <v>0.178961</v>
+        <v>0.17118</v>
       </c>
       <c r="F142" t="n">
-        <v>0.285889</v>
+        <v>0.277227</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225794</v>
+        <v>0.22925</v>
       </c>
       <c r="C143" t="n">
-        <v>0.457967</v>
+        <v>0.482852</v>
       </c>
       <c r="D143" t="n">
-        <v>0.434284</v>
+        <v>0.410855</v>
       </c>
       <c r="E143" t="n">
-        <v>0.17561</v>
+        <v>0.167925</v>
       </c>
       <c r="F143" t="n">
-        <v>0.282898</v>
+        <v>0.274007</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.196538</v>
+        <v>0.179637</v>
       </c>
       <c r="C2" t="n">
-        <v>0.316511</v>
+        <v>0.317768</v>
       </c>
       <c r="D2" t="n">
-        <v>0.305059</v>
+        <v>0.312733</v>
       </c>
       <c r="E2" t="n">
-        <v>0.126597</v>
+        <v>0.132061</v>
       </c>
       <c r="F2" t="n">
-        <v>0.260206</v>
+        <v>0.25915</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194853</v>
+        <v>0.181541</v>
       </c>
       <c r="C3" t="n">
-        <v>0.317377</v>
+        <v>0.320235</v>
       </c>
       <c r="D3" t="n">
-        <v>0.306058</v>
+        <v>0.3139</v>
       </c>
       <c r="E3" t="n">
-        <v>0.125001</v>
+        <v>0.131457</v>
       </c>
       <c r="F3" t="n">
-        <v>0.259499</v>
+        <v>0.257332</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.186744</v>
+        <v>0.179157</v>
       </c>
       <c r="C4" t="n">
-        <v>0.314423</v>
+        <v>0.315198</v>
       </c>
       <c r="D4" t="n">
-        <v>0.308148</v>
+        <v>0.316164</v>
       </c>
       <c r="E4" t="n">
-        <v>0.123195</v>
+        <v>0.129049</v>
       </c>
       <c r="F4" t="n">
-        <v>0.257694</v>
+        <v>0.253452</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.183897</v>
+        <v>0.174045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.305741</v>
+        <v>0.311479</v>
       </c>
       <c r="D5" t="n">
-        <v>0.309057</v>
+        <v>0.317685</v>
       </c>
       <c r="E5" t="n">
-        <v>0.123796</v>
+        <v>0.125207</v>
       </c>
       <c r="F5" t="n">
-        <v>0.252552</v>
+        <v>0.254733</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.177944</v>
+        <v>0.169247</v>
       </c>
       <c r="C6" t="n">
-        <v>0.303733</v>
+        <v>0.302956</v>
       </c>
       <c r="D6" t="n">
-        <v>0.310488</v>
+        <v>0.318768</v>
       </c>
       <c r="E6" t="n">
-        <v>0.122508</v>
+        <v>0.124045</v>
       </c>
       <c r="F6" t="n">
-        <v>0.250175</v>
+        <v>0.253206</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.170052</v>
+        <v>0.163232</v>
       </c>
       <c r="C7" t="n">
-        <v>0.293752</v>
+        <v>0.293852</v>
       </c>
       <c r="D7" t="n">
-        <v>0.301032</v>
+        <v>0.309666</v>
       </c>
       <c r="E7" t="n">
-        <v>0.121103</v>
+        <v>0.124703</v>
       </c>
       <c r="F7" t="n">
-        <v>0.247732</v>
+        <v>0.249652</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.163529</v>
+        <v>0.155779</v>
       </c>
       <c r="C8" t="n">
-        <v>0.286168</v>
+        <v>0.287509</v>
       </c>
       <c r="D8" t="n">
-        <v>0.301706</v>
+        <v>0.309123</v>
       </c>
       <c r="E8" t="n">
-        <v>0.120661</v>
+        <v>0.118239</v>
       </c>
       <c r="F8" t="n">
-        <v>0.245038</v>
+        <v>0.246861</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.153071</v>
+        <v>0.145888</v>
       </c>
       <c r="C9" t="n">
-        <v>0.275374</v>
+        <v>0.279615</v>
       </c>
       <c r="D9" t="n">
-        <v>0.302797</v>
+        <v>0.30979</v>
       </c>
       <c r="E9" t="n">
-        <v>0.17615</v>
+        <v>0.188146</v>
       </c>
       <c r="F9" t="n">
-        <v>0.294595</v>
+        <v>0.29516</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.236614</v>
+        <v>0.228821</v>
       </c>
       <c r="C10" t="n">
-        <v>0.355155</v>
+        <v>0.35009</v>
       </c>
       <c r="D10" t="n">
-        <v>0.303923</v>
+        <v>0.310558</v>
       </c>
       <c r="E10" t="n">
-        <v>0.173723</v>
+        <v>0.184344</v>
       </c>
       <c r="F10" t="n">
-        <v>0.290115</v>
+        <v>0.292492</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.232528</v>
+        <v>0.226443</v>
       </c>
       <c r="C11" t="n">
-        <v>0.353063</v>
+        <v>0.350669</v>
       </c>
       <c r="D11" t="n">
-        <v>0.30523</v>
+        <v>0.311302</v>
       </c>
       <c r="E11" t="n">
-        <v>0.170437</v>
+        <v>0.179068</v>
       </c>
       <c r="F11" t="n">
-        <v>0.288834</v>
+        <v>0.291231</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.227681</v>
+        <v>0.224348</v>
       </c>
       <c r="C12" t="n">
-        <v>0.349237</v>
+        <v>0.347053</v>
       </c>
       <c r="D12" t="n">
-        <v>0.306904</v>
+        <v>0.313213</v>
       </c>
       <c r="E12" t="n">
-        <v>0.167908</v>
+        <v>0.176843</v>
       </c>
       <c r="F12" t="n">
-        <v>0.28643</v>
+        <v>0.288425</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.223682</v>
+        <v>0.220167</v>
       </c>
       <c r="C13" t="n">
-        <v>0.344605</v>
+        <v>0.343359</v>
       </c>
       <c r="D13" t="n">
-        <v>0.307566</v>
+        <v>0.312284</v>
       </c>
       <c r="E13" t="n">
-        <v>0.164448</v>
+        <v>0.171563</v>
       </c>
       <c r="F13" t="n">
-        <v>0.285909</v>
+        <v>0.286899</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.220895</v>
+        <v>0.216754</v>
       </c>
       <c r="C14" t="n">
-        <v>0.339796</v>
+        <v>0.33986</v>
       </c>
       <c r="D14" t="n">
-        <v>0.308431</v>
+        <v>0.31444</v>
       </c>
       <c r="E14" t="n">
-        <v>0.161193</v>
+        <v>0.168785</v>
       </c>
       <c r="F14" t="n">
-        <v>0.280595</v>
+        <v>0.282199</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.218465</v>
+        <v>0.213183</v>
       </c>
       <c r="C15" t="n">
-        <v>0.327171</v>
+        <v>0.334292</v>
       </c>
       <c r="D15" t="n">
-        <v>0.308327</v>
+        <v>0.314489</v>
       </c>
       <c r="E15" t="n">
-        <v>0.157283</v>
+        <v>0.164662</v>
       </c>
       <c r="F15" t="n">
-        <v>0.278161</v>
+        <v>0.280495</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.21187</v>
+        <v>0.209517</v>
       </c>
       <c r="C16" t="n">
-        <v>0.322312</v>
+        <v>0.32734</v>
       </c>
       <c r="D16" t="n">
-        <v>0.308849</v>
+        <v>0.316241</v>
       </c>
       <c r="E16" t="n">
-        <v>0.154281</v>
+        <v>0.160788</v>
       </c>
       <c r="F16" t="n">
-        <v>0.273921</v>
+        <v>0.276578</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.210225</v>
+        <v>0.204447</v>
       </c>
       <c r="C17" t="n">
-        <v>0.315957</v>
+        <v>0.31862</v>
       </c>
       <c r="D17" t="n">
-        <v>0.310298</v>
+        <v>0.316757</v>
       </c>
       <c r="E17" t="n">
-        <v>0.151091</v>
+        <v>0.157912</v>
       </c>
       <c r="F17" t="n">
-        <v>0.270997</v>
+        <v>0.27219</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.20172</v>
+        <v>0.197713</v>
       </c>
       <c r="C18" t="n">
-        <v>0.310928</v>
+        <v>0.312851</v>
       </c>
       <c r="D18" t="n">
-        <v>0.310981</v>
+        <v>0.318471</v>
       </c>
       <c r="E18" t="n">
-        <v>0.149343</v>
+        <v>0.155009</v>
       </c>
       <c r="F18" t="n">
-        <v>0.267996</v>
+        <v>0.268925</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195479</v>
+        <v>0.193605</v>
       </c>
       <c r="C19" t="n">
-        <v>0.30645</v>
+        <v>0.309479</v>
       </c>
       <c r="D19" t="n">
-        <v>0.312106</v>
+        <v>0.320477</v>
       </c>
       <c r="E19" t="n">
-        <v>0.146761</v>
+        <v>0.14841</v>
       </c>
       <c r="F19" t="n">
-        <v>0.264641</v>
+        <v>0.26646</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.191262</v>
+        <v>0.187434</v>
       </c>
       <c r="C20" t="n">
-        <v>0.304434</v>
+        <v>0.311523</v>
       </c>
       <c r="D20" t="n">
-        <v>0.312787</v>
+        <v>0.321452</v>
       </c>
       <c r="E20" t="n">
-        <v>0.14406</v>
+        <v>0.147668</v>
       </c>
       <c r="F20" t="n">
-        <v>0.261132</v>
+        <v>0.26277</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.18461</v>
+        <v>0.181023</v>
       </c>
       <c r="C21" t="n">
-        <v>0.298001</v>
+        <v>0.300856</v>
       </c>
       <c r="D21" t="n">
-        <v>0.309369</v>
+        <v>0.315632</v>
       </c>
       <c r="E21" t="n">
-        <v>0.141745</v>
+        <v>0.143375</v>
       </c>
       <c r="F21" t="n">
-        <v>0.256327</v>
+        <v>0.258734</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.173987</v>
+        <v>0.172341</v>
       </c>
       <c r="C22" t="n">
-        <v>0.283994</v>
+        <v>0.294898</v>
       </c>
       <c r="D22" t="n">
-        <v>0.309621</v>
+        <v>0.315345</v>
       </c>
       <c r="E22" t="n">
-        <v>0.137957</v>
+        <v>0.138901</v>
       </c>
       <c r="F22" t="n">
-        <v>0.256004</v>
+        <v>0.254931</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.164777</v>
+        <v>0.163562</v>
       </c>
       <c r="C23" t="n">
-        <v>0.277631</v>
+        <v>0.27611</v>
       </c>
       <c r="D23" t="n">
-        <v>0.309065</v>
+        <v>0.314766</v>
       </c>
       <c r="E23" t="n">
-        <v>0.184503</v>
+        <v>0.195528</v>
       </c>
       <c r="F23" t="n">
-        <v>0.297521</v>
+        <v>0.301934</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.245818</v>
+        <v>0.243158</v>
       </c>
       <c r="C24" t="n">
-        <v>0.354318</v>
+        <v>0.354377</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3107</v>
+        <v>0.314628</v>
       </c>
       <c r="E24" t="n">
-        <v>0.180444</v>
+        <v>0.189883</v>
       </c>
       <c r="F24" t="n">
-        <v>0.294367</v>
+        <v>0.298072</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240849</v>
+        <v>0.236946</v>
       </c>
       <c r="C25" t="n">
-        <v>0.350216</v>
+        <v>0.349342</v>
       </c>
       <c r="D25" t="n">
-        <v>0.310382</v>
+        <v>0.317355</v>
       </c>
       <c r="E25" t="n">
-        <v>0.178035</v>
+        <v>0.186363</v>
       </c>
       <c r="F25" t="n">
-        <v>0.291525</v>
+        <v>0.294459</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.236503</v>
+        <v>0.236457</v>
       </c>
       <c r="C26" t="n">
-        <v>0.34506</v>
+        <v>0.349261</v>
       </c>
       <c r="D26" t="n">
-        <v>0.310644</v>
+        <v>0.316317</v>
       </c>
       <c r="E26" t="n">
-        <v>0.173672</v>
+        <v>0.182028</v>
       </c>
       <c r="F26" t="n">
-        <v>0.288518</v>
+        <v>0.291195</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.234942</v>
+        <v>0.230162</v>
       </c>
       <c r="C27" t="n">
-        <v>0.340896</v>
+        <v>0.344193</v>
       </c>
       <c r="D27" t="n">
-        <v>0.310879</v>
+        <v>0.316563</v>
       </c>
       <c r="E27" t="n">
-        <v>0.170536</v>
+        <v>0.17509</v>
       </c>
       <c r="F27" t="n">
-        <v>0.280584</v>
+        <v>0.288247</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.228939</v>
+        <v>0.226797</v>
       </c>
       <c r="C28" t="n">
-        <v>0.336554</v>
+        <v>0.339595</v>
       </c>
       <c r="D28" t="n">
-        <v>0.310332</v>
+        <v>0.318372</v>
       </c>
       <c r="E28" t="n">
-        <v>0.166763</v>
+        <v>0.171656</v>
       </c>
       <c r="F28" t="n">
-        <v>0.278514</v>
+        <v>0.286668</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.223877</v>
+        <v>0.222304</v>
       </c>
       <c r="C29" t="n">
-        <v>0.331615</v>
+        <v>0.334178</v>
       </c>
       <c r="D29" t="n">
-        <v>0.311935</v>
+        <v>0.31828</v>
       </c>
       <c r="E29" t="n">
-        <v>0.164426</v>
+        <v>0.168314</v>
       </c>
       <c r="F29" t="n">
-        <v>0.275845</v>
+        <v>0.283843</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.219334</v>
+        <v>0.217435</v>
       </c>
       <c r="C30" t="n">
-        <v>0.328659</v>
+        <v>0.332871</v>
       </c>
       <c r="D30" t="n">
-        <v>0.312656</v>
+        <v>0.318731</v>
       </c>
       <c r="E30" t="n">
-        <v>0.162031</v>
+        <v>0.16475</v>
       </c>
       <c r="F30" t="n">
-        <v>0.273385</v>
+        <v>0.280719</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.212484</v>
+        <v>0.212361</v>
       </c>
       <c r="C31" t="n">
-        <v>0.323363</v>
+        <v>0.329493</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3132</v>
+        <v>0.32048</v>
       </c>
       <c r="E31" t="n">
-        <v>0.158096</v>
+        <v>0.164203</v>
       </c>
       <c r="F31" t="n">
-        <v>0.27389</v>
+        <v>0.27693</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.208819</v>
+        <v>0.206569</v>
       </c>
       <c r="C32" t="n">
-        <v>0.322451</v>
+        <v>0.324082</v>
       </c>
       <c r="D32" t="n">
-        <v>0.314223</v>
+        <v>0.32092</v>
       </c>
       <c r="E32" t="n">
-        <v>0.155006</v>
+        <v>0.161481</v>
       </c>
       <c r="F32" t="n">
-        <v>0.27146</v>
+        <v>0.273257</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201549</v>
+        <v>0.200763</v>
       </c>
       <c r="C33" t="n">
-        <v>0.31479</v>
+        <v>0.317975</v>
       </c>
       <c r="D33" t="n">
-        <v>0.316432</v>
+        <v>0.322038</v>
       </c>
       <c r="E33" t="n">
-        <v>0.152385</v>
+        <v>0.157825</v>
       </c>
       <c r="F33" t="n">
-        <v>0.267806</v>
+        <v>0.26974</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.196422</v>
+        <v>0.195177</v>
       </c>
       <c r="C34" t="n">
-        <v>0.310098</v>
+        <v>0.312228</v>
       </c>
       <c r="D34" t="n">
-        <v>0.317572</v>
+        <v>0.32212</v>
       </c>
       <c r="E34" t="n">
-        <v>0.149249</v>
+        <v>0.150532</v>
       </c>
       <c r="F34" t="n">
-        <v>0.264606</v>
+        <v>0.266807</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.189239</v>
+        <v>0.188279</v>
       </c>
       <c r="C35" t="n">
-        <v>0.303537</v>
+        <v>0.299999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.31146</v>
+        <v>0.319485</v>
       </c>
       <c r="E35" t="n">
-        <v>0.146016</v>
+        <v>0.149047</v>
       </c>
       <c r="F35" t="n">
-        <v>0.259604</v>
+        <v>0.26222</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179349</v>
+        <v>0.180206</v>
       </c>
       <c r="C36" t="n">
-        <v>0.290706</v>
+        <v>0.288393</v>
       </c>
       <c r="D36" t="n">
-        <v>0.311939</v>
+        <v>0.319333</v>
       </c>
       <c r="E36" t="n">
-        <v>0.143003</v>
+        <v>0.145473</v>
       </c>
       <c r="F36" t="n">
-        <v>0.257447</v>
+        <v>0.258834</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170486</v>
+        <v>0.170231</v>
       </c>
       <c r="C37" t="n">
-        <v>0.27967</v>
+        <v>0.281551</v>
       </c>
       <c r="D37" t="n">
-        <v>0.311767</v>
+        <v>0.319442</v>
       </c>
       <c r="E37" t="n">
-        <v>0.187447</v>
+        <v>0.194431</v>
       </c>
       <c r="F37" t="n">
-        <v>0.299961</v>
+        <v>0.304931</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247196</v>
+        <v>0.247443</v>
       </c>
       <c r="C38" t="n">
-        <v>0.36296</v>
+        <v>0.36277</v>
       </c>
       <c r="D38" t="n">
-        <v>0.311547</v>
+        <v>0.318807</v>
       </c>
       <c r="E38" t="n">
-        <v>0.183938</v>
+        <v>0.190939</v>
       </c>
       <c r="F38" t="n">
-        <v>0.292644</v>
+        <v>0.301236</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.243966</v>
+        <v>0.244244</v>
       </c>
       <c r="C39" t="n">
-        <v>0.359233</v>
+        <v>0.360089</v>
       </c>
       <c r="D39" t="n">
-        <v>0.311461</v>
+        <v>0.318645</v>
       </c>
       <c r="E39" t="n">
-        <v>0.179877</v>
+        <v>0.188247</v>
       </c>
       <c r="F39" t="n">
-        <v>0.295268</v>
+        <v>0.297911</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.241238</v>
+        <v>0.239731</v>
       </c>
       <c r="C40" t="n">
-        <v>0.355935</v>
+        <v>0.353833</v>
       </c>
       <c r="D40" t="n">
-        <v>0.312473</v>
+        <v>0.318545</v>
       </c>
       <c r="E40" t="n">
-        <v>0.175724</v>
+        <v>0.184451</v>
       </c>
       <c r="F40" t="n">
-        <v>0.290886</v>
+        <v>0.293963</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.238577</v>
+        <v>0.235343</v>
       </c>
       <c r="C41" t="n">
-        <v>0.350905</v>
+        <v>0.352164</v>
       </c>
       <c r="D41" t="n">
-        <v>0.312484</v>
+        <v>0.319594</v>
       </c>
       <c r="E41" t="n">
-        <v>0.172397</v>
+        <v>0.180707</v>
       </c>
       <c r="F41" t="n">
-        <v>0.287894</v>
+        <v>0.290279</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.232253</v>
+        <v>0.23044</v>
       </c>
       <c r="C42" t="n">
-        <v>0.345946</v>
+        <v>0.34583</v>
       </c>
       <c r="D42" t="n">
-        <v>0.312758</v>
+        <v>0.319104</v>
       </c>
       <c r="E42" t="n">
-        <v>0.16869</v>
+        <v>0.177233</v>
       </c>
       <c r="F42" t="n">
-        <v>0.286069</v>
+        <v>0.287457</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.227508</v>
+        <v>0.226761</v>
       </c>
       <c r="C43" t="n">
-        <v>0.340753</v>
+        <v>0.341536</v>
       </c>
       <c r="D43" t="n">
-        <v>0.313274</v>
+        <v>0.319896</v>
       </c>
       <c r="E43" t="n">
-        <v>0.166407</v>
+        <v>0.173084</v>
       </c>
       <c r="F43" t="n">
-        <v>0.282155</v>
+        <v>0.284143</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.222691</v>
+        <v>0.220868</v>
       </c>
       <c r="C44" t="n">
-        <v>0.328326</v>
+        <v>0.328048</v>
       </c>
       <c r="D44" t="n">
-        <v>0.314101</v>
+        <v>0.320024</v>
       </c>
       <c r="E44" t="n">
-        <v>0.163015</v>
+        <v>0.169857</v>
       </c>
       <c r="F44" t="n">
-        <v>0.279172</v>
+        <v>0.281144</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.217719</v>
+        <v>0.215558</v>
       </c>
       <c r="C45" t="n">
-        <v>0.328515</v>
+        <v>0.339523</v>
       </c>
       <c r="D45" t="n">
-        <v>0.315427</v>
+        <v>0.321188</v>
       </c>
       <c r="E45" t="n">
-        <v>0.160277</v>
+        <v>0.166165</v>
       </c>
       <c r="F45" t="n">
-        <v>0.275674</v>
+        <v>0.277863</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.210307</v>
+        <v>0.209699</v>
       </c>
       <c r="C46" t="n">
-        <v>0.321403</v>
+        <v>0.325626</v>
       </c>
       <c r="D46" t="n">
-        <v>0.316123</v>
+        <v>0.321591</v>
       </c>
       <c r="E46" t="n">
-        <v>0.157097</v>
+        <v>0.162959</v>
       </c>
       <c r="F46" t="n">
-        <v>0.273215</v>
+        <v>0.274403</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204054</v>
+        <v>0.204605</v>
       </c>
       <c r="C47" t="n">
-        <v>0.314536</v>
+        <v>0.323115</v>
       </c>
       <c r="D47" t="n">
-        <v>0.317562</v>
+        <v>0.323289</v>
       </c>
       <c r="E47" t="n">
-        <v>0.154834</v>
+        <v>0.156593</v>
       </c>
       <c r="F47" t="n">
-        <v>0.26877</v>
+        <v>0.270851</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.199849</v>
+        <v>0.199088</v>
       </c>
       <c r="C48" t="n">
-        <v>0.306619</v>
+        <v>0.309273</v>
       </c>
       <c r="D48" t="n">
-        <v>0.316414</v>
+        <v>0.323471</v>
       </c>
       <c r="E48" t="n">
-        <v>0.151965</v>
+        <v>0.153767</v>
       </c>
       <c r="F48" t="n">
-        <v>0.265459</v>
+        <v>0.267954</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191669</v>
+        <v>0.191375</v>
       </c>
       <c r="C49" t="n">
-        <v>0.303822</v>
+        <v>0.306061</v>
       </c>
       <c r="D49" t="n">
-        <v>0.318254</v>
+        <v>0.325092</v>
       </c>
       <c r="E49" t="n">
-        <v>0.148638</v>
+        <v>0.149143</v>
       </c>
       <c r="F49" t="n">
-        <v>0.261635</v>
+        <v>0.264824</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182671</v>
+        <v>0.183853</v>
       </c>
       <c r="C50" t="n">
-        <v>0.294185</v>
+        <v>0.301107</v>
       </c>
       <c r="D50" t="n">
-        <v>0.316628</v>
+        <v>0.323354</v>
       </c>
       <c r="E50" t="n">
-        <v>0.145688</v>
+        <v>0.145876</v>
       </c>
       <c r="F50" t="n">
-        <v>0.253749</v>
+        <v>0.260736</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173058</v>
+        <v>0.175171</v>
       </c>
       <c r="C51" t="n">
-        <v>0.285322</v>
+        <v>0.288005</v>
       </c>
       <c r="D51" t="n">
-        <v>0.314838</v>
+        <v>0.322719</v>
       </c>
       <c r="E51" t="n">
-        <v>0.189209</v>
+        <v>0.201418</v>
       </c>
       <c r="F51" t="n">
-        <v>0.301379</v>
+        <v>0.305688</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.161306</v>
+        <v>0.164024</v>
       </c>
       <c r="C52" t="n">
-        <v>0.280532</v>
+        <v>0.282509</v>
       </c>
       <c r="D52" t="n">
-        <v>0.316338</v>
+        <v>0.324064</v>
       </c>
       <c r="E52" t="n">
-        <v>0.185192</v>
+        <v>0.195805</v>
       </c>
       <c r="F52" t="n">
-        <v>0.299012</v>
+        <v>0.301405</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.247027</v>
+        <v>0.245797</v>
       </c>
       <c r="C53" t="n">
-        <v>0.360466</v>
+        <v>0.362911</v>
       </c>
       <c r="D53" t="n">
-        <v>0.31679</v>
+        <v>0.323399</v>
       </c>
       <c r="E53" t="n">
-        <v>0.181918</v>
+        <v>0.191797</v>
       </c>
       <c r="F53" t="n">
-        <v>0.296587</v>
+        <v>0.299018</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.243474</v>
+        <v>0.241765</v>
       </c>
       <c r="C54" t="n">
-        <v>0.356469</v>
+        <v>0.360768</v>
       </c>
       <c r="D54" t="n">
-        <v>0.318091</v>
+        <v>0.325311</v>
       </c>
       <c r="E54" t="n">
-        <v>0.177723</v>
+        <v>0.187279</v>
       </c>
       <c r="F54" t="n">
-        <v>0.292037</v>
+        <v>0.295159</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.241529</v>
+        <v>0.23925</v>
       </c>
       <c r="C55" t="n">
-        <v>0.352859</v>
+        <v>0.358029</v>
       </c>
       <c r="D55" t="n">
-        <v>0.318938</v>
+        <v>0.326586</v>
       </c>
       <c r="E55" t="n">
-        <v>0.17364</v>
+        <v>0.183028</v>
       </c>
       <c r="F55" t="n">
-        <v>0.28822</v>
+        <v>0.291276</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.234216</v>
+        <v>0.233527</v>
       </c>
       <c r="C56" t="n">
-        <v>0.348597</v>
+        <v>0.35435</v>
       </c>
       <c r="D56" t="n">
-        <v>0.320339</v>
+        <v>0.328048</v>
       </c>
       <c r="E56" t="n">
-        <v>0.170715</v>
+        <v>0.179308</v>
       </c>
       <c r="F56" t="n">
-        <v>0.285163</v>
+        <v>0.288849</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.229023</v>
+        <v>0.228633</v>
       </c>
       <c r="C57" t="n">
-        <v>0.344211</v>
+        <v>0.349856</v>
       </c>
       <c r="D57" t="n">
-        <v>0.321887</v>
+        <v>0.329075</v>
       </c>
       <c r="E57" t="n">
-        <v>0.167386</v>
+        <v>0.176031</v>
       </c>
       <c r="F57" t="n">
-        <v>0.28218</v>
+        <v>0.285626</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.22402</v>
+        <v>0.224442</v>
       </c>
       <c r="C58" t="n">
-        <v>0.326568</v>
+        <v>0.331576</v>
       </c>
       <c r="D58" t="n">
-        <v>0.323319</v>
+        <v>0.332491</v>
       </c>
       <c r="E58" t="n">
-        <v>0.164018</v>
+        <v>0.171847</v>
       </c>
       <c r="F58" t="n">
-        <v>0.27834</v>
+        <v>0.281521</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.218409</v>
+        <v>0.218012</v>
       </c>
       <c r="C59" t="n">
-        <v>0.337193</v>
+        <v>0.342219</v>
       </c>
       <c r="D59" t="n">
-        <v>0.327163</v>
+        <v>0.33467</v>
       </c>
       <c r="E59" t="n">
-        <v>0.161266</v>
+        <v>0.168387</v>
       </c>
       <c r="F59" t="n">
-        <v>0.275883</v>
+        <v>0.279162</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212631</v>
+        <v>0.213526</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3187</v>
+        <v>0.322643</v>
       </c>
       <c r="D60" t="n">
-        <v>0.326717</v>
+        <v>0.33671</v>
       </c>
       <c r="E60" t="n">
-        <v>0.158253</v>
+        <v>0.164614</v>
       </c>
       <c r="F60" t="n">
-        <v>0.272317</v>
+        <v>0.275068</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.209023</v>
+        <v>0.206567</v>
       </c>
       <c r="C61" t="n">
-        <v>0.345008</v>
+        <v>0.327112</v>
       </c>
       <c r="D61" t="n">
-        <v>0.329254</v>
+        <v>0.338432</v>
       </c>
       <c r="E61" t="n">
-        <v>0.15578</v>
+        <v>0.160984</v>
       </c>
       <c r="F61" t="n">
-        <v>0.270014</v>
+        <v>0.271818</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200949</v>
+        <v>0.200523</v>
       </c>
       <c r="C62" t="n">
-        <v>0.322869</v>
+        <v>0.319185</v>
       </c>
       <c r="D62" t="n">
-        <v>0.334259</v>
+        <v>0.341437</v>
       </c>
       <c r="E62" t="n">
-        <v>0.152822</v>
+        <v>0.157231</v>
       </c>
       <c r="F62" t="n">
-        <v>0.266599</v>
+        <v>0.2689</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.195748</v>
+        <v>0.194171</v>
       </c>
       <c r="C63" t="n">
-        <v>0.329014</v>
+        <v>0.33063</v>
       </c>
       <c r="D63" t="n">
-        <v>0.337125</v>
+        <v>0.34424</v>
       </c>
       <c r="E63" t="n">
-        <v>0.150257</v>
+        <v>0.153736</v>
       </c>
       <c r="F63" t="n">
-        <v>0.262991</v>
+        <v>0.266156</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187207</v>
+        <v>0.186759</v>
       </c>
       <c r="C64" t="n">
-        <v>0.315573</v>
+        <v>0.31758</v>
       </c>
       <c r="D64" t="n">
-        <v>0.372103</v>
+        <v>0.382548</v>
       </c>
       <c r="E64" t="n">
-        <v>0.147389</v>
+        <v>0.150519</v>
       </c>
       <c r="F64" t="n">
-        <v>0.259464</v>
+        <v>0.261885</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177832</v>
+        <v>0.177765</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3048</v>
+        <v>0.331164</v>
       </c>
       <c r="D65" t="n">
-        <v>0.373263</v>
+        <v>0.38332</v>
       </c>
       <c r="E65" t="n">
-        <v>0.144447</v>
+        <v>0.143529</v>
       </c>
       <c r="F65" t="n">
-        <v>0.256133</v>
+        <v>0.259004</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16561</v>
+        <v>0.16814</v>
       </c>
       <c r="C66" t="n">
-        <v>0.303251</v>
+        <v>0.304895</v>
       </c>
       <c r="D66" t="n">
-        <v>0.376584</v>
+        <v>0.384763</v>
       </c>
       <c r="E66" t="n">
-        <v>0.188012</v>
+        <v>0.198391</v>
       </c>
       <c r="F66" t="n">
-        <v>0.299912</v>
+        <v>0.303599</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.251008</v>
+        <v>0.247299</v>
       </c>
       <c r="C67" t="n">
-        <v>0.378327</v>
+        <v>0.464863</v>
       </c>
       <c r="D67" t="n">
-        <v>0.376435</v>
+        <v>0.384729</v>
       </c>
       <c r="E67" t="n">
-        <v>0.18342</v>
+        <v>0.194757</v>
       </c>
       <c r="F67" t="n">
-        <v>0.29737</v>
+        <v>0.300118</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.245943</v>
+        <v>0.245234</v>
       </c>
       <c r="C68" t="n">
-        <v>0.373058</v>
+        <v>0.374852</v>
       </c>
       <c r="D68" t="n">
-        <v>0.377739</v>
+        <v>0.384487</v>
       </c>
       <c r="E68" t="n">
-        <v>0.180113</v>
+        <v>0.190002</v>
       </c>
       <c r="F68" t="n">
-        <v>0.293339</v>
+        <v>0.296729</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.241622</v>
+        <v>0.241334</v>
       </c>
       <c r="C69" t="n">
-        <v>0.367331</v>
+        <v>0.372801</v>
       </c>
       <c r="D69" t="n">
-        <v>0.37855</v>
+        <v>0.385143</v>
       </c>
       <c r="E69" t="n">
-        <v>0.176608</v>
+        <v>0.18567</v>
       </c>
       <c r="F69" t="n">
-        <v>0.290785</v>
+        <v>0.293452</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.236664</v>
+        <v>0.236213</v>
       </c>
       <c r="C70" t="n">
-        <v>0.362704</v>
+        <v>0.368084</v>
       </c>
       <c r="D70" t="n">
-        <v>0.377841</v>
+        <v>0.384633</v>
       </c>
       <c r="E70" t="n">
-        <v>0.17293</v>
+        <v>0.181808</v>
       </c>
       <c r="F70" t="n">
-        <v>0.285653</v>
+        <v>0.289613</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.231676</v>
+        <v>0.231892</v>
       </c>
       <c r="C71" t="n">
-        <v>0.35772</v>
+        <v>0.363032</v>
       </c>
       <c r="D71" t="n">
-        <v>0.380345</v>
+        <v>0.387061</v>
       </c>
       <c r="E71" t="n">
-        <v>0.170215</v>
+        <v>0.174597</v>
       </c>
       <c r="F71" t="n">
-        <v>0.279145</v>
+        <v>0.286344</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.22682</v>
+        <v>0.224972</v>
       </c>
       <c r="C72" t="n">
-        <v>0.445234</v>
+        <v>0.496069</v>
       </c>
       <c r="D72" t="n">
-        <v>0.380513</v>
+        <v>0.389298</v>
       </c>
       <c r="E72" t="n">
-        <v>0.166695</v>
+        <v>0.17047</v>
       </c>
       <c r="F72" t="n">
-        <v>0.276158</v>
+        <v>0.282643</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.220562</v>
+        <v>0.219617</v>
       </c>
       <c r="C73" t="n">
-        <v>0.407814</v>
+        <v>0.429087</v>
       </c>
       <c r="D73" t="n">
-        <v>0.380433</v>
+        <v>0.387242</v>
       </c>
       <c r="E73" t="n">
-        <v>0.16361</v>
+        <v>0.167465</v>
       </c>
       <c r="F73" t="n">
-        <v>0.273288</v>
+        <v>0.279975</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.216834</v>
+        <v>0.213657</v>
       </c>
       <c r="C74" t="n">
-        <v>0.354495</v>
+        <v>0.492259</v>
       </c>
       <c r="D74" t="n">
-        <v>0.383151</v>
+        <v>0.386486</v>
       </c>
       <c r="E74" t="n">
-        <v>0.160549</v>
+        <v>0.166303</v>
       </c>
       <c r="F74" t="n">
-        <v>0.27441</v>
+        <v>0.276114</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.208693</v>
+        <v>0.208293</v>
       </c>
       <c r="C75" t="n">
-        <v>0.454838</v>
+        <v>0.48295</v>
       </c>
       <c r="D75" t="n">
-        <v>0.378477</v>
+        <v>0.386397</v>
       </c>
       <c r="E75" t="n">
-        <v>0.157613</v>
+        <v>0.160199</v>
       </c>
       <c r="F75" t="n">
-        <v>0.270856</v>
+        <v>0.273444</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.202927</v>
+        <v>0.202632</v>
       </c>
       <c r="C76" t="n">
-        <v>0.413475</v>
+        <v>0.433008</v>
       </c>
       <c r="D76" t="n">
-        <v>0.381153</v>
+        <v>0.388596</v>
       </c>
       <c r="E76" t="n">
-        <v>0.155049</v>
+        <v>0.159965</v>
       </c>
       <c r="F76" t="n">
-        <v>0.267723</v>
+        <v>0.269364</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19551</v>
+        <v>0.195731</v>
       </c>
       <c r="C77" t="n">
-        <v>0.412283</v>
+        <v>0.40503</v>
       </c>
       <c r="D77" t="n">
-        <v>0.380885</v>
+        <v>0.387787</v>
       </c>
       <c r="E77" t="n">
-        <v>0.151823</v>
+        <v>0.155446</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2643</v>
+        <v>0.266466</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188315</v>
+        <v>0.188828</v>
       </c>
       <c r="C78" t="n">
-        <v>0.396945</v>
+        <v>0.412941</v>
       </c>
       <c r="D78" t="n">
-        <v>0.441594</v>
+        <v>0.4419</v>
       </c>
       <c r="E78" t="n">
-        <v>0.148767</v>
+        <v>0.151708</v>
       </c>
       <c r="F78" t="n">
-        <v>0.260527</v>
+        <v>0.263142</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.17999</v>
+        <v>0.179943</v>
       </c>
       <c r="C79" t="n">
-        <v>0.347399</v>
+        <v>0.327509</v>
       </c>
       <c r="D79" t="n">
-        <v>0.440402</v>
+        <v>0.438461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.145825</v>
+        <v>0.145023</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2576</v>
+        <v>0.260027</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.16847</v>
+        <v>0.170705</v>
       </c>
       <c r="C80" t="n">
-        <v>0.342355</v>
+        <v>0.376297</v>
       </c>
       <c r="D80" t="n">
-        <v>0.432467</v>
+        <v>0.433168</v>
       </c>
       <c r="E80" t="n">
-        <v>0.189212</v>
+        <v>0.199391</v>
       </c>
       <c r="F80" t="n">
-        <v>0.302751</v>
+        <v>0.30438</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.25251</v>
+        <v>0.248842</v>
       </c>
       <c r="C81" t="n">
-        <v>0.369026</v>
+        <v>0.384361</v>
       </c>
       <c r="D81" t="n">
-        <v>0.427449</v>
+        <v>0.430782</v>
       </c>
       <c r="E81" t="n">
-        <v>0.185668</v>
+        <v>0.193923</v>
       </c>
       <c r="F81" t="n">
-        <v>0.29865</v>
+        <v>0.300852</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.246928</v>
+        <v>0.245132</v>
       </c>
       <c r="C82" t="n">
-        <v>0.364951</v>
+        <v>0.368438</v>
       </c>
       <c r="D82" t="n">
-        <v>0.422836</v>
+        <v>0.431474</v>
       </c>
       <c r="E82" t="n">
-        <v>0.181853</v>
+        <v>0.190808</v>
       </c>
       <c r="F82" t="n">
-        <v>0.294244</v>
+        <v>0.296885</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.24455</v>
+        <v>0.240922</v>
       </c>
       <c r="C83" t="n">
-        <v>0.360502</v>
+        <v>0.362568</v>
       </c>
       <c r="D83" t="n">
-        <v>0.42287</v>
+        <v>0.423857</v>
       </c>
       <c r="E83" t="n">
-        <v>0.177945</v>
+        <v>0.186502</v>
       </c>
       <c r="F83" t="n">
-        <v>0.290132</v>
+        <v>0.293192</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.240042</v>
+        <v>0.236023</v>
       </c>
       <c r="C84" t="n">
-        <v>0.355332</v>
+        <v>0.359138</v>
       </c>
       <c r="D84" t="n">
-        <v>0.418403</v>
+        <v>0.420743</v>
       </c>
       <c r="E84" t="n">
-        <v>0.17503</v>
+        <v>0.180315</v>
       </c>
       <c r="F84" t="n">
-        <v>0.28248</v>
+        <v>0.290462</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232607</v>
+        <v>0.231633</v>
       </c>
       <c r="C85" t="n">
-        <v>0.367186</v>
+        <v>0.372119</v>
       </c>
       <c r="D85" t="n">
-        <v>0.412129</v>
+        <v>0.419903</v>
       </c>
       <c r="E85" t="n">
-        <v>0.171587</v>
+        <v>0.175859</v>
       </c>
       <c r="F85" t="n">
-        <v>0.280158</v>
+        <v>0.286255</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.227183</v>
+        <v>0.227446</v>
       </c>
       <c r="C86" t="n">
-        <v>0.343802</v>
+        <v>0.347215</v>
       </c>
       <c r="D86" t="n">
-        <v>0.407011</v>
+        <v>0.417713</v>
       </c>
       <c r="E86" t="n">
-        <v>0.168224</v>
+        <v>0.172311</v>
       </c>
       <c r="F86" t="n">
-        <v>0.276366</v>
+        <v>0.282937</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.22158</v>
+        <v>0.220792</v>
       </c>
       <c r="C87" t="n">
-        <v>0.406137</v>
+        <v>0.433014</v>
       </c>
       <c r="D87" t="n">
-        <v>0.409156</v>
+        <v>0.413121</v>
       </c>
       <c r="E87" t="n">
-        <v>0.165201</v>
+        <v>0.168512</v>
       </c>
       <c r="F87" t="n">
-        <v>0.274159</v>
+        <v>0.280662</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.2161</v>
+        <v>0.215266</v>
       </c>
       <c r="C88" t="n">
-        <v>0.481782</v>
+        <v>0.439144</v>
       </c>
       <c r="D88" t="n">
-        <v>0.403273</v>
+        <v>0.410603</v>
       </c>
       <c r="E88" t="n">
-        <v>0.162568</v>
+        <v>0.16481</v>
       </c>
       <c r="F88" t="n">
-        <v>0.270047</v>
+        <v>0.27747</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.212468</v>
+        <v>0.210304</v>
       </c>
       <c r="C89" t="n">
-        <v>0.325572</v>
+        <v>0.430947</v>
       </c>
       <c r="D89" t="n">
-        <v>0.400769</v>
+        <v>0.41083</v>
       </c>
       <c r="E89" t="n">
-        <v>0.158783</v>
+        <v>0.161554</v>
       </c>
       <c r="F89" t="n">
-        <v>0.26673</v>
+        <v>0.274005</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.203939</v>
+        <v>0.204084</v>
       </c>
       <c r="C90" t="n">
-        <v>0.429569</v>
+        <v>0.416665</v>
       </c>
       <c r="D90" t="n">
-        <v>0.401833</v>
+        <v>0.405849</v>
       </c>
       <c r="E90" t="n">
-        <v>0.156025</v>
+        <v>0.158062</v>
       </c>
       <c r="F90" t="n">
-        <v>0.264007</v>
+        <v>0.270334</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197962</v>
+        <v>0.19761</v>
       </c>
       <c r="C91" t="n">
-        <v>0.382291</v>
+        <v>0.376116</v>
       </c>
       <c r="D91" t="n">
-        <v>0.396248</v>
+        <v>0.405301</v>
       </c>
       <c r="E91" t="n">
-        <v>0.153022</v>
+        <v>0.15392</v>
       </c>
       <c r="F91" t="n">
-        <v>0.260314</v>
+        <v>0.265898</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189569</v>
+        <v>0.190329</v>
       </c>
       <c r="C92" t="n">
-        <v>0.379566</v>
+        <v>0.371865</v>
       </c>
       <c r="D92" t="n">
-        <v>0.449426</v>
+        <v>0.453102</v>
       </c>
       <c r="E92" t="n">
-        <v>0.149787</v>
+        <v>0.150072</v>
       </c>
       <c r="F92" t="n">
-        <v>0.256866</v>
+        <v>0.263586</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.18255</v>
+        <v>0.181853</v>
       </c>
       <c r="C93" t="n">
-        <v>0.292951</v>
+        <v>0.401222</v>
       </c>
       <c r="D93" t="n">
-        <v>0.444535</v>
+        <v>0.441564</v>
       </c>
       <c r="E93" t="n">
-        <v>0.146751</v>
+        <v>0.148532</v>
       </c>
       <c r="F93" t="n">
-        <v>0.257138</v>
+        <v>0.260654</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172721</v>
+        <v>0.173912</v>
       </c>
       <c r="C94" t="n">
-        <v>0.378124</v>
+        <v>0.384003</v>
       </c>
       <c r="D94" t="n">
-        <v>0.435501</v>
+        <v>0.44168</v>
       </c>
       <c r="E94" t="n">
-        <v>0.190672</v>
+        <v>0.201665</v>
       </c>
       <c r="F94" t="n">
-        <v>0.300511</v>
+        <v>0.297502</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.250709</v>
+        <v>0.249545</v>
       </c>
       <c r="C95" t="n">
-        <v>0.482947</v>
+        <v>0.535198</v>
       </c>
       <c r="D95" t="n">
-        <v>0.429967</v>
+        <v>0.436054</v>
       </c>
       <c r="E95" t="n">
-        <v>0.186587</v>
+        <v>0.197964</v>
       </c>
       <c r="F95" t="n">
-        <v>0.29946</v>
+        <v>0.29466</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.247515</v>
+        <v>0.247507</v>
       </c>
       <c r="C96" t="n">
-        <v>0.359609</v>
+        <v>0.357811</v>
       </c>
       <c r="D96" t="n">
-        <v>0.429893</v>
+        <v>0.434007</v>
       </c>
       <c r="E96" t="n">
-        <v>0.183108</v>
+        <v>0.192863</v>
       </c>
       <c r="F96" t="n">
-        <v>0.293435</v>
+        <v>0.293818</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.243408</v>
+        <v>0.243463</v>
       </c>
       <c r="C97" t="n">
-        <v>0.354634</v>
+        <v>0.353588</v>
       </c>
       <c r="D97" t="n">
-        <v>0.421117</v>
+        <v>0.42445</v>
       </c>
       <c r="E97" t="n">
-        <v>0.178935</v>
+        <v>0.188143</v>
       </c>
       <c r="F97" t="n">
-        <v>0.290077</v>
+        <v>0.287705</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.238895</v>
+        <v>0.238977</v>
       </c>
       <c r="C98" t="n">
-        <v>0.349941</v>
+        <v>0.349021</v>
       </c>
       <c r="D98" t="n">
-        <v>0.416185</v>
+        <v>0.421251</v>
       </c>
       <c r="E98" t="n">
-        <v>0.175441</v>
+        <v>0.183783</v>
       </c>
       <c r="F98" t="n">
-        <v>0.286967</v>
+        <v>0.285859</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.233951</v>
+        <v>0.234061</v>
       </c>
       <c r="C99" t="n">
-        <v>0.344377</v>
+        <v>0.416672</v>
       </c>
       <c r="D99" t="n">
-        <v>0.412048</v>
+        <v>0.413086</v>
       </c>
       <c r="E99" t="n">
-        <v>0.172088</v>
+        <v>0.180043</v>
       </c>
       <c r="F99" t="n">
-        <v>0.283684</v>
+        <v>0.28025</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228629</v>
+        <v>0.22873</v>
       </c>
       <c r="C100" t="n">
-        <v>0.337939</v>
+        <v>0.339169</v>
       </c>
       <c r="D100" t="n">
-        <v>0.410653</v>
+        <v>0.411869</v>
       </c>
       <c r="E100" t="n">
-        <v>0.169015</v>
+        <v>0.176142</v>
       </c>
       <c r="F100" t="n">
-        <v>0.280838</v>
+        <v>0.277114</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223285</v>
+        <v>0.223227</v>
       </c>
       <c r="C101" t="n">
-        <v>0.43808</v>
+        <v>0.409616</v>
       </c>
       <c r="D101" t="n">
-        <v>0.403582</v>
+        <v>0.409947</v>
       </c>
       <c r="E101" t="n">
-        <v>0.165858</v>
+        <v>0.172069</v>
       </c>
       <c r="F101" t="n">
-        <v>0.277457</v>
+        <v>0.273362</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.219804</v>
+        <v>0.217546</v>
       </c>
       <c r="C102" t="n">
-        <v>0.367613</v>
+        <v>0.39396</v>
       </c>
       <c r="D102" t="n">
-        <v>0.401118</v>
+        <v>0.404207</v>
       </c>
       <c r="E102" t="n">
-        <v>0.162601</v>
+        <v>0.165325</v>
       </c>
       <c r="F102" t="n">
-        <v>0.270046</v>
+        <v>0.276326</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.213586</v>
+        <v>0.211618</v>
       </c>
       <c r="C103" t="n">
-        <v>0.433933</v>
+        <v>0.440135</v>
       </c>
       <c r="D103" t="n">
-        <v>0.397105</v>
+        <v>0.401869</v>
       </c>
       <c r="E103" t="n">
-        <v>0.15982</v>
+        <v>0.164871</v>
       </c>
       <c r="F103" t="n">
-        <v>0.271116</v>
+        <v>0.267093</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.20758</v>
+        <v>0.205709</v>
       </c>
       <c r="C104" t="n">
-        <v>0.394131</v>
+        <v>0.408671</v>
       </c>
       <c r="D104" t="n">
-        <v>0.394967</v>
+        <v>0.400075</v>
       </c>
       <c r="E104" t="n">
-        <v>0.156677</v>
+        <v>0.161284</v>
       </c>
       <c r="F104" t="n">
-        <v>0.268276</v>
+        <v>0.264035</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.200684</v>
+        <v>0.199091</v>
       </c>
       <c r="C105" t="n">
-        <v>0.455616</v>
+        <v>0.452506</v>
       </c>
       <c r="D105" t="n">
-        <v>0.391608</v>
+        <v>0.397308</v>
       </c>
       <c r="E105" t="n">
-        <v>0.153575</v>
+        <v>0.157222</v>
       </c>
       <c r="F105" t="n">
-        <v>0.265208</v>
+        <v>0.260718</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.193432</v>
+        <v>0.192005</v>
       </c>
       <c r="C106" t="n">
-        <v>0.433963</v>
+        <v>0.457497</v>
       </c>
       <c r="D106" t="n">
-        <v>0.390133</v>
+        <v>0.394705</v>
       </c>
       <c r="E106" t="n">
-        <v>0.150851</v>
+        <v>0.153431</v>
       </c>
       <c r="F106" t="n">
-        <v>0.26163</v>
+        <v>0.257364</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.184452</v>
+        <v>0.183924</v>
       </c>
       <c r="C107" t="n">
-        <v>0.394045</v>
+        <v>0.40577</v>
       </c>
       <c r="D107" t="n">
-        <v>0.41967</v>
+        <v>0.425067</v>
       </c>
       <c r="E107" t="n">
-        <v>0.147934</v>
+        <v>0.150172</v>
       </c>
       <c r="F107" t="n">
-        <v>0.258085</v>
+        <v>0.254113</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174492</v>
+        <v>0.174469</v>
       </c>
       <c r="C108" t="n">
-        <v>0.434179</v>
+        <v>0.408698</v>
       </c>
       <c r="D108" t="n">
-        <v>0.416207</v>
+        <v>0.418019</v>
       </c>
       <c r="E108" t="n">
-        <v>0.19123</v>
+        <v>0.204299</v>
       </c>
       <c r="F108" t="n">
-        <v>0.301523</v>
+        <v>0.299208</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.162796</v>
+        <v>0.163125</v>
       </c>
       <c r="C109" t="n">
-        <v>0.419122</v>
+        <v>0.395612</v>
       </c>
       <c r="D109" t="n">
-        <v>0.413457</v>
+        <v>0.412126</v>
       </c>
       <c r="E109" t="n">
-        <v>0.187902</v>
+        <v>0.198678</v>
       </c>
       <c r="F109" t="n">
-        <v>0.298191</v>
+        <v>0.295632</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.248311</v>
+        <v>0.248296</v>
       </c>
       <c r="C110" t="n">
-        <v>0.496977</v>
+        <v>0.5048550000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.407538</v>
+        <v>0.412424</v>
       </c>
       <c r="E110" t="n">
-        <v>0.183678</v>
+        <v>0.193733</v>
       </c>
       <c r="F110" t="n">
-        <v>0.293738</v>
+        <v>0.291486</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.244448</v>
+        <v>0.244437</v>
       </c>
       <c r="C111" t="n">
-        <v>0.489727</v>
+        <v>0.499302</v>
       </c>
       <c r="D111" t="n">
-        <v>0.404078</v>
+        <v>0.408036</v>
       </c>
       <c r="E111" t="n">
-        <v>0.179822</v>
+        <v>0.186822</v>
       </c>
       <c r="F111" t="n">
-        <v>0.285919</v>
+        <v>0.293393</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.242116</v>
+        <v>0.240208</v>
       </c>
       <c r="C112" t="n">
-        <v>0.463668</v>
+        <v>0.52571</v>
       </c>
       <c r="D112" t="n">
-        <v>0.400109</v>
+        <v>0.404379</v>
       </c>
       <c r="E112" t="n">
-        <v>0.176309</v>
+        <v>0.181829</v>
       </c>
       <c r="F112" t="n">
-        <v>0.282433</v>
+        <v>0.290392</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.237526</v>
+        <v>0.235238</v>
       </c>
       <c r="C113" t="n">
-        <v>0.455803</v>
+        <v>0.516277</v>
       </c>
       <c r="D113" t="n">
-        <v>0.396933</v>
+        <v>0.400451</v>
       </c>
       <c r="E113" t="n">
-        <v>0.173162</v>
+        <v>0.181214</v>
       </c>
       <c r="F113" t="n">
-        <v>0.283827</v>
+        <v>0.280753</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.232246</v>
+        <v>0.230104</v>
       </c>
       <c r="C114" t="n">
-        <v>0.445309</v>
+        <v>0.505785</v>
       </c>
       <c r="D114" t="n">
-        <v>0.392974</v>
+        <v>0.397841</v>
       </c>
       <c r="E114" t="n">
-        <v>0.170057</v>
+        <v>0.177141</v>
       </c>
       <c r="F114" t="n">
-        <v>0.281788</v>
+        <v>0.277885</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.226656</v>
+        <v>0.224507</v>
       </c>
       <c r="C115" t="n">
-        <v>0.449751</v>
+        <v>0.438748</v>
       </c>
       <c r="D115" t="n">
-        <v>0.391044</v>
+        <v>0.392855</v>
       </c>
       <c r="E115" t="n">
-        <v>0.166942</v>
+        <v>0.173015</v>
       </c>
       <c r="F115" t="n">
-        <v>0.278714</v>
+        <v>0.274156</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.221054</v>
+        <v>0.218119</v>
       </c>
       <c r="C116" t="n">
-        <v>0.416395</v>
+        <v>0.41222</v>
       </c>
       <c r="D116" t="n">
-        <v>0.385886</v>
+        <v>0.391173</v>
       </c>
       <c r="E116" t="n">
-        <v>0.163611</v>
+        <v>0.169698</v>
       </c>
       <c r="F116" t="n">
-        <v>0.275391</v>
+        <v>0.277481</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.215251</v>
+        <v>0.212905</v>
       </c>
       <c r="C117" t="n">
-        <v>0.358428</v>
+        <v>0.392757</v>
       </c>
       <c r="D117" t="n">
-        <v>0.385619</v>
+        <v>0.388741</v>
       </c>
       <c r="E117" t="n">
-        <v>0.160094</v>
+        <v>0.165553</v>
       </c>
       <c r="F117" t="n">
-        <v>0.272271</v>
+        <v>0.271114</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.209364</v>
+        <v>0.206344</v>
       </c>
       <c r="C118" t="n">
-        <v>0.424299</v>
+        <v>0.408157</v>
       </c>
       <c r="D118" t="n">
-        <v>0.382175</v>
+        <v>0.386855</v>
       </c>
       <c r="E118" t="n">
-        <v>0.157926</v>
+        <v>0.162189</v>
       </c>
       <c r="F118" t="n">
-        <v>0.269272</v>
+        <v>0.26484</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.203039</v>
+        <v>0.200368</v>
       </c>
       <c r="C119" t="n">
-        <v>0.381344</v>
+        <v>0.440252</v>
       </c>
       <c r="D119" t="n">
-        <v>0.379792</v>
+        <v>0.385824</v>
       </c>
       <c r="E119" t="n">
-        <v>0.154709</v>
+        <v>0.157559</v>
       </c>
       <c r="F119" t="n">
-        <v>0.266092</v>
+        <v>0.261688</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.194787</v>
+        <v>0.193618</v>
       </c>
       <c r="C120" t="n">
-        <v>0.408267</v>
+        <v>0.401546</v>
       </c>
       <c r="D120" t="n">
-        <v>0.37992</v>
+        <v>0.385071</v>
       </c>
       <c r="E120" t="n">
-        <v>0.151323</v>
+        <v>0.153969</v>
       </c>
       <c r="F120" t="n">
-        <v>0.262284</v>
+        <v>0.261615</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.186628</v>
+        <v>0.185871</v>
       </c>
       <c r="C121" t="n">
-        <v>0.388816</v>
+        <v>0.408989</v>
       </c>
       <c r="D121" t="n">
-        <v>0.451279</v>
+        <v>0.449229</v>
       </c>
       <c r="E121" t="n">
-        <v>0.14833</v>
+        <v>0.150303</v>
       </c>
       <c r="F121" t="n">
-        <v>0.25861</v>
+        <v>0.255238</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.177131</v>
+        <v>0.176978</v>
       </c>
       <c r="C122" t="n">
-        <v>0.354276</v>
+        <v>0.372141</v>
       </c>
       <c r="D122" t="n">
-        <v>0.441242</v>
+        <v>0.451569</v>
       </c>
       <c r="E122" t="n">
-        <v>0.145109</v>
+        <v>0.146098</v>
       </c>
       <c r="F122" t="n">
-        <v>0.25501</v>
+        <v>0.257301</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.165788</v>
+        <v>0.166284</v>
       </c>
       <c r="C123" t="n">
-        <v>0.334681</v>
+        <v>0.359937</v>
       </c>
       <c r="D123" t="n">
-        <v>0.440055</v>
+        <v>0.435979</v>
       </c>
       <c r="E123" t="n">
-        <v>0.188842</v>
+        <v>0.19666</v>
       </c>
       <c r="F123" t="n">
-        <v>0.294145</v>
+        <v>0.300533</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.251203</v>
+        <v>0.24889</v>
       </c>
       <c r="C124" t="n">
-        <v>0.422585</v>
+        <v>0.539427</v>
       </c>
       <c r="D124" t="n">
-        <v>0.429794</v>
+        <v>0.438591</v>
       </c>
       <c r="E124" t="n">
-        <v>0.184718</v>
+        <v>0.191674</v>
       </c>
       <c r="F124" t="n">
-        <v>0.290126</v>
+        <v>0.297987</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.247339</v>
+        <v>0.245323</v>
       </c>
       <c r="C125" t="n">
-        <v>0.454484</v>
+        <v>0.441164</v>
       </c>
       <c r="D125" t="n">
-        <v>0.425497</v>
+        <v>0.429804</v>
       </c>
       <c r="E125" t="n">
-        <v>0.180969</v>
+        <v>0.187243</v>
       </c>
       <c r="F125" t="n">
-        <v>0.287635</v>
+        <v>0.293859</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.2432</v>
+        <v>0.241091</v>
       </c>
       <c r="C126" t="n">
-        <v>0.491879</v>
+        <v>0.461377</v>
       </c>
       <c r="D126" t="n">
-        <v>0.421876</v>
+        <v>0.424573</v>
       </c>
       <c r="E126" t="n">
-        <v>0.177398</v>
+        <v>0.182531</v>
       </c>
       <c r="F126" t="n">
-        <v>0.283948</v>
+        <v>0.290768</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.238091</v>
+        <v>0.236334</v>
       </c>
       <c r="C127" t="n">
-        <v>0.452238</v>
+        <v>0.469359</v>
       </c>
       <c r="D127" t="n">
-        <v>0.413919</v>
+        <v>0.420542</v>
       </c>
       <c r="E127" t="n">
-        <v>0.173933</v>
+        <v>0.178609</v>
       </c>
       <c r="F127" t="n">
-        <v>0.28071</v>
+        <v>0.285239</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.233337</v>
+        <v>0.231184</v>
       </c>
       <c r="C128" t="n">
-        <v>0.463463</v>
+        <v>0.437576</v>
       </c>
       <c r="D128" t="n">
-        <v>0.413351</v>
+        <v>0.41813</v>
       </c>
       <c r="E128" t="n">
-        <v>0.170437</v>
+        <v>0.174498</v>
       </c>
       <c r="F128" t="n">
-        <v>0.277522</v>
+        <v>0.280633</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.227994</v>
+        <v>0.224828</v>
       </c>
       <c r="C129" t="n">
-        <v>0.374617</v>
+        <v>0.38182</v>
       </c>
       <c r="D129" t="n">
-        <v>0.406591</v>
+        <v>0.410045</v>
       </c>
       <c r="E129" t="n">
-        <v>0.167232</v>
+        <v>0.170676</v>
       </c>
       <c r="F129" t="n">
-        <v>0.274343</v>
+        <v>0.28061</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.222441</v>
+        <v>0.219673</v>
       </c>
       <c r="C130" t="n">
-        <v>0.390696</v>
+        <v>0.420939</v>
       </c>
       <c r="D130" t="n">
-        <v>0.400847</v>
+        <v>0.408085</v>
       </c>
       <c r="E130" t="n">
-        <v>0.164317</v>
+        <v>0.166607</v>
       </c>
       <c r="F130" t="n">
-        <v>0.271212</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.216638</v>
+        <v>0.214327</v>
       </c>
       <c r="C131" t="n">
-        <v>0.403241</v>
+        <v>0.462327</v>
       </c>
       <c r="D131" t="n">
-        <v>0.399637</v>
+        <v>0.406213</v>
       </c>
       <c r="E131" t="n">
-        <v>0.161305</v>
+        <v>0.163135</v>
       </c>
       <c r="F131" t="n">
-        <v>0.267971</v>
+        <v>0.273167</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.208275</v>
+        <v>0.207979</v>
       </c>
       <c r="C132" t="n">
-        <v>0.41539</v>
+        <v>0.414962</v>
       </c>
       <c r="D132" t="n">
-        <v>0.396112</v>
+        <v>0.401107</v>
       </c>
       <c r="E132" t="n">
-        <v>0.158355</v>
+        <v>0.159993</v>
       </c>
       <c r="F132" t="n">
-        <v>0.265452</v>
+        <v>0.269635</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.20406</v>
+        <v>0.201867</v>
       </c>
       <c r="C133" t="n">
-        <v>0.391724</v>
+        <v>0.414584</v>
       </c>
       <c r="D133" t="n">
-        <v>0.391348</v>
+        <v>0.397442</v>
       </c>
       <c r="E133" t="n">
-        <v>0.155419</v>
+        <v>0.155683</v>
       </c>
       <c r="F133" t="n">
-        <v>0.261825</v>
+        <v>0.264738</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.195253</v>
+        <v>0.195326</v>
       </c>
       <c r="C134" t="n">
-        <v>0.381</v>
+        <v>0.377752</v>
       </c>
       <c r="D134" t="n">
-        <v>0.390114</v>
+        <v>0.396186</v>
       </c>
       <c r="E134" t="n">
-        <v>0.151966</v>
+        <v>0.155025</v>
       </c>
       <c r="F134" t="n">
-        <v>0.262829</v>
+        <v>0.259014</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187178</v>
+        <v>0.187819</v>
       </c>
       <c r="C135" t="n">
-        <v>0.361931</v>
+        <v>0.409553</v>
       </c>
       <c r="D135" t="n">
-        <v>0.454655</v>
+        <v>0.458189</v>
       </c>
       <c r="E135" t="n">
-        <v>0.148942</v>
+        <v>0.150998</v>
       </c>
       <c r="F135" t="n">
-        <v>0.25971</v>
+        <v>0.255739</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.179341</v>
+        <v>0.178519</v>
       </c>
       <c r="C136" t="n">
-        <v>0.355122</v>
+        <v>0.352497</v>
       </c>
       <c r="D136" t="n">
-        <v>0.443218</v>
+        <v>0.456404</v>
       </c>
       <c r="E136" t="n">
-        <v>0.145818</v>
+        <v>0.14714</v>
       </c>
       <c r="F136" t="n">
-        <v>0.255886</v>
+        <v>0.252192</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16825</v>
+        <v>0.168071</v>
       </c>
       <c r="C137" t="n">
-        <v>0.423733</v>
+        <v>0.367631</v>
       </c>
       <c r="D137" t="n">
-        <v>0.439118</v>
+        <v>0.446097</v>
       </c>
       <c r="E137" t="n">
-        <v>0.189379</v>
+        <v>0.200702</v>
       </c>
       <c r="F137" t="n">
-        <v>0.298903</v>
+        <v>0.297018</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.251844</v>
+        <v>0.248429</v>
       </c>
       <c r="C138" t="n">
-        <v>0.477024</v>
+        <v>0.431655</v>
       </c>
       <c r="D138" t="n">
-        <v>0.438993</v>
+        <v>0.441137</v>
       </c>
       <c r="E138" t="n">
-        <v>0.185338</v>
+        <v>0.195579</v>
       </c>
       <c r="F138" t="n">
-        <v>0.295261</v>
+        <v>0.293578</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.248244</v>
+        <v>0.24548</v>
       </c>
       <c r="C139" t="n">
-        <v>0.501525</v>
+        <v>0.482563</v>
       </c>
       <c r="D139" t="n">
-        <v>0.429637</v>
+        <v>0.433612</v>
       </c>
       <c r="E139" t="n">
-        <v>0.181544</v>
+        <v>0.191147</v>
       </c>
       <c r="F139" t="n">
-        <v>0.292433</v>
+        <v>0.289922</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.244088</v>
+        <v>0.241647</v>
       </c>
       <c r="C140" t="n">
-        <v>0.489296</v>
+        <v>0.47533</v>
       </c>
       <c r="D140" t="n">
-        <v>0.423259</v>
+        <v>0.433118</v>
       </c>
       <c r="E140" t="n">
-        <v>0.177905</v>
+        <v>0.18359</v>
       </c>
       <c r="F140" t="n">
-        <v>0.2836</v>
+        <v>0.286207</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.239468</v>
+        <v>0.236119</v>
       </c>
       <c r="C141" t="n">
-        <v>0.50452</v>
+        <v>0.480513</v>
       </c>
       <c r="D141" t="n">
-        <v>0.419187</v>
+        <v>0.424263</v>
       </c>
       <c r="E141" t="n">
-        <v>0.174485</v>
+        <v>0.179351</v>
       </c>
       <c r="F141" t="n">
-        <v>0.281189</v>
+        <v>0.283994</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.234414</v>
+        <v>0.231255</v>
       </c>
       <c r="C142" t="n">
-        <v>0.363104</v>
+        <v>0.363962</v>
       </c>
       <c r="D142" t="n">
-        <v>0.414252</v>
+        <v>0.420016</v>
       </c>
       <c r="E142" t="n">
-        <v>0.17118</v>
+        <v>0.17551</v>
       </c>
       <c r="F142" t="n">
-        <v>0.277227</v>
+        <v>0.282236</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.22925</v>
+        <v>0.225975</v>
       </c>
       <c r="C143" t="n">
-        <v>0.482852</v>
+        <v>0.45304</v>
       </c>
       <c r="D143" t="n">
-        <v>0.410855</v>
+        <v>0.413943</v>
       </c>
       <c r="E143" t="n">
-        <v>0.167925</v>
+        <v>0.1714</v>
       </c>
       <c r="F143" t="n">
-        <v>0.274007</v>
+        <v>0.279066</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.200294</v>
+        <v>0.184132</v>
       </c>
       <c r="C2" t="n">
-        <v>0.31659</v>
+        <v>0.323927</v>
       </c>
       <c r="D2" t="n">
-        <v>0.305634</v>
+        <v>0.321017</v>
       </c>
       <c r="E2" t="n">
-        <v>0.210783</v>
+        <v>0.129017</v>
       </c>
       <c r="F2" t="n">
-        <v>0.317267</v>
+        <v>0.263558</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194011</v>
+        <v>0.187216</v>
       </c>
       <c r="C3" t="n">
-        <v>0.313723</v>
+        <v>0.315217</v>
       </c>
       <c r="D3" t="n">
-        <v>0.307652</v>
+        <v>0.322835</v>
       </c>
       <c r="E3" t="n">
-        <v>0.211491</v>
+        <v>0.126469</v>
       </c>
       <c r="F3" t="n">
-        <v>0.317262</v>
+        <v>0.262581</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.189252</v>
+        <v>0.185343</v>
       </c>
       <c r="C4" t="n">
-        <v>0.30793</v>
+        <v>0.320832</v>
       </c>
       <c r="D4" t="n">
-        <v>0.309183</v>
+        <v>0.32409</v>
       </c>
       <c r="E4" t="n">
-        <v>0.214307</v>
+        <v>0.124291</v>
       </c>
       <c r="F4" t="n">
-        <v>0.315485</v>
+        <v>0.260116</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182401</v>
+        <v>0.178775</v>
       </c>
       <c r="C5" t="n">
-        <v>0.307774</v>
+        <v>0.308655</v>
       </c>
       <c r="D5" t="n">
-        <v>0.30952</v>
+        <v>0.326075</v>
       </c>
       <c r="E5" t="n">
-        <v>0.215395</v>
+        <v>0.129471</v>
       </c>
       <c r="F5" t="n">
-        <v>0.31487</v>
+        <v>0.253079</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.176159</v>
+        <v>0.174344</v>
       </c>
       <c r="C6" t="n">
-        <v>0.300265</v>
+        <v>0.299726</v>
       </c>
       <c r="D6" t="n">
-        <v>0.310051</v>
+        <v>0.326336</v>
       </c>
       <c r="E6" t="n">
-        <v>0.21725</v>
+        <v>0.126197</v>
       </c>
       <c r="F6" t="n">
-        <v>0.313042</v>
+        <v>0.247875</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.167221</v>
+        <v>0.170311</v>
       </c>
       <c r="C7" t="n">
-        <v>0.291435</v>
+        <v>0.293033</v>
       </c>
       <c r="D7" t="n">
-        <v>0.305019</v>
+        <v>0.319441</v>
       </c>
       <c r="E7" t="n">
-        <v>0.218409</v>
+        <v>0.123235</v>
       </c>
       <c r="F7" t="n">
-        <v>0.311836</v>
+        <v>0.249363</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.159039</v>
+        <v>0.162379</v>
       </c>
       <c r="C8" t="n">
-        <v>0.284275</v>
+        <v>0.291365</v>
       </c>
       <c r="D8" t="n">
-        <v>0.304431</v>
+        <v>0.317506</v>
       </c>
       <c r="E8" t="n">
-        <v>0.220225</v>
+        <v>0.122074</v>
       </c>
       <c r="F8" t="n">
-        <v>0.31375</v>
+        <v>0.245174</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148593</v>
+        <v>0.154358</v>
       </c>
       <c r="C9" t="n">
-        <v>0.27137</v>
+        <v>0.284419</v>
       </c>
       <c r="D9" t="n">
-        <v>0.304824</v>
+        <v>0.31979</v>
       </c>
       <c r="E9" t="n">
-        <v>0.234382</v>
+        <v>0.183313</v>
       </c>
       <c r="F9" t="n">
-        <v>0.327079</v>
+        <v>0.29392</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231894</v>
+        <v>0.230617</v>
       </c>
       <c r="C10" t="n">
-        <v>0.347589</v>
+        <v>0.352884</v>
       </c>
       <c r="D10" t="n">
-        <v>0.306654</v>
+        <v>0.320257</v>
       </c>
       <c r="E10" t="n">
-        <v>0.234605</v>
+        <v>0.180802</v>
       </c>
       <c r="F10" t="n">
-        <v>0.326805</v>
+        <v>0.292128</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.228899</v>
+        <v>0.226834</v>
       </c>
       <c r="C11" t="n">
-        <v>0.34601</v>
+        <v>0.348896</v>
       </c>
       <c r="D11" t="n">
-        <v>0.306698</v>
+        <v>0.318957</v>
       </c>
       <c r="E11" t="n">
-        <v>0.235144</v>
+        <v>0.177753</v>
       </c>
       <c r="F11" t="n">
-        <v>0.326537</v>
+        <v>0.288835</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225968</v>
+        <v>0.22626</v>
       </c>
       <c r="C12" t="n">
-        <v>0.342634</v>
+        <v>0.344425</v>
       </c>
       <c r="D12" t="n">
-        <v>0.307243</v>
+        <v>0.321706</v>
       </c>
       <c r="E12" t="n">
-        <v>0.234651</v>
+        <v>0.172822</v>
       </c>
       <c r="F12" t="n">
-        <v>0.327015</v>
+        <v>0.284331</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221901</v>
+        <v>0.223542</v>
       </c>
       <c r="C13" t="n">
-        <v>0.337846</v>
+        <v>0.340135</v>
       </c>
       <c r="D13" t="n">
-        <v>0.30728</v>
+        <v>0.322629</v>
       </c>
       <c r="E13" t="n">
-        <v>0.234475</v>
+        <v>0.169848</v>
       </c>
       <c r="F13" t="n">
-        <v>0.325369</v>
+        <v>0.282683</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.21917</v>
+        <v>0.219668</v>
       </c>
       <c r="C14" t="n">
-        <v>0.333465</v>
+        <v>0.338185</v>
       </c>
       <c r="D14" t="n">
-        <v>0.308434</v>
+        <v>0.326015</v>
       </c>
       <c r="E14" t="n">
-        <v>0.235431</v>
+        <v>0.165747</v>
       </c>
       <c r="F14" t="n">
-        <v>0.323822</v>
+        <v>0.279098</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215639</v>
+        <v>0.215714</v>
       </c>
       <c r="C15" t="n">
-        <v>0.329852</v>
+        <v>0.333583</v>
       </c>
       <c r="D15" t="n">
-        <v>0.307973</v>
+        <v>0.324659</v>
       </c>
       <c r="E15" t="n">
-        <v>0.234297</v>
+        <v>0.163904</v>
       </c>
       <c r="F15" t="n">
-        <v>0.323918</v>
+        <v>0.277469</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211657</v>
+        <v>0.210245</v>
       </c>
       <c r="C16" t="n">
-        <v>0.323665</v>
+        <v>0.328678</v>
       </c>
       <c r="D16" t="n">
-        <v>0.309492</v>
+        <v>0.326364</v>
       </c>
       <c r="E16" t="n">
-        <v>0.234169</v>
+        <v>0.161158</v>
       </c>
       <c r="F16" t="n">
-        <v>0.32215</v>
+        <v>0.272542</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206536</v>
+        <v>0.205899</v>
       </c>
       <c r="C17" t="n">
-        <v>0.315025</v>
+        <v>0.319487</v>
       </c>
       <c r="D17" t="n">
-        <v>0.309044</v>
+        <v>0.325812</v>
       </c>
       <c r="E17" t="n">
-        <v>0.23419</v>
+        <v>0.155393</v>
       </c>
       <c r="F17" t="n">
-        <v>0.323755</v>
+        <v>0.270158</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199522</v>
+        <v>0.199491</v>
       </c>
       <c r="C18" t="n">
-        <v>0.309858</v>
+        <v>0.318546</v>
       </c>
       <c r="D18" t="n">
-        <v>0.311151</v>
+        <v>0.329362</v>
       </c>
       <c r="E18" t="n">
-        <v>0.233685</v>
+        <v>0.15321</v>
       </c>
       <c r="F18" t="n">
-        <v>0.322074</v>
+        <v>0.267035</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.19385</v>
+        <v>0.192981</v>
       </c>
       <c r="C19" t="n">
-        <v>0.30593</v>
+        <v>0.310296</v>
       </c>
       <c r="D19" t="n">
-        <v>0.312665</v>
+        <v>0.330596</v>
       </c>
       <c r="E19" t="n">
-        <v>0.23204</v>
+        <v>0.153321</v>
       </c>
       <c r="F19" t="n">
-        <v>0.320383</v>
+        <v>0.258883</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188353</v>
+        <v>0.188935</v>
       </c>
       <c r="C20" t="n">
-        <v>0.30886</v>
+        <v>0.303923</v>
       </c>
       <c r="D20" t="n">
-        <v>0.311947</v>
+        <v>0.331439</v>
       </c>
       <c r="E20" t="n">
-        <v>0.232676</v>
+        <v>0.148175</v>
       </c>
       <c r="F20" t="n">
-        <v>0.320999</v>
+        <v>0.258856</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181601</v>
+        <v>0.182778</v>
       </c>
       <c r="C21" t="n">
-        <v>0.298816</v>
+        <v>0.301748</v>
       </c>
       <c r="D21" t="n">
-        <v>0.309536</v>
+        <v>0.323025</v>
       </c>
       <c r="E21" t="n">
-        <v>0.231679</v>
+        <v>0.143557</v>
       </c>
       <c r="F21" t="n">
-        <v>0.318785</v>
+        <v>0.256961</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.172699</v>
+        <v>0.174478</v>
       </c>
       <c r="C22" t="n">
-        <v>0.290381</v>
+        <v>0.291707</v>
       </c>
       <c r="D22" t="n">
-        <v>0.309034</v>
+        <v>0.322845</v>
       </c>
       <c r="E22" t="n">
-        <v>0.232512</v>
+        <v>0.140012</v>
       </c>
       <c r="F22" t="n">
-        <v>0.318463</v>
+        <v>0.253741</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.162645</v>
+        <v>0.165633</v>
       </c>
       <c r="C23" t="n">
-        <v>0.275848</v>
+        <v>0.280715</v>
       </c>
       <c r="D23" t="n">
-        <v>0.308508</v>
+        <v>0.322936</v>
       </c>
       <c r="E23" t="n">
-        <v>0.24718</v>
+        <v>0.192926</v>
       </c>
       <c r="F23" t="n">
-        <v>0.334221</v>
+        <v>0.300847</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.24058</v>
+        <v>0.241793</v>
       </c>
       <c r="C24" t="n">
-        <v>0.349125</v>
+        <v>0.353312</v>
       </c>
       <c r="D24" t="n">
-        <v>0.309185</v>
+        <v>0.323824</v>
       </c>
       <c r="E24" t="n">
-        <v>0.245431</v>
+        <v>0.188406</v>
       </c>
       <c r="F24" t="n">
-        <v>0.331984</v>
+        <v>0.295934</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240079</v>
+        <v>0.237256</v>
       </c>
       <c r="C25" t="n">
-        <v>0.348844</v>
+        <v>0.351378</v>
       </c>
       <c r="D25" t="n">
-        <v>0.31071</v>
+        <v>0.32494</v>
       </c>
       <c r="E25" t="n">
-        <v>0.243652</v>
+        <v>0.18363</v>
       </c>
       <c r="F25" t="n">
-        <v>0.331946</v>
+        <v>0.293196</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.235794</v>
+        <v>0.2336</v>
       </c>
       <c r="C26" t="n">
-        <v>0.344656</v>
+        <v>0.346346</v>
       </c>
       <c r="D26" t="n">
-        <v>0.311278</v>
+        <v>0.325923</v>
       </c>
       <c r="E26" t="n">
-        <v>0.242871</v>
+        <v>0.180117</v>
       </c>
       <c r="F26" t="n">
-        <v>0.330463</v>
+        <v>0.29046</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.231038</v>
+        <v>0.231682</v>
       </c>
       <c r="C27" t="n">
-        <v>0.33982</v>
+        <v>0.342076</v>
       </c>
       <c r="D27" t="n">
-        <v>0.311436</v>
+        <v>0.325059</v>
       </c>
       <c r="E27" t="n">
-        <v>0.242055</v>
+        <v>0.179414</v>
       </c>
       <c r="F27" t="n">
-        <v>0.329064</v>
+        <v>0.281472</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.22801</v>
+        <v>0.22499</v>
       </c>
       <c r="C28" t="n">
-        <v>0.335131</v>
+        <v>0.338092</v>
       </c>
       <c r="D28" t="n">
-        <v>0.311712</v>
+        <v>0.326012</v>
       </c>
       <c r="E28" t="n">
-        <v>0.240614</v>
+        <v>0.175208</v>
       </c>
       <c r="F28" t="n">
-        <v>0.329066</v>
+        <v>0.278618</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.226084</v>
+        <v>0.221582</v>
       </c>
       <c r="C29" t="n">
-        <v>0.330743</v>
+        <v>0.331777</v>
       </c>
       <c r="D29" t="n">
-        <v>0.312177</v>
+        <v>0.327829</v>
       </c>
       <c r="E29" t="n">
-        <v>0.240726</v>
+        <v>0.1716</v>
       </c>
       <c r="F29" t="n">
-        <v>0.326823</v>
+        <v>0.275994</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.219145</v>
+        <v>0.216904</v>
       </c>
       <c r="C30" t="n">
-        <v>0.329212</v>
+        <v>0.323681</v>
       </c>
       <c r="D30" t="n">
-        <v>0.31228</v>
+        <v>0.329398</v>
       </c>
       <c r="E30" t="n">
-        <v>0.239483</v>
+        <v>0.168401</v>
       </c>
       <c r="F30" t="n">
-        <v>0.326446</v>
+        <v>0.272975</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.21278</v>
+        <v>0.211474</v>
       </c>
       <c r="C31" t="n">
-        <v>0.326383</v>
+        <v>0.322785</v>
       </c>
       <c r="D31" t="n">
-        <v>0.31316</v>
+        <v>0.330576</v>
       </c>
       <c r="E31" t="n">
-        <v>0.238519</v>
+        <v>0.16324</v>
       </c>
       <c r="F31" t="n">
-        <v>0.324436</v>
+        <v>0.274321</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20693</v>
+        <v>0.205788</v>
       </c>
       <c r="C32" t="n">
-        <v>0.320809</v>
+        <v>0.321404</v>
       </c>
       <c r="D32" t="n">
-        <v>0.314911</v>
+        <v>0.330069</v>
       </c>
       <c r="E32" t="n">
-        <v>0.237578</v>
+        <v>0.160108</v>
       </c>
       <c r="F32" t="n">
-        <v>0.323942</v>
+        <v>0.27149</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201707</v>
+        <v>0.201486</v>
       </c>
       <c r="C33" t="n">
-        <v>0.315441</v>
+        <v>0.311288</v>
       </c>
       <c r="D33" t="n">
-        <v>0.315498</v>
+        <v>0.332534</v>
       </c>
       <c r="E33" t="n">
-        <v>0.236959</v>
+        <v>0.157243</v>
       </c>
       <c r="F33" t="n">
-        <v>0.323423</v>
+        <v>0.267846</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195122</v>
+        <v>0.19495</v>
       </c>
       <c r="C34" t="n">
-        <v>0.311769</v>
+        <v>0.308004</v>
       </c>
       <c r="D34" t="n">
-        <v>0.317342</v>
+        <v>0.333052</v>
       </c>
       <c r="E34" t="n">
-        <v>0.23607</v>
+        <v>0.154268</v>
       </c>
       <c r="F34" t="n">
-        <v>0.322317</v>
+        <v>0.259524</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.188229</v>
+        <v>0.190454</v>
       </c>
       <c r="C35" t="n">
-        <v>0.297461</v>
+        <v>0.303699</v>
       </c>
       <c r="D35" t="n">
-        <v>0.313147</v>
+        <v>0.32713</v>
       </c>
       <c r="E35" t="n">
-        <v>0.23513</v>
+        <v>0.148796</v>
       </c>
       <c r="F35" t="n">
-        <v>0.320055</v>
+        <v>0.259406</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.17974</v>
+        <v>0.181368</v>
       </c>
       <c r="C36" t="n">
-        <v>0.286527</v>
+        <v>0.295348</v>
       </c>
       <c r="D36" t="n">
-        <v>0.313537</v>
+        <v>0.327269</v>
       </c>
       <c r="E36" t="n">
-        <v>0.235115</v>
+        <v>0.144871</v>
       </c>
       <c r="F36" t="n">
-        <v>0.319481</v>
+        <v>0.256664</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170466</v>
+        <v>0.171887</v>
       </c>
       <c r="C37" t="n">
-        <v>0.279347</v>
+        <v>0.282471</v>
       </c>
       <c r="D37" t="n">
-        <v>0.313651</v>
+        <v>0.327318</v>
       </c>
       <c r="E37" t="n">
-        <v>0.249417</v>
+        <v>0.196244</v>
       </c>
       <c r="F37" t="n">
-        <v>0.336108</v>
+        <v>0.298481</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247895</v>
+        <v>0.244406</v>
       </c>
       <c r="C38" t="n">
-        <v>0.35977</v>
+        <v>0.355506</v>
       </c>
       <c r="D38" t="n">
-        <v>0.313074</v>
+        <v>0.326625</v>
       </c>
       <c r="E38" t="n">
-        <v>0.246857</v>
+        <v>0.195565</v>
       </c>
       <c r="F38" t="n">
-        <v>0.334616</v>
+        <v>0.294764</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.245044</v>
+        <v>0.241661</v>
       </c>
       <c r="C39" t="n">
-        <v>0.356515</v>
+        <v>0.352528</v>
       </c>
       <c r="D39" t="n">
-        <v>0.313262</v>
+        <v>0.325645</v>
       </c>
       <c r="E39" t="n">
-        <v>0.245825</v>
+        <v>0.186992</v>
       </c>
       <c r="F39" t="n">
-        <v>0.333746</v>
+        <v>0.294518</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.242089</v>
+        <v>0.238243</v>
       </c>
       <c r="C40" t="n">
-        <v>0.352865</v>
+        <v>0.347918</v>
       </c>
       <c r="D40" t="n">
-        <v>0.313088</v>
+        <v>0.326817</v>
       </c>
       <c r="E40" t="n">
-        <v>0.244848</v>
+        <v>0.183784</v>
       </c>
       <c r="F40" t="n">
-        <v>0.332755</v>
+        <v>0.29113</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.236219</v>
+        <v>0.233805</v>
       </c>
       <c r="C41" t="n">
-        <v>0.347693</v>
+        <v>0.343506</v>
       </c>
       <c r="D41" t="n">
-        <v>0.31364</v>
+        <v>0.327123</v>
       </c>
       <c r="E41" t="n">
-        <v>0.243459</v>
+        <v>0.178992</v>
       </c>
       <c r="F41" t="n">
-        <v>0.331724</v>
+        <v>0.288459</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.231572</v>
+        <v>0.230018</v>
       </c>
       <c r="C42" t="n">
-        <v>0.343132</v>
+        <v>0.339489</v>
       </c>
       <c r="D42" t="n">
-        <v>0.313913</v>
+        <v>0.32898</v>
       </c>
       <c r="E42" t="n">
-        <v>0.242263</v>
+        <v>0.176081</v>
       </c>
       <c r="F42" t="n">
-        <v>0.330036</v>
+        <v>0.285036</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.226505</v>
+        <v>0.224658</v>
       </c>
       <c r="C43" t="n">
-        <v>0.337874</v>
+        <v>0.334663</v>
       </c>
       <c r="D43" t="n">
-        <v>0.313705</v>
+        <v>0.329708</v>
       </c>
       <c r="E43" t="n">
-        <v>0.241246</v>
+        <v>0.172724</v>
       </c>
       <c r="F43" t="n">
-        <v>0.328957</v>
+        <v>0.281405</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220847</v>
+        <v>0.220719</v>
       </c>
       <c r="C44" t="n">
-        <v>0.325115</v>
+        <v>0.333213</v>
       </c>
       <c r="D44" t="n">
-        <v>0.314729</v>
+        <v>0.330996</v>
       </c>
       <c r="E44" t="n">
-        <v>0.239775</v>
+        <v>0.169552</v>
       </c>
       <c r="F44" t="n">
-        <v>0.327937</v>
+        <v>0.278842</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215666</v>
+        <v>0.214727</v>
       </c>
       <c r="C45" t="n">
-        <v>0.334929</v>
+        <v>0.334629</v>
       </c>
       <c r="D45" t="n">
-        <v>0.315024</v>
+        <v>0.331481</v>
       </c>
       <c r="E45" t="n">
-        <v>0.239018</v>
+        <v>0.16615</v>
       </c>
       <c r="F45" t="n">
-        <v>0.327184</v>
+        <v>0.275943</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209924</v>
+        <v>0.210049</v>
       </c>
       <c r="C46" t="n">
-        <v>0.321509</v>
+        <v>0.322157</v>
       </c>
       <c r="D46" t="n">
-        <v>0.316302</v>
+        <v>0.332011</v>
       </c>
       <c r="E46" t="n">
-        <v>0.238147</v>
+        <v>0.162346</v>
       </c>
       <c r="F46" t="n">
-        <v>0.325414</v>
+        <v>0.272623</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.20454</v>
+        <v>0.205143</v>
       </c>
       <c r="C47" t="n">
-        <v>0.319026</v>
+        <v>0.321666</v>
       </c>
       <c r="D47" t="n">
-        <v>0.317158</v>
+        <v>0.333511</v>
       </c>
       <c r="E47" t="n">
-        <v>0.237426</v>
+        <v>0.161173</v>
       </c>
       <c r="F47" t="n">
-        <v>0.325289</v>
+        <v>0.264805</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.198779</v>
+        <v>0.199378</v>
       </c>
       <c r="C48" t="n">
-        <v>0.305737</v>
+        <v>0.307578</v>
       </c>
       <c r="D48" t="n">
-        <v>0.317181</v>
+        <v>0.333937</v>
       </c>
       <c r="E48" t="n">
-        <v>0.236525</v>
+        <v>0.157449</v>
       </c>
       <c r="F48" t="n">
-        <v>0.323705</v>
+        <v>0.261152</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191496</v>
+        <v>0.192725</v>
       </c>
       <c r="C49" t="n">
-        <v>0.303486</v>
+        <v>0.31006</v>
       </c>
       <c r="D49" t="n">
-        <v>0.318904</v>
+        <v>0.335837</v>
       </c>
       <c r="E49" t="n">
-        <v>0.23574</v>
+        <v>0.15393</v>
       </c>
       <c r="F49" t="n">
-        <v>0.323141</v>
+        <v>0.257772</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.184163</v>
+        <v>0.184353</v>
       </c>
       <c r="C50" t="n">
-        <v>0.29839</v>
+        <v>0.302087</v>
       </c>
       <c r="D50" t="n">
-        <v>0.318239</v>
+        <v>0.332289</v>
       </c>
       <c r="E50" t="n">
-        <v>0.23523</v>
+        <v>0.150208</v>
       </c>
       <c r="F50" t="n">
-        <v>0.322115</v>
+        <v>0.253265</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175465</v>
+        <v>0.176099</v>
       </c>
       <c r="C51" t="n">
-        <v>0.285761</v>
+        <v>0.295025</v>
       </c>
       <c r="D51" t="n">
-        <v>0.317293</v>
+        <v>0.333674</v>
       </c>
       <c r="E51" t="n">
-        <v>0.249789</v>
+        <v>0.19805</v>
       </c>
       <c r="F51" t="n">
-        <v>0.336864</v>
+        <v>0.303043</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.164251</v>
+        <v>0.166069</v>
       </c>
       <c r="C52" t="n">
-        <v>0.281362</v>
+        <v>0.280747</v>
       </c>
       <c r="D52" t="n">
-        <v>0.319716</v>
+        <v>0.332453</v>
       </c>
       <c r="E52" t="n">
-        <v>0.248506</v>
+        <v>0.193429</v>
       </c>
       <c r="F52" t="n">
-        <v>0.335811</v>
+        <v>0.29992</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246488</v>
+        <v>0.245023</v>
       </c>
       <c r="C53" t="n">
-        <v>0.358332</v>
+        <v>0.358829</v>
       </c>
       <c r="D53" t="n">
-        <v>0.319106</v>
+        <v>0.331599</v>
       </c>
       <c r="E53" t="n">
-        <v>0.247051</v>
+        <v>0.189492</v>
       </c>
       <c r="F53" t="n">
-        <v>0.334045</v>
+        <v>0.296358</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242325</v>
+        <v>0.241452</v>
       </c>
       <c r="C54" t="n">
-        <v>0.356531</v>
+        <v>0.35585</v>
       </c>
       <c r="D54" t="n">
-        <v>0.321221</v>
+        <v>0.334401</v>
       </c>
       <c r="E54" t="n">
-        <v>0.245328</v>
+        <v>0.185011</v>
       </c>
       <c r="F54" t="n">
-        <v>0.332988</v>
+        <v>0.293024</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.240009</v>
+        <v>0.236992</v>
       </c>
       <c r="C55" t="n">
-        <v>0.352518</v>
+        <v>0.351827</v>
       </c>
       <c r="D55" t="n">
-        <v>0.321745</v>
+        <v>0.336805</v>
       </c>
       <c r="E55" t="n">
-        <v>0.244245</v>
+        <v>0.181601</v>
       </c>
       <c r="F55" t="n">
-        <v>0.33128</v>
+        <v>0.290649</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233661</v>
+        <v>0.231784</v>
       </c>
       <c r="C56" t="n">
-        <v>0.348603</v>
+        <v>0.347288</v>
       </c>
       <c r="D56" t="n">
-        <v>0.32322</v>
+        <v>0.339216</v>
       </c>
       <c r="E56" t="n">
-        <v>0.242896</v>
+        <v>0.17776</v>
       </c>
       <c r="F56" t="n">
-        <v>0.330007</v>
+        <v>0.286202</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228756</v>
+        <v>0.226875</v>
       </c>
       <c r="C57" t="n">
-        <v>0.344726</v>
+        <v>0.344123</v>
       </c>
       <c r="D57" t="n">
-        <v>0.323847</v>
+        <v>0.341381</v>
       </c>
       <c r="E57" t="n">
-        <v>0.241893</v>
+        <v>0.175157</v>
       </c>
       <c r="F57" t="n">
-        <v>0.328629</v>
+        <v>0.283685</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.223043</v>
+        <v>0.222862</v>
       </c>
       <c r="C58" t="n">
-        <v>0.32629</v>
+        <v>0.364114</v>
       </c>
       <c r="D58" t="n">
-        <v>0.326065</v>
+        <v>0.343015</v>
       </c>
       <c r="E58" t="n">
-        <v>0.241006</v>
+        <v>0.17092</v>
       </c>
       <c r="F58" t="n">
-        <v>0.327566</v>
+        <v>0.280226</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217913</v>
+        <v>0.217291</v>
       </c>
       <c r="C59" t="n">
-        <v>0.337615</v>
+        <v>0.333252</v>
       </c>
       <c r="D59" t="n">
-        <v>0.328026</v>
+        <v>0.343134</v>
       </c>
       <c r="E59" t="n">
-        <v>0.239961</v>
+        <v>0.167841</v>
       </c>
       <c r="F59" t="n">
-        <v>0.326991</v>
+        <v>0.277327</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.212604</v>
+        <v>0.211783</v>
       </c>
       <c r="C60" t="n">
-        <v>0.317475</v>
+        <v>0.330759</v>
       </c>
       <c r="D60" t="n">
-        <v>0.329548</v>
+        <v>0.344988</v>
       </c>
       <c r="E60" t="n">
-        <v>0.238876</v>
+        <v>0.164312</v>
       </c>
       <c r="F60" t="n">
-        <v>0.32568</v>
+        <v>0.274351</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206707</v>
+        <v>0.207686</v>
       </c>
       <c r="C61" t="n">
-        <v>0.324786</v>
+        <v>0.3433</v>
       </c>
       <c r="D61" t="n">
-        <v>0.330829</v>
+        <v>0.348606</v>
       </c>
       <c r="E61" t="n">
-        <v>0.237998</v>
+        <v>0.160967</v>
       </c>
       <c r="F61" t="n">
-        <v>0.324888</v>
+        <v>0.270213</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.20106</v>
+        <v>0.201126</v>
       </c>
       <c r="C62" t="n">
-        <v>0.316154</v>
+        <v>0.313895</v>
       </c>
       <c r="D62" t="n">
-        <v>0.332904</v>
+        <v>0.35016</v>
       </c>
       <c r="E62" t="n">
-        <v>0.23735</v>
+        <v>0.157537</v>
       </c>
       <c r="F62" t="n">
-        <v>0.32411</v>
+        <v>0.267248</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194299</v>
+        <v>0.194663</v>
       </c>
       <c r="C63" t="n">
-        <v>0.327755</v>
+        <v>0.335793</v>
       </c>
       <c r="D63" t="n">
-        <v>0.337114</v>
+        <v>0.353671</v>
       </c>
       <c r="E63" t="n">
-        <v>0.236558</v>
+        <v>0.153525</v>
       </c>
       <c r="F63" t="n">
-        <v>0.323591</v>
+        <v>0.263818</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187076</v>
+        <v>0.186448</v>
       </c>
       <c r="C64" t="n">
-        <v>0.312674</v>
+        <v>0.313533</v>
       </c>
       <c r="D64" t="n">
-        <v>0.377123</v>
+        <v>0.389146</v>
       </c>
       <c r="E64" t="n">
-        <v>0.235616</v>
+        <v>0.150074</v>
       </c>
       <c r="F64" t="n">
-        <v>0.321736</v>
+        <v>0.255005</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177598</v>
+        <v>0.178409</v>
       </c>
       <c r="C65" t="n">
-        <v>0.327485</v>
+        <v>0.325423</v>
       </c>
       <c r="D65" t="n">
-        <v>0.377157</v>
+        <v>0.392243</v>
       </c>
       <c r="E65" t="n">
-        <v>0.234731</v>
+        <v>0.147188</v>
       </c>
       <c r="F65" t="n">
-        <v>0.321094</v>
+        <v>0.252004</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167343</v>
+        <v>0.168463</v>
       </c>
       <c r="C66" t="n">
-        <v>0.302196</v>
+        <v>0.30451</v>
       </c>
       <c r="D66" t="n">
-        <v>0.377127</v>
+        <v>0.389642</v>
       </c>
       <c r="E66" t="n">
-        <v>0.249132</v>
+        <v>0.200131</v>
       </c>
       <c r="F66" t="n">
-        <v>0.337277</v>
+        <v>0.300944</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247356</v>
+        <v>0.24756</v>
       </c>
       <c r="C67" t="n">
-        <v>0.452807</v>
+        <v>0.38975</v>
       </c>
       <c r="D67" t="n">
-        <v>0.378582</v>
+        <v>0.392107</v>
       </c>
       <c r="E67" t="n">
-        <v>0.247716</v>
+        <v>0.195963</v>
       </c>
       <c r="F67" t="n">
-        <v>0.335927</v>
+        <v>0.297657</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243936</v>
+        <v>0.243355</v>
       </c>
       <c r="C68" t="n">
-        <v>0.370495</v>
+        <v>0.385025</v>
       </c>
       <c r="D68" t="n">
-        <v>0.379172</v>
+        <v>0.392632</v>
       </c>
       <c r="E68" t="n">
-        <v>0.246098</v>
+        <v>0.191463</v>
       </c>
       <c r="F68" t="n">
-        <v>0.334203</v>
+        <v>0.294973</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.240184</v>
+        <v>0.238427</v>
       </c>
       <c r="C69" t="n">
-        <v>0.367637</v>
+        <v>0.380634</v>
       </c>
       <c r="D69" t="n">
-        <v>0.379839</v>
+        <v>0.395566</v>
       </c>
       <c r="E69" t="n">
-        <v>0.244838</v>
+        <v>0.185097</v>
       </c>
       <c r="F69" t="n">
-        <v>0.333169</v>
+        <v>0.291682</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2352</v>
+        <v>0.234703</v>
       </c>
       <c r="C70" t="n">
-        <v>0.362796</v>
+        <v>0.377786</v>
       </c>
       <c r="D70" t="n">
-        <v>0.379783</v>
+        <v>0.395713</v>
       </c>
       <c r="E70" t="n">
-        <v>0.243663</v>
+        <v>0.18086</v>
       </c>
       <c r="F70" t="n">
-        <v>0.331455</v>
+        <v>0.287974</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.230495</v>
+        <v>0.229817</v>
       </c>
       <c r="C71" t="n">
-        <v>0.357744</v>
+        <v>0.37238</v>
       </c>
       <c r="D71" t="n">
-        <v>0.380222</v>
+        <v>0.395643</v>
       </c>
       <c r="E71" t="n">
-        <v>0.242387</v>
+        <v>0.178776</v>
       </c>
       <c r="F71" t="n">
-        <v>0.330828</v>
+        <v>0.280538</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.225007</v>
+        <v>0.22487</v>
       </c>
       <c r="C72" t="n">
-        <v>0.479638</v>
+        <v>0.357074</v>
       </c>
       <c r="D72" t="n">
-        <v>0.382886</v>
+        <v>0.39553</v>
       </c>
       <c r="E72" t="n">
-        <v>0.241049</v>
+        <v>0.174933</v>
       </c>
       <c r="F72" t="n">
-        <v>0.329697</v>
+        <v>0.276583</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.220459</v>
+        <v>0.219612</v>
       </c>
       <c r="C73" t="n">
-        <v>0.418738</v>
+        <v>0.440649</v>
       </c>
       <c r="D73" t="n">
-        <v>0.380955</v>
+        <v>0.396518</v>
       </c>
       <c r="E73" t="n">
-        <v>0.240195</v>
+        <v>0.170334</v>
       </c>
       <c r="F73" t="n">
-        <v>0.328058</v>
+        <v>0.272706</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213485</v>
+        <v>0.214494</v>
       </c>
       <c r="C74" t="n">
-        <v>0.475135</v>
+        <v>0.429137</v>
       </c>
       <c r="D74" t="n">
-        <v>0.38026</v>
+        <v>0.399003</v>
       </c>
       <c r="E74" t="n">
-        <v>0.239362</v>
+        <v>0.167209</v>
       </c>
       <c r="F74" t="n">
-        <v>0.326849</v>
+        <v>0.274751</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.208793</v>
+        <v>0.207868</v>
       </c>
       <c r="C75" t="n">
-        <v>0.467507</v>
+        <v>0.433729</v>
       </c>
       <c r="D75" t="n">
-        <v>0.379313</v>
+        <v>0.399427</v>
       </c>
       <c r="E75" t="n">
-        <v>0.238281</v>
+        <v>0.165251</v>
       </c>
       <c r="F75" t="n">
-        <v>0.326113</v>
+        <v>0.266766</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.20228</v>
+        <v>0.202311</v>
       </c>
       <c r="C76" t="n">
-        <v>0.42337</v>
+        <v>0.466214</v>
       </c>
       <c r="D76" t="n">
-        <v>0.380489</v>
+        <v>0.399004</v>
       </c>
       <c r="E76" t="n">
-        <v>0.237486</v>
+        <v>0.159951</v>
       </c>
       <c r="F76" t="n">
-        <v>0.325159</v>
+        <v>0.268293</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19609</v>
+        <v>0.19665</v>
       </c>
       <c r="C77" t="n">
-        <v>0.395883</v>
+        <v>0.45039</v>
       </c>
       <c r="D77" t="n">
-        <v>0.381225</v>
+        <v>0.398127</v>
       </c>
       <c r="E77" t="n">
-        <v>0.23664</v>
+        <v>0.155848</v>
       </c>
       <c r="F77" t="n">
-        <v>0.32335</v>
+        <v>0.264322</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188997</v>
+        <v>0.188407</v>
       </c>
       <c r="C78" t="n">
-        <v>0.405367</v>
+        <v>0.386939</v>
       </c>
       <c r="D78" t="n">
-        <v>0.437504</v>
+        <v>0.458968</v>
       </c>
       <c r="E78" t="n">
-        <v>0.235873</v>
+        <v>0.152373</v>
       </c>
       <c r="F78" t="n">
-        <v>0.323219</v>
+        <v>0.26072</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179597</v>
+        <v>0.181511</v>
       </c>
       <c r="C79" t="n">
-        <v>0.324828</v>
+        <v>0.342833</v>
       </c>
       <c r="D79" t="n">
-        <v>0.433362</v>
+        <v>0.451468</v>
       </c>
       <c r="E79" t="n">
-        <v>0.235101</v>
+        <v>0.149361</v>
       </c>
       <c r="F79" t="n">
-        <v>0.322829</v>
+        <v>0.252915</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170397</v>
+        <v>0.171815</v>
       </c>
       <c r="C80" t="n">
-        <v>0.370067</v>
+        <v>0.426206</v>
       </c>
       <c r="D80" t="n">
-        <v>0.427834</v>
+        <v>0.452134</v>
       </c>
       <c r="E80" t="n">
-        <v>0.252142</v>
+        <v>0.201</v>
       </c>
       <c r="F80" t="n">
-        <v>0.336621</v>
+        <v>0.29738</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248981</v>
+        <v>0.248063</v>
       </c>
       <c r="C81" t="n">
-        <v>0.381239</v>
+        <v>0.376195</v>
       </c>
       <c r="D81" t="n">
-        <v>0.426451</v>
+        <v>0.443903</v>
       </c>
       <c r="E81" t="n">
-        <v>0.249863</v>
+        <v>0.194042</v>
       </c>
       <c r="F81" t="n">
-        <v>0.335036</v>
+        <v>0.294719</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245085</v>
+        <v>0.244724</v>
       </c>
       <c r="C82" t="n">
-        <v>0.363286</v>
+        <v>0.373358</v>
       </c>
       <c r="D82" t="n">
-        <v>0.424542</v>
+        <v>0.440475</v>
       </c>
       <c r="E82" t="n">
-        <v>0.247627</v>
+        <v>0.189416</v>
       </c>
       <c r="F82" t="n">
-        <v>0.334641</v>
+        <v>0.295138</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.241517</v>
+        <v>0.240554</v>
       </c>
       <c r="C83" t="n">
-        <v>0.357226</v>
+        <v>0.368788</v>
       </c>
       <c r="D83" t="n">
-        <v>0.417808</v>
+        <v>0.436494</v>
       </c>
       <c r="E83" t="n">
-        <v>0.246539</v>
+        <v>0.185962</v>
       </c>
       <c r="F83" t="n">
-        <v>0.332315</v>
+        <v>0.291548</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236257</v>
+        <v>0.235378</v>
       </c>
       <c r="C84" t="n">
-        <v>0.35328</v>
+        <v>0.362835</v>
       </c>
       <c r="D84" t="n">
-        <v>0.41373</v>
+        <v>0.434142</v>
       </c>
       <c r="E84" t="n">
-        <v>0.245102</v>
+        <v>0.18178</v>
       </c>
       <c r="F84" t="n">
-        <v>0.330988</v>
+        <v>0.283865</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.232855</v>
+        <v>0.231185</v>
       </c>
       <c r="C85" t="n">
-        <v>0.347277</v>
+        <v>0.357523</v>
       </c>
       <c r="D85" t="n">
-        <v>0.410829</v>
+        <v>0.429644</v>
       </c>
       <c r="E85" t="n">
-        <v>0.243964</v>
+        <v>0.178501</v>
       </c>
       <c r="F85" t="n">
-        <v>0.329616</v>
+        <v>0.280486</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226662</v>
+        <v>0.22557</v>
       </c>
       <c r="C86" t="n">
-        <v>0.342165</v>
+        <v>0.351129</v>
       </c>
       <c r="D86" t="n">
-        <v>0.410225</v>
+        <v>0.427241</v>
       </c>
       <c r="E86" t="n">
-        <v>0.24196</v>
+        <v>0.170305</v>
       </c>
       <c r="F86" t="n">
-        <v>0.329191</v>
+        <v>0.277422</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.221158</v>
+        <v>0.220475</v>
       </c>
       <c r="C87" t="n">
-        <v>0.425921</v>
+        <v>0.438262</v>
       </c>
       <c r="D87" t="n">
-        <v>0.404955</v>
+        <v>0.425085</v>
       </c>
       <c r="E87" t="n">
-        <v>0.240867</v>
+        <v>0.166627</v>
       </c>
       <c r="F87" t="n">
-        <v>0.327866</v>
+        <v>0.274506</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215439</v>
+        <v>0.215162</v>
       </c>
       <c r="C88" t="n">
-        <v>0.435577</v>
+        <v>0.376768</v>
       </c>
       <c r="D88" t="n">
-        <v>0.40383</v>
+        <v>0.423534</v>
       </c>
       <c r="E88" t="n">
-        <v>0.239488</v>
+        <v>0.164269</v>
       </c>
       <c r="F88" t="n">
-        <v>0.326391</v>
+        <v>0.271741</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.210277</v>
+        <v>0.209324</v>
       </c>
       <c r="C89" t="n">
-        <v>0.422412</v>
+        <v>0.423772</v>
       </c>
       <c r="D89" t="n">
-        <v>0.404323</v>
+        <v>0.419703</v>
       </c>
       <c r="E89" t="n">
-        <v>0.238436</v>
+        <v>0.159716</v>
       </c>
       <c r="F89" t="n">
-        <v>0.325541</v>
+        <v>0.267891</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204027</v>
+        <v>0.203516</v>
       </c>
       <c r="C90" t="n">
-        <v>0.407847</v>
+        <v>0.403614</v>
       </c>
       <c r="D90" t="n">
-        <v>0.397493</v>
+        <v>0.419402</v>
       </c>
       <c r="E90" t="n">
-        <v>0.237726</v>
+        <v>0.155947</v>
       </c>
       <c r="F90" t="n">
-        <v>0.324429</v>
+        <v>0.264768</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197532</v>
+        <v>0.197916</v>
       </c>
       <c r="C91" t="n">
-        <v>0.370653</v>
+        <v>0.405746</v>
       </c>
       <c r="D91" t="n">
-        <v>0.398327</v>
+        <v>0.417606</v>
       </c>
       <c r="E91" t="n">
-        <v>0.236792</v>
+        <v>0.152059</v>
       </c>
       <c r="F91" t="n">
-        <v>0.323014</v>
+        <v>0.261352</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190307</v>
+        <v>0.190692</v>
       </c>
       <c r="C92" t="n">
-        <v>0.365986</v>
+        <v>0.352716</v>
       </c>
       <c r="D92" t="n">
-        <v>0.448369</v>
+        <v>0.467054</v>
       </c>
       <c r="E92" t="n">
-        <v>0.236067</v>
+        <v>0.148252</v>
       </c>
       <c r="F92" t="n">
-        <v>0.322233</v>
+        <v>0.25682</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181859</v>
+        <v>0.183444</v>
       </c>
       <c r="C93" t="n">
-        <v>0.392273</v>
+        <v>0.404058</v>
       </c>
       <c r="D93" t="n">
-        <v>0.43654</v>
+        <v>0.462387</v>
       </c>
       <c r="E93" t="n">
-        <v>0.235503</v>
+        <v>0.150482</v>
       </c>
       <c r="F93" t="n">
-        <v>0.321578</v>
+        <v>0.253638</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.173683</v>
+        <v>0.172914</v>
       </c>
       <c r="C94" t="n">
-        <v>0.378798</v>
+        <v>0.354312</v>
       </c>
       <c r="D94" t="n">
-        <v>0.437237</v>
+        <v>0.460654</v>
       </c>
       <c r="E94" t="n">
-        <v>0.252203</v>
+        <v>0.198752</v>
       </c>
       <c r="F94" t="n">
-        <v>0.337788</v>
+        <v>0.305851</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249494</v>
+        <v>0.249153</v>
       </c>
       <c r="C95" t="n">
-        <v>0.516684</v>
+        <v>0.429971</v>
       </c>
       <c r="D95" t="n">
-        <v>0.429836</v>
+        <v>0.456465</v>
       </c>
       <c r="E95" t="n">
-        <v>0.250281</v>
+        <v>0.194776</v>
       </c>
       <c r="F95" t="n">
-        <v>0.335443</v>
+        <v>0.302396</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.247305</v>
+        <v>0.245684</v>
       </c>
       <c r="C96" t="n">
-        <v>0.35624</v>
+        <v>0.463256</v>
       </c>
       <c r="D96" t="n">
-        <v>0.426123</v>
+        <v>0.447061</v>
       </c>
       <c r="E96" t="n">
-        <v>0.248332</v>
+        <v>0.189581</v>
       </c>
       <c r="F96" t="n">
-        <v>0.337739</v>
+        <v>0.295435</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.243553</v>
+        <v>0.241738</v>
       </c>
       <c r="C97" t="n">
-        <v>0.351686</v>
+        <v>0.358335</v>
       </c>
       <c r="D97" t="n">
-        <v>0.417279</v>
+        <v>0.440361</v>
       </c>
       <c r="E97" t="n">
-        <v>0.246655</v>
+        <v>0.185661</v>
       </c>
       <c r="F97" t="n">
-        <v>0.335265</v>
+        <v>0.292202</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.239063</v>
+        <v>0.236826</v>
       </c>
       <c r="C98" t="n">
-        <v>0.347421</v>
+        <v>0.353947</v>
       </c>
       <c r="D98" t="n">
-        <v>0.413893</v>
+        <v>0.436059</v>
       </c>
       <c r="E98" t="n">
-        <v>0.24547</v>
+        <v>0.181916</v>
       </c>
       <c r="F98" t="n">
-        <v>0.332383</v>
+        <v>0.287936</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.23423</v>
+        <v>0.232229</v>
       </c>
       <c r="C99" t="n">
-        <v>0.342515</v>
+        <v>0.34892</v>
       </c>
       <c r="D99" t="n">
-        <v>0.41137</v>
+        <v>0.435225</v>
       </c>
       <c r="E99" t="n">
-        <v>0.243597</v>
+        <v>0.178143</v>
       </c>
       <c r="F99" t="n">
-        <v>0.33328</v>
+        <v>0.2852</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.228977</v>
+        <v>0.227139</v>
       </c>
       <c r="C100" t="n">
-        <v>0.337354</v>
+        <v>0.34368</v>
       </c>
       <c r="D100" t="n">
-        <v>0.405378</v>
+        <v>0.428188</v>
       </c>
       <c r="E100" t="n">
-        <v>0.24234</v>
+        <v>0.175261</v>
       </c>
       <c r="F100" t="n">
-        <v>0.32966</v>
+        <v>0.282006</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.22334</v>
+        <v>0.221573</v>
       </c>
       <c r="C101" t="n">
-        <v>0.405661</v>
+        <v>0.45534</v>
       </c>
       <c r="D101" t="n">
-        <v>0.402831</v>
+        <v>0.425115</v>
       </c>
       <c r="E101" t="n">
-        <v>0.241434</v>
+        <v>0.171942</v>
       </c>
       <c r="F101" t="n">
-        <v>0.327556</v>
+        <v>0.278595</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.217299</v>
+        <v>0.216403</v>
       </c>
       <c r="C102" t="n">
-        <v>0.396812</v>
+        <v>0.481753</v>
       </c>
       <c r="D102" t="n">
-        <v>0.398099</v>
+        <v>0.421198</v>
       </c>
       <c r="E102" t="n">
-        <v>0.240302</v>
+        <v>0.164311</v>
       </c>
       <c r="F102" t="n">
-        <v>0.327462</v>
+        <v>0.271416</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211506</v>
+        <v>0.210928</v>
       </c>
       <c r="C103" t="n">
-        <v>0.442124</v>
+        <v>0.414712</v>
       </c>
       <c r="D103" t="n">
-        <v>0.395462</v>
+        <v>0.418843</v>
       </c>
       <c r="E103" t="n">
-        <v>0.239207</v>
+        <v>0.165564</v>
       </c>
       <c r="F103" t="n">
-        <v>0.32648</v>
+        <v>0.272923</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.205395</v>
+        <v>0.205514</v>
       </c>
       <c r="C104" t="n">
-        <v>0.399315</v>
+        <v>0.405581</v>
       </c>
       <c r="D104" t="n">
-        <v>0.39349</v>
+        <v>0.416267</v>
       </c>
       <c r="E104" t="n">
-        <v>0.238525</v>
+        <v>0.161426</v>
       </c>
       <c r="F104" t="n">
-        <v>0.325456</v>
+        <v>0.269294</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199085</v>
+        <v>0.199259</v>
       </c>
       <c r="C105" t="n">
-        <v>0.441175</v>
+        <v>0.369324</v>
       </c>
       <c r="D105" t="n">
-        <v>0.39003</v>
+        <v>0.412736</v>
       </c>
       <c r="E105" t="n">
-        <v>0.237593</v>
+        <v>0.158343</v>
       </c>
       <c r="F105" t="n">
-        <v>0.32459</v>
+        <v>0.265589</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192007</v>
+        <v>0.192215</v>
       </c>
       <c r="C106" t="n">
-        <v>0.44744</v>
+        <v>0.374891</v>
       </c>
       <c r="D106" t="n">
-        <v>0.387212</v>
+        <v>0.410596</v>
       </c>
       <c r="E106" t="n">
-        <v>0.237055</v>
+        <v>0.154739</v>
       </c>
       <c r="F106" t="n">
-        <v>0.323584</v>
+        <v>0.262825</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183842</v>
+        <v>0.185223</v>
       </c>
       <c r="C107" t="n">
-        <v>0.406273</v>
+        <v>0.383374</v>
       </c>
       <c r="D107" t="n">
-        <v>0.418637</v>
+        <v>0.443903</v>
       </c>
       <c r="E107" t="n">
-        <v>0.23591</v>
+        <v>0.150146</v>
       </c>
       <c r="F107" t="n">
-        <v>0.321705</v>
+        <v>0.258968</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.175387</v>
+        <v>0.174919</v>
       </c>
       <c r="C108" t="n">
-        <v>0.40377</v>
+        <v>0.379453</v>
       </c>
       <c r="D108" t="n">
-        <v>0.412429</v>
+        <v>0.43494</v>
       </c>
       <c r="E108" t="n">
-        <v>0.252747</v>
+        <v>0.200177</v>
       </c>
       <c r="F108" t="n">
-        <v>0.337519</v>
+        <v>0.307373</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163504</v>
+        <v>0.164159</v>
       </c>
       <c r="C109" t="n">
-        <v>0.390905</v>
+        <v>0.337226</v>
       </c>
       <c r="D109" t="n">
-        <v>0.407942</v>
+        <v>0.430957</v>
       </c>
       <c r="E109" t="n">
-        <v>0.250404</v>
+        <v>0.196014</v>
       </c>
       <c r="F109" t="n">
-        <v>0.335951</v>
+        <v>0.302814</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.248111</v>
+        <v>0.24626</v>
       </c>
       <c r="C110" t="n">
-        <v>0.496956</v>
+        <v>0.466224</v>
       </c>
       <c r="D110" t="n">
-        <v>0.404987</v>
+        <v>0.428933</v>
       </c>
       <c r="E110" t="n">
-        <v>0.248374</v>
+        <v>0.192121</v>
       </c>
       <c r="F110" t="n">
-        <v>0.334382</v>
+        <v>0.298076</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.244232</v>
+        <v>0.242211</v>
       </c>
       <c r="C111" t="n">
-        <v>0.490903</v>
+        <v>0.46325</v>
       </c>
       <c r="D111" t="n">
-        <v>0.401436</v>
+        <v>0.424288</v>
       </c>
       <c r="E111" t="n">
-        <v>0.246722</v>
+        <v>0.183858</v>
       </c>
       <c r="F111" t="n">
-        <v>0.334014</v>
+        <v>0.288755</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.239843</v>
+        <v>0.237921</v>
       </c>
       <c r="C112" t="n">
-        <v>0.511228</v>
+        <v>0.459509</v>
       </c>
       <c r="D112" t="n">
-        <v>0.39745</v>
+        <v>0.420844</v>
       </c>
       <c r="E112" t="n">
-        <v>0.245214</v>
+        <v>0.180144</v>
       </c>
       <c r="F112" t="n">
-        <v>0.332411</v>
+        <v>0.284695</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234992</v>
+        <v>0.232804</v>
       </c>
       <c r="C113" t="n">
-        <v>0.503409</v>
+        <v>0.455533</v>
       </c>
       <c r="D113" t="n">
-        <v>0.393102</v>
+        <v>0.416575</v>
       </c>
       <c r="E113" t="n">
-        <v>0.243694</v>
+        <v>0.178979</v>
       </c>
       <c r="F113" t="n">
-        <v>0.331044</v>
+        <v>0.286142</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229743</v>
+        <v>0.228015</v>
       </c>
       <c r="C114" t="n">
-        <v>0.493774</v>
+        <v>0.450125</v>
       </c>
       <c r="D114" t="n">
-        <v>0.390818</v>
+        <v>0.413101</v>
       </c>
       <c r="E114" t="n">
-        <v>0.242389</v>
+        <v>0.175757</v>
       </c>
       <c r="F114" t="n">
-        <v>0.329992</v>
+        <v>0.282078</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224559</v>
+        <v>0.222927</v>
       </c>
       <c r="C115" t="n">
-        <v>0.432213</v>
+        <v>0.451538</v>
       </c>
       <c r="D115" t="n">
-        <v>0.387407</v>
+        <v>0.409413</v>
       </c>
       <c r="E115" t="n">
-        <v>0.241593</v>
+        <v>0.171639</v>
       </c>
       <c r="F115" t="n">
-        <v>0.327835</v>
+        <v>0.281314</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.218252</v>
+        <v>0.217996</v>
       </c>
       <c r="C116" t="n">
-        <v>0.405092</v>
+        <v>0.462798</v>
       </c>
       <c r="D116" t="n">
-        <v>0.385313</v>
+        <v>0.407444</v>
       </c>
       <c r="E116" t="n">
-        <v>0.240441</v>
+        <v>0.168185</v>
       </c>
       <c r="F116" t="n">
-        <v>0.327922</v>
+        <v>0.277773</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212979</v>
+        <v>0.212103</v>
       </c>
       <c r="C117" t="n">
-        <v>0.384808</v>
+        <v>0.410144</v>
       </c>
       <c r="D117" t="n">
-        <v>0.382233</v>
+        <v>0.404031</v>
       </c>
       <c r="E117" t="n">
-        <v>0.239471</v>
+        <v>0.16549</v>
       </c>
       <c r="F117" t="n">
-        <v>0.325611</v>
+        <v>0.274662</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206693</v>
+        <v>0.206183</v>
       </c>
       <c r="C118" t="n">
-        <v>0.400122</v>
+        <v>0.437068</v>
       </c>
       <c r="D118" t="n">
-        <v>0.380315</v>
+        <v>0.401272</v>
       </c>
       <c r="E118" t="n">
-        <v>0.238532</v>
+        <v>0.162038</v>
       </c>
       <c r="F118" t="n">
-        <v>0.32473</v>
+        <v>0.27161</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200531</v>
+        <v>0.200258</v>
       </c>
       <c r="C119" t="n">
-        <v>0.430271</v>
+        <v>0.430582</v>
       </c>
       <c r="D119" t="n">
-        <v>0.378791</v>
+        <v>0.399665</v>
       </c>
       <c r="E119" t="n">
-        <v>0.237773</v>
+        <v>0.159476</v>
       </c>
       <c r="F119" t="n">
-        <v>0.323724</v>
+        <v>0.268091</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193438</v>
+        <v>0.193653</v>
       </c>
       <c r="C120" t="n">
-        <v>0.397</v>
+        <v>0.423601</v>
       </c>
       <c r="D120" t="n">
-        <v>0.377356</v>
+        <v>0.397804</v>
       </c>
       <c r="E120" t="n">
-        <v>0.236931</v>
+        <v>0.15497</v>
       </c>
       <c r="F120" t="n">
-        <v>0.322891</v>
+        <v>0.264558</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185576</v>
+        <v>0.186749</v>
       </c>
       <c r="C121" t="n">
-        <v>0.403794</v>
+        <v>0.400968</v>
       </c>
       <c r="D121" t="n">
-        <v>0.45114</v>
+        <v>0.471385</v>
       </c>
       <c r="E121" t="n">
-        <v>0.236111</v>
+        <v>0.151564</v>
       </c>
       <c r="F121" t="n">
-        <v>0.322159</v>
+        <v>0.260355</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176692</v>
+        <v>0.177536</v>
       </c>
       <c r="C122" t="n">
-        <v>0.369082</v>
+        <v>0.403965</v>
       </c>
       <c r="D122" t="n">
-        <v>0.443884</v>
+        <v>0.465678</v>
       </c>
       <c r="E122" t="n">
-        <v>0.235403</v>
+        <v>0.148094</v>
       </c>
       <c r="F122" t="n">
-        <v>0.321442</v>
+        <v>0.251365</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.165989</v>
+        <v>0.167986</v>
       </c>
       <c r="C123" t="n">
-        <v>0.357358</v>
+        <v>0.404064</v>
       </c>
       <c r="D123" t="n">
-        <v>0.437165</v>
+        <v>0.45602</v>
       </c>
       <c r="E123" t="n">
-        <v>0.250563</v>
+        <v>0.19356</v>
       </c>
       <c r="F123" t="n">
-        <v>0.336225</v>
+        <v>0.295574</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.248983</v>
+        <v>0.246746</v>
       </c>
       <c r="C124" t="n">
-        <v>0.434298</v>
+        <v>0.386272</v>
       </c>
       <c r="D124" t="n">
-        <v>0.426615</v>
+        <v>0.452701</v>
       </c>
       <c r="E124" t="n">
-        <v>0.248608</v>
+        <v>0.189383</v>
       </c>
       <c r="F124" t="n">
-        <v>0.335609</v>
+        <v>0.292391</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.245293</v>
+        <v>0.242894</v>
       </c>
       <c r="C125" t="n">
-        <v>0.437493</v>
+        <v>0.473872</v>
       </c>
       <c r="D125" t="n">
-        <v>0.422894</v>
+        <v>0.447272</v>
       </c>
       <c r="E125" t="n">
-        <v>0.246865</v>
+        <v>0.185284</v>
       </c>
       <c r="F125" t="n">
-        <v>0.33435</v>
+        <v>0.28931</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.241217</v>
+        <v>0.238865</v>
       </c>
       <c r="C126" t="n">
-        <v>0.457098</v>
+        <v>0.444512</v>
       </c>
       <c r="D126" t="n">
-        <v>0.417566</v>
+        <v>0.440887</v>
       </c>
       <c r="E126" t="n">
-        <v>0.245428</v>
+        <v>0.180771</v>
       </c>
       <c r="F126" t="n">
-        <v>0.333043</v>
+        <v>0.285529</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236198</v>
+        <v>0.234214</v>
       </c>
       <c r="C127" t="n">
-        <v>0.466153</v>
+        <v>0.383232</v>
       </c>
       <c r="D127" t="n">
-        <v>0.412997</v>
+        <v>0.439406</v>
       </c>
       <c r="E127" t="n">
-        <v>0.244086</v>
+        <v>0.176354</v>
       </c>
       <c r="F127" t="n">
-        <v>0.331827</v>
+        <v>0.281985</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.231255</v>
+        <v>0.229376</v>
       </c>
       <c r="C128" t="n">
-        <v>0.432421</v>
+        <v>0.467451</v>
       </c>
       <c r="D128" t="n">
-        <v>0.410965</v>
+        <v>0.435828</v>
       </c>
       <c r="E128" t="n">
-        <v>0.242723</v>
+        <v>0.172561</v>
       </c>
       <c r="F128" t="n">
-        <v>0.330579</v>
+        <v>0.278402</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224918</v>
+        <v>0.223933</v>
       </c>
       <c r="C129" t="n">
-        <v>0.374575</v>
+        <v>0.416271</v>
       </c>
       <c r="D129" t="n">
-        <v>0.404593</v>
+        <v>0.428693</v>
       </c>
       <c r="E129" t="n">
-        <v>0.241538</v>
+        <v>0.168842</v>
       </c>
       <c r="F129" t="n">
-        <v>0.329057</v>
+        <v>0.275728</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219259</v>
+        <v>0.218819</v>
       </c>
       <c r="C130" t="n">
-        <v>0.412278</v>
+        <v>0.439894</v>
       </c>
       <c r="D130" t="n">
-        <v>0.398634</v>
+        <v>0.423417</v>
       </c>
       <c r="E130" t="n">
-        <v>0.240478</v>
+        <v>0.165824</v>
       </c>
       <c r="F130" t="n">
-        <v>0.328231</v>
+        <v>0.272628</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.213657</v>
+        <v>0.213008</v>
       </c>
       <c r="C131" t="n">
-        <v>0.409497</v>
+        <v>0.430367</v>
       </c>
       <c r="D131" t="n">
-        <v>0.396542</v>
+        <v>0.422533</v>
       </c>
       <c r="E131" t="n">
-        <v>0.239406</v>
+        <v>0.161216</v>
       </c>
       <c r="F131" t="n">
-        <v>0.32714</v>
+        <v>0.269417</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.208068</v>
+        <v>0.207361</v>
       </c>
       <c r="C132" t="n">
-        <v>0.404696</v>
+        <v>0.34356</v>
       </c>
       <c r="D132" t="n">
-        <v>0.395157</v>
+        <v>0.417731</v>
       </c>
       <c r="E132" t="n">
-        <v>0.238492</v>
+        <v>0.15917</v>
       </c>
       <c r="F132" t="n">
-        <v>0.325764</v>
+        <v>0.266044</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.202207</v>
+        <v>0.201771</v>
       </c>
       <c r="C133" t="n">
-        <v>0.410326</v>
+        <v>0.456108</v>
       </c>
       <c r="D133" t="n">
-        <v>0.390114</v>
+        <v>0.414309</v>
       </c>
       <c r="E133" t="n">
-        <v>0.237763</v>
+        <v>0.154717</v>
       </c>
       <c r="F133" t="n">
-        <v>0.324856</v>
+        <v>0.263124</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.19559</v>
+        <v>0.194701</v>
       </c>
       <c r="C134" t="n">
-        <v>0.373344</v>
+        <v>0.401423</v>
       </c>
       <c r="D134" t="n">
-        <v>0.389524</v>
+        <v>0.411606</v>
       </c>
       <c r="E134" t="n">
-        <v>0.237007</v>
+        <v>0.156341</v>
       </c>
       <c r="F134" t="n">
-        <v>0.324148</v>
+        <v>0.264072</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187814</v>
+        <v>0.188069</v>
       </c>
       <c r="C135" t="n">
-        <v>0.399766</v>
+        <v>0.367417</v>
       </c>
       <c r="D135" t="n">
-        <v>0.453674</v>
+        <v>0.470645</v>
       </c>
       <c r="E135" t="n">
-        <v>0.236201</v>
+        <v>0.152549</v>
       </c>
       <c r="F135" t="n">
-        <v>0.322212</v>
+        <v>0.260655</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178743</v>
+        <v>0.179449</v>
       </c>
       <c r="C136" t="n">
-        <v>0.349997</v>
+        <v>0.358493</v>
       </c>
       <c r="D136" t="n">
-        <v>0.449192</v>
+        <v>0.470143</v>
       </c>
       <c r="E136" t="n">
-        <v>0.235715</v>
+        <v>0.148635</v>
       </c>
       <c r="F136" t="n">
-        <v>0.322638</v>
+        <v>0.256579</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16808</v>
+        <v>0.17058</v>
       </c>
       <c r="C137" t="n">
-        <v>0.36292</v>
+        <v>0.361291</v>
       </c>
       <c r="D137" t="n">
-        <v>0.441943</v>
+        <v>0.463888</v>
       </c>
       <c r="E137" t="n">
-        <v>0.250849</v>
+        <v>0.197703</v>
       </c>
       <c r="F137" t="n">
-        <v>0.337632</v>
+        <v>0.30231</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.248318</v>
+        <v>0.247019</v>
       </c>
       <c r="C138" t="n">
-        <v>0.425791</v>
+        <v>0.55039</v>
       </c>
       <c r="D138" t="n">
-        <v>0.433604</v>
+        <v>0.457245</v>
       </c>
       <c r="E138" t="n">
-        <v>0.249068</v>
+        <v>0.193212</v>
       </c>
       <c r="F138" t="n">
-        <v>0.335601</v>
+        <v>0.297819</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.244928</v>
+        <v>0.243064</v>
       </c>
       <c r="C139" t="n">
-        <v>0.477396</v>
+        <v>0.474965</v>
       </c>
       <c r="D139" t="n">
-        <v>0.4278</v>
+        <v>0.451051</v>
       </c>
       <c r="E139" t="n">
-        <v>0.247423</v>
+        <v>0.189368</v>
       </c>
       <c r="F139" t="n">
-        <v>0.334071</v>
+        <v>0.294105</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.24055</v>
+        <v>0.238919</v>
       </c>
       <c r="C140" t="n">
-        <v>0.468807</v>
+        <v>0.389131</v>
       </c>
       <c r="D140" t="n">
-        <v>0.425777</v>
+        <v>0.447029</v>
       </c>
       <c r="E140" t="n">
-        <v>0.245723</v>
+        <v>0.181403</v>
       </c>
       <c r="F140" t="n">
-        <v>0.333283</v>
+        <v>0.286386</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.23584</v>
+        <v>0.234348</v>
       </c>
       <c r="C141" t="n">
-        <v>0.478192</v>
+        <v>0.433386</v>
       </c>
       <c r="D141" t="n">
-        <v>0.417193</v>
+        <v>0.439824</v>
       </c>
       <c r="E141" t="n">
-        <v>0.244394</v>
+        <v>0.177227</v>
       </c>
       <c r="F141" t="n">
-        <v>0.332019</v>
+        <v>0.283421</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231109</v>
+        <v>0.229504</v>
       </c>
       <c r="C142" t="n">
-        <v>0.359466</v>
+        <v>0.47365</v>
       </c>
       <c r="D142" t="n">
-        <v>0.411625</v>
+        <v>0.435168</v>
       </c>
       <c r="E142" t="n">
-        <v>0.243127</v>
+        <v>0.173339</v>
       </c>
       <c r="F142" t="n">
-        <v>0.330114</v>
+        <v>0.279711</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225846</v>
+        <v>0.224451</v>
       </c>
       <c r="C143" t="n">
-        <v>0.448449</v>
+        <v>0.474777</v>
       </c>
       <c r="D143" t="n">
-        <v>0.407635</v>
+        <v>0.430952</v>
       </c>
       <c r="E143" t="n">
-        <v>0.241966</v>
+        <v>0.169244</v>
       </c>
       <c r="F143" t="n">
-        <v>0.328373</v>
+        <v>0.276752</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.184132</v>
+        <v>0.186021</v>
       </c>
       <c r="C2" t="n">
-        <v>0.323927</v>
+        <v>0.323516</v>
       </c>
       <c r="D2" t="n">
-        <v>0.321017</v>
+        <v>0.31951</v>
       </c>
       <c r="E2" t="n">
-        <v>0.129017</v>
+        <v>0.130875</v>
       </c>
       <c r="F2" t="n">
-        <v>0.263558</v>
+        <v>0.263808</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.187216</v>
+        <v>0.188591</v>
       </c>
       <c r="C3" t="n">
-        <v>0.315217</v>
+        <v>0.314539</v>
       </c>
       <c r="D3" t="n">
-        <v>0.322835</v>
+        <v>0.321916</v>
       </c>
       <c r="E3" t="n">
-        <v>0.126469</v>
+        <v>0.126907</v>
       </c>
       <c r="F3" t="n">
-        <v>0.262581</v>
+        <v>0.263192</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.185343</v>
+        <v>0.183867</v>
       </c>
       <c r="C4" t="n">
-        <v>0.320832</v>
+        <v>0.317851</v>
       </c>
       <c r="D4" t="n">
-        <v>0.32409</v>
+        <v>0.324356</v>
       </c>
       <c r="E4" t="n">
-        <v>0.124291</v>
+        <v>0.123603</v>
       </c>
       <c r="F4" t="n">
-        <v>0.260116</v>
+        <v>0.259482</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.178775</v>
+        <v>0.180172</v>
       </c>
       <c r="C5" t="n">
-        <v>0.308655</v>
+        <v>0.306862</v>
       </c>
       <c r="D5" t="n">
-        <v>0.326075</v>
+        <v>0.32478</v>
       </c>
       <c r="E5" t="n">
-        <v>0.129471</v>
+        <v>0.127544</v>
       </c>
       <c r="F5" t="n">
-        <v>0.253079</v>
+        <v>0.25141</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.174344</v>
+        <v>0.177551</v>
       </c>
       <c r="C6" t="n">
-        <v>0.299726</v>
+        <v>0.304521</v>
       </c>
       <c r="D6" t="n">
-        <v>0.326336</v>
+        <v>0.327808</v>
       </c>
       <c r="E6" t="n">
-        <v>0.126197</v>
+        <v>0.125702</v>
       </c>
       <c r="F6" t="n">
-        <v>0.247875</v>
+        <v>0.248241</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.170311</v>
+        <v>0.169507</v>
       </c>
       <c r="C7" t="n">
-        <v>0.293033</v>
+        <v>0.295114</v>
       </c>
       <c r="D7" t="n">
-        <v>0.319441</v>
+        <v>0.31887</v>
       </c>
       <c r="E7" t="n">
-        <v>0.123235</v>
+        <v>0.123554</v>
       </c>
       <c r="F7" t="n">
-        <v>0.249363</v>
+        <v>0.249642</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.162379</v>
+        <v>0.163546</v>
       </c>
       <c r="C8" t="n">
-        <v>0.291365</v>
+        <v>0.28768</v>
       </c>
       <c r="D8" t="n">
-        <v>0.317506</v>
+        <v>0.316078</v>
       </c>
       <c r="E8" t="n">
-        <v>0.122074</v>
+        <v>0.121443</v>
       </c>
       <c r="F8" t="n">
-        <v>0.245174</v>
+        <v>0.246561</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.154358</v>
+        <v>0.153008</v>
       </c>
       <c r="C9" t="n">
-        <v>0.284419</v>
+        <v>0.28539</v>
       </c>
       <c r="D9" t="n">
-        <v>0.31979</v>
+        <v>0.318002</v>
       </c>
       <c r="E9" t="n">
-        <v>0.183313</v>
+        <v>0.18319</v>
       </c>
       <c r="F9" t="n">
-        <v>0.29392</v>
+        <v>0.293336</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.230617</v>
+        <v>0.231775</v>
       </c>
       <c r="C10" t="n">
-        <v>0.352884</v>
+        <v>0.354033</v>
       </c>
       <c r="D10" t="n">
-        <v>0.320257</v>
+        <v>0.319302</v>
       </c>
       <c r="E10" t="n">
-        <v>0.180802</v>
+        <v>0.181093</v>
       </c>
       <c r="F10" t="n">
-        <v>0.292128</v>
+        <v>0.291631</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.226834</v>
+        <v>0.228866</v>
       </c>
       <c r="C11" t="n">
-        <v>0.348896</v>
+        <v>0.348723</v>
       </c>
       <c r="D11" t="n">
-        <v>0.318957</v>
+        <v>0.319454</v>
       </c>
       <c r="E11" t="n">
-        <v>0.177753</v>
+        <v>0.176742</v>
       </c>
       <c r="F11" t="n">
-        <v>0.288835</v>
+        <v>0.287711</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.22626</v>
+        <v>0.225473</v>
       </c>
       <c r="C12" t="n">
-        <v>0.344425</v>
+        <v>0.344567</v>
       </c>
       <c r="D12" t="n">
-        <v>0.321706</v>
+        <v>0.320908</v>
       </c>
       <c r="E12" t="n">
-        <v>0.172822</v>
+        <v>0.17212</v>
       </c>
       <c r="F12" t="n">
-        <v>0.284331</v>
+        <v>0.284738</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.223542</v>
+        <v>0.224411</v>
       </c>
       <c r="C13" t="n">
-        <v>0.340135</v>
+        <v>0.340927</v>
       </c>
       <c r="D13" t="n">
-        <v>0.322629</v>
+        <v>0.321932</v>
       </c>
       <c r="E13" t="n">
-        <v>0.169848</v>
+        <v>0.168663</v>
       </c>
       <c r="F13" t="n">
-        <v>0.282683</v>
+        <v>0.2823</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.219668</v>
+        <v>0.220063</v>
       </c>
       <c r="C14" t="n">
-        <v>0.338185</v>
+        <v>0.337762</v>
       </c>
       <c r="D14" t="n">
-        <v>0.326015</v>
+        <v>0.324775</v>
       </c>
       <c r="E14" t="n">
-        <v>0.165747</v>
+        <v>0.165881</v>
       </c>
       <c r="F14" t="n">
-        <v>0.279098</v>
+        <v>0.280625</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215714</v>
+        <v>0.215255</v>
       </c>
       <c r="C15" t="n">
-        <v>0.333583</v>
+        <v>0.332631</v>
       </c>
       <c r="D15" t="n">
-        <v>0.324659</v>
+        <v>0.324272</v>
       </c>
       <c r="E15" t="n">
-        <v>0.163904</v>
+        <v>0.162044</v>
       </c>
       <c r="F15" t="n">
-        <v>0.277469</v>
+        <v>0.277514</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210245</v>
+        <v>0.21105</v>
       </c>
       <c r="C16" t="n">
-        <v>0.328678</v>
+        <v>0.328144</v>
       </c>
       <c r="D16" t="n">
-        <v>0.326364</v>
+        <v>0.32628</v>
       </c>
       <c r="E16" t="n">
-        <v>0.161158</v>
+        <v>0.159296</v>
       </c>
       <c r="F16" t="n">
-        <v>0.272542</v>
+        <v>0.272351</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205899</v>
+        <v>0.206572</v>
       </c>
       <c r="C17" t="n">
-        <v>0.319487</v>
+        <v>0.319436</v>
       </c>
       <c r="D17" t="n">
-        <v>0.325812</v>
+        <v>0.326983</v>
       </c>
       <c r="E17" t="n">
-        <v>0.155393</v>
+        <v>0.156751</v>
       </c>
       <c r="F17" t="n">
-        <v>0.270158</v>
+        <v>0.269345</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199491</v>
+        <v>0.199551</v>
       </c>
       <c r="C18" t="n">
-        <v>0.318546</v>
+        <v>0.318696</v>
       </c>
       <c r="D18" t="n">
-        <v>0.329362</v>
+        <v>0.328162</v>
       </c>
       <c r="E18" t="n">
-        <v>0.15321</v>
+        <v>0.152601</v>
       </c>
       <c r="F18" t="n">
-        <v>0.267035</v>
+        <v>0.267159</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.192981</v>
+        <v>0.193801</v>
       </c>
       <c r="C19" t="n">
-        <v>0.310296</v>
+        <v>0.310777</v>
       </c>
       <c r="D19" t="n">
-        <v>0.330596</v>
+        <v>0.329089</v>
       </c>
       <c r="E19" t="n">
-        <v>0.153321</v>
+        <v>0.152238</v>
       </c>
       <c r="F19" t="n">
-        <v>0.258883</v>
+        <v>0.259062</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188935</v>
+        <v>0.189048</v>
       </c>
       <c r="C20" t="n">
-        <v>0.303923</v>
+        <v>0.304712</v>
       </c>
       <c r="D20" t="n">
-        <v>0.331439</v>
+        <v>0.33099</v>
       </c>
       <c r="E20" t="n">
-        <v>0.148175</v>
+        <v>0.147019</v>
       </c>
       <c r="F20" t="n">
-        <v>0.258856</v>
+        <v>0.263094</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.182778</v>
+        <v>0.18236</v>
       </c>
       <c r="C21" t="n">
-        <v>0.301748</v>
+        <v>0.301769</v>
       </c>
       <c r="D21" t="n">
-        <v>0.323025</v>
+        <v>0.323819</v>
       </c>
       <c r="E21" t="n">
-        <v>0.143557</v>
+        <v>0.142671</v>
       </c>
       <c r="F21" t="n">
-        <v>0.256961</v>
+        <v>0.258775</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174478</v>
+        <v>0.174898</v>
       </c>
       <c r="C22" t="n">
-        <v>0.291707</v>
+        <v>0.290859</v>
       </c>
       <c r="D22" t="n">
-        <v>0.322845</v>
+        <v>0.32336</v>
       </c>
       <c r="E22" t="n">
-        <v>0.140012</v>
+        <v>0.138631</v>
       </c>
       <c r="F22" t="n">
-        <v>0.253741</v>
+        <v>0.251502</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165633</v>
+        <v>0.164741</v>
       </c>
       <c r="C23" t="n">
-        <v>0.280715</v>
+        <v>0.280703</v>
       </c>
       <c r="D23" t="n">
-        <v>0.322936</v>
+        <v>0.322832</v>
       </c>
       <c r="E23" t="n">
-        <v>0.192926</v>
+        <v>0.193067</v>
       </c>
       <c r="F23" t="n">
-        <v>0.300847</v>
+        <v>0.301302</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241793</v>
+        <v>0.240261</v>
       </c>
       <c r="C24" t="n">
-        <v>0.353312</v>
+        <v>0.353465</v>
       </c>
       <c r="D24" t="n">
-        <v>0.323824</v>
+        <v>0.323155</v>
       </c>
       <c r="E24" t="n">
-        <v>0.188406</v>
+        <v>0.187809</v>
       </c>
       <c r="F24" t="n">
-        <v>0.295934</v>
+        <v>0.296018</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.237256</v>
+        <v>0.237036</v>
       </c>
       <c r="C25" t="n">
-        <v>0.351378</v>
+        <v>0.351108</v>
       </c>
       <c r="D25" t="n">
-        <v>0.32494</v>
+        <v>0.325252</v>
       </c>
       <c r="E25" t="n">
-        <v>0.18363</v>
+        <v>0.183918</v>
       </c>
       <c r="F25" t="n">
-        <v>0.293196</v>
+        <v>0.294238</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2336</v>
+        <v>0.234818</v>
       </c>
       <c r="C26" t="n">
-        <v>0.346346</v>
+        <v>0.347236</v>
       </c>
       <c r="D26" t="n">
-        <v>0.325923</v>
+        <v>0.325229</v>
       </c>
       <c r="E26" t="n">
-        <v>0.180117</v>
+        <v>0.180698</v>
       </c>
       <c r="F26" t="n">
-        <v>0.29046</v>
+        <v>0.290116</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.231682</v>
+        <v>0.230851</v>
       </c>
       <c r="C27" t="n">
-        <v>0.342076</v>
+        <v>0.342702</v>
       </c>
       <c r="D27" t="n">
-        <v>0.325059</v>
+        <v>0.325134</v>
       </c>
       <c r="E27" t="n">
-        <v>0.179414</v>
+        <v>0.178494</v>
       </c>
       <c r="F27" t="n">
-        <v>0.281472</v>
+        <v>0.285998</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.22499</v>
+        <v>0.224686</v>
       </c>
       <c r="C28" t="n">
-        <v>0.338092</v>
+        <v>0.3387</v>
       </c>
       <c r="D28" t="n">
-        <v>0.326012</v>
+        <v>0.327015</v>
       </c>
       <c r="E28" t="n">
-        <v>0.175208</v>
+        <v>0.172549</v>
       </c>
       <c r="F28" t="n">
-        <v>0.278618</v>
+        <v>0.278535</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.221582</v>
+        <v>0.221549</v>
       </c>
       <c r="C29" t="n">
-        <v>0.331777</v>
+        <v>0.332434</v>
       </c>
       <c r="D29" t="n">
-        <v>0.327829</v>
+        <v>0.328098</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1716</v>
+        <v>0.171216</v>
       </c>
       <c r="F29" t="n">
-        <v>0.275994</v>
+        <v>0.276364</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.216904</v>
+        <v>0.21584</v>
       </c>
       <c r="C30" t="n">
-        <v>0.323681</v>
+        <v>0.324264</v>
       </c>
       <c r="D30" t="n">
-        <v>0.329398</v>
+        <v>0.328628</v>
       </c>
       <c r="E30" t="n">
-        <v>0.168401</v>
+        <v>0.167808</v>
       </c>
       <c r="F30" t="n">
-        <v>0.272975</v>
+        <v>0.272527</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.211474</v>
+        <v>0.21206</v>
       </c>
       <c r="C31" t="n">
-        <v>0.322785</v>
+        <v>0.322863</v>
       </c>
       <c r="D31" t="n">
-        <v>0.330576</v>
+        <v>0.329407</v>
       </c>
       <c r="E31" t="n">
-        <v>0.16324</v>
+        <v>0.162131</v>
       </c>
       <c r="F31" t="n">
-        <v>0.274321</v>
+        <v>0.274268</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205788</v>
+        <v>0.206009</v>
       </c>
       <c r="C32" t="n">
-        <v>0.321404</v>
+        <v>0.321322</v>
       </c>
       <c r="D32" t="n">
-        <v>0.330069</v>
+        <v>0.330175</v>
       </c>
       <c r="E32" t="n">
-        <v>0.160108</v>
+        <v>0.159355</v>
       </c>
       <c r="F32" t="n">
-        <v>0.27149</v>
+        <v>0.270866</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201486</v>
+        <v>0.201508</v>
       </c>
       <c r="C33" t="n">
-        <v>0.311288</v>
+        <v>0.310183</v>
       </c>
       <c r="D33" t="n">
-        <v>0.332534</v>
+        <v>0.332458</v>
       </c>
       <c r="E33" t="n">
-        <v>0.157243</v>
+        <v>0.156122</v>
       </c>
       <c r="F33" t="n">
-        <v>0.267846</v>
+        <v>0.267611</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.19495</v>
+        <v>0.194819</v>
       </c>
       <c r="C34" t="n">
-        <v>0.308004</v>
+        <v>0.307894</v>
       </c>
       <c r="D34" t="n">
-        <v>0.333052</v>
+        <v>0.333084</v>
       </c>
       <c r="E34" t="n">
-        <v>0.154268</v>
+        <v>0.155159</v>
       </c>
       <c r="F34" t="n">
-        <v>0.259524</v>
+        <v>0.259016</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.190454</v>
+        <v>0.189621</v>
       </c>
       <c r="C35" t="n">
-        <v>0.303699</v>
+        <v>0.303215</v>
       </c>
       <c r="D35" t="n">
-        <v>0.32713</v>
+        <v>0.327316</v>
       </c>
       <c r="E35" t="n">
-        <v>0.148796</v>
+        <v>0.148248</v>
       </c>
       <c r="F35" t="n">
-        <v>0.259406</v>
+        <v>0.260048</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.181368</v>
+        <v>0.181107</v>
       </c>
       <c r="C36" t="n">
-        <v>0.295348</v>
+        <v>0.295009</v>
       </c>
       <c r="D36" t="n">
-        <v>0.327269</v>
+        <v>0.32695</v>
       </c>
       <c r="E36" t="n">
-        <v>0.144871</v>
+        <v>0.144779</v>
       </c>
       <c r="F36" t="n">
-        <v>0.256664</v>
+        <v>0.250664</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171887</v>
+        <v>0.171787</v>
       </c>
       <c r="C37" t="n">
-        <v>0.282471</v>
+        <v>0.282275</v>
       </c>
       <c r="D37" t="n">
-        <v>0.327318</v>
+        <v>0.327845</v>
       </c>
       <c r="E37" t="n">
-        <v>0.196244</v>
+        <v>0.195074</v>
       </c>
       <c r="F37" t="n">
-        <v>0.298481</v>
+        <v>0.297407</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.244406</v>
+        <v>0.244409</v>
       </c>
       <c r="C38" t="n">
-        <v>0.355506</v>
+        <v>0.355887</v>
       </c>
       <c r="D38" t="n">
-        <v>0.326625</v>
+        <v>0.326626</v>
       </c>
       <c r="E38" t="n">
-        <v>0.195565</v>
+        <v>0.194747</v>
       </c>
       <c r="F38" t="n">
-        <v>0.294764</v>
+        <v>0.293449</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241661</v>
+        <v>0.241453</v>
       </c>
       <c r="C39" t="n">
-        <v>0.352528</v>
+        <v>0.352589</v>
       </c>
       <c r="D39" t="n">
-        <v>0.325645</v>
+        <v>0.325595</v>
       </c>
       <c r="E39" t="n">
-        <v>0.186992</v>
+        <v>0.187446</v>
       </c>
       <c r="F39" t="n">
-        <v>0.294518</v>
+        <v>0.294422</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.238243</v>
+        <v>0.237973</v>
       </c>
       <c r="C40" t="n">
-        <v>0.347918</v>
+        <v>0.347953</v>
       </c>
       <c r="D40" t="n">
-        <v>0.326817</v>
+        <v>0.326187</v>
       </c>
       <c r="E40" t="n">
-        <v>0.183784</v>
+        <v>0.183023</v>
       </c>
       <c r="F40" t="n">
-        <v>0.29113</v>
+        <v>0.291505</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.233805</v>
+        <v>0.234017</v>
       </c>
       <c r="C41" t="n">
-        <v>0.343506</v>
+        <v>0.343835</v>
       </c>
       <c r="D41" t="n">
-        <v>0.327123</v>
+        <v>0.326518</v>
       </c>
       <c r="E41" t="n">
-        <v>0.178992</v>
+        <v>0.179107</v>
       </c>
       <c r="F41" t="n">
-        <v>0.288459</v>
+        <v>0.287622</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230018</v>
+        <v>0.229564</v>
       </c>
       <c r="C42" t="n">
-        <v>0.339489</v>
+        <v>0.340496</v>
       </c>
       <c r="D42" t="n">
-        <v>0.32898</v>
+        <v>0.328013</v>
       </c>
       <c r="E42" t="n">
-        <v>0.176081</v>
+        <v>0.175159</v>
       </c>
       <c r="F42" t="n">
-        <v>0.285036</v>
+        <v>0.284268</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.224658</v>
+        <v>0.224775</v>
       </c>
       <c r="C43" t="n">
-        <v>0.334663</v>
+        <v>0.33506</v>
       </c>
       <c r="D43" t="n">
-        <v>0.329708</v>
+        <v>0.329545</v>
       </c>
       <c r="E43" t="n">
-        <v>0.172724</v>
+        <v>0.172899</v>
       </c>
       <c r="F43" t="n">
-        <v>0.281405</v>
+        <v>0.28113</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220719</v>
+        <v>0.220088</v>
       </c>
       <c r="C44" t="n">
-        <v>0.333213</v>
+        <v>0.333137</v>
       </c>
       <c r="D44" t="n">
-        <v>0.330996</v>
+        <v>0.330869</v>
       </c>
       <c r="E44" t="n">
-        <v>0.169552</v>
+        <v>0.16934</v>
       </c>
       <c r="F44" t="n">
-        <v>0.278842</v>
+        <v>0.278184</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.214727</v>
+        <v>0.21398</v>
       </c>
       <c r="C45" t="n">
-        <v>0.334629</v>
+        <v>0.334849</v>
       </c>
       <c r="D45" t="n">
-        <v>0.331481</v>
+        <v>0.331943</v>
       </c>
       <c r="E45" t="n">
-        <v>0.16615</v>
+        <v>0.165597</v>
       </c>
       <c r="F45" t="n">
-        <v>0.275943</v>
+        <v>0.275269</v>
       </c>
     </row>
     <row r="46">
@@ -5965,16 +5965,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.210049</v>
+        <v>0.209843</v>
       </c>
       <c r="C46" t="n">
-        <v>0.322157</v>
+        <v>0.322274</v>
       </c>
       <c r="D46" t="n">
-        <v>0.332011</v>
+        <v>0.333863</v>
       </c>
       <c r="E46" t="n">
-        <v>0.162346</v>
+        <v>0.162053</v>
       </c>
       <c r="F46" t="n">
         <v>0.272623</v>
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.205143</v>
+        <v>0.20496</v>
       </c>
       <c r="C47" t="n">
-        <v>0.321666</v>
+        <v>0.321203</v>
       </c>
       <c r="D47" t="n">
-        <v>0.333511</v>
+        <v>0.334516</v>
       </c>
       <c r="E47" t="n">
-        <v>0.161173</v>
+        <v>0.160417</v>
       </c>
       <c r="F47" t="n">
-        <v>0.264805</v>
+        <v>0.263907</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.199378</v>
+        <v>0.199114</v>
       </c>
       <c r="C48" t="n">
-        <v>0.307578</v>
+        <v>0.308077</v>
       </c>
       <c r="D48" t="n">
-        <v>0.333937</v>
+        <v>0.335569</v>
       </c>
       <c r="E48" t="n">
-        <v>0.157449</v>
+        <v>0.156281</v>
       </c>
       <c r="F48" t="n">
-        <v>0.261152</v>
+        <v>0.260611</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.192725</v>
+        <v>0.191681</v>
       </c>
       <c r="C49" t="n">
-        <v>0.31006</v>
+        <v>0.306813</v>
       </c>
       <c r="D49" t="n">
-        <v>0.335837</v>
+        <v>0.335654</v>
       </c>
       <c r="E49" t="n">
-        <v>0.15393</v>
+        <v>0.152037</v>
       </c>
       <c r="F49" t="n">
-        <v>0.257772</v>
+        <v>0.257031</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.184353</v>
+        <v>0.184286</v>
       </c>
       <c r="C50" t="n">
-        <v>0.302087</v>
+        <v>0.300247</v>
       </c>
       <c r="D50" t="n">
-        <v>0.332289</v>
+        <v>0.330788</v>
       </c>
       <c r="E50" t="n">
-        <v>0.150208</v>
+        <v>0.148742</v>
       </c>
       <c r="F50" t="n">
-        <v>0.253265</v>
+        <v>0.252008</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176099</v>
+        <v>0.175128</v>
       </c>
       <c r="C51" t="n">
-        <v>0.295025</v>
+        <v>0.293344</v>
       </c>
       <c r="D51" t="n">
-        <v>0.333674</v>
+        <v>0.331763</v>
       </c>
       <c r="E51" t="n">
-        <v>0.19805</v>
+        <v>0.198938</v>
       </c>
       <c r="F51" t="n">
-        <v>0.303043</v>
+        <v>0.303327</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166069</v>
+        <v>0.166249</v>
       </c>
       <c r="C52" t="n">
-        <v>0.280747</v>
+        <v>0.281064</v>
       </c>
       <c r="D52" t="n">
-        <v>0.332453</v>
+        <v>0.332214</v>
       </c>
       <c r="E52" t="n">
-        <v>0.193429</v>
+        <v>0.193539</v>
       </c>
       <c r="F52" t="n">
-        <v>0.29992</v>
+        <v>0.299156</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.245023</v>
+        <v>0.244926</v>
       </c>
       <c r="C53" t="n">
-        <v>0.358829</v>
+        <v>0.355962</v>
       </c>
       <c r="D53" t="n">
-        <v>0.331599</v>
+        <v>0.332474</v>
       </c>
       <c r="E53" t="n">
-        <v>0.189492</v>
+        <v>0.188655</v>
       </c>
       <c r="F53" t="n">
-        <v>0.296358</v>
+        <v>0.296028</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241452</v>
+        <v>0.241243</v>
       </c>
       <c r="C54" t="n">
-        <v>0.35585</v>
+        <v>0.353082</v>
       </c>
       <c r="D54" t="n">
-        <v>0.334401</v>
+        <v>0.334438</v>
       </c>
       <c r="E54" t="n">
-        <v>0.185011</v>
+        <v>0.185129</v>
       </c>
       <c r="F54" t="n">
-        <v>0.293024</v>
+        <v>0.292767</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.236992</v>
+        <v>0.237231</v>
       </c>
       <c r="C55" t="n">
-        <v>0.351827</v>
+        <v>0.349381</v>
       </c>
       <c r="D55" t="n">
-        <v>0.336805</v>
+        <v>0.335634</v>
       </c>
       <c r="E55" t="n">
-        <v>0.181601</v>
+        <v>0.180951</v>
       </c>
       <c r="F55" t="n">
-        <v>0.290649</v>
+        <v>0.288599</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.231784</v>
+        <v>0.232132</v>
       </c>
       <c r="C56" t="n">
-        <v>0.347288</v>
+        <v>0.344691</v>
       </c>
       <c r="D56" t="n">
-        <v>0.339216</v>
+        <v>0.337145</v>
       </c>
       <c r="E56" t="n">
-        <v>0.17776</v>
+        <v>0.177541</v>
       </c>
       <c r="F56" t="n">
-        <v>0.286202</v>
+        <v>0.286273</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.226875</v>
+        <v>0.228035</v>
       </c>
       <c r="C57" t="n">
-        <v>0.344123</v>
+        <v>0.341561</v>
       </c>
       <c r="D57" t="n">
-        <v>0.341381</v>
+        <v>0.339071</v>
       </c>
       <c r="E57" t="n">
-        <v>0.175157</v>
+        <v>0.174476</v>
       </c>
       <c r="F57" t="n">
-        <v>0.283685</v>
+        <v>0.283394</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222862</v>
+        <v>0.22312</v>
       </c>
       <c r="C58" t="n">
-        <v>0.364114</v>
+        <v>0.355378</v>
       </c>
       <c r="D58" t="n">
-        <v>0.343015</v>
+        <v>0.342009</v>
       </c>
       <c r="E58" t="n">
-        <v>0.17092</v>
+        <v>0.170943</v>
       </c>
       <c r="F58" t="n">
-        <v>0.280226</v>
+        <v>0.279931</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.217291</v>
+        <v>0.216827</v>
       </c>
       <c r="C59" t="n">
-        <v>0.333252</v>
+        <v>0.332034</v>
       </c>
       <c r="D59" t="n">
-        <v>0.343134</v>
+        <v>0.342212</v>
       </c>
       <c r="E59" t="n">
-        <v>0.167841</v>
+        <v>0.167728</v>
       </c>
       <c r="F59" t="n">
-        <v>0.277327</v>
+        <v>0.277413</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211783</v>
+        <v>0.211961</v>
       </c>
       <c r="C60" t="n">
-        <v>0.330759</v>
+        <v>0.330803</v>
       </c>
       <c r="D60" t="n">
-        <v>0.344988</v>
+        <v>0.344477</v>
       </c>
       <c r="E60" t="n">
-        <v>0.164312</v>
+        <v>0.16428</v>
       </c>
       <c r="F60" t="n">
-        <v>0.274351</v>
+        <v>0.273803</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.207686</v>
+        <v>0.207826</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3433</v>
+        <v>0.34194</v>
       </c>
       <c r="D61" t="n">
-        <v>0.348606</v>
+        <v>0.349535</v>
       </c>
       <c r="E61" t="n">
-        <v>0.160967</v>
+        <v>0.161038</v>
       </c>
       <c r="F61" t="n">
-        <v>0.270213</v>
+        <v>0.27124</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.201126</v>
+        <v>0.201231</v>
       </c>
       <c r="C62" t="n">
-        <v>0.313895</v>
+        <v>0.315028</v>
       </c>
       <c r="D62" t="n">
-        <v>0.35016</v>
+        <v>0.352241</v>
       </c>
       <c r="E62" t="n">
-        <v>0.157537</v>
+        <v>0.157149</v>
       </c>
       <c r="F62" t="n">
-        <v>0.267248</v>
+        <v>0.267591</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194663</v>
+        <v>0.193696</v>
       </c>
       <c r="C63" t="n">
-        <v>0.335793</v>
+        <v>0.337696</v>
       </c>
       <c r="D63" t="n">
-        <v>0.353671</v>
+        <v>0.35587</v>
       </c>
       <c r="E63" t="n">
-        <v>0.153525</v>
+        <v>0.153764</v>
       </c>
       <c r="F63" t="n">
-        <v>0.263818</v>
+        <v>0.264571</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.186448</v>
+        <v>0.187038</v>
       </c>
       <c r="C64" t="n">
-        <v>0.313533</v>
+        <v>0.316038</v>
       </c>
       <c r="D64" t="n">
-        <v>0.389146</v>
+        <v>0.390808</v>
       </c>
       <c r="E64" t="n">
-        <v>0.150074</v>
+        <v>0.149666</v>
       </c>
       <c r="F64" t="n">
-        <v>0.255005</v>
+        <v>0.261319</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178409</v>
+        <v>0.179024</v>
       </c>
       <c r="C65" t="n">
-        <v>0.325423</v>
+        <v>0.329244</v>
       </c>
       <c r="D65" t="n">
-        <v>0.392243</v>
+        <v>0.39131</v>
       </c>
       <c r="E65" t="n">
-        <v>0.147188</v>
+        <v>0.146871</v>
       </c>
       <c r="F65" t="n">
-        <v>0.252004</v>
+        <v>0.252001</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.168463</v>
+        <v>0.16744</v>
       </c>
       <c r="C66" t="n">
-        <v>0.30451</v>
+        <v>0.30666</v>
       </c>
       <c r="D66" t="n">
-        <v>0.389642</v>
+        <v>0.39478</v>
       </c>
       <c r="E66" t="n">
-        <v>0.200131</v>
+        <v>0.197839</v>
       </c>
       <c r="F66" t="n">
-        <v>0.300944</v>
+        <v>0.301522</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.24756</v>
+        <v>0.24672</v>
       </c>
       <c r="C67" t="n">
-        <v>0.38975</v>
+        <v>0.390268</v>
       </c>
       <c r="D67" t="n">
-        <v>0.392107</v>
+        <v>0.393688</v>
       </c>
       <c r="E67" t="n">
-        <v>0.195963</v>
+        <v>0.194582</v>
       </c>
       <c r="F67" t="n">
-        <v>0.297657</v>
+        <v>0.29731</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.243355</v>
+        <v>0.243004</v>
       </c>
       <c r="C68" t="n">
-        <v>0.385025</v>
+        <v>0.38498</v>
       </c>
       <c r="D68" t="n">
-        <v>0.392632</v>
+        <v>0.394339</v>
       </c>
       <c r="E68" t="n">
-        <v>0.191463</v>
+        <v>0.189696</v>
       </c>
       <c r="F68" t="n">
-        <v>0.294973</v>
+        <v>0.295548</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.238427</v>
+        <v>0.238462</v>
       </c>
       <c r="C69" t="n">
-        <v>0.380634</v>
+        <v>0.380894</v>
       </c>
       <c r="D69" t="n">
-        <v>0.395566</v>
+        <v>0.397154</v>
       </c>
       <c r="E69" t="n">
-        <v>0.185097</v>
+        <v>0.185626</v>
       </c>
       <c r="F69" t="n">
-        <v>0.291682</v>
+        <v>0.29151</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.234703</v>
+        <v>0.234248</v>
       </c>
       <c r="C70" t="n">
-        <v>0.377786</v>
+        <v>0.377643</v>
       </c>
       <c r="D70" t="n">
-        <v>0.395713</v>
+        <v>0.397154</v>
       </c>
       <c r="E70" t="n">
-        <v>0.18086</v>
+        <v>0.18127</v>
       </c>
       <c r="F70" t="n">
-        <v>0.287974</v>
+        <v>0.287976</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.229817</v>
+        <v>0.230291</v>
       </c>
       <c r="C71" t="n">
-        <v>0.37238</v>
+        <v>0.372388</v>
       </c>
       <c r="D71" t="n">
-        <v>0.395643</v>
+        <v>0.39654</v>
       </c>
       <c r="E71" t="n">
-        <v>0.178776</v>
+        <v>0.17742</v>
       </c>
       <c r="F71" t="n">
-        <v>0.280538</v>
+        <v>0.280205</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.22487</v>
+        <v>0.224508</v>
       </c>
       <c r="C72" t="n">
-        <v>0.357074</v>
+        <v>0.357112</v>
       </c>
       <c r="D72" t="n">
-        <v>0.39553</v>
+        <v>0.397582</v>
       </c>
       <c r="E72" t="n">
-        <v>0.174933</v>
+        <v>0.173696</v>
       </c>
       <c r="F72" t="n">
-        <v>0.276583</v>
+        <v>0.277257</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219612</v>
+        <v>0.21955</v>
       </c>
       <c r="C73" t="n">
-        <v>0.440649</v>
+        <v>0.439586</v>
       </c>
       <c r="D73" t="n">
-        <v>0.396518</v>
+        <v>0.397266</v>
       </c>
       <c r="E73" t="n">
-        <v>0.170334</v>
+        <v>0.17053</v>
       </c>
       <c r="F73" t="n">
-        <v>0.272706</v>
+        <v>0.273122</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.214494</v>
+        <v>0.214634</v>
       </c>
       <c r="C74" t="n">
-        <v>0.429137</v>
+        <v>0.428487</v>
       </c>
       <c r="D74" t="n">
-        <v>0.399003</v>
+        <v>0.398837</v>
       </c>
       <c r="E74" t="n">
-        <v>0.167209</v>
+        <v>0.166926</v>
       </c>
       <c r="F74" t="n">
-        <v>0.274751</v>
+        <v>0.274918</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.207868</v>
+        <v>0.207498</v>
       </c>
       <c r="C75" t="n">
-        <v>0.433729</v>
+        <v>0.433907</v>
       </c>
       <c r="D75" t="n">
-        <v>0.399427</v>
+        <v>0.398968</v>
       </c>
       <c r="E75" t="n">
-        <v>0.165251</v>
+        <v>0.163333</v>
       </c>
       <c r="F75" t="n">
-        <v>0.266766</v>
+        <v>0.266782</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.202311</v>
+        <v>0.202592</v>
       </c>
       <c r="C76" t="n">
-        <v>0.466214</v>
+        <v>0.466589</v>
       </c>
       <c r="D76" t="n">
-        <v>0.399004</v>
+        <v>0.399227</v>
       </c>
       <c r="E76" t="n">
-        <v>0.159951</v>
+        <v>0.160219</v>
       </c>
       <c r="F76" t="n">
-        <v>0.268293</v>
+        <v>0.268604</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19665</v>
+        <v>0.197033</v>
       </c>
       <c r="C77" t="n">
-        <v>0.45039</v>
+        <v>0.451594</v>
       </c>
       <c r="D77" t="n">
-        <v>0.398127</v>
+        <v>0.397556</v>
       </c>
       <c r="E77" t="n">
-        <v>0.155848</v>
+        <v>0.156573</v>
       </c>
       <c r="F77" t="n">
-        <v>0.264322</v>
+        <v>0.265644</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188407</v>
+        <v>0.189488</v>
       </c>
       <c r="C78" t="n">
-        <v>0.386939</v>
+        <v>0.387557</v>
       </c>
       <c r="D78" t="n">
-        <v>0.458968</v>
+        <v>0.45884</v>
       </c>
       <c r="E78" t="n">
-        <v>0.152373</v>
+        <v>0.152309</v>
       </c>
       <c r="F78" t="n">
-        <v>0.26072</v>
+        <v>0.261783</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.181511</v>
+        <v>0.181356</v>
       </c>
       <c r="C79" t="n">
-        <v>0.342833</v>
+        <v>0.343926</v>
       </c>
       <c r="D79" t="n">
-        <v>0.451468</v>
+        <v>0.451262</v>
       </c>
       <c r="E79" t="n">
-        <v>0.149361</v>
+        <v>0.149264</v>
       </c>
       <c r="F79" t="n">
-        <v>0.252915</v>
+        <v>0.252876</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.171815</v>
+        <v>0.171273</v>
       </c>
       <c r="C80" t="n">
-        <v>0.426206</v>
+        <v>0.426583</v>
       </c>
       <c r="D80" t="n">
-        <v>0.452134</v>
+        <v>0.452182</v>
       </c>
       <c r="E80" t="n">
-        <v>0.201</v>
+        <v>0.198311</v>
       </c>
       <c r="F80" t="n">
-        <v>0.29738</v>
+        <v>0.298091</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248063</v>
+        <v>0.248251</v>
       </c>
       <c r="C81" t="n">
-        <v>0.376195</v>
+        <v>0.376013</v>
       </c>
       <c r="D81" t="n">
-        <v>0.443903</v>
+        <v>0.443909</v>
       </c>
       <c r="E81" t="n">
-        <v>0.194042</v>
+        <v>0.194491</v>
       </c>
       <c r="F81" t="n">
-        <v>0.294719</v>
+        <v>0.293824</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.244724</v>
+        <v>0.244404</v>
       </c>
       <c r="C82" t="n">
-        <v>0.373358</v>
+        <v>0.373655</v>
       </c>
       <c r="D82" t="n">
-        <v>0.440475</v>
+        <v>0.440139</v>
       </c>
       <c r="E82" t="n">
-        <v>0.189416</v>
+        <v>0.189251</v>
       </c>
       <c r="F82" t="n">
-        <v>0.295138</v>
+        <v>0.294296</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.240554</v>
+        <v>0.240053</v>
       </c>
       <c r="C83" t="n">
-        <v>0.368788</v>
+        <v>0.368801</v>
       </c>
       <c r="D83" t="n">
-        <v>0.436494</v>
+        <v>0.436771</v>
       </c>
       <c r="E83" t="n">
-        <v>0.185962</v>
+        <v>0.185152</v>
       </c>
       <c r="F83" t="n">
-        <v>0.291548</v>
+        <v>0.29086</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.235378</v>
+        <v>0.23527</v>
       </c>
       <c r="C84" t="n">
-        <v>0.362835</v>
+        <v>0.363083</v>
       </c>
       <c r="D84" t="n">
-        <v>0.434142</v>
+        <v>0.434077</v>
       </c>
       <c r="E84" t="n">
-        <v>0.18178</v>
+        <v>0.18479</v>
       </c>
       <c r="F84" t="n">
-        <v>0.283865</v>
+        <v>0.283546</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231185</v>
+        <v>0.231021</v>
       </c>
       <c r="C85" t="n">
-        <v>0.357523</v>
+        <v>0.357382</v>
       </c>
       <c r="D85" t="n">
-        <v>0.429644</v>
+        <v>0.429973</v>
       </c>
       <c r="E85" t="n">
-        <v>0.178501</v>
+        <v>0.178145</v>
       </c>
       <c r="F85" t="n">
-        <v>0.280486</v>
+        <v>0.281206</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.22557</v>
+        <v>0.225243</v>
       </c>
       <c r="C86" t="n">
-        <v>0.351129</v>
+        <v>0.351203</v>
       </c>
       <c r="D86" t="n">
-        <v>0.427241</v>
+        <v>0.428103</v>
       </c>
       <c r="E86" t="n">
-        <v>0.170305</v>
+        <v>0.177038</v>
       </c>
       <c r="F86" t="n">
-        <v>0.277422</v>
+        <v>0.277178</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220475</v>
+        <v>0.220447</v>
       </c>
       <c r="C87" t="n">
-        <v>0.438262</v>
+        <v>0.437324</v>
       </c>
       <c r="D87" t="n">
-        <v>0.425085</v>
+        <v>0.426587</v>
       </c>
       <c r="E87" t="n">
-        <v>0.166627</v>
+        <v>0.172935</v>
       </c>
       <c r="F87" t="n">
-        <v>0.274506</v>
+        <v>0.274384</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215162</v>
+        <v>0.215498</v>
       </c>
       <c r="C88" t="n">
-        <v>0.376768</v>
+        <v>0.377064</v>
       </c>
       <c r="D88" t="n">
-        <v>0.423534</v>
+        <v>0.423857</v>
       </c>
       <c r="E88" t="n">
-        <v>0.164269</v>
+        <v>0.169624</v>
       </c>
       <c r="F88" t="n">
-        <v>0.271741</v>
+        <v>0.271625</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.209324</v>
+        <v>0.209561</v>
       </c>
       <c r="C89" t="n">
-        <v>0.423772</v>
+        <v>0.424276</v>
       </c>
       <c r="D89" t="n">
-        <v>0.419703</v>
+        <v>0.420119</v>
       </c>
       <c r="E89" t="n">
-        <v>0.159716</v>
+        <v>0.164816</v>
       </c>
       <c r="F89" t="n">
-        <v>0.267891</v>
+        <v>0.267568</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.203516</v>
+        <v>0.203888</v>
       </c>
       <c r="C90" t="n">
-        <v>0.403614</v>
+        <v>0.403783</v>
       </c>
       <c r="D90" t="n">
-        <v>0.419402</v>
+        <v>0.420098</v>
       </c>
       <c r="E90" t="n">
-        <v>0.155947</v>
+        <v>0.155985</v>
       </c>
       <c r="F90" t="n">
-        <v>0.264768</v>
+        <v>0.264391</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197916</v>
+        <v>0.198103</v>
       </c>
       <c r="C91" t="n">
-        <v>0.405746</v>
+        <v>0.405571</v>
       </c>
       <c r="D91" t="n">
-        <v>0.417606</v>
+        <v>0.417798</v>
       </c>
       <c r="E91" t="n">
-        <v>0.152059</v>
+        <v>0.152312</v>
       </c>
       <c r="F91" t="n">
-        <v>0.261352</v>
+        <v>0.261069</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190692</v>
+        <v>0.191754</v>
       </c>
       <c r="C92" t="n">
-        <v>0.352716</v>
+        <v>0.353859</v>
       </c>
       <c r="D92" t="n">
-        <v>0.467054</v>
+        <v>0.468386</v>
       </c>
       <c r="E92" t="n">
-        <v>0.148252</v>
+        <v>0.148531</v>
       </c>
       <c r="F92" t="n">
-        <v>0.25682</v>
+        <v>0.257523</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.183444</v>
+        <v>0.183205</v>
       </c>
       <c r="C93" t="n">
-        <v>0.404058</v>
+        <v>0.404401</v>
       </c>
       <c r="D93" t="n">
-        <v>0.462387</v>
+        <v>0.463411</v>
       </c>
       <c r="E93" t="n">
-        <v>0.150482</v>
+        <v>0.149774</v>
       </c>
       <c r="F93" t="n">
-        <v>0.253638</v>
+        <v>0.259571</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172914</v>
+        <v>0.174085</v>
       </c>
       <c r="C94" t="n">
-        <v>0.354312</v>
+        <v>0.35329</v>
       </c>
       <c r="D94" t="n">
-        <v>0.460654</v>
+        <v>0.462715</v>
       </c>
       <c r="E94" t="n">
-        <v>0.198752</v>
+        <v>0.198488</v>
       </c>
       <c r="F94" t="n">
-        <v>0.305851</v>
+        <v>0.306452</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249153</v>
+        <v>0.249033</v>
       </c>
       <c r="C95" t="n">
-        <v>0.429971</v>
+        <v>0.430301</v>
       </c>
       <c r="D95" t="n">
-        <v>0.456465</v>
+        <v>0.455788</v>
       </c>
       <c r="E95" t="n">
-        <v>0.194776</v>
+        <v>0.19424</v>
       </c>
       <c r="F95" t="n">
-        <v>0.302396</v>
+        <v>0.302124</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245684</v>
+        <v>0.245162</v>
       </c>
       <c r="C96" t="n">
-        <v>0.463256</v>
+        <v>0.462762</v>
       </c>
       <c r="D96" t="n">
-        <v>0.447061</v>
+        <v>0.445615</v>
       </c>
       <c r="E96" t="n">
-        <v>0.189581</v>
+        <v>0.190292</v>
       </c>
       <c r="F96" t="n">
-        <v>0.295435</v>
+        <v>0.294926</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.241738</v>
+        <v>0.241606</v>
       </c>
       <c r="C97" t="n">
-        <v>0.358335</v>
+        <v>0.358174</v>
       </c>
       <c r="D97" t="n">
-        <v>0.440361</v>
+        <v>0.440201</v>
       </c>
       <c r="E97" t="n">
-        <v>0.185661</v>
+        <v>0.185437</v>
       </c>
       <c r="F97" t="n">
-        <v>0.292202</v>
+        <v>0.291597</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.236826</v>
+        <v>0.236602</v>
       </c>
       <c r="C98" t="n">
-        <v>0.353947</v>
+        <v>0.353691</v>
       </c>
       <c r="D98" t="n">
-        <v>0.436059</v>
+        <v>0.436568</v>
       </c>
       <c r="E98" t="n">
-        <v>0.181916</v>
+        <v>0.181975</v>
       </c>
       <c r="F98" t="n">
-        <v>0.287936</v>
+        <v>0.287658</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.232229</v>
+        <v>0.232012</v>
       </c>
       <c r="C99" t="n">
-        <v>0.34892</v>
+        <v>0.34859</v>
       </c>
       <c r="D99" t="n">
-        <v>0.435225</v>
+        <v>0.435037</v>
       </c>
       <c r="E99" t="n">
-        <v>0.178143</v>
+        <v>0.178632</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2852</v>
+        <v>0.284948</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.227139</v>
+        <v>0.226837</v>
       </c>
       <c r="C100" t="n">
-        <v>0.34368</v>
+        <v>0.343719</v>
       </c>
       <c r="D100" t="n">
-        <v>0.428188</v>
+        <v>0.428035</v>
       </c>
       <c r="E100" t="n">
-        <v>0.175261</v>
+        <v>0.175746</v>
       </c>
       <c r="F100" t="n">
-        <v>0.282006</v>
+        <v>0.281393</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.221573</v>
+        <v>0.221642</v>
       </c>
       <c r="C101" t="n">
-        <v>0.45534</v>
+        <v>0.455086</v>
       </c>
       <c r="D101" t="n">
-        <v>0.425115</v>
+        <v>0.424989</v>
       </c>
       <c r="E101" t="n">
-        <v>0.171942</v>
+        <v>0.172166</v>
       </c>
       <c r="F101" t="n">
-        <v>0.278595</v>
+        <v>0.278821</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.216403</v>
+        <v>0.216498</v>
       </c>
       <c r="C102" t="n">
-        <v>0.481753</v>
+        <v>0.481386</v>
       </c>
       <c r="D102" t="n">
-        <v>0.421198</v>
+        <v>0.421286</v>
       </c>
       <c r="E102" t="n">
-        <v>0.164311</v>
+        <v>0.163728</v>
       </c>
       <c r="F102" t="n">
-        <v>0.271416</v>
+        <v>0.27123</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.210928</v>
+        <v>0.210803</v>
       </c>
       <c r="C103" t="n">
-        <v>0.414712</v>
+        <v>0.414021</v>
       </c>
       <c r="D103" t="n">
-        <v>0.418843</v>
+        <v>0.419303</v>
       </c>
       <c r="E103" t="n">
-        <v>0.165564</v>
+        <v>0.165056</v>
       </c>
       <c r="F103" t="n">
-        <v>0.272923</v>
+        <v>0.272823</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.205514</v>
+        <v>0.205457</v>
       </c>
       <c r="C104" t="n">
-        <v>0.405581</v>
+        <v>0.405192</v>
       </c>
       <c r="D104" t="n">
-        <v>0.416267</v>
+        <v>0.416397</v>
       </c>
       <c r="E104" t="n">
-        <v>0.161426</v>
+        <v>0.161169</v>
       </c>
       <c r="F104" t="n">
-        <v>0.269294</v>
+        <v>0.269201</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199259</v>
+        <v>0.199248</v>
       </c>
       <c r="C105" t="n">
-        <v>0.369324</v>
+        <v>0.368799</v>
       </c>
       <c r="D105" t="n">
-        <v>0.412736</v>
+        <v>0.413019</v>
       </c>
       <c r="E105" t="n">
-        <v>0.158343</v>
+        <v>0.158035</v>
       </c>
       <c r="F105" t="n">
-        <v>0.265589</v>
+        <v>0.265489</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192215</v>
+        <v>0.192246</v>
       </c>
       <c r="C106" t="n">
-        <v>0.374891</v>
+        <v>0.374476</v>
       </c>
       <c r="D106" t="n">
-        <v>0.410596</v>
+        <v>0.410036</v>
       </c>
       <c r="E106" t="n">
-        <v>0.154739</v>
+        <v>0.154581</v>
       </c>
       <c r="F106" t="n">
-        <v>0.262825</v>
+        <v>0.262909</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.185223</v>
+        <v>0.185039</v>
       </c>
       <c r="C107" t="n">
-        <v>0.383374</v>
+        <v>0.382597</v>
       </c>
       <c r="D107" t="n">
-        <v>0.443903</v>
+        <v>0.444751</v>
       </c>
       <c r="E107" t="n">
-        <v>0.150146</v>
+        <v>0.150256</v>
       </c>
       <c r="F107" t="n">
-        <v>0.258968</v>
+        <v>0.25898</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174919</v>
+        <v>0.176105</v>
       </c>
       <c r="C108" t="n">
-        <v>0.379453</v>
+        <v>0.379344</v>
       </c>
       <c r="D108" t="n">
-        <v>0.43494</v>
+        <v>0.434697</v>
       </c>
       <c r="E108" t="n">
-        <v>0.200177</v>
+        <v>0.200436</v>
       </c>
       <c r="F108" t="n">
-        <v>0.307373</v>
+        <v>0.307187</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.164159</v>
+        <v>0.16511</v>
       </c>
       <c r="C109" t="n">
-        <v>0.337226</v>
+        <v>0.336795</v>
       </c>
       <c r="D109" t="n">
-        <v>0.430957</v>
+        <v>0.431457</v>
       </c>
       <c r="E109" t="n">
-        <v>0.196014</v>
+        <v>0.195835</v>
       </c>
       <c r="F109" t="n">
-        <v>0.302814</v>
+        <v>0.302794</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.24626</v>
+        <v>0.245895</v>
       </c>
       <c r="C110" t="n">
-        <v>0.466224</v>
+        <v>0.465503</v>
       </c>
       <c r="D110" t="n">
-        <v>0.428933</v>
+        <v>0.42838</v>
       </c>
       <c r="E110" t="n">
-        <v>0.192121</v>
+        <v>0.191679</v>
       </c>
       <c r="F110" t="n">
-        <v>0.298076</v>
+        <v>0.298254</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.242211</v>
+        <v>0.241849</v>
       </c>
       <c r="C111" t="n">
-        <v>0.46325</v>
+        <v>0.462841</v>
       </c>
       <c r="D111" t="n">
-        <v>0.424288</v>
+        <v>0.424232</v>
       </c>
       <c r="E111" t="n">
-        <v>0.183858</v>
+        <v>0.184346</v>
       </c>
       <c r="F111" t="n">
-        <v>0.288755</v>
+        <v>0.288052</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.237921</v>
+        <v>0.237655</v>
       </c>
       <c r="C112" t="n">
-        <v>0.459509</v>
+        <v>0.45931</v>
       </c>
       <c r="D112" t="n">
-        <v>0.420844</v>
+        <v>0.420686</v>
       </c>
       <c r="E112" t="n">
-        <v>0.180144</v>
+        <v>0.180788</v>
       </c>
       <c r="F112" t="n">
-        <v>0.284695</v>
+        <v>0.284761</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.232804</v>
+        <v>0.232394</v>
       </c>
       <c r="C113" t="n">
-        <v>0.455533</v>
+        <v>0.454991</v>
       </c>
       <c r="D113" t="n">
-        <v>0.416575</v>
+        <v>0.417186</v>
       </c>
       <c r="E113" t="n">
-        <v>0.178979</v>
+        <v>0.179128</v>
       </c>
       <c r="F113" t="n">
-        <v>0.286142</v>
+        <v>0.285982</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.228015</v>
+        <v>0.227602</v>
       </c>
       <c r="C114" t="n">
-        <v>0.450125</v>
+        <v>0.449639</v>
       </c>
       <c r="D114" t="n">
-        <v>0.413101</v>
+        <v>0.413868</v>
       </c>
       <c r="E114" t="n">
-        <v>0.175757</v>
+        <v>0.175624</v>
       </c>
       <c r="F114" t="n">
-        <v>0.282078</v>
+        <v>0.28212</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.222927</v>
+        <v>0.222628</v>
       </c>
       <c r="C115" t="n">
-        <v>0.451538</v>
+        <v>0.45155</v>
       </c>
       <c r="D115" t="n">
-        <v>0.409413</v>
+        <v>0.41001</v>
       </c>
       <c r="E115" t="n">
-        <v>0.171639</v>
+        <v>0.171987</v>
       </c>
       <c r="F115" t="n">
-        <v>0.281314</v>
+        <v>0.279781</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217996</v>
+        <v>0.217698</v>
       </c>
       <c r="C116" t="n">
-        <v>0.462798</v>
+        <v>0.462852</v>
       </c>
       <c r="D116" t="n">
-        <v>0.407444</v>
+        <v>0.407611</v>
       </c>
       <c r="E116" t="n">
-        <v>0.168185</v>
+        <v>0.168605</v>
       </c>
       <c r="F116" t="n">
-        <v>0.277773</v>
+        <v>0.275942</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212103</v>
+        <v>0.212356</v>
       </c>
       <c r="C117" t="n">
-        <v>0.410144</v>
+        <v>0.410475</v>
       </c>
       <c r="D117" t="n">
-        <v>0.404031</v>
+        <v>0.403902</v>
       </c>
       <c r="E117" t="n">
-        <v>0.16549</v>
+        <v>0.165715</v>
       </c>
       <c r="F117" t="n">
-        <v>0.274662</v>
+        <v>0.272914</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206183</v>
+        <v>0.206217</v>
       </c>
       <c r="C118" t="n">
-        <v>0.437068</v>
+        <v>0.437401</v>
       </c>
       <c r="D118" t="n">
-        <v>0.401272</v>
+        <v>0.402001</v>
       </c>
       <c r="E118" t="n">
-        <v>0.162038</v>
+        <v>0.162769</v>
       </c>
       <c r="F118" t="n">
-        <v>0.27161</v>
+        <v>0.270086</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200258</v>
+        <v>0.200209</v>
       </c>
       <c r="C119" t="n">
-        <v>0.430582</v>
+        <v>0.431474</v>
       </c>
       <c r="D119" t="n">
-        <v>0.399665</v>
+        <v>0.399678</v>
       </c>
       <c r="E119" t="n">
-        <v>0.159476</v>
+        <v>0.158832</v>
       </c>
       <c r="F119" t="n">
-        <v>0.268091</v>
+        <v>0.268032</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193653</v>
+        <v>0.193819</v>
       </c>
       <c r="C120" t="n">
-        <v>0.423601</v>
+        <v>0.42433</v>
       </c>
       <c r="D120" t="n">
-        <v>0.397804</v>
+        <v>0.397848</v>
       </c>
       <c r="E120" t="n">
-        <v>0.15497</v>
+        <v>0.154894</v>
       </c>
       <c r="F120" t="n">
-        <v>0.264558</v>
+        <v>0.264118</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.186749</v>
+        <v>0.187222</v>
       </c>
       <c r="C121" t="n">
-        <v>0.400968</v>
+        <v>0.40167</v>
       </c>
       <c r="D121" t="n">
-        <v>0.471385</v>
+        <v>0.471415</v>
       </c>
       <c r="E121" t="n">
-        <v>0.151564</v>
+        <v>0.151588</v>
       </c>
       <c r="F121" t="n">
-        <v>0.260355</v>
+        <v>0.260346</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.177536</v>
+        <v>0.177908</v>
       </c>
       <c r="C122" t="n">
-        <v>0.403965</v>
+        <v>0.402553</v>
       </c>
       <c r="D122" t="n">
-        <v>0.465678</v>
+        <v>0.461047</v>
       </c>
       <c r="E122" t="n">
-        <v>0.148094</v>
+        <v>0.147593</v>
       </c>
       <c r="F122" t="n">
-        <v>0.251365</v>
+        <v>0.256634</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.167986</v>
+        <v>0.168179</v>
       </c>
       <c r="C123" t="n">
-        <v>0.404064</v>
+        <v>0.404698</v>
       </c>
       <c r="D123" t="n">
-        <v>0.45602</v>
+        <v>0.455645</v>
       </c>
       <c r="E123" t="n">
-        <v>0.19356</v>
+        <v>0.193642</v>
       </c>
       <c r="F123" t="n">
-        <v>0.295574</v>
+        <v>0.295316</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.246746</v>
+        <v>0.246184</v>
       </c>
       <c r="C124" t="n">
-        <v>0.386272</v>
+        <v>0.386631</v>
       </c>
       <c r="D124" t="n">
-        <v>0.452701</v>
+        <v>0.452841</v>
       </c>
       <c r="E124" t="n">
-        <v>0.189383</v>
+        <v>0.188538</v>
       </c>
       <c r="F124" t="n">
-        <v>0.292391</v>
+        <v>0.292096</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.242894</v>
+        <v>0.242276</v>
       </c>
       <c r="C125" t="n">
-        <v>0.473872</v>
+        <v>0.474374</v>
       </c>
       <c r="D125" t="n">
-        <v>0.447272</v>
+        <v>0.446946</v>
       </c>
       <c r="E125" t="n">
-        <v>0.185284</v>
+        <v>0.184711</v>
       </c>
       <c r="F125" t="n">
-        <v>0.28931</v>
+        <v>0.289049</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.238865</v>
+        <v>0.239303</v>
       </c>
       <c r="C126" t="n">
-        <v>0.444512</v>
+        <v>0.444991</v>
       </c>
       <c r="D126" t="n">
-        <v>0.440887</v>
+        <v>0.444322</v>
       </c>
       <c r="E126" t="n">
-        <v>0.180771</v>
+        <v>0.180444</v>
       </c>
       <c r="F126" t="n">
-        <v>0.285529</v>
+        <v>0.284652</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.234214</v>
+        <v>0.23464</v>
       </c>
       <c r="C127" t="n">
-        <v>0.383232</v>
+        <v>0.38336</v>
       </c>
       <c r="D127" t="n">
-        <v>0.439406</v>
+        <v>0.439679</v>
       </c>
       <c r="E127" t="n">
-        <v>0.176354</v>
+        <v>0.175825</v>
       </c>
       <c r="F127" t="n">
-        <v>0.281985</v>
+        <v>0.282078</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.229376</v>
+        <v>0.229684</v>
       </c>
       <c r="C128" t="n">
-        <v>0.467451</v>
+        <v>0.468538</v>
       </c>
       <c r="D128" t="n">
-        <v>0.435828</v>
+        <v>0.435924</v>
       </c>
       <c r="E128" t="n">
-        <v>0.172561</v>
+        <v>0.1735</v>
       </c>
       <c r="F128" t="n">
-        <v>0.278402</v>
+        <v>0.27807</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.223933</v>
+        <v>0.224211</v>
       </c>
       <c r="C129" t="n">
-        <v>0.416271</v>
+        <v>0.416587</v>
       </c>
       <c r="D129" t="n">
-        <v>0.428693</v>
+        <v>0.4301</v>
       </c>
       <c r="E129" t="n">
-        <v>0.168842</v>
+        <v>0.168986</v>
       </c>
       <c r="F129" t="n">
-        <v>0.275728</v>
+        <v>0.275885</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.218819</v>
+        <v>0.218705</v>
       </c>
       <c r="C130" t="n">
-        <v>0.439894</v>
+        <v>0.439835</v>
       </c>
       <c r="D130" t="n">
-        <v>0.423417</v>
+        <v>0.42333</v>
       </c>
       <c r="E130" t="n">
-        <v>0.165824</v>
+        <v>0.165835</v>
       </c>
       <c r="F130" t="n">
-        <v>0.272628</v>
+        <v>0.272121</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.213008</v>
+        <v>0.213259</v>
       </c>
       <c r="C131" t="n">
-        <v>0.430367</v>
+        <v>0.430929</v>
       </c>
       <c r="D131" t="n">
-        <v>0.422533</v>
+        <v>0.42315</v>
       </c>
       <c r="E131" t="n">
-        <v>0.161216</v>
+        <v>0.161148</v>
       </c>
       <c r="F131" t="n">
-        <v>0.269417</v>
+        <v>0.26962</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207361</v>
+        <v>0.207782</v>
       </c>
       <c r="C132" t="n">
-        <v>0.34356</v>
+        <v>0.343469</v>
       </c>
       <c r="D132" t="n">
-        <v>0.417731</v>
+        <v>0.418394</v>
       </c>
       <c r="E132" t="n">
-        <v>0.15917</v>
+        <v>0.158381</v>
       </c>
       <c r="F132" t="n">
-        <v>0.266044</v>
+        <v>0.265977</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.201771</v>
+        <v>0.201539</v>
       </c>
       <c r="C133" t="n">
-        <v>0.456108</v>
+        <v>0.455861</v>
       </c>
       <c r="D133" t="n">
-        <v>0.414309</v>
+        <v>0.414636</v>
       </c>
       <c r="E133" t="n">
-        <v>0.154717</v>
+        <v>0.153854</v>
       </c>
       <c r="F133" t="n">
-        <v>0.263124</v>
+        <v>0.263257</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.194701</v>
+        <v>0.19525</v>
       </c>
       <c r="C134" t="n">
-        <v>0.401423</v>
+        <v>0.401277</v>
       </c>
       <c r="D134" t="n">
-        <v>0.411606</v>
+        <v>0.41138</v>
       </c>
       <c r="E134" t="n">
-        <v>0.156341</v>
+        <v>0.155842</v>
       </c>
       <c r="F134" t="n">
-        <v>0.264072</v>
+        <v>0.263807</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.188069</v>
+        <v>0.188266</v>
       </c>
       <c r="C135" t="n">
-        <v>0.367417</v>
+        <v>0.366964</v>
       </c>
       <c r="D135" t="n">
-        <v>0.470645</v>
+        <v>0.470241</v>
       </c>
       <c r="E135" t="n">
-        <v>0.152549</v>
+        <v>0.152146</v>
       </c>
       <c r="F135" t="n">
-        <v>0.260655</v>
+        <v>0.260514</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.179449</v>
+        <v>0.180682</v>
       </c>
       <c r="C136" t="n">
-        <v>0.358493</v>
+        <v>0.362031</v>
       </c>
       <c r="D136" t="n">
-        <v>0.470143</v>
+        <v>0.472123</v>
       </c>
       <c r="E136" t="n">
-        <v>0.148635</v>
+        <v>0.148474</v>
       </c>
       <c r="F136" t="n">
-        <v>0.256579</v>
+        <v>0.255534</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.17058</v>
+        <v>0.170498</v>
       </c>
       <c r="C137" t="n">
-        <v>0.361291</v>
+        <v>0.397967</v>
       </c>
       <c r="D137" t="n">
-        <v>0.463888</v>
+        <v>0.462146</v>
       </c>
       <c r="E137" t="n">
-        <v>0.197703</v>
+        <v>0.196496</v>
       </c>
       <c r="F137" t="n">
-        <v>0.30231</v>
+        <v>0.301232</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.247019</v>
+        <v>0.247664</v>
       </c>
       <c r="C138" t="n">
-        <v>0.55039</v>
+        <v>0.419845</v>
       </c>
       <c r="D138" t="n">
-        <v>0.457245</v>
+        <v>0.456442</v>
       </c>
       <c r="E138" t="n">
-        <v>0.193212</v>
+        <v>0.192768</v>
       </c>
       <c r="F138" t="n">
-        <v>0.297819</v>
+        <v>0.298068</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.243064</v>
+        <v>0.243917</v>
       </c>
       <c r="C139" t="n">
-        <v>0.474965</v>
+        <v>0.47487</v>
       </c>
       <c r="D139" t="n">
-        <v>0.451051</v>
+        <v>0.450546</v>
       </c>
       <c r="E139" t="n">
-        <v>0.189368</v>
+        <v>0.189457</v>
       </c>
       <c r="F139" t="n">
-        <v>0.294105</v>
+        <v>0.293659</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.238919</v>
+        <v>0.239036</v>
       </c>
       <c r="C140" t="n">
-        <v>0.389131</v>
+        <v>0.388802</v>
       </c>
       <c r="D140" t="n">
-        <v>0.447029</v>
+        <v>0.44731</v>
       </c>
       <c r="E140" t="n">
-        <v>0.181403</v>
+        <v>0.181352</v>
       </c>
       <c r="F140" t="n">
-        <v>0.286386</v>
+        <v>0.286309</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.234348</v>
+        <v>0.234505</v>
       </c>
       <c r="C141" t="n">
-        <v>0.433386</v>
+        <v>0.433342</v>
       </c>
       <c r="D141" t="n">
-        <v>0.439824</v>
+        <v>0.440068</v>
       </c>
       <c r="E141" t="n">
-        <v>0.177227</v>
+        <v>0.177171</v>
       </c>
       <c r="F141" t="n">
-        <v>0.283421</v>
+        <v>0.283135</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.229504</v>
+        <v>0.229704</v>
       </c>
       <c r="C142" t="n">
-        <v>0.47365</v>
+        <v>0.473184</v>
       </c>
       <c r="D142" t="n">
-        <v>0.435168</v>
+        <v>0.435305</v>
       </c>
       <c r="E142" t="n">
-        <v>0.173339</v>
+        <v>0.173288</v>
       </c>
       <c r="F142" t="n">
-        <v>0.279711</v>
+        <v>0.279694</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.224451</v>
+        <v>0.224553</v>
       </c>
       <c r="C143" t="n">
-        <v>0.474777</v>
+        <v>0.475149</v>
       </c>
       <c r="D143" t="n">
-        <v>0.430952</v>
+        <v>0.431241</v>
       </c>
       <c r="E143" t="n">
-        <v>0.169244</v>
+        <v>0.168864</v>
       </c>
       <c r="F143" t="n">
-        <v>0.276752</v>
+        <v>0.276737</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.179637</v>
+        <v>0.170934</v>
       </c>
       <c r="C2" t="n">
-        <v>0.317768</v>
+        <v>0.323313</v>
       </c>
       <c r="D2" t="n">
-        <v>0.312733</v>
+        <v>0.311303</v>
       </c>
       <c r="E2" t="n">
-        <v>0.132061</v>
+        <v>0.131351</v>
       </c>
       <c r="F2" t="n">
-        <v>0.25915</v>
+        <v>0.25922</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.181541</v>
+        <v>0.176473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.320235</v>
+        <v>0.314402</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3139</v>
+        <v>0.31269</v>
       </c>
       <c r="E3" t="n">
-        <v>0.131457</v>
+        <v>0.126218</v>
       </c>
       <c r="F3" t="n">
-        <v>0.257332</v>
+        <v>0.258919</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.179157</v>
+        <v>0.176018</v>
       </c>
       <c r="C4" t="n">
-        <v>0.315198</v>
+        <v>0.31881</v>
       </c>
       <c r="D4" t="n">
-        <v>0.316164</v>
+        <v>0.314344</v>
       </c>
       <c r="E4" t="n">
-        <v>0.129049</v>
+        <v>0.126004</v>
       </c>
       <c r="F4" t="n">
-        <v>0.253452</v>
+        <v>0.255867</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.174045</v>
+        <v>0.173112</v>
       </c>
       <c r="C5" t="n">
-        <v>0.311479</v>
+        <v>0.313162</v>
       </c>
       <c r="D5" t="n">
-        <v>0.317685</v>
+        <v>0.315365</v>
       </c>
       <c r="E5" t="n">
-        <v>0.125207</v>
+        <v>0.121306</v>
       </c>
       <c r="F5" t="n">
-        <v>0.254733</v>
+        <v>0.257315</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.169247</v>
+        <v>0.167184</v>
       </c>
       <c r="C6" t="n">
-        <v>0.302956</v>
+        <v>0.300383</v>
       </c>
       <c r="D6" t="n">
-        <v>0.318768</v>
+        <v>0.317161</v>
       </c>
       <c r="E6" t="n">
-        <v>0.124045</v>
+        <v>0.118812</v>
       </c>
       <c r="F6" t="n">
-        <v>0.253206</v>
+        <v>0.256533</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.163232</v>
+        <v>0.161549</v>
       </c>
       <c r="C7" t="n">
-        <v>0.293852</v>
+        <v>0.29324</v>
       </c>
       <c r="D7" t="n">
-        <v>0.309666</v>
+        <v>0.307767</v>
       </c>
       <c r="E7" t="n">
-        <v>0.124703</v>
+        <v>0.115666</v>
       </c>
       <c r="F7" t="n">
-        <v>0.249652</v>
+        <v>0.251811</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.155779</v>
+        <v>0.156357</v>
       </c>
       <c r="C8" t="n">
-        <v>0.287509</v>
+        <v>0.290938</v>
       </c>
       <c r="D8" t="n">
-        <v>0.309123</v>
+        <v>0.309627</v>
       </c>
       <c r="E8" t="n">
-        <v>0.118239</v>
+        <v>0.113611</v>
       </c>
       <c r="F8" t="n">
-        <v>0.246861</v>
+        <v>0.24922</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.145888</v>
+        <v>0.148444</v>
       </c>
       <c r="C9" t="n">
-        <v>0.279615</v>
+        <v>0.285066</v>
       </c>
       <c r="D9" t="n">
-        <v>0.30979</v>
+        <v>0.309873</v>
       </c>
       <c r="E9" t="n">
-        <v>0.188146</v>
+        <v>0.184813</v>
       </c>
       <c r="F9" t="n">
-        <v>0.29516</v>
+        <v>0.28999</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.228821</v>
+        <v>0.228329</v>
       </c>
       <c r="C10" t="n">
-        <v>0.35009</v>
+        <v>0.355661</v>
       </c>
       <c r="D10" t="n">
-        <v>0.310558</v>
+        <v>0.310233</v>
       </c>
       <c r="E10" t="n">
-        <v>0.184344</v>
+        <v>0.179589</v>
       </c>
       <c r="F10" t="n">
-        <v>0.292492</v>
+        <v>0.288983</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.226443</v>
+        <v>0.225131</v>
       </c>
       <c r="C11" t="n">
-        <v>0.350669</v>
+        <v>0.349061</v>
       </c>
       <c r="D11" t="n">
-        <v>0.311302</v>
+        <v>0.30954</v>
       </c>
       <c r="E11" t="n">
-        <v>0.179068</v>
+        <v>0.176449</v>
       </c>
       <c r="F11" t="n">
-        <v>0.291231</v>
+        <v>0.284747</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.224348</v>
+        <v>0.222489</v>
       </c>
       <c r="C12" t="n">
-        <v>0.347053</v>
+        <v>0.347006</v>
       </c>
       <c r="D12" t="n">
-        <v>0.313213</v>
+        <v>0.311828</v>
       </c>
       <c r="E12" t="n">
-        <v>0.176843</v>
+        <v>0.174299</v>
       </c>
       <c r="F12" t="n">
-        <v>0.288425</v>
+        <v>0.28196</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.220167</v>
+        <v>0.220297</v>
       </c>
       <c r="C13" t="n">
-        <v>0.343359</v>
+        <v>0.343362</v>
       </c>
       <c r="D13" t="n">
-        <v>0.312284</v>
+        <v>0.313441</v>
       </c>
       <c r="E13" t="n">
-        <v>0.171563</v>
+        <v>0.169415</v>
       </c>
       <c r="F13" t="n">
-        <v>0.286899</v>
+        <v>0.279538</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216754</v>
+        <v>0.216172</v>
       </c>
       <c r="C14" t="n">
-        <v>0.33986</v>
+        <v>0.338899</v>
       </c>
       <c r="D14" t="n">
-        <v>0.31444</v>
+        <v>0.31373</v>
       </c>
       <c r="E14" t="n">
-        <v>0.168785</v>
+        <v>0.166447</v>
       </c>
       <c r="F14" t="n">
-        <v>0.282199</v>
+        <v>0.277189</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213183</v>
+        <v>0.212602</v>
       </c>
       <c r="C15" t="n">
-        <v>0.334292</v>
+        <v>0.334274</v>
       </c>
       <c r="D15" t="n">
-        <v>0.314489</v>
+        <v>0.314669</v>
       </c>
       <c r="E15" t="n">
-        <v>0.164662</v>
+        <v>0.163537</v>
       </c>
       <c r="F15" t="n">
-        <v>0.280495</v>
+        <v>0.274411</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209517</v>
+        <v>0.208891</v>
       </c>
       <c r="C16" t="n">
-        <v>0.32734</v>
+        <v>0.328814</v>
       </c>
       <c r="D16" t="n">
-        <v>0.316241</v>
+        <v>0.316052</v>
       </c>
       <c r="E16" t="n">
-        <v>0.160788</v>
+        <v>0.160742</v>
       </c>
       <c r="F16" t="n">
-        <v>0.276578</v>
+        <v>0.270944</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204447</v>
+        <v>0.20439</v>
       </c>
       <c r="C17" t="n">
-        <v>0.31862</v>
+        <v>0.322839</v>
       </c>
       <c r="D17" t="n">
-        <v>0.316757</v>
+        <v>0.317405</v>
       </c>
       <c r="E17" t="n">
-        <v>0.157912</v>
+        <v>0.156394</v>
       </c>
       <c r="F17" t="n">
-        <v>0.27219</v>
+        <v>0.268096</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.197713</v>
+        <v>0.19763</v>
       </c>
       <c r="C18" t="n">
-        <v>0.312851</v>
+        <v>0.321107</v>
       </c>
       <c r="D18" t="n">
-        <v>0.318471</v>
+        <v>0.317754</v>
       </c>
       <c r="E18" t="n">
-        <v>0.155009</v>
+        <v>0.154185</v>
       </c>
       <c r="F18" t="n">
-        <v>0.268925</v>
+        <v>0.264989</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193605</v>
+        <v>0.192843</v>
       </c>
       <c r="C19" t="n">
-        <v>0.309479</v>
+        <v>0.311272</v>
       </c>
       <c r="D19" t="n">
-        <v>0.320477</v>
+        <v>0.320039</v>
       </c>
       <c r="E19" t="n">
-        <v>0.14841</v>
+        <v>0.147533</v>
       </c>
       <c r="F19" t="n">
-        <v>0.26646</v>
+        <v>0.261716</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187434</v>
+        <v>0.185927</v>
       </c>
       <c r="C20" t="n">
-        <v>0.311523</v>
+        <v>0.303959</v>
       </c>
       <c r="D20" t="n">
-        <v>0.321452</v>
+        <v>0.320592</v>
       </c>
       <c r="E20" t="n">
-        <v>0.147668</v>
+        <v>0.148475</v>
       </c>
       <c r="F20" t="n">
-        <v>0.26277</v>
+        <v>0.259887</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181023</v>
+        <v>0.178757</v>
       </c>
       <c r="C21" t="n">
-        <v>0.300856</v>
+        <v>0.303394</v>
       </c>
       <c r="D21" t="n">
-        <v>0.315632</v>
+        <v>0.313955</v>
       </c>
       <c r="E21" t="n">
-        <v>0.143375</v>
+        <v>0.143554</v>
       </c>
       <c r="F21" t="n">
-        <v>0.258734</v>
+        <v>0.256055</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.172341</v>
+        <v>0.171284</v>
       </c>
       <c r="C22" t="n">
-        <v>0.294898</v>
+        <v>0.290557</v>
       </c>
       <c r="D22" t="n">
-        <v>0.315345</v>
+        <v>0.314769</v>
       </c>
       <c r="E22" t="n">
-        <v>0.138901</v>
+        <v>0.139421</v>
       </c>
       <c r="F22" t="n">
-        <v>0.254931</v>
+        <v>0.251439</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.163562</v>
+        <v>0.161054</v>
       </c>
       <c r="C23" t="n">
-        <v>0.27611</v>
+        <v>0.280887</v>
       </c>
       <c r="D23" t="n">
-        <v>0.314766</v>
+        <v>0.315214</v>
       </c>
       <c r="E23" t="n">
-        <v>0.195528</v>
+        <v>0.193118</v>
       </c>
       <c r="F23" t="n">
-        <v>0.301934</v>
+        <v>0.296086</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243158</v>
+        <v>0.241318</v>
       </c>
       <c r="C24" t="n">
-        <v>0.354377</v>
+        <v>0.354774</v>
       </c>
       <c r="D24" t="n">
-        <v>0.314628</v>
+        <v>0.314829</v>
       </c>
       <c r="E24" t="n">
-        <v>0.189883</v>
+        <v>0.187879</v>
       </c>
       <c r="F24" t="n">
-        <v>0.298072</v>
+        <v>0.291684</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236946</v>
+        <v>0.236869</v>
       </c>
       <c r="C25" t="n">
-        <v>0.349342</v>
+        <v>0.353236</v>
       </c>
       <c r="D25" t="n">
-        <v>0.317355</v>
+        <v>0.316547</v>
       </c>
       <c r="E25" t="n">
-        <v>0.186363</v>
+        <v>0.184479</v>
       </c>
       <c r="F25" t="n">
-        <v>0.294459</v>
+        <v>0.28847</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.236457</v>
+        <v>0.234499</v>
       </c>
       <c r="C26" t="n">
-        <v>0.349261</v>
+        <v>0.34824</v>
       </c>
       <c r="D26" t="n">
-        <v>0.316317</v>
+        <v>0.316768</v>
       </c>
       <c r="E26" t="n">
-        <v>0.182028</v>
+        <v>0.17925</v>
       </c>
       <c r="F26" t="n">
-        <v>0.291195</v>
+        <v>0.285519</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230162</v>
+        <v>0.230199</v>
       </c>
       <c r="C27" t="n">
-        <v>0.344193</v>
+        <v>0.343894</v>
       </c>
       <c r="D27" t="n">
-        <v>0.316563</v>
+        <v>0.316146</v>
       </c>
       <c r="E27" t="n">
-        <v>0.17509</v>
+        <v>0.179025</v>
       </c>
       <c r="F27" t="n">
-        <v>0.288247</v>
+        <v>0.282144</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.226797</v>
+        <v>0.225055</v>
       </c>
       <c r="C28" t="n">
-        <v>0.339595</v>
+        <v>0.339093</v>
       </c>
       <c r="D28" t="n">
-        <v>0.318372</v>
+        <v>0.31731</v>
       </c>
       <c r="E28" t="n">
-        <v>0.171656</v>
+        <v>0.169035</v>
       </c>
       <c r="F28" t="n">
-        <v>0.286668</v>
+        <v>0.27897</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.222304</v>
+        <v>0.221217</v>
       </c>
       <c r="C29" t="n">
-        <v>0.334178</v>
+        <v>0.33333</v>
       </c>
       <c r="D29" t="n">
-        <v>0.31828</v>
+        <v>0.3182</v>
       </c>
       <c r="E29" t="n">
-        <v>0.168314</v>
+        <v>0.166942</v>
       </c>
       <c r="F29" t="n">
-        <v>0.283843</v>
+        <v>0.276833</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.217435</v>
+        <v>0.2167</v>
       </c>
       <c r="C30" t="n">
-        <v>0.332871</v>
+        <v>0.325448</v>
       </c>
       <c r="D30" t="n">
-        <v>0.318731</v>
+        <v>0.319244</v>
       </c>
       <c r="E30" t="n">
-        <v>0.16475</v>
+        <v>0.163927</v>
       </c>
       <c r="F30" t="n">
-        <v>0.280719</v>
+        <v>0.274694</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.212361</v>
+        <v>0.210747</v>
       </c>
       <c r="C31" t="n">
-        <v>0.329493</v>
+        <v>0.325324</v>
       </c>
       <c r="D31" t="n">
-        <v>0.32048</v>
+        <v>0.319879</v>
       </c>
       <c r="E31" t="n">
-        <v>0.164203</v>
+        <v>0.162582</v>
       </c>
       <c r="F31" t="n">
-        <v>0.27693</v>
+        <v>0.271195</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206569</v>
+        <v>0.204755</v>
       </c>
       <c r="C32" t="n">
-        <v>0.324082</v>
+        <v>0.323447</v>
       </c>
       <c r="D32" t="n">
-        <v>0.32092</v>
+        <v>0.321444</v>
       </c>
       <c r="E32" t="n">
-        <v>0.161481</v>
+        <v>0.159238</v>
       </c>
       <c r="F32" t="n">
-        <v>0.273257</v>
+        <v>0.268638</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.200763</v>
+        <v>0.199222</v>
       </c>
       <c r="C33" t="n">
-        <v>0.317975</v>
+        <v>0.310218</v>
       </c>
       <c r="D33" t="n">
-        <v>0.322038</v>
+        <v>0.323075</v>
       </c>
       <c r="E33" t="n">
-        <v>0.157825</v>
+        <v>0.156187</v>
       </c>
       <c r="F33" t="n">
-        <v>0.26974</v>
+        <v>0.265661</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.195177</v>
+        <v>0.193032</v>
       </c>
       <c r="C34" t="n">
-        <v>0.312228</v>
+        <v>0.308229</v>
       </c>
       <c r="D34" t="n">
-        <v>0.32212</v>
+        <v>0.324433</v>
       </c>
       <c r="E34" t="n">
-        <v>0.150532</v>
+        <v>0.14774</v>
       </c>
       <c r="F34" t="n">
-        <v>0.266807</v>
+        <v>0.261913</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.188279</v>
+        <v>0.186688</v>
       </c>
       <c r="C35" t="n">
-        <v>0.299999</v>
+        <v>0.304738</v>
       </c>
       <c r="D35" t="n">
-        <v>0.319485</v>
+        <v>0.32448</v>
       </c>
       <c r="E35" t="n">
-        <v>0.149047</v>
+        <v>0.149007</v>
       </c>
       <c r="F35" t="n">
-        <v>0.26222</v>
+        <v>0.258439</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180206</v>
+        <v>0.177205</v>
       </c>
       <c r="C36" t="n">
-        <v>0.288393</v>
+        <v>0.296279</v>
       </c>
       <c r="D36" t="n">
-        <v>0.319333</v>
+        <v>0.320176</v>
       </c>
       <c r="E36" t="n">
-        <v>0.145473</v>
+        <v>0.144897</v>
       </c>
       <c r="F36" t="n">
-        <v>0.258834</v>
+        <v>0.254878</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170231</v>
+        <v>0.168288</v>
       </c>
       <c r="C37" t="n">
-        <v>0.281551</v>
+        <v>0.282901</v>
       </c>
       <c r="D37" t="n">
-        <v>0.319442</v>
+        <v>0.318893</v>
       </c>
       <c r="E37" t="n">
-        <v>0.194431</v>
+        <v>0.192009</v>
       </c>
       <c r="F37" t="n">
-        <v>0.304931</v>
+        <v>0.297068</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247443</v>
+        <v>0.246093</v>
       </c>
       <c r="C38" t="n">
-        <v>0.36277</v>
+        <v>0.355618</v>
       </c>
       <c r="D38" t="n">
-        <v>0.318807</v>
+        <v>0.31939</v>
       </c>
       <c r="E38" t="n">
-        <v>0.190939</v>
+        <v>0.187668</v>
       </c>
       <c r="F38" t="n">
-        <v>0.301236</v>
+        <v>0.293316</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.244244</v>
+        <v>0.242784</v>
       </c>
       <c r="C39" t="n">
-        <v>0.360089</v>
+        <v>0.353042</v>
       </c>
       <c r="D39" t="n">
-        <v>0.318645</v>
+        <v>0.317912</v>
       </c>
       <c r="E39" t="n">
-        <v>0.188247</v>
+        <v>0.187679</v>
       </c>
       <c r="F39" t="n">
-        <v>0.297911</v>
+        <v>0.291482</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239731</v>
+        <v>0.238824</v>
       </c>
       <c r="C40" t="n">
-        <v>0.353833</v>
+        <v>0.348095</v>
       </c>
       <c r="D40" t="n">
-        <v>0.318545</v>
+        <v>0.317201</v>
       </c>
       <c r="E40" t="n">
-        <v>0.184451</v>
+        <v>0.183557</v>
       </c>
       <c r="F40" t="n">
-        <v>0.293963</v>
+        <v>0.287264</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.235343</v>
+        <v>0.234328</v>
       </c>
       <c r="C41" t="n">
-        <v>0.352164</v>
+        <v>0.344625</v>
       </c>
       <c r="D41" t="n">
-        <v>0.319594</v>
+        <v>0.318451</v>
       </c>
       <c r="E41" t="n">
-        <v>0.180707</v>
+        <v>0.179618</v>
       </c>
       <c r="F41" t="n">
-        <v>0.290279</v>
+        <v>0.285068</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.23044</v>
+        <v>0.230207</v>
       </c>
       <c r="C42" t="n">
-        <v>0.34583</v>
+        <v>0.340936</v>
       </c>
       <c r="D42" t="n">
-        <v>0.319104</v>
+        <v>0.320404</v>
       </c>
       <c r="E42" t="n">
-        <v>0.177233</v>
+        <v>0.176546</v>
       </c>
       <c r="F42" t="n">
-        <v>0.287457</v>
+        <v>0.281645</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.226761</v>
+        <v>0.224875</v>
       </c>
       <c r="C43" t="n">
-        <v>0.341536</v>
+        <v>0.335683</v>
       </c>
       <c r="D43" t="n">
-        <v>0.319896</v>
+        <v>0.321714</v>
       </c>
       <c r="E43" t="n">
-        <v>0.173084</v>
+        <v>0.172195</v>
       </c>
       <c r="F43" t="n">
-        <v>0.284143</v>
+        <v>0.278858</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.220868</v>
+        <v>0.219586</v>
       </c>
       <c r="C44" t="n">
-        <v>0.328048</v>
+        <v>0.336288</v>
       </c>
       <c r="D44" t="n">
-        <v>0.320024</v>
+        <v>0.321186</v>
       </c>
       <c r="E44" t="n">
-        <v>0.169857</v>
+        <v>0.168676</v>
       </c>
       <c r="F44" t="n">
-        <v>0.281144</v>
+        <v>0.275692</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.215558</v>
+        <v>0.2143</v>
       </c>
       <c r="C45" t="n">
-        <v>0.339523</v>
+        <v>0.333567</v>
       </c>
       <c r="D45" t="n">
-        <v>0.321188</v>
+        <v>0.321478</v>
       </c>
       <c r="E45" t="n">
-        <v>0.166165</v>
+        <v>0.164819</v>
       </c>
       <c r="F45" t="n">
-        <v>0.277863</v>
+        <v>0.273741</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.209699</v>
+        <v>0.20922</v>
       </c>
       <c r="C46" t="n">
-        <v>0.325626</v>
+        <v>0.323267</v>
       </c>
       <c r="D46" t="n">
-        <v>0.321591</v>
+        <v>0.322683</v>
       </c>
       <c r="E46" t="n">
-        <v>0.162959</v>
+        <v>0.161888</v>
       </c>
       <c r="F46" t="n">
-        <v>0.274403</v>
+        <v>0.270641</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204605</v>
+        <v>0.203473</v>
       </c>
       <c r="C47" t="n">
-        <v>0.323115</v>
+        <v>0.323557</v>
       </c>
       <c r="D47" t="n">
-        <v>0.323289</v>
+        <v>0.322473</v>
       </c>
       <c r="E47" t="n">
-        <v>0.156593</v>
+        <v>0.154906</v>
       </c>
       <c r="F47" t="n">
-        <v>0.270851</v>
+        <v>0.266636</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.199088</v>
+        <v>0.19682</v>
       </c>
       <c r="C48" t="n">
-        <v>0.309273</v>
+        <v>0.310237</v>
       </c>
       <c r="D48" t="n">
-        <v>0.323471</v>
+        <v>0.323827</v>
       </c>
       <c r="E48" t="n">
-        <v>0.153767</v>
+        <v>0.151966</v>
       </c>
       <c r="F48" t="n">
-        <v>0.267954</v>
+        <v>0.262843</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191375</v>
+        <v>0.189535</v>
       </c>
       <c r="C49" t="n">
-        <v>0.306061</v>
+        <v>0.308068</v>
       </c>
       <c r="D49" t="n">
-        <v>0.325092</v>
+        <v>0.327234</v>
       </c>
       <c r="E49" t="n">
-        <v>0.149143</v>
+        <v>0.147796</v>
       </c>
       <c r="F49" t="n">
-        <v>0.264824</v>
+        <v>0.259374</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183853</v>
+        <v>0.181442</v>
       </c>
       <c r="C50" t="n">
-        <v>0.301107</v>
+        <v>0.302065</v>
       </c>
       <c r="D50" t="n">
-        <v>0.323354</v>
+        <v>0.322928</v>
       </c>
       <c r="E50" t="n">
-        <v>0.145876</v>
+        <v>0.143526</v>
       </c>
       <c r="F50" t="n">
-        <v>0.260736</v>
+        <v>0.255718</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175171</v>
+        <v>0.172609</v>
       </c>
       <c r="C51" t="n">
-        <v>0.288005</v>
+        <v>0.296204</v>
       </c>
       <c r="D51" t="n">
-        <v>0.322719</v>
+        <v>0.323772</v>
       </c>
       <c r="E51" t="n">
-        <v>0.201418</v>
+        <v>0.197783</v>
       </c>
       <c r="F51" t="n">
-        <v>0.305688</v>
+        <v>0.299855</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.164024</v>
+        <v>0.162683</v>
       </c>
       <c r="C52" t="n">
-        <v>0.282509</v>
+        <v>0.280211</v>
       </c>
       <c r="D52" t="n">
-        <v>0.324064</v>
+        <v>0.323947</v>
       </c>
       <c r="E52" t="n">
-        <v>0.195805</v>
+        <v>0.193481</v>
       </c>
       <c r="F52" t="n">
-        <v>0.301405</v>
+        <v>0.295713</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.245797</v>
+        <v>0.245364</v>
       </c>
       <c r="C53" t="n">
-        <v>0.362911</v>
+        <v>0.357752</v>
       </c>
       <c r="D53" t="n">
-        <v>0.323399</v>
+        <v>0.323787</v>
       </c>
       <c r="E53" t="n">
-        <v>0.191797</v>
+        <v>0.190361</v>
       </c>
       <c r="F53" t="n">
-        <v>0.299018</v>
+        <v>0.293327</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241765</v>
+        <v>0.241991</v>
       </c>
       <c r="C54" t="n">
-        <v>0.360768</v>
+        <v>0.353854</v>
       </c>
       <c r="D54" t="n">
-        <v>0.325311</v>
+        <v>0.325878</v>
       </c>
       <c r="E54" t="n">
-        <v>0.187279</v>
+        <v>0.186335</v>
       </c>
       <c r="F54" t="n">
-        <v>0.295159</v>
+        <v>0.289783</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.23925</v>
+        <v>0.237335</v>
       </c>
       <c r="C55" t="n">
-        <v>0.358029</v>
+        <v>0.350201</v>
       </c>
       <c r="D55" t="n">
-        <v>0.326586</v>
+        <v>0.326606</v>
       </c>
       <c r="E55" t="n">
-        <v>0.183028</v>
+        <v>0.181565</v>
       </c>
       <c r="F55" t="n">
-        <v>0.291276</v>
+        <v>0.285743</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.233527</v>
+        <v>0.232823</v>
       </c>
       <c r="C56" t="n">
-        <v>0.35435</v>
+        <v>0.345486</v>
       </c>
       <c r="D56" t="n">
-        <v>0.328048</v>
+        <v>0.328052</v>
       </c>
       <c r="E56" t="n">
-        <v>0.179308</v>
+        <v>0.177631</v>
       </c>
       <c r="F56" t="n">
-        <v>0.288849</v>
+        <v>0.28402</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.228633</v>
+        <v>0.227841</v>
       </c>
       <c r="C57" t="n">
-        <v>0.349856</v>
+        <v>0.342269</v>
       </c>
       <c r="D57" t="n">
-        <v>0.329075</v>
+        <v>0.329074</v>
       </c>
       <c r="E57" t="n">
-        <v>0.176031</v>
+        <v>0.174178</v>
       </c>
       <c r="F57" t="n">
-        <v>0.285626</v>
+        <v>0.280299</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.224442</v>
+        <v>0.222873</v>
       </c>
       <c r="C58" t="n">
-        <v>0.331576</v>
+        <v>0.356742</v>
       </c>
       <c r="D58" t="n">
-        <v>0.332491</v>
+        <v>0.332782</v>
       </c>
       <c r="E58" t="n">
-        <v>0.171847</v>
+        <v>0.171755</v>
       </c>
       <c r="F58" t="n">
-        <v>0.281521</v>
+        <v>0.277577</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.218012</v>
+        <v>0.216808</v>
       </c>
       <c r="C59" t="n">
-        <v>0.342219</v>
+        <v>0.333303</v>
       </c>
       <c r="D59" t="n">
-        <v>0.33467</v>
+        <v>0.332745</v>
       </c>
       <c r="E59" t="n">
-        <v>0.168387</v>
+        <v>0.167307</v>
       </c>
       <c r="F59" t="n">
-        <v>0.279162</v>
+        <v>0.273903</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.213526</v>
+        <v>0.211517</v>
       </c>
       <c r="C60" t="n">
-        <v>0.322643</v>
+        <v>0.332035</v>
       </c>
       <c r="D60" t="n">
-        <v>0.33671</v>
+        <v>0.333851</v>
       </c>
       <c r="E60" t="n">
-        <v>0.164614</v>
+        <v>0.16361</v>
       </c>
       <c r="F60" t="n">
-        <v>0.275068</v>
+        <v>0.27102</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.206567</v>
+        <v>0.205942</v>
       </c>
       <c r="C61" t="n">
-        <v>0.327112</v>
+        <v>0.344144</v>
       </c>
       <c r="D61" t="n">
-        <v>0.338432</v>
+        <v>0.33977</v>
       </c>
       <c r="E61" t="n">
-        <v>0.160984</v>
+        <v>0.160779</v>
       </c>
       <c r="F61" t="n">
-        <v>0.271818</v>
+        <v>0.268379</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.200523</v>
+        <v>0.197935</v>
       </c>
       <c r="C62" t="n">
-        <v>0.319185</v>
+        <v>0.316285</v>
       </c>
       <c r="D62" t="n">
-        <v>0.341437</v>
+        <v>0.340942</v>
       </c>
       <c r="E62" t="n">
-        <v>0.157231</v>
+        <v>0.157198</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2689</v>
+        <v>0.264925</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194171</v>
+        <v>0.190806</v>
       </c>
       <c r="C63" t="n">
-        <v>0.33063</v>
+        <v>0.339198</v>
       </c>
       <c r="D63" t="n">
-        <v>0.34424</v>
+        <v>0.344099</v>
       </c>
       <c r="E63" t="n">
-        <v>0.153736</v>
+        <v>0.153737</v>
       </c>
       <c r="F63" t="n">
-        <v>0.266156</v>
+        <v>0.26227</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.186759</v>
+        <v>0.18335</v>
       </c>
       <c r="C64" t="n">
-        <v>0.31758</v>
+        <v>0.316517</v>
       </c>
       <c r="D64" t="n">
-        <v>0.382548</v>
+        <v>0.380934</v>
       </c>
       <c r="E64" t="n">
-        <v>0.150519</v>
+        <v>0.150079</v>
       </c>
       <c r="F64" t="n">
-        <v>0.261885</v>
+        <v>0.258956</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177765</v>
+        <v>0.175448</v>
       </c>
       <c r="C65" t="n">
-        <v>0.331164</v>
+        <v>0.326984</v>
       </c>
       <c r="D65" t="n">
-        <v>0.38332</v>
+        <v>0.384027</v>
       </c>
       <c r="E65" t="n">
-        <v>0.143529</v>
+        <v>0.141622</v>
       </c>
       <c r="F65" t="n">
-        <v>0.259004</v>
+        <v>0.255307</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16814</v>
+        <v>0.165493</v>
       </c>
       <c r="C66" t="n">
-        <v>0.304895</v>
+        <v>0.306986</v>
       </c>
       <c r="D66" t="n">
-        <v>0.384763</v>
+        <v>0.383931</v>
       </c>
       <c r="E66" t="n">
-        <v>0.198391</v>
+        <v>0.19852</v>
       </c>
       <c r="F66" t="n">
-        <v>0.303599</v>
+        <v>0.297571</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.247299</v>
+        <v>0.246449</v>
       </c>
       <c r="C67" t="n">
-        <v>0.464863</v>
+        <v>0.39069</v>
       </c>
       <c r="D67" t="n">
-        <v>0.384729</v>
+        <v>0.383362</v>
       </c>
       <c r="E67" t="n">
-        <v>0.194757</v>
+        <v>0.1988</v>
       </c>
       <c r="F67" t="n">
-        <v>0.300118</v>
+        <v>0.294235</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.245234</v>
+        <v>0.242182</v>
       </c>
       <c r="C68" t="n">
-        <v>0.374852</v>
+        <v>0.384685</v>
       </c>
       <c r="D68" t="n">
-        <v>0.384487</v>
+        <v>0.38472</v>
       </c>
       <c r="E68" t="n">
-        <v>0.190002</v>
+        <v>0.190294</v>
       </c>
       <c r="F68" t="n">
-        <v>0.296729</v>
+        <v>0.291441</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.241334</v>
+        <v>0.239343</v>
       </c>
       <c r="C69" t="n">
-        <v>0.372801</v>
+        <v>0.381631</v>
       </c>
       <c r="D69" t="n">
-        <v>0.385143</v>
+        <v>0.385888</v>
       </c>
       <c r="E69" t="n">
-        <v>0.18567</v>
+        <v>0.185514</v>
       </c>
       <c r="F69" t="n">
-        <v>0.293452</v>
+        <v>0.288136</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.236213</v>
+        <v>0.234683</v>
       </c>
       <c r="C70" t="n">
-        <v>0.368084</v>
+        <v>0.378102</v>
       </c>
       <c r="D70" t="n">
-        <v>0.384633</v>
+        <v>0.387025</v>
       </c>
       <c r="E70" t="n">
-        <v>0.181808</v>
+        <v>0.181444</v>
       </c>
       <c r="F70" t="n">
-        <v>0.289613</v>
+        <v>0.285461</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.231892</v>
+        <v>0.228655</v>
       </c>
       <c r="C71" t="n">
-        <v>0.363032</v>
+        <v>0.373056</v>
       </c>
       <c r="D71" t="n">
-        <v>0.387061</v>
+        <v>0.387348</v>
       </c>
       <c r="E71" t="n">
-        <v>0.174597</v>
+        <v>0.172665</v>
       </c>
       <c r="F71" t="n">
-        <v>0.286344</v>
+        <v>0.280881</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.224972</v>
+        <v>0.223567</v>
       </c>
       <c r="C72" t="n">
-        <v>0.496069</v>
+        <v>0.358905</v>
       </c>
       <c r="D72" t="n">
-        <v>0.389298</v>
+        <v>0.386364</v>
       </c>
       <c r="E72" t="n">
-        <v>0.17047</v>
+        <v>0.168469</v>
       </c>
       <c r="F72" t="n">
-        <v>0.282643</v>
+        <v>0.278313</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219617</v>
+        <v>0.219239</v>
       </c>
       <c r="C73" t="n">
-        <v>0.429087</v>
+        <v>0.443466</v>
       </c>
       <c r="D73" t="n">
-        <v>0.387242</v>
+        <v>0.387846</v>
       </c>
       <c r="E73" t="n">
-        <v>0.167465</v>
+        <v>0.16444</v>
       </c>
       <c r="F73" t="n">
-        <v>0.279975</v>
+        <v>0.275861</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213657</v>
+        <v>0.213805</v>
       </c>
       <c r="C74" t="n">
-        <v>0.492259</v>
+        <v>0.430156</v>
       </c>
       <c r="D74" t="n">
-        <v>0.386486</v>
+        <v>0.39034</v>
       </c>
       <c r="E74" t="n">
-        <v>0.166303</v>
+        <v>0.165606</v>
       </c>
       <c r="F74" t="n">
-        <v>0.276114</v>
+        <v>0.272354</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.208293</v>
+        <v>0.20765</v>
       </c>
       <c r="C75" t="n">
-        <v>0.48295</v>
+        <v>0.457656</v>
       </c>
       <c r="D75" t="n">
-        <v>0.386397</v>
+        <v>0.390229</v>
       </c>
       <c r="E75" t="n">
-        <v>0.160199</v>
+        <v>0.158076</v>
       </c>
       <c r="F75" t="n">
-        <v>0.273444</v>
+        <v>0.268554</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.202632</v>
+        <v>0.201314</v>
       </c>
       <c r="C76" t="n">
-        <v>0.433008</v>
+        <v>0.449209</v>
       </c>
       <c r="D76" t="n">
-        <v>0.388596</v>
+        <v>0.389575</v>
       </c>
       <c r="E76" t="n">
-        <v>0.159965</v>
+        <v>0.159046</v>
       </c>
       <c r="F76" t="n">
-        <v>0.269364</v>
+        <v>0.265847</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.195731</v>
+        <v>0.193836</v>
       </c>
       <c r="C77" t="n">
-        <v>0.40503</v>
+        <v>0.426322</v>
       </c>
       <c r="D77" t="n">
-        <v>0.387787</v>
+        <v>0.389402</v>
       </c>
       <c r="E77" t="n">
-        <v>0.155446</v>
+        <v>0.155254</v>
       </c>
       <c r="F77" t="n">
-        <v>0.266466</v>
+        <v>0.263052</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.188828</v>
+        <v>0.185959</v>
       </c>
       <c r="C78" t="n">
-        <v>0.412941</v>
+        <v>0.389609</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4419</v>
+        <v>0.449981</v>
       </c>
       <c r="E78" t="n">
-        <v>0.151708</v>
+        <v>0.152194</v>
       </c>
       <c r="F78" t="n">
-        <v>0.263142</v>
+        <v>0.259954</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179943</v>
+        <v>0.178401</v>
       </c>
       <c r="C79" t="n">
-        <v>0.327509</v>
+        <v>0.407438</v>
       </c>
       <c r="D79" t="n">
-        <v>0.438461</v>
+        <v>0.444406</v>
       </c>
       <c r="E79" t="n">
-        <v>0.145023</v>
+        <v>0.1433</v>
       </c>
       <c r="F79" t="n">
-        <v>0.260027</v>
+        <v>0.256067</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170705</v>
+        <v>0.167906</v>
       </c>
       <c r="C80" t="n">
-        <v>0.376297</v>
+        <v>0.427509</v>
       </c>
       <c r="D80" t="n">
-        <v>0.433168</v>
+        <v>0.442706</v>
       </c>
       <c r="E80" t="n">
-        <v>0.199391</v>
+        <v>0.195723</v>
       </c>
       <c r="F80" t="n">
-        <v>0.30438</v>
+        <v>0.297066</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.248842</v>
+        <v>0.247886</v>
       </c>
       <c r="C81" t="n">
-        <v>0.384361</v>
+        <v>0.377614</v>
       </c>
       <c r="D81" t="n">
-        <v>0.430782</v>
+        <v>0.435612</v>
       </c>
       <c r="E81" t="n">
-        <v>0.193923</v>
+        <v>0.19183</v>
       </c>
       <c r="F81" t="n">
-        <v>0.300852</v>
+        <v>0.293661</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.245132</v>
+        <v>0.244049</v>
       </c>
       <c r="C82" t="n">
-        <v>0.368438</v>
+        <v>0.374639</v>
       </c>
       <c r="D82" t="n">
-        <v>0.431474</v>
+        <v>0.431778</v>
       </c>
       <c r="E82" t="n">
-        <v>0.190808</v>
+        <v>0.190479</v>
       </c>
       <c r="F82" t="n">
-        <v>0.296885</v>
+        <v>0.291179</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.240922</v>
+        <v>0.239779</v>
       </c>
       <c r="C83" t="n">
-        <v>0.362568</v>
+        <v>0.370451</v>
       </c>
       <c r="D83" t="n">
-        <v>0.423857</v>
+        <v>0.428299</v>
       </c>
       <c r="E83" t="n">
-        <v>0.186502</v>
+        <v>0.186562</v>
       </c>
       <c r="F83" t="n">
-        <v>0.293192</v>
+        <v>0.289064</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.236023</v>
+        <v>0.235026</v>
       </c>
       <c r="C84" t="n">
-        <v>0.359138</v>
+        <v>0.364716</v>
       </c>
       <c r="D84" t="n">
-        <v>0.420743</v>
+        <v>0.425835</v>
       </c>
       <c r="E84" t="n">
-        <v>0.180315</v>
+        <v>0.177794</v>
       </c>
       <c r="F84" t="n">
-        <v>0.290462</v>
+        <v>0.284577</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.231633</v>
+        <v>0.230948</v>
       </c>
       <c r="C85" t="n">
-        <v>0.372119</v>
+        <v>0.358622</v>
       </c>
       <c r="D85" t="n">
-        <v>0.419903</v>
+        <v>0.421294</v>
       </c>
       <c r="E85" t="n">
-        <v>0.175859</v>
+        <v>0.173667</v>
       </c>
       <c r="F85" t="n">
-        <v>0.286255</v>
+        <v>0.281788</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.227446</v>
+        <v>0.226394</v>
       </c>
       <c r="C86" t="n">
-        <v>0.347215</v>
+        <v>0.352676</v>
       </c>
       <c r="D86" t="n">
-        <v>0.417713</v>
+        <v>0.418301</v>
       </c>
       <c r="E86" t="n">
-        <v>0.172311</v>
+        <v>0.169947</v>
       </c>
       <c r="F86" t="n">
-        <v>0.282937</v>
+        <v>0.278596</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220792</v>
+        <v>0.220878</v>
       </c>
       <c r="C87" t="n">
-        <v>0.433014</v>
+        <v>0.438625</v>
       </c>
       <c r="D87" t="n">
-        <v>0.413121</v>
+        <v>0.416745</v>
       </c>
       <c r="E87" t="n">
-        <v>0.168512</v>
+        <v>0.166475</v>
       </c>
       <c r="F87" t="n">
-        <v>0.280662</v>
+        <v>0.275539</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215266</v>
+        <v>0.215607</v>
       </c>
       <c r="C88" t="n">
-        <v>0.439144</v>
+        <v>0.379386</v>
       </c>
       <c r="D88" t="n">
-        <v>0.410603</v>
+        <v>0.414279</v>
       </c>
       <c r="E88" t="n">
-        <v>0.16481</v>
+        <v>0.163062</v>
       </c>
       <c r="F88" t="n">
-        <v>0.27747</v>
+        <v>0.273149</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.210304</v>
+        <v>0.208153</v>
       </c>
       <c r="C89" t="n">
-        <v>0.430947</v>
+        <v>0.425366</v>
       </c>
       <c r="D89" t="n">
-        <v>0.41083</v>
+        <v>0.410987</v>
       </c>
       <c r="E89" t="n">
-        <v>0.161554</v>
+        <v>0.158854</v>
       </c>
       <c r="F89" t="n">
-        <v>0.274005</v>
+        <v>0.269861</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204084</v>
+        <v>0.202836</v>
       </c>
       <c r="C90" t="n">
-        <v>0.416665</v>
+        <v>0.405324</v>
       </c>
       <c r="D90" t="n">
-        <v>0.405849</v>
+        <v>0.409911</v>
       </c>
       <c r="E90" t="n">
-        <v>0.158062</v>
+        <v>0.155414</v>
       </c>
       <c r="F90" t="n">
-        <v>0.270334</v>
+        <v>0.266563</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.19761</v>
+        <v>0.196737</v>
       </c>
       <c r="C91" t="n">
-        <v>0.376116</v>
+        <v>0.40682</v>
       </c>
       <c r="D91" t="n">
-        <v>0.405301</v>
+        <v>0.408141</v>
       </c>
       <c r="E91" t="n">
-        <v>0.15392</v>
+        <v>0.151552</v>
       </c>
       <c r="F91" t="n">
-        <v>0.265898</v>
+        <v>0.263514</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190329</v>
+        <v>0.189022</v>
       </c>
       <c r="C92" t="n">
-        <v>0.371865</v>
+        <v>0.354329</v>
       </c>
       <c r="D92" t="n">
-        <v>0.453102</v>
+        <v>0.460348</v>
       </c>
       <c r="E92" t="n">
-        <v>0.150072</v>
+        <v>0.148063</v>
       </c>
       <c r="F92" t="n">
-        <v>0.263586</v>
+        <v>0.260267</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.181853</v>
+        <v>0.180421</v>
       </c>
       <c r="C93" t="n">
-        <v>0.401222</v>
+        <v>0.404554</v>
       </c>
       <c r="D93" t="n">
-        <v>0.441564</v>
+        <v>0.454538</v>
       </c>
       <c r="E93" t="n">
-        <v>0.148532</v>
+        <v>0.149138</v>
       </c>
       <c r="F93" t="n">
-        <v>0.260654</v>
+        <v>0.257061</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.173912</v>
+        <v>0.17128</v>
       </c>
       <c r="C94" t="n">
-        <v>0.384003</v>
+        <v>0.356043</v>
       </c>
       <c r="D94" t="n">
-        <v>0.44168</v>
+        <v>0.453234</v>
       </c>
       <c r="E94" t="n">
-        <v>0.201665</v>
+        <v>0.199153</v>
       </c>
       <c r="F94" t="n">
-        <v>0.297502</v>
+        <v>0.301771</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249545</v>
+        <v>0.249691</v>
       </c>
       <c r="C95" t="n">
-        <v>0.535198</v>
+        <v>0.434483</v>
       </c>
       <c r="D95" t="n">
-        <v>0.436054</v>
+        <v>0.446905</v>
       </c>
       <c r="E95" t="n">
-        <v>0.197964</v>
+        <v>0.194872</v>
       </c>
       <c r="F95" t="n">
-        <v>0.29466</v>
+        <v>0.297543</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.247507</v>
+        <v>0.245913</v>
       </c>
       <c r="C96" t="n">
-        <v>0.357811</v>
+        <v>0.466126</v>
       </c>
       <c r="D96" t="n">
-        <v>0.434007</v>
+        <v>0.437334</v>
       </c>
       <c r="E96" t="n">
-        <v>0.192863</v>
+        <v>0.189907</v>
       </c>
       <c r="F96" t="n">
-        <v>0.293818</v>
+        <v>0.291658</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.243463</v>
+        <v>0.2423</v>
       </c>
       <c r="C97" t="n">
-        <v>0.353588</v>
+        <v>0.359772</v>
       </c>
       <c r="D97" t="n">
-        <v>0.42445</v>
+        <v>0.431269</v>
       </c>
       <c r="E97" t="n">
-        <v>0.188143</v>
+        <v>0.186361</v>
       </c>
       <c r="F97" t="n">
-        <v>0.287705</v>
+        <v>0.288667</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.238977</v>
+        <v>0.237977</v>
       </c>
       <c r="C98" t="n">
-        <v>0.349021</v>
+        <v>0.355394</v>
       </c>
       <c r="D98" t="n">
-        <v>0.421251</v>
+        <v>0.427096</v>
       </c>
       <c r="E98" t="n">
-        <v>0.183783</v>
+        <v>0.182806</v>
       </c>
       <c r="F98" t="n">
-        <v>0.285859</v>
+        <v>0.286201</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.234061</v>
+        <v>0.23295</v>
       </c>
       <c r="C99" t="n">
-        <v>0.416672</v>
+        <v>0.350533</v>
       </c>
       <c r="D99" t="n">
-        <v>0.413086</v>
+        <v>0.425872</v>
       </c>
       <c r="E99" t="n">
-        <v>0.180043</v>
+        <v>0.178777</v>
       </c>
       <c r="F99" t="n">
-        <v>0.28025</v>
+        <v>0.282556</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.22873</v>
+        <v>0.227733</v>
       </c>
       <c r="C100" t="n">
-        <v>0.339169</v>
+        <v>0.345501</v>
       </c>
       <c r="D100" t="n">
-        <v>0.411869</v>
+        <v>0.41844</v>
       </c>
       <c r="E100" t="n">
-        <v>0.176142</v>
+        <v>0.176104</v>
       </c>
       <c r="F100" t="n">
-        <v>0.277114</v>
+        <v>0.280121</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223227</v>
+        <v>0.222269</v>
       </c>
       <c r="C101" t="n">
-        <v>0.409616</v>
+        <v>0.457663</v>
       </c>
       <c r="D101" t="n">
-        <v>0.409947</v>
+        <v>0.415445</v>
       </c>
       <c r="E101" t="n">
-        <v>0.172069</v>
+        <v>0.171898</v>
       </c>
       <c r="F101" t="n">
-        <v>0.273362</v>
+        <v>0.276801</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.217546</v>
+        <v>0.216736</v>
       </c>
       <c r="C102" t="n">
-        <v>0.39396</v>
+        <v>0.486662</v>
       </c>
       <c r="D102" t="n">
-        <v>0.404207</v>
+        <v>0.41146</v>
       </c>
       <c r="E102" t="n">
-        <v>0.165325</v>
+        <v>0.163415</v>
       </c>
       <c r="F102" t="n">
-        <v>0.276326</v>
+        <v>0.273187</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211618</v>
+        <v>0.210691</v>
       </c>
       <c r="C103" t="n">
-        <v>0.440135</v>
+        <v>0.416419</v>
       </c>
       <c r="D103" t="n">
-        <v>0.401869</v>
+        <v>0.409119</v>
       </c>
       <c r="E103" t="n">
-        <v>0.164871</v>
+        <v>0.165524</v>
       </c>
       <c r="F103" t="n">
-        <v>0.267093</v>
+        <v>0.271316</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.205709</v>
+        <v>0.204542</v>
       </c>
       <c r="C104" t="n">
-        <v>0.408671</v>
+        <v>0.407771</v>
       </c>
       <c r="D104" t="n">
-        <v>0.400075</v>
+        <v>0.405898</v>
       </c>
       <c r="E104" t="n">
-        <v>0.161284</v>
+        <v>0.161534</v>
       </c>
       <c r="F104" t="n">
-        <v>0.264035</v>
+        <v>0.267499</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199091</v>
+        <v>0.197826</v>
       </c>
       <c r="C105" t="n">
-        <v>0.452506</v>
+        <v>0.370705</v>
       </c>
       <c r="D105" t="n">
-        <v>0.397308</v>
+        <v>0.403235</v>
       </c>
       <c r="E105" t="n">
-        <v>0.157222</v>
+        <v>0.157902</v>
       </c>
       <c r="F105" t="n">
-        <v>0.260718</v>
+        <v>0.263508</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.192005</v>
+        <v>0.189497</v>
       </c>
       <c r="C106" t="n">
-        <v>0.457497</v>
+        <v>0.375673</v>
       </c>
       <c r="D106" t="n">
-        <v>0.394705</v>
+        <v>0.399927</v>
       </c>
       <c r="E106" t="n">
-        <v>0.153431</v>
+        <v>0.154224</v>
       </c>
       <c r="F106" t="n">
-        <v>0.257364</v>
+        <v>0.260512</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183924</v>
+        <v>0.181955</v>
       </c>
       <c r="C107" t="n">
-        <v>0.40577</v>
+        <v>0.384024</v>
       </c>
       <c r="D107" t="n">
-        <v>0.425067</v>
+        <v>0.435313</v>
       </c>
       <c r="E107" t="n">
-        <v>0.150172</v>
+        <v>0.150072</v>
       </c>
       <c r="F107" t="n">
-        <v>0.254113</v>
+        <v>0.257143</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174469</v>
+        <v>0.172449</v>
       </c>
       <c r="C108" t="n">
-        <v>0.408698</v>
+        <v>0.378959</v>
       </c>
       <c r="D108" t="n">
-        <v>0.418019</v>
+        <v>0.426138</v>
       </c>
       <c r="E108" t="n">
-        <v>0.204299</v>
+        <v>0.200881</v>
       </c>
       <c r="F108" t="n">
-        <v>0.299208</v>
+        <v>0.299027</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.163125</v>
+        <v>0.162019</v>
       </c>
       <c r="C109" t="n">
-        <v>0.395612</v>
+        <v>0.337624</v>
       </c>
       <c r="D109" t="n">
-        <v>0.412126</v>
+        <v>0.422795</v>
       </c>
       <c r="E109" t="n">
-        <v>0.198678</v>
+        <v>0.196056</v>
       </c>
       <c r="F109" t="n">
-        <v>0.295632</v>
+        <v>0.2952</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.248296</v>
+        <v>0.245592</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5048550000000001</v>
+        <v>0.46741</v>
       </c>
       <c r="D110" t="n">
-        <v>0.412424</v>
+        <v>0.419963</v>
       </c>
       <c r="E110" t="n">
-        <v>0.193733</v>
+        <v>0.191837</v>
       </c>
       <c r="F110" t="n">
-        <v>0.291486</v>
+        <v>0.291892</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.244437</v>
+        <v>0.241702</v>
       </c>
       <c r="C111" t="n">
-        <v>0.499302</v>
+        <v>0.465131</v>
       </c>
       <c r="D111" t="n">
-        <v>0.408036</v>
+        <v>0.41571</v>
       </c>
       <c r="E111" t="n">
-        <v>0.186822</v>
+        <v>0.183138</v>
       </c>
       <c r="F111" t="n">
-        <v>0.293393</v>
+        <v>0.288462</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.240208</v>
+        <v>0.237261</v>
       </c>
       <c r="C112" t="n">
-        <v>0.52571</v>
+        <v>0.460877</v>
       </c>
       <c r="D112" t="n">
-        <v>0.404379</v>
+        <v>0.411902</v>
       </c>
       <c r="E112" t="n">
-        <v>0.181829</v>
+        <v>0.179159</v>
       </c>
       <c r="F112" t="n">
-        <v>0.290392</v>
+        <v>0.285418</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.235238</v>
+        <v>0.232637</v>
       </c>
       <c r="C113" t="n">
-        <v>0.516277</v>
+        <v>0.456467</v>
       </c>
       <c r="D113" t="n">
-        <v>0.400451</v>
+        <v>0.407612</v>
       </c>
       <c r="E113" t="n">
-        <v>0.181214</v>
+        <v>0.179915</v>
       </c>
       <c r="F113" t="n">
-        <v>0.280753</v>
+        <v>0.282507</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.230104</v>
+        <v>0.227581</v>
       </c>
       <c r="C114" t="n">
-        <v>0.505785</v>
+        <v>0.451835</v>
       </c>
       <c r="D114" t="n">
-        <v>0.397841</v>
+        <v>0.404432</v>
       </c>
       <c r="E114" t="n">
-        <v>0.177141</v>
+        <v>0.176618</v>
       </c>
       <c r="F114" t="n">
-        <v>0.277885</v>
+        <v>0.279616</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224507</v>
+        <v>0.222378</v>
       </c>
       <c r="C115" t="n">
-        <v>0.438748</v>
+        <v>0.454133</v>
       </c>
       <c r="D115" t="n">
-        <v>0.392855</v>
+        <v>0.400778</v>
       </c>
       <c r="E115" t="n">
-        <v>0.173015</v>
+        <v>0.172453</v>
       </c>
       <c r="F115" t="n">
-        <v>0.274156</v>
+        <v>0.277855</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.218119</v>
+        <v>0.217599</v>
       </c>
       <c r="C116" t="n">
-        <v>0.41222</v>
+        <v>0.464888</v>
       </c>
       <c r="D116" t="n">
-        <v>0.391173</v>
+        <v>0.398778</v>
       </c>
       <c r="E116" t="n">
-        <v>0.169698</v>
+        <v>0.16869</v>
       </c>
       <c r="F116" t="n">
-        <v>0.277481</v>
+        <v>0.273928</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212905</v>
+        <v>0.212136</v>
       </c>
       <c r="C117" t="n">
-        <v>0.392757</v>
+        <v>0.412846</v>
       </c>
       <c r="D117" t="n">
-        <v>0.388741</v>
+        <v>0.395453</v>
       </c>
       <c r="E117" t="n">
-        <v>0.165553</v>
+        <v>0.164985</v>
       </c>
       <c r="F117" t="n">
-        <v>0.271114</v>
+        <v>0.271117</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.206344</v>
+        <v>0.205965</v>
       </c>
       <c r="C118" t="n">
-        <v>0.408157</v>
+        <v>0.439257</v>
       </c>
       <c r="D118" t="n">
-        <v>0.386855</v>
+        <v>0.392768</v>
       </c>
       <c r="E118" t="n">
-        <v>0.162189</v>
+        <v>0.162277</v>
       </c>
       <c r="F118" t="n">
-        <v>0.26484</v>
+        <v>0.272852</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200368</v>
+        <v>0.199319</v>
       </c>
       <c r="C119" t="n">
-        <v>0.440252</v>
+        <v>0.433427</v>
       </c>
       <c r="D119" t="n">
-        <v>0.385824</v>
+        <v>0.391</v>
       </c>
       <c r="E119" t="n">
-        <v>0.157559</v>
+        <v>0.158579</v>
       </c>
       <c r="F119" t="n">
-        <v>0.261688</v>
+        <v>0.26545</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.193618</v>
+        <v>0.192303</v>
       </c>
       <c r="C120" t="n">
-        <v>0.401546</v>
+        <v>0.425952</v>
       </c>
       <c r="D120" t="n">
-        <v>0.385071</v>
+        <v>0.389859</v>
       </c>
       <c r="E120" t="n">
-        <v>0.153969</v>
+        <v>0.154717</v>
       </c>
       <c r="F120" t="n">
-        <v>0.261615</v>
+        <v>0.261778</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.185871</v>
+        <v>0.184321</v>
       </c>
       <c r="C121" t="n">
-        <v>0.408989</v>
+        <v>0.402692</v>
       </c>
       <c r="D121" t="n">
-        <v>0.449229</v>
+        <v>0.462597</v>
       </c>
       <c r="E121" t="n">
-        <v>0.150303</v>
+        <v>0.151042</v>
       </c>
       <c r="F121" t="n">
-        <v>0.255238</v>
+        <v>0.25835</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176978</v>
+        <v>0.175629</v>
       </c>
       <c r="C122" t="n">
-        <v>0.372141</v>
+        <v>0.404795</v>
       </c>
       <c r="D122" t="n">
-        <v>0.451569</v>
+        <v>0.457233</v>
       </c>
       <c r="E122" t="n">
-        <v>0.146098</v>
+        <v>0.147045</v>
       </c>
       <c r="F122" t="n">
-        <v>0.257301</v>
+        <v>0.255006</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.166284</v>
+        <v>0.165185</v>
       </c>
       <c r="C123" t="n">
-        <v>0.359937</v>
+        <v>0.405977</v>
       </c>
       <c r="D123" t="n">
-        <v>0.435979</v>
+        <v>0.447882</v>
       </c>
       <c r="E123" t="n">
-        <v>0.19666</v>
+        <v>0.193429</v>
       </c>
       <c r="F123" t="n">
-        <v>0.300533</v>
+        <v>0.295611</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.24889</v>
+        <v>0.247755</v>
       </c>
       <c r="C124" t="n">
-        <v>0.539427</v>
+        <v>0.386975</v>
       </c>
       <c r="D124" t="n">
-        <v>0.438591</v>
+        <v>0.444058</v>
       </c>
       <c r="E124" t="n">
-        <v>0.191674</v>
+        <v>0.188893</v>
       </c>
       <c r="F124" t="n">
-        <v>0.297987</v>
+        <v>0.292045</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.245323</v>
+        <v>0.24366</v>
       </c>
       <c r="C125" t="n">
-        <v>0.441164</v>
+        <v>0.474846</v>
       </c>
       <c r="D125" t="n">
-        <v>0.429804</v>
+        <v>0.438629</v>
       </c>
       <c r="E125" t="n">
-        <v>0.187243</v>
+        <v>0.184147</v>
       </c>
       <c r="F125" t="n">
-        <v>0.293859</v>
+        <v>0.288481</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.241091</v>
+        <v>0.238402</v>
       </c>
       <c r="C126" t="n">
-        <v>0.461377</v>
+        <v>0.446525</v>
       </c>
       <c r="D126" t="n">
-        <v>0.424573</v>
+        <v>0.435907</v>
       </c>
       <c r="E126" t="n">
-        <v>0.182531</v>
+        <v>0.179499</v>
       </c>
       <c r="F126" t="n">
-        <v>0.290768</v>
+        <v>0.286273</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.236334</v>
+        <v>0.233722</v>
       </c>
       <c r="C127" t="n">
-        <v>0.469359</v>
+        <v>0.385109</v>
       </c>
       <c r="D127" t="n">
-        <v>0.420542</v>
+        <v>0.430929</v>
       </c>
       <c r="E127" t="n">
-        <v>0.178609</v>
+        <v>0.175836</v>
       </c>
       <c r="F127" t="n">
-        <v>0.285239</v>
+        <v>0.282902</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.231184</v>
+        <v>0.228606</v>
       </c>
       <c r="C128" t="n">
-        <v>0.437576</v>
+        <v>0.467666</v>
       </c>
       <c r="D128" t="n">
-        <v>0.41813</v>
+        <v>0.426626</v>
       </c>
       <c r="E128" t="n">
-        <v>0.174498</v>
+        <v>0.17235</v>
       </c>
       <c r="F128" t="n">
-        <v>0.280633</v>
+        <v>0.279802</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224828</v>
+        <v>0.22343</v>
       </c>
       <c r="C129" t="n">
-        <v>0.38182</v>
+        <v>0.419491</v>
       </c>
       <c r="D129" t="n">
-        <v>0.410045</v>
+        <v>0.420263</v>
       </c>
       <c r="E129" t="n">
-        <v>0.170676</v>
+        <v>0.16865</v>
       </c>
       <c r="F129" t="n">
-        <v>0.28061</v>
+        <v>0.276424</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.219673</v>
+        <v>0.217903</v>
       </c>
       <c r="C130" t="n">
-        <v>0.420939</v>
+        <v>0.435198</v>
       </c>
       <c r="D130" t="n">
-        <v>0.408085</v>
+        <v>0.413732</v>
       </c>
       <c r="E130" t="n">
-        <v>0.166607</v>
+        <v>0.165013</v>
       </c>
       <c r="F130" t="n">
-        <v>0.275</v>
+        <v>0.274289</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.214327</v>
+        <v>0.212025</v>
       </c>
       <c r="C131" t="n">
-        <v>0.462327</v>
+        <v>0.4332</v>
       </c>
       <c r="D131" t="n">
-        <v>0.406213</v>
+        <v>0.41352</v>
       </c>
       <c r="E131" t="n">
-        <v>0.163135</v>
+        <v>0.161691</v>
       </c>
       <c r="F131" t="n">
-        <v>0.273167</v>
+        <v>0.270624</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.207979</v>
+        <v>0.206198</v>
       </c>
       <c r="C132" t="n">
-        <v>0.414962</v>
+        <v>0.345227</v>
       </c>
       <c r="D132" t="n">
-        <v>0.401107</v>
+        <v>0.409008</v>
       </c>
       <c r="E132" t="n">
-        <v>0.159993</v>
+        <v>0.158184</v>
       </c>
       <c r="F132" t="n">
-        <v>0.269635</v>
+        <v>0.268332</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.201867</v>
+        <v>0.199655</v>
       </c>
       <c r="C133" t="n">
-        <v>0.414584</v>
+        <v>0.457123</v>
       </c>
       <c r="D133" t="n">
-        <v>0.397442</v>
+        <v>0.405746</v>
       </c>
       <c r="E133" t="n">
-        <v>0.155683</v>
+        <v>0.154494</v>
       </c>
       <c r="F133" t="n">
-        <v>0.264738</v>
+        <v>0.264856</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.195326</v>
+        <v>0.192721</v>
       </c>
       <c r="C134" t="n">
-        <v>0.377752</v>
+        <v>0.403151</v>
       </c>
       <c r="D134" t="n">
-        <v>0.396186</v>
+        <v>0.40324</v>
       </c>
       <c r="E134" t="n">
-        <v>0.155025</v>
+        <v>0.155785</v>
       </c>
       <c r="F134" t="n">
-        <v>0.259014</v>
+        <v>0.262322</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.187819</v>
+        <v>0.185173</v>
       </c>
       <c r="C135" t="n">
-        <v>0.409553</v>
+        <v>0.368762</v>
       </c>
       <c r="D135" t="n">
-        <v>0.458189</v>
+        <v>0.462332</v>
       </c>
       <c r="E135" t="n">
-        <v>0.150998</v>
+        <v>0.151894</v>
       </c>
       <c r="F135" t="n">
-        <v>0.255739</v>
+        <v>0.259124</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178519</v>
+        <v>0.176419</v>
       </c>
       <c r="C136" t="n">
-        <v>0.352497</v>
+        <v>0.362663</v>
       </c>
       <c r="D136" t="n">
-        <v>0.456404</v>
+        <v>0.463178</v>
       </c>
       <c r="E136" t="n">
-        <v>0.14714</v>
+        <v>0.148196</v>
       </c>
       <c r="F136" t="n">
-        <v>0.252192</v>
+        <v>0.255742</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168071</v>
+        <v>0.166811</v>
       </c>
       <c r="C137" t="n">
-        <v>0.367631</v>
+        <v>0.398345</v>
       </c>
       <c r="D137" t="n">
-        <v>0.446097</v>
+        <v>0.454576</v>
       </c>
       <c r="E137" t="n">
-        <v>0.200702</v>
+        <v>0.197469</v>
       </c>
       <c r="F137" t="n">
-        <v>0.297018</v>
+        <v>0.297451</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.248429</v>
+        <v>0.247311</v>
       </c>
       <c r="C138" t="n">
-        <v>0.431655</v>
+        <v>0.422082</v>
       </c>
       <c r="D138" t="n">
-        <v>0.441137</v>
+        <v>0.448465</v>
       </c>
       <c r="E138" t="n">
-        <v>0.195579</v>
+        <v>0.193817</v>
       </c>
       <c r="F138" t="n">
-        <v>0.293578</v>
+        <v>0.292727</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.24548</v>
+        <v>0.243733</v>
       </c>
       <c r="C139" t="n">
-        <v>0.482563</v>
+        <v>0.477963</v>
       </c>
       <c r="D139" t="n">
-        <v>0.433612</v>
+        <v>0.442549</v>
       </c>
       <c r="E139" t="n">
-        <v>0.191147</v>
+        <v>0.189417</v>
       </c>
       <c r="F139" t="n">
-        <v>0.289922</v>
+        <v>0.290457</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.241647</v>
+        <v>0.239615</v>
       </c>
       <c r="C140" t="n">
-        <v>0.47533</v>
+        <v>0.390008</v>
       </c>
       <c r="D140" t="n">
-        <v>0.433118</v>
+        <v>0.438432</v>
       </c>
       <c r="E140" t="n">
-        <v>0.18359</v>
+        <v>0.180781</v>
       </c>
       <c r="F140" t="n">
-        <v>0.286207</v>
+        <v>0.28677</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.236119</v>
+        <v>0.234919</v>
       </c>
       <c r="C141" t="n">
-        <v>0.480513</v>
+        <v>0.435117</v>
       </c>
       <c r="D141" t="n">
-        <v>0.424263</v>
+        <v>0.432046</v>
       </c>
       <c r="E141" t="n">
-        <v>0.179351</v>
+        <v>0.176386</v>
       </c>
       <c r="F141" t="n">
-        <v>0.283994</v>
+        <v>0.283054</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.231255</v>
+        <v>0.229906</v>
       </c>
       <c r="C142" t="n">
-        <v>0.363962</v>
+        <v>0.476491</v>
       </c>
       <c r="D142" t="n">
-        <v>0.420016</v>
+        <v>0.427538</v>
       </c>
       <c r="E142" t="n">
-        <v>0.17551</v>
+        <v>0.172926</v>
       </c>
       <c r="F142" t="n">
-        <v>0.282236</v>
+        <v>0.280462</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.225975</v>
+        <v>0.224414</v>
       </c>
       <c r="C143" t="n">
-        <v>0.45304</v>
+        <v>0.477871</v>
       </c>
       <c r="D143" t="n">
-        <v>0.413943</v>
+        <v>0.423236</v>
       </c>
       <c r="E143" t="n">
-        <v>0.1714</v>
+        <v>0.169173</v>
       </c>
       <c r="F143" t="n">
-        <v>0.279066</v>
+        <v>0.277262</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.170934</v>
+        <v>0.693378</v>
       </c>
       <c r="C2" t="n">
-        <v>0.323313</v>
+        <v>1.26827</v>
       </c>
       <c r="D2" t="n">
-        <v>0.311303</v>
+        <v>0.698309</v>
       </c>
       <c r="E2" t="n">
-        <v>0.131351</v>
+        <v>0.538319</v>
       </c>
       <c r="F2" t="n">
-        <v>0.25922</v>
+        <v>1.11184</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.176473</v>
+        <v>0.620229</v>
       </c>
       <c r="C3" t="n">
-        <v>0.314402</v>
+        <v>1.18724</v>
       </c>
       <c r="D3" t="n">
-        <v>0.31269</v>
+        <v>1.15857</v>
       </c>
       <c r="E3" t="n">
-        <v>0.126218</v>
+        <v>0.517331</v>
       </c>
       <c r="F3" t="n">
-        <v>0.258919</v>
+        <v>1.06269</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.176018</v>
+        <v>0.69779</v>
       </c>
       <c r="C4" t="n">
-        <v>0.31881</v>
+        <v>0.600868</v>
       </c>
       <c r="D4" t="n">
-        <v>0.314344</v>
+        <v>1.31188</v>
       </c>
       <c r="E4" t="n">
-        <v>0.126004</v>
+        <v>0.520146</v>
       </c>
       <c r="F4" t="n">
-        <v>0.255867</v>
+        <v>1.03081</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.173112</v>
+        <v>0.554961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.313162</v>
+        <v>1.26067</v>
       </c>
       <c r="D5" t="n">
-        <v>0.315365</v>
+        <v>1.21127</v>
       </c>
       <c r="E5" t="n">
-        <v>0.121306</v>
+        <v>0.529574</v>
       </c>
       <c r="F5" t="n">
-        <v>0.257315</v>
+        <v>1.08469</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.167184</v>
+        <v>0.564509</v>
       </c>
       <c r="C6" t="n">
-        <v>0.300383</v>
+        <v>1.16947</v>
       </c>
       <c r="D6" t="n">
-        <v>0.317161</v>
+        <v>1.29734</v>
       </c>
       <c r="E6" t="n">
-        <v>0.118812</v>
+        <v>0.535909</v>
       </c>
       <c r="F6" t="n">
-        <v>0.256533</v>
+        <v>1.00351</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.161549</v>
+        <v>1.20265</v>
       </c>
       <c r="C7" t="n">
-        <v>0.29324</v>
+        <v>1.23667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.307767</v>
+        <v>0.858606</v>
       </c>
       <c r="E7" t="n">
-        <v>0.115666</v>
+        <v>0.523778</v>
       </c>
       <c r="F7" t="n">
-        <v>0.251811</v>
+        <v>1.04994</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.156357</v>
+        <v>1.0965</v>
       </c>
       <c r="C8" t="n">
-        <v>0.290938</v>
+        <v>1.26504</v>
       </c>
       <c r="D8" t="n">
-        <v>0.309627</v>
+        <v>1.18508</v>
       </c>
       <c r="E8" t="n">
-        <v>0.113611</v>
+        <v>0.490471</v>
       </c>
       <c r="F8" t="n">
-        <v>0.24922</v>
+        <v>0.980029</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148444</v>
+        <v>1.2334</v>
       </c>
       <c r="C9" t="n">
-        <v>0.285066</v>
+        <v>0.988332</v>
       </c>
       <c r="D9" t="n">
-        <v>0.309873</v>
+        <v>1.20034</v>
       </c>
       <c r="E9" t="n">
-        <v>0.184813</v>
+        <v>0.796362</v>
       </c>
       <c r="F9" t="n">
-        <v>0.28999</v>
+        <v>1.9686</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.228329</v>
+        <v>0.8723649999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.355661</v>
+        <v>1.35225</v>
       </c>
       <c r="D10" t="n">
-        <v>0.310233</v>
+        <v>1.427</v>
       </c>
       <c r="E10" t="n">
-        <v>0.179589</v>
+        <v>0.758968</v>
       </c>
       <c r="F10" t="n">
-        <v>0.288983</v>
+        <v>1.04836</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.225131</v>
+        <v>0.81777</v>
       </c>
       <c r="C11" t="n">
-        <v>0.349061</v>
+        <v>1.22008</v>
       </c>
       <c r="D11" t="n">
-        <v>0.30954</v>
+        <v>4.7452</v>
       </c>
       <c r="E11" t="n">
-        <v>0.176449</v>
+        <v>0.690378</v>
       </c>
       <c r="F11" t="n">
-        <v>0.284747</v>
+        <v>1.60883</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.222489</v>
+        <v>0.810561</v>
       </c>
       <c r="C12" t="n">
-        <v>0.347006</v>
+        <v>0.797756</v>
       </c>
       <c r="D12" t="n">
-        <v>0.311828</v>
+        <v>0.99312</v>
       </c>
       <c r="E12" t="n">
-        <v>0.174299</v>
+        <v>0.732999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.28196</v>
+        <v>1.31507</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.220297</v>
+        <v>1.46731</v>
       </c>
       <c r="C13" t="n">
-        <v>0.343362</v>
+        <v>1.36117</v>
       </c>
       <c r="D13" t="n">
-        <v>0.313441</v>
+        <v>1.27361</v>
       </c>
       <c r="E13" t="n">
-        <v>0.169415</v>
+        <v>0.682083</v>
       </c>
       <c r="F13" t="n">
-        <v>0.279538</v>
+        <v>1.12716</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216172</v>
+        <v>0.844541</v>
       </c>
       <c r="C14" t="n">
-        <v>0.338899</v>
+        <v>0.782531</v>
       </c>
       <c r="D14" t="n">
-        <v>0.31373</v>
+        <v>0.592295</v>
       </c>
       <c r="E14" t="n">
-        <v>0.166447</v>
+        <v>0.691099</v>
       </c>
       <c r="F14" t="n">
-        <v>0.277189</v>
+        <v>1.11167</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212602</v>
+        <v>0.774417</v>
       </c>
       <c r="C15" t="n">
-        <v>0.334274</v>
+        <v>1.28015</v>
       </c>
       <c r="D15" t="n">
-        <v>0.314669</v>
+        <v>1.04672</v>
       </c>
       <c r="E15" t="n">
-        <v>0.163537</v>
+        <v>0.690333</v>
       </c>
       <c r="F15" t="n">
-        <v>0.274411</v>
+        <v>1.2822</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208891</v>
+        <v>0.7598819999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.328814</v>
+        <v>2.20731</v>
       </c>
       <c r="D16" t="n">
-        <v>0.316052</v>
+        <v>1.6082</v>
       </c>
       <c r="E16" t="n">
-        <v>0.160742</v>
+        <v>0.64776</v>
       </c>
       <c r="F16" t="n">
-        <v>0.270944</v>
+        <v>1.11272</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.20439</v>
+        <v>0.7154509999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.322839</v>
+        <v>1.41835</v>
       </c>
       <c r="D17" t="n">
-        <v>0.317405</v>
+        <v>0.461589</v>
       </c>
       <c r="E17" t="n">
-        <v>0.156394</v>
+        <v>0.670807</v>
       </c>
       <c r="F17" t="n">
-        <v>0.268096</v>
+        <v>1.12914</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.19763</v>
+        <v>0.657743</v>
       </c>
       <c r="C18" t="n">
-        <v>0.321107</v>
+        <v>0.7994019999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.317754</v>
+        <v>1.24504</v>
       </c>
       <c r="E18" t="n">
-        <v>0.154185</v>
+        <v>0.659615</v>
       </c>
       <c r="F18" t="n">
-        <v>0.264989</v>
+        <v>1.3623</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.192843</v>
+        <v>1.10663</v>
       </c>
       <c r="C19" t="n">
-        <v>0.311272</v>
+        <v>1.49719</v>
       </c>
       <c r="D19" t="n">
-        <v>0.320039</v>
+        <v>0.377653</v>
       </c>
       <c r="E19" t="n">
-        <v>0.147533</v>
+        <v>0.623412</v>
       </c>
       <c r="F19" t="n">
-        <v>0.261716</v>
+        <v>1.02343</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.185927</v>
+        <v>0.744818</v>
       </c>
       <c r="C20" t="n">
-        <v>0.303959</v>
+        <v>1.53156</v>
       </c>
       <c r="D20" t="n">
-        <v>0.320592</v>
+        <v>1.44283</v>
       </c>
       <c r="E20" t="n">
-        <v>0.148475</v>
+        <v>0.614611</v>
       </c>
       <c r="F20" t="n">
-        <v>0.259887</v>
+        <v>1.25485</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.178757</v>
+        <v>0.605725</v>
       </c>
       <c r="C21" t="n">
-        <v>0.303394</v>
+        <v>1.08677</v>
       </c>
       <c r="D21" t="n">
-        <v>0.313955</v>
+        <v>0.331942</v>
       </c>
       <c r="E21" t="n">
-        <v>0.143554</v>
+        <v>0.600338</v>
       </c>
       <c r="F21" t="n">
-        <v>0.256055</v>
+        <v>1.0382</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.171284</v>
+        <v>0.588417</v>
       </c>
       <c r="C22" t="n">
-        <v>0.290557</v>
+        <v>1.28072</v>
       </c>
       <c r="D22" t="n">
-        <v>0.314769</v>
+        <v>1.3536</v>
       </c>
       <c r="E22" t="n">
-        <v>0.139421</v>
+        <v>0.568549</v>
       </c>
       <c r="F22" t="n">
-        <v>0.251439</v>
+        <v>1.15168</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.161054</v>
+        <v>0.572333</v>
       </c>
       <c r="C23" t="n">
-        <v>0.280887</v>
+        <v>0.77324</v>
       </c>
       <c r="D23" t="n">
-        <v>0.315214</v>
+        <v>0.992449</v>
       </c>
       <c r="E23" t="n">
-        <v>0.193118</v>
+        <v>0.781335</v>
       </c>
       <c r="F23" t="n">
-        <v>0.296086</v>
+        <v>1.25073</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241318</v>
+        <v>0.901677</v>
       </c>
       <c r="C24" t="n">
-        <v>0.354774</v>
+        <v>0.962188</v>
       </c>
       <c r="D24" t="n">
-        <v>0.314829</v>
+        <v>1.74422</v>
       </c>
       <c r="E24" t="n">
-        <v>0.187879</v>
+        <v>0.780035</v>
       </c>
       <c r="F24" t="n">
-        <v>0.291684</v>
+        <v>1.4727</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236869</v>
+        <v>0.837299</v>
       </c>
       <c r="C25" t="n">
-        <v>0.353236</v>
+        <v>1.59987</v>
       </c>
       <c r="D25" t="n">
-        <v>0.316547</v>
+        <v>1.58046</v>
       </c>
       <c r="E25" t="n">
-        <v>0.184479</v>
+        <v>0.7381799999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.28847</v>
+        <v>1.27549</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234499</v>
+        <v>0.60088</v>
       </c>
       <c r="C26" t="n">
-        <v>0.34824</v>
+        <v>1.16589</v>
       </c>
       <c r="D26" t="n">
-        <v>0.316768</v>
+        <v>3.35886</v>
       </c>
       <c r="E26" t="n">
-        <v>0.17925</v>
+        <v>0.788658</v>
       </c>
       <c r="F26" t="n">
-        <v>0.285519</v>
+        <v>1.3734</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230199</v>
+        <v>0.639749</v>
       </c>
       <c r="C27" t="n">
-        <v>0.343894</v>
+        <v>1.43721</v>
       </c>
       <c r="D27" t="n">
-        <v>0.316146</v>
+        <v>1.24253</v>
       </c>
       <c r="E27" t="n">
-        <v>0.179025</v>
+        <v>0.6993239999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>0.282144</v>
+        <v>2.32925</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225055</v>
+        <v>0.785252</v>
       </c>
       <c r="C28" t="n">
-        <v>0.339093</v>
+        <v>1.70713</v>
       </c>
       <c r="D28" t="n">
-        <v>0.31731</v>
+        <v>1.33283</v>
       </c>
       <c r="E28" t="n">
-        <v>0.169035</v>
+        <v>0.7358130000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>0.27897</v>
+        <v>1.24882</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.221217</v>
+        <v>0.6871080000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.33333</v>
+        <v>1.69383</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3182</v>
+        <v>1.11924</v>
       </c>
       <c r="E29" t="n">
-        <v>0.166942</v>
+        <v>0.681868</v>
       </c>
       <c r="F29" t="n">
-        <v>0.276833</v>
+        <v>1.218</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2167</v>
+        <v>1.53484</v>
       </c>
       <c r="C30" t="n">
-        <v>0.325448</v>
+        <v>1.34529</v>
       </c>
       <c r="D30" t="n">
-        <v>0.319244</v>
+        <v>1.70676</v>
       </c>
       <c r="E30" t="n">
-        <v>0.163927</v>
+        <v>0.709143</v>
       </c>
       <c r="F30" t="n">
-        <v>0.274694</v>
+        <v>1.19445</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.210747</v>
+        <v>0.6150369999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.325324</v>
+        <v>1.38294</v>
       </c>
       <c r="D31" t="n">
-        <v>0.319879</v>
+        <v>1.52664</v>
       </c>
       <c r="E31" t="n">
-        <v>0.162582</v>
+        <v>0.688532</v>
       </c>
       <c r="F31" t="n">
-        <v>0.271195</v>
+        <v>1.14988</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.204755</v>
+        <v>0.60794</v>
       </c>
       <c r="C32" t="n">
-        <v>0.323447</v>
+        <v>1.75684</v>
       </c>
       <c r="D32" t="n">
-        <v>0.321444</v>
+        <v>1.41383</v>
       </c>
       <c r="E32" t="n">
-        <v>0.159238</v>
+        <v>0.63802</v>
       </c>
       <c r="F32" t="n">
-        <v>0.268638</v>
+        <v>1.03493</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.199222</v>
+        <v>1.5311</v>
       </c>
       <c r="C33" t="n">
-        <v>0.310218</v>
+        <v>1.1632</v>
       </c>
       <c r="D33" t="n">
-        <v>0.323075</v>
+        <v>3.47933</v>
       </c>
       <c r="E33" t="n">
-        <v>0.156187</v>
+        <v>0.650907</v>
       </c>
       <c r="F33" t="n">
-        <v>0.265661</v>
+        <v>1.53545</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193032</v>
+        <v>0.533569</v>
       </c>
       <c r="C34" t="n">
-        <v>0.308229</v>
+        <v>1.25681</v>
       </c>
       <c r="D34" t="n">
-        <v>0.324433</v>
+        <v>1.24052</v>
       </c>
       <c r="E34" t="n">
-        <v>0.14774</v>
+        <v>0.635383</v>
       </c>
       <c r="F34" t="n">
-        <v>0.261913</v>
+        <v>1.09319</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186688</v>
+        <v>0.6615760000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.304738</v>
+        <v>1.47237</v>
       </c>
       <c r="D35" t="n">
-        <v>0.32448</v>
+        <v>1.61478</v>
       </c>
       <c r="E35" t="n">
-        <v>0.149007</v>
+        <v>0.585028</v>
       </c>
       <c r="F35" t="n">
-        <v>0.258439</v>
+        <v>1.1968</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.177205</v>
+        <v>0.564873</v>
       </c>
       <c r="C36" t="n">
-        <v>0.296279</v>
+        <v>1.20367</v>
       </c>
       <c r="D36" t="n">
-        <v>0.320176</v>
+        <v>1.38069</v>
       </c>
       <c r="E36" t="n">
-        <v>0.144897</v>
+        <v>0.565985</v>
       </c>
       <c r="F36" t="n">
-        <v>0.254878</v>
+        <v>1.16735</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.168288</v>
+        <v>0.538784</v>
       </c>
       <c r="C37" t="n">
-        <v>0.282901</v>
+        <v>1.10632</v>
       </c>
       <c r="D37" t="n">
-        <v>0.318893</v>
+        <v>0.975766</v>
       </c>
       <c r="E37" t="n">
-        <v>0.192009</v>
+        <v>0.874644</v>
       </c>
       <c r="F37" t="n">
-        <v>0.297068</v>
+        <v>1.41583</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246093</v>
+        <v>0.783754</v>
       </c>
       <c r="C38" t="n">
-        <v>0.355618</v>
+        <v>2.11779</v>
       </c>
       <c r="D38" t="n">
-        <v>0.31939</v>
+        <v>1.83153</v>
       </c>
       <c r="E38" t="n">
-        <v>0.187668</v>
+        <v>0.757684</v>
       </c>
       <c r="F38" t="n">
-        <v>0.293316</v>
+        <v>1.13725</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.242784</v>
+        <v>0.883467</v>
       </c>
       <c r="C39" t="n">
-        <v>0.353042</v>
+        <v>1.35872</v>
       </c>
       <c r="D39" t="n">
-        <v>0.317912</v>
+        <v>1.92027</v>
       </c>
       <c r="E39" t="n">
-        <v>0.187679</v>
+        <v>0.8282310000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>0.291482</v>
+        <v>1.6572</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.238824</v>
+        <v>0.855044</v>
       </c>
       <c r="C40" t="n">
-        <v>0.348095</v>
+        <v>1.66067</v>
       </c>
       <c r="D40" t="n">
-        <v>0.317201</v>
+        <v>1.86996</v>
       </c>
       <c r="E40" t="n">
-        <v>0.183557</v>
+        <v>0.701838</v>
       </c>
       <c r="F40" t="n">
-        <v>0.287264</v>
+        <v>1.43673</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234328</v>
+        <v>1.68051</v>
       </c>
       <c r="C41" t="n">
-        <v>0.344625</v>
+        <v>1.6832</v>
       </c>
       <c r="D41" t="n">
-        <v>0.318451</v>
+        <v>1.62418</v>
       </c>
       <c r="E41" t="n">
-        <v>0.179618</v>
+        <v>0.723708</v>
       </c>
       <c r="F41" t="n">
-        <v>0.285068</v>
+        <v>1.46577</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.230207</v>
+        <v>1.6092</v>
       </c>
       <c r="C42" t="n">
-        <v>0.340936</v>
+        <v>1.37104</v>
       </c>
       <c r="D42" t="n">
-        <v>0.320404</v>
+        <v>1.542</v>
       </c>
       <c r="E42" t="n">
-        <v>0.176546</v>
+        <v>0.710068</v>
       </c>
       <c r="F42" t="n">
-        <v>0.281645</v>
+        <v>1.42794</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.224875</v>
+        <v>0.8176330000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.335683</v>
+        <v>0.448493</v>
       </c>
       <c r="D43" t="n">
-        <v>0.321714</v>
+        <v>0.708274</v>
       </c>
       <c r="E43" t="n">
-        <v>0.172195</v>
+        <v>0.678719</v>
       </c>
       <c r="F43" t="n">
-        <v>0.278858</v>
+        <v>1.68085</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.219586</v>
+        <v>0.698839</v>
       </c>
       <c r="C44" t="n">
-        <v>0.336288</v>
+        <v>1.44203</v>
       </c>
       <c r="D44" t="n">
-        <v>0.321186</v>
+        <v>0.365047</v>
       </c>
       <c r="E44" t="n">
-        <v>0.168676</v>
+        <v>0.739767</v>
       </c>
       <c r="F44" t="n">
-        <v>0.275692</v>
+        <v>1.27902</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.2143</v>
+        <v>0.824032</v>
       </c>
       <c r="C45" t="n">
-        <v>0.333567</v>
+        <v>1.47261</v>
       </c>
       <c r="D45" t="n">
-        <v>0.321478</v>
+        <v>1.40001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.164819</v>
+        <v>0.615073</v>
       </c>
       <c r="F45" t="n">
-        <v>0.273741</v>
+        <v>1.39213</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.20922</v>
+        <v>0.723226</v>
       </c>
       <c r="C46" t="n">
-        <v>0.323267</v>
+        <v>1.73687</v>
       </c>
       <c r="D46" t="n">
-        <v>0.322683</v>
+        <v>1.59819</v>
       </c>
       <c r="E46" t="n">
-        <v>0.161888</v>
+        <v>0.625321</v>
       </c>
       <c r="F46" t="n">
-        <v>0.270641</v>
+        <v>1.44212</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.203473</v>
+        <v>1.55472</v>
       </c>
       <c r="C47" t="n">
-        <v>0.323557</v>
+        <v>2.18152</v>
       </c>
       <c r="D47" t="n">
-        <v>0.322473</v>
+        <v>1.62655</v>
       </c>
       <c r="E47" t="n">
-        <v>0.154906</v>
+        <v>0.702072</v>
       </c>
       <c r="F47" t="n">
-        <v>0.266636</v>
+        <v>1.31682</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.19682</v>
+        <v>1.48408</v>
       </c>
       <c r="C48" t="n">
-        <v>0.310237</v>
+        <v>0.43839</v>
       </c>
       <c r="D48" t="n">
-        <v>0.323827</v>
+        <v>1.30225</v>
       </c>
       <c r="E48" t="n">
-        <v>0.151966</v>
+        <v>0.667778</v>
       </c>
       <c r="F48" t="n">
-        <v>0.262843</v>
+        <v>1.35339</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189535</v>
+        <v>0.608992</v>
       </c>
       <c r="C49" t="n">
-        <v>0.308068</v>
+        <v>2.78253</v>
       </c>
       <c r="D49" t="n">
-        <v>0.327234</v>
+        <v>1.35308</v>
       </c>
       <c r="E49" t="n">
-        <v>0.147796</v>
+        <v>0.645799</v>
       </c>
       <c r="F49" t="n">
-        <v>0.259374</v>
+        <v>1.23464</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.181442</v>
+        <v>0.709328</v>
       </c>
       <c r="C50" t="n">
-        <v>0.302065</v>
+        <v>1.4217</v>
       </c>
       <c r="D50" t="n">
-        <v>0.322928</v>
+        <v>1.56032</v>
       </c>
       <c r="E50" t="n">
-        <v>0.143526</v>
+        <v>0.567491</v>
       </c>
       <c r="F50" t="n">
-        <v>0.255718</v>
+        <v>1.66483</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172609</v>
+        <v>0.55858</v>
       </c>
       <c r="C51" t="n">
-        <v>0.296204</v>
+        <v>1.83672</v>
       </c>
       <c r="D51" t="n">
-        <v>0.323772</v>
+        <v>1.18398</v>
       </c>
       <c r="E51" t="n">
-        <v>0.197783</v>
+        <v>0.849873</v>
       </c>
       <c r="F51" t="n">
-        <v>0.299855</v>
+        <v>1.73894</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.162683</v>
+        <v>0.512916</v>
       </c>
       <c r="C52" t="n">
-        <v>0.280211</v>
+        <v>1.3905</v>
       </c>
       <c r="D52" t="n">
-        <v>0.323947</v>
+        <v>0.434183</v>
       </c>
       <c r="E52" t="n">
-        <v>0.193481</v>
+        <v>0.806236</v>
       </c>
       <c r="F52" t="n">
-        <v>0.295713</v>
+        <v>1.69671</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.245364</v>
+        <v>1.00794</v>
       </c>
       <c r="C53" t="n">
-        <v>0.357752</v>
+        <v>4.43889</v>
       </c>
       <c r="D53" t="n">
-        <v>0.323787</v>
+        <v>4.41917</v>
       </c>
       <c r="E53" t="n">
-        <v>0.190361</v>
+        <v>0.8650870000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>0.293327</v>
+        <v>1.679</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241991</v>
+        <v>0.881537</v>
       </c>
       <c r="C54" t="n">
-        <v>0.353854</v>
+        <v>4.26353</v>
       </c>
       <c r="D54" t="n">
-        <v>0.325878</v>
+        <v>4.27031</v>
       </c>
       <c r="E54" t="n">
-        <v>0.186335</v>
+        <v>0.829122</v>
       </c>
       <c r="F54" t="n">
-        <v>0.289783</v>
+        <v>1.66258</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.237335</v>
+        <v>0.826591</v>
       </c>
       <c r="C55" t="n">
-        <v>0.350201</v>
+        <v>0.919123</v>
       </c>
       <c r="D55" t="n">
-        <v>0.326606</v>
+        <v>2.63054</v>
       </c>
       <c r="E55" t="n">
-        <v>0.181565</v>
+        <v>0.716101</v>
       </c>
       <c r="F55" t="n">
-        <v>0.285743</v>
+        <v>1.52461</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.232823</v>
+        <v>0.786927</v>
       </c>
       <c r="C56" t="n">
-        <v>0.345486</v>
+        <v>1.51588</v>
       </c>
       <c r="D56" t="n">
-        <v>0.328052</v>
+        <v>1.6881</v>
       </c>
       <c r="E56" t="n">
-        <v>0.177631</v>
+        <v>0.666417</v>
       </c>
       <c r="F56" t="n">
-        <v>0.28402</v>
+        <v>1.48489</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.227841</v>
+        <v>0.859171</v>
       </c>
       <c r="C57" t="n">
-        <v>0.342269</v>
+        <v>1.67174</v>
       </c>
       <c r="D57" t="n">
-        <v>0.329074</v>
+        <v>1.75324</v>
       </c>
       <c r="E57" t="n">
-        <v>0.174178</v>
+        <v>0.78064</v>
       </c>
       <c r="F57" t="n">
-        <v>0.280299</v>
+        <v>1.43047</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.222873</v>
+        <v>1.80861</v>
       </c>
       <c r="C58" t="n">
-        <v>0.356742</v>
+        <v>1.59271</v>
       </c>
       <c r="D58" t="n">
-        <v>0.332782</v>
+        <v>1.3702</v>
       </c>
       <c r="E58" t="n">
-        <v>0.171755</v>
+        <v>0.695373</v>
       </c>
       <c r="F58" t="n">
-        <v>0.277577</v>
+        <v>1.4729</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.216808</v>
+        <v>1.72588</v>
       </c>
       <c r="C59" t="n">
-        <v>0.333303</v>
+        <v>1.32203</v>
       </c>
       <c r="D59" t="n">
-        <v>0.332745</v>
+        <v>1.21911</v>
       </c>
       <c r="E59" t="n">
-        <v>0.167307</v>
+        <v>0.672225</v>
       </c>
       <c r="F59" t="n">
-        <v>0.273903</v>
+        <v>3.29387</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.211517</v>
+        <v>1.64904</v>
       </c>
       <c r="C60" t="n">
-        <v>0.332035</v>
+        <v>0.743397</v>
       </c>
       <c r="D60" t="n">
-        <v>0.333851</v>
+        <v>3.27447</v>
       </c>
       <c r="E60" t="n">
-        <v>0.16361</v>
+        <v>0.740473</v>
       </c>
       <c r="F60" t="n">
-        <v>0.27102</v>
+        <v>3.13669</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.205942</v>
+        <v>1.57535</v>
       </c>
       <c r="C61" t="n">
-        <v>0.344144</v>
+        <v>3.14726</v>
       </c>
       <c r="D61" t="n">
-        <v>0.33977</v>
+        <v>3.13721</v>
       </c>
       <c r="E61" t="n">
-        <v>0.160779</v>
+        <v>0.709907</v>
       </c>
       <c r="F61" t="n">
-        <v>0.268379</v>
+        <v>1.07922</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.197935</v>
+        <v>1.50313</v>
       </c>
       <c r="C62" t="n">
-        <v>0.316285</v>
+        <v>2.89868</v>
       </c>
       <c r="D62" t="n">
-        <v>0.340942</v>
+        <v>1.76256</v>
       </c>
       <c r="E62" t="n">
-        <v>0.157198</v>
+        <v>0.601587</v>
       </c>
       <c r="F62" t="n">
-        <v>0.264925</v>
+        <v>1.1729</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190806</v>
+        <v>0.52298</v>
       </c>
       <c r="C63" t="n">
-        <v>0.339198</v>
+        <v>1.74799</v>
       </c>
       <c r="D63" t="n">
-        <v>0.344099</v>
+        <v>1.62965</v>
       </c>
       <c r="E63" t="n">
-        <v>0.153737</v>
+        <v>0.6655450000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>0.26227</v>
+        <v>1.46608</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.18335</v>
+        <v>0.584597</v>
       </c>
       <c r="C64" t="n">
-        <v>0.316517</v>
+        <v>1.47904</v>
       </c>
       <c r="D64" t="n">
-        <v>0.380934</v>
+        <v>2.83386</v>
       </c>
       <c r="E64" t="n">
-        <v>0.150079</v>
+        <v>0.677357</v>
       </c>
       <c r="F64" t="n">
-        <v>0.258956</v>
+        <v>1.14561</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.175448</v>
+        <v>0.447675</v>
       </c>
       <c r="C65" t="n">
-        <v>0.326984</v>
+        <v>1.35469</v>
       </c>
       <c r="D65" t="n">
-        <v>0.384027</v>
+        <v>2.04513</v>
       </c>
       <c r="E65" t="n">
-        <v>0.141622</v>
+        <v>0.6518659999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>0.255307</v>
+        <v>0.966773</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.165493</v>
+        <v>0.55958</v>
       </c>
       <c r="C66" t="n">
-        <v>0.306986</v>
+        <v>2.21228</v>
       </c>
       <c r="D66" t="n">
-        <v>0.383931</v>
+        <v>2.0069</v>
       </c>
       <c r="E66" t="n">
-        <v>0.19852</v>
+        <v>0.746746</v>
       </c>
       <c r="F66" t="n">
-        <v>0.297571</v>
+        <v>1.29109</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.246449</v>
+        <v>0.962552</v>
       </c>
       <c r="C67" t="n">
-        <v>0.39069</v>
+        <v>1.86213</v>
       </c>
       <c r="D67" t="n">
-        <v>0.383362</v>
+        <v>2.1417</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1988</v>
+        <v>0.8143</v>
       </c>
       <c r="F67" t="n">
-        <v>0.294235</v>
+        <v>1.27431</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.242182</v>
+        <v>0.9704469999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.384685</v>
+        <v>2.0084</v>
       </c>
       <c r="D68" t="n">
-        <v>0.38472</v>
+        <v>1.77616</v>
       </c>
       <c r="E68" t="n">
-        <v>0.190294</v>
+        <v>0.8130309999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>0.291441</v>
+        <v>1.11221</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.239343</v>
+        <v>0.943093</v>
       </c>
       <c r="C69" t="n">
-        <v>0.381631</v>
+        <v>1.84688</v>
       </c>
       <c r="D69" t="n">
-        <v>0.385888</v>
+        <v>1.92183</v>
       </c>
       <c r="E69" t="n">
-        <v>0.185514</v>
+        <v>0.8873529999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>0.288136</v>
+        <v>1.04069</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.234683</v>
+        <v>0.948223</v>
       </c>
       <c r="C70" t="n">
-        <v>0.378102</v>
+        <v>1.6929</v>
       </c>
       <c r="D70" t="n">
-        <v>0.387025</v>
+        <v>2.02405</v>
       </c>
       <c r="E70" t="n">
-        <v>0.181444</v>
+        <v>0.699868</v>
       </c>
       <c r="F70" t="n">
-        <v>0.285461</v>
+        <v>2.05288</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.228655</v>
+        <v>1.00666</v>
       </c>
       <c r="C71" t="n">
-        <v>0.373056</v>
+        <v>1.73253</v>
       </c>
       <c r="D71" t="n">
-        <v>0.387348</v>
+        <v>2.11765</v>
       </c>
       <c r="E71" t="n">
-        <v>0.172665</v>
+        <v>0.754999</v>
       </c>
       <c r="F71" t="n">
-        <v>0.280881</v>
+        <v>1.32568</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.223567</v>
+        <v>1.82797</v>
       </c>
       <c r="C72" t="n">
-        <v>0.358905</v>
+        <v>1.96585</v>
       </c>
       <c r="D72" t="n">
-        <v>0.386364</v>
+        <v>1.96875</v>
       </c>
       <c r="E72" t="n">
-        <v>0.168469</v>
+        <v>0.658362</v>
       </c>
       <c r="F72" t="n">
-        <v>0.278313</v>
+        <v>1.1775</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.219239</v>
+        <v>1.74793</v>
       </c>
       <c r="C73" t="n">
-        <v>0.443466</v>
+        <v>1.88412</v>
       </c>
       <c r="D73" t="n">
-        <v>0.387846</v>
+        <v>1.9598</v>
       </c>
       <c r="E73" t="n">
-        <v>0.16444</v>
+        <v>0.6738</v>
       </c>
       <c r="F73" t="n">
-        <v>0.275861</v>
+        <v>0.985988</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.213805</v>
+        <v>0.524123</v>
       </c>
       <c r="C74" t="n">
-        <v>0.430156</v>
+        <v>1.8563</v>
       </c>
       <c r="D74" t="n">
-        <v>0.39034</v>
+        <v>1.75961</v>
       </c>
       <c r="E74" t="n">
-        <v>0.165606</v>
+        <v>0.663391</v>
       </c>
       <c r="F74" t="n">
-        <v>0.272354</v>
+        <v>1.66662</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.20765</v>
+        <v>1.59376</v>
       </c>
       <c r="C75" t="n">
-        <v>0.457656</v>
+        <v>1.84773</v>
       </c>
       <c r="D75" t="n">
-        <v>0.390229</v>
+        <v>1.69503</v>
       </c>
       <c r="E75" t="n">
-        <v>0.158076</v>
+        <v>0.690035</v>
       </c>
       <c r="F75" t="n">
-        <v>0.268554</v>
+        <v>1.16848</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.201314</v>
+        <v>0.69451</v>
       </c>
       <c r="C76" t="n">
-        <v>0.449209</v>
+        <v>1.88346</v>
       </c>
       <c r="D76" t="n">
-        <v>0.389575</v>
+        <v>1.68631</v>
       </c>
       <c r="E76" t="n">
-        <v>0.159046</v>
+        <v>0.66126</v>
       </c>
       <c r="F76" t="n">
-        <v>0.265847</v>
+        <v>1.1188</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.193836</v>
+        <v>0.607776</v>
       </c>
       <c r="C77" t="n">
-        <v>0.426322</v>
+        <v>1.79581</v>
       </c>
       <c r="D77" t="n">
-        <v>0.389402</v>
+        <v>1.67866</v>
       </c>
       <c r="E77" t="n">
-        <v>0.155254</v>
+        <v>0.786208</v>
       </c>
       <c r="F77" t="n">
-        <v>0.263052</v>
+        <v>1.15208</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.185959</v>
+        <v>0.682595</v>
       </c>
       <c r="C78" t="n">
-        <v>0.389609</v>
+        <v>1.58844</v>
       </c>
       <c r="D78" t="n">
-        <v>0.449981</v>
+        <v>1.69376</v>
       </c>
       <c r="E78" t="n">
-        <v>0.152194</v>
+        <v>0.751623</v>
       </c>
       <c r="F78" t="n">
-        <v>0.259954</v>
+        <v>1.15217</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178401</v>
+        <v>0.702156</v>
       </c>
       <c r="C79" t="n">
-        <v>0.407438</v>
+        <v>1.70532</v>
       </c>
       <c r="D79" t="n">
-        <v>0.444406</v>
+        <v>1.93944</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1433</v>
+        <v>0.720186</v>
       </c>
       <c r="F79" t="n">
-        <v>0.256067</v>
+        <v>1.11983</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.167906</v>
+        <v>0.631319</v>
       </c>
       <c r="C80" t="n">
-        <v>0.427509</v>
+        <v>1.69868</v>
       </c>
       <c r="D80" t="n">
-        <v>0.442706</v>
+        <v>1.75264</v>
       </c>
       <c r="E80" t="n">
-        <v>0.195723</v>
+        <v>0.803708</v>
       </c>
       <c r="F80" t="n">
-        <v>0.297066</v>
+        <v>1.27765</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.247886</v>
+        <v>0.9857050000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.377614</v>
+        <v>1.43965</v>
       </c>
       <c r="D81" t="n">
-        <v>0.435612</v>
+        <v>1.75976</v>
       </c>
       <c r="E81" t="n">
-        <v>0.19183</v>
+        <v>0.796116</v>
       </c>
       <c r="F81" t="n">
-        <v>0.293661</v>
+        <v>1.18425</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.244049</v>
+        <v>0.972465</v>
       </c>
       <c r="C82" t="n">
-        <v>0.374639</v>
+        <v>1.36073</v>
       </c>
       <c r="D82" t="n">
-        <v>0.431778</v>
+        <v>1.77979</v>
       </c>
       <c r="E82" t="n">
-        <v>0.190479</v>
+        <v>0.788627</v>
       </c>
       <c r="F82" t="n">
-        <v>0.291179</v>
+        <v>1.19424</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.239779</v>
+        <v>0.952147</v>
       </c>
       <c r="C83" t="n">
-        <v>0.370451</v>
+        <v>1.60822</v>
       </c>
       <c r="D83" t="n">
-        <v>0.428299</v>
+        <v>1.81081</v>
       </c>
       <c r="E83" t="n">
-        <v>0.186562</v>
+        <v>0.725178</v>
       </c>
       <c r="F83" t="n">
-        <v>0.289064</v>
+        <v>1.10842</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.235026</v>
+        <v>0.912431</v>
       </c>
       <c r="C84" t="n">
-        <v>0.364716</v>
+        <v>1.40813</v>
       </c>
       <c r="D84" t="n">
-        <v>0.425835</v>
+        <v>1.79861</v>
       </c>
       <c r="E84" t="n">
-        <v>0.177794</v>
+        <v>0.752586</v>
       </c>
       <c r="F84" t="n">
-        <v>0.284577</v>
+        <v>1.17728</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.230948</v>
+        <v>0.908482</v>
       </c>
       <c r="C85" t="n">
-        <v>0.358622</v>
+        <v>1.54189</v>
       </c>
       <c r="D85" t="n">
-        <v>0.421294</v>
+        <v>1.95031</v>
       </c>
       <c r="E85" t="n">
-        <v>0.173667</v>
+        <v>0.732979</v>
       </c>
       <c r="F85" t="n">
-        <v>0.281788</v>
+        <v>1.13347</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.226394</v>
+        <v>0.88245</v>
       </c>
       <c r="C86" t="n">
-        <v>0.352676</v>
+        <v>1.37624</v>
       </c>
       <c r="D86" t="n">
-        <v>0.418301</v>
+        <v>2.06738</v>
       </c>
       <c r="E86" t="n">
-        <v>0.169947</v>
+        <v>0.721066</v>
       </c>
       <c r="F86" t="n">
-        <v>0.278596</v>
+        <v>1.13685</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.220878</v>
+        <v>0.896048</v>
       </c>
       <c r="C87" t="n">
-        <v>0.438625</v>
+        <v>1.68049</v>
       </c>
       <c r="D87" t="n">
-        <v>0.416745</v>
+        <v>1.65198</v>
       </c>
       <c r="E87" t="n">
-        <v>0.166475</v>
+        <v>0.798832</v>
       </c>
       <c r="F87" t="n">
-        <v>0.275539</v>
+        <v>1.13332</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215607</v>
+        <v>0.834331</v>
       </c>
       <c r="C88" t="n">
-        <v>0.379386</v>
+        <v>1.46256</v>
       </c>
       <c r="D88" t="n">
-        <v>0.414279</v>
+        <v>1.87757</v>
       </c>
       <c r="E88" t="n">
-        <v>0.163062</v>
+        <v>0.890003</v>
       </c>
       <c r="F88" t="n">
-        <v>0.273149</v>
+        <v>1.06275</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.208153</v>
+        <v>0.821376</v>
       </c>
       <c r="C89" t="n">
-        <v>0.425366</v>
+        <v>1.80345</v>
       </c>
       <c r="D89" t="n">
-        <v>0.410987</v>
+        <v>1.83687</v>
       </c>
       <c r="E89" t="n">
-        <v>0.158854</v>
+        <v>0.86722</v>
       </c>
       <c r="F89" t="n">
-        <v>0.269861</v>
+        <v>1.06729</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.202836</v>
+        <v>0.855294</v>
       </c>
       <c r="C90" t="n">
-        <v>0.405324</v>
+        <v>1.62966</v>
       </c>
       <c r="D90" t="n">
-        <v>0.409911</v>
+        <v>1.73908</v>
       </c>
       <c r="E90" t="n">
-        <v>0.155414</v>
+        <v>0.823234</v>
       </c>
       <c r="F90" t="n">
-        <v>0.266563</v>
+        <v>1.10336</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196737</v>
+        <v>0.818412</v>
       </c>
       <c r="C91" t="n">
-        <v>0.40682</v>
+        <v>1.6794</v>
       </c>
       <c r="D91" t="n">
-        <v>0.408141</v>
+        <v>1.69855</v>
       </c>
       <c r="E91" t="n">
-        <v>0.151552</v>
+        <v>0.787679</v>
       </c>
       <c r="F91" t="n">
-        <v>0.263514</v>
+        <v>1.53431</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189022</v>
+        <v>0.768279</v>
       </c>
       <c r="C92" t="n">
-        <v>0.354329</v>
+        <v>1.44778</v>
       </c>
       <c r="D92" t="n">
-        <v>0.460348</v>
+        <v>1.88296</v>
       </c>
       <c r="E92" t="n">
-        <v>0.148063</v>
+        <v>0.684796</v>
       </c>
       <c r="F92" t="n">
-        <v>0.260267</v>
+        <v>1.03373</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.180421</v>
+        <v>0.708595</v>
       </c>
       <c r="C93" t="n">
-        <v>0.404554</v>
+        <v>1.6875</v>
       </c>
       <c r="D93" t="n">
-        <v>0.454538</v>
+        <v>1.8724</v>
       </c>
       <c r="E93" t="n">
-        <v>0.149138</v>
+        <v>0.6618849999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>0.257061</v>
+        <v>1.0511</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.17128</v>
+        <v>0.671554</v>
       </c>
       <c r="C94" t="n">
-        <v>0.356043</v>
+        <v>1.40875</v>
       </c>
       <c r="D94" t="n">
-        <v>0.453234</v>
+        <v>1.92651</v>
       </c>
       <c r="E94" t="n">
-        <v>0.199153</v>
+        <v>0.762769</v>
       </c>
       <c r="F94" t="n">
-        <v>0.301771</v>
+        <v>1.24465</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249691</v>
+        <v>1.03324</v>
       </c>
       <c r="C95" t="n">
-        <v>0.434483</v>
+        <v>1.94139</v>
       </c>
       <c r="D95" t="n">
-        <v>0.446905</v>
+        <v>1.84105</v>
       </c>
       <c r="E95" t="n">
-        <v>0.194872</v>
+        <v>0.758499</v>
       </c>
       <c r="F95" t="n">
-        <v>0.297543</v>
+        <v>1.20971</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.245913</v>
+        <v>1.04075</v>
       </c>
       <c r="C96" t="n">
-        <v>0.466126</v>
+        <v>1.96187</v>
       </c>
       <c r="D96" t="n">
-        <v>0.437334</v>
+        <v>1.68829</v>
       </c>
       <c r="E96" t="n">
-        <v>0.189907</v>
+        <v>0.757234</v>
       </c>
       <c r="F96" t="n">
-        <v>0.291658</v>
+        <v>1.14182</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.2423</v>
+        <v>0.954578</v>
       </c>
       <c r="C97" t="n">
-        <v>0.359772</v>
+        <v>1.46068</v>
       </c>
       <c r="D97" t="n">
-        <v>0.431269</v>
+        <v>1.70501</v>
       </c>
       <c r="E97" t="n">
-        <v>0.186361</v>
+        <v>0.71219</v>
       </c>
       <c r="F97" t="n">
-        <v>0.288667</v>
+        <v>1.19388</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.237977</v>
+        <v>0.994943</v>
       </c>
       <c r="C98" t="n">
-        <v>0.355394</v>
+        <v>1.41145</v>
       </c>
       <c r="D98" t="n">
-        <v>0.427096</v>
+        <v>1.76596</v>
       </c>
       <c r="E98" t="n">
-        <v>0.182806</v>
+        <v>0.740426</v>
       </c>
       <c r="F98" t="n">
-        <v>0.286201</v>
+        <v>1.16597</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.23295</v>
+        <v>0.952585</v>
       </c>
       <c r="C99" t="n">
-        <v>0.350533</v>
+        <v>1.37941</v>
       </c>
       <c r="D99" t="n">
-        <v>0.425872</v>
+        <v>1.72217</v>
       </c>
       <c r="E99" t="n">
-        <v>0.178777</v>
+        <v>0.71095</v>
       </c>
       <c r="F99" t="n">
-        <v>0.282556</v>
+        <v>1.14193</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.227733</v>
+        <v>0.948518</v>
       </c>
       <c r="C100" t="n">
-        <v>0.345501</v>
+        <v>1.41603</v>
       </c>
       <c r="D100" t="n">
-        <v>0.41844</v>
+        <v>1.65574</v>
       </c>
       <c r="E100" t="n">
-        <v>0.176104</v>
+        <v>0.704745</v>
       </c>
       <c r="F100" t="n">
-        <v>0.280121</v>
+        <v>1.09795</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.222269</v>
+        <v>0.881933</v>
       </c>
       <c r="C101" t="n">
-        <v>0.457663</v>
+        <v>1.82459</v>
       </c>
       <c r="D101" t="n">
-        <v>0.415445</v>
+        <v>1.64124</v>
       </c>
       <c r="E101" t="n">
-        <v>0.171898</v>
+        <v>0.695546</v>
       </c>
       <c r="F101" t="n">
-        <v>0.276801</v>
+        <v>1.0728</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.216736</v>
+        <v>0.83862</v>
       </c>
       <c r="C102" t="n">
-        <v>0.486662</v>
+        <v>1.9679</v>
       </c>
       <c r="D102" t="n">
-        <v>0.41146</v>
+        <v>1.64493</v>
       </c>
       <c r="E102" t="n">
-        <v>0.163415</v>
+        <v>0.6705140000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>0.273187</v>
+        <v>1.13522</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.210691</v>
+        <v>0.900884</v>
       </c>
       <c r="C103" t="n">
-        <v>0.416419</v>
+        <v>1.77476</v>
       </c>
       <c r="D103" t="n">
-        <v>0.409119</v>
+        <v>1.68234</v>
       </c>
       <c r="E103" t="n">
-        <v>0.165524</v>
+        <v>0.748266</v>
       </c>
       <c r="F103" t="n">
-        <v>0.271316</v>
+        <v>1.08578</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204542</v>
+        <v>0.793754</v>
       </c>
       <c r="C104" t="n">
-        <v>0.407771</v>
+        <v>1.75762</v>
       </c>
       <c r="D104" t="n">
-        <v>0.405898</v>
+        <v>1.73164</v>
       </c>
       <c r="E104" t="n">
-        <v>0.161534</v>
+        <v>0.8362270000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>0.267499</v>
+        <v>0.978364</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.197826</v>
+        <v>0.781388</v>
       </c>
       <c r="C105" t="n">
-        <v>0.370705</v>
+        <v>1.52875</v>
       </c>
       <c r="D105" t="n">
-        <v>0.403235</v>
+        <v>1.69094</v>
       </c>
       <c r="E105" t="n">
-        <v>0.157902</v>
+        <v>0.640178</v>
       </c>
       <c r="F105" t="n">
-        <v>0.263508</v>
+        <v>1.06627</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.189497</v>
+        <v>0.743741</v>
       </c>
       <c r="C106" t="n">
-        <v>0.375673</v>
+        <v>1.8093</v>
       </c>
       <c r="D106" t="n">
-        <v>0.399927</v>
+        <v>1.62788</v>
       </c>
       <c r="E106" t="n">
-        <v>0.154224</v>
+        <v>0.618637</v>
       </c>
       <c r="F106" t="n">
-        <v>0.260512</v>
+        <v>1.02555</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.181955</v>
+        <v>0.7651289999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.384024</v>
+        <v>1.5528</v>
       </c>
       <c r="D107" t="n">
-        <v>0.435313</v>
+        <v>1.77314</v>
       </c>
       <c r="E107" t="n">
-        <v>0.150072</v>
+        <v>0.626618</v>
       </c>
       <c r="F107" t="n">
-        <v>0.257143</v>
+        <v>1.02358</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.172449</v>
+        <v>0.716044</v>
       </c>
       <c r="C108" t="n">
-        <v>0.378959</v>
+        <v>1.48089</v>
       </c>
       <c r="D108" t="n">
-        <v>0.426138</v>
+        <v>1.74788</v>
       </c>
       <c r="E108" t="n">
-        <v>0.200881</v>
+        <v>0.801302</v>
       </c>
       <c r="F108" t="n">
-        <v>0.299027</v>
+        <v>1.23851</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.162019</v>
+        <v>0.642954</v>
       </c>
       <c r="C109" t="n">
-        <v>0.337624</v>
+        <v>1.34367</v>
       </c>
       <c r="D109" t="n">
-        <v>0.422795</v>
+        <v>1.70383</v>
       </c>
       <c r="E109" t="n">
-        <v>0.196056</v>
+        <v>0.781107</v>
       </c>
       <c r="F109" t="n">
-        <v>0.2952</v>
+        <v>1.19548</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.245592</v>
+        <v>1.00094</v>
       </c>
       <c r="C110" t="n">
-        <v>0.46741</v>
+        <v>1.93583</v>
       </c>
       <c r="D110" t="n">
-        <v>0.419963</v>
+        <v>1.68461</v>
       </c>
       <c r="E110" t="n">
-        <v>0.191837</v>
+        <v>0.754816</v>
       </c>
       <c r="F110" t="n">
-        <v>0.291892</v>
+        <v>1.17142</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.241702</v>
+        <v>0.961265</v>
       </c>
       <c r="C111" t="n">
-        <v>0.465131</v>
+        <v>1.8235</v>
       </c>
       <c r="D111" t="n">
-        <v>0.41571</v>
+        <v>1.67696</v>
       </c>
       <c r="E111" t="n">
-        <v>0.183138</v>
+        <v>0.743134</v>
       </c>
       <c r="F111" t="n">
-        <v>0.288462</v>
+        <v>1.06674</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.237261</v>
+        <v>0.992568</v>
       </c>
       <c r="C112" t="n">
-        <v>0.460877</v>
+        <v>1.83178</v>
       </c>
       <c r="D112" t="n">
-        <v>0.411902</v>
+        <v>1.66972</v>
       </c>
       <c r="E112" t="n">
-        <v>0.179159</v>
+        <v>0.733069</v>
       </c>
       <c r="F112" t="n">
-        <v>0.285418</v>
+        <v>1.17894</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.232637</v>
+        <v>0.909676</v>
       </c>
       <c r="C113" t="n">
-        <v>0.456467</v>
+        <v>1.81044</v>
       </c>
       <c r="D113" t="n">
-        <v>0.407612</v>
+        <v>1.6182</v>
       </c>
       <c r="E113" t="n">
-        <v>0.179915</v>
+        <v>0.7215200000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>0.282507</v>
+        <v>1.15197</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.227581</v>
+        <v>0.909532</v>
       </c>
       <c r="C114" t="n">
-        <v>0.451835</v>
+        <v>1.86088</v>
       </c>
       <c r="D114" t="n">
-        <v>0.404432</v>
+        <v>1.64925</v>
       </c>
       <c r="E114" t="n">
-        <v>0.176618</v>
+        <v>0.723597</v>
       </c>
       <c r="F114" t="n">
-        <v>0.279616</v>
+        <v>1.10709</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.222378</v>
+        <v>0.891215</v>
       </c>
       <c r="C115" t="n">
-        <v>0.454133</v>
+        <v>1.81793</v>
       </c>
       <c r="D115" t="n">
-        <v>0.400778</v>
+        <v>1.65805</v>
       </c>
       <c r="E115" t="n">
-        <v>0.172453</v>
+        <v>0.699253</v>
       </c>
       <c r="F115" t="n">
-        <v>0.277855</v>
+        <v>1.09823</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217599</v>
+        <v>0.838104</v>
       </c>
       <c r="C116" t="n">
-        <v>0.464888</v>
+        <v>1.80798</v>
       </c>
       <c r="D116" t="n">
-        <v>0.398778</v>
+        <v>1.67089</v>
       </c>
       <c r="E116" t="n">
-        <v>0.16869</v>
+        <v>0.680877</v>
       </c>
       <c r="F116" t="n">
-        <v>0.273928</v>
+        <v>1.04009</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212136</v>
+        <v>0.838569</v>
       </c>
       <c r="C117" t="n">
-        <v>0.412846</v>
+        <v>1.42129</v>
       </c>
       <c r="D117" t="n">
-        <v>0.395453</v>
+        <v>1.60424</v>
       </c>
       <c r="E117" t="n">
-        <v>0.164985</v>
+        <v>0.682316</v>
       </c>
       <c r="F117" t="n">
-        <v>0.271117</v>
+        <v>1.07546</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.205965</v>
+        <v>0.80141</v>
       </c>
       <c r="C118" t="n">
-        <v>0.439257</v>
+        <v>1.80289</v>
       </c>
       <c r="D118" t="n">
-        <v>0.392768</v>
+        <v>1.58735</v>
       </c>
       <c r="E118" t="n">
-        <v>0.162277</v>
+        <v>0.673427</v>
       </c>
       <c r="F118" t="n">
-        <v>0.272852</v>
+        <v>1.03471</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.199319</v>
+        <v>0.76629</v>
       </c>
       <c r="C119" t="n">
-        <v>0.433427</v>
+        <v>1.73117</v>
       </c>
       <c r="D119" t="n">
-        <v>0.391</v>
+        <v>1.55526</v>
       </c>
       <c r="E119" t="n">
-        <v>0.158579</v>
+        <v>0.64472</v>
       </c>
       <c r="F119" t="n">
-        <v>0.26545</v>
+        <v>1.04879</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.192303</v>
+        <v>0.809594</v>
       </c>
       <c r="C120" t="n">
-        <v>0.425952</v>
+        <v>1.66268</v>
       </c>
       <c r="D120" t="n">
-        <v>0.389859</v>
+        <v>1.4734</v>
       </c>
       <c r="E120" t="n">
-        <v>0.154717</v>
+        <v>0.622129</v>
       </c>
       <c r="F120" t="n">
-        <v>0.261778</v>
+        <v>1.03648</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.184321</v>
+        <v>0.747907</v>
       </c>
       <c r="C121" t="n">
-        <v>0.402692</v>
+        <v>1.60918</v>
       </c>
       <c r="D121" t="n">
-        <v>0.462597</v>
+        <v>1.91024</v>
       </c>
       <c r="E121" t="n">
-        <v>0.151042</v>
+        <v>0.613442</v>
       </c>
       <c r="F121" t="n">
-        <v>0.25835</v>
+        <v>1.02089</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.175629</v>
+        <v>0.708498</v>
       </c>
       <c r="C122" t="n">
-        <v>0.404795</v>
+        <v>1.5884</v>
       </c>
       <c r="D122" t="n">
-        <v>0.457233</v>
+        <v>1.83628</v>
       </c>
       <c r="E122" t="n">
-        <v>0.147045</v>
+        <v>0.606883</v>
       </c>
       <c r="F122" t="n">
-        <v>0.255006</v>
+        <v>1.02605</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.165185</v>
+        <v>0.6544219999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.405977</v>
+        <v>1.60766</v>
       </c>
       <c r="D123" t="n">
-        <v>0.447882</v>
+        <v>1.78451</v>
       </c>
       <c r="E123" t="n">
-        <v>0.193429</v>
+        <v>0.772585</v>
       </c>
       <c r="F123" t="n">
-        <v>0.295611</v>
+        <v>1.20694</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.247755</v>
+        <v>0.999149</v>
       </c>
       <c r="C124" t="n">
-        <v>0.386975</v>
+        <v>1.59561</v>
       </c>
       <c r="D124" t="n">
-        <v>0.444058</v>
+        <v>1.73884</v>
       </c>
       <c r="E124" t="n">
-        <v>0.188893</v>
+        <v>0.762502</v>
       </c>
       <c r="F124" t="n">
-        <v>0.292045</v>
+        <v>1.18265</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.24366</v>
+        <v>0.969603</v>
       </c>
       <c r="C125" t="n">
-        <v>0.474846</v>
+        <v>1.92761</v>
       </c>
       <c r="D125" t="n">
-        <v>0.438629</v>
+        <v>1.77188</v>
       </c>
       <c r="E125" t="n">
-        <v>0.184147</v>
+        <v>0.750244</v>
       </c>
       <c r="F125" t="n">
-        <v>0.288481</v>
+        <v>1.13667</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.238402</v>
+        <v>0.930631</v>
       </c>
       <c r="C126" t="n">
-        <v>0.446525</v>
+        <v>1.81172</v>
       </c>
       <c r="D126" t="n">
-        <v>0.435907</v>
+        <v>1.72123</v>
       </c>
       <c r="E126" t="n">
-        <v>0.179499</v>
+        <v>0.729046</v>
       </c>
       <c r="F126" t="n">
-        <v>0.286273</v>
+        <v>1.16971</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.233722</v>
+        <v>0.912447</v>
       </c>
       <c r="C127" t="n">
-        <v>0.385109</v>
+        <v>1.58204</v>
       </c>
       <c r="D127" t="n">
-        <v>0.430929</v>
+        <v>1.70992</v>
       </c>
       <c r="E127" t="n">
-        <v>0.175836</v>
+        <v>0.714047</v>
       </c>
       <c r="F127" t="n">
-        <v>0.282902</v>
+        <v>1.16103</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.228606</v>
+        <v>0.9450539999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>0.467666</v>
+        <v>1.8635</v>
       </c>
       <c r="D128" t="n">
-        <v>0.426626</v>
+        <v>1.69755</v>
       </c>
       <c r="E128" t="n">
-        <v>0.17235</v>
+        <v>0.695551</v>
       </c>
       <c r="F128" t="n">
-        <v>0.279802</v>
+        <v>1.11627</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.22343</v>
+        <v>0.908332</v>
       </c>
       <c r="C129" t="n">
-        <v>0.419491</v>
+        <v>1.69795</v>
       </c>
       <c r="D129" t="n">
-        <v>0.420263</v>
+        <v>1.71682</v>
       </c>
       <c r="E129" t="n">
-        <v>0.16865</v>
+        <v>0.68506</v>
       </c>
       <c r="F129" t="n">
-        <v>0.276424</v>
+        <v>1.1081</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.217903</v>
+        <v>0.882006</v>
       </c>
       <c r="C130" t="n">
-        <v>0.435198</v>
+        <v>1.77053</v>
       </c>
       <c r="D130" t="n">
-        <v>0.413732</v>
+        <v>1.64816</v>
       </c>
       <c r="E130" t="n">
-        <v>0.165013</v>
+        <v>0.672589</v>
       </c>
       <c r="F130" t="n">
-        <v>0.274289</v>
+        <v>1.11184</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.212025</v>
+        <v>0.845007</v>
       </c>
       <c r="C131" t="n">
-        <v>0.4332</v>
+        <v>1.74375</v>
       </c>
       <c r="D131" t="n">
-        <v>0.41352</v>
+        <v>1.6792</v>
       </c>
       <c r="E131" t="n">
-        <v>0.161691</v>
+        <v>0.644172</v>
       </c>
       <c r="F131" t="n">
-        <v>0.270624</v>
+        <v>1.08453</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.206198</v>
+        <v>0.852044</v>
       </c>
       <c r="C132" t="n">
-        <v>0.345227</v>
+        <v>1.37782</v>
       </c>
       <c r="D132" t="n">
-        <v>0.409008</v>
+        <v>1.61389</v>
       </c>
       <c r="E132" t="n">
-        <v>0.158184</v>
+        <v>0.632568</v>
       </c>
       <c r="F132" t="n">
-        <v>0.268332</v>
+        <v>1.06891</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.199655</v>
+        <v>0.773721</v>
       </c>
       <c r="C133" t="n">
-        <v>0.457123</v>
+        <v>1.8418</v>
       </c>
       <c r="D133" t="n">
-        <v>0.405746</v>
+        <v>1.22498</v>
       </c>
       <c r="E133" t="n">
-        <v>0.154494</v>
+        <v>0.445755</v>
       </c>
       <c r="F133" t="n">
-        <v>0.264856</v>
+        <v>0.795383</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.192721</v>
+        <v>0.582179</v>
       </c>
       <c r="C134" t="n">
-        <v>0.403151</v>
+        <v>1.18293</v>
       </c>
       <c r="D134" t="n">
-        <v>0.40324</v>
+        <v>0.811911</v>
       </c>
       <c r="E134" t="n">
-        <v>0.155785</v>
+        <v>0.306037</v>
       </c>
       <c r="F134" t="n">
-        <v>0.262322</v>
+        <v>0.5221519999999999</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.185173</v>
+        <v>0.366976</v>
       </c>
       <c r="C135" t="n">
-        <v>0.368762</v>
+        <v>0.785936</v>
       </c>
       <c r="D135" t="n">
-        <v>0.462332</v>
+        <v>0.932661</v>
       </c>
       <c r="E135" t="n">
-        <v>0.151894</v>
+        <v>0.296449</v>
       </c>
       <c r="F135" t="n">
-        <v>0.259124</v>
+        <v>0.522711</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.176419</v>
+        <v>0.359599</v>
       </c>
       <c r="C136" t="n">
-        <v>0.362663</v>
+        <v>0.693988</v>
       </c>
       <c r="D136" t="n">
-        <v>0.463178</v>
+        <v>0.9218769999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>0.148196</v>
+        <v>0.295863</v>
       </c>
       <c r="F136" t="n">
-        <v>0.255742</v>
+        <v>0.516707</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.166811</v>
+        <v>0.337631</v>
       </c>
       <c r="C137" t="n">
-        <v>0.398345</v>
+        <v>0.722313</v>
       </c>
       <c r="D137" t="n">
-        <v>0.454576</v>
+        <v>0.905203</v>
       </c>
       <c r="E137" t="n">
-        <v>0.197469</v>
+        <v>0.393495</v>
       </c>
       <c r="F137" t="n">
-        <v>0.297451</v>
+        <v>0.543803</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.247311</v>
+        <v>0.247414</v>
       </c>
       <c r="C138" t="n">
-        <v>0.422082</v>
+        <v>0.554534</v>
       </c>
       <c r="D138" t="n">
-        <v>0.448465</v>
+        <v>0.449014</v>
       </c>
       <c r="E138" t="n">
-        <v>0.193817</v>
+        <v>0.188994</v>
       </c>
       <c r="F138" t="n">
-        <v>0.292727</v>
+        <v>0.293514</v>
       </c>
     </row>
     <row r="139">
@@ -7828,16 +7828,16 @@
         <v>0.243733</v>
       </c>
       <c r="C139" t="n">
-        <v>0.477963</v>
+        <v>0.477746</v>
       </c>
       <c r="D139" t="n">
-        <v>0.442549</v>
+        <v>0.442856</v>
       </c>
       <c r="E139" t="n">
-        <v>0.189417</v>
+        <v>0.189412</v>
       </c>
       <c r="F139" t="n">
-        <v>0.290457</v>
+        <v>0.290207</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.239615</v>
+        <v>0.239492</v>
       </c>
       <c r="C140" t="n">
-        <v>0.390008</v>
+        <v>0.390103</v>
       </c>
       <c r="D140" t="n">
-        <v>0.438432</v>
+        <v>0.438566</v>
       </c>
       <c r="E140" t="n">
-        <v>0.180781</v>
+        <v>0.180908</v>
       </c>
       <c r="F140" t="n">
-        <v>0.28677</v>
+        <v>0.286348</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.234919</v>
+        <v>0.234812</v>
       </c>
       <c r="C141" t="n">
-        <v>0.435117</v>
+        <v>0.435469</v>
       </c>
       <c r="D141" t="n">
-        <v>0.432046</v>
+        <v>0.432194</v>
       </c>
       <c r="E141" t="n">
-        <v>0.176386</v>
+        <v>0.176221</v>
       </c>
       <c r="F141" t="n">
-        <v>0.283054</v>
+        <v>0.283024</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.229906</v>
+        <v>0.229563</v>
       </c>
       <c r="C142" t="n">
-        <v>0.476491</v>
+        <v>0.476115</v>
       </c>
       <c r="D142" t="n">
-        <v>0.427538</v>
+        <v>0.427399</v>
       </c>
       <c r="E142" t="n">
-        <v>0.172926</v>
+        <v>0.172292</v>
       </c>
       <c r="F142" t="n">
-        <v>0.280462</v>
+        <v>0.280553</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.224414</v>
+        <v>0.224368</v>
       </c>
       <c r="C143" t="n">
-        <v>0.477871</v>
+        <v>0.478022</v>
       </c>
       <c r="D143" t="n">
-        <v>0.423236</v>
+        <v>0.422935</v>
       </c>
       <c r="E143" t="n">
-        <v>0.169173</v>
+        <v>0.168877</v>
       </c>
       <c r="F143" t="n">
-        <v>0.277262</v>
+        <v>0.277216</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Running erasure.xlsx
+++ b/clang-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.693378</v>
+        <v>0.179661</v>
       </c>
       <c r="C2" t="n">
-        <v>1.26827</v>
+        <v>0.323684</v>
       </c>
       <c r="D2" t="n">
-        <v>0.698309</v>
+        <v>0.31183</v>
       </c>
       <c r="E2" t="n">
-        <v>0.538319</v>
+        <v>0.13078</v>
       </c>
       <c r="F2" t="n">
-        <v>1.11184</v>
+        <v>0.259876</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.620229</v>
+        <v>0.182282</v>
       </c>
       <c r="C3" t="n">
-        <v>1.18724</v>
+        <v>0.315728</v>
       </c>
       <c r="D3" t="n">
-        <v>1.15857</v>
+        <v>0.313835</v>
       </c>
       <c r="E3" t="n">
-        <v>0.517331</v>
+        <v>0.129457</v>
       </c>
       <c r="F3" t="n">
-        <v>1.06269</v>
+        <v>0.25894</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.69779</v>
+        <v>0.177891</v>
       </c>
       <c r="C4" t="n">
-        <v>0.600868</v>
+        <v>0.31958</v>
       </c>
       <c r="D4" t="n">
-        <v>1.31188</v>
+        <v>0.31377</v>
       </c>
       <c r="E4" t="n">
-        <v>0.520146</v>
+        <v>0.126482</v>
       </c>
       <c r="F4" t="n">
-        <v>1.03081</v>
+        <v>0.257211</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.554961</v>
+        <v>0.1736</v>
       </c>
       <c r="C5" t="n">
-        <v>1.26067</v>
+        <v>0.312568</v>
       </c>
       <c r="D5" t="n">
-        <v>1.21127</v>
+        <v>0.315889</v>
       </c>
       <c r="E5" t="n">
-        <v>0.529574</v>
+        <v>0.130535</v>
       </c>
       <c r="F5" t="n">
-        <v>1.08469</v>
+        <v>0.256265</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.564509</v>
+        <v>0.169852</v>
       </c>
       <c r="C6" t="n">
-        <v>1.16947</v>
+        <v>0.304043</v>
       </c>
       <c r="D6" t="n">
-        <v>1.29734</v>
+        <v>0.318321</v>
       </c>
       <c r="E6" t="n">
-        <v>0.535909</v>
+        <v>0.126081</v>
       </c>
       <c r="F6" t="n">
-        <v>1.00351</v>
+        <v>0.254833</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>1.20265</v>
+        <v>0.164952</v>
       </c>
       <c r="C7" t="n">
-        <v>1.23667</v>
+        <v>0.293421</v>
       </c>
       <c r="D7" t="n">
-        <v>0.858606</v>
+        <v>0.30918</v>
       </c>
       <c r="E7" t="n">
-        <v>0.523778</v>
+        <v>0.123684</v>
       </c>
       <c r="F7" t="n">
-        <v>1.04994</v>
+        <v>0.252149</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>1.0965</v>
+        <v>0.156513</v>
       </c>
       <c r="C8" t="n">
-        <v>1.26504</v>
+        <v>0.290581</v>
       </c>
       <c r="D8" t="n">
-        <v>1.18508</v>
+        <v>0.309137</v>
       </c>
       <c r="E8" t="n">
-        <v>0.490471</v>
+        <v>0.114364</v>
       </c>
       <c r="F8" t="n">
-        <v>0.980029</v>
+        <v>0.249123</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>1.2334</v>
+        <v>0.150061</v>
       </c>
       <c r="C9" t="n">
-        <v>0.988332</v>
+        <v>0.284034</v>
       </c>
       <c r="D9" t="n">
-        <v>1.20034</v>
+        <v>0.309818</v>
       </c>
       <c r="E9" t="n">
-        <v>0.796362</v>
+        <v>0.186739</v>
       </c>
       <c r="F9" t="n">
-        <v>1.9686</v>
+        <v>0.290269</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8723649999999999</v>
+        <v>0.228725</v>
       </c>
       <c r="C10" t="n">
-        <v>1.35225</v>
+        <v>0.358168</v>
       </c>
       <c r="D10" t="n">
-        <v>1.427</v>
+        <v>0.311326</v>
       </c>
       <c r="E10" t="n">
-        <v>0.758968</v>
+        <v>0.18067</v>
       </c>
       <c r="F10" t="n">
-        <v>1.04836</v>
+        <v>0.286023</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.81777</v>
+        <v>0.226254</v>
       </c>
       <c r="C11" t="n">
-        <v>1.22008</v>
+        <v>0.35075</v>
       </c>
       <c r="D11" t="n">
-        <v>4.7452</v>
+        <v>0.311162</v>
       </c>
       <c r="E11" t="n">
-        <v>0.690378</v>
+        <v>0.178368</v>
       </c>
       <c r="F11" t="n">
-        <v>1.60883</v>
+        <v>0.28455</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.810561</v>
+        <v>0.223031</v>
       </c>
       <c r="C12" t="n">
-        <v>0.797756</v>
+        <v>0.348027</v>
       </c>
       <c r="D12" t="n">
-        <v>0.99312</v>
+        <v>0.313924</v>
       </c>
       <c r="E12" t="n">
-        <v>0.732999</v>
+        <v>0.173956</v>
       </c>
       <c r="F12" t="n">
-        <v>1.31507</v>
+        <v>0.283086</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>1.46731</v>
+        <v>0.221189</v>
       </c>
       <c r="C13" t="n">
-        <v>1.36117</v>
+        <v>0.343877</v>
       </c>
       <c r="D13" t="n">
-        <v>1.27361</v>
+        <v>0.314126</v>
       </c>
       <c r="E13" t="n">
-        <v>0.682083</v>
+        <v>0.170735</v>
       </c>
       <c r="F13" t="n">
-        <v>1.12716</v>
+        <v>0.281111</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.844541</v>
+        <v>0.217554</v>
       </c>
       <c r="C14" t="n">
-        <v>0.782531</v>
+        <v>0.340414</v>
       </c>
       <c r="D14" t="n">
-        <v>0.592295</v>
+        <v>0.314586</v>
       </c>
       <c r="E14" t="n">
-        <v>0.691099</v>
+        <v>0.167923</v>
       </c>
       <c r="F14" t="n">
-        <v>1.11167</v>
+        <v>0.278261</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.774417</v>
+        <v>0.213433</v>
       </c>
       <c r="C15" t="n">
-        <v>1.28015</v>
+        <v>0.335327</v>
       </c>
       <c r="D15" t="n">
-        <v>1.04672</v>
+        <v>0.313819</v>
       </c>
       <c r="E15" t="n">
-        <v>0.690333</v>
+        <v>0.164254</v>
       </c>
       <c r="F15" t="n">
-        <v>1.2822</v>
+        <v>0.273905</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7598819999999999</v>
+        <v>0.208224</v>
       </c>
       <c r="C16" t="n">
-        <v>2.20731</v>
+        <v>0.330511</v>
       </c>
       <c r="D16" t="n">
-        <v>1.6082</v>
+        <v>0.315887</v>
       </c>
       <c r="E16" t="n">
-        <v>0.64776</v>
+        <v>0.160761</v>
       </c>
       <c r="F16" t="n">
-        <v>1.11272</v>
+        <v>0.270944</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7154509999999999</v>
+        <v>0.204606</v>
       </c>
       <c r="C17" t="n">
-        <v>1.41835</v>
+        <v>0.321087</v>
       </c>
       <c r="D17" t="n">
-        <v>0.461589</v>
+        <v>0.317826</v>
       </c>
       <c r="E17" t="n">
-        <v>0.670807</v>
+        <v>0.156649</v>
       </c>
       <c r="F17" t="n">
-        <v>1.12914</v>
+        <v>0.268134</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.657743</v>
+        <v>0.198162</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7994019999999999</v>
+        <v>0.321731</v>
       </c>
       <c r="D18" t="n">
-        <v>1.24504</v>
+        <v>0.319169</v>
       </c>
       <c r="E18" t="n">
-        <v>0.659615</v>
+        <v>0.153778</v>
       </c>
       <c r="F18" t="n">
-        <v>1.3623</v>
+        <v>0.265352</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>1.10663</v>
+        <v>0.192911</v>
       </c>
       <c r="C19" t="n">
-        <v>1.49719</v>
+        <v>0.310231</v>
       </c>
       <c r="D19" t="n">
-        <v>0.377653</v>
+        <v>0.320354</v>
       </c>
       <c r="E19" t="n">
-        <v>0.623412</v>
+        <v>0.153937</v>
       </c>
       <c r="F19" t="n">
-        <v>1.02343</v>
+        <v>0.260954</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.744818</v>
+        <v>0.1859</v>
       </c>
       <c r="C20" t="n">
-        <v>1.53156</v>
+        <v>0.305867</v>
       </c>
       <c r="D20" t="n">
-        <v>1.44283</v>
+        <v>0.321475</v>
       </c>
       <c r="E20" t="n">
-        <v>0.614611</v>
+        <v>0.147969</v>
       </c>
       <c r="F20" t="n">
-        <v>1.25485</v>
+        <v>0.258561</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.605725</v>
+        <v>0.178699</v>
       </c>
       <c r="C21" t="n">
-        <v>1.08677</v>
+        <v>0.303784</v>
       </c>
       <c r="D21" t="n">
-        <v>0.331942</v>
+        <v>0.315596</v>
       </c>
       <c r="E21" t="n">
-        <v>0.600338</v>
+        <v>0.144264</v>
       </c>
       <c r="F21" t="n">
-        <v>1.0382</v>
+        <v>0.260211</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.588417</v>
+        <v>0.170988</v>
       </c>
       <c r="C22" t="n">
-        <v>1.28072</v>
+        <v>0.290832</v>
       </c>
       <c r="D22" t="n">
-        <v>1.3536</v>
+        <v>0.315781</v>
       </c>
       <c r="E22" t="n">
-        <v>0.568549</v>
+        <v>0.141915</v>
       </c>
       <c r="F22" t="n">
-        <v>1.15168</v>
+        <v>0.256466</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.572333</v>
+        <v>0.160647</v>
       </c>
       <c r="C23" t="n">
-        <v>0.77324</v>
+        <v>0.280109</v>
       </c>
       <c r="D23" t="n">
-        <v>0.992449</v>
+        <v>0.314765</v>
       </c>
       <c r="E23" t="n">
-        <v>0.781335</v>
+        <v>0.192839</v>
       </c>
       <c r="F23" t="n">
-        <v>1.25073</v>
+        <v>0.295976</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.901677</v>
+        <v>0.240932</v>
       </c>
       <c r="C24" t="n">
-        <v>0.962188</v>
+        <v>0.354139</v>
       </c>
       <c r="D24" t="n">
-        <v>1.74422</v>
+        <v>0.315336</v>
       </c>
       <c r="E24" t="n">
-        <v>0.780035</v>
+        <v>0.188114</v>
       </c>
       <c r="F24" t="n">
-        <v>1.4727</v>
+        <v>0.290624</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.837299</v>
+        <v>0.235829</v>
       </c>
       <c r="C25" t="n">
-        <v>1.59987</v>
+        <v>0.352216</v>
       </c>
       <c r="D25" t="n">
-        <v>1.58046</v>
+        <v>0.316566</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7381799999999999</v>
+        <v>0.18543</v>
       </c>
       <c r="F25" t="n">
-        <v>1.27549</v>
+        <v>0.289026</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.60088</v>
+        <v>0.232921</v>
       </c>
       <c r="C26" t="n">
-        <v>1.16589</v>
+        <v>0.348759</v>
       </c>
       <c r="D26" t="n">
-        <v>3.35886</v>
+        <v>0.317422</v>
       </c>
       <c r="E26" t="n">
-        <v>0.788658</v>
+        <v>0.180422</v>
       </c>
       <c r="F26" t="n">
-        <v>1.3734</v>
+        <v>0.285755</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.639749</v>
+        <v>0.228551</v>
       </c>
       <c r="C27" t="n">
-        <v>1.43721</v>
+        <v>0.344284</v>
       </c>
       <c r="D27" t="n">
-        <v>1.24253</v>
+        <v>0.317143</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6993239999999999</v>
+        <v>0.178594</v>
       </c>
       <c r="F27" t="n">
-        <v>2.32925</v>
+        <v>0.281194</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.785252</v>
+        <v>0.22421</v>
       </c>
       <c r="C28" t="n">
-        <v>1.70713</v>
+        <v>0.339551</v>
       </c>
       <c r="D28" t="n">
-        <v>1.33283</v>
+        <v>0.318048</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7358130000000001</v>
+        <v>0.17494</v>
       </c>
       <c r="F28" t="n">
-        <v>1.24882</v>
+        <v>0.278725</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6871080000000001</v>
+        <v>0.220026</v>
       </c>
       <c r="C29" t="n">
-        <v>1.69383</v>
+        <v>0.333256</v>
       </c>
       <c r="D29" t="n">
-        <v>1.11924</v>
+        <v>0.318718</v>
       </c>
       <c r="E29" t="n">
-        <v>0.681868</v>
+        <v>0.167109</v>
       </c>
       <c r="F29" t="n">
-        <v>1.218</v>
+        <v>0.276694</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.53484</v>
+        <v>0.21541</v>
       </c>
       <c r="C30" t="n">
-        <v>1.34529</v>
+        <v>0.325681</v>
       </c>
       <c r="D30" t="n">
-        <v>1.70676</v>
+        <v>0.321009</v>
       </c>
       <c r="E30" t="n">
-        <v>0.709143</v>
+        <v>0.164438</v>
       </c>
       <c r="F30" t="n">
-        <v>1.19445</v>
+        <v>0.273689</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6150369999999999</v>
+        <v>0.209817</v>
       </c>
       <c r="C31" t="n">
-        <v>1.38294</v>
+        <v>0.324787</v>
       </c>
       <c r="D31" t="n">
-        <v>1.52664</v>
+        <v>0.32044</v>
       </c>
       <c r="E31" t="n">
-        <v>0.688532</v>
+        <v>0.163447</v>
       </c>
       <c r="F31" t="n">
-        <v>1.14988</v>
+        <v>0.271116</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.60794</v>
+        <v>0.203809</v>
       </c>
       <c r="C32" t="n">
-        <v>1.75684</v>
+        <v>0.323115</v>
       </c>
       <c r="D32" t="n">
-        <v>1.41383</v>
+        <v>0.321486</v>
       </c>
       <c r="E32" t="n">
-        <v>0.63802</v>
+        <v>0.160267</v>
       </c>
       <c r="F32" t="n">
-        <v>1.03493</v>
+        <v>0.27181</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>1.5311</v>
+        <v>0.198051</v>
       </c>
       <c r="C33" t="n">
-        <v>1.1632</v>
+        <v>0.311234</v>
       </c>
       <c r="D33" t="n">
-        <v>3.47933</v>
+        <v>0.324963</v>
       </c>
       <c r="E33" t="n">
-        <v>0.650907</v>
+        <v>0.157006</v>
       </c>
       <c r="F33" t="n">
-        <v>1.53545</v>
+        <v>0.264574</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.533569</v>
+        <v>0.191442</v>
       </c>
       <c r="C34" t="n">
-        <v>1.25681</v>
+        <v>0.308298</v>
       </c>
       <c r="D34" t="n">
-        <v>1.24052</v>
+        <v>0.32496</v>
       </c>
       <c r="E34" t="n">
-        <v>0.635383</v>
+        <v>0.147744</v>
       </c>
       <c r="F34" t="n">
-        <v>1.09319</v>
+        <v>0.26201</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6615760000000001</v>
+        <v>0.185218</v>
       </c>
       <c r="C35" t="n">
-        <v>1.47237</v>
+        <v>0.304611</v>
       </c>
       <c r="D35" t="n">
-        <v>1.61478</v>
+        <v>0.320723</v>
       </c>
       <c r="E35" t="n">
-        <v>0.585028</v>
+        <v>0.14895</v>
       </c>
       <c r="F35" t="n">
-        <v>1.1968</v>
+        <v>0.258105</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.564873</v>
+        <v>0.177457</v>
       </c>
       <c r="C36" t="n">
-        <v>1.20367</v>
+        <v>0.295004</v>
       </c>
       <c r="D36" t="n">
-        <v>1.38069</v>
+        <v>0.318178</v>
       </c>
       <c r="E36" t="n">
-        <v>0.565985</v>
+        <v>0.144551</v>
       </c>
       <c r="F36" t="n">
-        <v>1.16735</v>
+        <v>0.254403</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.538784</v>
+        <v>0.167943</v>
       </c>
       <c r="C37" t="n">
-        <v>1.10632</v>
+        <v>0.283511</v>
       </c>
       <c r="D37" t="n">
-        <v>0.975766</v>
+        <v>0.318233</v>
       </c>
       <c r="E37" t="n">
-        <v>0.874644</v>
+        <v>0.198129</v>
       </c>
       <c r="F37" t="n">
-        <v>1.41583</v>
+        <v>0.295368</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.783754</v>
+        <v>0.245748</v>
       </c>
       <c r="C38" t="n">
-        <v>2.11779</v>
+        <v>0.355665</v>
       </c>
       <c r="D38" t="n">
-        <v>1.83153</v>
+        <v>0.319073</v>
       </c>
       <c r="E38" t="n">
-        <v>0.757684</v>
+        <v>0.187973</v>
       </c>
       <c r="F38" t="n">
-        <v>1.13725</v>
+        <v>0.292107</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.883467</v>
+        <v>0.242259</v>
       </c>
       <c r="C39" t="n">
-        <v>1.35872</v>
+        <v>0.353189</v>
       </c>
       <c r="D39" t="n">
-        <v>1.92027</v>
+        <v>0.318387</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8282310000000001</v>
+        <v>0.187672</v>
       </c>
       <c r="F39" t="n">
-        <v>1.6572</v>
+        <v>0.29042</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.855044</v>
+        <v>0.23863</v>
       </c>
       <c r="C40" t="n">
-        <v>1.66067</v>
+        <v>0.348524</v>
       </c>
       <c r="D40" t="n">
-        <v>1.86996</v>
+        <v>0.316975</v>
       </c>
       <c r="E40" t="n">
-        <v>0.701838</v>
+        <v>0.183683</v>
       </c>
       <c r="F40" t="n">
-        <v>1.43673</v>
+        <v>0.286254</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.68051</v>
+        <v>0.234083</v>
       </c>
       <c r="C41" t="n">
-        <v>1.6832</v>
+        <v>0.345025</v>
       </c>
       <c r="D41" t="n">
-        <v>1.62418</v>
+        <v>0.319285</v>
       </c>
       <c r="E41" t="n">
-        <v>0.723708</v>
+        <v>0.180111</v>
       </c>
       <c r="F41" t="n">
-        <v>1.46577</v>
+        <v>0.283695</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.6092</v>
+        <v>0.229828</v>
       </c>
       <c r="C42" t="n">
-        <v>1.37104</v>
+        <v>0.341131</v>
       </c>
       <c r="D42" t="n">
-        <v>1.542</v>
+        <v>0.31959</v>
       </c>
       <c r="E42" t="n">
-        <v>0.710068</v>
+        <v>0.177134</v>
       </c>
       <c r="F42" t="n">
-        <v>1.42794</v>
+        <v>0.280455</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8176330000000001</v>
+        <v>0.22484</v>
       </c>
       <c r="C43" t="n">
-        <v>0.448493</v>
+        <v>0.335414</v>
       </c>
       <c r="D43" t="n">
-        <v>0.708274</v>
+        <v>0.320859</v>
       </c>
       <c r="E43" t="n">
-        <v>0.678719</v>
+        <v>0.172472</v>
       </c>
       <c r="F43" t="n">
-        <v>1.68085</v>
+        <v>0.278387</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.698839</v>
+        <v>0.2199</v>
       </c>
       <c r="C44" t="n">
-        <v>1.44203</v>
+        <v>0.336255</v>
       </c>
       <c r="D44" t="n">
-        <v>0.365047</v>
+        <v>0.321092</v>
       </c>
       <c r="E44" t="n">
-        <v>0.739767</v>
+        <v>0.169733</v>
       </c>
       <c r="F44" t="n">
-        <v>1.27902</v>
+        <v>0.275366</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.824032</v>
+        <v>0.214484</v>
       </c>
       <c r="C45" t="n">
-        <v>1.47261</v>
+        <v>0.331412</v>
       </c>
       <c r="D45" t="n">
-        <v>1.40001</v>
+        <v>0.322259</v>
       </c>
       <c r="E45" t="n">
-        <v>0.615073</v>
+        <v>0.164976</v>
       </c>
       <c r="F45" t="n">
-        <v>1.39213</v>
+        <v>0.271857</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.723226</v>
+        <v>0.209055</v>
       </c>
       <c r="C46" t="n">
-        <v>1.73687</v>
+        <v>0.322582</v>
       </c>
       <c r="D46" t="n">
-        <v>1.59819</v>
+        <v>0.322681</v>
       </c>
       <c r="E46" t="n">
-        <v>0.625321</v>
+        <v>0.162313</v>
       </c>
       <c r="F46" t="n">
-        <v>1.44212</v>
+        <v>0.268777</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.55472</v>
+        <v>0.202242</v>
       </c>
       <c r="C47" t="n">
-        <v>2.18152</v>
+        <v>0.322685</v>
       </c>
       <c r="D47" t="n">
-        <v>1.62655</v>
+        <v>0.324033</v>
       </c>
       <c r="E47" t="n">
-        <v>0.702072</v>
+        <v>0.154939</v>
       </c>
       <c r="F47" t="n">
-        <v>1.31682</v>
+        <v>0.266277</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.48408</v>
+        <v>0.196371</v>
       </c>
       <c r="C48" t="n">
-        <v>0.43839</v>
+        <v>0.308973</v>
       </c>
       <c r="D48" t="n">
-        <v>1.30225</v>
+        <v>0.323645</v>
       </c>
       <c r="E48" t="n">
-        <v>0.667778</v>
+        <v>0.151751</v>
       </c>
       <c r="F48" t="n">
-        <v>1.35339</v>
+        <v>0.262161</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.608992</v>
+        <v>0.188993</v>
       </c>
       <c r="C49" t="n">
-        <v>2.78253</v>
+        <v>0.309357</v>
       </c>
       <c r="D49" t="n">
-        <v>1.35308</v>
+        <v>0.325001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.645799</v>
+        <v>0.147409</v>
       </c>
       <c r="F49" t="n">
-        <v>1.23464</v>
+        <v>0.259528</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.709328</v>
+        <v>0.180872</v>
       </c>
       <c r="C50" t="n">
-        <v>1.4217</v>
+        <v>0.300148</v>
       </c>
       <c r="D50" t="n">
-        <v>1.56032</v>
+        <v>0.322512</v>
       </c>
       <c r="E50" t="n">
-        <v>0.567491</v>
+        <v>0.143496</v>
       </c>
       <c r="F50" t="n">
-        <v>1.66483</v>
+        <v>0.255524</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.55858</v>
+        <v>0.171809</v>
       </c>
       <c r="C51" t="n">
-        <v>1.83672</v>
+        <v>0.293248</v>
       </c>
       <c r="D51" t="n">
-        <v>1.18398</v>
+        <v>0.32381</v>
       </c>
       <c r="E51" t="n">
-        <v>0.849873</v>
+        <v>0.198874</v>
       </c>
       <c r="F51" t="n">
-        <v>1.73894</v>
+        <v>0.297462</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.512916</v>
+        <v>0.162108</v>
       </c>
       <c r="C52" t="n">
-        <v>1.3905</v>
+        <v>0.280252</v>
       </c>
       <c r="D52" t="n">
-        <v>0.434183</v>
+        <v>0.323801</v>
       </c>
       <c r="E52" t="n">
-        <v>0.806236</v>
+        <v>0.193128</v>
       </c>
       <c r="F52" t="n">
-        <v>1.69671</v>
+        <v>0.293541</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.00794</v>
+        <v>0.244597</v>
       </c>
       <c r="C53" t="n">
-        <v>4.43889</v>
+        <v>0.35706</v>
       </c>
       <c r="D53" t="n">
-        <v>4.41917</v>
+        <v>0.322761</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8650870000000001</v>
+        <v>0.190596</v>
       </c>
       <c r="F53" t="n">
-        <v>1.679</v>
+        <v>0.291535</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.881537</v>
+        <v>0.240893</v>
       </c>
       <c r="C54" t="n">
-        <v>4.26353</v>
+        <v>0.353207</v>
       </c>
       <c r="D54" t="n">
-        <v>4.27031</v>
+        <v>0.325993</v>
       </c>
       <c r="E54" t="n">
-        <v>0.829122</v>
+        <v>0.186446</v>
       </c>
       <c r="F54" t="n">
-        <v>1.66258</v>
+        <v>0.288058</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.826591</v>
+        <v>0.236208</v>
       </c>
       <c r="C55" t="n">
-        <v>0.919123</v>
+        <v>0.350881</v>
       </c>
       <c r="D55" t="n">
-        <v>2.63054</v>
+        <v>0.326843</v>
       </c>
       <c r="E55" t="n">
-        <v>0.716101</v>
+        <v>0.182438</v>
       </c>
       <c r="F55" t="n">
-        <v>1.52461</v>
+        <v>0.284404</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.786927</v>
+        <v>0.231341</v>
       </c>
       <c r="C56" t="n">
-        <v>1.51588</v>
+        <v>0.347361</v>
       </c>
       <c r="D56" t="n">
-        <v>1.6881</v>
+        <v>0.328981</v>
       </c>
       <c r="E56" t="n">
-        <v>0.666417</v>
+        <v>0.177533</v>
       </c>
       <c r="F56" t="n">
-        <v>1.48489</v>
+        <v>0.282316</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.859171</v>
+        <v>0.227962</v>
       </c>
       <c r="C57" t="n">
-        <v>1.67174</v>
+        <v>0.342862</v>
       </c>
       <c r="D57" t="n">
-        <v>1.75324</v>
+        <v>0.328546</v>
       </c>
       <c r="E57" t="n">
-        <v>0.78064</v>
+        <v>0.174892</v>
       </c>
       <c r="F57" t="n">
-        <v>1.43047</v>
+        <v>0.279091</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.80861</v>
+        <v>0.221604</v>
       </c>
       <c r="C58" t="n">
-        <v>1.59271</v>
+        <v>0.358456</v>
       </c>
       <c r="D58" t="n">
-        <v>1.3702</v>
+        <v>0.332766</v>
       </c>
       <c r="E58" t="n">
-        <v>0.695373</v>
+        <v>0.170997</v>
       </c>
       <c r="F58" t="n">
-        <v>1.4729</v>
+        <v>0.276173</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.72588</v>
+        <v>0.215647</v>
       </c>
       <c r="C59" t="n">
-        <v>1.32203</v>
+        <v>0.332804</v>
       </c>
       <c r="D59" t="n">
-        <v>1.21911</v>
+        <v>0.332556</v>
       </c>
       <c r="E59" t="n">
-        <v>0.672225</v>
+        <v>0.16797</v>
       </c>
       <c r="F59" t="n">
-        <v>3.29387</v>
+        <v>0.273447</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.64904</v>
+        <v>0.210393</v>
       </c>
       <c r="C60" t="n">
-        <v>0.743397</v>
+        <v>0.332185</v>
       </c>
       <c r="D60" t="n">
-        <v>3.27447</v>
+        <v>0.334466</v>
       </c>
       <c r="E60" t="n">
-        <v>0.740473</v>
+        <v>0.1641</v>
       </c>
       <c r="F60" t="n">
-        <v>3.13669</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.57535</v>
+        <v>0.204826</v>
       </c>
       <c r="C61" t="n">
-        <v>3.14726</v>
+        <v>0.341409</v>
       </c>
       <c r="D61" t="n">
-        <v>3.13721</v>
+        <v>0.339422</v>
       </c>
       <c r="E61" t="n">
-        <v>0.709907</v>
+        <v>0.160587</v>
       </c>
       <c r="F61" t="n">
-        <v>1.07922</v>
+        <v>0.267203</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.50313</v>
+        <v>0.198119</v>
       </c>
       <c r="C62" t="n">
-        <v>2.89868</v>
+        <v>0.316216</v>
       </c>
       <c r="D62" t="n">
-        <v>1.76256</v>
+        <v>0.341647</v>
       </c>
       <c r="E62" t="n">
-        <v>0.601587</v>
+        <v>0.157205</v>
       </c>
       <c r="F62" t="n">
-        <v>1.1729</v>
+        <v>0.264047</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.52298</v>
+        <v>0.190957</v>
       </c>
       <c r="C63" t="n">
-        <v>1.74799</v>
+        <v>0.337868</v>
       </c>
       <c r="D63" t="n">
-        <v>1.62965</v>
+        <v>0.345202</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6655450000000001</v>
+        <v>0.153721</v>
       </c>
       <c r="F63" t="n">
-        <v>1.46608</v>
+        <v>0.261411</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.584597</v>
+        <v>0.183124</v>
       </c>
       <c r="C64" t="n">
-        <v>1.47904</v>
+        <v>0.317174</v>
       </c>
       <c r="D64" t="n">
-        <v>2.83386</v>
+        <v>0.38418</v>
       </c>
       <c r="E64" t="n">
-        <v>0.677357</v>
+        <v>0.150009</v>
       </c>
       <c r="F64" t="n">
-        <v>1.14561</v>
+        <v>0.258075</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.447675</v>
+        <v>0.175523</v>
       </c>
       <c r="C65" t="n">
-        <v>1.35469</v>
+        <v>0.329667</v>
       </c>
       <c r="D65" t="n">
-        <v>2.04513</v>
+        <v>0.389289</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6518659999999999</v>
+        <v>0.147255</v>
       </c>
       <c r="F65" t="n">
-        <v>0.966773</v>
+        <v>0.254838</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.55958</v>
+        <v>0.165256</v>
       </c>
       <c r="C66" t="n">
-        <v>2.21228</v>
+        <v>0.309618</v>
       </c>
       <c r="D66" t="n">
-        <v>2.0069</v>
+        <v>0.3901</v>
       </c>
       <c r="E66" t="n">
-        <v>0.746746</v>
+        <v>0.20146</v>
       </c>
       <c r="F66" t="n">
-        <v>1.29109</v>
+        <v>0.295744</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.962552</v>
+        <v>0.246516</v>
       </c>
       <c r="C67" t="n">
-        <v>1.86213</v>
+        <v>0.395093</v>
       </c>
       <c r="D67" t="n">
-        <v>2.1417</v>
+        <v>0.391232</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8143</v>
+        <v>0.198621</v>
       </c>
       <c r="F67" t="n">
-        <v>1.27431</v>
+        <v>0.29184</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9704469999999999</v>
+        <v>0.242356</v>
       </c>
       <c r="C68" t="n">
-        <v>2.0084</v>
+        <v>0.389951</v>
       </c>
       <c r="D68" t="n">
-        <v>1.77616</v>
+        <v>0.391778</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8130309999999999</v>
+        <v>0.191552</v>
       </c>
       <c r="F68" t="n">
-        <v>1.11221</v>
+        <v>0.289434</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.943093</v>
+        <v>0.239392</v>
       </c>
       <c r="C69" t="n">
-        <v>1.84688</v>
+        <v>0.387056</v>
       </c>
       <c r="D69" t="n">
-        <v>1.92183</v>
+        <v>0.393403</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8873529999999999</v>
+        <v>0.187273</v>
       </c>
       <c r="F69" t="n">
-        <v>1.04069</v>
+        <v>0.287376</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.948223</v>
+        <v>0.234781</v>
       </c>
       <c r="C70" t="n">
-        <v>1.6929</v>
+        <v>0.382968</v>
       </c>
       <c r="D70" t="n">
-        <v>2.02405</v>
+        <v>0.395364</v>
       </c>
       <c r="E70" t="n">
-        <v>0.699868</v>
+        <v>0.181346</v>
       </c>
       <c r="F70" t="n">
-        <v>2.05288</v>
+        <v>0.283314</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.00666</v>
+        <v>0.229988</v>
       </c>
       <c r="C71" t="n">
-        <v>1.73253</v>
+        <v>0.378173</v>
       </c>
       <c r="D71" t="n">
-        <v>2.11765</v>
+        <v>0.395935</v>
       </c>
       <c r="E71" t="n">
-        <v>0.754999</v>
+        <v>0.172645</v>
       </c>
       <c r="F71" t="n">
-        <v>1.32568</v>
+        <v>0.279561</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.82797</v>
+        <v>0.223711</v>
       </c>
       <c r="C72" t="n">
-        <v>1.96585</v>
+        <v>0.361227</v>
       </c>
       <c r="D72" t="n">
-        <v>1.96875</v>
+        <v>0.393915</v>
       </c>
       <c r="E72" t="n">
-        <v>0.658362</v>
+        <v>0.16884</v>
       </c>
       <c r="F72" t="n">
-        <v>1.1775</v>
+        <v>0.277675</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.74793</v>
+        <v>0.219237</v>
       </c>
       <c r="C73" t="n">
-        <v>1.88412</v>
+        <v>0.453828</v>
       </c>
       <c r="D73" t="n">
-        <v>1.9598</v>
+        <v>0.395594</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6738</v>
+        <v>0.164718</v>
       </c>
       <c r="F73" t="n">
-        <v>0.985988</v>
+        <v>0.274806</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.524123</v>
+        <v>0.212344</v>
       </c>
       <c r="C74" t="n">
-        <v>1.8563</v>
+        <v>0.439967</v>
       </c>
       <c r="D74" t="n">
-        <v>1.75961</v>
+        <v>0.396478</v>
       </c>
       <c r="E74" t="n">
-        <v>0.663391</v>
+        <v>0.165877</v>
       </c>
       <c r="F74" t="n">
-        <v>1.66662</v>
+        <v>0.271173</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.59376</v>
+        <v>0.206385</v>
       </c>
       <c r="C75" t="n">
-        <v>1.84773</v>
+        <v>0.446166</v>
       </c>
       <c r="D75" t="n">
-        <v>1.69503</v>
+        <v>0.39777</v>
       </c>
       <c r="E75" t="n">
-        <v>0.690035</v>
+        <v>0.164126</v>
       </c>
       <c r="F75" t="n">
-        <v>1.16848</v>
+        <v>0.267453</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.69451</v>
+        <v>0.200287</v>
       </c>
       <c r="C76" t="n">
-        <v>1.88346</v>
+        <v>0.4811</v>
       </c>
       <c r="D76" t="n">
-        <v>1.68631</v>
+        <v>0.397419</v>
       </c>
       <c r="E76" t="n">
-        <v>0.66126</v>
+        <v>0.158872</v>
       </c>
       <c r="F76" t="n">
-        <v>1.1188</v>
+        <v>0.264628</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.607776</v>
+        <v>0.193498</v>
       </c>
       <c r="C77" t="n">
-        <v>1.79581</v>
+        <v>0.46382</v>
       </c>
       <c r="D77" t="n">
-        <v>1.67866</v>
+        <v>0.395008</v>
       </c>
       <c r="E77" t="n">
-        <v>0.786208</v>
+        <v>0.155589</v>
       </c>
       <c r="F77" t="n">
-        <v>1.15208</v>
+        <v>0.262197</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.682595</v>
+        <v>0.185725</v>
       </c>
       <c r="C78" t="n">
-        <v>1.58844</v>
+        <v>0.398113</v>
       </c>
       <c r="D78" t="n">
-        <v>1.69376</v>
+        <v>0.464787</v>
       </c>
       <c r="E78" t="n">
-        <v>0.751623</v>
+        <v>0.151894</v>
       </c>
       <c r="F78" t="n">
-        <v>1.15217</v>
+ 